--- a/fb-surveyMetro.xlsx
+++ b/fb-surveyMetro.xlsx
@@ -18740,6 +18740,9 @@
       <c r="JG78">
         <v>0.6173033999999999</v>
       </c>
+      <c r="JI78">
+        <v>0.2314815</v>
+      </c>
       <c r="JK78">
         <v>0.4682876</v>
       </c>
@@ -22415,6 +22418,9 @@
       <c r="RL81">
         <v>0.4273504</v>
       </c>
+      <c r="RP81">
+        <v>0</v>
+      </c>
       <c r="RQ81">
         <v>2.354206</v>
       </c>
@@ -26728,6 +26734,9 @@
       <c r="LD85">
         <v>0.4677761</v>
       </c>
+      <c r="LE85">
+        <v>0</v>
+      </c>
       <c r="LG85">
         <v>0.3542313</v>
       </c>
@@ -26892,6 +26901,9 @@
       </c>
       <c r="QK85">
         <v>0.8843183999999999</v>
+      </c>
+      <c r="QL85">
+        <v>0.1879699</v>
       </c>
       <c r="QN85">
         <v>1.4981273</v>
@@ -29234,6 +29246,9 @@
       <c r="SX87">
         <v>0.5311705</v>
       </c>
+      <c r="SZ87">
+        <v>0.6024096</v>
+      </c>
       <c r="TA87">
         <v>0.3759398</v>
       </c>
@@ -31146,6 +31161,9 @@
       <c r="IS89">
         <v>0.9132007</v>
       </c>
+      <c r="IW89">
+        <v>2.1134021</v>
+      </c>
       <c r="IZ89">
         <v>0.9555555999999999</v>
       </c>
@@ -35333,6 +35351,9 @@
       <c r="AG93">
         <v>0.2674239</v>
       </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
       <c r="AI93">
         <v>0.1063582</v>
       </c>
@@ -36559,6 +36580,9 @@
       <c r="EA94">
         <v>0.5158534</v>
       </c>
+      <c r="EE94">
+        <v>0</v>
+      </c>
       <c r="EK94">
         <v>0.6417451</v>
       </c>
@@ -37134,6 +37158,9 @@
       </c>
       <c r="WW94">
         <v>0.5850204</v>
+      </c>
+      <c r="WX94">
+        <v>0.7105943</v>
       </c>
       <c r="WY94">
         <v>0.6233062</v>
@@ -37758,6 +37785,9 @@
       <c r="HA95">
         <v>0.4976522</v>
       </c>
+      <c r="HE95">
+        <v>0</v>
+      </c>
       <c r="HF95">
         <v>0.3181249</v>
       </c>
@@ -42848,6 +42878,9 @@
       <c r="ACX99">
         <v>0</v>
       </c>
+      <c r="ADI99">
+        <v>0.4</v>
+      </c>
       <c r="ADN99">
         <v>0.6896552</v>
       </c>
@@ -42949,6 +42982,9 @@
       </c>
       <c r="AGV99">
         <v>0.5722461</v>
+      </c>
+      <c r="AGY99">
+        <v>0</v>
       </c>
       <c r="AHA99">
         <v>0.4195523</v>
@@ -43372,6 +43408,9 @@
       <c r="KK100">
         <v>1.8134715</v>
       </c>
+      <c r="KL100">
+        <v>0</v>
+      </c>
       <c r="KO100">
         <v>0.6093992</v>
       </c>
@@ -46070,6 +46109,9 @@
       <c r="ABN102">
         <v>0.2192982</v>
       </c>
+      <c r="ABO102">
+        <v>0.739645</v>
+      </c>
       <c r="ABP102">
         <v>0.162182</v>
       </c>
@@ -47730,6 +47772,9 @@
       <c r="KC104">
         <v>0.6055988</v>
       </c>
+      <c r="KH104">
+        <v>0.6077348</v>
+      </c>
       <c r="KI104">
         <v>0.44752</v>
       </c>
@@ -48728,6 +48773,9 @@
       <c r="HF105">
         <v>0.2889706</v>
       </c>
+      <c r="HG105">
+        <v>0.130719</v>
+      </c>
       <c r="HH105">
         <v>0.2808989</v>
       </c>
@@ -49063,6 +49111,9 @@
       </c>
       <c r="SD105">
         <v>1.0676357</v>
+      </c>
+      <c r="SE105">
+        <v>0.308642</v>
       </c>
       <c r="SG105">
         <v>0.4549143</v>
@@ -51890,6 +51941,9 @@
       <c r="EN108">
         <v>0</v>
       </c>
+      <c r="EQ108">
+        <v>0</v>
+      </c>
       <c r="ER108">
         <v>1.4403292</v>
       </c>
@@ -52333,6 +52387,9 @@
       </c>
       <c r="SX108">
         <v>0.2857143</v>
+      </c>
+      <c r="TA108">
+        <v>0.2463054</v>
       </c>
       <c r="TS108">
         <v>0.1643258</v>
@@ -53140,6 +53197,9 @@
       <c r="KJ109">
         <v>0.4756276</v>
       </c>
+      <c r="KK109">
+        <v>1.0708117</v>
+      </c>
       <c r="KO109">
         <v>0.3573309</v>
       </c>
@@ -53829,6 +53889,9 @@
       </c>
       <c r="AHX109">
         <v>0.2</v>
+      </c>
+      <c r="AHY109">
+        <v>0.5128205</v>
       </c>
       <c r="AIB109">
         <v>0.7853403</v>
@@ -55082,6 +55145,9 @@
       <c r="DS111">
         <v>0.5276686</v>
       </c>
+      <c r="DU111">
+        <v>0.4261364</v>
+      </c>
       <c r="DW111">
         <v>0.2086456</v>
       </c>
@@ -55696,6 +55762,9 @@
       </c>
       <c r="YY111">
         <v>0.1478852</v>
+      </c>
+      <c r="ZD111">
+        <v>0</v>
       </c>
       <c r="ZL111">
         <v>0.3098041</v>
@@ -56113,6 +56182,9 @@
       <c r="CO112">
         <v>0</v>
       </c>
+      <c r="CQ112">
+        <v>1.8486172</v>
+      </c>
       <c r="CR112">
         <v>0.3075049</v>
       </c>
@@ -56895,6 +56967,9 @@
       </c>
       <c r="ACX112">
         <v>0.4016064</v>
+      </c>
+      <c r="ADN112">
+        <v>1.1078998</v>
       </c>
       <c r="ADP112">
         <v>0.3656324</v>
@@ -57606,6 +57681,9 @@
       <c r="RD113">
         <v>0.44377</v>
       </c>
+      <c r="RG113">
+        <v>0.6813417000000001</v>
+      </c>
       <c r="RI113">
         <v>0.462754</v>
       </c>
@@ -58244,6 +58322,9 @@
       <c r="DD114">
         <v>0.3445498</v>
       </c>
+      <c r="DE114">
+        <v>0.4195804</v>
+      </c>
       <c r="DK114">
         <v>0.6498471</v>
       </c>
@@ -58433,6 +58514,9 @@
       <c r="JX114">
         <v>0.1364516</v>
       </c>
+      <c r="KA114">
+        <v>1.0989011</v>
+      </c>
       <c r="KB114">
         <v>0.5518113</v>
       </c>
@@ -59158,6 +59242,9 @@
       </c>
       <c r="AJA114">
         <v>0.4032258</v>
+      </c>
+      <c r="AJB114">
+        <v>0.4535147</v>
       </c>
     </row>
     <row r="115" spans="1:938">
@@ -60387,6 +60474,9 @@
       <c r="FE116">
         <v>0.2837716</v>
       </c>
+      <c r="FF116">
+        <v>0.5779154</v>
+      </c>
       <c r="FG116">
         <v>0.2783063</v>
       </c>
@@ -60558,6 +60648,9 @@
       <c r="LR116">
         <v>0.7142857</v>
       </c>
+      <c r="LU116">
+        <v>1.8034041</v>
+      </c>
       <c r="LW116">
         <v>1.2328767</v>
       </c>
@@ -61244,6 +61337,9 @@
       </c>
       <c r="AIZ116">
         <v>0.4937354</v>
+      </c>
+      <c r="AJA116">
+        <v>0.4048583</v>
       </c>
     </row>
     <row r="117" spans="1:938">
@@ -61361,6 +61457,9 @@
       <c r="CR117">
         <v>0.2079938</v>
       </c>
+      <c r="CS117">
+        <v>0</v>
+      </c>
       <c r="CT117">
         <v>0.5684755</v>
       </c>
@@ -61768,6 +61867,9 @@
       </c>
       <c r="QY117">
         <v>0.1616834</v>
+      </c>
+      <c r="RA117">
+        <v>0.3952569</v>
       </c>
       <c r="RB117">
         <v>0.2752953</v>
@@ -62288,7 +62390,7 @@
         <v>0.8792966</v>
       </c>
       <c r="H118">
-        <v>0.4477263</v>
+        <v>0.4476292</v>
       </c>
       <c r="J118">
         <v>0.5830904</v>
@@ -62402,7 +62504,7 @@
         <v>0.2736089</v>
       </c>
       <c r="DC118">
-        <v>0.3716771</v>
+        <v>0.3716198</v>
       </c>
       <c r="DD118">
         <v>0.2378141</v>
@@ -62426,7 +62528,7 @@
         <v>0.1084644</v>
       </c>
       <c r="EK118">
-        <v>0.2065217</v>
+        <v>0.2064266</v>
       </c>
       <c r="EL118">
         <v>0.456985</v>
@@ -62504,7 +62606,7 @@
         <v>0.2718143</v>
       </c>
       <c r="GS118">
-        <v>0.5073953</v>
+        <v>0.5068601</v>
       </c>
       <c r="GV118">
         <v>0.166334</v>
@@ -62570,13 +62672,13 @@
         <v>0.6410256</v>
       </c>
       <c r="JB118">
-        <v>0.5417841</v>
+        <v>0.5410092</v>
       </c>
       <c r="JF118">
         <v>0.4901961</v>
       </c>
       <c r="JG118">
-        <v>0.3211276</v>
+        <v>0.320994</v>
       </c>
       <c r="JK118">
         <v>0.1901316</v>
@@ -62615,7 +62717,7 @@
         <v>0.4866456</v>
       </c>
       <c r="LD118">
-        <v>0.316102</v>
+        <v>0.3159331</v>
       </c>
       <c r="LG118">
         <v>0.4068223</v>
@@ -62639,7 +62741,7 @@
         <v>0.5811404</v>
       </c>
       <c r="MA118">
-        <v>0.2504491</v>
+        <v>0.2503769</v>
       </c>
       <c r="MC118">
         <v>0.6775068</v>
@@ -62705,7 +62807,7 @@
         <v>0.4413028</v>
       </c>
       <c r="OD118">
-        <v>0.2241559</v>
+        <v>0.2239331</v>
       </c>
       <c r="OE118">
         <v>0.2307731</v>
@@ -62756,7 +62858,7 @@
         <v>0.5614973</v>
       </c>
       <c r="PP118">
-        <v>0.534016</v>
+        <v>0.533521</v>
       </c>
       <c r="PR118">
         <v>0</v>
@@ -62837,10 +62939,10 @@
         <v>0.3734175</v>
       </c>
       <c r="SG118">
-        <v>0.4435241</v>
+        <v>0.4434777</v>
       </c>
       <c r="SH118">
-        <v>0.2458894</v>
+        <v>0.2457756</v>
       </c>
       <c r="SI118">
         <v>0.0351129</v>
@@ -62900,7 +63002,7 @@
         <v>0.5043795</v>
       </c>
       <c r="UT118">
-        <v>0.4946541</v>
+        <v>0.4941811</v>
       </c>
       <c r="UU118">
         <v>0.3191489</v>
@@ -62933,10 +63035,10 @@
         <v>0.326609</v>
       </c>
       <c r="VX118">
-        <v>0.1128032</v>
+        <v>0.1126784</v>
       </c>
       <c r="VY118">
-        <v>0.6235288</v>
+        <v>0.6232303</v>
       </c>
       <c r="WB118">
         <v>0.4900181</v>
@@ -63113,7 +63215,7 @@
         <v>0.2667358</v>
       </c>
       <c r="ABY118">
-        <v>0.3584229</v>
+        <v>0.3571429</v>
       </c>
       <c r="ABZ118">
         <v>0.1383985</v>
@@ -63122,7 +63224,7 @@
         <v>0.2478414</v>
       </c>
       <c r="ACE118">
-        <v>0.3055671</v>
+        <v>0.3055645</v>
       </c>
       <c r="ACG118">
         <v>0.1545956</v>
@@ -63143,7 +63245,7 @@
         <v>0.3233087</v>
       </c>
       <c r="ACN118">
-        <v>0.06529160000000001</v>
+        <v>0.0652407</v>
       </c>
       <c r="ACP118">
         <v>0.1279497</v>
@@ -63317,6 +63419,1035 @@
     <row r="119" spans="1:938">
       <c r="A119" t="s">
         <v>1056</v>
+      </c>
+      <c r="D119">
+        <v>0.627451</v>
+      </c>
+      <c r="H119">
+        <v>0.3339445</v>
+      </c>
+      <c r="J119">
+        <v>1.026393</v>
+      </c>
+      <c r="K119">
+        <v>0.2149983</v>
+      </c>
+      <c r="L119">
+        <v>0.2372925</v>
+      </c>
+      <c r="P119">
+        <v>0.4728038</v>
+      </c>
+      <c r="R119">
+        <v>0.7066667</v>
+      </c>
+      <c r="U119">
+        <v>0.272546</v>
+      </c>
+      <c r="X119">
+        <v>0.2096436</v>
+      </c>
+      <c r="Z119">
+        <v>0.6352995</v>
+      </c>
+      <c r="AB119">
+        <v>0.3585859</v>
+      </c>
+      <c r="AD119">
+        <v>0.6434487</v>
+      </c>
+      <c r="AG119">
+        <v>0.2006711</v>
+      </c>
+      <c r="AI119">
+        <v>0.1680556</v>
+      </c>
+      <c r="AN119">
+        <v>0.280691</v>
+      </c>
+      <c r="AV119">
+        <v>0.5589431</v>
+      </c>
+      <c r="AW119">
+        <v>0.3098501</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0.1893939</v>
+      </c>
+      <c r="BC119">
+        <v>0.2618531</v>
+      </c>
+      <c r="BF119">
+        <v>0.2456476</v>
+      </c>
+      <c r="BH119">
+        <v>0.3780071</v>
+      </c>
+      <c r="BI119">
+        <v>0.3581154</v>
+      </c>
+      <c r="BJ119">
+        <v>0.1193311</v>
+      </c>
+      <c r="BM119">
+        <v>0.0478927</v>
+      </c>
+      <c r="BR119">
+        <v>0.5489096</v>
+      </c>
+      <c r="BS119">
+        <v>0.5323955</v>
+      </c>
+      <c r="BT119">
+        <v>0.1694915</v>
+      </c>
+      <c r="BW119">
+        <v>0.2573216</v>
+      </c>
+      <c r="BY119">
+        <v>0.0933707</v>
+      </c>
+      <c r="CC119">
+        <v>0.08888890000000001</v>
+      </c>
+      <c r="CE119">
+        <v>0.1169591</v>
+      </c>
+      <c r="CL119">
+        <v>0.5016518</v>
+      </c>
+      <c r="CM119">
+        <v>0.415463</v>
+      </c>
+      <c r="CN119">
+        <v>0.3979341</v>
+      </c>
+      <c r="CO119">
+        <v>0.0625</v>
+      </c>
+      <c r="CR119">
+        <v>0.1765742</v>
+      </c>
+      <c r="CT119">
+        <v>0.2738654</v>
+      </c>
+      <c r="CY119">
+        <v>0.2753953</v>
+      </c>
+      <c r="DC119">
+        <v>0.3421242</v>
+      </c>
+      <c r="DD119">
+        <v>0.3118496</v>
+      </c>
+      <c r="DK119">
+        <v>1.0346125</v>
+      </c>
+      <c r="DN119">
+        <v>0.2938595</v>
+      </c>
+      <c r="DS119">
+        <v>0.5343997</v>
+      </c>
+      <c r="DW119">
+        <v>0.2370307</v>
+      </c>
+      <c r="DZ119">
+        <v>0.3875969</v>
+      </c>
+      <c r="EA119">
+        <v>0.0431495</v>
+      </c>
+      <c r="EK119">
+        <v>0.2236412</v>
+      </c>
+      <c r="EL119">
+        <v>0.4508972</v>
+      </c>
+      <c r="EM119">
+        <v>0.6097561</v>
+      </c>
+      <c r="EN119">
+        <v>0.414432</v>
+      </c>
+      <c r="ER119">
+        <v>0</v>
+      </c>
+      <c r="ET119">
+        <v>0.2531511</v>
+      </c>
+      <c r="EZ119">
+        <v>0.06422609999999999</v>
+      </c>
+      <c r="FA119">
+        <v>0.1883955</v>
+      </c>
+      <c r="FB119">
+        <v>0.5133923</v>
+      </c>
+      <c r="FD119">
+        <v>0.378222</v>
+      </c>
+      <c r="FE119">
+        <v>0.281201</v>
+      </c>
+      <c r="FG119">
+        <v>0.2502826</v>
+      </c>
+      <c r="FH119">
+        <v>0.2675841</v>
+      </c>
+      <c r="FI119">
+        <v>0.4627273</v>
+      </c>
+      <c r="FJ119">
+        <v>0.5190311</v>
+      </c>
+      <c r="FL119">
+        <v>0.2656913</v>
+      </c>
+      <c r="FO119">
+        <v>0</v>
+      </c>
+      <c r="FR119">
+        <v>0</v>
+      </c>
+      <c r="FS119">
+        <v>0.3039275</v>
+      </c>
+      <c r="FY119">
+        <v>0</v>
+      </c>
+      <c r="GB119">
+        <v>0.2685031</v>
+      </c>
+      <c r="GC119">
+        <v>0.5467932</v>
+      </c>
+      <c r="GD119">
+        <v>0.4653164</v>
+      </c>
+      <c r="GE119">
+        <v>0.4175153</v>
+      </c>
+      <c r="GF119">
+        <v>0.2757513</v>
+      </c>
+      <c r="GJ119">
+        <v>0.271714</v>
+      </c>
+      <c r="GS119">
+        <v>0.5004863000000001</v>
+      </c>
+      <c r="GV119">
+        <v>0.1650165</v>
+      </c>
+      <c r="HA119">
+        <v>0.3042807</v>
+      </c>
+      <c r="HF119">
+        <v>0.3195334</v>
+      </c>
+      <c r="HH119">
+        <v>1.0582011</v>
+      </c>
+      <c r="HK119">
+        <v>0.6267663999999999</v>
+      </c>
+      <c r="HL119">
+        <v>0.2237287</v>
+      </c>
+      <c r="HN119">
+        <v>0.3953937</v>
+      </c>
+      <c r="HO119">
+        <v>0.5015674</v>
+      </c>
+      <c r="HP119">
+        <v>0.3321678</v>
+      </c>
+      <c r="HT119">
+        <v>0.3107647</v>
+      </c>
+      <c r="HV119">
+        <v>0.2442596</v>
+      </c>
+      <c r="HX119">
+        <v>0.774613</v>
+      </c>
+      <c r="HY119">
+        <v>0.2277744</v>
+      </c>
+      <c r="IC119">
+        <v>0.1666667</v>
+      </c>
+      <c r="IE119">
+        <v>0.3014986</v>
+      </c>
+      <c r="IH119">
+        <v>0.2265673</v>
+      </c>
+      <c r="II119">
+        <v>0.3619839</v>
+      </c>
+      <c r="IN119">
+        <v>0.5319571</v>
+      </c>
+      <c r="IR119">
+        <v>0.1444252</v>
+      </c>
+      <c r="IS119">
+        <v>0.4746835</v>
+      </c>
+      <c r="IZ119">
+        <v>0.7550336</v>
+      </c>
+      <c r="JB119">
+        <v>0.4970624</v>
+      </c>
+      <c r="JF119">
+        <v>0.3527337</v>
+      </c>
+      <c r="JG119">
+        <v>0.2868832</v>
+      </c>
+      <c r="JK119">
+        <v>0.2435882</v>
+      </c>
+      <c r="JO119">
+        <v>0.2360502</v>
+      </c>
+      <c r="JR119">
+        <v>0.3507997</v>
+      </c>
+      <c r="JS119">
+        <v>0.8163265</v>
+      </c>
+      <c r="JX119">
+        <v>0.3041602</v>
+      </c>
+      <c r="KB119">
+        <v>0.3831399</v>
+      </c>
+      <c r="KC119">
+        <v>0.5188638</v>
+      </c>
+      <c r="KI119">
+        <v>0.1297881</v>
+      </c>
+      <c r="KJ119">
+        <v>0.4378763</v>
+      </c>
+      <c r="KO119">
+        <v>0.2052519</v>
+      </c>
+      <c r="KV119">
+        <v>0.8703393</v>
+      </c>
+      <c r="KW119">
+        <v>0.4130648</v>
+      </c>
+      <c r="LD119">
+        <v>0.3900953</v>
+      </c>
+      <c r="LG119">
+        <v>0.3974833</v>
+      </c>
+      <c r="LH119">
+        <v>0.8951407</v>
+      </c>
+      <c r="LO119">
+        <v>0.2910053</v>
+      </c>
+      <c r="LR119">
+        <v>0.3125</v>
+      </c>
+      <c r="LW119">
+        <v>1.0086455</v>
+      </c>
+      <c r="LX119">
+        <v>1.1853448</v>
+      </c>
+      <c r="LY119">
+        <v>0.5</v>
+      </c>
+      <c r="MA119">
+        <v>0.2970611</v>
+      </c>
+      <c r="MC119">
+        <v>0.6587615</v>
+      </c>
+      <c r="ME119">
+        <v>0.210084</v>
+      </c>
+      <c r="MF119">
+        <v>0.1672518</v>
+      </c>
+      <c r="MG119">
+        <v>0.56836</v>
+      </c>
+      <c r="MI119">
+        <v>0.1313905</v>
+      </c>
+      <c r="ML119">
+        <v>0.2898551</v>
+      </c>
+      <c r="MN119">
+        <v>0.251326</v>
+      </c>
+      <c r="MS119">
+        <v>0.3432231</v>
+      </c>
+      <c r="MU119">
+        <v>0.9254353</v>
+      </c>
+      <c r="MW119">
+        <v>0.5657894999999999</v>
+      </c>
+      <c r="MX119">
+        <v>0.7540983999999999</v>
+      </c>
+      <c r="MZ119">
+        <v>0.2167486</v>
+      </c>
+      <c r="NC119">
+        <v>0.4037269</v>
+      </c>
+      <c r="NE119">
+        <v>0.4311584</v>
+      </c>
+      <c r="NM119">
+        <v>0.4391197</v>
+      </c>
+      <c r="NP119">
+        <v>0.0938259</v>
+      </c>
+      <c r="NQ119">
+        <v>0.2688172</v>
+      </c>
+      <c r="NT119">
+        <v>0.4192872</v>
+      </c>
+      <c r="NW119">
+        <v>0.4605263</v>
+      </c>
+      <c r="NY119">
+        <v>0.2830189</v>
+      </c>
+      <c r="NZ119">
+        <v>0.3892093</v>
+      </c>
+      <c r="OD119">
+        <v>0.278308</v>
+      </c>
+      <c r="OE119">
+        <v>0.232145</v>
+      </c>
+      <c r="OJ119">
+        <v>0.5952381</v>
+      </c>
+      <c r="OL119">
+        <v>0.2790586</v>
+      </c>
+      <c r="ON119">
+        <v>0.4701608</v>
+      </c>
+      <c r="OP119">
+        <v>0.1972387</v>
+      </c>
+      <c r="OQ119">
+        <v>0.6801277</v>
+      </c>
+      <c r="OR119">
+        <v>0.677014</v>
+      </c>
+      <c r="OT119">
+        <v>0.5872622</v>
+      </c>
+      <c r="OV119">
+        <v>0.3645041</v>
+      </c>
+      <c r="OX119">
+        <v>0.5174978</v>
+      </c>
+      <c r="PB119">
+        <v>0.267824</v>
+      </c>
+      <c r="PG119">
+        <v>0.2652022</v>
+      </c>
+      <c r="PJ119">
+        <v>0.1230613</v>
+      </c>
+      <c r="PK119">
+        <v>0.3831418</v>
+      </c>
+      <c r="PL119">
+        <v>0.5167173</v>
+      </c>
+      <c r="PM119">
+        <v>0.6753623</v>
+      </c>
+      <c r="PP119">
+        <v>0.3932505</v>
+      </c>
+      <c r="PR119">
+        <v>0</v>
+      </c>
+      <c r="PS119">
+        <v>0.3689192</v>
+      </c>
+      <c r="PY119">
+        <v>0.2982061</v>
+      </c>
+      <c r="QD119">
+        <v>0.2252445</v>
+      </c>
+      <c r="QE119">
+        <v>0.3724404</v>
+      </c>
+      <c r="QF119">
+        <v>0.1626016</v>
+      </c>
+      <c r="QK119">
+        <v>0.3088214</v>
+      </c>
+      <c r="QN119">
+        <v>0.2260398</v>
+      </c>
+      <c r="QO119">
+        <v>0.4107532</v>
+      </c>
+      <c r="QP119">
+        <v>0.2689174</v>
+      </c>
+      <c r="QS119">
+        <v>0.2915452</v>
+      </c>
+      <c r="QU119">
+        <v>0.5208333000000001</v>
+      </c>
+      <c r="QV119">
+        <v>0.5473317</v>
+      </c>
+      <c r="QX119">
+        <v>0.3340318</v>
+      </c>
+      <c r="QY119">
+        <v>0.250206</v>
+      </c>
+      <c r="RB119">
+        <v>0.1319373</v>
+      </c>
+      <c r="RD119">
+        <v>0.1961782</v>
+      </c>
+      <c r="RI119">
+        <v>0.3579952</v>
+      </c>
+      <c r="RL119">
+        <v>0</v>
+      </c>
+      <c r="RQ119">
+        <v>0.0506329</v>
+      </c>
+      <c r="RT119">
+        <v>0.2977496</v>
+      </c>
+      <c r="RV119">
+        <v>0.4489338</v>
+      </c>
+      <c r="RX119">
+        <v>0.2278965</v>
+      </c>
+      <c r="RY119">
+        <v>0.4709623</v>
+      </c>
+      <c r="SA119">
+        <v>0</v>
+      </c>
+      <c r="SD119">
+        <v>0.2592372</v>
+      </c>
+      <c r="SG119">
+        <v>0.4607697</v>
+      </c>
+      <c r="SH119">
+        <v>0.2473178</v>
+      </c>
+      <c r="SI119">
+        <v>0.0413689</v>
+      </c>
+      <c r="SM119">
+        <v>0.313927</v>
+      </c>
+      <c r="SO119">
+        <v>0.6056521</v>
+      </c>
+      <c r="SP119">
+        <v>0.4626335</v>
+      </c>
+      <c r="SR119">
+        <v>0.2467078</v>
+      </c>
+      <c r="SW119">
+        <v>0.2903657</v>
+      </c>
+      <c r="SX119">
+        <v>0.2331002</v>
+      </c>
+      <c r="TS119">
+        <v>0.3193361</v>
+      </c>
+      <c r="TX119">
+        <v>0.3198342</v>
+      </c>
+      <c r="TY119">
+        <v>0.4429551</v>
+      </c>
+      <c r="UA119">
+        <v>0.3196772</v>
+      </c>
+      <c r="UE119">
+        <v>0.2845723</v>
+      </c>
+      <c r="UF119">
+        <v>0.3846154</v>
+      </c>
+      <c r="UH119">
+        <v>0.1625245</v>
+      </c>
+      <c r="UI119">
+        <v>0.5652535</v>
+      </c>
+      <c r="UK119">
+        <v>0.2839682</v>
+      </c>
+      <c r="UN119">
+        <v>0.3927917</v>
+      </c>
+      <c r="UP119">
+        <v>0.0631313</v>
+      </c>
+      <c r="US119">
+        <v>0.6455021</v>
+      </c>
+      <c r="UT119">
+        <v>0.4498267</v>
+      </c>
+      <c r="UU119">
+        <v>0.5506608</v>
+      </c>
+      <c r="UV119">
+        <v>0.3868912</v>
+      </c>
+      <c r="UW119">
+        <v>1.1208596</v>
+      </c>
+      <c r="VA119">
+        <v>0.07701529999999999</v>
+      </c>
+      <c r="VB119">
+        <v>0.1489362</v>
+      </c>
+      <c r="VO119">
+        <v>0.1771654</v>
+      </c>
+      <c r="VP119">
+        <v>0.2898551</v>
+      </c>
+      <c r="VS119">
+        <v>0.3969712</v>
+      </c>
+      <c r="VU119">
+        <v>0.5119133</v>
+      </c>
+      <c r="VW119">
+        <v>0.3210576</v>
+      </c>
+      <c r="VX119">
+        <v>0.2553683</v>
+      </c>
+      <c r="VY119">
+        <v>0.5756985999999999</v>
+      </c>
+      <c r="WB119">
+        <v>0.3231939</v>
+      </c>
+      <c r="WF119">
+        <v>0.363772</v>
+      </c>
+      <c r="WG119">
+        <v>0.4699735</v>
+      </c>
+      <c r="WL119">
+        <v>0.5135957</v>
+      </c>
+      <c r="WM119">
+        <v>0.07142859999999999</v>
+      </c>
+      <c r="WQ119">
+        <v>0.254502</v>
+      </c>
+      <c r="WU119">
+        <v>0.2766027</v>
+      </c>
+      <c r="WW119">
+        <v>0.2276956</v>
+      </c>
+      <c r="WY119">
+        <v>0.3362152</v>
+      </c>
+      <c r="WZ119">
+        <v>0.4282427</v>
+      </c>
+      <c r="XD119">
+        <v>0.2936273</v>
+      </c>
+      <c r="XF119">
+        <v>0.4340104</v>
+      </c>
+      <c r="XG119">
+        <v>0.5696654</v>
+      </c>
+      <c r="XL119">
+        <v>0.2818985</v>
+      </c>
+      <c r="XM119">
+        <v>0.2575785</v>
+      </c>
+      <c r="XT119">
+        <v>0.6060605999999999</v>
+      </c>
+      <c r="XV119">
+        <v>0.1681532</v>
+      </c>
+      <c r="YB119">
+        <v>0.2607494</v>
+      </c>
+      <c r="YD119">
+        <v>0.4653869</v>
+      </c>
+      <c r="YH119">
+        <v>0.4531722</v>
+      </c>
+      <c r="YN119">
+        <v>0.7333022</v>
+      </c>
+      <c r="YO119">
+        <v>0.3054039</v>
+      </c>
+      <c r="YQ119">
+        <v>0.2715856</v>
+      </c>
+      <c r="YR119">
+        <v>0.4772987</v>
+      </c>
+      <c r="YX119">
+        <v>0.2099889</v>
+      </c>
+      <c r="YY119">
+        <v>0.3076923</v>
+      </c>
+      <c r="ZL119">
+        <v>0.3322748</v>
+      </c>
+      <c r="ZM119">
+        <v>0.3308023</v>
+      </c>
+      <c r="ZO119">
+        <v>0.1954397</v>
+      </c>
+      <c r="ZR119">
+        <v>0.1810871</v>
+      </c>
+      <c r="ZS119">
+        <v>0.1760563</v>
+      </c>
+      <c r="ZV119">
+        <v>0.4351372</v>
+      </c>
+      <c r="ZW119">
+        <v>0.2076653</v>
+      </c>
+      <c r="ZX119">
+        <v>0.3917894</v>
+      </c>
+      <c r="ZZ119">
+        <v>0.2770031</v>
+      </c>
+      <c r="AAB119">
+        <v>0.4591837</v>
+      </c>
+      <c r="AAC119">
+        <v>0.3542151</v>
+      </c>
+      <c r="AAD119">
+        <v>0.7871321</v>
+      </c>
+      <c r="AAF119">
+        <v>0.4835778</v>
+      </c>
+      <c r="AAH119">
+        <v>0.9096349</v>
+      </c>
+      <c r="AAJ119">
+        <v>0.3050047</v>
+      </c>
+      <c r="AAM119">
+        <v>0.3175297</v>
+      </c>
+      <c r="AAP119">
+        <v>0.3900843</v>
+      </c>
+      <c r="AAR119">
+        <v>0.2523962</v>
+      </c>
+      <c r="AAU119">
+        <v>0.3906428</v>
+      </c>
+      <c r="AAV119">
+        <v>0.2461709</v>
+      </c>
+      <c r="AAW119">
+        <v>0.5449094</v>
+      </c>
+      <c r="ABA119">
+        <v>0.3663004</v>
+      </c>
+      <c r="ABC119">
+        <v>1.1680144</v>
+      </c>
+      <c r="ABJ119">
+        <v>0.1695266</v>
+      </c>
+      <c r="ABL119">
+        <v>0.4255391</v>
+      </c>
+      <c r="ABM119">
+        <v>0.5732277</v>
+      </c>
+      <c r="ABN119">
+        <v>0.4219409</v>
+      </c>
+      <c r="ABP119">
+        <v>0.3346041</v>
+      </c>
+      <c r="ABT119">
+        <v>0.4004994</v>
+      </c>
+      <c r="ABV119">
+        <v>0.0734611</v>
+      </c>
+      <c r="ABW119">
+        <v>0.520838</v>
+      </c>
+      <c r="ABX119">
+        <v>0.3259517</v>
+      </c>
+      <c r="ABY119">
+        <v>0.3597122</v>
+      </c>
+      <c r="ABZ119">
+        <v>0.1168535</v>
+      </c>
+      <c r="ACA119">
+        <v>0.2109886</v>
+      </c>
+      <c r="ACE119">
+        <v>0.2882696</v>
+      </c>
+      <c r="ACG119">
+        <v>0.1399901</v>
+      </c>
+      <c r="ACH119">
+        <v>0</v>
+      </c>
+      <c r="ACI119">
+        <v>0.1711796</v>
+      </c>
+      <c r="ACJ119">
+        <v>0.1123563</v>
+      </c>
+      <c r="ACK119">
+        <v>0.1811594</v>
+      </c>
+      <c r="ACM119">
+        <v>0.1476653</v>
+      </c>
+      <c r="ACN119">
+        <v>0.063545</v>
+      </c>
+      <c r="ACP119">
+        <v>0.1253146</v>
+      </c>
+      <c r="ACU119">
+        <v>0.3709831</v>
+      </c>
+      <c r="ACW119">
+        <v>0.2654756</v>
+      </c>
+      <c r="ACX119">
+        <v>0.2564103</v>
+      </c>
+      <c r="ADP119">
+        <v>0.3242955</v>
+      </c>
+      <c r="ADR119">
+        <v>0.5329949</v>
+      </c>
+      <c r="ADU119">
+        <v>0.9242424</v>
+      </c>
+      <c r="ADV119">
+        <v>0.6731336999999999</v>
+      </c>
+      <c r="AEA119">
+        <v>0.4870991</v>
+      </c>
+      <c r="AEB119">
+        <v>0.3635032</v>
+      </c>
+      <c r="AEF119">
+        <v>0.5464303</v>
+      </c>
+      <c r="AEG119">
+        <v>0.4267311</v>
+      </c>
+      <c r="AEH119">
+        <v>0.4380476</v>
+      </c>
+      <c r="AEI119">
+        <v>0.4838335</v>
+      </c>
+      <c r="AEJ119">
+        <v>0.5470299</v>
+      </c>
+      <c r="AEL119">
+        <v>0.3846154</v>
+      </c>
+      <c r="AEU119">
+        <v>0.2198784</v>
+      </c>
+      <c r="AEZ119">
+        <v>0.462963</v>
+      </c>
+      <c r="AFD119">
+        <v>0.1549637</v>
+      </c>
+      <c r="AFG119">
+        <v>0.152204</v>
+      </c>
+      <c r="AFH119">
+        <v>0.3086221</v>
+      </c>
+      <c r="AFK119">
+        <v>0.486714</v>
+      </c>
+      <c r="AFL119">
+        <v>0.2654867</v>
+      </c>
+      <c r="AFN119">
+        <v>0</v>
+      </c>
+      <c r="AFT119">
+        <v>0.2922688</v>
+      </c>
+      <c r="AFU119">
+        <v>0.3937381</v>
+      </c>
+      <c r="AFX119">
+        <v>0.2946314</v>
+      </c>
+      <c r="AGA119">
+        <v>0.5468677</v>
+      </c>
+      <c r="AGC119">
+        <v>0.2418688</v>
+      </c>
+      <c r="AGE119">
+        <v>0.6073691</v>
+      </c>
+      <c r="AGF119">
+        <v>0.9766454</v>
+      </c>
+      <c r="AGG119">
+        <v>0</v>
+      </c>
+      <c r="AGL119">
+        <v>0.0422521</v>
+      </c>
+      <c r="AGM119">
+        <v>0.7690658</v>
+      </c>
+      <c r="AGO119">
+        <v>0.6476051</v>
+      </c>
+      <c r="AGP119">
+        <v>0.3872469</v>
+      </c>
+      <c r="AGV119">
+        <v>0.3132832</v>
+      </c>
+      <c r="AHA119">
+        <v>0.3213348</v>
+      </c>
+      <c r="AHB119">
+        <v>0.3560418</v>
+      </c>
+      <c r="AHD119">
+        <v>0.0510257</v>
+      </c>
+      <c r="AHH119">
+        <v>0.5654175</v>
+      </c>
+      <c r="AHN119">
+        <v>0.5259606999999999</v>
+      </c>
+      <c r="AHP119">
+        <v>0.491128</v>
+      </c>
+      <c r="AHS119">
+        <v>0</v>
+      </c>
+      <c r="AHU119">
+        <v>0.0569705</v>
+      </c>
+      <c r="AHX119">
+        <v>0.0754717</v>
+      </c>
+      <c r="AIB119">
+        <v>0.2212389</v>
+      </c>
+      <c r="AID119">
+        <v>0.3558263</v>
+      </c>
+      <c r="AIE119">
+        <v>0.5912253</v>
+      </c>
+      <c r="AIF119">
+        <v>0.2309469</v>
+      </c>
+      <c r="AII119">
+        <v>0.2020625</v>
+      </c>
+      <c r="AIP119">
+        <v>0.3921426</v>
+      </c>
+      <c r="AIT119">
+        <v>0.440115</v>
+      </c>
+      <c r="AIV119">
+        <v>0.7253863</v>
+      </c>
+      <c r="AIY119">
+        <v>0.2519535</v>
+      </c>
+      <c r="AIZ119">
+        <v>0.4017015</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyMetro.xlsx
+++ b/fb-surveyMetro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1061">
   <si>
     <t>Aberdeen, SD</t>
   </si>
@@ -3185,6 +3185,18 @@
   </si>
   <si>
     <t>28 05 2020</t>
+  </si>
+  <si>
+    <t>29 05 2020</t>
+  </si>
+  <si>
+    <t>30 05 2020</t>
+  </si>
+  <si>
+    <t>31 05 2020</t>
+  </si>
+  <si>
+    <t>01 06 2020</t>
   </si>
 </sst>
 </file>
@@ -3516,7 +3528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJD119"/>
+  <dimension ref="A1:AJD123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19882,6 +19894,9 @@
       <c r="JG79">
         <v>0.538818</v>
       </c>
+      <c r="JI79">
+        <v>0.2293578</v>
+      </c>
       <c r="JK79">
         <v>0.488581</v>
       </c>
@@ -21018,6 +21033,9 @@
       <c r="JG80">
         <v>0.4074026</v>
       </c>
+      <c r="JI80">
+        <v>0.6944444</v>
+      </c>
       <c r="JK80">
         <v>0.6039392</v>
       </c>
@@ -23554,6 +23572,9 @@
       <c r="RL82">
         <v>0.464135</v>
       </c>
+      <c r="RP82">
+        <v>0.1515152</v>
+      </c>
       <c r="RQ82">
         <v>1.686872</v>
       </c>
@@ -24687,6 +24708,9 @@
       <c r="RL83">
         <v>0.4676871</v>
       </c>
+      <c r="RP83">
+        <v>0.1436782</v>
+      </c>
       <c r="RQ83">
         <v>1.2377451</v>
       </c>
@@ -25466,6 +25490,9 @@
       <c r="GF84">
         <v>1.0136904</v>
       </c>
+      <c r="GG84">
+        <v>0.1315789</v>
+      </c>
       <c r="GJ84">
         <v>0.6232626999999999</v>
       </c>
@@ -25816,6 +25843,9 @@
       </c>
       <c r="RL84">
         <v>0.5967604</v>
+      </c>
+      <c r="RP84">
+        <v>0.1355014</v>
       </c>
       <c r="RQ84">
         <v>1.1243386</v>
@@ -26596,6 +26626,9 @@
       <c r="GF85">
         <v>1.1094415</v>
       </c>
+      <c r="GG85">
+        <v>0.4635762</v>
+      </c>
       <c r="GJ85">
         <v>0.4734409</v>
       </c>
@@ -27726,6 +27759,9 @@
       <c r="GF86">
         <v>1.3263358</v>
       </c>
+      <c r="GG86">
+        <v>0.931677</v>
+      </c>
       <c r="GJ86">
         <v>0.3997468</v>
       </c>
@@ -28028,6 +28064,9 @@
       </c>
       <c r="QK86">
         <v>0.9074462</v>
+      </c>
+      <c r="QL86">
+        <v>0.1908397</v>
       </c>
       <c r="QN86">
         <v>1.584507</v>
@@ -29153,6 +29192,9 @@
       <c r="QK87">
         <v>0.7931905</v>
       </c>
+      <c r="QL87">
+        <v>0.1984127</v>
+      </c>
       <c r="QN87">
         <v>1.4754098</v>
       </c>
@@ -30367,6 +30409,9 @@
       <c r="SX88">
         <v>0.4701577</v>
       </c>
+      <c r="SZ88">
+        <v>0.5813952999999999</v>
+      </c>
       <c r="TA88">
         <v>0.3587736</v>
       </c>
@@ -31485,6 +31530,9 @@
       <c r="SX89">
         <v>0.6461538</v>
       </c>
+      <c r="SZ89">
+        <v>0.591716</v>
+      </c>
       <c r="TA89">
         <v>0.3416149</v>
       </c>
@@ -32279,6 +32327,9 @@
       <c r="IS90">
         <v>1.0278268</v>
       </c>
+      <c r="IW90">
+        <v>2.2970639</v>
+      </c>
       <c r="IZ90">
         <v>0.9671615</v>
       </c>
@@ -32599,6 +32650,9 @@
       </c>
       <c r="SX90">
         <v>0.4705882</v>
+      </c>
+      <c r="SZ90">
+        <v>0.6060605999999999</v>
       </c>
       <c r="TA90">
         <v>0.3461296</v>
@@ -33394,6 +33448,9 @@
       <c r="IS91">
         <v>1.324345</v>
       </c>
+      <c r="IW91">
+        <v>2.3968407</v>
+      </c>
       <c r="IZ91">
         <v>0.6529851</v>
       </c>
@@ -34509,6 +34566,9 @@
       <c r="IS92">
         <v>0.9227386</v>
       </c>
+      <c r="IW92">
+        <v>2.231405</v>
+      </c>
       <c r="IZ92">
         <v>0.8241758</v>
       </c>
@@ -36466,6 +36526,9 @@
       <c r="AG94">
         <v>0.2091141</v>
       </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
       <c r="AI94">
         <v>0.0522906</v>
       </c>
@@ -37578,6 +37641,9 @@
       <c r="AG95">
         <v>0.2102228</v>
       </c>
+      <c r="AH95">
+        <v>0.2857143</v>
+      </c>
       <c r="AI95">
         <v>0.07038229999999999</v>
       </c>
@@ -37692,6 +37758,9 @@
       <c r="EA95">
         <v>0.2650012</v>
       </c>
+      <c r="EE95">
+        <v>0</v>
+      </c>
       <c r="EK95">
         <v>0.4495972</v>
       </c>
@@ -38267,6 +38336,9 @@
       </c>
       <c r="WW95">
         <v>0.5329874</v>
+      </c>
+      <c r="WX95">
+        <v>0.7452575</v>
       </c>
       <c r="WY95">
         <v>0.6353591</v>
@@ -38684,6 +38756,9 @@
       <c r="AG96">
         <v>0.1811331</v>
       </c>
+      <c r="AH96">
+        <v>0.2758621</v>
+      </c>
       <c r="AI96">
         <v>0.0406935</v>
       </c>
@@ -38798,6 +38873,9 @@
       <c r="EA96">
         <v>0.4387855</v>
       </c>
+      <c r="EE96">
+        <v>0</v>
+      </c>
       <c r="EK96">
         <v>0.4044754</v>
       </c>
@@ -38891,6 +38969,9 @@
       <c r="HA96">
         <v>0.5014904</v>
       </c>
+      <c r="HE96">
+        <v>0.4310345</v>
+      </c>
       <c r="HF96">
         <v>0.3165687</v>
       </c>
@@ -39370,6 +39451,9 @@
       </c>
       <c r="WW96">
         <v>0.4389396</v>
+      </c>
+      <c r="WX96">
+        <v>0.6642512</v>
       </c>
       <c r="WY96">
         <v>0.5294118</v>
@@ -39901,6 +39985,9 @@
       <c r="EA97">
         <v>0.268319</v>
       </c>
+      <c r="EE97">
+        <v>0</v>
+      </c>
       <c r="EK97">
         <v>0.3043497</v>
       </c>
@@ -39994,6 +40081,9 @@
       <c r="HA97">
         <v>0.642438</v>
       </c>
+      <c r="HE97">
+        <v>0.4310345</v>
+      </c>
       <c r="HF97">
         <v>0.3297474</v>
       </c>
@@ -40473,6 +40563,9 @@
       </c>
       <c r="WW97">
         <v>0.6842376</v>
+      </c>
+      <c r="WX97">
+        <v>0.6642512</v>
       </c>
       <c r="WY97">
         <v>0.5438066</v>
@@ -41097,6 +41190,9 @@
       <c r="HA98">
         <v>0.4077271</v>
       </c>
+      <c r="HE98">
+        <v>0.4504505</v>
+      </c>
       <c r="HF98">
         <v>0.3392942</v>
       </c>
@@ -43981,6 +44077,9 @@
       <c r="ACX100">
         <v>0</v>
       </c>
+      <c r="ADI100">
+        <v>0</v>
+      </c>
       <c r="ADN100">
         <v>0.6666666999999999</v>
       </c>
@@ -44082,6 +44181,9 @@
       </c>
       <c r="AGV100">
         <v>0.4444444</v>
+      </c>
+      <c r="AGY100">
+        <v>0</v>
       </c>
       <c r="AHA100">
         <v>0.435037</v>
@@ -44505,6 +44607,9 @@
       <c r="KK101">
         <v>1.7605634</v>
       </c>
+      <c r="KL101">
+        <v>0</v>
+      </c>
       <c r="KO101">
         <v>1.1056367</v>
       </c>
@@ -45075,6 +45180,9 @@
       <c r="ACX101">
         <v>0</v>
       </c>
+      <c r="ADI101">
+        <v>0</v>
+      </c>
       <c r="ADN101">
         <v>0.6535948</v>
       </c>
@@ -45176,6 +45284,9 @@
       </c>
       <c r="AGV101">
         <v>0.4608295</v>
+      </c>
+      <c r="AGY101">
+        <v>0</v>
       </c>
       <c r="AHA101">
         <v>0.4167977</v>
@@ -45599,6 +45710,9 @@
       <c r="KK102">
         <v>2.0299145</v>
       </c>
+      <c r="KL102">
+        <v>0</v>
+      </c>
       <c r="KO102">
         <v>1.380522</v>
       </c>
@@ -46169,6 +46283,9 @@
       <c r="ACX102">
         <v>0</v>
       </c>
+      <c r="ADI102">
+        <v>0</v>
+      </c>
       <c r="ADN102">
         <v>0.6410256</v>
       </c>
@@ -46269,6 +46386,9 @@
         <v>0.621727</v>
       </c>
       <c r="AGV102">
+        <v>0</v>
+      </c>
+      <c r="AGY102">
         <v>0</v>
       </c>
       <c r="AHA102">
@@ -46693,6 +46813,9 @@
       <c r="KK103">
         <v>1.9532428</v>
       </c>
+      <c r="KL103">
+        <v>0.2870813</v>
+      </c>
       <c r="KO103">
         <v>1.4529571</v>
       </c>
@@ -47202,6 +47325,9 @@
       </c>
       <c r="ABN103">
         <v>0.6993007</v>
+      </c>
+      <c r="ABO103">
+        <v>0.5649718</v>
       </c>
       <c r="ABP103">
         <v>0.1545438</v>
@@ -48294,6 +48420,9 @@
       <c r="ABN104">
         <v>0.6622517</v>
       </c>
+      <c r="ABO104">
+        <v>0.6024096</v>
+      </c>
       <c r="ABP104">
         <v>0.2051723</v>
       </c>
@@ -48863,6 +48992,9 @@
       <c r="KC105">
         <v>0.5534624</v>
       </c>
+      <c r="KH105">
+        <v>0.2793296</v>
+      </c>
       <c r="KI105">
         <v>0.4484898</v>
       </c>
@@ -49381,6 +49513,9 @@
       </c>
       <c r="ABN105">
         <v>1.7751479</v>
+      </c>
+      <c r="ABO105">
+        <v>0.6289308</v>
       </c>
       <c r="ABP105">
         <v>0.1984163</v>
@@ -49861,6 +49996,9 @@
       <c r="HF106">
         <v>0.3047712</v>
       </c>
+      <c r="HG106">
+        <v>0.2604167</v>
+      </c>
       <c r="HH106">
         <v>0.2463054</v>
       </c>
@@ -49948,6 +50086,9 @@
       <c r="KC106">
         <v>0.5898635</v>
       </c>
+      <c r="KH106">
+        <v>0.1883239</v>
+      </c>
       <c r="KI106">
         <v>0.3628293</v>
       </c>
@@ -50196,6 +50337,9 @@
       </c>
       <c r="SD106">
         <v>0.9355932</v>
+      </c>
+      <c r="SE106">
+        <v>0.3164557</v>
       </c>
       <c r="SG106">
         <v>0.4140787</v>
@@ -50943,6 +51087,9 @@
       <c r="HF107">
         <v>0.3203233</v>
       </c>
+      <c r="HG107">
+        <v>0.2699055</v>
+      </c>
       <c r="HH107">
         <v>0.2403846</v>
       </c>
@@ -51030,6 +51177,9 @@
       <c r="KC107">
         <v>0.5712390000000001</v>
       </c>
+      <c r="KH107">
+        <v>0.7054674</v>
+      </c>
       <c r="KI107">
         <v>0.3427416</v>
       </c>
@@ -51278,6 +51428,9 @@
       </c>
       <c r="SD107">
         <v>0.7538992</v>
+      </c>
+      <c r="SE107">
+        <v>0.4357298</v>
       </c>
       <c r="SG107">
         <v>0.4227588</v>
@@ -52025,6 +52178,9 @@
       <c r="HF108">
         <v>0.3310015</v>
       </c>
+      <c r="HG108">
+        <v>0.3759398</v>
+      </c>
       <c r="HH108">
         <v>0</v>
       </c>
@@ -52360,6 +52516,9 @@
       </c>
       <c r="SD108">
         <v>0.5611509</v>
+      </c>
+      <c r="SE108">
+        <v>0.462963</v>
       </c>
       <c r="SG108">
         <v>0.474537</v>
@@ -53023,6 +53182,9 @@
       <c r="EN109">
         <v>0.1865672</v>
       </c>
+      <c r="EQ109">
+        <v>0</v>
+      </c>
       <c r="ER109">
         <v>1.3307985</v>
       </c>
@@ -53466,6 +53628,9 @@
       </c>
       <c r="SX109">
         <v>0.2949062</v>
+      </c>
+      <c r="TA109">
+        <v>0.3090659</v>
       </c>
       <c r="TS109">
         <v>0.1810373</v>
@@ -54099,6 +54264,9 @@
       <c r="EN110">
         <v>0.1937984</v>
       </c>
+      <c r="EQ110">
+        <v>0</v>
+      </c>
       <c r="ER110">
         <v>1.3307985</v>
       </c>
@@ -54273,6 +54441,9 @@
       <c r="KJ110">
         <v>0.4165259</v>
       </c>
+      <c r="KK110">
+        <v>0.5181346999999999</v>
+      </c>
       <c r="KO110">
         <v>0.4246241</v>
       </c>
@@ -54540,6 +54711,9 @@
       <c r="SX110">
         <v>0.5526316</v>
       </c>
+      <c r="TA110">
+        <v>0.3018109</v>
+      </c>
       <c r="TS110">
         <v>0.2760543</v>
       </c>
@@ -54962,6 +55136,9 @@
       </c>
       <c r="AHX110">
         <v>0.1976285</v>
+      </c>
+      <c r="AHY110">
+        <v>0.5376344</v>
       </c>
       <c r="AIB110">
         <v>0.8196721</v>
@@ -55169,6 +55346,9 @@
       <c r="EN111">
         <v>0.1838235</v>
       </c>
+      <c r="EQ111">
+        <v>1.1363636</v>
+      </c>
       <c r="ER111">
         <v>1.0452962</v>
       </c>
@@ -55343,6 +55523,9 @@
       <c r="KJ111">
         <v>0.5065856</v>
       </c>
+      <c r="KK111">
+        <v>0.5154639</v>
+      </c>
       <c r="KO111">
         <v>0.5068128</v>
       </c>
@@ -55610,6 +55793,9 @@
       <c r="SX111">
         <v>0.6046512000000001</v>
       </c>
+      <c r="TA111">
+        <v>0.3166784</v>
+      </c>
       <c r="TS111">
         <v>0.3432037</v>
       </c>
@@ -56032,6 +56218,9 @@
       </c>
       <c r="AHX111">
         <v>0.1779359</v>
+      </c>
+      <c r="AHY111">
+        <v>0</v>
       </c>
       <c r="AIB111">
         <v>0.7981220999999999</v>
@@ -56215,6 +56404,9 @@
       <c r="DS112">
         <v>0.399316</v>
       </c>
+      <c r="DU112">
+        <v>0</v>
+      </c>
       <c r="DW112">
         <v>0.1757285</v>
       </c>
@@ -56410,6 +56602,9 @@
       <c r="KJ112">
         <v>0.281253</v>
       </c>
+      <c r="KK112">
+        <v>0.5128205</v>
+      </c>
       <c r="KO112">
         <v>0.4996867</v>
       </c>
@@ -56830,6 +57025,9 @@
       <c r="YY112">
         <v>0.2061556</v>
       </c>
+      <c r="ZD112">
+        <v>0</v>
+      </c>
       <c r="ZL112">
         <v>0.2979768</v>
       </c>
@@ -57096,6 +57294,9 @@
       </c>
       <c r="AHX112">
         <v>0.3460208</v>
+      </c>
+      <c r="AHY112">
+        <v>0</v>
       </c>
       <c r="AIB112">
         <v>0.9401709</v>
@@ -57246,6 +57447,9 @@
       <c r="CO113">
         <v>0</v>
       </c>
+      <c r="CQ113">
+        <v>1.8405797</v>
+      </c>
       <c r="CR113">
         <v>0.1850042</v>
       </c>
@@ -57276,6 +57480,9 @@
       <c r="DS113">
         <v>0.4398202</v>
       </c>
+      <c r="DU113">
+        <v>0</v>
+      </c>
       <c r="DW113">
         <v>0.2231106</v>
       </c>
@@ -57891,6 +58098,9 @@
       <c r="YY113">
         <v>0.2224311</v>
       </c>
+      <c r="ZD113">
+        <v>0</v>
+      </c>
       <c r="ZL113">
         <v>0.24089</v>
       </c>
@@ -58028,6 +58238,9 @@
       </c>
       <c r="ACX113">
         <v>0</v>
+      </c>
+      <c r="ADN113">
+        <v>1.6762452</v>
       </c>
       <c r="ADP113">
         <v>0.4627209</v>
@@ -58304,6 +58517,9 @@
       <c r="CO114">
         <v>0.0636943</v>
       </c>
+      <c r="CQ114">
+        <v>1.8091168</v>
+      </c>
       <c r="CR114">
         <v>0.2224207</v>
       </c>
@@ -58334,6 +58550,9 @@
       <c r="DS114">
         <v>0.7835866</v>
       </c>
+      <c r="DU114">
+        <v>0</v>
+      </c>
       <c r="DW114">
         <v>0.1922134</v>
       </c>
@@ -58739,6 +58958,9 @@
       <c r="RD114">
         <v>0.4246494</v>
       </c>
+      <c r="RG114">
+        <v>0.3651539</v>
+      </c>
       <c r="RI114">
         <v>0.4147982</v>
       </c>
@@ -58946,6 +59168,9 @@
       <c r="YY114">
         <v>0.2217018</v>
       </c>
+      <c r="ZD114">
+        <v>0</v>
+      </c>
       <c r="ZL114">
         <v>0.2310224</v>
       </c>
@@ -59083,6 +59308,9 @@
       </c>
       <c r="ACX114">
         <v>0.297619</v>
+      </c>
+      <c r="ADN114">
+        <v>1.6957364</v>
       </c>
       <c r="ADP114">
         <v>0.4622806</v>
@@ -59359,6 +59587,9 @@
       <c r="CO115">
         <v>0.060241</v>
       </c>
+      <c r="CQ115">
+        <v>1.4306785</v>
+      </c>
       <c r="CR115">
         <v>0.228865</v>
       </c>
@@ -59377,6 +59608,9 @@
       <c r="DD115">
         <v>0.3386804</v>
       </c>
+      <c r="DE115">
+        <v>0.8333333000000001</v>
+      </c>
       <c r="DK115">
         <v>0.5720824</v>
       </c>
@@ -59566,6 +59800,9 @@
       <c r="JX115">
         <v>0.0422589</v>
       </c>
+      <c r="KA115">
+        <v>0.7692308</v>
+      </c>
       <c r="KB115">
         <v>0.4534947</v>
       </c>
@@ -59788,6 +60025,9 @@
       <c r="RD115">
         <v>0.3724161</v>
       </c>
+      <c r="RG115">
+        <v>0.6084656000000001</v>
+      </c>
       <c r="RI115">
         <v>0.2783964</v>
       </c>
@@ -60133,6 +60373,9 @@
       <c r="ACX115">
         <v>0.2941176</v>
       </c>
+      <c r="ADN115">
+        <v>1.7361111</v>
+      </c>
       <c r="ADP115">
         <v>0.3693884</v>
       </c>
@@ -60291,6 +60534,9 @@
       </c>
       <c r="AJA115">
         <v>0.3984064</v>
+      </c>
+      <c r="AJB115">
+        <v>0.4658385</v>
       </c>
     </row>
     <row r="116" spans="1:938">
@@ -60423,6 +60669,9 @@
       <c r="DD116">
         <v>0.2876924</v>
       </c>
+      <c r="DE116">
+        <v>0.7462687</v>
+      </c>
       <c r="DK116">
         <v>0.5841121</v>
       </c>
@@ -60612,6 +60861,9 @@
       <c r="JX116">
         <v>0.1018436</v>
       </c>
+      <c r="KA116">
+        <v>0.7772021</v>
+      </c>
       <c r="KB116">
         <v>0.5785843000000001</v>
       </c>
@@ -60834,6 +61086,9 @@
       <c r="RD116">
         <v>0.3462389</v>
       </c>
+      <c r="RG116">
+        <v>0.6233062</v>
+      </c>
       <c r="RI116">
         <v>0.2853881</v>
       </c>
@@ -61152,9 +61407,6 @@
       <c r="ACG116">
         <v>0.2362404</v>
       </c>
-      <c r="ACH116">
-        <v>0</v>
-      </c>
       <c r="ACI116">
         <v>0.2566685</v>
       </c>
@@ -61340,6 +61592,9 @@
       </c>
       <c r="AJA116">
         <v>0.4048583</v>
+      </c>
+      <c r="AJB116">
+        <v>0.4201681</v>
       </c>
     </row>
     <row r="117" spans="1:938">
@@ -61472,6 +61727,9 @@
       <c r="DD117">
         <v>0.2086196</v>
       </c>
+      <c r="DE117">
+        <v>0.78125</v>
+      </c>
       <c r="DK117">
         <v>0.8259912</v>
       </c>
@@ -61523,6 +61781,9 @@
       <c r="FE117">
         <v>0.2855768</v>
       </c>
+      <c r="FF117">
+        <v>0.5691057</v>
+      </c>
       <c r="FG117">
         <v>0.2793502</v>
       </c>
@@ -61658,6 +61919,9 @@
       <c r="JX117">
         <v>0.1600628</v>
       </c>
+      <c r="KA117">
+        <v>0.8474576</v>
+      </c>
       <c r="KB117">
         <v>0.3442975</v>
       </c>
@@ -61694,6 +61958,9 @@
       <c r="LR117">
         <v>0.6679389</v>
       </c>
+      <c r="LU117">
+        <v>1.7961905</v>
+      </c>
       <c r="LW117">
         <v>1.2305699</v>
       </c>
@@ -62195,9 +62462,6 @@
       <c r="ACG117">
         <v>0.1452164</v>
       </c>
-      <c r="ACH117">
-        <v>0</v>
-      </c>
       <c r="ACI117">
         <v>0.2400479</v>
       </c>
@@ -62380,6 +62644,12 @@
       </c>
       <c r="AIZ117">
         <v>0.4249939</v>
+      </c>
+      <c r="AJA117">
+        <v>0.4065041</v>
+      </c>
+      <c r="AJB117">
+        <v>0.4373178</v>
       </c>
     </row>
     <row r="118" spans="1:938">
@@ -62497,6 +62767,9 @@
       <c r="CR118">
         <v>0.306988</v>
       </c>
+      <c r="CS118">
+        <v>0</v>
+      </c>
       <c r="CT118">
         <v>0.5015432</v>
       </c>
@@ -62560,6 +62833,9 @@
       <c r="FE118">
         <v>0.2711256</v>
       </c>
+      <c r="FF118">
+        <v>0.5081301</v>
+      </c>
       <c r="FG118">
         <v>0.2259033</v>
       </c>
@@ -62731,6 +63007,9 @@
       <c r="LR118">
         <v>0.708502</v>
       </c>
+      <c r="LU118">
+        <v>1.4017977</v>
+      </c>
       <c r="LW118">
         <v>1.0653409</v>
       </c>
@@ -62905,6 +63184,9 @@
       <c r="QY118">
         <v>0.2106135</v>
       </c>
+      <c r="RA118">
+        <v>0.4268032</v>
+      </c>
       <c r="RB118">
         <v>0.1264635</v>
       </c>
@@ -63229,9 +63511,6 @@
       <c r="ACG118">
         <v>0.1545956</v>
       </c>
-      <c r="ACH118">
-        <v>0</v>
-      </c>
       <c r="ACI118">
         <v>0.2374521</v>
       </c>
@@ -63414,6 +63693,9 @@
       </c>
       <c r="AIZ118">
         <v>0.3261444</v>
+      </c>
+      <c r="AJA118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:938">
@@ -63442,7 +63724,7 @@
         <v>0.7066667</v>
       </c>
       <c r="U119">
-        <v>0.272546</v>
+        <v>0.2724399</v>
       </c>
       <c r="X119">
         <v>0.2096436</v>
@@ -63454,7 +63736,7 @@
         <v>0.3585859</v>
       </c>
       <c r="AD119">
-        <v>0.6434487</v>
+        <v>0.6428186</v>
       </c>
       <c r="AG119">
         <v>0.2006711</v>
@@ -63481,7 +63763,7 @@
         <v>0.2618531</v>
       </c>
       <c r="BF119">
-        <v>0.2456476</v>
+        <v>0.2455883</v>
       </c>
       <c r="BH119">
         <v>0.3780071</v>
@@ -63531,6 +63813,9 @@
       <c r="CR119">
         <v>0.1765742</v>
       </c>
+      <c r="CS119">
+        <v>0.1698514</v>
+      </c>
       <c r="CT119">
         <v>0.2738654</v>
       </c>
@@ -63586,7 +63871,7 @@
         <v>0.1883955</v>
       </c>
       <c r="FB119">
-        <v>0.5133923</v>
+        <v>0.5127781</v>
       </c>
       <c r="FD119">
         <v>0.378222</v>
@@ -63594,6 +63879,9 @@
       <c r="FE119">
         <v>0.281201</v>
       </c>
+      <c r="FF119">
+        <v>0.3800217</v>
+      </c>
       <c r="FG119">
         <v>0.2502826</v>
       </c>
@@ -63601,13 +63889,13 @@
         <v>0.2675841</v>
       </c>
       <c r="FI119">
-        <v>0.4627273</v>
+        <v>0.4627008</v>
       </c>
       <c r="FJ119">
         <v>0.5190311</v>
       </c>
       <c r="FL119">
-        <v>0.2656913</v>
+        <v>0.2656342</v>
       </c>
       <c r="FO119">
         <v>0</v>
@@ -63733,13 +64021,13 @@
         <v>0.3831399</v>
       </c>
       <c r="KC119">
-        <v>0.5188638</v>
+        <v>0.5185451</v>
       </c>
       <c r="KI119">
         <v>0.1297881</v>
       </c>
       <c r="KJ119">
-        <v>0.4378763</v>
+        <v>0.4370391</v>
       </c>
       <c r="KO119">
         <v>0.2052519</v>
@@ -63765,6 +64053,9 @@
       <c r="LR119">
         <v>0.3125</v>
       </c>
+      <c r="LU119">
+        <v>0.8032129</v>
+      </c>
       <c r="LW119">
         <v>1.0086455</v>
       </c>
@@ -63820,7 +64111,7 @@
         <v>0.4311584</v>
       </c>
       <c r="NM119">
-        <v>0.4391197</v>
+        <v>0.4385868</v>
       </c>
       <c r="NP119">
         <v>0.0938259</v>
@@ -63841,7 +64132,7 @@
         <v>0.3892093</v>
       </c>
       <c r="OD119">
-        <v>0.278308</v>
+        <v>0.2782808</v>
       </c>
       <c r="OE119">
         <v>0.232145</v>
@@ -63913,7 +64204,7 @@
         <v>0.1626016</v>
       </c>
       <c r="QK119">
-        <v>0.3088214</v>
+        <v>0.3088094</v>
       </c>
       <c r="QN119">
         <v>0.2260398</v>
@@ -63939,6 +64230,9 @@
       <c r="QY119">
         <v>0.250206</v>
       </c>
+      <c r="RA119">
+        <v>0.6737012999999999</v>
+      </c>
       <c r="RB119">
         <v>0.1319373</v>
       </c>
@@ -63973,7 +64267,7 @@
         <v>0.2592372</v>
       </c>
       <c r="SG119">
-        <v>0.4607697</v>
+        <v>0.4606745</v>
       </c>
       <c r="SH119">
         <v>0.2473178</v>
@@ -64084,7 +64378,7 @@
         <v>0.4699735</v>
       </c>
       <c r="WL119">
-        <v>0.5135957</v>
+        <v>0.5135739</v>
       </c>
       <c r="WM119">
         <v>0.07142859999999999</v>
@@ -64156,7 +64450,7 @@
         <v>0.3322748</v>
       </c>
       <c r="ZM119">
-        <v>0.3308023</v>
+        <v>0.3307042</v>
       </c>
       <c r="ZO119">
         <v>0.1954397</v>
@@ -64189,7 +64483,7 @@
         <v>0.7871321</v>
       </c>
       <c r="AAF119">
-        <v>0.4835778</v>
+        <v>0.4835657</v>
       </c>
       <c r="AAH119">
         <v>0.9096349</v>
@@ -64258,14 +64552,11 @@
         <v>0.2109886</v>
       </c>
       <c r="ACE119">
-        <v>0.2882696</v>
+        <v>0.2882333</v>
       </c>
       <c r="ACG119">
         <v>0.1399901</v>
       </c>
-      <c r="ACH119">
-        <v>0</v>
-      </c>
       <c r="ACI119">
         <v>0.1711796</v>
       </c>
@@ -64306,7 +64597,7 @@
         <v>0.6731336999999999</v>
       </c>
       <c r="AEA119">
-        <v>0.4870991</v>
+        <v>0.4866796</v>
       </c>
       <c r="AEB119">
         <v>0.3635032</v>
@@ -64448,6 +64739,3113 @@
       </c>
       <c r="AIZ119">
         <v>0.4017015</v>
+      </c>
+      <c r="AJA119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:938">
+      <c r="A120" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D120">
+        <v>0.2764613</v>
+      </c>
+      <c r="H120">
+        <v>0.3162953</v>
+      </c>
+      <c r="J120">
+        <v>1.0174419</v>
+      </c>
+      <c r="K120">
+        <v>0.215666</v>
+      </c>
+      <c r="L120">
+        <v>0.2349265</v>
+      </c>
+      <c r="P120">
+        <v>0.4077554</v>
+      </c>
+      <c r="R120">
+        <v>0.5032318</v>
+      </c>
+      <c r="U120">
+        <v>0.2827104</v>
+      </c>
+      <c r="X120">
+        <v>0.2012072</v>
+      </c>
+      <c r="Z120">
+        <v>0.7075653</v>
+      </c>
+      <c r="AB120">
+        <v>0.2772177</v>
+      </c>
+      <c r="AD120">
+        <v>0.6539817</v>
+      </c>
+      <c r="AG120">
+        <v>0.1987473</v>
+      </c>
+      <c r="AI120">
+        <v>0.2452588</v>
+      </c>
+      <c r="AN120">
+        <v>0.2859361</v>
+      </c>
+      <c r="AV120">
+        <v>0.4127967</v>
+      </c>
+      <c r="AW120">
+        <v>0.3033553</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0.1901141</v>
+      </c>
+      <c r="BC120">
+        <v>0.3201746</v>
+      </c>
+      <c r="BF120">
+        <v>0.2419177</v>
+      </c>
+      <c r="BH120">
+        <v>0.3806981</v>
+      </c>
+      <c r="BI120">
+        <v>0.3129566</v>
+      </c>
+      <c r="BJ120">
+        <v>0.1178544</v>
+      </c>
+      <c r="BM120">
+        <v>0.0487329</v>
+      </c>
+      <c r="BR120">
+        <v>0.4492241</v>
+      </c>
+      <c r="BS120">
+        <v>0.781451</v>
+      </c>
+      <c r="BT120">
+        <v>0.1623377</v>
+      </c>
+      <c r="BW120">
+        <v>0.1940408</v>
+      </c>
+      <c r="BY120">
+        <v>0.3051643</v>
+      </c>
+      <c r="CC120">
+        <v>0.094697</v>
+      </c>
+      <c r="CE120">
+        <v>0.1149425</v>
+      </c>
+      <c r="CL120">
+        <v>0.4878355</v>
+      </c>
+      <c r="CM120">
+        <v>0.4061521</v>
+      </c>
+      <c r="CN120">
+        <v>0.4760953</v>
+      </c>
+      <c r="CO120">
+        <v>0.0623053</v>
+      </c>
+      <c r="CR120">
+        <v>0.2058779</v>
+      </c>
+      <c r="CS120">
+        <v>0.1826484</v>
+      </c>
+      <c r="CT120">
+        <v>0.6289308</v>
+      </c>
+      <c r="CY120">
+        <v>0.2295227</v>
+      </c>
+      <c r="DC120">
+        <v>0.316692</v>
+      </c>
+      <c r="DD120">
+        <v>0.3518276</v>
+      </c>
+      <c r="DK120">
+        <v>0.4724112</v>
+      </c>
+      <c r="DN120">
+        <v>0.226018</v>
+      </c>
+      <c r="DS120">
+        <v>0.51139</v>
+      </c>
+      <c r="DW120">
+        <v>0.1945981</v>
+      </c>
+      <c r="DZ120">
+        <v>0.3925121</v>
+      </c>
+      <c r="EA120">
+        <v>0.0646837</v>
+      </c>
+      <c r="EK120">
+        <v>0.2287314</v>
+      </c>
+      <c r="EL120">
+        <v>0.3876662</v>
+      </c>
+      <c r="EM120">
+        <v>0.6349205999999999</v>
+      </c>
+      <c r="EN120">
+        <v>0.491371</v>
+      </c>
+      <c r="ER120">
+        <v>0</v>
+      </c>
+      <c r="ET120">
+        <v>0.1822863</v>
+      </c>
+      <c r="EZ120">
+        <v>0.2108037</v>
+      </c>
+      <c r="FA120">
+        <v>0.196003</v>
+      </c>
+      <c r="FB120">
+        <v>0.3299403</v>
+      </c>
+      <c r="FD120">
+        <v>0.3603718</v>
+      </c>
+      <c r="FE120">
+        <v>0.1943639</v>
+      </c>
+      <c r="FG120">
+        <v>0.2889459</v>
+      </c>
+      <c r="FH120">
+        <v>0.2667683</v>
+      </c>
+      <c r="FI120">
+        <v>0.4321714</v>
+      </c>
+      <c r="FJ120">
+        <v>0.7122507</v>
+      </c>
+      <c r="FL120">
+        <v>0.2613096</v>
+      </c>
+      <c r="FO120">
+        <v>0.0435161</v>
+      </c>
+      <c r="FR120">
+        <v>0</v>
+      </c>
+      <c r="FS120">
+        <v>0.3966382</v>
+      </c>
+      <c r="FY120">
+        <v>0</v>
+      </c>
+      <c r="GB120">
+        <v>0.1088035</v>
+      </c>
+      <c r="GC120">
+        <v>0.5748677</v>
+      </c>
+      <c r="GD120">
+        <v>0.4542782</v>
+      </c>
+      <c r="GE120">
+        <v>0.4304557</v>
+      </c>
+      <c r="GF120">
+        <v>0.2725955</v>
+      </c>
+      <c r="GJ120">
+        <v>0.18487</v>
+      </c>
+      <c r="GS120">
+        <v>0.5520898</v>
+      </c>
+      <c r="GV120">
+        <v>0.1718213</v>
+      </c>
+      <c r="HA120">
+        <v>0.5246499</v>
+      </c>
+      <c r="HF120">
+        <v>0.3941205</v>
+      </c>
+      <c r="HH120">
+        <v>0.7697216</v>
+      </c>
+      <c r="HK120">
+        <v>0.6230732</v>
+      </c>
+      <c r="HL120">
+        <v>0.2928099</v>
+      </c>
+      <c r="HN120">
+        <v>0.3729919</v>
+      </c>
+      <c r="HO120">
+        <v>0.1607717</v>
+      </c>
+      <c r="HP120">
+        <v>0.0682594</v>
+      </c>
+      <c r="HT120">
+        <v>0.338443</v>
+      </c>
+      <c r="HV120">
+        <v>0.3036455</v>
+      </c>
+      <c r="HX120">
+        <v>0.6815009</v>
+      </c>
+      <c r="HY120">
+        <v>0.2523181</v>
+      </c>
+      <c r="IC120">
+        <v>0.282167</v>
+      </c>
+      <c r="IE120">
+        <v>0.3072197</v>
+      </c>
+      <c r="IH120">
+        <v>0.507314</v>
+      </c>
+      <c r="II120">
+        <v>0.500149</v>
+      </c>
+      <c r="IN120">
+        <v>0.4313523</v>
+      </c>
+      <c r="IR120">
+        <v>0.1461988</v>
+      </c>
+      <c r="IS120">
+        <v>0.4672897</v>
+      </c>
+      <c r="IZ120">
+        <v>0.7475083</v>
+      </c>
+      <c r="JB120">
+        <v>0.4753893</v>
+      </c>
+      <c r="JF120">
+        <v>0.3546099</v>
+      </c>
+      <c r="JG120">
+        <v>0.3764959</v>
+      </c>
+      <c r="JK120">
+        <v>0.1951699</v>
+      </c>
+      <c r="JO120">
+        <v>0.162393</v>
+      </c>
+      <c r="JR120">
+        <v>0.3085156</v>
+      </c>
+      <c r="JS120">
+        <v>1.059322</v>
+      </c>
+      <c r="JX120">
+        <v>0.3139338</v>
+      </c>
+      <c r="KB120">
+        <v>0.4145753</v>
+      </c>
+      <c r="KC120">
+        <v>0.4660075</v>
+      </c>
+      <c r="KI120">
+        <v>0.0850301</v>
+      </c>
+      <c r="KJ120">
+        <v>0.5115327</v>
+      </c>
+      <c r="KO120">
+        <v>0.203554</v>
+      </c>
+      <c r="KV120">
+        <v>0.7957917</v>
+      </c>
+      <c r="KW120">
+        <v>0.3272787</v>
+      </c>
+      <c r="LD120">
+        <v>0.3289819</v>
+      </c>
+      <c r="LG120">
+        <v>0.2980516</v>
+      </c>
+      <c r="LH120">
+        <v>0.6459948</v>
+      </c>
+      <c r="LO120">
+        <v>0.1797684</v>
+      </c>
+      <c r="LR120">
+        <v>0.1992032</v>
+      </c>
+      <c r="LW120">
+        <v>1.0233918</v>
+      </c>
+      <c r="LX120">
+        <v>1.0984848</v>
+      </c>
+      <c r="LY120">
+        <v>0.4405286</v>
+      </c>
+      <c r="MA120">
+        <v>0.3793417</v>
+      </c>
+      <c r="MC120">
+        <v>1.0335917</v>
+      </c>
+      <c r="ME120">
+        <v>0.2109705</v>
+      </c>
+      <c r="MF120">
+        <v>0.1428329</v>
+      </c>
+      <c r="MG120">
+        <v>0.7164693</v>
+      </c>
+      <c r="MI120">
+        <v>0.1084741</v>
+      </c>
+      <c r="ML120">
+        <v>0.3968254</v>
+      </c>
+      <c r="MN120">
+        <v>0.2378342</v>
+      </c>
+      <c r="MS120">
+        <v>0.4058156</v>
+      </c>
+      <c r="MU120">
+        <v>0.8462779</v>
+      </c>
+      <c r="MW120">
+        <v>0.5754818</v>
+      </c>
+      <c r="MX120">
+        <v>0.7681941</v>
+      </c>
+      <c r="MZ120">
+        <v>0.2616637</v>
+      </c>
+      <c r="NC120">
+        <v>0.3770424</v>
+      </c>
+      <c r="NE120">
+        <v>0.4409171</v>
+      </c>
+      <c r="NM120">
+        <v>0.3805641</v>
+      </c>
+      <c r="NP120">
+        <v>0.0359857</v>
+      </c>
+      <c r="NQ120">
+        <v>0.257732</v>
+      </c>
+      <c r="NT120">
+        <v>0.502008</v>
+      </c>
+      <c r="NW120">
+        <v>0.4861111</v>
+      </c>
+      <c r="NY120">
+        <v>0.2352941</v>
+      </c>
+      <c r="NZ120">
+        <v>0.4180144</v>
+      </c>
+      <c r="OD120">
+        <v>0.3307733</v>
+      </c>
+      <c r="OE120">
+        <v>0.1127391</v>
+      </c>
+      <c r="OJ120">
+        <v>0.5118179</v>
+      </c>
+      <c r="OL120">
+        <v>0.2802185</v>
+      </c>
+      <c r="ON120">
+        <v>0.3108686</v>
+      </c>
+      <c r="OP120">
+        <v>0.1934236</v>
+      </c>
+      <c r="OQ120">
+        <v>0.5507469</v>
+      </c>
+      <c r="OR120">
+        <v>0.5806737</v>
+      </c>
+      <c r="OT120">
+        <v>0.4666667</v>
+      </c>
+      <c r="OV120">
+        <v>0.404916</v>
+      </c>
+      <c r="OX120">
+        <v>0.9335646</v>
+      </c>
+      <c r="PB120">
+        <v>0.2611486</v>
+      </c>
+      <c r="PG120">
+        <v>0.2637878</v>
+      </c>
+      <c r="PJ120">
+        <v>0.1278855</v>
+      </c>
+      <c r="PK120">
+        <v>0.1869159</v>
+      </c>
+      <c r="PL120">
+        <v>1.2859152</v>
+      </c>
+      <c r="PM120">
+        <v>0.5040793</v>
+      </c>
+      <c r="PP120">
+        <v>0.4898433</v>
+      </c>
+      <c r="PR120">
+        <v>0</v>
+      </c>
+      <c r="PS120">
+        <v>0.3526495</v>
+      </c>
+      <c r="PY120">
+        <v>0.2987574</v>
+      </c>
+      <c r="QD120">
+        <v>0.1742606</v>
+      </c>
+      <c r="QE120">
+        <v>0.3730625</v>
+      </c>
+      <c r="QF120">
+        <v>0.1670844</v>
+      </c>
+      <c r="QK120">
+        <v>0.3024462</v>
+      </c>
+      <c r="QN120">
+        <v>0.3919861</v>
+      </c>
+      <c r="QO120">
+        <v>0.5479193</v>
+      </c>
+      <c r="QP120">
+        <v>0.1297997</v>
+      </c>
+      <c r="QS120">
+        <v>0.2908856</v>
+      </c>
+      <c r="QU120">
+        <v>0.6918239</v>
+      </c>
+      <c r="QV120">
+        <v>0.4807353</v>
+      </c>
+      <c r="QX120">
+        <v>0.2676397</v>
+      </c>
+      <c r="QY120">
+        <v>0.2703687</v>
+      </c>
+      <c r="RA120">
+        <v>0.6737012999999999</v>
+      </c>
+      <c r="RB120">
+        <v>0.1371487</v>
+      </c>
+      <c r="RD120">
+        <v>0.2062408</v>
+      </c>
+      <c r="RI120">
+        <v>0.1152074</v>
+      </c>
+      <c r="RL120">
+        <v>0</v>
+      </c>
+      <c r="RQ120">
+        <v>0.0516796</v>
+      </c>
+      <c r="RT120">
+        <v>0.3313971</v>
+      </c>
+      <c r="RV120">
+        <v>0.7454739</v>
+      </c>
+      <c r="RX120">
+        <v>0.1333342</v>
+      </c>
+      <c r="RY120">
+        <v>0.4510092</v>
+      </c>
+      <c r="SA120">
+        <v>0</v>
+      </c>
+      <c r="SD120">
+        <v>0.5628551000000001</v>
+      </c>
+      <c r="SG120">
+        <v>0.4515171</v>
+      </c>
+      <c r="SH120">
+        <v>0.2353548</v>
+      </c>
+      <c r="SI120">
+        <v>0.2122488</v>
+      </c>
+      <c r="SM120">
+        <v>0.3117393</v>
+      </c>
+      <c r="SO120">
+        <v>0.5758757</v>
+      </c>
+      <c r="SP120">
+        <v>0.6020067</v>
+      </c>
+      <c r="SR120">
+        <v>0.2414748</v>
+      </c>
+      <c r="SW120">
+        <v>0.2176304</v>
+      </c>
+      <c r="SX120">
+        <v>0.2293578</v>
+      </c>
+      <c r="TS120">
+        <v>0.2861414</v>
+      </c>
+      <c r="TX120">
+        <v>0.3886774</v>
+      </c>
+      <c r="TY120">
+        <v>0.4615109</v>
+      </c>
+      <c r="UA120">
+        <v>0.3254973</v>
+      </c>
+      <c r="UE120">
+        <v>0.272707</v>
+      </c>
+      <c r="UF120">
+        <v>0.3957784</v>
+      </c>
+      <c r="UH120">
+        <v>0.1171614</v>
+      </c>
+      <c r="UI120">
+        <v>0.5067002</v>
+      </c>
+      <c r="UK120">
+        <v>0.2186945</v>
+      </c>
+      <c r="UN120">
+        <v>0.3892587</v>
+      </c>
+      <c r="UP120">
+        <v>0.0661376</v>
+      </c>
+      <c r="US120">
+        <v>0.6509589</v>
+      </c>
+      <c r="UT120">
+        <v>0.4146135</v>
+      </c>
+      <c r="UU120">
+        <v>0.3440367</v>
+      </c>
+      <c r="UV120">
+        <v>0.4678204</v>
+      </c>
+      <c r="UW120">
+        <v>1.0330861</v>
+      </c>
+      <c r="VA120">
+        <v>0.0775975</v>
+      </c>
+      <c r="VB120">
+        <v>0.3632479</v>
+      </c>
+      <c r="VO120">
+        <v>0</v>
+      </c>
+      <c r="VP120">
+        <v>0.7227139</v>
+      </c>
+      <c r="VS120">
+        <v>0.4099888</v>
+      </c>
+      <c r="VU120">
+        <v>0.5686798</v>
+      </c>
+      <c r="VW120">
+        <v>0.2222222</v>
+      </c>
+      <c r="VX120">
+        <v>0.3073504</v>
+      </c>
+      <c r="VY120">
+        <v>0.5585951</v>
+      </c>
+      <c r="WB120">
+        <v>0.4347826</v>
+      </c>
+      <c r="WF120">
+        <v>0.3564536</v>
+      </c>
+      <c r="WG120">
+        <v>0.4827781</v>
+      </c>
+      <c r="WL120">
+        <v>0.4852022</v>
+      </c>
+      <c r="WM120">
+        <v>0.3144245</v>
+      </c>
+      <c r="WQ120">
+        <v>0.3132968</v>
+      </c>
+      <c r="WU120">
+        <v>0.2753811</v>
+      </c>
+      <c r="WW120">
+        <v>0.1253855</v>
+      </c>
+      <c r="WY120">
+        <v>0.295858</v>
+      </c>
+      <c r="WZ120">
+        <v>0.4399129</v>
+      </c>
+      <c r="XD120">
+        <v>0.3078924</v>
+      </c>
+      <c r="XF120">
+        <v>0.4361742</v>
+      </c>
+      <c r="XG120">
+        <v>0.4695451</v>
+      </c>
+      <c r="XL120">
+        <v>0.3312934</v>
+      </c>
+      <c r="XM120">
+        <v>0.2671605</v>
+      </c>
+      <c r="XT120">
+        <v>1.1150235</v>
+      </c>
+      <c r="XV120">
+        <v>0.1938125</v>
+      </c>
+      <c r="YB120">
+        <v>0.2834925</v>
+      </c>
+      <c r="YD120">
+        <v>0.5437469</v>
+      </c>
+      <c r="YH120">
+        <v>0.3095975</v>
+      </c>
+      <c r="YN120">
+        <v>0.7224665</v>
+      </c>
+      <c r="YO120">
+        <v>0.4056933</v>
+      </c>
+      <c r="YQ120">
+        <v>0.303787</v>
+      </c>
+      <c r="YR120">
+        <v>0.4744465</v>
+      </c>
+      <c r="YX120">
+        <v>0.2368688</v>
+      </c>
+      <c r="YY120">
+        <v>0.3021148</v>
+      </c>
+      <c r="ZL120">
+        <v>0.315062</v>
+      </c>
+      <c r="ZM120">
+        <v>0.3391328</v>
+      </c>
+      <c r="ZO120">
+        <v>0.1983471</v>
+      </c>
+      <c r="ZR120">
+        <v>0.1798233</v>
+      </c>
+      <c r="ZS120">
+        <v>0</v>
+      </c>
+      <c r="ZV120">
+        <v>0.4322222</v>
+      </c>
+      <c r="ZW120">
+        <v>0.2064462</v>
+      </c>
+      <c r="ZX120">
+        <v>0.3867059</v>
+      </c>
+      <c r="ZZ120">
+        <v>0.2836451</v>
+      </c>
+      <c r="AAB120">
+        <v>0.4470199</v>
+      </c>
+      <c r="AAC120">
+        <v>0.3683948</v>
+      </c>
+      <c r="AAD120">
+        <v>1.0196906</v>
+      </c>
+      <c r="AAF120">
+        <v>0.2169545</v>
+      </c>
+      <c r="AAH120">
+        <v>0.9313725</v>
+      </c>
+      <c r="AAJ120">
+        <v>0.3089299</v>
+      </c>
+      <c r="AAM120">
+        <v>0.355565</v>
+      </c>
+      <c r="AAP120">
+        <v>0.3833621</v>
+      </c>
+      <c r="AAR120">
+        <v>0.3781972</v>
+      </c>
+      <c r="AAU120">
+        <v>0.3983023</v>
+      </c>
+      <c r="AAV120">
+        <v>0.2018521</v>
+      </c>
+      <c r="AAW120">
+        <v>0.6039323</v>
+      </c>
+      <c r="ABA120">
+        <v>0.3591954</v>
+      </c>
+      <c r="ABC120">
+        <v>1.1082694</v>
+      </c>
+      <c r="ABJ120">
+        <v>0.2234662</v>
+      </c>
+      <c r="ABL120">
+        <v>0.5456443</v>
+      </c>
+      <c r="ABM120">
+        <v>0.5647266</v>
+      </c>
+      <c r="ABN120">
+        <v>0.4032258</v>
+      </c>
+      <c r="ABP120">
+        <v>0.3021942</v>
+      </c>
+      <c r="ABT120">
+        <v>0.3840369</v>
+      </c>
+      <c r="ABV120">
+        <v>0.0753393</v>
+      </c>
+      <c r="ABW120">
+        <v>0.6090584</v>
+      </c>
+      <c r="ABX120">
+        <v>0.3308578</v>
+      </c>
+      <c r="ABY120">
+        <v>0.3623188</v>
+      </c>
+      <c r="ABZ120">
+        <v>0.1566341</v>
+      </c>
+      <c r="ACA120">
+        <v>0.196552</v>
+      </c>
+      <c r="ACE120">
+        <v>0.2800389</v>
+      </c>
+      <c r="ACG120">
+        <v>0.1538855</v>
+      </c>
+      <c r="ACI120">
+        <v>0.0219356</v>
+      </c>
+      <c r="ACJ120">
+        <v>0.1084662</v>
+      </c>
+      <c r="ACK120">
+        <v>0.2224199</v>
+      </c>
+      <c r="ACM120">
+        <v>0.2588327</v>
+      </c>
+      <c r="ACN120">
+        <v>0.0632569</v>
+      </c>
+      <c r="ACP120">
+        <v>0.1538397</v>
+      </c>
+      <c r="ACU120">
+        <v>0.4616229</v>
+      </c>
+      <c r="ACW120">
+        <v>0.2753639</v>
+      </c>
+      <c r="ACX120">
+        <v>0.2717391</v>
+      </c>
+      <c r="ADP120">
+        <v>0.1431178</v>
+      </c>
+      <c r="ADR120">
+        <v>0.7542579</v>
+      </c>
+      <c r="ADU120">
+        <v>0.6814815</v>
+      </c>
+      <c r="ADV120">
+        <v>0.6391867</v>
+      </c>
+      <c r="AEA120">
+        <v>0.4471603</v>
+      </c>
+      <c r="AEB120">
+        <v>0.36457</v>
+      </c>
+      <c r="AEF120">
+        <v>0.4400238</v>
+      </c>
+      <c r="AEG120">
+        <v>0.4692557</v>
+      </c>
+      <c r="AEH120">
+        <v>0.3471375</v>
+      </c>
+      <c r="AEI120">
+        <v>0.5020364</v>
+      </c>
+      <c r="AEJ120">
+        <v>0.4557048</v>
+      </c>
+      <c r="AEL120">
+        <v>0.3929273</v>
+      </c>
+      <c r="AEU120">
+        <v>0.2564299</v>
+      </c>
+      <c r="AEZ120">
+        <v>0.4528986</v>
+      </c>
+      <c r="AFD120">
+        <v>0.1848696</v>
+      </c>
+      <c r="AFG120">
+        <v>0.18015</v>
+      </c>
+      <c r="AFH120">
+        <v>0.2909851</v>
+      </c>
+      <c r="AFK120">
+        <v>0.5622285</v>
+      </c>
+      <c r="AFL120">
+        <v>0.4081633</v>
+      </c>
+      <c r="AFN120">
+        <v>0.3389831</v>
+      </c>
+      <c r="AFT120">
+        <v>0.2800835</v>
+      </c>
+      <c r="AFU120">
+        <v>0.45991</v>
+      </c>
+      <c r="AFX120">
+        <v>0.3713478</v>
+      </c>
+      <c r="AGA120">
+        <v>0.528776</v>
+      </c>
+      <c r="AGC120">
+        <v>0.3306819</v>
+      </c>
+      <c r="AGE120">
+        <v>0.5943057</v>
+      </c>
+      <c r="AGF120">
+        <v>0.8159204</v>
+      </c>
+      <c r="AGG120">
+        <v>0.3801392</v>
+      </c>
+      <c r="AGL120">
+        <v>0.0298161</v>
+      </c>
+      <c r="AGM120">
+        <v>0.7398497000000001</v>
+      </c>
+      <c r="AGO120">
+        <v>0.3968254</v>
+      </c>
+      <c r="AGP120">
+        <v>0.3833557</v>
+      </c>
+      <c r="AGV120">
+        <v>0.2645503</v>
+      </c>
+      <c r="AHA120">
+        <v>0.3962799</v>
+      </c>
+      <c r="AHB120">
+        <v>0.2436804</v>
+      </c>
+      <c r="AHD120">
+        <v>0.0518996</v>
+      </c>
+      <c r="AHH120">
+        <v>0.4771505</v>
+      </c>
+      <c r="AHN120">
+        <v>0.5648714</v>
+      </c>
+      <c r="AHP120">
+        <v>0.2510986</v>
+      </c>
+      <c r="AHS120">
+        <v>0</v>
+      </c>
+      <c r="AHU120">
+        <v>0.1155891</v>
+      </c>
+      <c r="AHX120">
+        <v>0.078125</v>
+      </c>
+      <c r="AIB120">
+        <v>0.2164502</v>
+      </c>
+      <c r="AID120">
+        <v>0.303516</v>
+      </c>
+      <c r="AIE120">
+        <v>0.5962498000000001</v>
+      </c>
+      <c r="AIF120">
+        <v>0.5357143</v>
+      </c>
+      <c r="AII120">
+        <v>0.3029721</v>
+      </c>
+      <c r="AIP120">
+        <v>0.3605931</v>
+      </c>
+      <c r="AIT120">
+        <v>0.3447228</v>
+      </c>
+      <c r="AIV120">
+        <v>0.8712471000000001</v>
+      </c>
+      <c r="AIY120">
+        <v>0.1961443</v>
+      </c>
+      <c r="AIZ120">
+        <v>0.4959692</v>
+      </c>
+    </row>
+    <row r="121" spans="1:938">
+      <c r="A121" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D121">
+        <v>0.1201923</v>
+      </c>
+      <c r="H121">
+        <v>0.3210857</v>
+      </c>
+      <c r="J121">
+        <v>1.0479042</v>
+      </c>
+      <c r="K121">
+        <v>0.1098901</v>
+      </c>
+      <c r="L121">
+        <v>0.2352707</v>
+      </c>
+      <c r="P121">
+        <v>0.3080775</v>
+      </c>
+      <c r="R121">
+        <v>0.5102996</v>
+      </c>
+      <c r="U121">
+        <v>0.3287762</v>
+      </c>
+      <c r="X121">
+        <v>0.41841</v>
+      </c>
+      <c r="Z121">
+        <v>0.7846484</v>
+      </c>
+      <c r="AB121">
+        <v>0.5965154</v>
+      </c>
+      <c r="AD121">
+        <v>0.5442846</v>
+      </c>
+      <c r="AG121">
+        <v>0.2039192</v>
+      </c>
+      <c r="AI121">
+        <v>0.1262869</v>
+      </c>
+      <c r="AN121">
+        <v>0.2661718</v>
+      </c>
+      <c r="AV121">
+        <v>0.4127967</v>
+      </c>
+      <c r="AW121">
+        <v>0.3045269</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0.1262626</v>
+      </c>
+      <c r="BC121">
+        <v>0.300949</v>
+      </c>
+      <c r="BF121">
+        <v>0.2649396</v>
+      </c>
+      <c r="BH121">
+        <v>0.3860181</v>
+      </c>
+      <c r="BI121">
+        <v>0.2829693</v>
+      </c>
+      <c r="BJ121">
+        <v>0.0370597</v>
+      </c>
+      <c r="BM121">
+        <v>0.2020202</v>
+      </c>
+      <c r="BR121">
+        <v>0.5690954</v>
+      </c>
+      <c r="BS121">
+        <v>0.7652382</v>
+      </c>
+      <c r="BT121">
+        <v>0.1620746</v>
+      </c>
+      <c r="BW121">
+        <v>0.1306323</v>
+      </c>
+      <c r="BY121">
+        <v>0.3979401</v>
+      </c>
+      <c r="CC121">
+        <v>0.0925926</v>
+      </c>
+      <c r="CE121">
+        <v>0.1177856</v>
+      </c>
+      <c r="CL121">
+        <v>0.563648</v>
+      </c>
+      <c r="CM121">
+        <v>0.4197516</v>
+      </c>
+      <c r="CN121">
+        <v>0.3944845</v>
+      </c>
+      <c r="CO121">
+        <v>0</v>
+      </c>
+      <c r="CR121">
+        <v>0.1730551</v>
+      </c>
+      <c r="CT121">
+        <v>0.9031199</v>
+      </c>
+      <c r="CY121">
+        <v>0.2628849</v>
+      </c>
+      <c r="DC121">
+        <v>0.3303363</v>
+      </c>
+      <c r="DD121">
+        <v>0.3532933</v>
+      </c>
+      <c r="DK121">
+        <v>0.4713424</v>
+      </c>
+      <c r="DN121">
+        <v>0.2383899</v>
+      </c>
+      <c r="DS121">
+        <v>0.2578242</v>
+      </c>
+      <c r="DW121">
+        <v>0.2579865</v>
+      </c>
+      <c r="DZ121">
+        <v>0.3925121</v>
+      </c>
+      <c r="EA121">
+        <v>0.06449580000000001</v>
+      </c>
+      <c r="EK121">
+        <v>0.2928464</v>
+      </c>
+      <c r="EL121">
+        <v>0.3103013</v>
+      </c>
+      <c r="EM121">
+        <v>0.6289308</v>
+      </c>
+      <c r="EN121">
+        <v>0.5472995</v>
+      </c>
+      <c r="ER121">
+        <v>0</v>
+      </c>
+      <c r="ET121">
+        <v>0.0268435</v>
+      </c>
+      <c r="EZ121">
+        <v>0.1496599</v>
+      </c>
+      <c r="FA121">
+        <v>0.1945704</v>
+      </c>
+      <c r="FB121">
+        <v>0.3941125</v>
+      </c>
+      <c r="FD121">
+        <v>0.3780992</v>
+      </c>
+      <c r="FE121">
+        <v>0.1974942</v>
+      </c>
+      <c r="FG121">
+        <v>0.2954407</v>
+      </c>
+      <c r="FH121">
+        <v>0.4283489</v>
+      </c>
+      <c r="FI121">
+        <v>0.4031174</v>
+      </c>
+      <c r="FJ121">
+        <v>0.5295429</v>
+      </c>
+      <c r="FL121">
+        <v>0.2926323</v>
+      </c>
+      <c r="FO121">
+        <v>0.0942588</v>
+      </c>
+      <c r="FR121">
+        <v>0</v>
+      </c>
+      <c r="FS121">
+        <v>0.3255587</v>
+      </c>
+      <c r="FY121">
+        <v>0</v>
+      </c>
+      <c r="GB121">
+        <v>0.0717494</v>
+      </c>
+      <c r="GC121">
+        <v>0.5591312000000001</v>
+      </c>
+      <c r="GD121">
+        <v>0.4461813</v>
+      </c>
+      <c r="GE121">
+        <v>0.4946747</v>
+      </c>
+      <c r="GF121">
+        <v>0.2497474</v>
+      </c>
+      <c r="GJ121">
+        <v>0.1893724</v>
+      </c>
+      <c r="GS121">
+        <v>0.540561</v>
+      </c>
+      <c r="GV121">
+        <v>0.2726653</v>
+      </c>
+      <c r="HA121">
+        <v>0.6639372</v>
+      </c>
+      <c r="HF121">
+        <v>0.3192444</v>
+      </c>
+      <c r="HH121">
+        <v>0.6820437</v>
+      </c>
+      <c r="HK121">
+        <v>0.4697239</v>
+      </c>
+      <c r="HL121">
+        <v>0.3166704</v>
+      </c>
+      <c r="HN121">
+        <v>0.311333</v>
+      </c>
+      <c r="HO121">
+        <v>0.1577287</v>
+      </c>
+      <c r="HP121">
+        <v>0.245614</v>
+      </c>
+      <c r="HT121">
+        <v>0.3746612</v>
+      </c>
+      <c r="HV121">
+        <v>0.3056568</v>
+      </c>
+      <c r="HX121">
+        <v>0.6461357</v>
+      </c>
+      <c r="HY121">
+        <v>0.2633377</v>
+      </c>
+      <c r="IC121">
+        <v>0.282167</v>
+      </c>
+      <c r="IE121">
+        <v>0.3174603</v>
+      </c>
+      <c r="IH121">
+        <v>0.557265</v>
+      </c>
+      <c r="II121">
+        <v>0.5578467</v>
+      </c>
+      <c r="IN121">
+        <v>0.4190783</v>
+      </c>
+      <c r="IR121">
+        <v>0.1523461</v>
+      </c>
+      <c r="IS121">
+        <v>0.1597444</v>
+      </c>
+      <c r="IZ121">
+        <v>0.4222973</v>
+      </c>
+      <c r="JB121">
+        <v>0.614112</v>
+      </c>
+      <c r="JF121">
+        <v>0.3745318</v>
+      </c>
+      <c r="JG121">
+        <v>0.3888879</v>
+      </c>
+      <c r="JK121">
+        <v>0.1946211</v>
+      </c>
+      <c r="JO121">
+        <v>0.1314863</v>
+      </c>
+      <c r="JR121">
+        <v>0.3126475</v>
+      </c>
+      <c r="JS121">
+        <v>1.0822511</v>
+      </c>
+      <c r="JX121">
+        <v>0.4636344</v>
+      </c>
+      <c r="KB121">
+        <v>0.4256157</v>
+      </c>
+      <c r="KC121">
+        <v>0.5785335</v>
+      </c>
+      <c r="KI121">
+        <v>0.1560022</v>
+      </c>
+      <c r="KJ121">
+        <v>0.5206854</v>
+      </c>
+      <c r="KO121">
+        <v>0.1183884</v>
+      </c>
+      <c r="KV121">
+        <v>0.7991104</v>
+      </c>
+      <c r="KW121">
+        <v>0.3396798</v>
+      </c>
+      <c r="LD121">
+        <v>0.3332427</v>
+      </c>
+      <c r="LG121">
+        <v>0.303253</v>
+      </c>
+      <c r="LH121">
+        <v>0.5319149</v>
+      </c>
+      <c r="LO121">
+        <v>0.0611621</v>
+      </c>
+      <c r="LR121">
+        <v>0</v>
+      </c>
+      <c r="LW121">
+        <v>0.9036145</v>
+      </c>
+      <c r="LX121">
+        <v>1.0885886</v>
+      </c>
+      <c r="LY121">
+        <v>0.2105263</v>
+      </c>
+      <c r="MA121">
+        <v>0.2922677</v>
+      </c>
+      <c r="MC121">
+        <v>1.0307898</v>
+      </c>
+      <c r="ME121">
+        <v>0</v>
+      </c>
+      <c r="MF121">
+        <v>0.143098</v>
+      </c>
+      <c r="MG121">
+        <v>0.7368169</v>
+      </c>
+      <c r="MI121">
+        <v>0.2096192</v>
+      </c>
+      <c r="ML121">
+        <v>0.4656445</v>
+      </c>
+      <c r="MN121">
+        <v>0.2208844</v>
+      </c>
+      <c r="MS121">
+        <v>0.3610975</v>
+      </c>
+      <c r="MU121">
+        <v>0.7192997</v>
+      </c>
+      <c r="MW121">
+        <v>0.6053459</v>
+      </c>
+      <c r="MX121">
+        <v>0.7610147</v>
+      </c>
+      <c r="MZ121">
+        <v>0.2820395</v>
+      </c>
+      <c r="NC121">
+        <v>0.3785951</v>
+      </c>
+      <c r="NE121">
+        <v>0.5360765</v>
+      </c>
+      <c r="NM121">
+        <v>0.3450107</v>
+      </c>
+      <c r="NP121">
+        <v>0.0361922</v>
+      </c>
+      <c r="NQ121">
+        <v>0.2439024</v>
+      </c>
+      <c r="NT121">
+        <v>0.3099174</v>
+      </c>
+      <c r="NW121">
+        <v>0.7451923</v>
+      </c>
+      <c r="NY121">
+        <v>0.2409639</v>
+      </c>
+      <c r="NZ121">
+        <v>0.4258188</v>
+      </c>
+      <c r="OD121">
+        <v>0.407981</v>
+      </c>
+      <c r="OE121">
+        <v>0.1480971</v>
+      </c>
+      <c r="OJ121">
+        <v>0.6306225</v>
+      </c>
+      <c r="OL121">
+        <v>0.2080217</v>
+      </c>
+      <c r="ON121">
+        <v>0.2876669</v>
+      </c>
+      <c r="OP121">
+        <v>0.1976285</v>
+      </c>
+      <c r="OQ121">
+        <v>0.4307999</v>
+      </c>
+      <c r="OR121">
+        <v>0.5841427</v>
+      </c>
+      <c r="OT121">
+        <v>0.446571</v>
+      </c>
+      <c r="OV121">
+        <v>0.4165241</v>
+      </c>
+      <c r="OX121">
+        <v>1.0149253</v>
+      </c>
+      <c r="PB121">
+        <v>0.2442675</v>
+      </c>
+      <c r="PG121">
+        <v>0.2548978</v>
+      </c>
+      <c r="PJ121">
+        <v>0.1313113</v>
+      </c>
+      <c r="PK121">
+        <v>0.0455373</v>
+      </c>
+      <c r="PL121">
+        <v>1.3672281</v>
+      </c>
+      <c r="PM121">
+        <v>0.4693999</v>
+      </c>
+      <c r="PP121">
+        <v>0.4539755</v>
+      </c>
+      <c r="PR121">
+        <v>0</v>
+      </c>
+      <c r="PS121">
+        <v>0.3718508</v>
+      </c>
+      <c r="PY121">
+        <v>0.2933344</v>
+      </c>
+      <c r="QD121">
+        <v>0.314435</v>
+      </c>
+      <c r="QE121">
+        <v>0.2330266</v>
+      </c>
+      <c r="QF121">
+        <v>0</v>
+      </c>
+      <c r="QK121">
+        <v>0.4101591</v>
+      </c>
+      <c r="QN121">
+        <v>0.4090909</v>
+      </c>
+      <c r="QO121">
+        <v>0.5441538</v>
+      </c>
+      <c r="QP121">
+        <v>0.1782145</v>
+      </c>
+      <c r="QS121">
+        <v>0.3046716</v>
+      </c>
+      <c r="QU121">
+        <v>0.7133593</v>
+      </c>
+      <c r="QV121">
+        <v>0.4891398</v>
+      </c>
+      <c r="QX121">
+        <v>0.2742859</v>
+      </c>
+      <c r="QY121">
+        <v>0.3213805</v>
+      </c>
+      <c r="RB121">
+        <v>0.1645784</v>
+      </c>
+      <c r="RD121">
+        <v>0.2841522</v>
+      </c>
+      <c r="RI121">
+        <v>0.1157407</v>
+      </c>
+      <c r="RL121">
+        <v>0</v>
+      </c>
+      <c r="RQ121">
+        <v>0.052356</v>
+      </c>
+      <c r="RT121">
+        <v>0.2301019</v>
+      </c>
+      <c r="RV121">
+        <v>0.7882883000000001</v>
+      </c>
+      <c r="RX121">
+        <v>0.1358508</v>
+      </c>
+      <c r="RY121">
+        <v>0.3688335</v>
+      </c>
+      <c r="SA121">
+        <v>0</v>
+      </c>
+      <c r="SD121">
+        <v>0.5379773</v>
+      </c>
+      <c r="SG121">
+        <v>0.4236667</v>
+      </c>
+      <c r="SH121">
+        <v>0.2707708</v>
+      </c>
+      <c r="SI121">
+        <v>0.218624</v>
+      </c>
+      <c r="SM121">
+        <v>0.2697152</v>
+      </c>
+      <c r="SO121">
+        <v>0.5769352</v>
+      </c>
+      <c r="SP121">
+        <v>0.443686</v>
+      </c>
+      <c r="SR121">
+        <v>0.192534</v>
+      </c>
+      <c r="SW121">
+        <v>0.2544031</v>
+      </c>
+      <c r="SX121">
+        <v>0.2314815</v>
+      </c>
+      <c r="TS121">
+        <v>0.2866058</v>
+      </c>
+      <c r="TX121">
+        <v>0.3813885</v>
+      </c>
+      <c r="TY121">
+        <v>0.3981112</v>
+      </c>
+      <c r="UA121">
+        <v>0.4744745</v>
+      </c>
+      <c r="UE121">
+        <v>0.2550806</v>
+      </c>
+      <c r="UF121">
+        <v>0.3926702</v>
+      </c>
+      <c r="UH121">
+        <v>0.1166313</v>
+      </c>
+      <c r="UI121">
+        <v>0.3726454</v>
+      </c>
+      <c r="UK121">
+        <v>0.2759461</v>
+      </c>
+      <c r="UN121">
+        <v>0.3379894</v>
+      </c>
+      <c r="UP121">
+        <v>0.4978355</v>
+      </c>
+      <c r="US121">
+        <v>0.6730477</v>
+      </c>
+      <c r="UT121">
+        <v>0.3138644</v>
+      </c>
+      <c r="UU121">
+        <v>0.5212922</v>
+      </c>
+      <c r="UV121">
+        <v>0.4174051</v>
+      </c>
+      <c r="UW121">
+        <v>1.0465422</v>
+      </c>
+      <c r="VA121">
+        <v>0.2497057</v>
+      </c>
+      <c r="VB121">
+        <v>0.7543103</v>
+      </c>
+      <c r="VO121">
+        <v>0</v>
+      </c>
+      <c r="VP121">
+        <v>0.8333333000000001</v>
+      </c>
+      <c r="VS121">
+        <v>0.4123218</v>
+      </c>
+      <c r="VU121">
+        <v>0.4669507</v>
+      </c>
+      <c r="VW121">
+        <v>0.2312139</v>
+      </c>
+      <c r="VX121">
+        <v>0.2763841</v>
+      </c>
+      <c r="VY121">
+        <v>0.556378</v>
+      </c>
+      <c r="WB121">
+        <v>0.4752343</v>
+      </c>
+      <c r="WF121">
+        <v>0.4101623</v>
+      </c>
+      <c r="WG121">
+        <v>0.5094275</v>
+      </c>
+      <c r="WL121">
+        <v>0.472498</v>
+      </c>
+      <c r="WM121">
+        <v>0.3244719</v>
+      </c>
+      <c r="WQ121">
+        <v>0.4098071</v>
+      </c>
+      <c r="WU121">
+        <v>0.28477</v>
+      </c>
+      <c r="WW121">
+        <v>0.1817269</v>
+      </c>
+      <c r="WY121">
+        <v>0.7163324</v>
+      </c>
+      <c r="WZ121">
+        <v>0.4619833</v>
+      </c>
+      <c r="XD121">
+        <v>0.4004281</v>
+      </c>
+      <c r="XF121">
+        <v>0.3850754</v>
+      </c>
+      <c r="XG121">
+        <v>0.4862265</v>
+      </c>
+      <c r="XL121">
+        <v>0.3130303</v>
+      </c>
+      <c r="XM121">
+        <v>0.2345617</v>
+      </c>
+      <c r="XT121">
+        <v>1.143201</v>
+      </c>
+      <c r="XV121">
+        <v>0.1963508</v>
+      </c>
+      <c r="YB121">
+        <v>0.2838186</v>
+      </c>
+      <c r="YD121">
+        <v>0.7384771999999999</v>
+      </c>
+      <c r="YH121">
+        <v>0.304878</v>
+      </c>
+      <c r="YN121">
+        <v>0.6420117</v>
+      </c>
+      <c r="YO121">
+        <v>0.4127022</v>
+      </c>
+      <c r="YQ121">
+        <v>0.2972809</v>
+      </c>
+      <c r="YR121">
+        <v>0.4226889</v>
+      </c>
+      <c r="YX121">
+        <v>0.2038507</v>
+      </c>
+      <c r="YY121">
+        <v>0.3012048</v>
+      </c>
+      <c r="ZL121">
+        <v>0.3123293</v>
+      </c>
+      <c r="ZM121">
+        <v>0.3428603</v>
+      </c>
+      <c r="ZO121">
+        <v>0.1935484</v>
+      </c>
+      <c r="ZR121">
+        <v>0.264399</v>
+      </c>
+      <c r="ZS121">
+        <v>0</v>
+      </c>
+      <c r="ZV121">
+        <v>0.4485585</v>
+      </c>
+      <c r="ZW121">
+        <v>0.1348485</v>
+      </c>
+      <c r="ZX121">
+        <v>0.3925266</v>
+      </c>
+      <c r="ZZ121">
+        <v>0.156535</v>
+      </c>
+      <c r="AAB121">
+        <v>0.6401384</v>
+      </c>
+      <c r="AAC121">
+        <v>0.3645554</v>
+      </c>
+      <c r="AAD121">
+        <v>0.8843537</v>
+      </c>
+      <c r="AAF121">
+        <v>0.1587993</v>
+      </c>
+      <c r="AAH121">
+        <v>0.8616352</v>
+      </c>
+      <c r="AAJ121">
+        <v>0.2719524</v>
+      </c>
+      <c r="AAM121">
+        <v>0.4002633</v>
+      </c>
+      <c r="AAP121">
+        <v>0.3824188</v>
+      </c>
+      <c r="AAR121">
+        <v>0.4457282</v>
+      </c>
+      <c r="AAU121">
+        <v>0.1153313</v>
+      </c>
+      <c r="AAV121">
+        <v>0.2029767</v>
+      </c>
+      <c r="AAW121">
+        <v>0.6288697</v>
+      </c>
+      <c r="ABA121">
+        <v>0.4166667</v>
+      </c>
+      <c r="ABC121">
+        <v>1.171404</v>
+      </c>
+      <c r="ABJ121">
+        <v>0.2178068</v>
+      </c>
+      <c r="ABL121">
+        <v>0.5546489</v>
+      </c>
+      <c r="ABM121">
+        <v>0.5800187</v>
+      </c>
+      <c r="ABN121">
+        <v>0.3846154</v>
+      </c>
+      <c r="ABP121">
+        <v>0.2766259</v>
+      </c>
+      <c r="ABT121">
+        <v>0.4855846</v>
+      </c>
+      <c r="ABV121">
+        <v>0.0739959</v>
+      </c>
+      <c r="ABW121">
+        <v>0.6110395</v>
+      </c>
+      <c r="ABX121">
+        <v>0.2551316</v>
+      </c>
+      <c r="ABY121">
+        <v>0.3717472</v>
+      </c>
+      <c r="ABZ121">
+        <v>0.1189498</v>
+      </c>
+      <c r="ACA121">
+        <v>0.1387146</v>
+      </c>
+      <c r="ACE121">
+        <v>0.2327098</v>
+      </c>
+      <c r="ACG121">
+        <v>0.2527218</v>
+      </c>
+      <c r="ACI121">
+        <v>0.08772050000000001</v>
+      </c>
+      <c r="ACJ121">
+        <v>0.1113653</v>
+      </c>
+      <c r="ACK121">
+        <v>0.2155172</v>
+      </c>
+      <c r="ACM121">
+        <v>0.2604088</v>
+      </c>
+      <c r="ACN121">
+        <v>0.0636901</v>
+      </c>
+      <c r="ACP121">
+        <v>0.1546749</v>
+      </c>
+      <c r="ACU121">
+        <v>0.4734807</v>
+      </c>
+      <c r="ACW121">
+        <v>0.2690539</v>
+      </c>
+      <c r="ACX121">
+        <v>0</v>
+      </c>
+      <c r="ADP121">
+        <v>0.1447737</v>
+      </c>
+      <c r="ADR121">
+        <v>1.0353535</v>
+      </c>
+      <c r="ADU121">
+        <v>0.6754772</v>
+      </c>
+      <c r="ADV121">
+        <v>0.4975839</v>
+      </c>
+      <c r="AEA121">
+        <v>0.3999872</v>
+      </c>
+      <c r="AEB121">
+        <v>0.3658518</v>
+      </c>
+      <c r="AEF121">
+        <v>0.4503199</v>
+      </c>
+      <c r="AEG121">
+        <v>0.4898649</v>
+      </c>
+      <c r="AEH121">
+        <v>0.3345222</v>
+      </c>
+      <c r="AEI121">
+        <v>0.5961684</v>
+      </c>
+      <c r="AEJ121">
+        <v>0.3602951</v>
+      </c>
+      <c r="AEL121">
+        <v>0.3838772</v>
+      </c>
+      <c r="AEU121">
+        <v>0.2428549</v>
+      </c>
+      <c r="AEZ121">
+        <v>0.4734848</v>
+      </c>
+      <c r="AFD121">
+        <v>0.1824785</v>
+      </c>
+      <c r="AFG121">
+        <v>0.0877088</v>
+      </c>
+      <c r="AFH121">
+        <v>0.2837001</v>
+      </c>
+      <c r="AFK121">
+        <v>0.5602241</v>
+      </c>
+      <c r="AFL121">
+        <v>0.5816227</v>
+      </c>
+      <c r="AFN121">
+        <v>0.3521127</v>
+      </c>
+      <c r="AFT121">
+        <v>0.3841157</v>
+      </c>
+      <c r="AFU121">
+        <v>0.5039323</v>
+      </c>
+      <c r="AFX121">
+        <v>0.3462837</v>
+      </c>
+      <c r="AGA121">
+        <v>0.482077</v>
+      </c>
+      <c r="AGC121">
+        <v>0.3894296</v>
+      </c>
+      <c r="AGE121">
+        <v>0.4281508</v>
+      </c>
+      <c r="AGF121">
+        <v>1.1111111</v>
+      </c>
+      <c r="AGG121">
+        <v>0.4346769</v>
+      </c>
+      <c r="AGL121">
+        <v>0.0301266</v>
+      </c>
+      <c r="AGM121">
+        <v>0.7467812</v>
+      </c>
+      <c r="AGO121">
+        <v>0.3992016</v>
+      </c>
+      <c r="AGP121">
+        <v>0.3225308</v>
+      </c>
+      <c r="AGV121">
+        <v>0.1743375</v>
+      </c>
+      <c r="AHA121">
+        <v>0.3583395</v>
+      </c>
+      <c r="AHB121">
+        <v>0.2679471</v>
+      </c>
+      <c r="AHD121">
+        <v>0.2139243</v>
+      </c>
+      <c r="AHH121">
+        <v>0.1733333</v>
+      </c>
+      <c r="AHN121">
+        <v>0.56971</v>
+      </c>
+      <c r="AHP121">
+        <v>0.4548408</v>
+      </c>
+      <c r="AHS121">
+        <v>0</v>
+      </c>
+      <c r="AHU121">
+        <v>0.2525565</v>
+      </c>
+      <c r="AHX121">
+        <v>0.0796813</v>
+      </c>
+      <c r="AIB121">
+        <v>0.2283105</v>
+      </c>
+      <c r="AID121">
+        <v>0.2332431</v>
+      </c>
+      <c r="AIE121">
+        <v>0.765588</v>
+      </c>
+      <c r="AIF121">
+        <v>0.3094059</v>
+      </c>
+      <c r="AII121">
+        <v>0.2665076</v>
+      </c>
+      <c r="AIP121">
+        <v>0.402782</v>
+      </c>
+      <c r="AIT121">
+        <v>0.2556593</v>
+      </c>
+      <c r="AIV121">
+        <v>0.8751059</v>
+      </c>
+      <c r="AIY121">
+        <v>0.3009338</v>
+      </c>
+      <c r="AIZ121">
+        <v>0.3890638</v>
+      </c>
+    </row>
+    <row r="122" spans="1:938">
+      <c r="A122" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D122">
+        <v>0.1228501</v>
+      </c>
+      <c r="H122">
+        <v>0.3035286</v>
+      </c>
+      <c r="J122">
+        <v>0.9625127</v>
+      </c>
+      <c r="K122">
+        <v>0.1088647</v>
+      </c>
+      <c r="L122">
+        <v>0.2863241</v>
+      </c>
+      <c r="P122">
+        <v>0.2816462</v>
+      </c>
+      <c r="R122">
+        <v>0.428051</v>
+      </c>
+      <c r="U122">
+        <v>0.3488813</v>
+      </c>
+      <c r="X122">
+        <v>0.4192872</v>
+      </c>
+      <c r="Z122">
+        <v>0.6753813</v>
+      </c>
+      <c r="AB122">
+        <v>0.6629676</v>
+      </c>
+      <c r="AD122">
+        <v>0.492688</v>
+      </c>
+      <c r="AG122">
+        <v>0.1286912</v>
+      </c>
+      <c r="AI122">
+        <v>0.1202303</v>
+      </c>
+      <c r="AN122">
+        <v>0.3262691</v>
+      </c>
+      <c r="AV122">
+        <v>0.7006369</v>
+      </c>
+      <c r="AW122">
+        <v>0.256668</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0.1203369</v>
+      </c>
+      <c r="BC122">
+        <v>0.3383388</v>
+      </c>
+      <c r="BF122">
+        <v>0.2007231</v>
+      </c>
+      <c r="BH122">
+        <v>0.3176656</v>
+      </c>
+      <c r="BI122">
+        <v>0.3134236</v>
+      </c>
+      <c r="BJ122">
+        <v>0.2252803</v>
+      </c>
+      <c r="BM122">
+        <v>0.2136752</v>
+      </c>
+      <c r="BR122">
+        <v>0.5576008</v>
+      </c>
+      <c r="BS122">
+        <v>0.5881575</v>
+      </c>
+      <c r="BT122">
+        <v>0</v>
+      </c>
+      <c r="BW122">
+        <v>0.1357938</v>
+      </c>
+      <c r="BY122">
+        <v>0.2951862</v>
+      </c>
+      <c r="CC122">
+        <v>0.0949668</v>
+      </c>
+      <c r="CE122">
+        <v>0.308642</v>
+      </c>
+      <c r="CL122">
+        <v>0.4857316</v>
+      </c>
+      <c r="CM122">
+        <v>0.3013741</v>
+      </c>
+      <c r="CN122">
+        <v>0.535788</v>
+      </c>
+      <c r="CO122">
+        <v>0</v>
+      </c>
+      <c r="CR122">
+        <v>0.2534569</v>
+      </c>
+      <c r="CT122">
+        <v>0.7575758</v>
+      </c>
+      <c r="CY122">
+        <v>0.1975312</v>
+      </c>
+      <c r="DC122">
+        <v>0.3385755</v>
+      </c>
+      <c r="DD122">
+        <v>0.2650513</v>
+      </c>
+      <c r="DK122">
+        <v>0.7088123</v>
+      </c>
+      <c r="DN122">
+        <v>0.2114577</v>
+      </c>
+      <c r="DS122">
+        <v>0.2067686</v>
+      </c>
+      <c r="DW122">
+        <v>0.2245392</v>
+      </c>
+      <c r="DZ122">
+        <v>0.3092146</v>
+      </c>
+      <c r="EA122">
+        <v>0.2858008</v>
+      </c>
+      <c r="EK122">
+        <v>0.2986474</v>
+      </c>
+      <c r="EL122">
+        <v>0.304401</v>
+      </c>
+      <c r="EM122">
+        <v>0.8278146</v>
+      </c>
+      <c r="EN122">
+        <v>0.7373537999999999</v>
+      </c>
+      <c r="ER122">
+        <v>0</v>
+      </c>
+      <c r="ET122">
+        <v>0.0272316</v>
+      </c>
+      <c r="EZ122">
+        <v>0.1524602</v>
+      </c>
+      <c r="FA122">
+        <v>0.1940032</v>
+      </c>
+      <c r="FB122">
+        <v>0.5562476</v>
+      </c>
+      <c r="FD122">
+        <v>0.3550533</v>
+      </c>
+      <c r="FE122">
+        <v>0.196106</v>
+      </c>
+      <c r="FG122">
+        <v>0.3255602</v>
+      </c>
+      <c r="FH122">
+        <v>0.7262997</v>
+      </c>
+      <c r="FI122">
+        <v>0.4155405</v>
+      </c>
+      <c r="FJ122">
+        <v>0.3703704</v>
+      </c>
+      <c r="FL122">
+        <v>0.3021973</v>
+      </c>
+      <c r="FO122">
+        <v>0.09474589999999999</v>
+      </c>
+      <c r="FR122">
+        <v>0</v>
+      </c>
+      <c r="FS122">
+        <v>0.3785749</v>
+      </c>
+      <c r="FY122">
+        <v>0.2242152</v>
+      </c>
+      <c r="GB122">
+        <v>0.071626</v>
+      </c>
+      <c r="GC122">
+        <v>0.4540755</v>
+      </c>
+      <c r="GD122">
+        <v>0.4085443</v>
+      </c>
+      <c r="GE122">
+        <v>0.508694</v>
+      </c>
+      <c r="GF122">
+        <v>0.2441419</v>
+      </c>
+      <c r="GJ122">
+        <v>0.1781802</v>
+      </c>
+      <c r="GS122">
+        <v>0.5188299</v>
+      </c>
+      <c r="GV122">
+        <v>0.2818887</v>
+      </c>
+      <c r="HA122">
+        <v>0.7465942</v>
+      </c>
+      <c r="HF122">
+        <v>0.3589289</v>
+      </c>
+      <c r="HH122">
+        <v>0.6892231</v>
+      </c>
+      <c r="HK122">
+        <v>0.4293595</v>
+      </c>
+      <c r="HL122">
+        <v>0.2986436</v>
+      </c>
+      <c r="HN122">
+        <v>0.3297834</v>
+      </c>
+      <c r="HO122">
+        <v>0.3559871</v>
+      </c>
+      <c r="HP122">
+        <v>0.248227</v>
+      </c>
+      <c r="HT122">
+        <v>0.5001914</v>
+      </c>
+      <c r="HV122">
+        <v>0.3112588</v>
+      </c>
+      <c r="HX122">
+        <v>0.6002189999999999</v>
+      </c>
+      <c r="HY122">
+        <v>0.2577439</v>
+      </c>
+      <c r="IC122">
+        <v>0.2983294</v>
+      </c>
+      <c r="IE122">
+        <v>0.5085529</v>
+      </c>
+      <c r="IH122">
+        <v>0.399729</v>
+      </c>
+      <c r="II122">
+        <v>0.5652412999999999</v>
+      </c>
+      <c r="IN122">
+        <v>0.434802</v>
+      </c>
+      <c r="IR122">
+        <v>0.1578283</v>
+      </c>
+      <c r="IS122">
+        <v>0.1706485</v>
+      </c>
+      <c r="IZ122">
+        <v>0.0880282</v>
+      </c>
+      <c r="JB122">
+        <v>0.5035798</v>
+      </c>
+      <c r="JF122">
+        <v>0.3463203</v>
+      </c>
+      <c r="JG122">
+        <v>0.323825</v>
+      </c>
+      <c r="JK122">
+        <v>0.1012616</v>
+      </c>
+      <c r="JO122">
+        <v>0.0604028</v>
+      </c>
+      <c r="JR122">
+        <v>0.2693756</v>
+      </c>
+      <c r="JS122">
+        <v>1.1261261</v>
+      </c>
+      <c r="JX122">
+        <v>0.741825</v>
+      </c>
+      <c r="KB122">
+        <v>0.3093597</v>
+      </c>
+      <c r="KC122">
+        <v>0.4199239</v>
+      </c>
+      <c r="KI122">
+        <v>0.1575924</v>
+      </c>
+      <c r="KJ122">
+        <v>0.6594181</v>
+      </c>
+      <c r="KO122">
+        <v>0.1329561</v>
+      </c>
+      <c r="KV122">
+        <v>0.8044192</v>
+      </c>
+      <c r="KW122">
+        <v>0.3737767</v>
+      </c>
+      <c r="LD122">
+        <v>0.2714344</v>
+      </c>
+      <c r="LG122">
+        <v>0.4007669</v>
+      </c>
+      <c r="LH122">
+        <v>0.3111111</v>
+      </c>
+      <c r="LO122">
+        <v>0.3388786</v>
+      </c>
+      <c r="LR122">
+        <v>0.130719</v>
+      </c>
+      <c r="LW122">
+        <v>0.9868421000000001</v>
+      </c>
+      <c r="LX122">
+        <v>0.7575758</v>
+      </c>
+      <c r="LY122">
+        <v>0.2118644</v>
+      </c>
+      <c r="MA122">
+        <v>0.3187312</v>
+      </c>
+      <c r="MC122">
+        <v>1.0694444</v>
+      </c>
+      <c r="ME122">
+        <v>0</v>
+      </c>
+      <c r="MF122">
+        <v>0.1453414</v>
+      </c>
+      <c r="MG122">
+        <v>0.4559299</v>
+      </c>
+      <c r="MI122">
+        <v>0.3074993</v>
+      </c>
+      <c r="ML122">
+        <v>0.4081633</v>
+      </c>
+      <c r="MN122">
+        <v>0.1591626</v>
+      </c>
+      <c r="MS122">
+        <v>0.3176045</v>
+      </c>
+      <c r="MU122">
+        <v>0.6228534</v>
+      </c>
+      <c r="MW122">
+        <v>0.3891753</v>
+      </c>
+      <c r="MX122">
+        <v>0.8730159</v>
+      </c>
+      <c r="MZ122">
+        <v>0.2564548</v>
+      </c>
+      <c r="NC122">
+        <v>0.3707354</v>
+      </c>
+      <c r="NE122">
+        <v>0.6149154</v>
+      </c>
+      <c r="NM122">
+        <v>0.3866629</v>
+      </c>
+      <c r="NP122">
+        <v>0.0378046</v>
+      </c>
+      <c r="NQ122">
+        <v>0.2347418</v>
+      </c>
+      <c r="NT122">
+        <v>0.3171247</v>
+      </c>
+      <c r="NW122">
+        <v>0.7635468</v>
+      </c>
+      <c r="NY122">
+        <v>0.2512563</v>
+      </c>
+      <c r="NZ122">
+        <v>0.4101035</v>
+      </c>
+      <c r="OD122">
+        <v>0.494591</v>
+      </c>
+      <c r="OE122">
+        <v>0.1490637</v>
+      </c>
+      <c r="OJ122">
+        <v>0.6419414</v>
+      </c>
+      <c r="OL122">
+        <v>0.286696</v>
+      </c>
+      <c r="ON122">
+        <v>0.3585916</v>
+      </c>
+      <c r="OP122">
+        <v>0</v>
+      </c>
+      <c r="OQ122">
+        <v>0.4758833</v>
+      </c>
+      <c r="OR122">
+        <v>0.6970962000000001</v>
+      </c>
+      <c r="OT122">
+        <v>0.2863962</v>
+      </c>
+      <c r="OV122">
+        <v>0.4015102</v>
+      </c>
+      <c r="OX122">
+        <v>0.8005345</v>
+      </c>
+      <c r="PB122">
+        <v>0.2324004</v>
+      </c>
+      <c r="PG122">
+        <v>0.2560163</v>
+      </c>
+      <c r="PJ122">
+        <v>0.1372872</v>
+      </c>
+      <c r="PK122">
+        <v>0.0466418</v>
+      </c>
+      <c r="PL122">
+        <v>1.4894063</v>
+      </c>
+      <c r="PM122">
+        <v>0.2985984</v>
+      </c>
+      <c r="PP122">
+        <v>0.4361458</v>
+      </c>
+      <c r="PR122">
+        <v>0</v>
+      </c>
+      <c r="PS122">
+        <v>0.3784189</v>
+      </c>
+      <c r="PY122">
+        <v>0.5073425</v>
+      </c>
+      <c r="QD122">
+        <v>0.5191884</v>
+      </c>
+      <c r="QE122">
+        <v>0.1763191</v>
+      </c>
+      <c r="QF122">
+        <v>0</v>
+      </c>
+      <c r="QK122">
+        <v>0.3880499</v>
+      </c>
+      <c r="QN122">
+        <v>0.5073801</v>
+      </c>
+      <c r="QO122">
+        <v>0.5251425</v>
+      </c>
+      <c r="QP122">
+        <v>0.1827472</v>
+      </c>
+      <c r="QS122">
+        <v>0.2439024</v>
+      </c>
+      <c r="QU122">
+        <v>0.6048387</v>
+      </c>
+      <c r="QV122">
+        <v>0.6704798</v>
+      </c>
+      <c r="QX122">
+        <v>0.2029715</v>
+      </c>
+      <c r="QY122">
+        <v>0.2344961</v>
+      </c>
+      <c r="RB122">
+        <v>0.1632352</v>
+      </c>
+      <c r="RD122">
+        <v>0.2588973</v>
+      </c>
+      <c r="RI122">
+        <v>0.1138952</v>
+      </c>
+      <c r="RL122">
+        <v>0.0720721</v>
+      </c>
+      <c r="RQ122">
+        <v>0.1818182</v>
+      </c>
+      <c r="RT122">
+        <v>0.2165234</v>
+      </c>
+      <c r="RV122">
+        <v>0.780379</v>
+      </c>
+      <c r="RX122">
+        <v>0.1634226</v>
+      </c>
+      <c r="RY122">
+        <v>0.3628521</v>
+      </c>
+      <c r="SA122">
+        <v>0</v>
+      </c>
+      <c r="SD122">
+        <v>0.6901829</v>
+      </c>
+      <c r="SG122">
+        <v>0.4367993</v>
+      </c>
+      <c r="SH122">
+        <v>0.2959271</v>
+      </c>
+      <c r="SI122">
+        <v>0.469938</v>
+      </c>
+      <c r="SM122">
+        <v>0.2955391</v>
+      </c>
+      <c r="SO122">
+        <v>0.5014232</v>
+      </c>
+      <c r="SP122">
+        <v>0.449827</v>
+      </c>
+      <c r="SR122">
+        <v>0.2871507</v>
+      </c>
+      <c r="SW122">
+        <v>0.264291</v>
+      </c>
+      <c r="SX122">
+        <v>0.2364066</v>
+      </c>
+      <c r="TS122">
+        <v>0.3078916</v>
+      </c>
+      <c r="TX122">
+        <v>0.2490113</v>
+      </c>
+      <c r="TY122">
+        <v>0.3836261</v>
+      </c>
+      <c r="UA122">
+        <v>0.5575326</v>
+      </c>
+      <c r="UE122">
+        <v>0.2250052</v>
+      </c>
+      <c r="UF122">
+        <v>0.4065041</v>
+      </c>
+      <c r="UH122">
+        <v>0.0572779</v>
+      </c>
+      <c r="UI122">
+        <v>0.3735632</v>
+      </c>
+      <c r="UK122">
+        <v>0.1661091</v>
+      </c>
+      <c r="UN122">
+        <v>0.3955167</v>
+      </c>
+      <c r="UP122">
+        <v>0.5070547</v>
+      </c>
+      <c r="US122">
+        <v>0.6762706000000001</v>
+      </c>
+      <c r="UT122">
+        <v>0.3229035</v>
+      </c>
+      <c r="UU122">
+        <v>0.7318841</v>
+      </c>
+      <c r="UV122">
+        <v>0.4265452</v>
+      </c>
+      <c r="UW122">
+        <v>0.7577221</v>
+      </c>
+      <c r="VA122">
+        <v>0.2567134</v>
+      </c>
+      <c r="VB122">
+        <v>0.7692308</v>
+      </c>
+      <c r="VO122">
+        <v>0.1066098</v>
+      </c>
+      <c r="VP122">
+        <v>0.8906134999999999</v>
+      </c>
+      <c r="VS122">
+        <v>0.3567129</v>
+      </c>
+      <c r="VU122">
+        <v>0.4576025</v>
+      </c>
+      <c r="VW122">
+        <v>0.238806</v>
+      </c>
+      <c r="VX122">
+        <v>0.2750687</v>
+      </c>
+      <c r="VY122">
+        <v>0.3637463</v>
+      </c>
+      <c r="WB122">
+        <v>0.2664068</v>
+      </c>
+      <c r="WF122">
+        <v>0.3783402</v>
+      </c>
+      <c r="WG122">
+        <v>0.4929214</v>
+      </c>
+      <c r="WL122">
+        <v>0.4520213</v>
+      </c>
+      <c r="WM122">
+        <v>0.3238631</v>
+      </c>
+      <c r="WQ122">
+        <v>0.3963155</v>
+      </c>
+      <c r="WU122">
+        <v>0.2799842</v>
+      </c>
+      <c r="WW122">
+        <v>0.1777982</v>
+      </c>
+      <c r="WY122">
+        <v>0.755287</v>
+      </c>
+      <c r="WZ122">
+        <v>0.5471968</v>
+      </c>
+      <c r="XD122">
+        <v>0.4044833</v>
+      </c>
+      <c r="XF122">
+        <v>0.3909074</v>
+      </c>
+      <c r="XG122">
+        <v>0.407676</v>
+      </c>
+      <c r="XL122">
+        <v>0.254306</v>
+      </c>
+      <c r="XM122">
+        <v>0.2371123</v>
+      </c>
+      <c r="XT122">
+        <v>0.9637188</v>
+      </c>
+      <c r="XV122">
+        <v>0.304888</v>
+      </c>
+      <c r="YB122">
+        <v>0.2747375</v>
+      </c>
+      <c r="YD122">
+        <v>0.7546188</v>
+      </c>
+      <c r="YH122">
+        <v>0.8896302</v>
+      </c>
+      <c r="YN122">
+        <v>0.5774743</v>
+      </c>
+      <c r="YO122">
+        <v>0.3764546</v>
+      </c>
+      <c r="YQ122">
+        <v>0.3106406</v>
+      </c>
+      <c r="YR122">
+        <v>0.4759017</v>
+      </c>
+      <c r="YX122">
+        <v>0.2465566</v>
+      </c>
+      <c r="YY122">
+        <v>0.2898551</v>
+      </c>
+      <c r="ZL122">
+        <v>0.2348781</v>
+      </c>
+      <c r="ZM122">
+        <v>0.3254049</v>
+      </c>
+      <c r="ZO122">
+        <v>0.1644737</v>
+      </c>
+      <c r="ZR122">
+        <v>0.4725132</v>
+      </c>
+      <c r="ZS122">
+        <v>0</v>
+      </c>
+      <c r="ZV122">
+        <v>0.3966881</v>
+      </c>
+      <c r="ZW122">
+        <v>0.1100259</v>
+      </c>
+      <c r="ZX122">
+        <v>0.2352924</v>
+      </c>
+      <c r="ZZ122">
+        <v>0.193049</v>
+      </c>
+      <c r="AAB122">
+        <v>0.8714788999999999</v>
+      </c>
+      <c r="AAC122">
+        <v>0.2657495</v>
+      </c>
+      <c r="AAD122">
+        <v>0.7823129</v>
+      </c>
+      <c r="AAF122">
+        <v>0.1246961</v>
+      </c>
+      <c r="AAH122">
+        <v>0.6742281</v>
+      </c>
+      <c r="AAJ122">
+        <v>0.2249862</v>
+      </c>
+      <c r="AAM122">
+        <v>0.4571511</v>
+      </c>
+      <c r="AAP122">
+        <v>0.3734753</v>
+      </c>
+      <c r="AAR122">
+        <v>0.6053366999999999</v>
+      </c>
+      <c r="AAU122">
+        <v>0.1698992</v>
+      </c>
+      <c r="AAV122">
+        <v>0.2118676</v>
+      </c>
+      <c r="AAW122">
+        <v>0.6228049</v>
+      </c>
+      <c r="ABA122">
+        <v>0.4269663</v>
+      </c>
+      <c r="ABC122">
+        <v>0.6870229</v>
+      </c>
+      <c r="ABJ122">
+        <v>0.197783</v>
+      </c>
+      <c r="ABL122">
+        <v>0.4352961</v>
+      </c>
+      <c r="ABM122">
+        <v>0.6003393</v>
+      </c>
+      <c r="ABN122">
+        <v>0.3663004</v>
+      </c>
+      <c r="ABP122">
+        <v>0.3318311</v>
+      </c>
+      <c r="ABT122">
+        <v>0.3827585</v>
+      </c>
+      <c r="ABV122">
+        <v>0.0196258</v>
+      </c>
+      <c r="ABW122">
+        <v>0.6202652</v>
+      </c>
+      <c r="ABX122">
+        <v>0.2522238</v>
+      </c>
+      <c r="ABY122">
+        <v>0.3649635</v>
+      </c>
+      <c r="ABZ122">
+        <v>0.1610599</v>
+      </c>
+      <c r="ACA122">
+        <v>0.2071132</v>
+      </c>
+      <c r="ACE122">
+        <v>0.2393862</v>
+      </c>
+      <c r="ACG122">
+        <v>0.1686165</v>
+      </c>
+      <c r="ACI122">
+        <v>0.08826349999999999</v>
+      </c>
+      <c r="ACJ122">
+        <v>0.1130438</v>
+      </c>
+      <c r="ACK122">
+        <v>0.2185315</v>
+      </c>
+      <c r="ACM122">
+        <v>0.2148359</v>
+      </c>
+      <c r="ACN122">
+        <v>0.09041299999999999</v>
+      </c>
+      <c r="ACP122">
+        <v>0.2559736</v>
+      </c>
+      <c r="ACU122">
+        <v>0.4194084</v>
+      </c>
+      <c r="ACW122">
+        <v>0.283832</v>
+      </c>
+      <c r="ACX122">
+        <v>0</v>
+      </c>
+      <c r="ADP122">
+        <v>0.144275</v>
+      </c>
+      <c r="ADR122">
+        <v>1.2878788</v>
+      </c>
+      <c r="ADU122">
+        <v>0.4729214</v>
+      </c>
+      <c r="ADV122">
+        <v>0.4376357</v>
+      </c>
+      <c r="AEA122">
+        <v>0.4977247</v>
+      </c>
+      <c r="AEB122">
+        <v>0.267926</v>
+      </c>
+      <c r="AEF122">
+        <v>0.4924956</v>
+      </c>
+      <c r="AEG122">
+        <v>0.5443322</v>
+      </c>
+      <c r="AEH122">
+        <v>0.4055239</v>
+      </c>
+      <c r="AEI122">
+        <v>0.4043072</v>
+      </c>
+      <c r="AEJ122">
+        <v>0.4732153</v>
+      </c>
+      <c r="AEL122">
+        <v>0.4368932</v>
+      </c>
+      <c r="AEU122">
+        <v>0.3681044</v>
+      </c>
+      <c r="AEZ122">
+        <v>0.5005005</v>
+      </c>
+      <c r="AFD122">
+        <v>0.1712476</v>
+      </c>
+      <c r="AFG122">
+        <v>0.1559286</v>
+      </c>
+      <c r="AFH122">
+        <v>0.3271977</v>
+      </c>
+      <c r="AFK122">
+        <v>0.7358898</v>
+      </c>
+      <c r="AFL122">
+        <v>0.3186275</v>
+      </c>
+      <c r="AFN122">
+        <v>0.3521127</v>
+      </c>
+      <c r="AFT122">
+        <v>0.3945825</v>
+      </c>
+      <c r="AFU122">
+        <v>0.5053317000000001</v>
+      </c>
+      <c r="AFX122">
+        <v>0.2704433</v>
+      </c>
+      <c r="AGA122">
+        <v>0.5513876</v>
+      </c>
+      <c r="AGC122">
+        <v>0.4090263</v>
+      </c>
+      <c r="AGE122">
+        <v>0.4472659</v>
+      </c>
+      <c r="AGF122">
+        <v>1.1934156</v>
+      </c>
+      <c r="AGG122">
+        <v>0.436748</v>
+      </c>
+      <c r="AGL122">
+        <v>0.0935801</v>
+      </c>
+      <c r="AGM122">
+        <v>0.726786</v>
+      </c>
+      <c r="AGO122">
+        <v>0.1004016</v>
+      </c>
+      <c r="AGP122">
+        <v>0.35577</v>
+      </c>
+      <c r="AGV122">
+        <v>0.3348214</v>
+      </c>
+      <c r="AHA122">
+        <v>0.4301168</v>
+      </c>
+      <c r="AHB122">
+        <v>0.2669104</v>
+      </c>
+      <c r="AHD122">
+        <v>0.3770528</v>
+      </c>
+      <c r="AHH122">
+        <v>0.1783265</v>
+      </c>
+      <c r="AHN122">
+        <v>0.5180723</v>
+      </c>
+      <c r="AHP122">
+        <v>0.3353057</v>
+      </c>
+      <c r="AHS122">
+        <v>0</v>
+      </c>
+      <c r="AHU122">
+        <v>0.2569255</v>
+      </c>
+      <c r="AHX122">
+        <v>0.0826446</v>
+      </c>
+      <c r="AIB122">
+        <v>0.2392344</v>
+      </c>
+      <c r="AID122">
+        <v>0.2332563</v>
+      </c>
+      <c r="AIE122">
+        <v>0.7719857</v>
+      </c>
+      <c r="AIF122">
+        <v>0.2955083</v>
+      </c>
+      <c r="AII122">
+        <v>0.224042</v>
+      </c>
+      <c r="AIP122">
+        <v>0.3767761</v>
+      </c>
+      <c r="AIT122">
+        <v>0.2221996</v>
+      </c>
+      <c r="AIV122">
+        <v>0.6500855</v>
+      </c>
+      <c r="AIY122">
+        <v>0.444042</v>
+      </c>
+      <c r="AIZ122">
+        <v>0.3631962</v>
+      </c>
+    </row>
+    <row r="123" spans="1:938">
+      <c r="A123" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyMetro.xlsx
+++ b/fb-surveyMetro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="1068">
   <si>
     <t>Aberdeen, SD</t>
   </si>
@@ -3197,6 +3197,27 @@
   </si>
   <si>
     <t>01 06 2020</t>
+  </si>
+  <si>
+    <t>02 06 2020</t>
+  </si>
+  <si>
+    <t>03 06 2020</t>
+  </si>
+  <si>
+    <t>04 06 2020</t>
+  </si>
+  <si>
+    <t>05 06 2020</t>
+  </si>
+  <si>
+    <t>06 06 2020</t>
+  </si>
+  <si>
+    <t>07 06 2020</t>
+  </si>
+  <si>
+    <t>08 06 2020</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJD123"/>
+  <dimension ref="A1:AJD130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22172,6 +22193,9 @@
       <c r="JG81">
         <v>0.4840084</v>
       </c>
+      <c r="JI81">
+        <v>0.7075472</v>
+      </c>
       <c r="JK81">
         <v>0.5638969</v>
       </c>
@@ -26980,6 +27004,9 @@
       <c r="RL85">
         <v>0.4739336</v>
       </c>
+      <c r="RP85">
+        <v>0.1412429</v>
+      </c>
       <c r="RQ85">
         <v>0.5514706</v>
       </c>
@@ -27900,6 +27927,9 @@
       <c r="LD86">
         <v>0.4797891</v>
       </c>
+      <c r="LE86">
+        <v>0</v>
+      </c>
       <c r="LG86">
         <v>0.3219413</v>
       </c>
@@ -28109,6 +28139,9 @@
       </c>
       <c r="RL86">
         <v>0.4444444</v>
+      </c>
+      <c r="RP86">
+        <v>0.140056</v>
       </c>
       <c r="RQ86">
         <v>0.0558036</v>
@@ -28889,6 +28922,9 @@
       <c r="GF87">
         <v>1.4461271</v>
       </c>
+      <c r="GG87">
+        <v>0.9036145</v>
+      </c>
       <c r="GJ87">
         <v>0.3412683</v>
       </c>
@@ -29027,6 +29063,9 @@
       <c r="LD87">
         <v>0.4819738</v>
       </c>
+      <c r="LE87">
+        <v>0</v>
+      </c>
       <c r="LG87">
         <v>0.1315179</v>
       </c>
@@ -29237,6 +29276,9 @@
       <c r="RL87">
         <v>0.4</v>
       </c>
+      <c r="RP87">
+        <v>0.1501502</v>
+      </c>
       <c r="RQ87">
         <v>0.4016064</v>
       </c>
@@ -29593,6 +29635,9 @@
       </c>
       <c r="ACX87">
         <v>1.0162602</v>
+      </c>
+      <c r="ACY87">
+        <v>1.1693548</v>
       </c>
       <c r="ADI87">
         <v>0</v>
@@ -30013,6 +30058,9 @@
       <c r="GF88">
         <v>1.4617203</v>
       </c>
+      <c r="GG88">
+        <v>1.1976048</v>
+      </c>
       <c r="GJ88">
         <v>0.4127608</v>
       </c>
@@ -30151,6 +30199,9 @@
       <c r="LD88">
         <v>0.3726561</v>
       </c>
+      <c r="LE88">
+        <v>0</v>
+      </c>
       <c r="LG88">
         <v>0.1275209</v>
       </c>
@@ -30316,6 +30367,9 @@
       <c r="QK88">
         <v>0.6947362</v>
       </c>
+      <c r="QL88">
+        <v>0.8474576</v>
+      </c>
       <c r="QN88">
         <v>1.5800204</v>
       </c>
@@ -30357,6 +30411,9 @@
       </c>
       <c r="RL88">
         <v>0.1006036</v>
+      </c>
+      <c r="RP88">
+        <v>0.1557632</v>
       </c>
       <c r="RQ88">
         <v>0.3802281</v>
@@ -31134,6 +31191,9 @@
       <c r="GF89">
         <v>1.0695802</v>
       </c>
+      <c r="GG89">
+        <v>1.744186</v>
+      </c>
       <c r="GJ89">
         <v>0.468829</v>
       </c>
@@ -31272,6 +31332,9 @@
       <c r="LD89">
         <v>0.2690875</v>
       </c>
+      <c r="LE89">
+        <v>0</v>
+      </c>
       <c r="LG89">
         <v>0.1658845</v>
       </c>
@@ -31437,6 +31500,9 @@
       <c r="QK89">
         <v>0.6048161</v>
       </c>
+      <c r="QL89">
+        <v>0.8474576</v>
+      </c>
       <c r="QN89">
         <v>1.427256</v>
       </c>
@@ -31478,6 +31544,9 @@
       </c>
       <c r="RL89">
         <v>0.0910093</v>
+      </c>
+      <c r="RP89">
+        <v>0</v>
       </c>
       <c r="RQ89">
         <v>0.3623188</v>
@@ -32255,6 +32324,9 @@
       <c r="GF90">
         <v>1.0322409</v>
       </c>
+      <c r="GG90">
+        <v>1.6574586</v>
+      </c>
       <c r="GJ90">
         <v>0.4303652</v>
       </c>
@@ -32393,6 +32465,9 @@
       <c r="LD90">
         <v>0.284987</v>
       </c>
+      <c r="LE90">
+        <v>0</v>
+      </c>
       <c r="LG90">
         <v>0.3779957</v>
       </c>
@@ -32599,6 +32674,9 @@
       </c>
       <c r="RL90">
         <v>0.08512169999999999</v>
+      </c>
+      <c r="RP90">
+        <v>0</v>
       </c>
       <c r="RQ90">
         <v>0.7246377000000001</v>
@@ -33376,6 +33454,9 @@
       <c r="GF91">
         <v>0.9820993</v>
       </c>
+      <c r="GG91">
+        <v>1.7241379</v>
+      </c>
       <c r="GJ91">
         <v>0.2979696</v>
       </c>
@@ -33771,6 +33852,9 @@
       </c>
       <c r="SX91">
         <v>0.626151</v>
+      </c>
+      <c r="SZ91">
+        <v>0.6578947000000001</v>
       </c>
       <c r="TA91">
         <v>0.2380952</v>
@@ -34494,6 +34578,9 @@
       <c r="GF92">
         <v>0.8579443</v>
       </c>
+      <c r="GG92">
+        <v>1.497006</v>
+      </c>
       <c r="GJ92">
         <v>0.3243705</v>
       </c>
@@ -34889,6 +34976,9 @@
       </c>
       <c r="SX92">
         <v>0.6553819</v>
+      </c>
+      <c r="SZ92">
+        <v>0.6849315</v>
       </c>
       <c r="TA92">
         <v>0.2717391</v>
@@ -35684,6 +35774,9 @@
       <c r="IS93">
         <v>0.9777102</v>
       </c>
+      <c r="IW93">
+        <v>2.3053742</v>
+      </c>
       <c r="IZ93">
         <v>0.4528986</v>
       </c>
@@ -36799,6 +36892,9 @@
       <c r="IS94">
         <v>0.5649718</v>
       </c>
+      <c r="IW94">
+        <v>1.7501215</v>
+      </c>
       <c r="IZ94">
         <v>0.2707581</v>
       </c>
@@ -37914,6 +38010,9 @@
       <c r="IS95">
         <v>0.5649718</v>
       </c>
+      <c r="IW95">
+        <v>1.8386108</v>
+      </c>
       <c r="IZ95">
         <v>0.2678571</v>
       </c>
@@ -39029,6 +39128,9 @@
       <c r="IS96">
         <v>0.5847953</v>
       </c>
+      <c r="IW96">
+        <v>2.0258767</v>
+      </c>
       <c r="IZ96">
         <v>0.4813478</v>
       </c>
@@ -39871,6 +39973,9 @@
       <c r="AG97">
         <v>0.1756648</v>
       </c>
+      <c r="AH97">
+        <v>1.0294118</v>
+      </c>
       <c r="AI97">
         <v>0.0508078</v>
       </c>
@@ -40140,6 +40245,9 @@
       </c>
       <c r="IS97">
         <v>0.4291845</v>
+      </c>
+      <c r="IW97">
+        <v>1.6701102</v>
       </c>
       <c r="IZ97">
         <v>0.4711425</v>
@@ -40983,6 +41091,9 @@
       <c r="AG98">
         <v>0.07245</v>
       </c>
+      <c r="AH98">
+        <v>0.9929078</v>
+      </c>
       <c r="AI98">
         <v>0.0510022</v>
       </c>
@@ -41097,6 +41208,9 @@
       <c r="EA98">
         <v>0.290493</v>
       </c>
+      <c r="EE98">
+        <v>0</v>
+      </c>
       <c r="EK98">
         <v>0.2030419</v>
       </c>
@@ -41250,6 +41364,9 @@
       <c r="IS98">
         <v>0</v>
       </c>
+      <c r="IW98">
+        <v>1.4897579</v>
+      </c>
       <c r="IZ98">
         <v>0.3869048</v>
       </c>
@@ -41672,6 +41789,9 @@
       </c>
       <c r="WW98">
         <v>0.7514690000000001</v>
+      </c>
+      <c r="WX98">
+        <v>0.6892231</v>
       </c>
       <c r="WY98">
         <v>0.2564103</v>
@@ -42089,6 +42209,9 @@
       <c r="AG99">
         <v>0.0804661</v>
       </c>
+      <c r="AH99">
+        <v>1.0294118</v>
+      </c>
       <c r="AI99">
         <v>0.1925059</v>
       </c>
@@ -42203,6 +42326,9 @@
       <c r="EA99">
         <v>0.4182879</v>
       </c>
+      <c r="EE99">
+        <v>0</v>
+      </c>
       <c r="EK99">
         <v>0.2254718</v>
       </c>
@@ -42296,6 +42422,9 @@
       <c r="HA99">
         <v>0.2597486</v>
       </c>
+      <c r="HE99">
+        <v>0.4385965</v>
+      </c>
       <c r="HF99">
         <v>0.3565455</v>
       </c>
@@ -42775,6 +42904,9 @@
       </c>
       <c r="WW99">
         <v>0.887916</v>
+      </c>
+      <c r="WX99">
+        <v>0.7275132</v>
       </c>
       <c r="WY99">
         <v>0</v>
@@ -43306,6 +43438,9 @@
       <c r="EA100">
         <v>0.3479125</v>
       </c>
+      <c r="EE100">
+        <v>0</v>
+      </c>
       <c r="EK100">
         <v>0.280327</v>
       </c>
@@ -43399,6 +43534,9 @@
       <c r="HA100">
         <v>0.2709356</v>
       </c>
+      <c r="HE100">
+        <v>0.4545455</v>
+      </c>
       <c r="HF100">
         <v>0.3565415</v>
       </c>
@@ -43878,6 +44016,9 @@
       </c>
       <c r="WW100">
         <v>0.7951521</v>
+      </c>
+      <c r="WX100">
+        <v>0.5376344</v>
       </c>
       <c r="WY100">
         <v>0.2024291</v>
@@ -44409,6 +44550,9 @@
       <c r="EA101">
         <v>0.3067485</v>
       </c>
+      <c r="EE101">
+        <v>0</v>
+      </c>
       <c r="EK101">
         <v>0.2473954</v>
       </c>
@@ -44502,6 +44646,9 @@
       <c r="HA101">
         <v>0.2740123</v>
       </c>
+      <c r="HE101">
+        <v>0.952381</v>
+      </c>
       <c r="HF101">
         <v>0.3175327</v>
       </c>
@@ -44981,6 +45128,9 @@
       </c>
       <c r="WW101">
         <v>0.9092575000000001</v>
+      </c>
+      <c r="WX101">
+        <v>0</v>
       </c>
       <c r="WY101">
         <v>0.2040816</v>
@@ -45512,6 +45662,9 @@
       <c r="EA102">
         <v>0.591716</v>
       </c>
+      <c r="EE102">
+        <v>0</v>
+      </c>
       <c r="EK102">
         <v>0.3681871</v>
       </c>
@@ -46084,6 +46237,9 @@
       </c>
       <c r="WW102">
         <v>0.7507358</v>
+      </c>
+      <c r="WX102">
+        <v>0</v>
       </c>
       <c r="WY102">
         <v>0.6172840000000001</v>
@@ -46615,6 +46771,9 @@
       <c r="EA103">
         <v>0.4016064</v>
       </c>
+      <c r="EE103">
+        <v>0</v>
+      </c>
       <c r="EK103">
         <v>0.4157641</v>
       </c>
@@ -47188,6 +47347,9 @@
       <c r="WW103">
         <v>0.7808179</v>
       </c>
+      <c r="WX103">
+        <v>0</v>
+      </c>
       <c r="WY103">
         <v>1.2946429</v>
       </c>
@@ -47386,6 +47548,9 @@
       <c r="ACX103">
         <v>0</v>
       </c>
+      <c r="ADI103">
+        <v>0</v>
+      </c>
       <c r="ADN103">
         <v>0</v>
       </c>
@@ -47486,6 +47651,9 @@
         <v>0.6367583</v>
       </c>
       <c r="AGV103">
+        <v>0</v>
+      </c>
+      <c r="AGY103">
         <v>0</v>
       </c>
       <c r="AHA103">
@@ -47910,6 +48078,9 @@
       <c r="KK104">
         <v>1.5007541</v>
       </c>
+      <c r="KL104">
+        <v>0.2941176</v>
+      </c>
       <c r="KO104">
         <v>1.2199832</v>
       </c>
@@ -48480,6 +48651,9 @@
       <c r="ACX104">
         <v>0</v>
       </c>
+      <c r="ADI104">
+        <v>0</v>
+      </c>
       <c r="ADN104">
         <v>0</v>
       </c>
@@ -48580,6 +48754,9 @@
         <v>0.4881348</v>
       </c>
       <c r="AGV104">
+        <v>0</v>
+      </c>
+      <c r="AGY104">
         <v>0</v>
       </c>
       <c r="AHA104">
@@ -49004,6 +49181,9 @@
       <c r="KK105">
         <v>1.5075758</v>
       </c>
+      <c r="KL105">
+        <v>0.3045685</v>
+      </c>
       <c r="KO105">
         <v>1.168638</v>
       </c>
@@ -49574,6 +49754,9 @@
       <c r="ACX105">
         <v>0</v>
       </c>
+      <c r="ADI105">
+        <v>0</v>
+      </c>
       <c r="ADN105">
         <v>0</v>
       </c>
@@ -49674,6 +49857,9 @@
         <v>0.4829714</v>
       </c>
       <c r="AGV105">
+        <v>0</v>
+      </c>
+      <c r="AGY105">
         <v>0</v>
       </c>
       <c r="AHA105">
@@ -50098,6 +50284,9 @@
       <c r="KK106">
         <v>1.5007541</v>
       </c>
+      <c r="KL106">
+        <v>0.3092784</v>
+      </c>
       <c r="KO106">
         <v>0.8833619</v>
       </c>
@@ -50608,6 +50797,9 @@
       <c r="ABN106">
         <v>1.4851485</v>
       </c>
+      <c r="ABO106">
+        <v>0</v>
+      </c>
       <c r="ABP106">
         <v>0.2420078</v>
       </c>
@@ -50665,6 +50857,9 @@
       <c r="ACX106">
         <v>0.4329004</v>
       </c>
+      <c r="ADI106">
+        <v>0</v>
+      </c>
       <c r="ADN106">
         <v>0</v>
       </c>
@@ -50765,6 +50960,9 @@
         <v>0.4250766</v>
       </c>
       <c r="AGV106">
+        <v>0</v>
+      </c>
+      <c r="AGY106">
         <v>0</v>
       </c>
       <c r="AHA106">
@@ -51189,6 +51387,9 @@
       <c r="KK107">
         <v>1.493994</v>
       </c>
+      <c r="KL107">
+        <v>0.5851064</v>
+      </c>
       <c r="KO107">
         <v>0.7785402</v>
       </c>
@@ -51699,6 +51900,9 @@
       <c r="ABN107">
         <v>1.4018692</v>
       </c>
+      <c r="ABO107">
+        <v>0</v>
+      </c>
       <c r="ABP107">
         <v>0.2280174</v>
       </c>
@@ -51756,6 +51960,9 @@
       <c r="ACX107">
         <v>0.4016064</v>
       </c>
+      <c r="ADI107">
+        <v>0</v>
+      </c>
       <c r="ADN107">
         <v>0</v>
       </c>
@@ -51856,6 +52063,9 @@
         <v>0.4041088</v>
       </c>
       <c r="AGV107">
+        <v>0</v>
+      </c>
+      <c r="AGY107">
         <v>0</v>
       </c>
       <c r="AHA107">
@@ -52268,6 +52478,9 @@
       <c r="KC108">
         <v>0.6319849</v>
       </c>
+      <c r="KH108">
+        <v>1.1844332</v>
+      </c>
       <c r="KI108">
         <v>0.3686221</v>
       </c>
@@ -52277,6 +52490,9 @@
       <c r="KK108">
         <v>1.503268</v>
       </c>
+      <c r="KL108">
+        <v>0.6043956</v>
+      </c>
       <c r="KO108">
         <v>0.3579247</v>
       </c>
@@ -52787,6 +53003,9 @@
       <c r="ABN108">
         <v>1.1494253</v>
       </c>
+      <c r="ABO108">
+        <v>0</v>
+      </c>
       <c r="ABP108">
         <v>0.2106827</v>
       </c>
@@ -52844,6 +53063,9 @@
       <c r="ACX108">
         <v>0.4065041</v>
       </c>
+      <c r="ADI108">
+        <v>0</v>
+      </c>
       <c r="ADN108">
         <v>0</v>
       </c>
@@ -52944,6 +53166,9 @@
         <v>0.3702054</v>
       </c>
       <c r="AGV108">
+        <v>0</v>
+      </c>
+      <c r="AGY108">
         <v>0</v>
       </c>
       <c r="AHA108">
@@ -53266,6 +53491,9 @@
       <c r="HF109">
         <v>0.3633914</v>
       </c>
+      <c r="HG109">
+        <v>0.2574003</v>
+      </c>
       <c r="HH109">
         <v>0</v>
       </c>
@@ -53353,6 +53581,9 @@
       <c r="KC109">
         <v>0.5279116</v>
       </c>
+      <c r="KH109">
+        <v>1.1725293</v>
+      </c>
       <c r="KI109">
         <v>0.2679851</v>
       </c>
@@ -53362,6 +53593,9 @@
       <c r="KK109">
         <v>1.0708117</v>
       </c>
+      <c r="KL109">
+        <v>0.6145251</v>
+      </c>
       <c r="KO109">
         <v>0.3573309</v>
       </c>
@@ -53602,6 +53836,9 @@
       <c r="SD109">
         <v>0.6369415</v>
       </c>
+      <c r="SE109">
+        <v>0.4728132</v>
+      </c>
       <c r="SG109">
         <v>0.4735245</v>
       </c>
@@ -53868,6 +54105,9 @@
       </c>
       <c r="ABN109">
         <v>1.2571839</v>
+      </c>
+      <c r="ABO109">
+        <v>0</v>
       </c>
       <c r="ABP109">
         <v>0.2308856</v>
@@ -54348,6 +54588,9 @@
       <c r="HF110">
         <v>0.3501037</v>
       </c>
+      <c r="HG110">
+        <v>0.2460025</v>
+      </c>
       <c r="HH110">
         <v>0</v>
       </c>
@@ -54435,6 +54678,9 @@
       <c r="KC110">
         <v>0.459914</v>
       </c>
+      <c r="KH110">
+        <v>1.2681159</v>
+      </c>
       <c r="KI110">
         <v>0.2454131</v>
       </c>
@@ -54684,6 +54930,9 @@
       <c r="SD110">
         <v>0.6518426</v>
       </c>
+      <c r="SE110">
+        <v>0.1157407</v>
+      </c>
       <c r="SG110">
         <v>0.4958023</v>
       </c>
@@ -54950,6 +55199,9 @@
       </c>
       <c r="ABN110">
         <v>0.9574468</v>
+      </c>
+      <c r="ABO110">
+        <v>0.1612903</v>
       </c>
       <c r="ABP110">
         <v>0.2340303</v>
@@ -55430,6 +55682,9 @@
       <c r="HF111">
         <v>0.3420222</v>
       </c>
+      <c r="HG111">
+        <v>0.2496879</v>
+      </c>
       <c r="HH111">
         <v>0</v>
       </c>
@@ -55517,6 +55772,9 @@
       <c r="KC111">
         <v>0.407601</v>
       </c>
+      <c r="KH111">
+        <v>1.3806706</v>
+      </c>
       <c r="KI111">
         <v>0.2332128</v>
       </c>
@@ -55766,6 +56024,9 @@
       <c r="SD111">
         <v>0.2351449</v>
       </c>
+      <c r="SE111">
+        <v>0.1173709</v>
+      </c>
       <c r="SG111">
         <v>0.5574717</v>
       </c>
@@ -56032,6 +56293,9 @@
       </c>
       <c r="ABN111">
         <v>0.8964143</v>
+      </c>
+      <c r="ABO111">
+        <v>0.5</v>
       </c>
       <c r="ABP111">
         <v>0.2707079</v>
@@ -56428,6 +56692,9 @@
       <c r="EN112">
         <v>0.1724138</v>
       </c>
+      <c r="EQ112">
+        <v>1.0869565</v>
+      </c>
       <c r="ER112">
         <v>1.4840183</v>
       </c>
@@ -56509,6 +56776,9 @@
       <c r="HF112">
         <v>0.3541662</v>
       </c>
+      <c r="HG112">
+        <v>0.2525253</v>
+      </c>
       <c r="HH112">
         <v>0</v>
       </c>
@@ -56596,6 +56866,9 @@
       <c r="KC112">
         <v>0.4900496</v>
       </c>
+      <c r="KH112">
+        <v>1.3972056</v>
+      </c>
       <c r="KI112">
         <v>0.203129</v>
       </c>
@@ -56845,6 +57118,9 @@
       <c r="SD112">
         <v>0.3527548</v>
       </c>
+      <c r="SE112">
+        <v>0.1157407</v>
+      </c>
       <c r="SG112">
         <v>0.5292983999999999</v>
       </c>
@@ -56871,6 +57147,9 @@
       </c>
       <c r="SX112">
         <v>0.6843267</v>
+      </c>
+      <c r="TA112">
+        <v>0.3230438</v>
       </c>
       <c r="TS112">
         <v>0.3216721</v>
@@ -57504,6 +57783,9 @@
       <c r="EN113">
         <v>0.1831502</v>
       </c>
+      <c r="EQ113">
+        <v>1.0582011</v>
+      </c>
       <c r="ER113">
         <v>0.4385965</v>
       </c>
@@ -57585,6 +57867,9 @@
       <c r="HF113">
         <v>0.303725</v>
       </c>
+      <c r="HG113">
+        <v>0.2305665</v>
+      </c>
       <c r="HH113">
         <v>0.2659574</v>
       </c>
@@ -57672,12 +57957,18 @@
       <c r="KC113">
         <v>0.4680413</v>
       </c>
+      <c r="KH113">
+        <v>1.3157895</v>
+      </c>
       <c r="KI113">
         <v>0.209697</v>
       </c>
       <c r="KJ113">
         <v>0.2789803</v>
       </c>
+      <c r="KK113">
+        <v>0.5208333000000001</v>
+      </c>
       <c r="KO113">
         <v>0.5009272</v>
       </c>
@@ -57918,6 +58209,9 @@
       <c r="SD113">
         <v>0.3516774</v>
       </c>
+      <c r="SE113">
+        <v>0.1118568</v>
+      </c>
       <c r="SG113">
         <v>0.5895633</v>
       </c>
@@ -57945,6 +58239,9 @@
       <c r="SX113">
         <v>0.6935123</v>
       </c>
+      <c r="TA113">
+        <v>1.0989011</v>
+      </c>
       <c r="TS113">
         <v>0.3674163</v>
       </c>
@@ -58367,6 +58664,9 @@
       </c>
       <c r="AHX113">
         <v>0.3424658</v>
+      </c>
+      <c r="AHY113">
+        <v>0</v>
       </c>
       <c r="AIB113">
         <v>0.9649122999999999</v>
@@ -58574,6 +58874,9 @@
       <c r="EN114">
         <v>0.177305</v>
       </c>
+      <c r="EQ114">
+        <v>1.2820513</v>
+      </c>
       <c r="ER114">
         <v>0.4489338</v>
       </c>
@@ -58655,6 +58958,9 @@
       <c r="HF114">
         <v>0.3511256</v>
       </c>
+      <c r="HG114">
+        <v>0.2371274</v>
+      </c>
       <c r="HH114">
         <v>0.3821282</v>
       </c>
@@ -58748,6 +59054,9 @@
       <c r="KJ114">
         <v>0.2772997</v>
       </c>
+      <c r="KK114">
+        <v>0.5181346999999999</v>
+      </c>
       <c r="KO114">
         <v>0.5649594</v>
       </c>
@@ -58988,6 +59297,9 @@
       <c r="SD114">
         <v>0.3567449</v>
       </c>
+      <c r="SE114">
+        <v>0</v>
+      </c>
       <c r="SG114">
         <v>0.6282675</v>
       </c>
@@ -59015,6 +59327,9 @@
       <c r="SX114">
         <v>0.6638115999999999</v>
       </c>
+      <c r="TA114">
+        <v>0.8832565</v>
+      </c>
       <c r="TS114">
         <v>0.3648935</v>
       </c>
@@ -59437,6 +59752,9 @@
       </c>
       <c r="AHX114">
         <v>0.3389831</v>
+      </c>
+      <c r="AHY114">
+        <v>0</v>
       </c>
       <c r="AIB114">
         <v>0.9401709</v>
@@ -59620,6 +59938,9 @@
       <c r="DS115">
         <v>0.8348533</v>
       </c>
+      <c r="DU115">
+        <v>0</v>
+      </c>
       <c r="DW115">
         <v>0.2523861</v>
       </c>
@@ -59641,6 +59962,9 @@
       <c r="EN115">
         <v>0.1872659</v>
       </c>
+      <c r="EQ115">
+        <v>1.3182674</v>
+      </c>
       <c r="ER115">
         <v>0.4444444</v>
       </c>
@@ -59815,6 +60139,9 @@
       <c r="KJ115">
         <v>0.1871082</v>
       </c>
+      <c r="KK115">
+        <v>0.4950495</v>
+      </c>
       <c r="KO115">
         <v>0.5082073</v>
       </c>
@@ -60082,6 +60409,9 @@
       <c r="SX115">
         <v>0.6843267</v>
       </c>
+      <c r="TA115">
+        <v>0.8977361</v>
+      </c>
       <c r="TS115">
         <v>0.3534472</v>
       </c>
@@ -60235,6 +60565,9 @@
       <c r="YY115">
         <v>0.2209773</v>
       </c>
+      <c r="ZD115">
+        <v>0</v>
+      </c>
       <c r="ZL115">
         <v>0.2845111</v>
       </c>
@@ -60501,6 +60834,9 @@
       </c>
       <c r="AHX115">
         <v>0.1718213</v>
+      </c>
+      <c r="AHY115">
+        <v>0</v>
       </c>
       <c r="AIB115">
         <v>0.7083333000000001</v>
@@ -60651,6 +60987,9 @@
       <c r="CO116">
         <v>0.0606061</v>
       </c>
+      <c r="CQ116">
+        <v>0.7768362</v>
+      </c>
       <c r="CR116">
         <v>0.222466</v>
       </c>
@@ -60681,6 +61020,9 @@
       <c r="DS116">
         <v>0.9365955</v>
       </c>
+      <c r="DU116">
+        <v>0</v>
+      </c>
       <c r="DW116">
         <v>0.2431634</v>
       </c>
@@ -60702,6 +61044,9 @@
       <c r="EN116">
         <v>0</v>
       </c>
+      <c r="EQ116">
+        <v>1.2820513</v>
+      </c>
       <c r="ER116">
         <v>0.4385965</v>
       </c>
@@ -60876,6 +61221,9 @@
       <c r="KJ116">
         <v>0.1188191</v>
       </c>
+      <c r="KK116">
+        <v>0.5076142</v>
+      </c>
       <c r="KO116">
         <v>0.3023698</v>
       </c>
@@ -61143,6 +61491,9 @@
       <c r="SX116">
         <v>0.4319654</v>
       </c>
+      <c r="TA116">
+        <v>0.8474576</v>
+      </c>
       <c r="TS116">
         <v>0.448321</v>
       </c>
@@ -61296,6 +61647,9 @@
       <c r="YY116">
         <v>0.1783724</v>
       </c>
+      <c r="ZD116">
+        <v>0</v>
+      </c>
       <c r="ZL116">
         <v>0.2653394</v>
       </c>
@@ -61434,6 +61788,9 @@
       <c r="ACX116">
         <v>0.308642</v>
       </c>
+      <c r="ADN116">
+        <v>1.2987013</v>
+      </c>
       <c r="ADP116">
         <v>0.4107511</v>
       </c>
@@ -61559,6 +61916,9 @@
       </c>
       <c r="AHX116">
         <v>0.1766784</v>
+      </c>
+      <c r="AHY116">
+        <v>0</v>
       </c>
       <c r="AIB116">
         <v>0.2834008</v>
@@ -61709,6 +62069,9 @@
       <c r="CO117">
         <v>0.0576369</v>
       </c>
+      <c r="CQ117">
+        <v>0.3531073</v>
+      </c>
       <c r="CR117">
         <v>0.2079938</v>
       </c>
@@ -61739,6 +62102,9 @@
       <c r="DS117">
         <v>0.6868473</v>
       </c>
+      <c r="DU117">
+        <v>0</v>
+      </c>
       <c r="DW117">
         <v>0.1962402</v>
       </c>
@@ -61760,6 +62126,9 @@
       <c r="EN117">
         <v>0</v>
       </c>
+      <c r="EQ117">
+        <v>1.3972056</v>
+      </c>
       <c r="ER117">
         <v>0.4287245</v>
       </c>
@@ -61934,6 +62303,9 @@
       <c r="KJ117">
         <v>0.1129649</v>
       </c>
+      <c r="KK117">
+        <v>0.5263158</v>
+      </c>
       <c r="KO117">
         <v>0.231178</v>
       </c>
@@ -62144,6 +62516,9 @@
       <c r="RD117">
         <v>0.2707038</v>
       </c>
+      <c r="RG117">
+        <v>0.6357103</v>
+      </c>
       <c r="RI117">
         <v>0.2840909</v>
       </c>
@@ -62351,6 +62726,9 @@
       <c r="YY117">
         <v>0.3131313</v>
       </c>
+      <c r="ZD117">
+        <v>0.0811688</v>
+      </c>
       <c r="ZL117">
         <v>0.2484573</v>
       </c>
@@ -62489,6 +62867,9 @@
       <c r="ACX117">
         <v>0.2747253</v>
       </c>
+      <c r="ADN117">
+        <v>1.2345679</v>
+      </c>
       <c r="ADP117">
         <v>0.3440835</v>
       </c>
@@ -62614,6 +62995,9 @@
       </c>
       <c r="AHX117">
         <v>0.245614</v>
+      </c>
+      <c r="AHY117">
+        <v>0</v>
       </c>
       <c r="AIB117">
         <v>0.28</v>
@@ -62764,6 +63148,9 @@
       <c r="CO118">
         <v>0.0617284</v>
       </c>
+      <c r="CQ118">
+        <v>0</v>
+      </c>
       <c r="CR118">
         <v>0.306988</v>
       </c>
@@ -62782,6 +63169,9 @@
       <c r="DD118">
         <v>0.2378141</v>
       </c>
+      <c r="DE118">
+        <v>0.3891051</v>
+      </c>
       <c r="DK118">
         <v>0.9238311</v>
       </c>
@@ -62791,6 +63181,9 @@
       <c r="DS118">
         <v>0.5560811</v>
       </c>
+      <c r="DU118">
+        <v>0</v>
+      </c>
       <c r="DW118">
         <v>0.214382</v>
       </c>
@@ -62971,6 +63364,9 @@
       <c r="JX118">
         <v>0.1735555</v>
       </c>
+      <c r="KA118">
+        <v>0.8333333000000001</v>
+      </c>
       <c r="KB118">
         <v>0.3372592</v>
       </c>
@@ -62983,6 +63379,9 @@
       <c r="KJ118">
         <v>0.06337139999999999</v>
       </c>
+      <c r="KK118">
+        <v>0.5494505</v>
+      </c>
       <c r="KO118">
         <v>0.161264</v>
       </c>
@@ -63193,6 +63592,9 @@
       <c r="RD118">
         <v>0.22458</v>
       </c>
+      <c r="RG118">
+        <v>0.4065041</v>
+      </c>
       <c r="RI118">
         <v>0.4146919</v>
       </c>
@@ -63400,6 +63802,9 @@
       <c r="YY118">
         <v>0.3908795</v>
       </c>
+      <c r="ZD118">
+        <v>0.3715937</v>
+      </c>
       <c r="ZL118">
         <v>0.2474775</v>
       </c>
@@ -63538,6 +63943,9 @@
       <c r="ACX118">
         <v>0.2604167</v>
       </c>
+      <c r="ADN118">
+        <v>0.6578947000000001</v>
+      </c>
       <c r="ADP118">
         <v>0.4330701</v>
       </c>
@@ -63664,6 +64072,9 @@
       <c r="AHX118">
         <v>0.2536232</v>
       </c>
+      <c r="AHY118">
+        <v>0</v>
+      </c>
       <c r="AIB118">
         <v>0.1976285</v>
       </c>
@@ -63696,6 +64107,9 @@
       </c>
       <c r="AJA118">
         <v>0</v>
+      </c>
+      <c r="AJB118">
+        <v>0.4395604</v>
       </c>
     </row>
     <row r="119" spans="1:938">
@@ -63751,7 +64165,7 @@
         <v>0.5589431</v>
       </c>
       <c r="AW119">
-        <v>0.3098501</v>
+        <v>0.3097958</v>
       </c>
       <c r="AX119">
         <v>0</v>
@@ -63810,6 +64224,9 @@
       <c r="CO119">
         <v>0.0625</v>
       </c>
+      <c r="CQ119">
+        <v>0.1173709</v>
+      </c>
       <c r="CR119">
         <v>0.1765742</v>
       </c>
@@ -63828,6 +64245,9 @@
       <c r="DD119">
         <v>0.3118496</v>
       </c>
+      <c r="DE119">
+        <v>0.3773585</v>
+      </c>
       <c r="DK119">
         <v>1.0346125</v>
       </c>
@@ -63837,6 +64257,9 @@
       <c r="DS119">
         <v>0.5343997</v>
       </c>
+      <c r="DU119">
+        <v>0</v>
+      </c>
       <c r="DW119">
         <v>0.2370307</v>
       </c>
@@ -64017,6 +64440,9 @@
       <c r="JX119">
         <v>0.3041602</v>
       </c>
+      <c r="KA119">
+        <v>0.2312139</v>
+      </c>
       <c r="KB119">
         <v>0.3831399</v>
       </c>
@@ -64239,6 +64665,9 @@
       <c r="RD119">
         <v>0.1961782</v>
       </c>
+      <c r="RG119">
+        <v>0.4208754</v>
+      </c>
       <c r="RI119">
         <v>0.3579952</v>
       </c>
@@ -64446,6 +64875,9 @@
       <c r="YY119">
         <v>0.3076923</v>
       </c>
+      <c r="ZD119">
+        <v>0.3943909</v>
+      </c>
       <c r="ZL119">
         <v>0.3322748</v>
       </c>
@@ -64584,6 +65016,9 @@
       <c r="ACX119">
         <v>0.2564103</v>
       </c>
+      <c r="ADN119">
+        <v>0.6578947000000001</v>
+      </c>
       <c r="ADP119">
         <v>0.3242955</v>
       </c>
@@ -64742,6 +65177,9 @@
       </c>
       <c r="AJA119">
         <v>0</v>
+      </c>
+      <c r="AJB119">
+        <v>0.1052632</v>
       </c>
     </row>
     <row r="120" spans="1:938">
@@ -64797,7 +65235,7 @@
         <v>0.4127967</v>
       </c>
       <c r="AW120">
-        <v>0.3033553</v>
+        <v>0.303302</v>
       </c>
       <c r="AX120">
         <v>0</v>
@@ -64856,6 +65294,9 @@
       <c r="CO120">
         <v>0.0623053</v>
       </c>
+      <c r="CQ120">
+        <v>0.1131222</v>
+      </c>
       <c r="CR120">
         <v>0.2058779</v>
       </c>
@@ -64874,6 +65315,9 @@
       <c r="DD120">
         <v>0.3518276</v>
       </c>
+      <c r="DE120">
+        <v>0.4149378</v>
+      </c>
       <c r="DK120">
         <v>0.4724112</v>
       </c>
@@ -64883,6 +65327,9 @@
       <c r="DS120">
         <v>0.51139</v>
       </c>
+      <c r="DU120">
+        <v>0</v>
+      </c>
       <c r="DW120">
         <v>0.1945981</v>
       </c>
@@ -64925,6 +65372,9 @@
       <c r="FE120">
         <v>0.1943639</v>
       </c>
+      <c r="FF120">
+        <v>0.3657262</v>
+      </c>
       <c r="FG120">
         <v>0.2889459</v>
       </c>
@@ -65060,6 +65510,9 @@
       <c r="JX120">
         <v>0.3139338</v>
       </c>
+      <c r="KA120">
+        <v>0.2366864</v>
+      </c>
       <c r="KB120">
         <v>0.4145753</v>
       </c>
@@ -65096,6 +65549,9 @@
       <c r="LR120">
         <v>0.1992032</v>
       </c>
+      <c r="LU120">
+        <v>1.1494253</v>
+      </c>
       <c r="LW120">
         <v>1.0233918</v>
       </c>
@@ -65279,6 +65735,9 @@
       <c r="RD120">
         <v>0.2062408</v>
       </c>
+      <c r="RG120">
+        <v>0.3804348</v>
+      </c>
       <c r="RI120">
         <v>0.1152074</v>
       </c>
@@ -65486,6 +65945,9 @@
       <c r="YY120">
         <v>0.3021148</v>
       </c>
+      <c r="ZD120">
+        <v>0.4068716</v>
+      </c>
       <c r="ZL120">
         <v>0.315062</v>
       </c>
@@ -65624,6 +66086,9 @@
       <c r="ACX120">
         <v>0.2717391</v>
       </c>
+      <c r="ADN120">
+        <v>0</v>
+      </c>
       <c r="ADP120">
         <v>0.1431178</v>
       </c>
@@ -65779,6 +66244,12 @@
       </c>
       <c r="AIZ120">
         <v>0.4959692</v>
+      </c>
+      <c r="AJA120">
+        <v>0</v>
+      </c>
+      <c r="AJB120">
+        <v>0.6185567</v>
       </c>
     </row>
     <row r="121" spans="1:938">
@@ -65834,7 +66305,7 @@
         <v>0.4127967</v>
       </c>
       <c r="AW121">
-        <v>0.3045269</v>
+        <v>0.3044729</v>
       </c>
       <c r="AX121">
         <v>0</v>
@@ -65893,9 +66364,15 @@
       <c r="CO121">
         <v>0</v>
       </c>
+      <c r="CQ121">
+        <v>0.1237624</v>
+      </c>
       <c r="CR121">
         <v>0.1730551</v>
       </c>
+      <c r="CS121">
+        <v>0.1871345</v>
+      </c>
       <c r="CT121">
         <v>0.9031199</v>
       </c>
@@ -65908,6 +66385,9 @@
       <c r="DD121">
         <v>0.3532933</v>
       </c>
+      <c r="DE121">
+        <v>0.4166667</v>
+      </c>
       <c r="DK121">
         <v>0.4713424</v>
       </c>
@@ -65959,6 +66439,9 @@
       <c r="FE121">
         <v>0.1974942</v>
       </c>
+      <c r="FF121">
+        <v>0.3524673</v>
+      </c>
       <c r="FG121">
         <v>0.2954407</v>
       </c>
@@ -66094,6 +66577,9 @@
       <c r="JX121">
         <v>0.4636344</v>
       </c>
+      <c r="KA121">
+        <v>0.1176471</v>
+      </c>
       <c r="KB121">
         <v>0.4256157</v>
       </c>
@@ -66130,6 +66616,9 @@
       <c r="LR121">
         <v>0</v>
       </c>
+      <c r="LU121">
+        <v>0.9461425999999999</v>
+      </c>
       <c r="LW121">
         <v>0.9036145</v>
       </c>
@@ -66304,12 +66793,18 @@
       <c r="QY121">
         <v>0.3213805</v>
       </c>
+      <c r="RA121">
+        <v>0.2803738</v>
+      </c>
       <c r="RB121">
         <v>0.1645784</v>
       </c>
       <c r="RD121">
         <v>0.2841522</v>
       </c>
+      <c r="RG121">
+        <v>0.3684211</v>
+      </c>
       <c r="RI121">
         <v>0.1157407</v>
       </c>
@@ -66655,6 +67150,9 @@
       <c r="ACX121">
         <v>0</v>
       </c>
+      <c r="ADN121">
+        <v>0</v>
+      </c>
       <c r="ADP121">
         <v>0.1447737</v>
       </c>
@@ -66810,6 +67308,12 @@
       </c>
       <c r="AIZ121">
         <v>0.3890638</v>
+      </c>
+      <c r="AJA121">
+        <v>0</v>
+      </c>
+      <c r="AJB121">
+        <v>0.5853659</v>
       </c>
     </row>
     <row r="122" spans="1:938">
@@ -66865,7 +67369,7 @@
         <v>0.7006369</v>
       </c>
       <c r="AW122">
-        <v>0.256668</v>
+        <v>0.2566224</v>
       </c>
       <c r="AX122">
         <v>0</v>
@@ -66927,6 +67431,9 @@
       <c r="CR122">
         <v>0.2534569</v>
       </c>
+      <c r="CS122">
+        <v>0.1911589</v>
+      </c>
       <c r="CT122">
         <v>0.7575758</v>
       </c>
@@ -66939,6 +67446,9 @@
       <c r="DD122">
         <v>0.2650513</v>
       </c>
+      <c r="DE122">
+        <v>0.140056</v>
+      </c>
       <c r="DK122">
         <v>0.7088123</v>
       </c>
@@ -66990,6 +67500,9 @@
       <c r="FE122">
         <v>0.196106</v>
       </c>
+      <c r="FF122">
+        <v>0</v>
+      </c>
       <c r="FG122">
         <v>0.3255602</v>
       </c>
@@ -67125,6 +67638,9 @@
       <c r="JX122">
         <v>0.741825</v>
       </c>
+      <c r="KA122">
+        <v>0.1242236</v>
+      </c>
       <c r="KB122">
         <v>0.3093597</v>
       </c>
@@ -67161,6 +67677,9 @@
       <c r="LR122">
         <v>0.130719</v>
       </c>
+      <c r="LU122">
+        <v>1.1111111</v>
+      </c>
       <c r="LW122">
         <v>0.9868421000000001</v>
       </c>
@@ -67309,7 +67828,7 @@
         <v>0</v>
       </c>
       <c r="QK122">
-        <v>0.3880499</v>
+        <v>0.3879011</v>
       </c>
       <c r="QN122">
         <v>0.5073801</v>
@@ -67335,12 +67854,18 @@
       <c r="QY122">
         <v>0.2344961</v>
       </c>
+      <c r="RA122">
+        <v>0.2816901</v>
+      </c>
       <c r="RB122">
         <v>0.1632352</v>
       </c>
       <c r="RD122">
         <v>0.2588973</v>
       </c>
+      <c r="RG122">
+        <v>0.104712</v>
+      </c>
       <c r="RI122">
         <v>0.1138952</v>
       </c>
@@ -67393,7 +67918,7 @@
         <v>0.264291</v>
       </c>
       <c r="SX122">
-        <v>0.2364066</v>
+        <v>0.2358491</v>
       </c>
       <c r="TS122">
         <v>0.3078916</v>
@@ -67540,7 +68065,7 @@
         <v>0.3106406</v>
       </c>
       <c r="YR122">
-        <v>0.4759017</v>
+        <v>0.4758396</v>
       </c>
       <c r="YX122">
         <v>0.2465566</v>
@@ -67570,7 +68095,7 @@
         <v>0.1100259</v>
       </c>
       <c r="ZX122">
-        <v>0.2352924</v>
+        <v>0.2348513</v>
       </c>
       <c r="ZZ122">
         <v>0.193049</v>
@@ -67648,13 +68173,13 @@
         <v>0.3649635</v>
       </c>
       <c r="ABZ122">
-        <v>0.1610599</v>
+        <v>0.1609937</v>
       </c>
       <c r="ACA122">
         <v>0.2071132</v>
       </c>
       <c r="ACE122">
-        <v>0.2393862</v>
+        <v>0.2393561</v>
       </c>
       <c r="ACG122">
         <v>0.1686165</v>
@@ -67681,7 +68206,7 @@
         <v>0.4194084</v>
       </c>
       <c r="ACW122">
-        <v>0.283832</v>
+        <v>0.2837545</v>
       </c>
       <c r="ACX122">
         <v>0</v>
@@ -67735,7 +68260,7 @@
         <v>0.1559286</v>
       </c>
       <c r="AFH122">
-        <v>0.3271977</v>
+        <v>0.3271512</v>
       </c>
       <c r="AFK122">
         <v>0.7358898</v>
@@ -67810,16 +68335,16 @@
         <v>0.2569255</v>
       </c>
       <c r="AHX122">
-        <v>0.0826446</v>
+        <v>0.0823045</v>
       </c>
       <c r="AIB122">
-        <v>0.2392344</v>
+        <v>0.2380952</v>
       </c>
       <c r="AID122">
         <v>0.2332563</v>
       </c>
       <c r="AIE122">
-        <v>0.7719857</v>
+        <v>0.7698413</v>
       </c>
       <c r="AIF122">
         <v>0.2955083</v>
@@ -67841,11 +68366,6268 @@
       </c>
       <c r="AIZ122">
         <v>0.3631962</v>
+      </c>
+      <c r="AJA122">
+        <v>0</v>
+      </c>
+      <c r="AJB122">
+        <v>1.0576923</v>
       </c>
     </row>
     <row r="123" spans="1:938">
       <c r="A123" t="s">
         <v>1060</v>
+      </c>
+      <c r="D123">
+        <v>0.1199041</v>
+      </c>
+      <c r="H123">
+        <v>0.2842695</v>
+      </c>
+      <c r="J123">
+        <v>0.9895833000000001</v>
+      </c>
+      <c r="K123">
+        <v>0.250867</v>
+      </c>
+      <c r="L123">
+        <v>0.2543266</v>
+      </c>
+      <c r="P123">
+        <v>0.1768225</v>
+      </c>
+      <c r="R123">
+        <v>0.4188948</v>
+      </c>
+      <c r="U123">
+        <v>0.2939735</v>
+      </c>
+      <c r="X123">
+        <v>0.2489627</v>
+      </c>
+      <c r="Z123">
+        <v>0.736246</v>
+      </c>
+      <c r="AB123">
+        <v>0.5939662</v>
+      </c>
+      <c r="AD123">
+        <v>0.5819439</v>
+      </c>
+      <c r="AG123">
+        <v>0.1316293</v>
+      </c>
+      <c r="AI123">
+        <v>0.2534473</v>
+      </c>
+      <c r="AN123">
+        <v>0.1409556</v>
+      </c>
+      <c r="AV123">
+        <v>0.7166124</v>
+      </c>
+      <c r="AW123">
+        <v>0.2509067</v>
+      </c>
+      <c r="AX123">
+        <v>0.1369863</v>
+      </c>
+      <c r="BB123">
+        <v>0.1234568</v>
+      </c>
+      <c r="BC123">
+        <v>0.2675888</v>
+      </c>
+      <c r="BF123">
+        <v>0.245147</v>
+      </c>
+      <c r="BH123">
+        <v>0.3505996</v>
+      </c>
+      <c r="BI123">
+        <v>0.3588742</v>
+      </c>
+      <c r="BJ123">
+        <v>0.2366864</v>
+      </c>
+      <c r="BM123">
+        <v>0.1639344</v>
+      </c>
+      <c r="BR123">
+        <v>0.5478502</v>
+      </c>
+      <c r="BS123">
+        <v>0.4448399</v>
+      </c>
+      <c r="BT123">
+        <v>0</v>
+      </c>
+      <c r="BW123">
+        <v>0.1365661</v>
+      </c>
+      <c r="BY123">
+        <v>0.2888889</v>
+      </c>
+      <c r="CC123">
+        <v>0.0893655</v>
+      </c>
+      <c r="CE123">
+        <v>0.3109453</v>
+      </c>
+      <c r="CL123">
+        <v>0.4442402</v>
+      </c>
+      <c r="CM123">
+        <v>0.4243359</v>
+      </c>
+      <c r="CN123">
+        <v>0.3430325</v>
+      </c>
+      <c r="CO123">
+        <v>0</v>
+      </c>
+      <c r="CR123">
+        <v>0.257969</v>
+      </c>
+      <c r="CS123">
+        <v>0.5830165</v>
+      </c>
+      <c r="CT123">
+        <v>0.7481297</v>
+      </c>
+      <c r="CY123">
+        <v>0.1751513</v>
+      </c>
+      <c r="DC123">
+        <v>0.2666759</v>
+      </c>
+      <c r="DD123">
+        <v>0.2585001</v>
+      </c>
+      <c r="DE123">
+        <v>0.1455604</v>
+      </c>
+      <c r="DK123">
+        <v>0.6546355</v>
+      </c>
+      <c r="DN123">
+        <v>0.2522207</v>
+      </c>
+      <c r="DS123">
+        <v>0.0936273</v>
+      </c>
+      <c r="DW123">
+        <v>0.1640846</v>
+      </c>
+      <c r="DZ123">
+        <v>0.3752345</v>
+      </c>
+      <c r="EA123">
+        <v>0.4193529</v>
+      </c>
+      <c r="EK123">
+        <v>0.3444539</v>
+      </c>
+      <c r="EL123">
+        <v>0.3507056</v>
+      </c>
+      <c r="EM123">
+        <v>1.5</v>
+      </c>
+      <c r="EN123">
+        <v>0.8126117</v>
+      </c>
+      <c r="ER123">
+        <v>0.3412969</v>
+      </c>
+      <c r="ET123">
+        <v>0.1012469</v>
+      </c>
+      <c r="EZ123">
+        <v>0.1611722</v>
+      </c>
+      <c r="FA123">
+        <v>0.2245523</v>
+      </c>
+      <c r="FB123">
+        <v>0.5810331</v>
+      </c>
+      <c r="FD123">
+        <v>0.3261932</v>
+      </c>
+      <c r="FE123">
+        <v>0.2110678</v>
+      </c>
+      <c r="FF123">
+        <v>0</v>
+      </c>
+      <c r="FG123">
+        <v>0.382109</v>
+      </c>
+      <c r="FH123">
+        <v>0.8738602</v>
+      </c>
+      <c r="FI123">
+        <v>0.4007688</v>
+      </c>
+      <c r="FJ123">
+        <v>0.3697383</v>
+      </c>
+      <c r="FL123">
+        <v>0.2806756</v>
+      </c>
+      <c r="FO123">
+        <v>0.0918964</v>
+      </c>
+      <c r="FR123">
+        <v>0</v>
+      </c>
+      <c r="FS123">
+        <v>0.3392698</v>
+      </c>
+      <c r="FY123">
+        <v>0.363901</v>
+      </c>
+      <c r="GB123">
+        <v>0.1608187</v>
+      </c>
+      <c r="GC123">
+        <v>0.5168345</v>
+      </c>
+      <c r="GD123">
+        <v>0.3888697</v>
+      </c>
+      <c r="GE123">
+        <v>0.6085649</v>
+      </c>
+      <c r="GF123">
+        <v>0.2493126</v>
+      </c>
+      <c r="GJ123">
+        <v>0.2550039</v>
+      </c>
+      <c r="GS123">
+        <v>0.6758877</v>
+      </c>
+      <c r="GV123">
+        <v>0.2615063</v>
+      </c>
+      <c r="HA123">
+        <v>0.7472299</v>
+      </c>
+      <c r="HF123">
+        <v>0.3663622</v>
+      </c>
+      <c r="HH123">
+        <v>0.5862647</v>
+      </c>
+      <c r="HK123">
+        <v>0.2331133</v>
+      </c>
+      <c r="HL123">
+        <v>0.2891079</v>
+      </c>
+      <c r="HN123">
+        <v>0.2931598</v>
+      </c>
+      <c r="HO123">
+        <v>0.7532051</v>
+      </c>
+      <c r="HP123">
+        <v>0.2447552</v>
+      </c>
+      <c r="HT123">
+        <v>0.4650018</v>
+      </c>
+      <c r="HV123">
+        <v>0.2686268</v>
+      </c>
+      <c r="HX123">
+        <v>0.5199873</v>
+      </c>
+      <c r="HY123">
+        <v>0.248807</v>
+      </c>
+      <c r="IC123">
+        <v>0.34689</v>
+      </c>
+      <c r="IE123">
+        <v>0.7997441</v>
+      </c>
+      <c r="IH123">
+        <v>0.6515775</v>
+      </c>
+      <c r="II123">
+        <v>0.7061493</v>
+      </c>
+      <c r="IN123">
+        <v>0.6389013</v>
+      </c>
+      <c r="IR123">
+        <v>0.1893939</v>
+      </c>
+      <c r="IS123">
+        <v>0.1689189</v>
+      </c>
+      <c r="IZ123">
+        <v>0.085034</v>
+      </c>
+      <c r="JB123">
+        <v>0.555971</v>
+      </c>
+      <c r="JF123">
+        <v>0.6205674</v>
+      </c>
+      <c r="JG123">
+        <v>0.3216012</v>
+      </c>
+      <c r="JK123">
+        <v>0.0990301</v>
+      </c>
+      <c r="JO123">
+        <v>0.0593133</v>
+      </c>
+      <c r="JR123">
+        <v>0.2322725</v>
+      </c>
+      <c r="JS123">
+        <v>0.7440476</v>
+      </c>
+      <c r="JX123">
+        <v>0.9496411</v>
+      </c>
+      <c r="KA123">
+        <v>0.1360544</v>
+      </c>
+      <c r="KB123">
+        <v>0.1766571</v>
+      </c>
+      <c r="KC123">
+        <v>0.5451292</v>
+      </c>
+      <c r="KI123">
+        <v>0.1301581</v>
+      </c>
+      <c r="KJ123">
+        <v>0.7081281</v>
+      </c>
+      <c r="KO123">
+        <v>0.176952</v>
+      </c>
+      <c r="KV123">
+        <v>1.0678611</v>
+      </c>
+      <c r="KW123">
+        <v>0.4701951</v>
+      </c>
+      <c r="LD123">
+        <v>0.330875</v>
+      </c>
+      <c r="LG123">
+        <v>0.457055</v>
+      </c>
+      <c r="LH123">
+        <v>0.4868614</v>
+      </c>
+      <c r="LO123">
+        <v>0.3382534</v>
+      </c>
+      <c r="LR123">
+        <v>0.1262626</v>
+      </c>
+      <c r="LU123">
+        <v>0.6765677</v>
+      </c>
+      <c r="LW123">
+        <v>0.990099</v>
+      </c>
+      <c r="LX123">
+        <v>0.4464286</v>
+      </c>
+      <c r="LY123">
+        <v>0.3006012</v>
+      </c>
+      <c r="MA123">
+        <v>0.3044688</v>
+      </c>
+      <c r="MC123">
+        <v>1.1208151</v>
+      </c>
+      <c r="ME123">
+        <v>0</v>
+      </c>
+      <c r="MF123">
+        <v>0.1889577</v>
+      </c>
+      <c r="MG123">
+        <v>0.4192711</v>
+      </c>
+      <c r="MI123">
+        <v>0.3569148</v>
+      </c>
+      <c r="ML123">
+        <v>0.245614</v>
+      </c>
+      <c r="MN123">
+        <v>0.1777362</v>
+      </c>
+      <c r="MS123">
+        <v>0.2534905</v>
+      </c>
+      <c r="MU123">
+        <v>0.6239389</v>
+      </c>
+      <c r="MW123">
+        <v>0.622306</v>
+      </c>
+      <c r="MX123">
+        <v>1.0147573</v>
+      </c>
+      <c r="MZ123">
+        <v>0.3008298</v>
+      </c>
+      <c r="NC123">
+        <v>0.3580387</v>
+      </c>
+      <c r="NE123">
+        <v>0.5800405</v>
+      </c>
+      <c r="NM123">
+        <v>0.3395463</v>
+      </c>
+      <c r="NP123">
+        <v>0.0869566</v>
+      </c>
+      <c r="NQ123">
+        <v>0.2427184</v>
+      </c>
+      <c r="NT123">
+        <v>0.3348214</v>
+      </c>
+      <c r="NW123">
+        <v>0.8115183</v>
+      </c>
+      <c r="NY123">
+        <v>0</v>
+      </c>
+      <c r="NZ123">
+        <v>0.4424796</v>
+      </c>
+      <c r="OD123">
+        <v>0.6501479999999999</v>
+      </c>
+      <c r="OE123">
+        <v>0.1511764</v>
+      </c>
+      <c r="OJ123">
+        <v>0.8650794000000001</v>
+      </c>
+      <c r="OL123">
+        <v>0.2846271</v>
+      </c>
+      <c r="ON123">
+        <v>0.3298286</v>
+      </c>
+      <c r="OP123">
+        <v>0</v>
+      </c>
+      <c r="OQ123">
+        <v>0.3776793</v>
+      </c>
+      <c r="OR123">
+        <v>0.643878</v>
+      </c>
+      <c r="OT123">
+        <v>0.1643192</v>
+      </c>
+      <c r="OV123">
+        <v>0.3731243</v>
+      </c>
+      <c r="OX123">
+        <v>0.703259</v>
+      </c>
+      <c r="PB123">
+        <v>0.3581026</v>
+      </c>
+      <c r="PG123">
+        <v>0.1510133</v>
+      </c>
+      <c r="PJ123">
+        <v>0.3015351</v>
+      </c>
+      <c r="PK123">
+        <v>0.0466418</v>
+      </c>
+      <c r="PL123">
+        <v>1.7292127</v>
+      </c>
+      <c r="PM123">
+        <v>0.4894672</v>
+      </c>
+      <c r="PP123">
+        <v>0.387285</v>
+      </c>
+      <c r="PR123">
+        <v>0.204499</v>
+      </c>
+      <c r="PS123">
+        <v>0.3119638</v>
+      </c>
+      <c r="PY123">
+        <v>0.3500281</v>
+      </c>
+      <c r="QD123">
+        <v>0.515902</v>
+      </c>
+      <c r="QE123">
+        <v>0.2107857</v>
+      </c>
+      <c r="QF123">
+        <v>0</v>
+      </c>
+      <c r="QK123">
+        <v>0.4042079</v>
+      </c>
+      <c r="QN123">
+        <v>0.5919854</v>
+      </c>
+      <c r="QO123">
+        <v>0.4177012</v>
+      </c>
+      <c r="QP123">
+        <v>0.5718238</v>
+      </c>
+      <c r="QS123">
+        <v>0.2469136</v>
+      </c>
+      <c r="QU123">
+        <v>0.6465517</v>
+      </c>
+      <c r="QV123">
+        <v>0.6674398</v>
+      </c>
+      <c r="QX123">
+        <v>0.2200582</v>
+      </c>
+      <c r="QY123">
+        <v>0.2844319</v>
+      </c>
+      <c r="RA123">
+        <v>0.2926829</v>
+      </c>
+      <c r="RB123">
+        <v>0.162704</v>
+      </c>
+      <c r="RD123">
+        <v>0.349199</v>
+      </c>
+      <c r="RI123">
+        <v>0.2262443</v>
+      </c>
+      <c r="RL123">
+        <v>0.07220219999999999</v>
+      </c>
+      <c r="RQ123">
+        <v>0.1799486</v>
+      </c>
+      <c r="RT123">
+        <v>0.4421388</v>
+      </c>
+      <c r="RV123">
+        <v>0.7777778</v>
+      </c>
+      <c r="RX123">
+        <v>0.1824824</v>
+      </c>
+      <c r="RY123">
+        <v>0.3375159</v>
+      </c>
+      <c r="SA123">
+        <v>0</v>
+      </c>
+      <c r="SD123">
+        <v>0.7049999</v>
+      </c>
+      <c r="SG123">
+        <v>0.4262093</v>
+      </c>
+      <c r="SH123">
+        <v>0.3727901</v>
+      </c>
+      <c r="SI123">
+        <v>0.4667986</v>
+      </c>
+      <c r="SM123">
+        <v>0.4471547</v>
+      </c>
+      <c r="SO123">
+        <v>0.4854393</v>
+      </c>
+      <c r="SP123">
+        <v>0.4529617</v>
+      </c>
+      <c r="SR123">
+        <v>0.2970915</v>
+      </c>
+      <c r="SW123">
+        <v>0.1244384</v>
+      </c>
+      <c r="SX123">
+        <v>0.2421308</v>
+      </c>
+      <c r="TS123">
+        <v>0.1817351</v>
+      </c>
+      <c r="TX123">
+        <v>0.2542299</v>
+      </c>
+      <c r="TY123">
+        <v>0.4779487</v>
+      </c>
+      <c r="UA123">
+        <v>0.5526161000000001</v>
+      </c>
+      <c r="UE123">
+        <v>0.2500312</v>
+      </c>
+      <c r="UF123">
+        <v>0.1322751</v>
+      </c>
+      <c r="UH123">
+        <v>0</v>
+      </c>
+      <c r="UI123">
+        <v>0.2882206</v>
+      </c>
+      <c r="UK123">
+        <v>0.1558566</v>
+      </c>
+      <c r="UN123">
+        <v>0.4587622</v>
+      </c>
+      <c r="UP123">
+        <v>0.6196581</v>
+      </c>
+      <c r="US123">
+        <v>0.6152512999999999</v>
+      </c>
+      <c r="UT123">
+        <v>0.3602847</v>
+      </c>
+      <c r="UU123">
+        <v>0.7781649</v>
+      </c>
+      <c r="UV123">
+        <v>0.279789</v>
+      </c>
+      <c r="UW123">
+        <v>0.4832813</v>
+      </c>
+      <c r="VA123">
+        <v>0.2527724</v>
+      </c>
+      <c r="VB123">
+        <v>0.8426966</v>
+      </c>
+      <c r="VO123">
+        <v>0.308642</v>
+      </c>
+      <c r="VP123">
+        <v>0.9149582000000001</v>
+      </c>
+      <c r="VS123">
+        <v>0.3582438</v>
+      </c>
+      <c r="VU123">
+        <v>0.4261632</v>
+      </c>
+      <c r="VW123">
+        <v>0.2605863</v>
+      </c>
+      <c r="VX123">
+        <v>0.2552622</v>
+      </c>
+      <c r="VY123">
+        <v>0.3899381</v>
+      </c>
+      <c r="WB123">
+        <v>0.1726428</v>
+      </c>
+      <c r="WF123">
+        <v>0.3399342</v>
+      </c>
+      <c r="WG123">
+        <v>0.508981</v>
+      </c>
+      <c r="WL123">
+        <v>0.4569745</v>
+      </c>
+      <c r="WM123">
+        <v>0.3214507</v>
+      </c>
+      <c r="WQ123">
+        <v>0.4746235</v>
+      </c>
+      <c r="WU123">
+        <v>0.2420979</v>
+      </c>
+      <c r="WW123">
+        <v>0.1783458</v>
+      </c>
+      <c r="WY123">
+        <v>0.9530792</v>
+      </c>
+      <c r="WZ123">
+        <v>0.4729878</v>
+      </c>
+      <c r="XD123">
+        <v>0.4351229</v>
+      </c>
+      <c r="XF123">
+        <v>0.4601743</v>
+      </c>
+      <c r="XG123">
+        <v>0.479399</v>
+      </c>
+      <c r="XL123">
+        <v>0.208485</v>
+      </c>
+      <c r="XM123">
+        <v>0.2377756</v>
+      </c>
+      <c r="XT123">
+        <v>0.750268</v>
+      </c>
+      <c r="XV123">
+        <v>0.26489</v>
+      </c>
+      <c r="YB123">
+        <v>0.2360797</v>
+      </c>
+      <c r="YD123">
+        <v>0.5652621</v>
+      </c>
+      <c r="YH123">
+        <v>0.8606778</v>
+      </c>
+      <c r="YN123">
+        <v>0.478232</v>
+      </c>
+      <c r="YO123">
+        <v>0.3489572</v>
+      </c>
+      <c r="YQ123">
+        <v>0.3414723</v>
+      </c>
+      <c r="YR123">
+        <v>0.4183617</v>
+      </c>
+      <c r="YX123">
+        <v>0.2565678</v>
+      </c>
+      <c r="YY123">
+        <v>0.2881844</v>
+      </c>
+      <c r="ZL123">
+        <v>0.2069172</v>
+      </c>
+      <c r="ZM123">
+        <v>0.3582122</v>
+      </c>
+      <c r="ZO123">
+        <v>0</v>
+      </c>
+      <c r="ZR123">
+        <v>0.421036</v>
+      </c>
+      <c r="ZS123">
+        <v>0.3267974</v>
+      </c>
+      <c r="ZV123">
+        <v>0.3396743</v>
+      </c>
+      <c r="ZW123">
+        <v>0.2271619</v>
+      </c>
+      <c r="ZX123">
+        <v>0.1503006</v>
+      </c>
+      <c r="ZZ123">
+        <v>0.277484</v>
+      </c>
+      <c r="AAB123">
+        <v>0.8636364</v>
+      </c>
+      <c r="AAC123">
+        <v>0.3785658</v>
+      </c>
+      <c r="AAD123">
+        <v>0.6147541</v>
+      </c>
+      <c r="AAF123">
+        <v>0.1790568</v>
+      </c>
+      <c r="AAH123">
+        <v>0.4851922</v>
+      </c>
+      <c r="AAJ123">
+        <v>0.2771625</v>
+      </c>
+      <c r="AAM123">
+        <v>0.5509356</v>
+      </c>
+      <c r="AAP123">
+        <v>0.4259493</v>
+      </c>
+      <c r="AAR123">
+        <v>0.6775761</v>
+      </c>
+      <c r="AAU123">
+        <v>0.1733101</v>
+      </c>
+      <c r="AAV123">
+        <v>0.2323149</v>
+      </c>
+      <c r="AAW123">
+        <v>0.7045724</v>
+      </c>
+      <c r="ABA123">
+        <v>0.212766</v>
+      </c>
+      <c r="ABC123">
+        <v>0.3108808</v>
+      </c>
+      <c r="ABJ123">
+        <v>0.1796948</v>
+      </c>
+      <c r="ABL123">
+        <v>0.4353545</v>
+      </c>
+      <c r="ABM123">
+        <v>0.653695</v>
+      </c>
+      <c r="ABN123">
+        <v>0.3623188</v>
+      </c>
+      <c r="ABP123">
+        <v>0.3356962</v>
+      </c>
+      <c r="ABT123">
+        <v>0.3832879</v>
+      </c>
+      <c r="ABV123">
+        <v>0.0190522</v>
+      </c>
+      <c r="ABW123">
+        <v>0.6533893</v>
+      </c>
+      <c r="ABX123">
+        <v>0.424962</v>
+      </c>
+      <c r="ABY123">
+        <v>0.3787879</v>
+      </c>
+      <c r="ABZ123">
+        <v>0.2167078</v>
+      </c>
+      <c r="ACA123">
+        <v>0.1960325</v>
+      </c>
+      <c r="ACE123">
+        <v>0.21053</v>
+      </c>
+      <c r="ACG123">
+        <v>0.1509254</v>
+      </c>
+      <c r="ACI123">
+        <v>0.0895046</v>
+      </c>
+      <c r="ACJ123">
+        <v>0.1152803</v>
+      </c>
+      <c r="ACK123">
+        <v>0.2140411</v>
+      </c>
+      <c r="ACM123">
+        <v>0.1743641</v>
+      </c>
+      <c r="ACN123">
+        <v>0.0909239</v>
+      </c>
+      <c r="ACP123">
+        <v>0.2015436</v>
+      </c>
+      <c r="ACU123">
+        <v>0.4313953</v>
+      </c>
+      <c r="ACW123">
+        <v>0.2883599</v>
+      </c>
+      <c r="ACX123">
+        <v>0.5780347</v>
+      </c>
+      <c r="ADP123">
+        <v>0.141675</v>
+      </c>
+      <c r="ADR123">
+        <v>1.0918114</v>
+      </c>
+      <c r="ADU123">
+        <v>0.500394</v>
+      </c>
+      <c r="ADV123">
+        <v>0.2432141</v>
+      </c>
+      <c r="AEA123">
+        <v>0.3173293</v>
+      </c>
+      <c r="AEB123">
+        <v>0.2709632</v>
+      </c>
+      <c r="AEF123">
+        <v>0.3858635</v>
+      </c>
+      <c r="AEG123">
+        <v>0.3753501</v>
+      </c>
+      <c r="AEH123">
+        <v>0.327925</v>
+      </c>
+      <c r="AEI123">
+        <v>0.3155252</v>
+      </c>
+      <c r="AEJ123">
+        <v>0.4797505</v>
+      </c>
+      <c r="AEL123">
+        <v>0.0489237</v>
+      </c>
+      <c r="AEU123">
+        <v>0.4322684</v>
+      </c>
+      <c r="AEZ123">
+        <v>0.5081301</v>
+      </c>
+      <c r="AFD123">
+        <v>0.1977567</v>
+      </c>
+      <c r="AFG123">
+        <v>0.2078934</v>
+      </c>
+      <c r="AFH123">
+        <v>0.3319645</v>
+      </c>
+      <c r="AFK123">
+        <v>0.9883236</v>
+      </c>
+      <c r="AFL123">
+        <v>0.373062</v>
+      </c>
+      <c r="AFN123">
+        <v>0.3623188</v>
+      </c>
+      <c r="AFT123">
+        <v>0.4241611</v>
+      </c>
+      <c r="AFU123">
+        <v>0.6260561</v>
+      </c>
+      <c r="AFX123">
+        <v>0.1094766</v>
+      </c>
+      <c r="AGA123">
+        <v>0.6071189</v>
+      </c>
+      <c r="AGC123">
+        <v>0.4327873</v>
+      </c>
+      <c r="AGE123">
+        <v>0.3049535</v>
+      </c>
+      <c r="AGF123">
+        <v>1.5779355</v>
+      </c>
+      <c r="AGG123">
+        <v>0.4481277</v>
+      </c>
+      <c r="AGL123">
+        <v>0.111431</v>
+      </c>
+      <c r="AGM123">
+        <v>0.6332995</v>
+      </c>
+      <c r="AGO123">
+        <v>0.1064963</v>
+      </c>
+      <c r="AGP123">
+        <v>0.2396561</v>
+      </c>
+      <c r="AGV123">
+        <v>0.2347418</v>
+      </c>
+      <c r="AHA123">
+        <v>0.4442523</v>
+      </c>
+      <c r="AHB123">
+        <v>0.3445774</v>
+      </c>
+      <c r="AHD123">
+        <v>0.3764445</v>
+      </c>
+      <c r="AHH123">
+        <v>0.1464435</v>
+      </c>
+      <c r="AHN123">
+        <v>0.4925696</v>
+      </c>
+      <c r="AHP123">
+        <v>0.3379722</v>
+      </c>
+      <c r="AHS123">
+        <v>0</v>
+      </c>
+      <c r="AHU123">
+        <v>0.2580414</v>
+      </c>
+      <c r="AHX123">
+        <v>0.07905139999999999</v>
+      </c>
+      <c r="AIB123">
+        <v>0.2314815</v>
+      </c>
+      <c r="AID123">
+        <v>0.2753816</v>
+      </c>
+      <c r="AIE123">
+        <v>0.4039593</v>
+      </c>
+      <c r="AIF123">
+        <v>0.2828054</v>
+      </c>
+      <c r="AII123">
+        <v>0.3325473</v>
+      </c>
+      <c r="AIP123">
+        <v>0.4216201</v>
+      </c>
+      <c r="AIT123">
+        <v>0.1846346</v>
+      </c>
+      <c r="AIV123">
+        <v>0.4500179</v>
+      </c>
+      <c r="AIY123">
+        <v>0.4392929</v>
+      </c>
+      <c r="AIZ123">
+        <v>0.2792529</v>
+      </c>
+      <c r="AJA123">
+        <v>0</v>
+      </c>
+      <c r="AJB123">
+        <v>1.2628866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:938">
+      <c r="A124" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D124">
+        <v>0.1237624</v>
+      </c>
+      <c r="H124">
+        <v>0.3172049</v>
+      </c>
+      <c r="J124">
+        <v>1.2365591</v>
+      </c>
+      <c r="K124">
+        <v>0.2935989</v>
+      </c>
+      <c r="L124">
+        <v>0.2971283</v>
+      </c>
+      <c r="P124">
+        <v>0.175374</v>
+      </c>
+      <c r="R124">
+        <v>0.5205599</v>
+      </c>
+      <c r="U124">
+        <v>0.3196377</v>
+      </c>
+      <c r="X124">
+        <v>0.4426559</v>
+      </c>
+      <c r="Z124">
+        <v>0.8458961</v>
+      </c>
+      <c r="AB124">
+        <v>0.6973162000000001</v>
+      </c>
+      <c r="AD124">
+        <v>0.5911826999999999</v>
+      </c>
+      <c r="AG124">
+        <v>0.0652845</v>
+      </c>
+      <c r="AI124">
+        <v>0.4847159</v>
+      </c>
+      <c r="AN124">
+        <v>0.1434096</v>
+      </c>
+      <c r="AV124">
+        <v>0.7482993</v>
+      </c>
+      <c r="AW124">
+        <v>0.2805326</v>
+      </c>
+      <c r="AX124">
+        <v>0.1457726</v>
+      </c>
+      <c r="BB124">
+        <v>0.1239157</v>
+      </c>
+      <c r="BC124">
+        <v>0.2479218</v>
+      </c>
+      <c r="BF124">
+        <v>0.2480094</v>
+      </c>
+      <c r="BH124">
+        <v>0.2899312</v>
+      </c>
+      <c r="BI124">
+        <v>0.3881647</v>
+      </c>
+      <c r="BJ124">
+        <v>0.2871287</v>
+      </c>
+      <c r="BM124">
+        <v>0.1650165</v>
+      </c>
+      <c r="BR124">
+        <v>0.4422782</v>
+      </c>
+      <c r="BS124">
+        <v>0.4708098</v>
+      </c>
+      <c r="BT124">
+        <v>0</v>
+      </c>
+      <c r="BW124">
+        <v>0.4375397</v>
+      </c>
+      <c r="BY124">
+        <v>0.2968037</v>
+      </c>
+      <c r="CC124">
+        <v>0.08726</v>
+      </c>
+      <c r="CE124">
+        <v>0.3092146</v>
+      </c>
+      <c r="CL124">
+        <v>0.2698413</v>
+      </c>
+      <c r="CM124">
+        <v>0.4268157</v>
+      </c>
+      <c r="CN124">
+        <v>0.3375863</v>
+      </c>
+      <c r="CO124">
+        <v>0.1141553</v>
+      </c>
+      <c r="CR124">
+        <v>0.2694343</v>
+      </c>
+      <c r="CS124">
+        <v>0.5575758</v>
+      </c>
+      <c r="CT124">
+        <v>0.7537688</v>
+      </c>
+      <c r="CY124">
+        <v>0.1743881</v>
+      </c>
+      <c r="DC124">
+        <v>0.2272695</v>
+      </c>
+      <c r="DD124">
+        <v>0.25539</v>
+      </c>
+      <c r="DK124">
+        <v>0.5422993</v>
+      </c>
+      <c r="DN124">
+        <v>0.2457759</v>
+      </c>
+      <c r="DS124">
+        <v>0.1216323</v>
+      </c>
+      <c r="DW124">
+        <v>0.1997264</v>
+      </c>
+      <c r="DZ124">
+        <v>0.3759398</v>
+      </c>
+      <c r="EA124">
+        <v>0.4289748</v>
+      </c>
+      <c r="EK124">
+        <v>0.3535448</v>
+      </c>
+      <c r="EL124">
+        <v>0.2735608</v>
+      </c>
+      <c r="EM124">
+        <v>1.5410959</v>
+      </c>
+      <c r="EN124">
+        <v>0.8818342</v>
+      </c>
+      <c r="ER124">
+        <v>0.3610108</v>
+      </c>
+      <c r="ET124">
+        <v>0.2355588</v>
+      </c>
+      <c r="EZ124">
+        <v>0.3405797</v>
+      </c>
+      <c r="FA124">
+        <v>0.2266535</v>
+      </c>
+      <c r="FB124">
+        <v>0.5709853</v>
+      </c>
+      <c r="FD124">
+        <v>0.3661045</v>
+      </c>
+      <c r="FE124">
+        <v>0.1615256</v>
+      </c>
+      <c r="FF124">
+        <v>0</v>
+      </c>
+      <c r="FG124">
+        <v>0.5148581</v>
+      </c>
+      <c r="FH124">
+        <v>0.8190883</v>
+      </c>
+      <c r="FI124">
+        <v>0.4227601</v>
+      </c>
+      <c r="FJ124">
+        <v>0.5059524</v>
+      </c>
+      <c r="FL124">
+        <v>0.289892</v>
+      </c>
+      <c r="FO124">
+        <v>0.0937766</v>
+      </c>
+      <c r="FR124">
+        <v>0.0557103</v>
+      </c>
+      <c r="FS124">
+        <v>0.3301347</v>
+      </c>
+      <c r="FY124">
+        <v>0.3607504</v>
+      </c>
+      <c r="GB124">
+        <v>0.2200704</v>
+      </c>
+      <c r="GC124">
+        <v>0.4842288</v>
+      </c>
+      <c r="GD124">
+        <v>0.3864054</v>
+      </c>
+      <c r="GE124">
+        <v>0.5131169</v>
+      </c>
+      <c r="GF124">
+        <v>0.1999002</v>
+      </c>
+      <c r="GJ124">
+        <v>0.2637868</v>
+      </c>
+      <c r="GS124">
+        <v>0.572483</v>
+      </c>
+      <c r="GV124">
+        <v>0.3623188</v>
+      </c>
+      <c r="HA124">
+        <v>0.7582911</v>
+      </c>
+      <c r="HF124">
+        <v>0.3612252</v>
+      </c>
+      <c r="HH124">
+        <v>0.7154882</v>
+      </c>
+      <c r="HK124">
+        <v>0.1936592</v>
+      </c>
+      <c r="HL124">
+        <v>0.299506</v>
+      </c>
+      <c r="HN124">
+        <v>0.320031</v>
+      </c>
+      <c r="HO124">
+        <v>0.755627</v>
+      </c>
+      <c r="HP124">
+        <v>0.174216</v>
+      </c>
+      <c r="HT124">
+        <v>0.4548742</v>
+      </c>
+      <c r="HV124">
+        <v>0.2961657</v>
+      </c>
+      <c r="HX124">
+        <v>0.5003342</v>
+      </c>
+      <c r="HY124">
+        <v>0.2632076</v>
+      </c>
+      <c r="IC124">
+        <v>0.3580247</v>
+      </c>
+      <c r="IE124">
+        <v>0.8733333</v>
+      </c>
+      <c r="IH124">
+        <v>0.6899056</v>
+      </c>
+      <c r="II124">
+        <v>0.6628686</v>
+      </c>
+      <c r="IN124">
+        <v>0.685731</v>
+      </c>
+      <c r="IR124">
+        <v>0.1976285</v>
+      </c>
+      <c r="IS124">
+        <v>0</v>
+      </c>
+      <c r="IZ124">
+        <v>0.0865052</v>
+      </c>
+      <c r="JB124">
+        <v>0.8081619</v>
+      </c>
+      <c r="JF124">
+        <v>0.3536693</v>
+      </c>
+      <c r="JG124">
+        <v>0.4051204</v>
+      </c>
+      <c r="JK124">
+        <v>0.06774579999999999</v>
+      </c>
+      <c r="JO124">
+        <v>0.0355125</v>
+      </c>
+      <c r="JR124">
+        <v>0.3113064</v>
+      </c>
+      <c r="JS124">
+        <v>0.7541478</v>
+      </c>
+      <c r="JX124">
+        <v>0.88973</v>
+      </c>
+      <c r="KB124">
+        <v>0.2175</v>
+      </c>
+      <c r="KC124">
+        <v>0.4427309</v>
+      </c>
+      <c r="KI124">
+        <v>0.1575644</v>
+      </c>
+      <c r="KJ124">
+        <v>0.757077</v>
+      </c>
+      <c r="KO124">
+        <v>0.22537</v>
+      </c>
+      <c r="KV124">
+        <v>0.8542081</v>
+      </c>
+      <c r="KW124">
+        <v>0.4360508</v>
+      </c>
+      <c r="LD124">
+        <v>0.2100179</v>
+      </c>
+      <c r="LG124">
+        <v>0.3188526</v>
+      </c>
+      <c r="LH124">
+        <v>0.2151881</v>
+      </c>
+      <c r="LO124">
+        <v>0.3982843</v>
+      </c>
+      <c r="LR124">
+        <v>0.1248439</v>
+      </c>
+      <c r="LU124">
+        <v>1.079932</v>
+      </c>
+      <c r="LW124">
+        <v>0.9751773</v>
+      </c>
+      <c r="LX124">
+        <v>0.1341382</v>
+      </c>
+      <c r="LY124">
+        <v>0.295858</v>
+      </c>
+      <c r="MA124">
+        <v>0.2994202</v>
+      </c>
+      <c r="MC124">
+        <v>1.1777778</v>
+      </c>
+      <c r="ME124">
+        <v>0</v>
+      </c>
+      <c r="MF124">
+        <v>0.3104457</v>
+      </c>
+      <c r="MG124">
+        <v>0.4332784</v>
+      </c>
+      <c r="MI124">
+        <v>0.354073</v>
+      </c>
+      <c r="ML124">
+        <v>0.2743724</v>
+      </c>
+      <c r="MN124">
+        <v>0.1503077</v>
+      </c>
+      <c r="MS124">
+        <v>0.3652357</v>
+      </c>
+      <c r="MU124">
+        <v>0.7936453999999999</v>
+      </c>
+      <c r="MW124">
+        <v>0.6183084</v>
+      </c>
+      <c r="MX124">
+        <v>0.8426399999999999</v>
+      </c>
+      <c r="MZ124">
+        <v>0.3569789</v>
+      </c>
+      <c r="NC124">
+        <v>0.3339449</v>
+      </c>
+      <c r="NE124">
+        <v>0.6018081</v>
+      </c>
+      <c r="NM124">
+        <v>0.2541376</v>
+      </c>
+      <c r="NP124">
+        <v>0.0504365</v>
+      </c>
+      <c r="NQ124">
+        <v>0.5440901</v>
+      </c>
+      <c r="NT124">
+        <v>0.3144654</v>
+      </c>
+      <c r="NW124">
+        <v>0.7103825</v>
+      </c>
+      <c r="NY124">
+        <v>0</v>
+      </c>
+      <c r="NZ124">
+        <v>0.4497688</v>
+      </c>
+      <c r="OD124">
+        <v>0.5656335</v>
+      </c>
+      <c r="OE124">
+        <v>0.1502326</v>
+      </c>
+      <c r="OJ124">
+        <v>0.6621087</v>
+      </c>
+      <c r="OL124">
+        <v>0.3415696</v>
+      </c>
+      <c r="ON124">
+        <v>0.364774</v>
+      </c>
+      <c r="OP124">
+        <v>0</v>
+      </c>
+      <c r="OQ124">
+        <v>0.1176801</v>
+      </c>
+      <c r="OR124">
+        <v>0.5920818</v>
+      </c>
+      <c r="OT124">
+        <v>0.0479616</v>
+      </c>
+      <c r="OV124">
+        <v>0.3460085</v>
+      </c>
+      <c r="OX124">
+        <v>0.6908463</v>
+      </c>
+      <c r="PB124">
+        <v>0.3701414</v>
+      </c>
+      <c r="PG124">
+        <v>0.07684149999999999</v>
+      </c>
+      <c r="PJ124">
+        <v>0.4012876</v>
+      </c>
+      <c r="PK124">
+        <v>0.0469925</v>
+      </c>
+      <c r="PL124">
+        <v>1.757841</v>
+      </c>
+      <c r="PM124">
+        <v>0.39801</v>
+      </c>
+      <c r="PP124">
+        <v>0.2665753</v>
+      </c>
+      <c r="PR124">
+        <v>0.5359057</v>
+      </c>
+      <c r="PS124">
+        <v>0.3477213</v>
+      </c>
+      <c r="PY124">
+        <v>0.3253591</v>
+      </c>
+      <c r="QD124">
+        <v>0.5275901</v>
+      </c>
+      <c r="QE124">
+        <v>0.0689615</v>
+      </c>
+      <c r="QF124">
+        <v>0.257732</v>
+      </c>
+      <c r="QK124">
+        <v>0.4315811</v>
+      </c>
+      <c r="QN124">
+        <v>0.4716981</v>
+      </c>
+      <c r="QO124">
+        <v>0.4384847</v>
+      </c>
+      <c r="QP124">
+        <v>0.5839785</v>
+      </c>
+      <c r="QS124">
+        <v>0.3640777</v>
+      </c>
+      <c r="QU124">
+        <v>0.6578947000000001</v>
+      </c>
+      <c r="QV124">
+        <v>0.5377049</v>
+      </c>
+      <c r="QX124">
+        <v>0.1539627</v>
+      </c>
+      <c r="QY124">
+        <v>0.2502261</v>
+      </c>
+      <c r="RA124">
+        <v>0.5263158</v>
+      </c>
+      <c r="RB124">
+        <v>0.166113</v>
+      </c>
+      <c r="RD124">
+        <v>0.3520327</v>
+      </c>
+      <c r="RI124">
+        <v>0.2267574</v>
+      </c>
+      <c r="RL124">
+        <v>0.2163743</v>
+      </c>
+      <c r="RQ124">
+        <v>0.4485488</v>
+      </c>
+      <c r="RT124">
+        <v>0.4522252</v>
+      </c>
+      <c r="RV124">
+        <v>0.750268</v>
+      </c>
+      <c r="RX124">
+        <v>0.1834694</v>
+      </c>
+      <c r="RY124">
+        <v>0.5057231</v>
+      </c>
+      <c r="SA124">
+        <v>0</v>
+      </c>
+      <c r="SD124">
+        <v>0.9189319</v>
+      </c>
+      <c r="SG124">
+        <v>0.4311192</v>
+      </c>
+      <c r="SH124">
+        <v>0.414645</v>
+      </c>
+      <c r="SI124">
+        <v>0.4935724</v>
+      </c>
+      <c r="SM124">
+        <v>0.410314</v>
+      </c>
+      <c r="SO124">
+        <v>0.251856</v>
+      </c>
+      <c r="SP124">
+        <v>0.1730104</v>
+      </c>
+      <c r="SR124">
+        <v>0.2683767</v>
+      </c>
+      <c r="SW124">
+        <v>0.1940482</v>
+      </c>
+      <c r="SX124">
+        <v>0.4901961</v>
+      </c>
+      <c r="TS124">
+        <v>0.1760199</v>
+      </c>
+      <c r="TX124">
+        <v>0.4129695</v>
+      </c>
+      <c r="TY124">
+        <v>0.5915689</v>
+      </c>
+      <c r="UA124">
+        <v>0.4115226</v>
+      </c>
+      <c r="UE124">
+        <v>0.2088929</v>
+      </c>
+      <c r="UF124">
+        <v>0.136612</v>
+      </c>
+      <c r="UH124">
+        <v>0</v>
+      </c>
+      <c r="UI124">
+        <v>0.1865672</v>
+      </c>
+      <c r="UK124">
+        <v>0.0964892</v>
+      </c>
+      <c r="UN124">
+        <v>0.4544814</v>
+      </c>
+      <c r="UP124">
+        <v>0.5809295</v>
+      </c>
+      <c r="US124">
+        <v>0.5949016</v>
+      </c>
+      <c r="UT124">
+        <v>0.2504911</v>
+      </c>
+      <c r="UU124">
+        <v>0.7458865</v>
+      </c>
+      <c r="UV124">
+        <v>0.3133989</v>
+      </c>
+      <c r="UW124">
+        <v>0.510426</v>
+      </c>
+      <c r="VA124">
+        <v>0.2303714</v>
+      </c>
+      <c r="VB124">
+        <v>0.715859</v>
+      </c>
+      <c r="VO124">
+        <v>0.3030303</v>
+      </c>
+      <c r="VP124">
+        <v>1.0149813</v>
+      </c>
+      <c r="VS124">
+        <v>0.263207</v>
+      </c>
+      <c r="VU124">
+        <v>0.3999385</v>
+      </c>
+      <c r="VW124">
+        <v>0.5787781</v>
+      </c>
+      <c r="VX124">
+        <v>0.3991987</v>
+      </c>
+      <c r="VY124">
+        <v>0.3821699</v>
+      </c>
+      <c r="WB124">
+        <v>0.1805556</v>
+      </c>
+      <c r="WF124">
+        <v>0.3587193</v>
+      </c>
+      <c r="WG124">
+        <v>0.5250658</v>
+      </c>
+      <c r="WL124">
+        <v>0.4453108</v>
+      </c>
+      <c r="WM124">
+        <v>0.2937539</v>
+      </c>
+      <c r="WQ124">
+        <v>0.5244803</v>
+      </c>
+      <c r="WU124">
+        <v>0.2642102</v>
+      </c>
+      <c r="WW124">
+        <v>0.3637141</v>
+      </c>
+      <c r="WY124">
+        <v>0.9730539</v>
+      </c>
+      <c r="WZ124">
+        <v>0.5591685</v>
+      </c>
+      <c r="XD124">
+        <v>0.3703337</v>
+      </c>
+      <c r="XF124">
+        <v>0.3703256</v>
+      </c>
+      <c r="XG124">
+        <v>0.5799923</v>
+      </c>
+      <c r="XL124">
+        <v>0.2544672</v>
+      </c>
+      <c r="XM124">
+        <v>0.3107567</v>
+      </c>
+      <c r="XT124">
+        <v>0.7360673</v>
+      </c>
+      <c r="XV124">
+        <v>0.3252758</v>
+      </c>
+      <c r="YB124">
+        <v>0.1687536</v>
+      </c>
+      <c r="YD124">
+        <v>0.4229897</v>
+      </c>
+      <c r="YH124">
+        <v>0.8951049</v>
+      </c>
+      <c r="YN124">
+        <v>0.3219342</v>
+      </c>
+      <c r="YO124">
+        <v>0.3305909</v>
+      </c>
+      <c r="YQ124">
+        <v>0.3182719</v>
+      </c>
+      <c r="YR124">
+        <v>0.4001915</v>
+      </c>
+      <c r="YX124">
+        <v>0.257636</v>
+      </c>
+      <c r="YY124">
+        <v>0.1519757</v>
+      </c>
+      <c r="ZL124">
+        <v>0.1570084</v>
+      </c>
+      <c r="ZM124">
+        <v>0.3341315</v>
+      </c>
+      <c r="ZO124">
+        <v>0</v>
+      </c>
+      <c r="ZR124">
+        <v>0.3845375</v>
+      </c>
+      <c r="ZS124">
+        <v>0.3837719</v>
+      </c>
+      <c r="ZV124">
+        <v>0.3021557</v>
+      </c>
+      <c r="ZW124">
+        <v>0.285477</v>
+      </c>
+      <c r="ZX124">
+        <v>0.4081633</v>
+      </c>
+      <c r="ZZ124">
+        <v>0.3648768</v>
+      </c>
+      <c r="AAB124">
+        <v>1.2317518</v>
+      </c>
+      <c r="AAC124">
+        <v>0.4678085</v>
+      </c>
+      <c r="AAD124">
+        <v>0.5623722</v>
+      </c>
+      <c r="AAF124">
+        <v>0.1798819</v>
+      </c>
+      <c r="AAH124">
+        <v>0.4120879</v>
+      </c>
+      <c r="AAJ124">
+        <v>0.4194131</v>
+      </c>
+      <c r="AAM124">
+        <v>0.5556615</v>
+      </c>
+      <c r="AAP124">
+        <v>0.3669301</v>
+      </c>
+      <c r="AAR124">
+        <v>0.8002793</v>
+      </c>
+      <c r="AAU124">
+        <v>0.4663208</v>
+      </c>
+      <c r="AAV124">
+        <v>0.2195192</v>
+      </c>
+      <c r="AAW124">
+        <v>0.6196304</v>
+      </c>
+      <c r="ABA124">
+        <v>0.2112676</v>
+      </c>
+      <c r="ABC124">
+        <v>0.2785265</v>
+      </c>
+      <c r="ABJ124">
+        <v>0.1824754</v>
+      </c>
+      <c r="ABL124">
+        <v>0.4323941</v>
+      </c>
+      <c r="ABM124">
+        <v>0.4166667</v>
+      </c>
+      <c r="ABN124">
+        <v>0</v>
+      </c>
+      <c r="ABP124">
+        <v>0.4068835</v>
+      </c>
+      <c r="ABT124">
+        <v>0.2343016</v>
+      </c>
+      <c r="ABV124">
+        <v>0</v>
+      </c>
+      <c r="ABW124">
+        <v>0.624337</v>
+      </c>
+      <c r="ABX124">
+        <v>0.4761875</v>
+      </c>
+      <c r="ABY124">
+        <v>0.3816794</v>
+      </c>
+      <c r="ABZ124">
+        <v>0.2365616</v>
+      </c>
+      <c r="ACA124">
+        <v>0.2184454</v>
+      </c>
+      <c r="ACE124">
+        <v>0.2005932</v>
+      </c>
+      <c r="ACG124">
+        <v>0.1896286</v>
+      </c>
+      <c r="ACI124">
+        <v>0.1385061</v>
+      </c>
+      <c r="ACJ124">
+        <v>0</v>
+      </c>
+      <c r="ACK124">
+        <v>0.2083333</v>
+      </c>
+      <c r="ACM124">
+        <v>0.1741646</v>
+      </c>
+      <c r="ACN124">
+        <v>0.0933799</v>
+      </c>
+      <c r="ACP124">
+        <v>0.2567484</v>
+      </c>
+      <c r="ACU124">
+        <v>0.3702052</v>
+      </c>
+      <c r="ACW124">
+        <v>0.2654762</v>
+      </c>
+      <c r="ACX124">
+        <v>0.591716</v>
+      </c>
+      <c r="ADP124">
+        <v>0.2126071</v>
+      </c>
+      <c r="ADR124">
+        <v>1.0687023</v>
+      </c>
+      <c r="ADU124">
+        <v>0.7640638</v>
+      </c>
+      <c r="ADV124">
+        <v>0.3800268</v>
+      </c>
+      <c r="AEA124">
+        <v>0.3207046</v>
+      </c>
+      <c r="AEB124">
+        <v>0.1381208</v>
+      </c>
+      <c r="AEF124">
+        <v>0.3998154</v>
+      </c>
+      <c r="AEG124">
+        <v>0.3890825</v>
+      </c>
+      <c r="AEH124">
+        <v>0.3036423</v>
+      </c>
+      <c r="AEI124">
+        <v>0.3198492</v>
+      </c>
+      <c r="AEJ124">
+        <v>0.2530968</v>
+      </c>
+      <c r="AEL124">
+        <v>0.0483559</v>
+      </c>
+      <c r="AEU124">
+        <v>0.3916458</v>
+      </c>
+      <c r="AEZ124">
+        <v>0.5376344</v>
+      </c>
+      <c r="AFD124">
+        <v>0.1630334</v>
+      </c>
+      <c r="AFG124">
+        <v>0.1854381</v>
+      </c>
+      <c r="AFH124">
+        <v>0.3109308</v>
+      </c>
+      <c r="AFK124">
+        <v>0.8711883</v>
+      </c>
+      <c r="AFL124">
+        <v>0.377451</v>
+      </c>
+      <c r="AFN124">
+        <v>0.3787879</v>
+      </c>
+      <c r="AFT124">
+        <v>0.5904183</v>
+      </c>
+      <c r="AFU124">
+        <v>0.7511398</v>
+      </c>
+      <c r="AFX124">
+        <v>0.3080973</v>
+      </c>
+      <c r="AGA124">
+        <v>0.602346</v>
+      </c>
+      <c r="AGC124">
+        <v>0.5454752</v>
+      </c>
+      <c r="AGE124">
+        <v>0.4695985</v>
+      </c>
+      <c r="AGF124">
+        <v>1.4766208</v>
+      </c>
+      <c r="AGG124">
+        <v>0.6315708</v>
+      </c>
+      <c r="AGL124">
+        <v>0.1279528</v>
+      </c>
+      <c r="AGM124">
+        <v>0.3838727</v>
+      </c>
+      <c r="AGO124">
+        <v>0.4329004</v>
+      </c>
+      <c r="AGP124">
+        <v>0.2335134</v>
+      </c>
+      <c r="AGV124">
+        <v>0.2538071</v>
+      </c>
+      <c r="AHA124">
+        <v>0.360203</v>
+      </c>
+      <c r="AHB124">
+        <v>0.3556284</v>
+      </c>
+      <c r="AHD124">
+        <v>0.324236</v>
+      </c>
+      <c r="AHH124">
+        <v>0.1528384</v>
+      </c>
+      <c r="AHN124">
+        <v>0.4371924</v>
+      </c>
+      <c r="AHP124">
+        <v>0.3379722</v>
+      </c>
+      <c r="AHS124">
+        <v>0</v>
+      </c>
+      <c r="AHU124">
+        <v>0.405639</v>
+      </c>
+      <c r="AHX124">
+        <v>0</v>
+      </c>
+      <c r="AIB124">
+        <v>0.2173913</v>
+      </c>
+      <c r="AID124">
+        <v>0.2743821</v>
+      </c>
+      <c r="AIE124">
+        <v>0.2455146</v>
+      </c>
+      <c r="AIF124">
+        <v>0.2705628</v>
+      </c>
+      <c r="AII124">
+        <v>0.3355307</v>
+      </c>
+      <c r="AIP124">
+        <v>0.3899894</v>
+      </c>
+      <c r="AIT124">
+        <v>0.2076044</v>
+      </c>
+      <c r="AIV124">
+        <v>0.2629574</v>
+      </c>
+      <c r="AIY124">
+        <v>0.5128773</v>
+      </c>
+      <c r="AIZ124">
+        <v>0.3521769</v>
+      </c>
+      <c r="AJA124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:938">
+      <c r="A125" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D125">
+        <v>0.2818035</v>
+      </c>
+      <c r="H125">
+        <v>0.2488097</v>
+      </c>
+      <c r="J125">
+        <v>0.8143322</v>
+      </c>
+      <c r="K125">
+        <v>0.2500968</v>
+      </c>
+      <c r="L125">
+        <v>0.2737939</v>
+      </c>
+      <c r="P125">
+        <v>0.1724624</v>
+      </c>
+      <c r="R125">
+        <v>0.8205224</v>
+      </c>
+      <c r="U125">
+        <v>0.362672</v>
+      </c>
+      <c r="X125">
+        <v>0.5443548</v>
+      </c>
+      <c r="Z125">
+        <v>0.7274247</v>
+      </c>
+      <c r="AB125">
+        <v>0.7087615</v>
+      </c>
+      <c r="AD125">
+        <v>0.5951101</v>
+      </c>
+      <c r="AG125">
+        <v>0.0021582</v>
+      </c>
+      <c r="AI125">
+        <v>0.4975657</v>
+      </c>
+      <c r="AN125">
+        <v>0.2284214</v>
+      </c>
+      <c r="AV125">
+        <v>0.4181185</v>
+      </c>
+      <c r="AW125">
+        <v>0.3047397</v>
+      </c>
+      <c r="AX125">
+        <v>0.1449275</v>
+      </c>
+      <c r="BB125">
+        <v>0.1272265</v>
+      </c>
+      <c r="BC125">
+        <v>0.1455115</v>
+      </c>
+      <c r="BF125">
+        <v>0.2828407</v>
+      </c>
+      <c r="BH125">
+        <v>0.2315901</v>
+      </c>
+      <c r="BI125">
+        <v>0.4232127</v>
+      </c>
+      <c r="BJ125">
+        <v>0.4720617</v>
+      </c>
+      <c r="BM125">
+        <v>0.4731861</v>
+      </c>
+      <c r="BR125">
+        <v>0.4254384</v>
+      </c>
+      <c r="BS125">
+        <v>0.462963</v>
+      </c>
+      <c r="BT125">
+        <v>0</v>
+      </c>
+      <c r="BW125">
+        <v>0.5040873</v>
+      </c>
+      <c r="BY125">
+        <v>0.2951862</v>
+      </c>
+      <c r="CC125">
+        <v>0.0881834</v>
+      </c>
+      <c r="CE125">
+        <v>0.2772643</v>
+      </c>
+      <c r="CL125">
+        <v>0.3983429</v>
+      </c>
+      <c r="CM125">
+        <v>0.1902975</v>
+      </c>
+      <c r="CN125">
+        <v>0.3544053</v>
+      </c>
+      <c r="CO125">
+        <v>0.1182033</v>
+      </c>
+      <c r="CR125">
+        <v>0.1631485</v>
+      </c>
+      <c r="CS125">
+        <v>0.5616606</v>
+      </c>
+      <c r="CT125">
+        <v>0.66313</v>
+      </c>
+      <c r="CY125">
+        <v>0.1462578</v>
+      </c>
+      <c r="DC125">
+        <v>0.2074671</v>
+      </c>
+      <c r="DD125">
+        <v>0.2294056</v>
+      </c>
+      <c r="DK125">
+        <v>0.4609929</v>
+      </c>
+      <c r="DN125">
+        <v>0.2907878</v>
+      </c>
+      <c r="DS125">
+        <v>0.1077746</v>
+      </c>
+      <c r="DW125">
+        <v>0.2524553</v>
+      </c>
+      <c r="DZ125">
+        <v>0.5555556</v>
+      </c>
+      <c r="EA125">
+        <v>0.4297985</v>
+      </c>
+      <c r="EK125">
+        <v>0.422019</v>
+      </c>
+      <c r="EL125">
+        <v>0.2784001</v>
+      </c>
+      <c r="EM125">
+        <v>0.8960572999999999</v>
+      </c>
+      <c r="EN125">
+        <v>0.6693440000000001</v>
+      </c>
+      <c r="ER125">
+        <v>0.3636364</v>
+      </c>
+      <c r="ET125">
+        <v>0.3831277</v>
+      </c>
+      <c r="EZ125">
+        <v>0.358505</v>
+      </c>
+      <c r="FA125">
+        <v>0.2276176</v>
+      </c>
+      <c r="FB125">
+        <v>0.7074381</v>
+      </c>
+      <c r="FD125">
+        <v>0.3491366</v>
+      </c>
+      <c r="FE125">
+        <v>0.2165446</v>
+      </c>
+      <c r="FF125">
+        <v>0</v>
+      </c>
+      <c r="FG125">
+        <v>0.6017804</v>
+      </c>
+      <c r="FH125">
+        <v>0.8474576</v>
+      </c>
+      <c r="FI125">
+        <v>0.4240168</v>
+      </c>
+      <c r="FJ125">
+        <v>0.5146457</v>
+      </c>
+      <c r="FL125">
+        <v>0.3211135</v>
+      </c>
+      <c r="FO125">
+        <v>0.0921273</v>
+      </c>
+      <c r="FR125">
+        <v>0.0573066</v>
+      </c>
+      <c r="FS125">
+        <v>0.2943177</v>
+      </c>
+      <c r="FY125">
+        <v>0.3623188</v>
+      </c>
+      <c r="GB125">
+        <v>0.2859619</v>
+      </c>
+      <c r="GC125">
+        <v>0.5265568</v>
+      </c>
+      <c r="GD125">
+        <v>0.2539767</v>
+      </c>
+      <c r="GE125">
+        <v>0.5051080999999999</v>
+      </c>
+      <c r="GF125">
+        <v>0.1676862</v>
+      </c>
+      <c r="GJ125">
+        <v>0.2342627</v>
+      </c>
+      <c r="GS125">
+        <v>0.4094063</v>
+      </c>
+      <c r="GV125">
+        <v>0.3668763</v>
+      </c>
+      <c r="HA125">
+        <v>0.8946171000000001</v>
+      </c>
+      <c r="HF125">
+        <v>0.3893101</v>
+      </c>
+      <c r="HH125">
+        <v>0.4824561</v>
+      </c>
+      <c r="HK125">
+        <v>0.2062706</v>
+      </c>
+      <c r="HL125">
+        <v>0.2873961</v>
+      </c>
+      <c r="HN125">
+        <v>0.3823533</v>
+      </c>
+      <c r="HO125">
+        <v>0.7532051</v>
+      </c>
+      <c r="HP125">
+        <v>0.1805054</v>
+      </c>
+      <c r="HT125">
+        <v>0.3615853</v>
+      </c>
+      <c r="HV125">
+        <v>0.3228762</v>
+      </c>
+      <c r="HX125">
+        <v>0.3801029</v>
+      </c>
+      <c r="HY125">
+        <v>0.2893526</v>
+      </c>
+      <c r="IC125">
+        <v>0.4021559</v>
+      </c>
+      <c r="IE125">
+        <v>0.8893415</v>
+      </c>
+      <c r="IH125">
+        <v>0.7229833</v>
+      </c>
+      <c r="II125">
+        <v>0.5240093</v>
+      </c>
+      <c r="IN125">
+        <v>0.6711611</v>
+      </c>
+      <c r="IR125">
+        <v>0.0970874</v>
+      </c>
+      <c r="IS125">
+        <v>0</v>
+      </c>
+      <c r="IZ125">
+        <v>0.0862069</v>
+      </c>
+      <c r="JB125">
+        <v>0.7742734999999999</v>
+      </c>
+      <c r="JF125">
+        <v>0.2610966</v>
+      </c>
+      <c r="JG125">
+        <v>0.4955653</v>
+      </c>
+      <c r="JK125">
+        <v>0.0683054</v>
+      </c>
+      <c r="JO125">
+        <v>0.0357153</v>
+      </c>
+      <c r="JR125">
+        <v>0.1233921</v>
+      </c>
+      <c r="JS125">
+        <v>0.7374631</v>
+      </c>
+      <c r="JX125">
+        <v>0.9157631000000001</v>
+      </c>
+      <c r="KB125">
+        <v>0.2748776</v>
+      </c>
+      <c r="KC125">
+        <v>0.6052729999999999</v>
+      </c>
+      <c r="KI125">
+        <v>0.1906844</v>
+      </c>
+      <c r="KJ125">
+        <v>0.7523582</v>
+      </c>
+      <c r="KO125">
+        <v>0.2448292</v>
+      </c>
+      <c r="KV125">
+        <v>0.7073733</v>
+      </c>
+      <c r="KW125">
+        <v>0.5211101</v>
+      </c>
+      <c r="LD125">
+        <v>0.1973166</v>
+      </c>
+      <c r="LG125">
+        <v>0.3848569</v>
+      </c>
+      <c r="LH125">
+        <v>0.2216502</v>
+      </c>
+      <c r="LO125">
+        <v>0.4142766</v>
+      </c>
+      <c r="LR125">
+        <v>0.1221001</v>
+      </c>
+      <c r="LU125">
+        <v>1.0690236</v>
+      </c>
+      <c r="LW125">
+        <v>0.5244755</v>
+      </c>
+      <c r="LX125">
+        <v>0.3870514</v>
+      </c>
+      <c r="LY125">
+        <v>0.1006036</v>
+      </c>
+      <c r="MA125">
+        <v>0.3002734</v>
+      </c>
+      <c r="MC125">
+        <v>1.2325581</v>
+      </c>
+      <c r="ME125">
+        <v>0</v>
+      </c>
+      <c r="MF125">
+        <v>0.4603236</v>
+      </c>
+      <c r="MG125">
+        <v>0.5181776</v>
+      </c>
+      <c r="MI125">
+        <v>0.3627761</v>
+      </c>
+      <c r="ML125">
+        <v>0.2802624</v>
+      </c>
+      <c r="MN125">
+        <v>0.2888995</v>
+      </c>
+      <c r="MS125">
+        <v>0.2595037</v>
+      </c>
+      <c r="MU125">
+        <v>0.5700326</v>
+      </c>
+      <c r="MW125">
+        <v>0.297751</v>
+      </c>
+      <c r="MX125">
+        <v>0.5782863</v>
+      </c>
+      <c r="MZ125">
+        <v>0.4029133</v>
+      </c>
+      <c r="NC125">
+        <v>0.3175745</v>
+      </c>
+      <c r="NE125">
+        <v>0.5439889</v>
+      </c>
+      <c r="NM125">
+        <v>0.2804017</v>
+      </c>
+      <c r="NP125">
+        <v>0.0830211</v>
+      </c>
+      <c r="NQ125">
+        <v>0.8955032000000001</v>
+      </c>
+      <c r="NT125">
+        <v>0.1118568</v>
+      </c>
+      <c r="NW125">
+        <v>0.828877</v>
+      </c>
+      <c r="NY125">
+        <v>0</v>
+      </c>
+      <c r="NZ125">
+        <v>0.4153382</v>
+      </c>
+      <c r="OD125">
+        <v>0.5058283</v>
+      </c>
+      <c r="OE125">
+        <v>0.1147468</v>
+      </c>
+      <c r="OJ125">
+        <v>0.6765023</v>
+      </c>
+      <c r="OL125">
+        <v>0.4059486</v>
+      </c>
+      <c r="ON125">
+        <v>0.3885134</v>
+      </c>
+      <c r="OP125">
+        <v>0</v>
+      </c>
+      <c r="OQ125">
+        <v>0.0401077</v>
+      </c>
+      <c r="OR125">
+        <v>0.6853164</v>
+      </c>
+      <c r="OT125">
+        <v>0</v>
+      </c>
+      <c r="OV125">
+        <v>0.3174699</v>
+      </c>
+      <c r="OX125">
+        <v>0.7042254</v>
+      </c>
+      <c r="PB125">
+        <v>0.3722131</v>
+      </c>
+      <c r="PG125">
+        <v>0.1063015</v>
+      </c>
+      <c r="PJ125">
+        <v>0.4064629</v>
+      </c>
+      <c r="PK125">
+        <v>0.0460405</v>
+      </c>
+      <c r="PL125">
+        <v>1.8717375</v>
+      </c>
+      <c r="PM125">
+        <v>0.3412073</v>
+      </c>
+      <c r="PP125">
+        <v>0.3869106</v>
+      </c>
+      <c r="PR125">
+        <v>0.524109</v>
+      </c>
+      <c r="PS125">
+        <v>0.2879253</v>
+      </c>
+      <c r="PY125">
+        <v>0.3202614</v>
+      </c>
+      <c r="QD125">
+        <v>0.4495624</v>
+      </c>
+      <c r="QE125">
+        <v>0.2141643</v>
+      </c>
+      <c r="QF125">
+        <v>0.265252</v>
+      </c>
+      <c r="QK125">
+        <v>0.3881584</v>
+      </c>
+      <c r="QN125">
+        <v>0.4780115</v>
+      </c>
+      <c r="QO125">
+        <v>0.550939</v>
+      </c>
+      <c r="QP125">
+        <v>0.582663</v>
+      </c>
+      <c r="QS125">
+        <v>0.3597122</v>
+      </c>
+      <c r="QU125">
+        <v>0.2242152</v>
+      </c>
+      <c r="QV125">
+        <v>0.6564056</v>
+      </c>
+      <c r="QX125">
+        <v>0.3275477</v>
+      </c>
+      <c r="QY125">
+        <v>0.2091389</v>
+      </c>
+      <c r="RA125">
+        <v>0.5445545000000001</v>
+      </c>
+      <c r="RB125">
+        <v>0.1650165</v>
+      </c>
+      <c r="RD125">
+        <v>0.381416</v>
+      </c>
+      <c r="RI125">
+        <v>0.1131222</v>
+      </c>
+      <c r="RL125">
+        <v>0.2275523</v>
+      </c>
+      <c r="RQ125">
+        <v>0.4509284</v>
+      </c>
+      <c r="RT125">
+        <v>0.3234646</v>
+      </c>
+      <c r="RV125">
+        <v>0.8169935</v>
+      </c>
+      <c r="RX125">
+        <v>0.2413511</v>
+      </c>
+      <c r="RY125">
+        <v>0.5240065</v>
+      </c>
+      <c r="SA125">
+        <v>0</v>
+      </c>
+      <c r="SD125">
+        <v>0.8677379</v>
+      </c>
+      <c r="SG125">
+        <v>0.4408316</v>
+      </c>
+      <c r="SH125">
+        <v>0.4156434</v>
+      </c>
+      <c r="SI125">
+        <v>0.7057038</v>
+      </c>
+      <c r="SM125">
+        <v>0.4724358</v>
+      </c>
+      <c r="SO125">
+        <v>0.3296439</v>
+      </c>
+      <c r="SP125">
+        <v>0.2491103</v>
+      </c>
+      <c r="SR125">
+        <v>0.1984396</v>
+      </c>
+      <c r="SW125">
+        <v>0.1857284</v>
+      </c>
+      <c r="SX125">
+        <v>0.4716981</v>
+      </c>
+      <c r="TS125">
+        <v>0.081839</v>
+      </c>
+      <c r="TX125">
+        <v>0.2763723</v>
+      </c>
+      <c r="TY125">
+        <v>0.5519387</v>
+      </c>
+      <c r="UA125">
+        <v>0.4500581</v>
+      </c>
+      <c r="UE125">
+        <v>0.13984</v>
+      </c>
+      <c r="UF125">
+        <v>0.1396648</v>
+      </c>
+      <c r="UH125">
+        <v>0</v>
+      </c>
+      <c r="UI125">
+        <v>0.2567141</v>
+      </c>
+      <c r="UK125">
+        <v>0.1207923</v>
+      </c>
+      <c r="UN125">
+        <v>0.4564937</v>
+      </c>
+      <c r="UP125">
+        <v>0.5376344</v>
+      </c>
+      <c r="US125">
+        <v>0.606401</v>
+      </c>
+      <c r="UT125">
+        <v>0.1899249</v>
+      </c>
+      <c r="UU125">
+        <v>0.9814571</v>
+      </c>
+      <c r="UV125">
+        <v>0.2835192</v>
+      </c>
+      <c r="UW125">
+        <v>0.4864302</v>
+      </c>
+      <c r="VA125">
+        <v>0.2328125</v>
+      </c>
+      <c r="VB125">
+        <v>0.867679</v>
+      </c>
+      <c r="VO125">
+        <v>0.2988048</v>
+      </c>
+      <c r="VP125">
+        <v>0.8431373</v>
+      </c>
+      <c r="VS125">
+        <v>0.1073211</v>
+      </c>
+      <c r="VU125">
+        <v>0.3825627</v>
+      </c>
+      <c r="VW125">
+        <v>0.3322259</v>
+      </c>
+      <c r="VX125">
+        <v>0.4108734</v>
+      </c>
+      <c r="VY125">
+        <v>0.3596706</v>
+      </c>
+      <c r="WB125">
+        <v>0.3646973</v>
+      </c>
+      <c r="WF125">
+        <v>0.3112964</v>
+      </c>
+      <c r="WG125">
+        <v>0.3861705</v>
+      </c>
+      <c r="WL125">
+        <v>0.4360467</v>
+      </c>
+      <c r="WM125">
+        <v>0.4740061</v>
+      </c>
+      <c r="WQ125">
+        <v>0.5301051</v>
+      </c>
+      <c r="WU125">
+        <v>0.2769867</v>
+      </c>
+      <c r="WW125">
+        <v>0.2965631</v>
+      </c>
+      <c r="WY125">
+        <v>0.9086189</v>
+      </c>
+      <c r="WZ125">
+        <v>0.5562667</v>
+      </c>
+      <c r="XD125">
+        <v>0.4445319</v>
+      </c>
+      <c r="XF125">
+        <v>0.3726172</v>
+      </c>
+      <c r="XG125">
+        <v>0.5235279</v>
+      </c>
+      <c r="XL125">
+        <v>0.2227911</v>
+      </c>
+      <c r="XM125">
+        <v>0.3148112</v>
+      </c>
+      <c r="XT125">
+        <v>0.4854369</v>
+      </c>
+      <c r="XV125">
+        <v>0.3432598</v>
+      </c>
+      <c r="YB125">
+        <v>0.2062293</v>
+      </c>
+      <c r="YD125">
+        <v>0.3357187</v>
+      </c>
+      <c r="YH125">
+        <v>0.6158358</v>
+      </c>
+      <c r="YN125">
+        <v>0.2467552</v>
+      </c>
+      <c r="YO125">
+        <v>0.2803676</v>
+      </c>
+      <c r="YQ125">
+        <v>0.3134647</v>
+      </c>
+      <c r="YR125">
+        <v>0.3953426</v>
+      </c>
+      <c r="YX125">
+        <v>0.2748325</v>
+      </c>
+      <c r="YY125">
+        <v>0</v>
+      </c>
+      <c r="ZL125">
+        <v>0.218226</v>
+      </c>
+      <c r="ZM125">
+        <v>0.265121</v>
+      </c>
+      <c r="ZO125">
+        <v>0.058072</v>
+      </c>
+      <c r="ZR125">
+        <v>0.3710037</v>
+      </c>
+      <c r="ZS125">
+        <v>0.4934211</v>
+      </c>
+      <c r="ZV125">
+        <v>0.2982332</v>
+      </c>
+      <c r="ZW125">
+        <v>0.3008959</v>
+      </c>
+      <c r="ZX125">
+        <v>0.524109</v>
+      </c>
+      <c r="ZZ125">
+        <v>0.4489755</v>
+      </c>
+      <c r="AAB125">
+        <v>1.1241007</v>
+      </c>
+      <c r="AAC125">
+        <v>0.4687558</v>
+      </c>
+      <c r="AAD125">
+        <v>0.4859611</v>
+      </c>
+      <c r="AAF125">
+        <v>0.1958896</v>
+      </c>
+      <c r="AAH125">
+        <v>0.4073873</v>
+      </c>
+      <c r="AAJ125">
+        <v>0.5154054</v>
+      </c>
+      <c r="AAM125">
+        <v>0.5589587</v>
+      </c>
+      <c r="AAP125">
+        <v>0.3126142</v>
+      </c>
+      <c r="AAR125">
+        <v>1.0496734</v>
+      </c>
+      <c r="AAU125">
+        <v>0.4748068</v>
+      </c>
+      <c r="AAV125">
+        <v>0.163322</v>
+      </c>
+      <c r="AAW125">
+        <v>0.4548698</v>
+      </c>
+      <c r="ABA125">
+        <v>0.2238806</v>
+      </c>
+      <c r="ABC125">
+        <v>0.0549451</v>
+      </c>
+      <c r="ABJ125">
+        <v>0.2471088</v>
+      </c>
+      <c r="ABL125">
+        <v>0.284115</v>
+      </c>
+      <c r="ABM125">
+        <v>0.5748606000000001</v>
+      </c>
+      <c r="ABN125">
+        <v>0</v>
+      </c>
+      <c r="ABP125">
+        <v>0.3488479</v>
+      </c>
+      <c r="ABT125">
+        <v>0.2261115</v>
+      </c>
+      <c r="ABV125">
+        <v>0</v>
+      </c>
+      <c r="ABW125">
+        <v>0.4062677</v>
+      </c>
+      <c r="ABX125">
+        <v>0.5096465999999999</v>
+      </c>
+      <c r="ABY125">
+        <v>0</v>
+      </c>
+      <c r="ABZ125">
+        <v>0.2616114</v>
+      </c>
+      <c r="ACA125">
+        <v>0.2715021</v>
+      </c>
+      <c r="ACE125">
+        <v>0.1898628</v>
+      </c>
+      <c r="ACG125">
+        <v>0.2174445</v>
+      </c>
+      <c r="ACI125">
+        <v>0.139859</v>
+      </c>
+      <c r="ACJ125">
+        <v>0</v>
+      </c>
+      <c r="ACK125">
+        <v>0.0437063</v>
+      </c>
+      <c r="ACM125">
+        <v>0.1187929</v>
+      </c>
+      <c r="ACN125">
+        <v>0.09372659999999999</v>
+      </c>
+      <c r="ACP125">
+        <v>0.2555833</v>
+      </c>
+      <c r="ACU125">
+        <v>0.4271785</v>
+      </c>
+      <c r="ACW125">
+        <v>0.2696975</v>
+      </c>
+      <c r="ACX125">
+        <v>0.6289308</v>
+      </c>
+      <c r="ADP125">
+        <v>0.1571482</v>
+      </c>
+      <c r="ADR125">
+        <v>1.3471503</v>
+      </c>
+      <c r="ADU125">
+        <v>0.7380373</v>
+      </c>
+      <c r="ADV125">
+        <v>0.2705151</v>
+      </c>
+      <c r="AEA125">
+        <v>0.2359579</v>
+      </c>
+      <c r="AEB125">
+        <v>0.2551532</v>
+      </c>
+      <c r="AEF125">
+        <v>0.3670771</v>
+      </c>
+      <c r="AEG125">
+        <v>0.4477181</v>
+      </c>
+      <c r="AEH125">
+        <v>0.2701631</v>
+      </c>
+      <c r="AEI125">
+        <v>0.4350136</v>
+      </c>
+      <c r="AEJ125">
+        <v>0.3279387</v>
+      </c>
+      <c r="AEL125">
+        <v>0.2306273</v>
+      </c>
+      <c r="AEU125">
+        <v>0.4017037</v>
+      </c>
+      <c r="AEZ125">
+        <v>0</v>
+      </c>
+      <c r="AFD125">
+        <v>0.1863788</v>
+      </c>
+      <c r="AFG125">
+        <v>0.1848469</v>
+      </c>
+      <c r="AFH125">
+        <v>0.3125651</v>
+      </c>
+      <c r="AFK125">
+        <v>0.7946974999999999</v>
+      </c>
+      <c r="AFL125">
+        <v>0.3687739</v>
+      </c>
+      <c r="AFN125">
+        <v>0.3703704</v>
+      </c>
+      <c r="AFT125">
+        <v>0.6402084</v>
+      </c>
+      <c r="AFU125">
+        <v>0.6298582</v>
+      </c>
+      <c r="AFX125">
+        <v>0.2735529</v>
+      </c>
+      <c r="AGA125">
+        <v>0.5054753</v>
+      </c>
+      <c r="AGC125">
+        <v>0.5795921000000001</v>
+      </c>
+      <c r="AGE125">
+        <v>0.2899132</v>
+      </c>
+      <c r="AGF125">
+        <v>1.3360181</v>
+      </c>
+      <c r="AGG125">
+        <v>0.6048268</v>
+      </c>
+      <c r="AGL125">
+        <v>0.1293103</v>
+      </c>
+      <c r="AGM125">
+        <v>0.1038454</v>
+      </c>
+      <c r="AGO125">
+        <v>0.5991285</v>
+      </c>
+      <c r="AGP125">
+        <v>0.2724149</v>
+      </c>
+      <c r="AGV125">
+        <v>0.2617801</v>
+      </c>
+      <c r="AHA125">
+        <v>0.382879</v>
+      </c>
+      <c r="AHB125">
+        <v>0.468331</v>
+      </c>
+      <c r="AHD125">
+        <v>0.5628506</v>
+      </c>
+      <c r="AHH125">
+        <v>0.1587302</v>
+      </c>
+      <c r="AHN125">
+        <v>0.4102102</v>
+      </c>
+      <c r="AHP125">
+        <v>0.3379722</v>
+      </c>
+      <c r="AHS125">
+        <v>0.1554726</v>
+      </c>
+      <c r="AHU125">
+        <v>0.4055265</v>
+      </c>
+      <c r="AHX125">
+        <v>0</v>
+      </c>
+      <c r="AIB125">
+        <v>0.245098</v>
+      </c>
+      <c r="AID125">
+        <v>0.2484991</v>
+      </c>
+      <c r="AIE125">
+        <v>0.2394107</v>
+      </c>
+      <c r="AIF125">
+        <v>0.2741228</v>
+      </c>
+      <c r="AII125">
+        <v>0.3932681</v>
+      </c>
+      <c r="AIP125">
+        <v>0.3607081</v>
+      </c>
+      <c r="AIT125">
+        <v>0.2155389</v>
+      </c>
+      <c r="AIV125">
+        <v>0.3695664</v>
+      </c>
+      <c r="AIY125">
+        <v>0.5903725</v>
+      </c>
+      <c r="AIZ125">
+        <v>0.3656508</v>
+      </c>
+      <c r="AJA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:938">
+      <c r="A126" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D126">
+        <v>0.2873563</v>
+      </c>
+      <c r="H126">
+        <v>0.2593578</v>
+      </c>
+      <c r="J126">
+        <v>0.3367003</v>
+      </c>
+      <c r="K126">
+        <v>0.5122136</v>
+      </c>
+      <c r="L126">
+        <v>0.2563017</v>
+      </c>
+      <c r="P126">
+        <v>0.0517726</v>
+      </c>
+      <c r="R126">
+        <v>0.985511</v>
+      </c>
+      <c r="U126">
+        <v>0.2814523</v>
+      </c>
+      <c r="X126">
+        <v>0.5636743</v>
+      </c>
+      <c r="Z126">
+        <v>0.7237937</v>
+      </c>
+      <c r="AB126">
+        <v>0.4778516</v>
+      </c>
+      <c r="AD126">
+        <v>0.4704799</v>
+      </c>
+      <c r="AG126">
+        <v>0.0827209</v>
+      </c>
+      <c r="AI126">
+        <v>0.5640935</v>
+      </c>
+      <c r="AN126">
+        <v>0.3483644</v>
+      </c>
+      <c r="AV126">
+        <v>0.8333333000000001</v>
+      </c>
+      <c r="AW126">
+        <v>0.3022931</v>
+      </c>
+      <c r="AX126">
+        <v>0.1497006</v>
+      </c>
+      <c r="BB126">
+        <v>0.9370817</v>
+      </c>
+      <c r="BC126">
+        <v>0.159031</v>
+      </c>
+      <c r="BF126">
+        <v>0.322182</v>
+      </c>
+      <c r="BH126">
+        <v>0.2610344</v>
+      </c>
+      <c r="BI126">
+        <v>0.420356</v>
+      </c>
+      <c r="BJ126">
+        <v>0.4596623</v>
+      </c>
+      <c r="BM126">
+        <v>0.4854369</v>
+      </c>
+      <c r="BR126">
+        <v>0.6169626</v>
+      </c>
+      <c r="BS126">
+        <v>0.2890173</v>
+      </c>
+      <c r="BT126">
+        <v>0</v>
+      </c>
+      <c r="BW126">
+        <v>0.5069025</v>
+      </c>
+      <c r="BY126">
+        <v>0.5390212</v>
+      </c>
+      <c r="CC126">
+        <v>0</v>
+      </c>
+      <c r="CE126">
+        <v>0.2798507</v>
+      </c>
+      <c r="CL126">
+        <v>0.3815629</v>
+      </c>
+      <c r="CM126">
+        <v>0.1905773</v>
+      </c>
+      <c r="CN126">
+        <v>0.3468073</v>
+      </c>
+      <c r="CO126">
+        <v>0.7710558</v>
+      </c>
+      <c r="CR126">
+        <v>0.1411605</v>
+      </c>
+      <c r="CS126">
+        <v>0.3861004</v>
+      </c>
+      <c r="CT126">
+        <v>0.8042895</v>
+      </c>
+      <c r="CY126">
+        <v>0.1650089</v>
+      </c>
+      <c r="DC126">
+        <v>0.2210498</v>
+      </c>
+      <c r="DD126">
+        <v>0.0661766</v>
+      </c>
+      <c r="DK126">
+        <v>0.4069356</v>
+      </c>
+      <c r="DN126">
+        <v>0.3198556</v>
+      </c>
+      <c r="DS126">
+        <v>0.149277</v>
+      </c>
+      <c r="DW126">
+        <v>0.2458358</v>
+      </c>
+      <c r="DZ126">
+        <v>0.4901961</v>
+      </c>
+      <c r="EA126">
+        <v>0.5803174</v>
+      </c>
+      <c r="EK126">
+        <v>0.4315808</v>
+      </c>
+      <c r="EL126">
+        <v>0.3449787</v>
+      </c>
+      <c r="EM126">
+        <v>0.8389262</v>
+      </c>
+      <c r="EN126">
+        <v>0.4385965</v>
+      </c>
+      <c r="ER126">
+        <v>0.5791506</v>
+      </c>
+      <c r="ET126">
+        <v>0.5506442</v>
+      </c>
+      <c r="EZ126">
+        <v>0.3669009</v>
+      </c>
+      <c r="FA126">
+        <v>0.2304147</v>
+      </c>
+      <c r="FB126">
+        <v>0.5249638</v>
+      </c>
+      <c r="FD126">
+        <v>0.3256366</v>
+      </c>
+      <c r="FE126">
+        <v>0.2592334</v>
+      </c>
+      <c r="FG126">
+        <v>0.6193364</v>
+      </c>
+      <c r="FH126">
+        <v>0.8426966</v>
+      </c>
+      <c r="FI126">
+        <v>0.395115</v>
+      </c>
+      <c r="FJ126">
+        <v>0.3422364</v>
+      </c>
+      <c r="FL126">
+        <v>0.3189377</v>
+      </c>
+      <c r="FO126">
+        <v>0.3540587</v>
+      </c>
+      <c r="FR126">
+        <v>0.060241</v>
+      </c>
+      <c r="FS126">
+        <v>0.253948</v>
+      </c>
+      <c r="FY126">
+        <v>0.5625879</v>
+      </c>
+      <c r="GB126">
+        <v>0.3162393</v>
+      </c>
+      <c r="GC126">
+        <v>0.4415184</v>
+      </c>
+      <c r="GD126">
+        <v>0.208095</v>
+      </c>
+      <c r="GE126">
+        <v>0.5049957</v>
+      </c>
+      <c r="GF126">
+        <v>0.3085979</v>
+      </c>
+      <c r="GJ126">
+        <v>0.3707432</v>
+      </c>
+      <c r="GS126">
+        <v>0.4116879</v>
+      </c>
+      <c r="GV126">
+        <v>0.7050889</v>
+      </c>
+      <c r="HA126">
+        <v>0.6687879</v>
+      </c>
+      <c r="HF126">
+        <v>0.3133091</v>
+      </c>
+      <c r="HH126">
+        <v>0.128866</v>
+      </c>
+      <c r="HK126">
+        <v>0.2621413</v>
+      </c>
+      <c r="HL126">
+        <v>0.3482077</v>
+      </c>
+      <c r="HN126">
+        <v>0.2601935</v>
+      </c>
+      <c r="HO126">
+        <v>0.7755776</v>
+      </c>
+      <c r="HP126">
+        <v>0.1851852</v>
+      </c>
+      <c r="HT126">
+        <v>0.4653335</v>
+      </c>
+      <c r="HV126">
+        <v>0.4012174</v>
+      </c>
+      <c r="HX126">
+        <v>0.3064627</v>
+      </c>
+      <c r="HY126">
+        <v>0.3027612</v>
+      </c>
+      <c r="IC126">
+        <v>0.5486284</v>
+      </c>
+      <c r="IE126">
+        <v>0.6884799</v>
+      </c>
+      <c r="IH126">
+        <v>0.6825939</v>
+      </c>
+      <c r="II126">
+        <v>0.6081348</v>
+      </c>
+      <c r="IN126">
+        <v>0.47071</v>
+      </c>
+      <c r="IR126">
+        <v>0.1934236</v>
+      </c>
+      <c r="IS126">
+        <v>0</v>
+      </c>
+      <c r="IZ126">
+        <v>0</v>
+      </c>
+      <c r="JB126">
+        <v>0.9489659</v>
+      </c>
+      <c r="JF126">
+        <v>0.2777778</v>
+      </c>
+      <c r="JG126">
+        <v>0.5493739</v>
+      </c>
+      <c r="JK126">
+        <v>0.2019405</v>
+      </c>
+      <c r="JO126">
+        <v>0.1476954</v>
+      </c>
+      <c r="JR126">
+        <v>0.2848207</v>
+      </c>
+      <c r="JS126">
+        <v>0.488145</v>
+      </c>
+      <c r="JX126">
+        <v>0.783609</v>
+      </c>
+      <c r="KB126">
+        <v>0.23534</v>
+      </c>
+      <c r="KC126">
+        <v>0.7844038</v>
+      </c>
+      <c r="KI126">
+        <v>0.2452721</v>
+      </c>
+      <c r="KJ126">
+        <v>0.4146341</v>
+      </c>
+      <c r="KO126">
+        <v>0.1987997</v>
+      </c>
+      <c r="KV126">
+        <v>0.6372803</v>
+      </c>
+      <c r="KW126">
+        <v>0.5569828999999999</v>
+      </c>
+      <c r="LD126">
+        <v>0.0783722</v>
+      </c>
+      <c r="LG126">
+        <v>0.4224187</v>
+      </c>
+      <c r="LH126">
+        <v>0.2257172</v>
+      </c>
+      <c r="LO126">
+        <v>0.4290429</v>
+      </c>
+      <c r="LR126">
+        <v>0.1173709</v>
+      </c>
+      <c r="LW126">
+        <v>0.432526</v>
+      </c>
+      <c r="LX126">
+        <v>0.3968254</v>
+      </c>
+      <c r="LY126">
+        <v>0.1402806</v>
+      </c>
+      <c r="MA126">
+        <v>0.2925765</v>
+      </c>
+      <c r="MC126">
+        <v>1.2441315</v>
+      </c>
+      <c r="ME126">
+        <v>0</v>
+      </c>
+      <c r="MF126">
+        <v>0.4834581</v>
+      </c>
+      <c r="MG126">
+        <v>0.5855838</v>
+      </c>
+      <c r="MI126">
+        <v>0.5457553000000001</v>
+      </c>
+      <c r="ML126">
+        <v>0.3644915</v>
+      </c>
+      <c r="MN126">
+        <v>0.3251553</v>
+      </c>
+      <c r="MS126">
+        <v>0.2577597</v>
+      </c>
+      <c r="MU126">
+        <v>0.5981512</v>
+      </c>
+      <c r="MW126">
+        <v>0.2984127</v>
+      </c>
+      <c r="MX126">
+        <v>0.6975279</v>
+      </c>
+      <c r="MZ126">
+        <v>0.4128279</v>
+      </c>
+      <c r="NC126">
+        <v>0.3025311</v>
+      </c>
+      <c r="NE126">
+        <v>0.5085375</v>
+      </c>
+      <c r="NM126">
+        <v>0.2784995</v>
+      </c>
+      <c r="NP126">
+        <v>0.08658009999999999</v>
+      </c>
+      <c r="NQ126">
+        <v>0.9379217</v>
+      </c>
+      <c r="NT126">
+        <v>0.1108647</v>
+      </c>
+      <c r="NW126">
+        <v>0.4166667</v>
+      </c>
+      <c r="NY126">
+        <v>0</v>
+      </c>
+      <c r="NZ126">
+        <v>0.4630093</v>
+      </c>
+      <c r="OD126">
+        <v>0.4483227</v>
+      </c>
+      <c r="OE126">
+        <v>0.1916165</v>
+      </c>
+      <c r="OJ126">
+        <v>0.3921569</v>
+      </c>
+      <c r="OL126">
+        <v>0.4063239</v>
+      </c>
+      <c r="ON126">
+        <v>0.4354267</v>
+      </c>
+      <c r="OP126">
+        <v>0.1157407</v>
+      </c>
+      <c r="OQ126">
+        <v>0.0409223</v>
+      </c>
+      <c r="OR126">
+        <v>0.6841177000000001</v>
+      </c>
+      <c r="OT126">
+        <v>0.117096</v>
+      </c>
+      <c r="OV126">
+        <v>0.3270365</v>
+      </c>
+      <c r="OX126">
+        <v>0.7117438</v>
+      </c>
+      <c r="PB126">
+        <v>0.3135625</v>
+      </c>
+      <c r="PG126">
+        <v>0.1001621</v>
+      </c>
+      <c r="PJ126">
+        <v>0.3355957</v>
+      </c>
+      <c r="PK126">
+        <v>0.0482625</v>
+      </c>
+      <c r="PL126">
+        <v>1.9762997</v>
+      </c>
+      <c r="PM126">
+        <v>0.2419355</v>
+      </c>
+      <c r="PP126">
+        <v>0.3474951</v>
+      </c>
+      <c r="PR126">
+        <v>0.9868421000000001</v>
+      </c>
+      <c r="PS126">
+        <v>0.3008784</v>
+      </c>
+      <c r="PY126">
+        <v>0.3190104</v>
+      </c>
+      <c r="QD126">
+        <v>0.4864662</v>
+      </c>
+      <c r="QE126">
+        <v>0.2360125</v>
+      </c>
+      <c r="QF126">
+        <v>0.2695418</v>
+      </c>
+      <c r="QK126">
+        <v>0.4152574</v>
+      </c>
+      <c r="QN126">
+        <v>0.6616257</v>
+      </c>
+      <c r="QO126">
+        <v>0.5178245</v>
+      </c>
+      <c r="QP126">
+        <v>0.5687358</v>
+      </c>
+      <c r="QS126">
+        <v>0.3440367</v>
+      </c>
+      <c r="QU126">
+        <v>0.2202643</v>
+      </c>
+      <c r="QV126">
+        <v>0.6986372</v>
+      </c>
+      <c r="QX126">
+        <v>0.3564753</v>
+      </c>
+      <c r="QY126">
+        <v>0.1737708</v>
+      </c>
+      <c r="RA126">
+        <v>0.273224</v>
+      </c>
+      <c r="RB126">
+        <v>0.2427184</v>
+      </c>
+      <c r="RD126">
+        <v>0.4035563</v>
+      </c>
+      <c r="RI126">
+        <v>0.1391982</v>
+      </c>
+      <c r="RL126">
+        <v>0.2322662</v>
+      </c>
+      <c r="RQ126">
+        <v>0.4285714</v>
+      </c>
+      <c r="RT126">
+        <v>0.3265995</v>
+      </c>
+      <c r="RV126">
+        <v>0.6013746</v>
+      </c>
+      <c r="RX126">
+        <v>0.377485</v>
+      </c>
+      <c r="RY126">
+        <v>0.5561504</v>
+      </c>
+      <c r="SA126">
+        <v>0</v>
+      </c>
+      <c r="SD126">
+        <v>0.8786936</v>
+      </c>
+      <c r="SG126">
+        <v>0.4242875</v>
+      </c>
+      <c r="SH126">
+        <v>0.4582232</v>
+      </c>
+      <c r="SI126">
+        <v>0.7275458</v>
+      </c>
+      <c r="SM126">
+        <v>0.3159009</v>
+      </c>
+      <c r="SO126">
+        <v>0.3380693</v>
+      </c>
+      <c r="SP126">
+        <v>0.2631579</v>
+      </c>
+      <c r="SR126">
+        <v>0.2085646</v>
+      </c>
+      <c r="SW126">
+        <v>0.2112608</v>
+      </c>
+      <c r="SX126">
+        <v>0.2320186</v>
+      </c>
+      <c r="TS126">
+        <v>0.09259530000000001</v>
+      </c>
+      <c r="TX126">
+        <v>0.2768345</v>
+      </c>
+      <c r="TY126">
+        <v>0.4430102</v>
+      </c>
+      <c r="UA126">
+        <v>0.5476613</v>
+      </c>
+      <c r="UE126">
+        <v>0.1612796</v>
+      </c>
+      <c r="UF126">
+        <v>0</v>
+      </c>
+      <c r="UH126">
+        <v>0.1511677</v>
+      </c>
+      <c r="UI126">
+        <v>0.3099839</v>
+      </c>
+      <c r="UK126">
+        <v>0.2301451</v>
+      </c>
+      <c r="UN126">
+        <v>0.449441</v>
+      </c>
+      <c r="UP126">
+        <v>0.5671902</v>
+      </c>
+      <c r="US126">
+        <v>0.4650755</v>
+      </c>
+      <c r="UT126">
+        <v>0.2888011</v>
+      </c>
+      <c r="UU126">
+        <v>0.7357842</v>
+      </c>
+      <c r="UV126">
+        <v>0.2904165</v>
+      </c>
+      <c r="UW126">
+        <v>0.5461694</v>
+      </c>
+      <c r="VA126">
+        <v>0.2377093</v>
+      </c>
+      <c r="VB126">
+        <v>0.9764677</v>
+      </c>
+      <c r="VO126">
+        <v>0.4725751</v>
+      </c>
+      <c r="VP126">
+        <v>0.858209</v>
+      </c>
+      <c r="VS126">
+        <v>0.1067458</v>
+      </c>
+      <c r="VU126">
+        <v>0.3322353</v>
+      </c>
+      <c r="VW126">
+        <v>0.3333333</v>
+      </c>
+      <c r="VX126">
+        <v>0.3112546</v>
+      </c>
+      <c r="VY126">
+        <v>0.4847191</v>
+      </c>
+      <c r="WB126">
+        <v>0.3623188</v>
+      </c>
+      <c r="WF126">
+        <v>0.30161</v>
+      </c>
+      <c r="WG126">
+        <v>0.4197266</v>
+      </c>
+      <c r="WL126">
+        <v>0.4306967</v>
+      </c>
+      <c r="WM126">
+        <v>0.5709877</v>
+      </c>
+      <c r="WQ126">
+        <v>0.5022799999999999</v>
+      </c>
+      <c r="WU126">
+        <v>0.1681951</v>
+      </c>
+      <c r="WW126">
+        <v>0.3017968</v>
+      </c>
+      <c r="WY126">
+        <v>0.9114583000000001</v>
+      </c>
+      <c r="WZ126">
+        <v>0.6128503</v>
+      </c>
+      <c r="XD126">
+        <v>0.5410684</v>
+      </c>
+      <c r="XF126">
+        <v>0.2262408</v>
+      </c>
+      <c r="XG126">
+        <v>0.5024659</v>
+      </c>
+      <c r="XL126">
+        <v>0.2271263</v>
+      </c>
+      <c r="XM126">
+        <v>0.3146154</v>
+      </c>
+      <c r="XT126">
+        <v>0.4573171</v>
+      </c>
+      <c r="XV126">
+        <v>0.4540139</v>
+      </c>
+      <c r="YB126">
+        <v>0.0639926</v>
+      </c>
+      <c r="YD126">
+        <v>0.335097</v>
+      </c>
+      <c r="YH126">
+        <v>0.6118881</v>
+      </c>
+      <c r="YN126">
+        <v>0.195597</v>
+      </c>
+      <c r="YO126">
+        <v>0.3652284</v>
+      </c>
+      <c r="YQ126">
+        <v>0.2978515</v>
+      </c>
+      <c r="YR126">
+        <v>0.414151</v>
+      </c>
+      <c r="YX126">
+        <v>0.257712</v>
+      </c>
+      <c r="YY126">
+        <v>0</v>
+      </c>
+      <c r="ZL126">
+        <v>0.1827616</v>
+      </c>
+      <c r="ZM126">
+        <v>0.1805221</v>
+      </c>
+      <c r="ZO126">
+        <v>0.0595238</v>
+      </c>
+      <c r="ZR126">
+        <v>0.3967527</v>
+      </c>
+      <c r="ZS126">
+        <v>0.5033557</v>
+      </c>
+      <c r="ZV126">
+        <v>0.4101679</v>
+      </c>
+      <c r="ZW126">
+        <v>0.3813556</v>
+      </c>
+      <c r="ZX126">
+        <v>0.5050505</v>
+      </c>
+      <c r="ZZ126">
+        <v>0.4485742</v>
+      </c>
+      <c r="AAB126">
+        <v>1.1200717</v>
+      </c>
+      <c r="AAC126">
+        <v>0.5203775</v>
+      </c>
+      <c r="AAD126">
+        <v>0.4736842</v>
+      </c>
+      <c r="AAF126">
+        <v>0.1991434</v>
+      </c>
+      <c r="AAH126">
+        <v>0.2206288</v>
+      </c>
+      <c r="AAJ126">
+        <v>0.422932</v>
+      </c>
+      <c r="AAM126">
+        <v>0.5331138</v>
+      </c>
+      <c r="AAP126">
+        <v>0.3059944</v>
+      </c>
+      <c r="AAR126">
+        <v>1.1302422</v>
+      </c>
+      <c r="AAU126">
+        <v>0.3466445</v>
+      </c>
+      <c r="AAV126">
+        <v>0.1174685</v>
+      </c>
+      <c r="AAW126">
+        <v>0.2686527</v>
+      </c>
+      <c r="ABA126">
+        <v>0.3655352</v>
+      </c>
+      <c r="ABC126">
+        <v>0.07142859999999999</v>
+      </c>
+      <c r="ABJ126">
+        <v>0.3658235</v>
+      </c>
+      <c r="ABL126">
+        <v>0.2091672</v>
+      </c>
+      <c r="ABM126">
+        <v>0.7861221</v>
+      </c>
+      <c r="ABN126">
+        <v>0</v>
+      </c>
+      <c r="ABP126">
+        <v>0.2883512</v>
+      </c>
+      <c r="ABT126">
+        <v>0.2401938</v>
+      </c>
+      <c r="ABV126">
+        <v>0.1302138</v>
+      </c>
+      <c r="ABW126">
+        <v>0.403585</v>
+      </c>
+      <c r="ABX126">
+        <v>0.5206417</v>
+      </c>
+      <c r="ABY126">
+        <v>0</v>
+      </c>
+      <c r="ABZ126">
+        <v>0.3113722</v>
+      </c>
+      <c r="ACA126">
+        <v>0.2745346</v>
+      </c>
+      <c r="ACE126">
+        <v>0.1953197</v>
+      </c>
+      <c r="ACG126">
+        <v>0.2774432</v>
+      </c>
+      <c r="ACI126">
+        <v>0.2559648</v>
+      </c>
+      <c r="ACJ126">
+        <v>0</v>
+      </c>
+      <c r="ACK126">
+        <v>0.0426621</v>
+      </c>
+      <c r="ACM126">
+        <v>0.1192583</v>
+      </c>
+      <c r="ACN126">
+        <v>0.09431489999999999</v>
+      </c>
+      <c r="ACP126">
+        <v>0.3087667</v>
+      </c>
+      <c r="ACU126">
+        <v>0.5022714</v>
+      </c>
+      <c r="ACW126">
+        <v>0.2796881</v>
+      </c>
+      <c r="ACX126">
+        <v>0.6211179999999999</v>
+      </c>
+      <c r="ADP126">
+        <v>0.1922549</v>
+      </c>
+      <c r="ADR126">
+        <v>1.1111111</v>
+      </c>
+      <c r="ADU126">
+        <v>0.8700322</v>
+      </c>
+      <c r="ADV126">
+        <v>0.2105343</v>
+      </c>
+      <c r="AEA126">
+        <v>0.2664859</v>
+      </c>
+      <c r="AEB126">
+        <v>0.4232982</v>
+      </c>
+      <c r="AEF126">
+        <v>0.3561976</v>
+      </c>
+      <c r="AEG126">
+        <v>0.3567352</v>
+      </c>
+      <c r="AEH126">
+        <v>0.238913</v>
+      </c>
+      <c r="AEI126">
+        <v>0.3626818</v>
+      </c>
+      <c r="AEJ126">
+        <v>0.3395944</v>
+      </c>
+      <c r="AEL126">
+        <v>0.2310536</v>
+      </c>
+      <c r="AEU126">
+        <v>0.5419559</v>
+      </c>
+      <c r="AEZ126">
+        <v>0.0841751</v>
+      </c>
+      <c r="AFD126">
+        <v>0.2678444</v>
+      </c>
+      <c r="AFG126">
+        <v>0.1887738</v>
+      </c>
+      <c r="AFH126">
+        <v>0.3242028</v>
+      </c>
+      <c r="AFK126">
+        <v>0.9054196</v>
+      </c>
+      <c r="AFL126">
+        <v>0.373062</v>
+      </c>
+      <c r="AFN126">
+        <v>0.3676471</v>
+      </c>
+      <c r="AFT126">
+        <v>0.7002029</v>
+      </c>
+      <c r="AFU126">
+        <v>0.5374968</v>
+      </c>
+      <c r="AFX126">
+        <v>0.2719299</v>
+      </c>
+      <c r="AGA126">
+        <v>0.4590559</v>
+      </c>
+      <c r="AGC126">
+        <v>0.6200295</v>
+      </c>
+      <c r="AGE126">
+        <v>0.3458557</v>
+      </c>
+      <c r="AGF126">
+        <v>1.1449893</v>
+      </c>
+      <c r="AGG126">
+        <v>0.6048268</v>
+      </c>
+      <c r="AGL126">
+        <v>0.1771834</v>
+      </c>
+      <c r="AGM126">
+        <v>0.2154014</v>
+      </c>
+      <c r="AGO126">
+        <v>0.487013</v>
+      </c>
+      <c r="AGP126">
+        <v>0.2804924</v>
+      </c>
+      <c r="AGV126">
+        <v>0.255102</v>
+      </c>
+      <c r="AHA126">
+        <v>0.3604695</v>
+      </c>
+      <c r="AHB126">
+        <v>0.2390029</v>
+      </c>
+      <c r="AHD126">
+        <v>0.5493236</v>
+      </c>
+      <c r="AHH126">
+        <v>0.1123596</v>
+      </c>
+      <c r="AHN126">
+        <v>0.4195578</v>
+      </c>
+      <c r="AHP126">
+        <v>0.3455285</v>
+      </c>
+      <c r="AHS126">
+        <v>0.3778066</v>
+      </c>
+      <c r="AHU126">
+        <v>0.4490662</v>
+      </c>
+      <c r="AHX126">
+        <v>0</v>
+      </c>
+      <c r="AIB126">
+        <v>0</v>
+      </c>
+      <c r="AID126">
+        <v>0.2164624</v>
+      </c>
+      <c r="AIE126">
+        <v>0.4504505</v>
+      </c>
+      <c r="AIF126">
+        <v>0.3623188</v>
+      </c>
+      <c r="AII126">
+        <v>0.3587684</v>
+      </c>
+      <c r="AIP126">
+        <v>0.4298023</v>
+      </c>
+      <c r="AIT126">
+        <v>0.2802181</v>
+      </c>
+      <c r="AIV126">
+        <v>0.3617426</v>
+      </c>
+      <c r="AIY126">
+        <v>0.7157154999999999</v>
+      </c>
+      <c r="AIZ126">
+        <v>0.2810303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:938">
+      <c r="A127" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D127">
+        <v>0.1658375</v>
+      </c>
+      <c r="H127">
+        <v>0.2714675</v>
+      </c>
+      <c r="J127">
+        <v>0.7017544</v>
+      </c>
+      <c r="K127">
+        <v>0.5088596</v>
+      </c>
+      <c r="L127">
+        <v>0.2011159</v>
+      </c>
+      <c r="P127">
+        <v>0.0848555</v>
+      </c>
+      <c r="R127">
+        <v>0.8871337</v>
+      </c>
+      <c r="U127">
+        <v>0.3086479</v>
+      </c>
+      <c r="X127">
+        <v>0.637149</v>
+      </c>
+      <c r="Z127">
+        <v>0.6981236</v>
+      </c>
+      <c r="AB127">
+        <v>0.779425</v>
+      </c>
+      <c r="AD127">
+        <v>0.5167511</v>
+      </c>
+      <c r="AG127">
+        <v>0.1928705</v>
+      </c>
+      <c r="AI127">
+        <v>0.6810514</v>
+      </c>
+      <c r="AN127">
+        <v>0.3533355</v>
+      </c>
+      <c r="AV127">
+        <v>1.2955466</v>
+      </c>
+      <c r="AW127">
+        <v>0.3526705</v>
+      </c>
+      <c r="AX127">
+        <v>0.1470588</v>
+      </c>
+      <c r="BB127">
+        <v>0.9722222</v>
+      </c>
+      <c r="BC127">
+        <v>0.0968067</v>
+      </c>
+      <c r="BF127">
+        <v>0.3683743</v>
+      </c>
+      <c r="BH127">
+        <v>0.3039166</v>
+      </c>
+      <c r="BI127">
+        <v>0.3987391</v>
+      </c>
+      <c r="BJ127">
+        <v>0.6609195</v>
+      </c>
+      <c r="BM127">
+        <v>0.4573171</v>
+      </c>
+      <c r="BR127">
+        <v>0.6225016</v>
+      </c>
+      <c r="BS127">
+        <v>0</v>
+      </c>
+      <c r="BT127">
+        <v>0.09328359999999999</v>
+      </c>
+      <c r="BW127">
+        <v>0.5280442</v>
+      </c>
+      <c r="BY127">
+        <v>0.3306878</v>
+      </c>
+      <c r="CC127">
+        <v>0</v>
+      </c>
+      <c r="CE127">
+        <v>0.4798464</v>
+      </c>
+      <c r="CL127">
+        <v>0.399106</v>
+      </c>
+      <c r="CM127">
+        <v>0.1960191</v>
+      </c>
+      <c r="CN127">
+        <v>0.2911156</v>
+      </c>
+      <c r="CO127">
+        <v>1.1184573</v>
+      </c>
+      <c r="CR127">
+        <v>0.2634608</v>
+      </c>
+      <c r="CT127">
+        <v>0.4032258</v>
+      </c>
+      <c r="CY127">
+        <v>0.1570818</v>
+      </c>
+      <c r="DC127">
+        <v>0.1913062</v>
+      </c>
+      <c r="DD127">
+        <v>0.023602</v>
+      </c>
+      <c r="DK127">
+        <v>0.4121864</v>
+      </c>
+      <c r="DN127">
+        <v>0.2927509</v>
+      </c>
+      <c r="DS127">
+        <v>0.1830705</v>
+      </c>
+      <c r="DW127">
+        <v>0.2473978</v>
+      </c>
+      <c r="DZ127">
+        <v>0.6892231</v>
+      </c>
+      <c r="EA127">
+        <v>0.5164955</v>
+      </c>
+      <c r="EK127">
+        <v>0.3182181</v>
+      </c>
+      <c r="EL127">
+        <v>0.3998887</v>
+      </c>
+      <c r="EM127">
+        <v>1.0711692</v>
+      </c>
+      <c r="EN127">
+        <v>0.7205514</v>
+      </c>
+      <c r="ER127">
+        <v>0.5617978</v>
+      </c>
+      <c r="ET127">
+        <v>0.6128666</v>
+      </c>
+      <c r="EZ127">
+        <v>0.1889645</v>
+      </c>
+      <c r="FA127">
+        <v>0.3308257</v>
+      </c>
+      <c r="FB127">
+        <v>0.5980866</v>
+      </c>
+      <c r="FD127">
+        <v>0.3577994</v>
+      </c>
+      <c r="FE127">
+        <v>0.3424523</v>
+      </c>
+      <c r="FG127">
+        <v>0.6813878</v>
+      </c>
+      <c r="FH127">
+        <v>0.8426966</v>
+      </c>
+      <c r="FI127">
+        <v>0.384478</v>
+      </c>
+      <c r="FJ127">
+        <v>0.1433515</v>
+      </c>
+      <c r="FL127">
+        <v>0.3014974</v>
+      </c>
+      <c r="FO127">
+        <v>0.5851064</v>
+      </c>
+      <c r="FR127">
+        <v>0.0595238</v>
+      </c>
+      <c r="FS127">
+        <v>0.1780706</v>
+      </c>
+      <c r="FY127">
+        <v>0.9722222</v>
+      </c>
+      <c r="GB127">
+        <v>0.3498294</v>
+      </c>
+      <c r="GC127">
+        <v>0.4116845</v>
+      </c>
+      <c r="GD127">
+        <v>0.2155071</v>
+      </c>
+      <c r="GE127">
+        <v>0.5051014</v>
+      </c>
+      <c r="GF127">
+        <v>0.4204898</v>
+      </c>
+      <c r="GJ127">
+        <v>0.3632724</v>
+      </c>
+      <c r="GS127">
+        <v>0.3408408</v>
+      </c>
+      <c r="GV127">
+        <v>0.6831007</v>
+      </c>
+      <c r="HA127">
+        <v>0.4311463</v>
+      </c>
+      <c r="HF127">
+        <v>0.2401572</v>
+      </c>
+      <c r="HH127">
+        <v>0.136612</v>
+      </c>
+      <c r="HK127">
+        <v>0.3237613</v>
+      </c>
+      <c r="HL127">
+        <v>0.1800073</v>
+      </c>
+      <c r="HN127">
+        <v>0.3417553</v>
+      </c>
+      <c r="HO127">
+        <v>0.7484076</v>
+      </c>
+      <c r="HP127">
+        <v>0.1901141</v>
+      </c>
+      <c r="HT127">
+        <v>0.4342989</v>
+      </c>
+      <c r="HV127">
+        <v>0.4174098</v>
+      </c>
+      <c r="HX127">
+        <v>0.2708813</v>
+      </c>
+      <c r="HY127">
+        <v>0.2631994</v>
+      </c>
+      <c r="IC127">
+        <v>0.6569343</v>
+      </c>
+      <c r="IE127">
+        <v>0.7613169</v>
+      </c>
+      <c r="IH127">
+        <v>0.3333333</v>
+      </c>
+      <c r="II127">
+        <v>0.3858027</v>
+      </c>
+      <c r="IN127">
+        <v>0.4702577</v>
+      </c>
+      <c r="IR127">
+        <v>0.1960784</v>
+      </c>
+      <c r="IS127">
+        <v>0</v>
+      </c>
+      <c r="IZ127">
+        <v>0</v>
+      </c>
+      <c r="JB127">
+        <v>0.7818044</v>
+      </c>
+      <c r="JF127">
+        <v>0.5747126</v>
+      </c>
+      <c r="JG127">
+        <v>0.4526462</v>
+      </c>
+      <c r="JK127">
+        <v>0.2023736</v>
+      </c>
+      <c r="JO127">
+        <v>0.1671749</v>
+      </c>
+      <c r="JR127">
+        <v>0.4662158</v>
+      </c>
+      <c r="JS127">
+        <v>0.286123</v>
+      </c>
+      <c r="JX127">
+        <v>0.7774707</v>
+      </c>
+      <c r="KB127">
+        <v>0.1828889</v>
+      </c>
+      <c r="KC127">
+        <v>1.0370989</v>
+      </c>
+      <c r="KI127">
+        <v>0.2493436</v>
+      </c>
+      <c r="KJ127">
+        <v>0.4136253</v>
+      </c>
+      <c r="KO127">
+        <v>0.271645</v>
+      </c>
+      <c r="KV127">
+        <v>0.6088323</v>
+      </c>
+      <c r="KW127">
+        <v>0.5574349</v>
+      </c>
+      <c r="LD127">
+        <v>0.1250939</v>
+      </c>
+      <c r="LG127">
+        <v>0.3928529</v>
+      </c>
+      <c r="LH127">
+        <v>0.3942978</v>
+      </c>
+      <c r="LO127">
+        <v>0.3666667</v>
+      </c>
+      <c r="LR127">
+        <v>0.1194743</v>
+      </c>
+      <c r="LW127">
+        <v>0.4370629</v>
+      </c>
+      <c r="LX127">
+        <v>0.6593407</v>
+      </c>
+      <c r="LY127">
+        <v>0.1676829</v>
+      </c>
+      <c r="MA127">
+        <v>0.2022076</v>
+      </c>
+      <c r="MC127">
+        <v>1.1267606</v>
+      </c>
+      <c r="ME127">
+        <v>0</v>
+      </c>
+      <c r="MF127">
+        <v>0.516837</v>
+      </c>
+      <c r="MG127">
+        <v>0.445177</v>
+      </c>
+      <c r="MI127">
+        <v>0.5908141</v>
+      </c>
+      <c r="ML127">
+        <v>0.2504472</v>
+      </c>
+      <c r="MN127">
+        <v>0.3556935</v>
+      </c>
+      <c r="MS127">
+        <v>0.2445454</v>
+      </c>
+      <c r="MU127">
+        <v>0.6523569</v>
+      </c>
+      <c r="MW127">
+        <v>0.3286979</v>
+      </c>
+      <c r="MX127">
+        <v>0.6719669</v>
+      </c>
+      <c r="MZ127">
+        <v>0.2936843</v>
+      </c>
+      <c r="NC127">
+        <v>0.3242292</v>
+      </c>
+      <c r="NE127">
+        <v>0.5096726</v>
+      </c>
+      <c r="NM127">
+        <v>0.2745111</v>
+      </c>
+      <c r="NP127">
+        <v>0.0864398</v>
+      </c>
+      <c r="NQ127">
+        <v>0.9045946</v>
+      </c>
+      <c r="NT127">
+        <v>0</v>
+      </c>
+      <c r="NW127">
+        <v>0.4237288</v>
+      </c>
+      <c r="NY127">
+        <v>0.1381215</v>
+      </c>
+      <c r="NZ127">
+        <v>0.4151559</v>
+      </c>
+      <c r="OD127">
+        <v>0.3616577</v>
+      </c>
+      <c r="OE127">
+        <v>0.34321</v>
+      </c>
+      <c r="OJ127">
+        <v>0.4793689</v>
+      </c>
+      <c r="OL127">
+        <v>0.3870937</v>
+      </c>
+      <c r="ON127">
+        <v>0.3629889</v>
+      </c>
+      <c r="OP127">
+        <v>0.1162791</v>
+      </c>
+      <c r="OQ127">
+        <v>0.20067</v>
+      </c>
+      <c r="OR127">
+        <v>0.7343993</v>
+      </c>
+      <c r="OT127">
+        <v>0.1160093</v>
+      </c>
+      <c r="OV127">
+        <v>0.309738</v>
+      </c>
+      <c r="OX127">
+        <v>0.3285544</v>
+      </c>
+      <c r="PB127">
+        <v>0.3216011</v>
+      </c>
+      <c r="PG127">
+        <v>0.1004433</v>
+      </c>
+      <c r="PJ127">
+        <v>0.3301149</v>
+      </c>
+      <c r="PK127">
+        <v>0.0516529</v>
+      </c>
+      <c r="PL127">
+        <v>1.1662531</v>
+      </c>
+      <c r="PM127">
+        <v>0.3971354</v>
+      </c>
+      <c r="PP127">
+        <v>0.2272747</v>
+      </c>
+      <c r="PR127">
+        <v>1.0273973</v>
+      </c>
+      <c r="PS127">
+        <v>0.3197754</v>
+      </c>
+      <c r="PY127">
+        <v>0.5353728</v>
+      </c>
+      <c r="QD127">
+        <v>0.5902267</v>
+      </c>
+      <c r="QE127">
+        <v>0.2399959</v>
+      </c>
+      <c r="QF127">
+        <v>0.2724796</v>
+      </c>
+      <c r="QK127">
+        <v>0.3768761</v>
+      </c>
+      <c r="QN127">
+        <v>0.4789272</v>
+      </c>
+      <c r="QO127">
+        <v>0.4331579</v>
+      </c>
+      <c r="QP127">
+        <v>0.6734703</v>
+      </c>
+      <c r="QS127">
+        <v>0.3521127</v>
+      </c>
+      <c r="QU127">
+        <v>0</v>
+      </c>
+      <c r="QV127">
+        <v>0.6819652</v>
+      </c>
+      <c r="QX127">
+        <v>0.391946</v>
+      </c>
+      <c r="QY127">
+        <v>0.1438489</v>
+      </c>
+      <c r="RB127">
+        <v>0.2354788</v>
+      </c>
+      <c r="RD127">
+        <v>0.4512163</v>
+      </c>
+      <c r="RI127">
+        <v>0.142369</v>
+      </c>
+      <c r="RL127">
+        <v>0.2331443</v>
+      </c>
+      <c r="RQ127">
+        <v>0.4087193</v>
+      </c>
+      <c r="RT127">
+        <v>0.3037943</v>
+      </c>
+      <c r="RV127">
+        <v>0.261324</v>
+      </c>
+      <c r="RX127">
+        <v>0.4355935</v>
+      </c>
+      <c r="RY127">
+        <v>0.5836883</v>
+      </c>
+      <c r="SA127">
+        <v>0</v>
+      </c>
+      <c r="SD127">
+        <v>0.6424149</v>
+      </c>
+      <c r="SG127">
+        <v>0.3691572</v>
+      </c>
+      <c r="SH127">
+        <v>0.4184633</v>
+      </c>
+      <c r="SI127">
+        <v>0.7091815</v>
+      </c>
+      <c r="SM127">
+        <v>0.4820368</v>
+      </c>
+      <c r="SO127">
+        <v>0.3727989</v>
+      </c>
+      <c r="SP127">
+        <v>0.077821</v>
+      </c>
+      <c r="SR127">
+        <v>0.173999</v>
+      </c>
+      <c r="SW127">
+        <v>0.215743</v>
+      </c>
+      <c r="SX127">
+        <v>0.5841121</v>
+      </c>
+      <c r="TS127">
+        <v>0.1550264</v>
+      </c>
+      <c r="TX127">
+        <v>0.2707756</v>
+      </c>
+      <c r="TY127">
+        <v>0.4747979</v>
+      </c>
+      <c r="UA127">
+        <v>0.5170316</v>
+      </c>
+      <c r="UE127">
+        <v>0.1798163</v>
+      </c>
+      <c r="UF127">
+        <v>0</v>
+      </c>
+      <c r="UH127">
+        <v>0.298394</v>
+      </c>
+      <c r="UI127">
+        <v>0.248996</v>
+      </c>
+      <c r="UK127">
+        <v>0.2022272</v>
+      </c>
+      <c r="UN127">
+        <v>0.4293865</v>
+      </c>
+      <c r="UP127">
+        <v>0.5903724</v>
+      </c>
+      <c r="US127">
+        <v>0.5263094</v>
+      </c>
+      <c r="UT127">
+        <v>0.3563938</v>
+      </c>
+      <c r="UU127">
+        <v>0.9508111</v>
+      </c>
+      <c r="UV127">
+        <v>0.2033516</v>
+      </c>
+      <c r="UW127">
+        <v>0.6968381</v>
+      </c>
+      <c r="VA127">
+        <v>0.2404372</v>
+      </c>
+      <c r="VB127">
+        <v>0.7467144999999999</v>
+      </c>
+      <c r="VO127">
+        <v>0.4965702</v>
+      </c>
+      <c r="VP127">
+        <v>0.3815789</v>
+      </c>
+      <c r="VS127">
+        <v>0.0492677</v>
+      </c>
+      <c r="VU127">
+        <v>0.313189</v>
+      </c>
+      <c r="VW127">
+        <v>0.3508772</v>
+      </c>
+      <c r="VX127">
+        <v>0.3257798</v>
+      </c>
+      <c r="VY127">
+        <v>0.5882495</v>
+      </c>
+      <c r="WB127">
+        <v>0.3501401</v>
+      </c>
+      <c r="WF127">
+        <v>0.3022569</v>
+      </c>
+      <c r="WG127">
+        <v>0.4164657</v>
+      </c>
+      <c r="WL127">
+        <v>0.4487528</v>
+      </c>
+      <c r="WM127">
+        <v>0.3295669</v>
+      </c>
+      <c r="WQ127">
+        <v>0.4548426</v>
+      </c>
+      <c r="WU127">
+        <v>0.1704358</v>
+      </c>
+      <c r="WW127">
+        <v>0.3284822</v>
+      </c>
+      <c r="WY127">
+        <v>0.7804632</v>
+      </c>
+      <c r="WZ127">
+        <v>0.5490548</v>
+      </c>
+      <c r="XD127">
+        <v>0.5235659</v>
+      </c>
+      <c r="XF127">
+        <v>0.3332685</v>
+      </c>
+      <c r="XG127">
+        <v>0.4714656</v>
+      </c>
+      <c r="XL127">
+        <v>0.1744772</v>
+      </c>
+      <c r="XM127">
+        <v>0.1768238</v>
+      </c>
+      <c r="XT127">
+        <v>0.0634921</v>
+      </c>
+      <c r="XV127">
+        <v>0.3876185</v>
+      </c>
+      <c r="YB127">
+        <v>0.1235095</v>
+      </c>
+      <c r="YD127">
+        <v>0.2506266</v>
+      </c>
+      <c r="YH127">
+        <v>0.6452667</v>
+      </c>
+      <c r="YN127">
+        <v>0.2793794</v>
+      </c>
+      <c r="YO127">
+        <v>0.2397592</v>
+      </c>
+      <c r="YQ127">
+        <v>0.2680396</v>
+      </c>
+      <c r="YR127">
+        <v>0.4552574</v>
+      </c>
+      <c r="YX127">
+        <v>0.2459494</v>
+      </c>
+      <c r="YY127">
+        <v>0</v>
+      </c>
+      <c r="ZL127">
+        <v>0.1838784</v>
+      </c>
+      <c r="ZM127">
+        <v>0.149715</v>
+      </c>
+      <c r="ZO127">
+        <v>0.0594177</v>
+      </c>
+      <c r="ZR127">
+        <v>0.472437</v>
+      </c>
+      <c r="ZS127">
+        <v>0.7434944</v>
+      </c>
+      <c r="ZV127">
+        <v>0.3742848</v>
+      </c>
+      <c r="ZW127">
+        <v>0.3935562</v>
+      </c>
+      <c r="ZX127">
+        <v>0.5219207</v>
+      </c>
+      <c r="ZZ127">
+        <v>0.4918893</v>
+      </c>
+      <c r="AAB127">
+        <v>1.1837121</v>
+      </c>
+      <c r="AAC127">
+        <v>0.5136043</v>
+      </c>
+      <c r="AAD127">
+        <v>0.2515091</v>
+      </c>
+      <c r="AAF127">
+        <v>0.2299267</v>
+      </c>
+      <c r="AAH127">
+        <v>0.221914</v>
+      </c>
+      <c r="AAJ127">
+        <v>0.393242</v>
+      </c>
+      <c r="AAM127">
+        <v>0.5906131</v>
+      </c>
+      <c r="AAP127">
+        <v>0.3019336</v>
+      </c>
+      <c r="AAR127">
+        <v>1.04505</v>
+      </c>
+      <c r="AAU127">
+        <v>0.3472222</v>
+      </c>
+      <c r="AAV127">
+        <v>0.1576961</v>
+      </c>
+      <c r="AAW127">
+        <v>0.1460209</v>
+      </c>
+      <c r="ABA127">
+        <v>0.3783784</v>
+      </c>
+      <c r="ABC127">
+        <v>0.0735579</v>
+      </c>
+      <c r="ABJ127">
+        <v>0.2476329</v>
+      </c>
+      <c r="ABL127">
+        <v>0.060855</v>
+      </c>
+      <c r="ABM127">
+        <v>0.9779524000000001</v>
+      </c>
+      <c r="ABN127">
+        <v>0.1287001</v>
+      </c>
+      <c r="ABP127">
+        <v>0.2483085</v>
+      </c>
+      <c r="ABT127">
+        <v>0.2467547</v>
+      </c>
+      <c r="ABV127">
+        <v>0.1288652</v>
+      </c>
+      <c r="ABW127">
+        <v>0.3969152</v>
+      </c>
+      <c r="ABX127">
+        <v>0.5303117000000001</v>
+      </c>
+      <c r="ABY127">
+        <v>0</v>
+      </c>
+      <c r="ABZ127">
+        <v>0.3078826</v>
+      </c>
+      <c r="ACA127">
+        <v>0.2758134</v>
+      </c>
+      <c r="ACE127">
+        <v>0.2172059</v>
+      </c>
+      <c r="ACG127">
+        <v>0.3101392</v>
+      </c>
+      <c r="ACI127">
+        <v>0.2602906</v>
+      </c>
+      <c r="ACJ127">
+        <v>0</v>
+      </c>
+      <c r="ACK127">
+        <v>0</v>
+      </c>
+      <c r="ACM127">
+        <v>0.0018111</v>
+      </c>
+      <c r="ACN127">
+        <v>0.198447</v>
+      </c>
+      <c r="ACP127">
+        <v>0.3327401</v>
+      </c>
+      <c r="ACU127">
+        <v>0.4145096</v>
+      </c>
+      <c r="ACW127">
+        <v>0.2450428</v>
+      </c>
+      <c r="ACX127">
+        <v>0.6211179999999999</v>
+      </c>
+      <c r="ADP127">
+        <v>0.3510946</v>
+      </c>
+      <c r="ADR127">
+        <v>0.8533333</v>
+      </c>
+      <c r="ADU127">
+        <v>0.6117397</v>
+      </c>
+      <c r="ADV127">
+        <v>0.1998494</v>
+      </c>
+      <c r="AEA127">
+        <v>0.2389603</v>
+      </c>
+      <c r="AEB127">
+        <v>0.5242521</v>
+      </c>
+      <c r="AEF127">
+        <v>0.2524541</v>
+      </c>
+      <c r="AEG127">
+        <v>0.2446747</v>
+      </c>
+      <c r="AEH127">
+        <v>0.223172</v>
+      </c>
+      <c r="AEI127">
+        <v>0.3385517</v>
+      </c>
+      <c r="AEJ127">
+        <v>0.447193</v>
+      </c>
+      <c r="AEL127">
+        <v>0.2293578</v>
+      </c>
+      <c r="AEU127">
+        <v>0.5360985</v>
+      </c>
+      <c r="AEZ127">
+        <v>0.08741259999999999</v>
+      </c>
+      <c r="AFD127">
+        <v>0.2748055</v>
+      </c>
+      <c r="AFG127">
+        <v>0.1582774</v>
+      </c>
+      <c r="AFH127">
+        <v>0.3218926</v>
+      </c>
+      <c r="AFK127">
+        <v>0.6344052999999999</v>
+      </c>
+      <c r="AFL127">
+        <v>0.2263969</v>
+      </c>
+      <c r="AFN127">
+        <v>0</v>
+      </c>
+      <c r="AFT127">
+        <v>0.7308434</v>
+      </c>
+      <c r="AFU127">
+        <v>0.8364212</v>
+      </c>
+      <c r="AFX127">
+        <v>0.2025747</v>
+      </c>
+      <c r="AGA127">
+        <v>0.4933829</v>
+      </c>
+      <c r="AGC127">
+        <v>0.5924595</v>
+      </c>
+      <c r="AGE127">
+        <v>0.3470975</v>
+      </c>
+      <c r="AGF127">
+        <v>1.2293956</v>
+      </c>
+      <c r="AGG127">
+        <v>0.2057011</v>
+      </c>
+      <c r="AGL127">
+        <v>0.186792</v>
+      </c>
+      <c r="AGM127">
+        <v>0.2240326</v>
+      </c>
+      <c r="AGO127">
+        <v>0.4716981</v>
+      </c>
+      <c r="AGP127">
+        <v>0.2526194</v>
+      </c>
+      <c r="AGV127">
+        <v>0.2487562</v>
+      </c>
+      <c r="AHA127">
+        <v>0.2490265</v>
+      </c>
+      <c r="AHB127">
+        <v>0.2326488</v>
+      </c>
+      <c r="AHD127">
+        <v>0.5536685</v>
+      </c>
+      <c r="AHH127">
+        <v>0</v>
+      </c>
+      <c r="AHN127">
+        <v>0.4261521</v>
+      </c>
+      <c r="AHP127">
+        <v>0.2542373</v>
+      </c>
+      <c r="AHS127">
+        <v>0.4739443</v>
+      </c>
+      <c r="AHU127">
+        <v>0.3988376</v>
+      </c>
+      <c r="AHX127">
+        <v>0</v>
+      </c>
+      <c r="AIB127">
+        <v>0</v>
+      </c>
+      <c r="AID127">
+        <v>0.2651813</v>
+      </c>
+      <c r="AIE127">
+        <v>0.4604052</v>
+      </c>
+      <c r="AIF127">
+        <v>0.2574257</v>
+      </c>
+      <c r="AII127">
+        <v>0.245173</v>
+      </c>
+      <c r="AIP127">
+        <v>0.4101673</v>
+      </c>
+      <c r="AIT127">
+        <v>0.3154057</v>
+      </c>
+      <c r="AIV127">
+        <v>0.2559012</v>
+      </c>
+      <c r="AIY127">
+        <v>0.7715227</v>
+      </c>
+      <c r="AIZ127">
+        <v>0.2340609</v>
+      </c>
+    </row>
+    <row r="128" spans="1:938">
+      <c r="A128" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D128">
+        <v>0.4363002</v>
+      </c>
+      <c r="H128">
+        <v>0.2862228</v>
+      </c>
+      <c r="J128">
+        <v>0.9893993</v>
+      </c>
+      <c r="K128">
+        <v>0.4964364</v>
+      </c>
+      <c r="L128">
+        <v>0.1640357</v>
+      </c>
+      <c r="P128">
+        <v>0.0896778</v>
+      </c>
+      <c r="R128">
+        <v>1.2115489</v>
+      </c>
+      <c r="U128">
+        <v>0.3214782</v>
+      </c>
+      <c r="X128">
+        <v>0.4229935</v>
+      </c>
+      <c r="Z128">
+        <v>0.7529762</v>
+      </c>
+      <c r="AB128">
+        <v>0.5058824</v>
+      </c>
+      <c r="AD128">
+        <v>0.5393531</v>
+      </c>
+      <c r="AG128">
+        <v>0.3430262</v>
+      </c>
+      <c r="AI128">
+        <v>0.6975992</v>
+      </c>
+      <c r="AN128">
+        <v>0.3851281</v>
+      </c>
+      <c r="AV128">
+        <v>1.3675214</v>
+      </c>
+      <c r="AW128">
+        <v>0.3728917</v>
+      </c>
+      <c r="AX128">
+        <v>0.1466276</v>
+      </c>
+      <c r="BB128">
+        <v>0.896861</v>
+      </c>
+      <c r="BC128">
+        <v>0.0995988</v>
+      </c>
+      <c r="BF128">
+        <v>0.3357808</v>
+      </c>
+      <c r="BH128">
+        <v>0.3241559</v>
+      </c>
+      <c r="BI128">
+        <v>0.4131262</v>
+      </c>
+      <c r="BJ128">
+        <v>0.6565657</v>
+      </c>
+      <c r="BM128">
+        <v>0.3164557</v>
+      </c>
+      <c r="BR128">
+        <v>0.5449365</v>
+      </c>
+      <c r="BS128">
+        <v>0.174703</v>
+      </c>
+      <c r="BT128">
+        <v>0.0968992</v>
+      </c>
+      <c r="BW128">
+        <v>0.6957033</v>
+      </c>
+      <c r="BY128">
+        <v>0.2414487</v>
+      </c>
+      <c r="CC128">
+        <v>0.1347709</v>
+      </c>
+      <c r="CE128">
+        <v>0.4816956</v>
+      </c>
+      <c r="CL128">
+        <v>0.3507014</v>
+      </c>
+      <c r="CM128">
+        <v>0.289031</v>
+      </c>
+      <c r="CN128">
+        <v>0.3064312</v>
+      </c>
+      <c r="CO128">
+        <v>1.1967928</v>
+      </c>
+      <c r="CR128">
+        <v>0.2801933</v>
+      </c>
+      <c r="CT128">
+        <v>0.136612</v>
+      </c>
+      <c r="CY128">
+        <v>0.1405468</v>
+      </c>
+      <c r="DC128">
+        <v>0.1902916</v>
+      </c>
+      <c r="DD128">
+        <v>0.0859978</v>
+      </c>
+      <c r="DK128">
+        <v>0.4356061</v>
+      </c>
+      <c r="DN128">
+        <v>0.3613056</v>
+      </c>
+      <c r="DS128">
+        <v>0.30116</v>
+      </c>
+      <c r="DW128">
+        <v>0.1741495</v>
+      </c>
+      <c r="DZ128">
+        <v>0.7232084</v>
+      </c>
+      <c r="EA128">
+        <v>0.5434933</v>
+      </c>
+      <c r="EK128">
+        <v>0.3430231</v>
+      </c>
+      <c r="EL128">
+        <v>0.4629738</v>
+      </c>
+      <c r="EM128">
+        <v>1.1148904</v>
+      </c>
+      <c r="EN128">
+        <v>0.7113821</v>
+      </c>
+      <c r="ER128">
+        <v>0.9</v>
+      </c>
+      <c r="ET128">
+        <v>0.6287323</v>
+      </c>
+      <c r="EZ128">
+        <v>0.19516</v>
+      </c>
+      <c r="FA128">
+        <v>0.3446322</v>
+      </c>
+      <c r="FB128">
+        <v>0.4820477</v>
+      </c>
+      <c r="FD128">
+        <v>0.2673128</v>
+      </c>
+      <c r="FE128">
+        <v>0.3080773</v>
+      </c>
+      <c r="FG128">
+        <v>0.7075508</v>
+      </c>
+      <c r="FH128">
+        <v>0.5934718</v>
+      </c>
+      <c r="FI128">
+        <v>0.4229261</v>
+      </c>
+      <c r="FJ128">
+        <v>0.1523109</v>
+      </c>
+      <c r="FL128">
+        <v>0.2784758</v>
+      </c>
+      <c r="FO128">
+        <v>0.5617978</v>
+      </c>
+      <c r="FR128">
+        <v>0.0638978</v>
+      </c>
+      <c r="FS128">
+        <v>0.1948714</v>
+      </c>
+      <c r="FY128">
+        <v>0.9845288</v>
+      </c>
+      <c r="GB128">
+        <v>0.3454231</v>
+      </c>
+      <c r="GC128">
+        <v>0.4283728</v>
+      </c>
+      <c r="GD128">
+        <v>0.2298374</v>
+      </c>
+      <c r="GE128">
+        <v>0.4667473</v>
+      </c>
+      <c r="GF128">
+        <v>0.4036026</v>
+      </c>
+      <c r="GJ128">
+        <v>0.3224859</v>
+      </c>
+      <c r="GS128">
+        <v>0.3573158</v>
+      </c>
+      <c r="GV128">
+        <v>0.5068103</v>
+      </c>
+      <c r="HA128">
+        <v>0.2958473</v>
+      </c>
+      <c r="HF128">
+        <v>0.2904474</v>
+      </c>
+      <c r="HH128">
+        <v>0.5064457</v>
+      </c>
+      <c r="HK128">
+        <v>0.6253636</v>
+      </c>
+      <c r="HL128">
+        <v>0.1644066</v>
+      </c>
+      <c r="HN128">
+        <v>0.3689035</v>
+      </c>
+      <c r="HO128">
+        <v>0.9955996</v>
+      </c>
+      <c r="HP128">
+        <v>0</v>
+      </c>
+      <c r="HT128">
+        <v>0.4002196</v>
+      </c>
+      <c r="HV128">
+        <v>0.4713824</v>
+      </c>
+      <c r="HX128">
+        <v>0.3152885</v>
+      </c>
+      <c r="HY128">
+        <v>0.2985263</v>
+      </c>
+      <c r="IC128">
+        <v>0.6870229</v>
+      </c>
+      <c r="IE128">
+        <v>0.9390681</v>
+      </c>
+      <c r="IH128">
+        <v>0.3448276</v>
+      </c>
+      <c r="II128">
+        <v>0.356353</v>
+      </c>
+      <c r="IN128">
+        <v>0.4862403</v>
+      </c>
+      <c r="IR128">
+        <v>0.2053388</v>
+      </c>
+      <c r="IS128">
+        <v>0</v>
+      </c>
+      <c r="IZ128">
+        <v>0</v>
+      </c>
+      <c r="JB128">
+        <v>0.506734</v>
+      </c>
+      <c r="JF128">
+        <v>0.5865103</v>
+      </c>
+      <c r="JG128">
+        <v>0.4296599</v>
+      </c>
+      <c r="JK128">
+        <v>0.2139451</v>
+      </c>
+      <c r="JO128">
+        <v>0.176542</v>
+      </c>
+      <c r="JR128">
+        <v>0.4975432</v>
+      </c>
+      <c r="JS128">
+        <v>0.3003003</v>
+      </c>
+      <c r="JX128">
+        <v>1.1625786</v>
+      </c>
+      <c r="KB128">
+        <v>0.1934232</v>
+      </c>
+      <c r="KC128">
+        <v>0.9741656</v>
+      </c>
+      <c r="KI128">
+        <v>0.1851985</v>
+      </c>
+      <c r="KJ128">
+        <v>0.6958763</v>
+      </c>
+      <c r="KO128">
+        <v>0.2655479</v>
+      </c>
+      <c r="KV128">
+        <v>0.7963238</v>
+      </c>
+      <c r="KW128">
+        <v>0.5071502</v>
+      </c>
+      <c r="LD128">
+        <v>0.2920849</v>
+      </c>
+      <c r="LG128">
+        <v>0.4694008</v>
+      </c>
+      <c r="LH128">
+        <v>0.4113273</v>
+      </c>
+      <c r="LO128">
+        <v>0.3749148</v>
+      </c>
+      <c r="LR128">
+        <v>0.1272265</v>
+      </c>
+      <c r="LW128">
+        <v>0.0922509</v>
+      </c>
+      <c r="LX128">
+        <v>0.7346939</v>
+      </c>
+      <c r="LY128">
+        <v>0.1751592</v>
+      </c>
+      <c r="MA128">
+        <v>0.2157541</v>
+      </c>
+      <c r="MC128">
+        <v>1.1272142</v>
+      </c>
+      <c r="ME128">
+        <v>0</v>
+      </c>
+      <c r="MF128">
+        <v>0.6090522</v>
+      </c>
+      <c r="MG128">
+        <v>0.4556739</v>
+      </c>
+      <c r="MI128">
+        <v>0.5569619</v>
+      </c>
+      <c r="ML128">
+        <v>0.1915709</v>
+      </c>
+      <c r="MN128">
+        <v>0.3685637</v>
+      </c>
+      <c r="MS128">
+        <v>0.262955</v>
+      </c>
+      <c r="MU128">
+        <v>0.6545608000000001</v>
+      </c>
+      <c r="MW128">
+        <v>0.3090659</v>
+      </c>
+      <c r="MX128">
+        <v>0.7039653</v>
+      </c>
+      <c r="MZ128">
+        <v>0.246675</v>
+      </c>
+      <c r="NC128">
+        <v>0.3759639</v>
+      </c>
+      <c r="NE128">
+        <v>0.5397951</v>
+      </c>
+      <c r="NM128">
+        <v>0.2144618</v>
+      </c>
+      <c r="NP128">
+        <v>0.1784686</v>
+      </c>
+      <c r="NQ128">
+        <v>0.9529686000000001</v>
+      </c>
+      <c r="NT128">
+        <v>0</v>
+      </c>
+      <c r="NW128">
+        <v>0.147929</v>
+      </c>
+      <c r="NY128">
+        <v>0.1449275</v>
+      </c>
+      <c r="NZ128">
+        <v>0.4000397</v>
+      </c>
+      <c r="OD128">
+        <v>0.3016528</v>
+      </c>
+      <c r="OE128">
+        <v>0.326081</v>
+      </c>
+      <c r="OJ128">
+        <v>0.375</v>
+      </c>
+      <c r="OL128">
+        <v>0.4402893</v>
+      </c>
+      <c r="ON128">
+        <v>0.3811279</v>
+      </c>
+      <c r="OP128">
+        <v>0.1237624</v>
+      </c>
+      <c r="OQ128">
+        <v>0.2941605</v>
+      </c>
+      <c r="OR128">
+        <v>0.6467356</v>
+      </c>
+      <c r="OT128">
+        <v>0.3694581</v>
+      </c>
+      <c r="OV128">
+        <v>0.286165</v>
+      </c>
+      <c r="OX128">
+        <v>0.2487562</v>
+      </c>
+      <c r="PB128">
+        <v>0.4818726</v>
+      </c>
+      <c r="PG128">
+        <v>0.2536566</v>
+      </c>
+      <c r="PJ128">
+        <v>0.3328328</v>
+      </c>
+      <c r="PK128">
+        <v>0</v>
+      </c>
+      <c r="PL128">
+        <v>1.1248966</v>
+      </c>
+      <c r="PM128">
+        <v>0.6228610999999999</v>
+      </c>
+      <c r="PP128">
+        <v>0.3544456</v>
+      </c>
+      <c r="PR128">
+        <v>1.1538462</v>
+      </c>
+      <c r="PS128">
+        <v>0.2787841</v>
+      </c>
+      <c r="PY128">
+        <v>0.5577689</v>
+      </c>
+      <c r="QD128">
+        <v>0.4802308</v>
+      </c>
+      <c r="QE128">
+        <v>0.4028846</v>
+      </c>
+      <c r="QF128">
+        <v>0.2881844</v>
+      </c>
+      <c r="QK128">
+        <v>0.3135042</v>
+      </c>
+      <c r="QN128">
+        <v>0.4873294</v>
+      </c>
+      <c r="QO128">
+        <v>0.3350232</v>
+      </c>
+      <c r="QP128">
+        <v>0.6614827</v>
+      </c>
+      <c r="QS128">
+        <v>0.3521127</v>
+      </c>
+      <c r="QU128">
+        <v>0</v>
+      </c>
+      <c r="QV128">
+        <v>0.7727851999999999</v>
+      </c>
+      <c r="QX128">
+        <v>0.4815856</v>
+      </c>
+      <c r="QY128">
+        <v>0.0915831</v>
+      </c>
+      <c r="RB128">
+        <v>0.2083333</v>
+      </c>
+      <c r="RD128">
+        <v>0.4633586</v>
+      </c>
+      <c r="RI128">
+        <v>0.3850711</v>
+      </c>
+      <c r="RL128">
+        <v>0.2466667</v>
+      </c>
+      <c r="RQ128">
+        <v>0.4225352</v>
+      </c>
+      <c r="RT128">
+        <v>0.3190814</v>
+      </c>
+      <c r="RV128">
+        <v>0.2586207</v>
+      </c>
+      <c r="RX128">
+        <v>0.4483674</v>
+      </c>
+      <c r="RY128">
+        <v>0.6184933</v>
+      </c>
+      <c r="SA128">
+        <v>0</v>
+      </c>
+      <c r="SD128">
+        <v>0.6769984</v>
+      </c>
+      <c r="SG128">
+        <v>0.4121445</v>
+      </c>
+      <c r="SH128">
+        <v>0.4167815</v>
+      </c>
+      <c r="SI128">
+        <v>0.8009459</v>
+      </c>
+      <c r="SM128">
+        <v>0.414499</v>
+      </c>
+      <c r="SO128">
+        <v>0.2310964</v>
+      </c>
+      <c r="SP128">
+        <v>0.08097169999999999</v>
+      </c>
+      <c r="SR128">
+        <v>0.2238707</v>
+      </c>
+      <c r="SW128">
+        <v>0.201081</v>
+      </c>
+      <c r="SX128">
+        <v>0.5924171</v>
+      </c>
+      <c r="TS128">
+        <v>0.2113332</v>
+      </c>
+      <c r="TX128">
+        <v>0.3931082</v>
+      </c>
+      <c r="TY128">
+        <v>0.5602968</v>
+      </c>
+      <c r="UA128">
+        <v>0.3738318</v>
+      </c>
+      <c r="UE128">
+        <v>0.2245827</v>
+      </c>
+      <c r="UF128">
+        <v>0</v>
+      </c>
+      <c r="UH128">
+        <v>0.3609196</v>
+      </c>
+      <c r="UI128">
+        <v>0.2545156</v>
+      </c>
+      <c r="UK128">
+        <v>0.1521964</v>
+      </c>
+      <c r="UN128">
+        <v>0.4314166</v>
+      </c>
+      <c r="UP128">
+        <v>0.1449275</v>
+      </c>
+      <c r="US128">
+        <v>0.5893814000000001</v>
+      </c>
+      <c r="UT128">
+        <v>0.3343363</v>
+      </c>
+      <c r="UU128">
+        <v>1.0160193</v>
+      </c>
+      <c r="UV128">
+        <v>0.2628975</v>
+      </c>
+      <c r="UW128">
+        <v>0.7380918</v>
+      </c>
+      <c r="VA128">
+        <v>0.0587889</v>
+      </c>
+      <c r="VB128">
+        <v>0.5481646</v>
+      </c>
+      <c r="VO128">
+        <v>0.5050045</v>
+      </c>
+      <c r="VP128">
+        <v>0.2533333</v>
+      </c>
+      <c r="VS128">
+        <v>0.0505903</v>
+      </c>
+      <c r="VU128">
+        <v>0.5882528</v>
+      </c>
+      <c r="VW128">
+        <v>0.3521127</v>
+      </c>
+      <c r="VX128">
+        <v>0.3449045</v>
+      </c>
+      <c r="VY128">
+        <v>0.6045425</v>
+      </c>
+      <c r="WB128">
+        <v>0.4405286</v>
+      </c>
+      <c r="WF128">
+        <v>0.2018434</v>
+      </c>
+      <c r="WG128">
+        <v>0.39526</v>
+      </c>
+      <c r="WL128">
+        <v>0.4786322</v>
+      </c>
+      <c r="WM128">
+        <v>0.3486056</v>
+      </c>
+      <c r="WQ128">
+        <v>0.3716109</v>
+      </c>
+      <c r="WU128">
+        <v>0.1779478</v>
+      </c>
+      <c r="WW128">
+        <v>0.2859814</v>
+      </c>
+      <c r="WY128">
+        <v>0.3587196</v>
+      </c>
+      <c r="WZ128">
+        <v>0.5272584</v>
+      </c>
+      <c r="XD128">
+        <v>0.4414554</v>
+      </c>
+      <c r="XF128">
+        <v>0.320775</v>
+      </c>
+      <c r="XG128">
+        <v>0.4509778</v>
+      </c>
+      <c r="XL128">
+        <v>0.2107298</v>
+      </c>
+      <c r="XM128">
+        <v>0.1172028</v>
+      </c>
+      <c r="XT128">
+        <v>0.0660066</v>
+      </c>
+      <c r="XV128">
+        <v>0.4573497</v>
+      </c>
+      <c r="YB128">
+        <v>0.1317614</v>
+      </c>
+      <c r="YD128">
+        <v>0.06397949999999999</v>
+      </c>
+      <c r="YH128">
+        <v>0.6932256999999999</v>
+      </c>
+      <c r="YN128">
+        <v>0.4046202</v>
+      </c>
+      <c r="YO128">
+        <v>0.3385782</v>
+      </c>
+      <c r="YQ128">
+        <v>0.2801542</v>
+      </c>
+      <c r="YR128">
+        <v>0.4823777</v>
+      </c>
+      <c r="YX128">
+        <v>0.2422049</v>
+      </c>
+      <c r="YY128">
+        <v>0</v>
+      </c>
+      <c r="ZL128">
+        <v>0.1883415</v>
+      </c>
+      <c r="ZM128">
+        <v>0.1569181</v>
+      </c>
+      <c r="ZO128">
+        <v>0.06265660000000001</v>
+      </c>
+      <c r="ZR128">
+        <v>0.4169198</v>
+      </c>
+      <c r="ZS128">
+        <v>0.7751938</v>
+      </c>
+      <c r="ZV128">
+        <v>0.2982472</v>
+      </c>
+      <c r="ZW128">
+        <v>0.5056328</v>
+      </c>
+      <c r="ZX128">
+        <v>0.6715506999999999</v>
+      </c>
+      <c r="ZZ128">
+        <v>0.51333</v>
+      </c>
+      <c r="AAB128">
+        <v>1.0253906</v>
+      </c>
+      <c r="AAC128">
+        <v>0.4699792</v>
+      </c>
+      <c r="AAD128">
+        <v>0.2598753</v>
+      </c>
+      <c r="AAF128">
+        <v>0.2398577</v>
+      </c>
+      <c r="AAH128">
+        <v>0.4294303</v>
+      </c>
+      <c r="AAJ128">
+        <v>0.5032035</v>
+      </c>
+      <c r="AAM128">
+        <v>0.5722388</v>
+      </c>
+      <c r="AAP128">
+        <v>0.3273045</v>
+      </c>
+      <c r="AAR128">
+        <v>0.9831402</v>
+      </c>
+      <c r="AAU128">
+        <v>0.3635835</v>
+      </c>
+      <c r="AAV128">
+        <v>0.1512635</v>
+      </c>
+      <c r="AAW128">
+        <v>0.400499</v>
+      </c>
+      <c r="ABA128">
+        <v>0.1416431</v>
+      </c>
+      <c r="ABC128">
+        <v>0.0202347</v>
+      </c>
+      <c r="ABJ128">
+        <v>0.3391851</v>
+      </c>
+      <c r="ABL128">
+        <v>0.0634014</v>
+      </c>
+      <c r="ABM128">
+        <v>1.0096912</v>
+      </c>
+      <c r="ABN128">
+        <v>0.1355014</v>
+      </c>
+      <c r="ABP128">
+        <v>0.2752271</v>
+      </c>
+      <c r="ABT128">
+        <v>0.1144727</v>
+      </c>
+      <c r="ABV128">
+        <v>0.2645856</v>
+      </c>
+      <c r="ABW128">
+        <v>0.4131535</v>
+      </c>
+      <c r="ABX128">
+        <v>0.601265</v>
+      </c>
+      <c r="ABY128">
+        <v>0</v>
+      </c>
+      <c r="ABZ128">
+        <v>0.3220509</v>
+      </c>
+      <c r="ACA128">
+        <v>0.2616416</v>
+      </c>
+      <c r="ACE128">
+        <v>0.234351</v>
+      </c>
+      <c r="ACG128">
+        <v>0.2199336</v>
+      </c>
+      <c r="ACI128">
+        <v>0.2413498</v>
+      </c>
+      <c r="ACJ128">
+        <v>0</v>
+      </c>
+      <c r="ACK128">
+        <v>0</v>
+      </c>
+      <c r="ACM128">
+        <v>0.0018652</v>
+      </c>
+      <c r="ACN128">
+        <v>0.2145289</v>
+      </c>
+      <c r="ACP128">
+        <v>0.4021045</v>
+      </c>
+      <c r="ACU128">
+        <v>0.4933814</v>
+      </c>
+      <c r="ACW128">
+        <v>0.2751855</v>
+      </c>
+      <c r="ACX128">
+        <v>1.2738854</v>
+      </c>
+      <c r="ADP128">
+        <v>0.4231463</v>
+      </c>
+      <c r="ADR128">
+        <v>0.6094183</v>
+      </c>
+      <c r="ADU128">
+        <v>0.8346169</v>
+      </c>
+      <c r="ADV128">
+        <v>0.1796856</v>
+      </c>
+      <c r="AEA128">
+        <v>0.2521308</v>
+      </c>
+      <c r="AEB128">
+        <v>0.5287039</v>
+      </c>
+      <c r="AEF128">
+        <v>0.2602804</v>
+      </c>
+      <c r="AEG128">
+        <v>0.2481027</v>
+      </c>
+      <c r="AEH128">
+        <v>0.2054536</v>
+      </c>
+      <c r="AEI128">
+        <v>0.4387824</v>
+      </c>
+      <c r="AEJ128">
+        <v>0.5651362</v>
+      </c>
+      <c r="AEL128">
+        <v>0.2314815</v>
+      </c>
+      <c r="AEU128">
+        <v>0.5600035</v>
+      </c>
+      <c r="AEZ128">
+        <v>0.0865052</v>
+      </c>
+      <c r="AFD128">
+        <v>0.3003378</v>
+      </c>
+      <c r="AFG128">
+        <v>0.1970905</v>
+      </c>
+      <c r="AFH128">
+        <v>0.312041</v>
+      </c>
+      <c r="AFK128">
+        <v>0.8667903</v>
+      </c>
+      <c r="AFL128">
+        <v>0.0597015</v>
+      </c>
+      <c r="AFN128">
+        <v>0</v>
+      </c>
+      <c r="AFT128">
+        <v>0.5523468</v>
+      </c>
+      <c r="AFU128">
+        <v>0.9541922</v>
+      </c>
+      <c r="AFX128">
+        <v>0.2965631</v>
+      </c>
+      <c r="AGA128">
+        <v>0.5196461</v>
+      </c>
+      <c r="AGC128">
+        <v>0.5040855</v>
+      </c>
+      <c r="AGE128">
+        <v>0.4464832</v>
+      </c>
+      <c r="AGF128">
+        <v>0.954786</v>
+      </c>
+      <c r="AGG128">
+        <v>0.2243892</v>
+      </c>
+      <c r="AGL128">
+        <v>0.2408215</v>
+      </c>
+      <c r="AGM128">
+        <v>0.2328382</v>
+      </c>
+      <c r="AGO128">
+        <v>0.4885993</v>
+      </c>
+      <c r="AGP128">
+        <v>0.3370309</v>
+      </c>
+      <c r="AGV128">
+        <v>0.2538071</v>
+      </c>
+      <c r="AHA128">
+        <v>0.2182147</v>
+      </c>
+      <c r="AHB128">
+        <v>0.2116482</v>
+      </c>
+      <c r="AHD128">
+        <v>0.5755185</v>
+      </c>
+      <c r="AHH128">
+        <v>0</v>
+      </c>
+      <c r="AHN128">
+        <v>0.4450641</v>
+      </c>
+      <c r="AHP128">
+        <v>0.0442478</v>
+      </c>
+      <c r="AHS128">
+        <v>0.4830586</v>
+      </c>
+      <c r="AHU128">
+        <v>0.2633805</v>
+      </c>
+      <c r="AHX128">
+        <v>0</v>
+      </c>
+      <c r="AIB128">
+        <v>0</v>
+      </c>
+      <c r="AID128">
+        <v>0.25152</v>
+      </c>
+      <c r="AIE128">
+        <v>0.2849003</v>
+      </c>
+      <c r="AIF128">
+        <v>0.2642276</v>
+      </c>
+      <c r="AII128">
+        <v>0.2544354</v>
+      </c>
+      <c r="AIP128">
+        <v>0.3850364</v>
+      </c>
+      <c r="AIT128">
+        <v>0.3000499</v>
+      </c>
+      <c r="AIV128">
+        <v>0.3971412</v>
+      </c>
+      <c r="AIY128">
+        <v>0.6489377</v>
+      </c>
+      <c r="AIZ128">
+        <v>0.2793889</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyMetro.xlsx
+++ b/fb-surveyMetro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1071">
   <si>
     <t>Aberdeen, SD</t>
   </si>
@@ -3218,6 +3218,15 @@
   </si>
   <si>
     <t>08 06 2020</t>
+  </si>
+  <si>
+    <t>09 06 2020</t>
+  </si>
+  <si>
+    <t>10 06 2020</t>
+  </si>
+  <si>
+    <t>11 06 2020</t>
   </si>
 </sst>
 </file>
@@ -3549,7 +3558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJD130"/>
+  <dimension ref="A1:AJD133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30772,6 +30781,9 @@
       <c r="ACX88">
         <v>1.1037528</v>
       </c>
+      <c r="ACY88">
+        <v>0.2083333</v>
+      </c>
       <c r="ADI88">
         <v>0</v>
       </c>
@@ -31905,6 +31917,9 @@
       <c r="ACX89">
         <v>1.010101</v>
       </c>
+      <c r="ACY89">
+        <v>0.2</v>
+      </c>
       <c r="ADI89">
         <v>0.8403361</v>
       </c>
@@ -33595,6 +33610,9 @@
       <c r="LD91">
         <v>0.2544783</v>
       </c>
+      <c r="LE91">
+        <v>0</v>
+      </c>
       <c r="LG91">
         <v>0.4098907</v>
       </c>
@@ -34719,6 +34737,9 @@
       <c r="LD92">
         <v>0.2626255</v>
       </c>
+      <c r="LE92">
+        <v>0</v>
+      </c>
       <c r="LG92">
         <v>0.4073676</v>
       </c>
@@ -35702,6 +35723,9 @@
       <c r="GF93">
         <v>0.5605992</v>
       </c>
+      <c r="GG93">
+        <v>0.9146341</v>
+      </c>
       <c r="GJ93">
         <v>0.4061432</v>
       </c>
@@ -35839,6 +35863,9 @@
       </c>
       <c r="LD93">
         <v>0.3615665</v>
+      </c>
+      <c r="LE93">
+        <v>0.2083333</v>
       </c>
       <c r="LG93">
         <v>0.5076086</v>
@@ -36820,6 +36847,9 @@
       <c r="GF94">
         <v>0.5608233</v>
       </c>
+      <c r="GG94">
+        <v>0.9036145</v>
+      </c>
       <c r="GJ94">
         <v>0.4956841</v>
       </c>
@@ -37938,6 +37968,9 @@
       <c r="GF95">
         <v>0.6184024</v>
       </c>
+      <c r="GG95">
+        <v>0.6451613</v>
+      </c>
       <c r="GJ95">
         <v>0.4768832</v>
       </c>
@@ -42482,6 +42515,9 @@
       <c r="IS99">
         <v>0</v>
       </c>
+      <c r="IW99">
+        <v>1.4124294</v>
+      </c>
       <c r="IZ99">
         <v>0.2352151</v>
       </c>
@@ -43594,6 +43630,9 @@
       <c r="IS100">
         <v>0.1869159</v>
       </c>
+      <c r="IW100">
+        <v>1.9089147</v>
+      </c>
       <c r="IZ100">
         <v>0.2663623</v>
       </c>
@@ -44706,6 +44745,9 @@
       <c r="IS101">
         <v>0.1877934</v>
       </c>
+      <c r="IW101">
+        <v>1.3122605</v>
+      </c>
       <c r="IZ101">
         <v>0.2627628</v>
       </c>
@@ -47880,6 +47922,9 @@
       <c r="EA104">
         <v>0.4158004</v>
       </c>
+      <c r="EE104">
+        <v>0</v>
+      </c>
       <c r="EK104">
         <v>0.5474661</v>
       </c>
@@ -48452,6 +48497,9 @@
       </c>
       <c r="WW104">
         <v>0.4955993</v>
+      </c>
+      <c r="WX104">
+        <v>0</v>
       </c>
       <c r="WY104">
         <v>1.4427861</v>
@@ -48983,6 +49031,9 @@
       <c r="EA105">
         <v>0.3984064</v>
       </c>
+      <c r="EE105">
+        <v>0</v>
+      </c>
       <c r="EK105">
         <v>0.7021534</v>
       </c>
@@ -49555,6 +49606,9 @@
       </c>
       <c r="WW105">
         <v>0.4668417</v>
+      </c>
+      <c r="WX105">
+        <v>0</v>
       </c>
       <c r="WY105">
         <v>1.3122172</v>
@@ -50086,6 +50140,9 @@
       <c r="EA106">
         <v>0.3636727</v>
       </c>
+      <c r="EE106">
+        <v>0</v>
+      </c>
       <c r="EK106">
         <v>0.6166853</v>
       </c>
@@ -50658,6 +50715,9 @@
       </c>
       <c r="WW106">
         <v>0.3839901</v>
+      </c>
+      <c r="WX106">
+        <v>0.862069</v>
       </c>
       <c r="WY106">
         <v>1.1693548</v>
@@ -54166,6 +54226,9 @@
       <c r="ACX109">
         <v>0.3809524</v>
       </c>
+      <c r="ADI109">
+        <v>0.5172414</v>
+      </c>
       <c r="ADN109">
         <v>0.6455399000000001</v>
       </c>
@@ -54266,6 +54329,9 @@
         <v>0.3605174</v>
       </c>
       <c r="AGV109">
+        <v>0</v>
+      </c>
+      <c r="AGY109">
         <v>0</v>
       </c>
       <c r="AHA109">
@@ -54690,6 +54756,9 @@
       <c r="KK110">
         <v>0.5181346999999999</v>
       </c>
+      <c r="KL110">
+        <v>0.273224</v>
+      </c>
       <c r="KO110">
         <v>0.4246241</v>
       </c>
@@ -55260,6 +55329,9 @@
       <c r="ACX110">
         <v>0.4140787</v>
       </c>
+      <c r="ADI110">
+        <v>0.5555556</v>
+      </c>
       <c r="ADN110">
         <v>0.5913978</v>
       </c>
@@ -55360,6 +55432,9 @@
         <v>0.3701696</v>
       </c>
       <c r="AGV110">
+        <v>0</v>
+      </c>
+      <c r="AGY110">
         <v>0</v>
       </c>
       <c r="AHA110">
@@ -55784,6 +55859,9 @@
       <c r="KK111">
         <v>0.5154639</v>
       </c>
+      <c r="KL111">
+        <v>0.273224</v>
+      </c>
       <c r="KO111">
         <v>0.5068128</v>
       </c>
@@ -56354,6 +56432,9 @@
       <c r="ACX111">
         <v>0.4016064</v>
       </c>
+      <c r="ADI111">
+        <v>0.5555556</v>
+      </c>
       <c r="ADN111">
         <v>1.127451</v>
       </c>
@@ -56454,6 +56535,9 @@
         <v>0.4170727</v>
       </c>
       <c r="AGV111">
+        <v>0</v>
+      </c>
+      <c r="AGY111">
         <v>0</v>
       </c>
       <c r="AHA111">
@@ -56878,6 +56962,9 @@
       <c r="KK112">
         <v>0.5128205</v>
       </c>
+      <c r="KL112">
+        <v>0.2808989</v>
+      </c>
       <c r="KO112">
         <v>0.4996867</v>
       </c>
@@ -57387,6 +57474,9 @@
       </c>
       <c r="ABN112">
         <v>0.101626</v>
+      </c>
+      <c r="ABO112">
+        <v>0.487013</v>
       </c>
       <c r="ABP112">
         <v>0.3134212</v>
@@ -58479,6 +58569,9 @@
       <c r="ABN113">
         <v>0.102459</v>
       </c>
+      <c r="ABO113">
+        <v>0.483871</v>
+      </c>
       <c r="ABP113">
         <v>0.3707109</v>
       </c>
@@ -59048,6 +59141,9 @@
       <c r="KC114">
         <v>0.3555994</v>
       </c>
+      <c r="KH114">
+        <v>0.7246377000000001</v>
+      </c>
       <c r="KI114">
         <v>0.2398564</v>
       </c>
@@ -59566,6 +59662,9 @@
       </c>
       <c r="ABN114">
         <v>0.1046025</v>
+      </c>
+      <c r="ABO114">
+        <v>0.462963</v>
       </c>
       <c r="ABP114">
         <v>0.4002793</v>
@@ -60046,6 +60145,9 @@
       <c r="HF115">
         <v>0.3337223</v>
       </c>
+      <c r="HG115">
+        <v>0.105042</v>
+      </c>
       <c r="HH115">
         <v>0.4057428</v>
       </c>
@@ -60133,6 +60235,9 @@
       <c r="KC115">
         <v>0.4521157</v>
       </c>
+      <c r="KH115">
+        <v>0</v>
+      </c>
       <c r="KI115">
         <v>0.1664393</v>
       </c>
@@ -60381,6 +60486,9 @@
       </c>
       <c r="SD115">
         <v>0.3660628</v>
+      </c>
+      <c r="SE115">
+        <v>0</v>
       </c>
       <c r="SG115">
         <v>0.5330395</v>
@@ -61128,6 +61236,9 @@
       <c r="HF116">
         <v>0.2881355</v>
       </c>
+      <c r="HG116">
+        <v>0.0992063</v>
+      </c>
       <c r="HH116">
         <v>0.5088702000000001</v>
       </c>
@@ -61463,6 +61574,9 @@
       </c>
       <c r="SD116">
         <v>0.2337081</v>
+      </c>
+      <c r="SE116">
+        <v>0</v>
       </c>
       <c r="SG116">
         <v>0.5545222</v>
@@ -62210,6 +62324,9 @@
       <c r="HF117">
         <v>0.3223267</v>
       </c>
+      <c r="HG117">
+        <v>0.1033058</v>
+      </c>
       <c r="HH117">
         <v>0.4577139</v>
       </c>
@@ -62545,6 +62662,9 @@
       </c>
       <c r="SD117">
         <v>0.1467843</v>
+      </c>
+      <c r="SE117">
+        <v>0</v>
       </c>
       <c r="SG117">
         <v>0.5174492000000001</v>
@@ -63205,6 +63325,9 @@
       <c r="EN118">
         <v>0.2365184</v>
       </c>
+      <c r="EQ118">
+        <v>0.1937984</v>
+      </c>
       <c r="ER118">
         <v>0.4314995</v>
       </c>
@@ -64281,6 +64404,9 @@
       <c r="EN119">
         <v>0.414432</v>
       </c>
+      <c r="EQ119">
+        <v>0.3944773</v>
+      </c>
       <c r="ER119">
         <v>0</v>
       </c>
@@ -64455,6 +64581,9 @@
       <c r="KJ119">
         <v>0.4370391</v>
       </c>
+      <c r="KK119">
+        <v>0.5347594</v>
+      </c>
       <c r="KO119">
         <v>0.2052519</v>
       </c>
@@ -65144,6 +65273,9 @@
       </c>
       <c r="AHX119">
         <v>0.0754717</v>
+      </c>
+      <c r="AHY119">
+        <v>0</v>
       </c>
       <c r="AIB119">
         <v>0.2212389</v>
@@ -65351,6 +65483,9 @@
       <c r="EN120">
         <v>0.491371</v>
       </c>
+      <c r="EQ120">
+        <v>0.4273504</v>
+      </c>
       <c r="ER120">
         <v>0</v>
       </c>
@@ -65525,6 +65660,9 @@
       <c r="KJ120">
         <v>0.5115327</v>
       </c>
+      <c r="KK120">
+        <v>0.5524862</v>
+      </c>
       <c r="KO120">
         <v>0.203554</v>
       </c>
@@ -66214,6 +66352,9 @@
       </c>
       <c r="AHX120">
         <v>0.078125</v>
+      </c>
+      <c r="AHY120">
+        <v>0</v>
       </c>
       <c r="AIB120">
         <v>0.2164502</v>
@@ -66397,6 +66538,9 @@
       <c r="DS121">
         <v>0.2578242</v>
       </c>
+      <c r="DU121">
+        <v>0.1677852</v>
+      </c>
       <c r="DW121">
         <v>0.2579865</v>
       </c>
@@ -66592,6 +66736,9 @@
       <c r="KJ121">
         <v>0.5206854</v>
       </c>
+      <c r="KK121">
+        <v>0</v>
+      </c>
       <c r="KO121">
         <v>0.1183884</v>
       </c>
@@ -67012,6 +67159,9 @@
       <c r="YY121">
         <v>0.3012048</v>
       </c>
+      <c r="ZD121">
+        <v>0.3849444</v>
+      </c>
       <c r="ZL121">
         <v>0.3123293</v>
       </c>
@@ -67278,6 +67428,9 @@
       </c>
       <c r="AHX121">
         <v>0.0796813</v>
+      </c>
+      <c r="AHY121">
+        <v>0</v>
       </c>
       <c r="AIB121">
         <v>0.2283105</v>
@@ -67428,6 +67581,9 @@
       <c r="CO122">
         <v>0</v>
       </c>
+      <c r="CQ122">
+        <v>0.127551</v>
+      </c>
       <c r="CR122">
         <v>0.2534569</v>
       </c>
@@ -67458,6 +67614,9 @@
       <c r="DS122">
         <v>0.2067686</v>
       </c>
+      <c r="DU122">
+        <v>0.1623377</v>
+      </c>
       <c r="DW122">
         <v>0.2245392</v>
       </c>
@@ -68073,6 +68232,9 @@
       <c r="YY122">
         <v>0.2898551</v>
       </c>
+      <c r="ZD122">
+        <v>0.3992902</v>
+      </c>
       <c r="ZL122">
         <v>0.2348781</v>
       </c>
@@ -68209,6 +68371,9 @@
         <v>0.2837545</v>
       </c>
       <c r="ACX122">
+        <v>0</v>
+      </c>
+      <c r="ADN122">
         <v>0</v>
       </c>
       <c r="ADP122">
@@ -68486,6 +68651,9 @@
       <c r="CO123">
         <v>0</v>
       </c>
+      <c r="CQ123">
+        <v>0.136612</v>
+      </c>
       <c r="CR123">
         <v>0.257969</v>
       </c>
@@ -68516,6 +68684,9 @@
       <c r="DS123">
         <v>0.0936273</v>
       </c>
+      <c r="DU123">
+        <v>0.1552795</v>
+      </c>
       <c r="DW123">
         <v>0.1640846</v>
       </c>
@@ -68921,6 +69092,9 @@
       <c r="RD123">
         <v>0.349199</v>
       </c>
+      <c r="RG123">
+        <v>0.1020408</v>
+      </c>
       <c r="RI123">
         <v>0.2262443</v>
       </c>
@@ -69128,6 +69302,9 @@
       <c r="YY123">
         <v>0.2881844</v>
       </c>
+      <c r="ZD123">
+        <v>0.4068716</v>
+      </c>
       <c r="ZL123">
         <v>0.2069172</v>
       </c>
@@ -69265,6 +69442,9 @@
       </c>
       <c r="ACX123">
         <v>0.5780347</v>
+      </c>
+      <c r="ADN123">
+        <v>0</v>
       </c>
       <c r="ADP123">
         <v>0.141675</v>
@@ -69541,6 +69721,9 @@
       <c r="CO124">
         <v>0.1141553</v>
       </c>
+      <c r="CQ124">
+        <v>0.6793477999999999</v>
+      </c>
       <c r="CR124">
         <v>0.2694343</v>
       </c>
@@ -69559,6 +69742,9 @@
       <c r="DD124">
         <v>0.25539</v>
       </c>
+      <c r="DE124">
+        <v>0.1443001</v>
+      </c>
       <c r="DK124">
         <v>0.5422993</v>
       </c>
@@ -69748,6 +69934,9 @@
       <c r="JX124">
         <v>0.88973</v>
       </c>
+      <c r="KA124">
+        <v>0.1342282</v>
+      </c>
       <c r="KB124">
         <v>0.2175</v>
       </c>
@@ -69970,6 +70159,9 @@
       <c r="RD124">
         <v>0.3520327</v>
       </c>
+      <c r="RG124">
+        <v>0.1005025</v>
+      </c>
       <c r="RI124">
         <v>0.2267574</v>
       </c>
@@ -70315,6 +70507,9 @@
       <c r="ACX124">
         <v>0.591716</v>
       </c>
+      <c r="ADN124">
+        <v>0</v>
+      </c>
       <c r="ADP124">
         <v>0.2126071</v>
       </c>
@@ -70473,6 +70668,9 @@
       </c>
       <c r="AJA124">
         <v>0</v>
+      </c>
+      <c r="AJB124">
+        <v>2.025</v>
       </c>
     </row>
     <row r="125" spans="1:938">
@@ -70605,6 +70803,9 @@
       <c r="DD125">
         <v>0.2294056</v>
       </c>
+      <c r="DE125">
+        <v>0.13947</v>
+      </c>
       <c r="DK125">
         <v>0.4609929</v>
       </c>
@@ -70794,6 +70995,9 @@
       <c r="JX125">
         <v>0.9157631000000001</v>
       </c>
+      <c r="KA125">
+        <v>0.4929577</v>
+      </c>
       <c r="KB125">
         <v>0.2748776</v>
       </c>
@@ -71016,6 +71220,9 @@
       <c r="RD125">
         <v>0.381416</v>
       </c>
+      <c r="RG125">
+        <v>0.1030928</v>
+      </c>
       <c r="RI125">
         <v>0.1131222</v>
       </c>
@@ -71519,6 +71726,9 @@
       </c>
       <c r="AJA125">
         <v>0</v>
+      </c>
+      <c r="AJB125">
+        <v>2.0984456</v>
       </c>
     </row>
     <row r="126" spans="1:938">
@@ -71651,6 +71861,9 @@
       <c r="DD126">
         <v>0.0661766</v>
       </c>
+      <c r="DE126">
+        <v>0.13947</v>
+      </c>
       <c r="DK126">
         <v>0.4069356</v>
       </c>
@@ -71702,6 +71915,9 @@
       <c r="FE126">
         <v>0.2592334</v>
       </c>
+      <c r="FF126">
+        <v>0</v>
+      </c>
       <c r="FG126">
         <v>0.6193364</v>
       </c>
@@ -71837,6 +72053,9 @@
       <c r="JX126">
         <v>0.783609</v>
       </c>
+      <c r="KA126">
+        <v>0.4929577</v>
+      </c>
       <c r="KB126">
         <v>0.23534</v>
       </c>
@@ -71873,6 +72092,9 @@
       <c r="LR126">
         <v>0.1173709</v>
       </c>
+      <c r="LU126">
+        <v>0.9330144</v>
+      </c>
       <c r="LW126">
         <v>0.432526</v>
       </c>
@@ -72556,6 +72778,12 @@
       </c>
       <c r="AIZ126">
         <v>0.2810303</v>
+      </c>
+      <c r="AJA126">
+        <v>0</v>
+      </c>
+      <c r="AJB126">
+        <v>1.9444444</v>
       </c>
     </row>
     <row r="127" spans="1:938">
@@ -72673,6 +72901,9 @@
       <c r="CR127">
         <v>0.2634608</v>
       </c>
+      <c r="CS127">
+        <v>0.3649635</v>
+      </c>
       <c r="CT127">
         <v>0.4032258</v>
       </c>
@@ -72736,6 +72967,9 @@
       <c r="FE127">
         <v>0.3424523</v>
       </c>
+      <c r="FF127">
+        <v>0</v>
+      </c>
       <c r="FG127">
         <v>0.6813878</v>
       </c>
@@ -72907,6 +73141,9 @@
       <c r="LR127">
         <v>0.1194743</v>
       </c>
+      <c r="LU127">
+        <v>0.4679803</v>
+      </c>
       <c r="LW127">
         <v>0.4370629</v>
       </c>
@@ -72992,7 +73229,7 @@
         <v>0.4793689</v>
       </c>
       <c r="OL127">
-        <v>0.3870937</v>
+        <v>0.3869272</v>
       </c>
       <c r="ON127">
         <v>0.3629889</v>
@@ -73081,6 +73318,9 @@
       <c r="QY127">
         <v>0.1438489</v>
       </c>
+      <c r="RA127">
+        <v>0.2941176</v>
+      </c>
       <c r="RB127">
         <v>0.2354788</v>
       </c>
@@ -73226,7 +73466,7 @@
         <v>0.4164657</v>
       </c>
       <c r="WL127">
-        <v>0.4487528</v>
+        <v>0.4487317</v>
       </c>
       <c r="WM127">
         <v>0.3295669</v>
@@ -73484,7 +73724,7 @@
         <v>0.3218926</v>
       </c>
       <c r="AFK127">
-        <v>0.6344052999999999</v>
+        <v>0.6331132</v>
       </c>
       <c r="AFL127">
         <v>0.2263969</v>
@@ -73587,6 +73827,9 @@
       </c>
       <c r="AIZ127">
         <v>0.2340609</v>
+      </c>
+      <c r="AJA127">
+        <v>0.1875</v>
       </c>
     </row>
     <row r="128" spans="1:938">
@@ -73704,6 +73947,9 @@
       <c r="CR128">
         <v>0.2801933</v>
       </c>
+      <c r="CS128">
+        <v>0.3597122</v>
+      </c>
       <c r="CT128">
         <v>0.136612</v>
       </c>
@@ -73762,11 +74008,14 @@
         <v>0.4820477</v>
       </c>
       <c r="FD128">
-        <v>0.2673128</v>
+        <v>0.2671668</v>
       </c>
       <c r="FE128">
         <v>0.3080773</v>
       </c>
+      <c r="FF128">
+        <v>0.1945525</v>
+      </c>
       <c r="FG128">
         <v>0.7075508</v>
       </c>
@@ -73774,7 +74023,7 @@
         <v>0.5934718</v>
       </c>
       <c r="FI128">
-        <v>0.4229261</v>
+        <v>0.4228968</v>
       </c>
       <c r="FJ128">
         <v>0.1523109</v>
@@ -73843,10 +74092,10 @@
         <v>0</v>
       </c>
       <c r="HT128">
-        <v>0.4002196</v>
+        <v>0.3999555</v>
       </c>
       <c r="HV128">
-        <v>0.4713824</v>
+        <v>0.4712367</v>
       </c>
       <c r="HX128">
         <v>0.3152885</v>
@@ -73938,6 +74187,9 @@
       <c r="LR128">
         <v>0.1272265</v>
       </c>
+      <c r="LU128">
+        <v>0.492228</v>
+      </c>
       <c r="LW128">
         <v>0.0922509</v>
       </c>
@@ -74023,7 +74275,7 @@
         <v>0.375</v>
       </c>
       <c r="OL128">
-        <v>0.4402893</v>
+        <v>0.4400958</v>
       </c>
       <c r="ON128">
         <v>0.3811279</v>
@@ -74107,11 +74359,14 @@
         <v>0.7727851999999999</v>
       </c>
       <c r="QX128">
-        <v>0.4815856</v>
+        <v>0.4812391</v>
       </c>
       <c r="QY128">
         <v>0.0915831</v>
       </c>
+      <c r="RA128">
+        <v>0.3030303</v>
+      </c>
       <c r="RB128">
         <v>0.2083333</v>
       </c>
@@ -74239,7 +74494,7 @@
         <v>0.5882528</v>
       </c>
       <c r="VW128">
-        <v>0.3521127</v>
+        <v>0.3508772</v>
       </c>
       <c r="VX128">
         <v>0.3449045</v>
@@ -74257,7 +74512,7 @@
         <v>0.39526</v>
       </c>
       <c r="WL128">
-        <v>0.4786322</v>
+        <v>0.478585</v>
       </c>
       <c r="WM128">
         <v>0.3486056</v>
@@ -74314,10 +74569,10 @@
         <v>0.3385782</v>
       </c>
       <c r="YQ128">
-        <v>0.2801542</v>
+        <v>0.2801173</v>
       </c>
       <c r="YR128">
-        <v>0.4823777</v>
+        <v>0.4823087</v>
       </c>
       <c r="YX128">
         <v>0.2422049</v>
@@ -74344,7 +74599,7 @@
         <v>0.2982472</v>
       </c>
       <c r="ZW128">
-        <v>0.5056328</v>
+        <v>0.5053121</v>
       </c>
       <c r="ZX128">
         <v>0.6715506999999999</v>
@@ -74515,7 +74770,7 @@
         <v>0.312041</v>
       </c>
       <c r="AFK128">
-        <v>0.8667903</v>
+        <v>0.8649654</v>
       </c>
       <c r="AFL128">
         <v>0.0597015</v>
@@ -74619,15 +74874,3117 @@
       <c r="AIZ128">
         <v>0.2793889</v>
       </c>
+      <c r="AJA128">
+        <v>0.1893939</v>
+      </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:936">
       <c r="A129" t="s">
         <v>1066</v>
       </c>
+      <c r="D129">
+        <v>0.4306632</v>
+      </c>
+      <c r="H129">
+        <v>0.2797911</v>
+      </c>
+      <c r="J129">
+        <v>0.9964413</v>
+      </c>
+      <c r="K129">
+        <v>0.514892</v>
+      </c>
+      <c r="L129">
+        <v>0.1274153</v>
+      </c>
+      <c r="P129">
+        <v>0.0526438</v>
+      </c>
+      <c r="R129">
+        <v>1.5304221</v>
+      </c>
+      <c r="U129">
+        <v>0.2864282</v>
+      </c>
+      <c r="X129">
+        <v>0.4295154</v>
+      </c>
+      <c r="Z129">
+        <v>0.7805907</v>
+      </c>
+      <c r="AB129">
+        <v>0.4874214</v>
+      </c>
+      <c r="AD129">
+        <v>0.5981659</v>
+      </c>
+      <c r="AG129">
+        <v>0.3617184</v>
+      </c>
+      <c r="AI129">
+        <v>0.7075675</v>
+      </c>
+      <c r="AN129">
+        <v>0.3250072</v>
+      </c>
+      <c r="AV129">
+        <v>0.9336100000000001</v>
+      </c>
+      <c r="AW129">
+        <v>0.4256985</v>
+      </c>
+      <c r="AX129">
+        <v>0.1428571</v>
+      </c>
+      <c r="BB129">
+        <v>0.8510638</v>
+      </c>
+      <c r="BC129">
+        <v>0.2959289</v>
+      </c>
+      <c r="BF129">
+        <v>0.3463718</v>
+      </c>
+      <c r="BH129">
+        <v>0.4099464</v>
+      </c>
+      <c r="BI129">
+        <v>0.3988648</v>
+      </c>
+      <c r="BJ129">
+        <v>0.4326923</v>
+      </c>
+      <c r="BM129">
+        <v>0.4615385</v>
+      </c>
+      <c r="BR129">
+        <v>0.4653979</v>
+      </c>
+      <c r="BS129">
+        <v>0.1803752</v>
+      </c>
+      <c r="BT129">
+        <v>0.2952756</v>
+      </c>
+      <c r="BW129">
+        <v>0.7042483</v>
+      </c>
+      <c r="BY129">
+        <v>0.244898</v>
+      </c>
+      <c r="CC129">
+        <v>0.1355014</v>
+      </c>
+      <c r="CE129">
+        <v>0.3696498</v>
+      </c>
+      <c r="CL129">
+        <v>0.3668763</v>
+      </c>
+      <c r="CM129">
+        <v>0.355011</v>
+      </c>
+      <c r="CN129">
+        <v>0.1290101</v>
+      </c>
+      <c r="CO129">
+        <v>1.2402248</v>
+      </c>
+      <c r="CR129">
+        <v>0.1932947</v>
+      </c>
+      <c r="CS129">
+        <v>0.7692308</v>
+      </c>
+      <c r="CT129">
+        <v>0.1305483</v>
+      </c>
+      <c r="CY129">
+        <v>0.1216424</v>
+      </c>
+      <c r="DC129">
+        <v>0.2034382</v>
+      </c>
+      <c r="DD129">
+        <v>0.0872328</v>
+      </c>
+      <c r="DK129">
+        <v>0.2073906</v>
+      </c>
+      <c r="DN129">
+        <v>0.5056079999999999</v>
+      </c>
+      <c r="DS129">
+        <v>0.3059818</v>
+      </c>
+      <c r="DW129">
+        <v>0.1756001</v>
+      </c>
+      <c r="DZ129">
+        <v>0.6113256</v>
+      </c>
+      <c r="EA129">
+        <v>0.299384</v>
+      </c>
+      <c r="EK129">
+        <v>0.3401913</v>
+      </c>
+      <c r="EL129">
+        <v>0.5297134</v>
+      </c>
+      <c r="EM129">
+        <v>0.9611688</v>
+      </c>
+      <c r="EN129">
+        <v>0.492126</v>
+      </c>
+      <c r="ER129">
+        <v>0.9221311</v>
+      </c>
+      <c r="ET129">
+        <v>0.628717</v>
+      </c>
+      <c r="EZ129">
+        <v>0.413845</v>
+      </c>
+      <c r="FA129">
+        <v>0.3446322</v>
+      </c>
+      <c r="FB129">
+        <v>0.3067966</v>
+      </c>
+      <c r="FD129">
+        <v>0.2342908</v>
+      </c>
+      <c r="FE129">
+        <v>0.3904265</v>
+      </c>
+      <c r="FG129">
+        <v>0.6493235000000001</v>
+      </c>
+      <c r="FH129">
+        <v>0.4559271</v>
+      </c>
+      <c r="FI129">
+        <v>0.3929726</v>
+      </c>
+      <c r="FJ129">
+        <v>0.1542964</v>
+      </c>
+      <c r="FL129">
+        <v>0.3071912</v>
+      </c>
+      <c r="FO129">
+        <v>0.5797101</v>
+      </c>
+      <c r="FR129">
+        <v>0.1324503</v>
+      </c>
+      <c r="FS129">
+        <v>0.1429426</v>
+      </c>
+      <c r="FY129">
+        <v>1.0669782</v>
+      </c>
+      <c r="GB129">
+        <v>0.4409171</v>
+      </c>
+      <c r="GC129">
+        <v>0.3252273</v>
+      </c>
+      <c r="GD129">
+        <v>0.2862372</v>
+      </c>
+      <c r="GE129">
+        <v>0.4118814</v>
+      </c>
+      <c r="GF129">
+        <v>0.4975464</v>
+      </c>
+      <c r="GJ129">
+        <v>0.3578047</v>
+      </c>
+      <c r="GS129">
+        <v>0.3520444</v>
+      </c>
+      <c r="GV129">
+        <v>0.5001563</v>
+      </c>
+      <c r="HA129">
+        <v>0.1574089</v>
+      </c>
+      <c r="HF129">
+        <v>0.2697384</v>
+      </c>
+      <c r="HH129">
+        <v>0.5178908</v>
+      </c>
+      <c r="HK129">
+        <v>0.5682484</v>
+      </c>
+      <c r="HL129">
+        <v>0.2622249</v>
+      </c>
+      <c r="HN129">
+        <v>0.3713207</v>
+      </c>
+      <c r="HO129">
+        <v>0.7599581</v>
+      </c>
+      <c r="HP129">
+        <v>0</v>
+      </c>
+      <c r="HT129">
+        <v>0.2712323</v>
+      </c>
+      <c r="HV129">
+        <v>0.4657201</v>
+      </c>
+      <c r="HX129">
+        <v>0.2427955</v>
+      </c>
+      <c r="HY129">
+        <v>0.2961351</v>
+      </c>
+      <c r="IC129">
+        <v>0.6940874</v>
+      </c>
+      <c r="IE129">
+        <v>0.7383041</v>
+      </c>
+      <c r="IH129">
+        <v>0.3460208</v>
+      </c>
+      <c r="II129">
+        <v>0.4462144</v>
+      </c>
+      <c r="IN129">
+        <v>0.5687971000000001</v>
+      </c>
+      <c r="IR129">
+        <v>0.203252</v>
+      </c>
+      <c r="IS129">
+        <v>0</v>
+      </c>
+      <c r="IZ129">
+        <v>0</v>
+      </c>
+      <c r="JB129">
+        <v>0.7916071</v>
+      </c>
+      <c r="JF129">
+        <v>0.6116208</v>
+      </c>
+      <c r="JG129">
+        <v>0.4216909</v>
+      </c>
+      <c r="JK129">
+        <v>0.2065077</v>
+      </c>
+      <c r="JO129">
+        <v>0.1790977</v>
+      </c>
+      <c r="JR129">
+        <v>0.6029218</v>
+      </c>
+      <c r="JS129">
+        <v>0.308642</v>
+      </c>
+      <c r="JX129">
+        <v>0.8575245</v>
+      </c>
+      <c r="KB129">
+        <v>0.3272758</v>
+      </c>
+      <c r="KC129">
+        <v>1.0537296</v>
+      </c>
+      <c r="KI129">
+        <v>0.2207052</v>
+      </c>
+      <c r="KJ129">
+        <v>0.5301205</v>
+      </c>
+      <c r="KO129">
+        <v>0.251962</v>
+      </c>
+      <c r="KV129">
+        <v>0.8954599</v>
+      </c>
+      <c r="KW129">
+        <v>0.4480458</v>
+      </c>
+      <c r="LD129">
+        <v>0.3755456</v>
+      </c>
+      <c r="LG129">
+        <v>0.3716189</v>
+      </c>
+      <c r="LH129">
+        <v>0.3619691</v>
+      </c>
+      <c r="LO129">
+        <v>0.0707714</v>
+      </c>
+      <c r="LR129">
+        <v>0</v>
+      </c>
+      <c r="LW129">
+        <v>0.0868056</v>
+      </c>
+      <c r="LX129">
+        <v>0.7936508</v>
+      </c>
+      <c r="LY129">
+        <v>0.3446834</v>
+      </c>
+      <c r="MA129">
+        <v>0.1866187</v>
+      </c>
+      <c r="MC129">
+        <v>1.0703364</v>
+      </c>
+      <c r="ME129">
+        <v>0</v>
+      </c>
+      <c r="MF129">
+        <v>0.6089574</v>
+      </c>
+      <c r="MG129">
+        <v>0.4776465</v>
+      </c>
+      <c r="MI129">
+        <v>0.493769</v>
+      </c>
+      <c r="ML129">
+        <v>0.2274204</v>
+      </c>
+      <c r="MN129">
+        <v>0.3909383</v>
+      </c>
+      <c r="MS129">
+        <v>0.4043596</v>
+      </c>
+      <c r="MU129">
+        <v>0.9743577</v>
+      </c>
+      <c r="MW129">
+        <v>0.3182461</v>
+      </c>
+      <c r="MX129">
+        <v>0.5840044</v>
+      </c>
+      <c r="MZ129">
+        <v>0.2638782</v>
+      </c>
+      <c r="NC129">
+        <v>0.3788923</v>
+      </c>
+      <c r="NE129">
+        <v>0.6230159</v>
+      </c>
+      <c r="NM129">
+        <v>0.3394868</v>
+      </c>
+      <c r="NP129">
+        <v>0.1781609</v>
+      </c>
+      <c r="NQ129">
+        <v>0.9045946</v>
+      </c>
+      <c r="NT129">
+        <v>0</v>
+      </c>
+      <c r="NW129">
+        <v>0.147929</v>
+      </c>
+      <c r="NY129">
+        <v>0.1416431</v>
+      </c>
+      <c r="NZ129">
+        <v>0.3914411</v>
+      </c>
+      <c r="OD129">
+        <v>0.346893</v>
+      </c>
+      <c r="OE129">
+        <v>0.3724721</v>
+      </c>
+      <c r="OJ129">
+        <v>0.3637413</v>
+      </c>
+      <c r="OL129">
+        <v>0.4079032</v>
+      </c>
+      <c r="ON129">
+        <v>0.3043832</v>
+      </c>
+      <c r="OP129">
+        <v>0.1269036</v>
+      </c>
+      <c r="OQ129">
+        <v>0.2613635</v>
+      </c>
+      <c r="OR129">
+        <v>0.5332425</v>
+      </c>
+      <c r="OT129">
+        <v>0.3778338</v>
+      </c>
+      <c r="OV129">
+        <v>0.3647118</v>
+      </c>
+      <c r="OX129">
+        <v>0.2469136</v>
+      </c>
+      <c r="PB129">
+        <v>0.5218339</v>
+      </c>
+      <c r="PG129">
+        <v>0.2583751</v>
+      </c>
+      <c r="PJ129">
+        <v>0.4575326</v>
+      </c>
+      <c r="PK129">
+        <v>0</v>
+      </c>
+      <c r="PL129">
+        <v>0.9934319</v>
+      </c>
+      <c r="PM129">
+        <v>0.9952631</v>
+      </c>
+      <c r="PP129">
+        <v>0.596152</v>
+      </c>
+      <c r="PR129">
+        <v>1.1811024</v>
+      </c>
+      <c r="PS129">
+        <v>0.3493682</v>
+      </c>
+      <c r="PY129">
+        <v>0.4333333</v>
+      </c>
+      <c r="QD129">
+        <v>0.3643986</v>
+      </c>
+      <c r="QE129">
+        <v>0.3633758</v>
+      </c>
+      <c r="QF129">
+        <v>0.297619</v>
+      </c>
+      <c r="QK129">
+        <v>0.405727</v>
+      </c>
+      <c r="QN129">
+        <v>0.3498728</v>
+      </c>
+      <c r="QO129">
+        <v>0.5853964</v>
+      </c>
+      <c r="QP129">
+        <v>0.7204675</v>
+      </c>
+      <c r="QS129">
+        <v>0.5605381</v>
+      </c>
+      <c r="QU129">
+        <v>0</v>
+      </c>
+      <c r="QV129">
+        <v>0.4975005</v>
+      </c>
+      <c r="QX129">
+        <v>0.5552034</v>
+      </c>
+      <c r="QY129">
+        <v>0.1284285</v>
+      </c>
+      <c r="RA129">
+        <v>0.304878</v>
+      </c>
+      <c r="RB129">
+        <v>0.210084</v>
+      </c>
+      <c r="RD129">
+        <v>0.4314073</v>
+      </c>
+      <c r="RI129">
+        <v>0.3934625</v>
+      </c>
+      <c r="RL129">
+        <v>0.2645503</v>
+      </c>
+      <c r="RQ129">
+        <v>0.2967359</v>
+      </c>
+      <c r="RT129">
+        <v>0.2909538</v>
+      </c>
+      <c r="RV129">
+        <v>0.2622378</v>
+      </c>
+      <c r="RX129">
+        <v>0.3936993</v>
+      </c>
+      <c r="RY129">
+        <v>0.6675156</v>
+      </c>
+      <c r="SA129">
+        <v>0</v>
+      </c>
+      <c r="SD129">
+        <v>0.6836903</v>
+      </c>
+      <c r="SG129">
+        <v>0.4975929</v>
+      </c>
+      <c r="SH129">
+        <v>0.3947364</v>
+      </c>
+      <c r="SI129">
+        <v>0.5907741</v>
+      </c>
+      <c r="SM129">
+        <v>0.5171878</v>
+      </c>
+      <c r="SO129">
+        <v>0.2287065</v>
+      </c>
+      <c r="SP129">
+        <v>0.0772201</v>
+      </c>
+      <c r="SR129">
+        <v>0.0971036</v>
+      </c>
+      <c r="SW129">
+        <v>0.2824388</v>
+      </c>
+      <c r="SX129">
+        <v>0.8274232</v>
+      </c>
+      <c r="TS129">
+        <v>0.307444</v>
+      </c>
+      <c r="TX129">
+        <v>0.3875565</v>
+      </c>
+      <c r="TY129">
+        <v>0.540695</v>
+      </c>
+      <c r="UA129">
+        <v>0.274223</v>
+      </c>
+      <c r="UE129">
+        <v>0.3246232</v>
+      </c>
+      <c r="UF129">
+        <v>0.2898551</v>
+      </c>
+      <c r="UH129">
+        <v>0.4741641</v>
+      </c>
+      <c r="UI129">
+        <v>0.2583333</v>
+      </c>
+      <c r="UK129">
+        <v>0.1523549</v>
+      </c>
+      <c r="UN129">
+        <v>0.3751058</v>
+      </c>
+      <c r="UP129">
+        <v>0.1355014</v>
+      </c>
+      <c r="US129">
+        <v>0.6484947</v>
+      </c>
+      <c r="UT129">
+        <v>0.32819</v>
+      </c>
+      <c r="UU129">
+        <v>0.9177286</v>
+      </c>
+      <c r="UV129">
+        <v>0.311569</v>
+      </c>
+      <c r="UW129">
+        <v>0.7190571</v>
+      </c>
+      <c r="VA129">
+        <v>0.0583771</v>
+      </c>
+      <c r="VB129">
+        <v>0.5374396</v>
+      </c>
+      <c r="VO129">
+        <v>0.5997024</v>
+      </c>
+      <c r="VP129">
+        <v>0.3109012</v>
+      </c>
+      <c r="VS129">
+        <v>0</v>
+      </c>
+      <c r="VU129">
+        <v>0.6316001</v>
+      </c>
+      <c r="VW129">
+        <v>0.3378378</v>
+      </c>
+      <c r="VX129">
+        <v>0.4838766</v>
+      </c>
+      <c r="VY129">
+        <v>0.7237029</v>
+      </c>
+      <c r="WB129">
+        <v>0.530303</v>
+      </c>
+      <c r="WF129">
+        <v>0.1761556</v>
+      </c>
+      <c r="WG129">
+        <v>0.4700951</v>
+      </c>
+      <c r="WL129">
+        <v>0.492476</v>
+      </c>
+      <c r="WM129">
+        <v>0.3514056</v>
+      </c>
+      <c r="WQ129">
+        <v>0.4157798</v>
+      </c>
+      <c r="WU129">
+        <v>0.1839245</v>
+      </c>
+      <c r="WW129">
+        <v>0.305761</v>
+      </c>
+      <c r="WY129">
+        <v>0.6898455</v>
+      </c>
+      <c r="WZ129">
+        <v>0.429232</v>
+      </c>
+      <c r="XD129">
+        <v>0.4143955</v>
+      </c>
+      <c r="XF129">
+        <v>0.4228018</v>
+      </c>
+      <c r="XG129">
+        <v>0.4940574</v>
+      </c>
+      <c r="XL129">
+        <v>0.2302688</v>
+      </c>
+      <c r="XM129">
+        <v>0.3649714</v>
+      </c>
+      <c r="XT129">
+        <v>0.0660066</v>
+      </c>
+      <c r="XV129">
+        <v>0.3449345</v>
+      </c>
+      <c r="YB129">
+        <v>0.1315574</v>
+      </c>
+      <c r="YD129">
+        <v>0.2539683</v>
+      </c>
+      <c r="YH129">
+        <v>0.0459348</v>
+      </c>
+      <c r="YN129">
+        <v>0.4362212</v>
+      </c>
+      <c r="YO129">
+        <v>0.470549</v>
+      </c>
+      <c r="YQ129">
+        <v>0.2789353</v>
+      </c>
+      <c r="YR129">
+        <v>0.4833606</v>
+      </c>
+      <c r="YX129">
+        <v>0.194823</v>
+      </c>
+      <c r="YY129">
+        <v>0</v>
+      </c>
+      <c r="ZL129">
+        <v>0.2175293</v>
+      </c>
+      <c r="ZM129">
+        <v>0.1652799</v>
+      </c>
+      <c r="ZO129">
+        <v>0.0607199</v>
+      </c>
+      <c r="ZR129">
+        <v>0.1772797</v>
+      </c>
+      <c r="ZS129">
+        <v>0.729927</v>
+      </c>
+      <c r="ZV129">
+        <v>0.316396</v>
+      </c>
+      <c r="ZW129">
+        <v>0.54086</v>
+      </c>
+      <c r="ZX129">
+        <v>0.9546686</v>
+      </c>
+      <c r="ZZ129">
+        <v>0.465571</v>
+      </c>
+      <c r="AAB129">
+        <v>0.5905512000000001</v>
+      </c>
+      <c r="AAC129">
+        <v>0.5589039</v>
+      </c>
+      <c r="AAD129">
+        <v>0.477707</v>
+      </c>
+      <c r="AAF129">
+        <v>0.2214729</v>
+      </c>
+      <c r="AAH129">
+        <v>0.2313476</v>
+      </c>
+      <c r="AAJ129">
+        <v>0.5081423</v>
+      </c>
+      <c r="AAM129">
+        <v>0.4483991</v>
+      </c>
+      <c r="AAP129">
+        <v>0.3290753</v>
+      </c>
+      <c r="AAR129">
+        <v>0.7528292</v>
+      </c>
+      <c r="AAU129">
+        <v>0.5517827</v>
+      </c>
+      <c r="AAV129">
+        <v>0.1127279</v>
+      </c>
+      <c r="AAW129">
+        <v>0.4204701</v>
+      </c>
+      <c r="ABA129">
+        <v>0.1355014</v>
+      </c>
+      <c r="ABC129">
+        <v>0.0209468</v>
+      </c>
+      <c r="ABJ129">
+        <v>0.2893605</v>
+      </c>
+      <c r="ABL129">
+        <v>0.1550396</v>
+      </c>
+      <c r="ABM129">
+        <v>1.0466344</v>
+      </c>
+      <c r="ABN129">
+        <v>0.1388889</v>
+      </c>
+      <c r="ABP129">
+        <v>0.2352681</v>
+      </c>
+      <c r="ABT129">
+        <v>0.2021491</v>
+      </c>
+      <c r="ABV129">
+        <v>0.3877187</v>
+      </c>
+      <c r="ABW129">
+        <v>0.3348863</v>
+      </c>
+      <c r="ABX129">
+        <v>0.5918343</v>
+      </c>
+      <c r="ABY129">
+        <v>0</v>
+      </c>
+      <c r="ABZ129">
+        <v>0.4126386</v>
+      </c>
+      <c r="ACA129">
+        <v>0.1825744</v>
+      </c>
+      <c r="ACE129">
+        <v>0.2345584</v>
+      </c>
+      <c r="ACG129">
+        <v>0.2119625</v>
+      </c>
+      <c r="ACI129">
+        <v>0.3699819</v>
+      </c>
+      <c r="ACJ129">
+        <v>0</v>
+      </c>
+      <c r="ACK129">
+        <v>0</v>
+      </c>
+      <c r="ACM129">
+        <v>0.1085346</v>
+      </c>
+      <c r="ACN129">
+        <v>0.1106633</v>
+      </c>
+      <c r="ACP129">
+        <v>0.3510113</v>
+      </c>
+      <c r="ACU129">
+        <v>0.4595484</v>
+      </c>
+      <c r="ACW129">
+        <v>0.3136498</v>
+      </c>
+      <c r="ACX129">
+        <v>1.2903226</v>
+      </c>
+      <c r="ADP129">
+        <v>0.4229806</v>
+      </c>
+      <c r="ADR129">
+        <v>0.3950954</v>
+      </c>
+      <c r="ADU129">
+        <v>0.9127991</v>
+      </c>
+      <c r="ADV129">
+        <v>0.3414383</v>
+      </c>
+      <c r="AEA129">
+        <v>0.0712429</v>
+      </c>
+      <c r="AEB129">
+        <v>0.5295259</v>
+      </c>
+      <c r="AEF129">
+        <v>0.168102</v>
+      </c>
+      <c r="AEG129">
+        <v>0.1893939</v>
+      </c>
+      <c r="AEH129">
+        <v>0.0768447</v>
+      </c>
+      <c r="AEI129">
+        <v>0.4779734</v>
+      </c>
+      <c r="AEJ129">
+        <v>0.5597192</v>
+      </c>
+      <c r="AEL129">
+        <v>0.1855288</v>
+      </c>
+      <c r="AEU129">
+        <v>0.5515183</v>
+      </c>
+      <c r="AEZ129">
+        <v>0.0838926</v>
+      </c>
+      <c r="AFD129">
+        <v>0.3351792</v>
+      </c>
+      <c r="AFG129">
+        <v>0.1982793</v>
+      </c>
+      <c r="AFH129">
+        <v>0.2370767</v>
+      </c>
+      <c r="AFK129">
+        <v>0.8895073</v>
+      </c>
+      <c r="AFL129">
+        <v>0.060423</v>
+      </c>
+      <c r="AFN129">
+        <v>0.4</v>
+      </c>
+      <c r="AFT129">
+        <v>0.5264017</v>
+      </c>
+      <c r="AFU129">
+        <v>0.8558493</v>
+      </c>
+      <c r="AFX129">
+        <v>0.3065775</v>
+      </c>
+      <c r="AGA129">
+        <v>0.4978569</v>
+      </c>
+      <c r="AGC129">
+        <v>0.5970597</v>
+      </c>
+      <c r="AGE129">
+        <v>0.7731649</v>
+      </c>
+      <c r="AGF129">
+        <v>0.7844529</v>
+      </c>
+      <c r="AGG129">
+        <v>0.3197455</v>
+      </c>
+      <c r="AGL129">
+        <v>0.2379157</v>
+      </c>
+      <c r="AGM129">
+        <v>0.2361764</v>
+      </c>
+      <c r="AGO129">
+        <v>0.4901961</v>
+      </c>
+      <c r="AGP129">
+        <v>0.1496603</v>
+      </c>
+      <c r="AGV129">
+        <v>0</v>
+      </c>
+      <c r="AHA129">
+        <v>0.2595536</v>
+      </c>
+      <c r="AHB129">
+        <v>0.2597134</v>
+      </c>
+      <c r="AHD129">
+        <v>0.5023887</v>
+      </c>
+      <c r="AHH129">
+        <v>0.4597701</v>
+      </c>
+      <c r="AHN129">
+        <v>0.5079862000000001</v>
+      </c>
+      <c r="AHP129">
+        <v>0.212766</v>
+      </c>
+      <c r="AHS129">
+        <v>0.4967043</v>
+      </c>
+      <c r="AHU129">
+        <v>0.2651038</v>
+      </c>
+      <c r="AHX129">
+        <v>0</v>
+      </c>
+      <c r="AIB129">
+        <v>0</v>
+      </c>
+      <c r="AID129">
+        <v>0.4150617</v>
+      </c>
+      <c r="AIE129">
+        <v>0.2985075</v>
+      </c>
+      <c r="AIF129">
+        <v>0.2777778</v>
+      </c>
+      <c r="AII129">
+        <v>0.18069</v>
+      </c>
+      <c r="AIP129">
+        <v>0.412641</v>
+      </c>
+      <c r="AIT129">
+        <v>0.3253959</v>
+      </c>
+      <c r="AIV129">
+        <v>0.4031375</v>
+      </c>
+      <c r="AIY129">
+        <v>0.4957025</v>
+      </c>
+      <c r="AIZ129">
+        <v>0.2841537</v>
+      </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:936">
       <c r="A130" t="s">
         <v>1067</v>
+      </c>
+      <c r="D130">
+        <v>0.4616805</v>
+      </c>
+      <c r="H130">
+        <v>0.2649831</v>
+      </c>
+      <c r="J130">
+        <v>0.9964413</v>
+      </c>
+      <c r="K130">
+        <v>0.3711615</v>
+      </c>
+      <c r="L130">
+        <v>0.152745</v>
+      </c>
+      <c r="P130">
+        <v>0.0537817</v>
+      </c>
+      <c r="R130">
+        <v>1.5529947</v>
+      </c>
+      <c r="U130">
+        <v>0.2723526</v>
+      </c>
+      <c r="X130">
+        <v>0.4013761</v>
+      </c>
+      <c r="Z130">
+        <v>0.5311355</v>
+      </c>
+      <c r="AB130">
+        <v>0.5090312</v>
+      </c>
+      <c r="AD130">
+        <v>0.4810002</v>
+      </c>
+      <c r="AG130">
+        <v>0.4533955</v>
+      </c>
+      <c r="AI130">
+        <v>0.6785507</v>
+      </c>
+      <c r="AN130">
+        <v>0.4584502</v>
+      </c>
+      <c r="AV130">
+        <v>1.1702128</v>
+      </c>
+      <c r="AW130">
+        <v>0.445997</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0.8130081</v>
+      </c>
+      <c r="BC130">
+        <v>0.37157</v>
+      </c>
+      <c r="BF130">
+        <v>0.3297919</v>
+      </c>
+      <c r="BH130">
+        <v>0.3861881</v>
+      </c>
+      <c r="BI130">
+        <v>0.3686656</v>
+      </c>
+      <c r="BJ130">
+        <v>0.5339806</v>
+      </c>
+      <c r="BM130">
+        <v>0.4615385</v>
+      </c>
+      <c r="BR130">
+        <v>0.6210165</v>
+      </c>
+      <c r="BS130">
+        <v>0.2541757</v>
+      </c>
+      <c r="BT130">
+        <v>0.3703704</v>
+      </c>
+      <c r="BW130">
+        <v>0.7196572</v>
+      </c>
+      <c r="BY130">
+        <v>0.2589555</v>
+      </c>
+      <c r="CC130">
+        <v>0.1420455</v>
+      </c>
+      <c r="CE130">
+        <v>0.3754941</v>
+      </c>
+      <c r="CL130">
+        <v>0.4246285</v>
+      </c>
+      <c r="CM130">
+        <v>0.2315974</v>
+      </c>
+      <c r="CN130">
+        <v>0.1282503</v>
+      </c>
+      <c r="CO130">
+        <v>1.3799824</v>
+      </c>
+      <c r="CR130">
+        <v>0.2018796</v>
+      </c>
+      <c r="CT130">
+        <v>0.2525253</v>
+      </c>
+      <c r="CY130">
+        <v>0.0640669</v>
+      </c>
+      <c r="DC130">
+        <v>0.2617688</v>
+      </c>
+      <c r="DD130">
+        <v>0.0951613</v>
+      </c>
+      <c r="DK130">
+        <v>0.229741</v>
+      </c>
+      <c r="DN130">
+        <v>0.4967356</v>
+      </c>
+      <c r="DS130">
+        <v>0.4891586</v>
+      </c>
+      <c r="DW130">
+        <v>0.1827742</v>
+      </c>
+      <c r="DZ130">
+        <v>0.4882813</v>
+      </c>
+      <c r="EA130">
+        <v>0.1539153</v>
+      </c>
+      <c r="EK130">
+        <v>0.3945212</v>
+      </c>
+      <c r="EL130">
+        <v>0.4374232</v>
+      </c>
+      <c r="EM130">
+        <v>0.2738654</v>
+      </c>
+      <c r="EN130">
+        <v>0.6302521</v>
+      </c>
+      <c r="ER130">
+        <v>0.7</v>
+      </c>
+      <c r="ET130">
+        <v>0.5752046</v>
+      </c>
+      <c r="EZ130">
+        <v>0.5504935</v>
+      </c>
+      <c r="FA130">
+        <v>0.2686882</v>
+      </c>
+      <c r="FB130">
+        <v>0.2514314</v>
+      </c>
+      <c r="FD130">
+        <v>0.2556883</v>
+      </c>
+      <c r="FE130">
+        <v>0.3904238</v>
+      </c>
+      <c r="FG130">
+        <v>0.5507737</v>
+      </c>
+      <c r="FH130">
+        <v>0.304878</v>
+      </c>
+      <c r="FI130">
+        <v>0.3843486</v>
+      </c>
+      <c r="FJ130">
+        <v>0.2310118</v>
+      </c>
+      <c r="FL130">
+        <v>0.2832912</v>
+      </c>
+      <c r="FO130">
+        <v>0.9287926</v>
+      </c>
+      <c r="FR130">
+        <v>0.1355932</v>
+      </c>
+      <c r="FS130">
+        <v>0.1584539</v>
+      </c>
+      <c r="FY130">
+        <v>0.9605911</v>
+      </c>
+      <c r="GB130">
+        <v>0.39783</v>
+      </c>
+      <c r="GC130">
+        <v>0.3094977</v>
+      </c>
+      <c r="GD130">
+        <v>0.0855279</v>
+      </c>
+      <c r="GE130">
+        <v>0.3044764</v>
+      </c>
+      <c r="GF130">
+        <v>0.4912018</v>
+      </c>
+      <c r="GJ130">
+        <v>0.2965962</v>
+      </c>
+      <c r="GS130">
+        <v>0.1050277</v>
+      </c>
+      <c r="GV130">
+        <v>0.4846939</v>
+      </c>
+      <c r="HA130">
+        <v>0.360957</v>
+      </c>
+      <c r="HF130">
+        <v>0.3052517</v>
+      </c>
+      <c r="HH130">
+        <v>0.5623722</v>
+      </c>
+      <c r="HK130">
+        <v>0.5642816</v>
+      </c>
+      <c r="HL130">
+        <v>0.3847152</v>
+      </c>
+      <c r="HN130">
+        <v>0.4002219</v>
+      </c>
+      <c r="HO130">
+        <v>0.3787879</v>
+      </c>
+      <c r="HP130">
+        <v>0</v>
+      </c>
+      <c r="HT130">
+        <v>0.2767206</v>
+      </c>
+      <c r="HV130">
+        <v>0.5514787</v>
+      </c>
+      <c r="HX130">
+        <v>0.2603724</v>
+      </c>
+      <c r="HY130">
+        <v>0.2850649</v>
+      </c>
+      <c r="IC130">
+        <v>0.6596306</v>
+      </c>
+      <c r="IE130">
+        <v>0.2752294</v>
+      </c>
+      <c r="IH130">
+        <v>0.2380952</v>
+      </c>
+      <c r="II130">
+        <v>0.324714</v>
+      </c>
+      <c r="IN130">
+        <v>0.4044861</v>
+      </c>
+      <c r="IR130">
+        <v>0.1022495</v>
+      </c>
+      <c r="IS130">
+        <v>0</v>
+      </c>
+      <c r="IZ130">
+        <v>0</v>
+      </c>
+      <c r="JB130">
+        <v>0.8326856</v>
+      </c>
+      <c r="JF130">
+        <v>0.3058104</v>
+      </c>
+      <c r="JG130">
+        <v>0.4443143</v>
+      </c>
+      <c r="JK130">
+        <v>0.2528293</v>
+      </c>
+      <c r="JO130">
+        <v>0.1441501</v>
+      </c>
+      <c r="JR130">
+        <v>0.6747963</v>
+      </c>
+      <c r="JS130">
+        <v>0.2392344</v>
+      </c>
+      <c r="JX130">
+        <v>0.5786424999999999</v>
+      </c>
+      <c r="KB130">
+        <v>0.3717762</v>
+      </c>
+      <c r="KC130">
+        <v>0.9765528</v>
+      </c>
+      <c r="KI130">
+        <v>0.3434262</v>
+      </c>
+      <c r="KJ130">
+        <v>0.5758313</v>
+      </c>
+      <c r="KO130">
+        <v>0.3036462</v>
+      </c>
+      <c r="KV130">
+        <v>0.6224788</v>
+      </c>
+      <c r="KW130">
+        <v>0.4845627</v>
+      </c>
+      <c r="LD130">
+        <v>0.4190079</v>
+      </c>
+      <c r="LG130">
+        <v>0.2916578</v>
+      </c>
+      <c r="LH130">
+        <v>0.1655629</v>
+      </c>
+      <c r="LO130">
+        <v>0.07309939999999999</v>
+      </c>
+      <c r="LR130">
+        <v>0</v>
+      </c>
+      <c r="LW130">
+        <v>0.08896800000000001</v>
+      </c>
+      <c r="LX130">
+        <v>0.8571429</v>
+      </c>
+      <c r="LY130">
+        <v>0.250063</v>
+      </c>
+      <c r="MA130">
+        <v>0.2137688</v>
+      </c>
+      <c r="MC130">
+        <v>1.1006289</v>
+      </c>
+      <c r="ME130">
+        <v>0</v>
+      </c>
+      <c r="MF130">
+        <v>0.4450774</v>
+      </c>
+      <c r="MG130">
+        <v>0.4895268</v>
+      </c>
+      <c r="MI130">
+        <v>0.4378484</v>
+      </c>
+      <c r="ML130">
+        <v>0.2319417</v>
+      </c>
+      <c r="MN130">
+        <v>0.4430699</v>
+      </c>
+      <c r="MS130">
+        <v>0.5539692000000001</v>
+      </c>
+      <c r="MU130">
+        <v>0.8136704</v>
+      </c>
+      <c r="MW130">
+        <v>0.07251630000000001</v>
+      </c>
+      <c r="MX130">
+        <v>0.4518981</v>
+      </c>
+      <c r="MZ130">
+        <v>0.3464904</v>
+      </c>
+      <c r="NC130">
+        <v>0.3590507</v>
+      </c>
+      <c r="NE130">
+        <v>0.3867624</v>
+      </c>
+      <c r="NM130">
+        <v>0.2993382</v>
+      </c>
+      <c r="NP130">
+        <v>0.1838671</v>
+      </c>
+      <c r="NQ130">
+        <v>0.6855888999999999</v>
+      </c>
+      <c r="NT130">
+        <v>0</v>
+      </c>
+      <c r="NW130">
+        <v>0.154321</v>
+      </c>
+      <c r="NY130">
+        <v>0.1515152</v>
+      </c>
+      <c r="NZ130">
+        <v>0.4409974</v>
+      </c>
+      <c r="OD130">
+        <v>0.257747</v>
+      </c>
+      <c r="OE130">
+        <v>0.3774278</v>
+      </c>
+      <c r="OJ130">
+        <v>0.1385542</v>
+      </c>
+      <c r="OL130">
+        <v>0.4748077</v>
+      </c>
+      <c r="ON130">
+        <v>0.3135343</v>
+      </c>
+      <c r="OP130">
+        <v>0.1315789</v>
+      </c>
+      <c r="OQ130">
+        <v>0.2627874</v>
+      </c>
+      <c r="OR130">
+        <v>0.5815779</v>
+      </c>
+      <c r="OT130">
+        <v>0.3926702</v>
+      </c>
+      <c r="OV130">
+        <v>0.5004971</v>
+      </c>
+      <c r="OX130">
+        <v>0.1960784</v>
+      </c>
+      <c r="PB130">
+        <v>0.6109772999999999</v>
+      </c>
+      <c r="PG130">
+        <v>0.2940101</v>
+      </c>
+      <c r="PJ130">
+        <v>0.3032013</v>
+      </c>
+      <c r="PK130">
+        <v>0</v>
+      </c>
+      <c r="PL130">
+        <v>0.7026144</v>
+      </c>
+      <c r="PM130">
+        <v>0.8107398</v>
+      </c>
+      <c r="PP130">
+        <v>0.8340518</v>
+      </c>
+      <c r="PR130">
+        <v>0.9114583000000001</v>
+      </c>
+      <c r="PS130">
+        <v>0.3904958</v>
+      </c>
+      <c r="PY130">
+        <v>0.4910097</v>
+      </c>
+      <c r="QD130">
+        <v>0.3215316</v>
+      </c>
+      <c r="QE130">
+        <v>0.327679</v>
+      </c>
+      <c r="QF130">
+        <v>0.6079027</v>
+      </c>
+      <c r="QK130">
+        <v>0.3487392</v>
+      </c>
+      <c r="QN130">
+        <v>0.3466667</v>
+      </c>
+      <c r="QO130">
+        <v>0.6065543</v>
+      </c>
+      <c r="QP130">
+        <v>0.6166055</v>
+      </c>
+      <c r="QS130">
+        <v>0.7777778</v>
+      </c>
+      <c r="QU130">
+        <v>0.462963</v>
+      </c>
+      <c r="QV130">
+        <v>0.4225362</v>
+      </c>
+      <c r="QX130">
+        <v>0.5293864</v>
+      </c>
+      <c r="QY130">
+        <v>0.1975046</v>
+      </c>
+      <c r="RB130">
+        <v>0.2086811</v>
+      </c>
+      <c r="RD130">
+        <v>0.3269921</v>
+      </c>
+      <c r="RI130">
+        <v>0.2653302</v>
+      </c>
+      <c r="RL130">
+        <v>0.3890007</v>
+      </c>
+      <c r="RQ130">
+        <v>0.3194888</v>
+      </c>
+      <c r="RT130">
+        <v>0.1228874</v>
+      </c>
+      <c r="RV130">
+        <v>0.2727273</v>
+      </c>
+      <c r="RX130">
+        <v>0.3604999</v>
+      </c>
+      <c r="RY130">
+        <v>0.7591201</v>
+      </c>
+      <c r="SA130">
+        <v>0</v>
+      </c>
+      <c r="SD130">
+        <v>0.6638196</v>
+      </c>
+      <c r="SG130">
+        <v>0.5017845</v>
+      </c>
+      <c r="SH130">
+        <v>0.365103</v>
+      </c>
+      <c r="SI130">
+        <v>0.6766265</v>
+      </c>
+      <c r="SM130">
+        <v>0.361817</v>
+      </c>
+      <c r="SO130">
+        <v>0.3903745</v>
+      </c>
+      <c r="SP130">
+        <v>0.0763359</v>
+      </c>
+      <c r="SR130">
+        <v>0.09250319999999999</v>
+      </c>
+      <c r="SW130">
+        <v>0.3275223</v>
+      </c>
+      <c r="SX130">
+        <v>0.8393285</v>
+      </c>
+      <c r="TS130">
+        <v>0.4467282</v>
+      </c>
+      <c r="TX130">
+        <v>0.4378844</v>
+      </c>
+      <c r="TY130">
+        <v>0.5337724</v>
+      </c>
+      <c r="UA130">
+        <v>0.3759398</v>
+      </c>
+      <c r="UE130">
+        <v>0.3920243</v>
+      </c>
+      <c r="UF130">
+        <v>0.4249292</v>
+      </c>
+      <c r="UH130">
+        <v>0.4822474</v>
+      </c>
+      <c r="UI130">
+        <v>0.4336735</v>
+      </c>
+      <c r="UK130">
+        <v>0.3084557</v>
+      </c>
+      <c r="UN130">
+        <v>0.2729628</v>
+      </c>
+      <c r="UP130">
+        <v>0</v>
+      </c>
+      <c r="US130">
+        <v>0.907034</v>
+      </c>
+      <c r="UT130">
+        <v>0.2236343</v>
+      </c>
+      <c r="UU130">
+        <v>0.792042</v>
+      </c>
+      <c r="UV130">
+        <v>0.3229195</v>
+      </c>
+      <c r="UW130">
+        <v>0.614907</v>
+      </c>
+      <c r="VA130">
+        <v>0.0602773</v>
+      </c>
+      <c r="VB130">
+        <v>0.6598738</v>
+      </c>
+      <c r="VO130">
+        <v>0.4022637</v>
+      </c>
+      <c r="VP130">
+        <v>0.8026842</v>
+      </c>
+      <c r="VS130">
+        <v>0</v>
+      </c>
+      <c r="VU130">
+        <v>0.6378445</v>
+      </c>
+      <c r="VW130">
+        <v>0.3537736</v>
+      </c>
+      <c r="VX130">
+        <v>0.7241185</v>
+      </c>
+      <c r="VY130">
+        <v>0.6392489</v>
+      </c>
+      <c r="WB130">
+        <v>0.5279035</v>
+      </c>
+      <c r="WF130">
+        <v>0.3220118</v>
+      </c>
+      <c r="WG130">
+        <v>0.4909359</v>
+      </c>
+      <c r="WL130">
+        <v>0.4722674</v>
+      </c>
+      <c r="WM130">
+        <v>0.3623188</v>
+      </c>
+      <c r="WQ130">
+        <v>0.3293556</v>
+      </c>
+      <c r="WU130">
+        <v>0.1863825</v>
+      </c>
+      <c r="WW130">
+        <v>0.3167687</v>
+      </c>
+      <c r="WY130">
+        <v>0.462963</v>
+      </c>
+      <c r="WZ130">
+        <v>0.4056025</v>
+      </c>
+      <c r="XD130">
+        <v>0.4721482</v>
+      </c>
+      <c r="XF130">
+        <v>0.2596352</v>
+      </c>
+      <c r="XG130">
+        <v>0.4484667</v>
+      </c>
+      <c r="XL130">
+        <v>0.2724038</v>
+      </c>
+      <c r="XM130">
+        <v>0.365046</v>
+      </c>
+      <c r="XT130">
+        <v>0.0680272</v>
+      </c>
+      <c r="XV130">
+        <v>0.3104666</v>
+      </c>
+      <c r="YB130">
+        <v>0.1303249</v>
+      </c>
+      <c r="YD130">
+        <v>0.2661344</v>
+      </c>
+      <c r="YH130">
+        <v>0.047619</v>
+      </c>
+      <c r="YN130">
+        <v>0.4739177</v>
+      </c>
+      <c r="YO130">
+        <v>0.4985728</v>
+      </c>
+      <c r="YQ130">
+        <v>0.2410376</v>
+      </c>
+      <c r="YR130">
+        <v>0.5025697</v>
+      </c>
+      <c r="YX130">
+        <v>0.1698922</v>
+      </c>
+      <c r="YY130">
+        <v>0.110011</v>
+      </c>
+      <c r="ZL130">
+        <v>0.3208418</v>
+      </c>
+      <c r="ZM130">
+        <v>0.1073328</v>
+      </c>
+      <c r="ZO130">
+        <v>0.157242</v>
+      </c>
+      <c r="ZR130">
+        <v>0.2387868</v>
+      </c>
+      <c r="ZS130">
+        <v>0.3703704</v>
+      </c>
+      <c r="ZV130">
+        <v>0.3131289</v>
+      </c>
+      <c r="ZW130">
+        <v>0.4213953</v>
+      </c>
+      <c r="ZX130">
+        <v>0.9830036</v>
+      </c>
+      <c r="ZZ130">
+        <v>0.2145562</v>
+      </c>
+      <c r="AAB130">
+        <v>0.5859375</v>
+      </c>
+      <c r="AAC130">
+        <v>0.4898429</v>
+      </c>
+      <c r="AAD130">
+        <v>0.4726891</v>
+      </c>
+      <c r="AAF130">
+        <v>0.1735707</v>
+      </c>
+      <c r="AAH130">
+        <v>0.2468374</v>
+      </c>
+      <c r="AAJ130">
+        <v>0.5622001</v>
+      </c>
+      <c r="AAM130">
+        <v>0.3711475</v>
+      </c>
+      <c r="AAP130">
+        <v>0.3094272</v>
+      </c>
+      <c r="AAR130">
+        <v>0.6785212</v>
+      </c>
+      <c r="AAU130">
+        <v>0.5508475</v>
+      </c>
+      <c r="AAV130">
+        <v>0.116382</v>
+      </c>
+      <c r="AAW130">
+        <v>0.3477267</v>
+      </c>
+      <c r="ABA130">
+        <v>0.1412429</v>
+      </c>
+      <c r="ABC130">
+        <v>0.1436782</v>
+      </c>
+      <c r="ABJ130">
+        <v>0.3532278</v>
+      </c>
+      <c r="ABL130">
+        <v>0.1573877</v>
+      </c>
+      <c r="ABM130">
+        <v>1.0200433</v>
+      </c>
+      <c r="ABN130">
+        <v>0.140647</v>
+      </c>
+      <c r="ABP130">
+        <v>0.1912731</v>
+      </c>
+      <c r="ABT130">
+        <v>0.2033351</v>
+      </c>
+      <c r="ABV130">
+        <v>0.4122846</v>
+      </c>
+      <c r="ABW130">
+        <v>0.3582518</v>
+      </c>
+      <c r="ABX130">
+        <v>0.4148053</v>
+      </c>
+      <c r="ABY130">
+        <v>0</v>
+      </c>
+      <c r="ABZ130">
+        <v>0.3330754</v>
+      </c>
+      <c r="ACA130">
+        <v>0.1985366</v>
+      </c>
+      <c r="ACE130">
+        <v>0.2489354</v>
+      </c>
+      <c r="ACG130">
+        <v>0.1971073</v>
+      </c>
+      <c r="ACI130">
+        <v>0.3754604</v>
+      </c>
+      <c r="ACJ130">
+        <v>0</v>
+      </c>
+      <c r="ACK130">
+        <v>0</v>
+      </c>
+      <c r="ACM130">
+        <v>0.1358748</v>
+      </c>
+      <c r="ACN130">
+        <v>0.1175685</v>
+      </c>
+      <c r="ACP130">
+        <v>0.3609603</v>
+      </c>
+      <c r="ACU130">
+        <v>0.3924966</v>
+      </c>
+      <c r="ACW130">
+        <v>0.2945479</v>
+      </c>
+      <c r="ACX130">
+        <v>0.6578947000000001</v>
+      </c>
+      <c r="ADP130">
+        <v>0.6152801</v>
+      </c>
+      <c r="ADR130">
+        <v>0.3612717</v>
+      </c>
+      <c r="ADU130">
+        <v>0.9790022</v>
+      </c>
+      <c r="ADV130">
+        <v>0.394025</v>
+      </c>
+      <c r="AEA130">
+        <v>0.0268727</v>
+      </c>
+      <c r="AEB130">
+        <v>0.6023328</v>
+      </c>
+      <c r="AEF130">
+        <v>0.2241315</v>
+      </c>
+      <c r="AEG130">
+        <v>0.1934524</v>
+      </c>
+      <c r="AEH130">
+        <v>0.1045897</v>
+      </c>
+      <c r="AEI130">
+        <v>0.4886026</v>
+      </c>
+      <c r="AEJ130">
+        <v>0.7243467</v>
+      </c>
+      <c r="AEL130">
+        <v>0.1949318</v>
+      </c>
+      <c r="AEU130">
+        <v>0.3724387</v>
+      </c>
+      <c r="AEZ130">
+        <v>0.0865052</v>
+      </c>
+      <c r="AFD130">
+        <v>0.3091602</v>
+      </c>
+      <c r="AFG130">
+        <v>0.1426181</v>
+      </c>
+      <c r="AFH130">
+        <v>0.2039736</v>
+      </c>
+      <c r="AFK130">
+        <v>0.5578324</v>
+      </c>
+      <c r="AFL130">
+        <v>0</v>
+      </c>
+      <c r="AFN130">
+        <v>0.4201681</v>
+      </c>
+      <c r="AFT130">
+        <v>0.4778507</v>
+      </c>
+      <c r="AFU130">
+        <v>0.7112736</v>
+      </c>
+      <c r="AFX130">
+        <v>0.3107345</v>
+      </c>
+      <c r="AGA130">
+        <v>0.4427991</v>
+      </c>
+      <c r="AGC130">
+        <v>0.5344596</v>
+      </c>
+      <c r="AGE130">
+        <v>0.8621554</v>
+      </c>
+      <c r="AGF130">
+        <v>0.4305181</v>
+      </c>
+      <c r="AGG130">
+        <v>0.325538</v>
+      </c>
+      <c r="AGL130">
+        <v>0.2766405</v>
+      </c>
+      <c r="AGM130">
+        <v>0.2394792</v>
+      </c>
+      <c r="AGO130">
+        <v>0.9694719000000001</v>
+      </c>
+      <c r="AGP130">
+        <v>0.1512247</v>
+      </c>
+      <c r="AGV130">
+        <v>0</v>
+      </c>
+      <c r="AHA130">
+        <v>0.2468098</v>
+      </c>
+      <c r="AHB130">
+        <v>0.2534628</v>
+      </c>
+      <c r="AHD130">
+        <v>0.5225141</v>
+      </c>
+      <c r="AHH130">
+        <v>0.4662005</v>
+      </c>
+      <c r="AHN130">
+        <v>0.4617652</v>
+      </c>
+      <c r="AHP130">
+        <v>0.2192982</v>
+      </c>
+      <c r="AHS130">
+        <v>0.4981114</v>
+      </c>
+      <c r="AHU130">
+        <v>0.2668499</v>
+      </c>
+      <c r="AHX130">
+        <v>0.1443001</v>
+      </c>
+      <c r="AIB130">
+        <v>0</v>
+      </c>
+      <c r="AID130">
+        <v>0.4740703</v>
+      </c>
+      <c r="AIE130">
+        <v>0.3058104</v>
+      </c>
+      <c r="AIF130">
+        <v>0.2869757</v>
+      </c>
+      <c r="AII130">
+        <v>0.0611147</v>
+      </c>
+      <c r="AIP130">
+        <v>0.3587482</v>
+      </c>
+      <c r="AIT130">
+        <v>0.3873324</v>
+      </c>
+      <c r="AIV130">
+        <v>0.5261165</v>
+      </c>
+      <c r="AIY130">
+        <v>0.5072734</v>
+      </c>
+      <c r="AIZ130">
+        <v>0.3575518</v>
+      </c>
+    </row>
+    <row r="131" spans="1:936">
+      <c r="A131" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D131">
+        <v>0.8165226</v>
+      </c>
+      <c r="H131">
+        <v>0.2205733</v>
+      </c>
+      <c r="J131">
+        <v>1.2686567</v>
+      </c>
+      <c r="K131">
+        <v>0.4427157</v>
+      </c>
+      <c r="L131">
+        <v>0.1109442</v>
+      </c>
+      <c r="P131">
+        <v>0.0735198</v>
+      </c>
+      <c r="R131">
+        <v>1.4152514</v>
+      </c>
+      <c r="U131">
+        <v>0.2654318</v>
+      </c>
+      <c r="X131">
+        <v>0.1838235</v>
+      </c>
+      <c r="Z131">
+        <v>0.4278075</v>
+      </c>
+      <c r="AB131">
+        <v>0.8792966</v>
+      </c>
+      <c r="AD131">
+        <v>0.6077919000000001</v>
+      </c>
+      <c r="AG131">
+        <v>0.4616766</v>
+      </c>
+      <c r="AI131">
+        <v>0.4298379</v>
+      </c>
+      <c r="AN131">
+        <v>0.5001295</v>
+      </c>
+      <c r="AV131">
+        <v>1.1506276</v>
+      </c>
+      <c r="AW131">
+        <v>0.4402315</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0.8782200999999999</v>
+      </c>
+      <c r="BC131">
+        <v>0.3825282</v>
+      </c>
+      <c r="BF131">
+        <v>0.3801546</v>
+      </c>
+      <c r="BH131">
+        <v>0.3807167</v>
+      </c>
+      <c r="BI131">
+        <v>0.4157243</v>
+      </c>
+      <c r="BJ131">
+        <v>0.498008</v>
+      </c>
+      <c r="BM131">
+        <v>0.6153845999999999</v>
+      </c>
+      <c r="BR131">
+        <v>0.7282546</v>
+      </c>
+      <c r="BS131">
+        <v>0.3253796</v>
+      </c>
+      <c r="BT131">
+        <v>0.3851541</v>
+      </c>
+      <c r="BW131">
+        <v>0.4095924</v>
+      </c>
+      <c r="BY131">
+        <v>0.2653693</v>
+      </c>
+      <c r="CC131">
+        <v>0.148368</v>
+      </c>
+      <c r="CE131">
+        <v>0.392562</v>
+      </c>
+      <c r="CL131">
+        <v>0.4444444</v>
+      </c>
+      <c r="CM131">
+        <v>0.3903989</v>
+      </c>
+      <c r="CN131">
+        <v>0.1930912</v>
+      </c>
+      <c r="CO131">
+        <v>1.555162</v>
+      </c>
+      <c r="CR131">
+        <v>0.1982771</v>
+      </c>
+      <c r="CT131">
+        <v>0.2570694</v>
+      </c>
+      <c r="CY131">
+        <v>0.0742978</v>
+      </c>
+      <c r="DC131">
+        <v>0.257595</v>
+      </c>
+      <c r="DD131">
+        <v>0.2077964</v>
+      </c>
+      <c r="DK131">
+        <v>0.1484309</v>
+      </c>
+      <c r="DN131">
+        <v>0.5025648</v>
+      </c>
+      <c r="DS131">
+        <v>0.4988457</v>
+      </c>
+      <c r="DW131">
+        <v>0.1714576</v>
+      </c>
+      <c r="DZ131">
+        <v>0.6506651</v>
+      </c>
+      <c r="EA131">
+        <v>0.3077788</v>
+      </c>
+      <c r="EK131">
+        <v>0.4400105</v>
+      </c>
+      <c r="EL131">
+        <v>0.4447194</v>
+      </c>
+      <c r="EM131">
+        <v>0.2807862</v>
+      </c>
+      <c r="EN131">
+        <v>0.8264463</v>
+      </c>
+      <c r="ER131">
+        <v>0.6862745</v>
+      </c>
+      <c r="ET131">
+        <v>0.6945642</v>
+      </c>
+      <c r="EZ131">
+        <v>0.3880719</v>
+      </c>
+      <c r="FA131">
+        <v>0.1954104</v>
+      </c>
+      <c r="FB131">
+        <v>0.2553488</v>
+      </c>
+      <c r="FD131">
+        <v>0.2386567</v>
+      </c>
+      <c r="FE131">
+        <v>0.4012186</v>
+      </c>
+      <c r="FG131">
+        <v>0.5134412</v>
+      </c>
+      <c r="FH131">
+        <v>0.3205128</v>
+      </c>
+      <c r="FI131">
+        <v>0.380916</v>
+      </c>
+      <c r="FJ131">
+        <v>0.075</v>
+      </c>
+      <c r="FL131">
+        <v>0.3354343</v>
+      </c>
+      <c r="FO131">
+        <v>0.8982036</v>
+      </c>
+      <c r="FR131">
+        <v>0.1305712</v>
+      </c>
+      <c r="FS131">
+        <v>0.1902673</v>
+      </c>
+      <c r="FY131">
+        <v>0.9466019</v>
+      </c>
+      <c r="GB131">
+        <v>0.3201507</v>
+      </c>
+      <c r="GC131">
+        <v>0.2205583</v>
+      </c>
+      <c r="GD131">
+        <v>0.1434902</v>
+      </c>
+      <c r="GE131">
+        <v>0.3453529</v>
+      </c>
+      <c r="GF131">
+        <v>0.5243694</v>
+      </c>
+      <c r="GJ131">
+        <v>0.3261942</v>
+      </c>
+      <c r="GS131">
+        <v>0.3301897</v>
+      </c>
+      <c r="GV131">
+        <v>0.3810705</v>
+      </c>
+      <c r="HA131">
+        <v>0.7801975</v>
+      </c>
+      <c r="HF131">
+        <v>0.4153145</v>
+      </c>
+      <c r="HH131">
+        <v>0.4219409</v>
+      </c>
+      <c r="HK131">
+        <v>0.5900242999999999</v>
+      </c>
+      <c r="HL131">
+        <v>0.5228334</v>
+      </c>
+      <c r="HN131">
+        <v>0.3665411</v>
+      </c>
+      <c r="HO131">
+        <v>0.5145929</v>
+      </c>
+      <c r="HP131">
+        <v>0</v>
+      </c>
+      <c r="HT131">
+        <v>0.21973</v>
+      </c>
+      <c r="HV131">
+        <v>0.5690592</v>
+      </c>
+      <c r="HX131">
+        <v>0.2512794</v>
+      </c>
+      <c r="HY131">
+        <v>0.2962743</v>
+      </c>
+      <c r="IC131">
+        <v>0.6720429999999999</v>
+      </c>
+      <c r="IE131">
+        <v>0.2293578</v>
+      </c>
+      <c r="IH131">
+        <v>0.2331002</v>
+      </c>
+      <c r="II131">
+        <v>0.3864565</v>
+      </c>
+      <c r="IN131">
+        <v>0.3633625</v>
+      </c>
+      <c r="IR131">
+        <v>0.105042</v>
+      </c>
+      <c r="IS131">
+        <v>0</v>
+      </c>
+      <c r="IZ131">
+        <v>0.2478315</v>
+      </c>
+      <c r="JB131">
+        <v>0.7605898</v>
+      </c>
+      <c r="JF131">
+        <v>0.3955696</v>
+      </c>
+      <c r="JG131">
+        <v>0.4247952</v>
+      </c>
+      <c r="JK131">
+        <v>0.487705</v>
+      </c>
+      <c r="JO131">
+        <v>0.2268493</v>
+      </c>
+      <c r="JR131">
+        <v>0.6054172</v>
+      </c>
+      <c r="JS131">
+        <v>0.2403846</v>
+      </c>
+      <c r="JX131">
+        <v>0.7030486</v>
+      </c>
+      <c r="KB131">
+        <v>0.3907071</v>
+      </c>
+      <c r="KC131">
+        <v>0.9066488</v>
+      </c>
+      <c r="KI131">
+        <v>0.3339636</v>
+      </c>
+      <c r="KJ131">
+        <v>0.5661882</v>
+      </c>
+      <c r="KO131">
+        <v>0.2984044</v>
+      </c>
+      <c r="KV131">
+        <v>0.5631944</v>
+      </c>
+      <c r="KW131">
+        <v>0.5116558</v>
+      </c>
+      <c r="LD131">
+        <v>0.5287639</v>
+      </c>
+      <c r="LG131">
+        <v>0.2958334</v>
+      </c>
+      <c r="LH131">
+        <v>0.1706485</v>
+      </c>
+      <c r="LO131">
+        <v>0</v>
+      </c>
+      <c r="LR131">
+        <v>0</v>
+      </c>
+      <c r="LW131">
+        <v>0.0892857</v>
+      </c>
+      <c r="LX131">
+        <v>0.6944444</v>
+      </c>
+      <c r="LY131">
+        <v>0.4573985</v>
+      </c>
+      <c r="MA131">
+        <v>0.2488788</v>
+      </c>
+      <c r="MC131">
+        <v>0.5208333000000001</v>
+      </c>
+      <c r="ME131">
+        <v>0</v>
+      </c>
+      <c r="MF131">
+        <v>0.3102322</v>
+      </c>
+      <c r="MG131">
+        <v>0.3629572</v>
+      </c>
+      <c r="MI131">
+        <v>0.538148</v>
+      </c>
+      <c r="ML131">
+        <v>0.1732502</v>
+      </c>
+      <c r="MN131">
+        <v>0.5178594</v>
+      </c>
+      <c r="MS131">
+        <v>0.4556362</v>
+      </c>
+      <c r="MU131">
+        <v>0.694122</v>
+      </c>
+      <c r="MW131">
+        <v>0.3313697</v>
+      </c>
+      <c r="MX131">
+        <v>0.7026790000000001</v>
+      </c>
+      <c r="MZ131">
+        <v>0.2856855</v>
+      </c>
+      <c r="NC131">
+        <v>0.3455194</v>
+      </c>
+      <c r="NE131">
+        <v>0.3962418</v>
+      </c>
+      <c r="NM131">
+        <v>0.2935046</v>
+      </c>
+      <c r="NP131">
+        <v>0.4212792</v>
+      </c>
+      <c r="NQ131">
+        <v>0.3724395</v>
+      </c>
+      <c r="NT131">
+        <v>0</v>
+      </c>
+      <c r="NW131">
+        <v>0.1552795</v>
+      </c>
+      <c r="NY131">
+        <v>0.1607717</v>
+      </c>
+      <c r="NZ131">
+        <v>0.4589539</v>
+      </c>
+      <c r="OD131">
+        <v>0.2662591</v>
+      </c>
+      <c r="OE131">
+        <v>0.4520573</v>
+      </c>
+      <c r="OJ131">
+        <v>0.1382212</v>
+      </c>
+      <c r="OL131">
+        <v>0.5084794</v>
+      </c>
+      <c r="ON131">
+        <v>0.5719532000000001</v>
+      </c>
+      <c r="OP131">
+        <v>0.1428571</v>
+      </c>
+      <c r="OQ131">
+        <v>0.3310439</v>
+      </c>
+      <c r="OR131">
+        <v>0.6259206</v>
+      </c>
+      <c r="OT131">
+        <v>0.3937008</v>
+      </c>
+      <c r="OV131">
+        <v>0.4367603</v>
+      </c>
+      <c r="OX131">
+        <v>0.1031593</v>
+      </c>
+      <c r="PB131">
+        <v>0.8237370000000001</v>
+      </c>
+      <c r="PG131">
+        <v>0.3004673</v>
+      </c>
+      <c r="PJ131">
+        <v>0.1500125</v>
+      </c>
+      <c r="PK131">
+        <v>0</v>
+      </c>
+      <c r="PL131">
+        <v>0.4397537</v>
+      </c>
+      <c r="PM131">
+        <v>0.8471971</v>
+      </c>
+      <c r="PP131">
+        <v>0.7949406</v>
+      </c>
+      <c r="PR131">
+        <v>0.5148005</v>
+      </c>
+      <c r="PS131">
+        <v>0.3634309</v>
+      </c>
+      <c r="PY131">
+        <v>0.3888889</v>
+      </c>
+      <c r="QD131">
+        <v>0.3319652</v>
+      </c>
+      <c r="QE131">
+        <v>0.3369308</v>
+      </c>
+      <c r="QF131">
+        <v>0.3194888</v>
+      </c>
+      <c r="QK131">
+        <v>0.3336742</v>
+      </c>
+      <c r="QN131">
+        <v>0.4209097</v>
+      </c>
+      <c r="QO131">
+        <v>0.6656758</v>
+      </c>
+      <c r="QP131">
+        <v>0.7644512</v>
+      </c>
+      <c r="QS131">
+        <v>0.4954955</v>
+      </c>
+      <c r="QU131">
+        <v>0.4672897</v>
+      </c>
+      <c r="QV131">
+        <v>0.3899565</v>
+      </c>
+      <c r="QX131">
+        <v>0.5185176</v>
+      </c>
+      <c r="QY131">
+        <v>0.1776703</v>
+      </c>
+      <c r="RB131">
+        <v>0.2129472</v>
+      </c>
+      <c r="RD131">
+        <v>0.3962343</v>
+      </c>
+      <c r="RI131">
+        <v>0.2833753</v>
+      </c>
+      <c r="RL131">
+        <v>0.4458599</v>
+      </c>
+      <c r="RQ131">
+        <v>0</v>
+      </c>
+      <c r="RT131">
+        <v>0.2108841</v>
+      </c>
+      <c r="RV131">
+        <v>0.2808989</v>
+      </c>
+      <c r="RX131">
+        <v>0.3730363</v>
+      </c>
+      <c r="RY131">
+        <v>0.6784836</v>
+      </c>
+      <c r="SA131">
+        <v>0.212766</v>
+      </c>
+      <c r="SD131">
+        <v>0.5825962</v>
+      </c>
+      <c r="SG131">
+        <v>0.5561951000000001</v>
+      </c>
+      <c r="SH131">
+        <v>0.4430824</v>
+      </c>
+      <c r="SI131">
+        <v>0.665844</v>
+      </c>
+      <c r="SM131">
+        <v>0.3482699</v>
+      </c>
+      <c r="SO131">
+        <v>0.2841783</v>
+      </c>
+      <c r="SP131">
+        <v>0.07936509999999999</v>
+      </c>
+      <c r="SR131">
+        <v>0.1188594</v>
+      </c>
+      <c r="SW131">
+        <v>0.3024622</v>
+      </c>
+      <c r="SX131">
+        <v>0.6097561</v>
+      </c>
+      <c r="TS131">
+        <v>0.4728307</v>
+      </c>
+      <c r="TX131">
+        <v>0.3052931</v>
+      </c>
+      <c r="TY131">
+        <v>0.4108591</v>
+      </c>
+      <c r="UA131">
+        <v>0.3992016</v>
+      </c>
+      <c r="UE131">
+        <v>0.4886303</v>
+      </c>
+      <c r="UF131">
+        <v>0.4424779</v>
+      </c>
+      <c r="UH131">
+        <v>0.4963501</v>
+      </c>
+      <c r="UI131">
+        <v>0.5139632</v>
+      </c>
+      <c r="UK131">
+        <v>0.3363963</v>
+      </c>
+      <c r="UN131">
+        <v>0.2296037</v>
+      </c>
+      <c r="UP131">
+        <v>0.1515152</v>
+      </c>
+      <c r="US131">
+        <v>0.8372199</v>
+      </c>
+      <c r="UT131">
+        <v>0.189546</v>
+      </c>
+      <c r="UU131">
+        <v>0.7884903</v>
+      </c>
+      <c r="UV131">
+        <v>0.2156954</v>
+      </c>
+      <c r="UW131">
+        <v>0.8850268</v>
+      </c>
+      <c r="VA131">
+        <v>0</v>
+      </c>
+      <c r="VB131">
+        <v>0.6853112</v>
+      </c>
+      <c r="VO131">
+        <v>0.4328506</v>
+      </c>
+      <c r="VP131">
+        <v>0.9432983</v>
+      </c>
+      <c r="VS131">
+        <v>0.0524418</v>
+      </c>
+      <c r="VU131">
+        <v>0.7977146000000001</v>
+      </c>
+      <c r="VW131">
+        <v>0.0394322</v>
+      </c>
+      <c r="VX131">
+        <v>0.7096814</v>
+      </c>
+      <c r="VY131">
+        <v>0.6501907</v>
+      </c>
+      <c r="WB131">
+        <v>0.5185185</v>
+      </c>
+      <c r="WF131">
+        <v>0.3425523</v>
+      </c>
+      <c r="WG131">
+        <v>0.499789</v>
+      </c>
+      <c r="WL131">
+        <v>0.4850202</v>
+      </c>
+      <c r="WM131">
+        <v>0.3846154</v>
+      </c>
+      <c r="WQ131">
+        <v>0.199842</v>
+      </c>
+      <c r="WU131">
+        <v>0.1501117</v>
+      </c>
+      <c r="WW131">
+        <v>0.1372271</v>
+      </c>
+      <c r="WY131">
+        <v>0.4728132</v>
+      </c>
+      <c r="WZ131">
+        <v>0.2167089</v>
+      </c>
+      <c r="XD131">
+        <v>0.564399</v>
+      </c>
+      <c r="XF131">
+        <v>0.2676409</v>
+      </c>
+      <c r="XG131">
+        <v>0.3233709</v>
+      </c>
+      <c r="XL131">
+        <v>0.180934</v>
+      </c>
+      <c r="XM131">
+        <v>0.2918542</v>
+      </c>
+      <c r="XT131">
+        <v>0.0696864</v>
+      </c>
+      <c r="XV131">
+        <v>0.2514352</v>
+      </c>
+      <c r="YB131">
+        <v>0.2840839</v>
+      </c>
+      <c r="YD131">
+        <v>0.3171247</v>
+      </c>
+      <c r="YH131">
+        <v>0.3887269</v>
+      </c>
+      <c r="YN131">
+        <v>0.5117469</v>
+      </c>
+      <c r="YO131">
+        <v>0.5189582</v>
+      </c>
+      <c r="YQ131">
+        <v>0.2493709</v>
+      </c>
+      <c r="YR131">
+        <v>0.5203383</v>
+      </c>
+      <c r="YX131">
+        <v>0.1427737</v>
+      </c>
+      <c r="YY131">
+        <v>0.1118568</v>
+      </c>
+      <c r="ZL131">
+        <v>0.3289054</v>
+      </c>
+      <c r="ZM131">
+        <v>0.1046908</v>
+      </c>
+      <c r="ZO131">
+        <v>0.3439853</v>
+      </c>
+      <c r="ZR131">
+        <v>0.3707085</v>
+      </c>
+      <c r="ZS131">
+        <v>0.3144654</v>
+      </c>
+      <c r="ZV131">
+        <v>0.3511703</v>
+      </c>
+      <c r="ZW131">
+        <v>0.3462101</v>
+      </c>
+      <c r="ZX131">
+        <v>0.84039</v>
+      </c>
+      <c r="ZZ131">
+        <v>0.1550531</v>
+      </c>
+      <c r="AAB131">
+        <v>0.2024291</v>
+      </c>
+      <c r="AAC131">
+        <v>0.4324478</v>
+      </c>
+      <c r="AAD131">
+        <v>0.3253796</v>
+      </c>
+      <c r="AAF131">
+        <v>0.2541853</v>
+      </c>
+      <c r="AAH131">
+        <v>0.2188184</v>
+      </c>
+      <c r="AAJ131">
+        <v>0.5428843</v>
+      </c>
+      <c r="AAM131">
+        <v>0.3703005</v>
+      </c>
+      <c r="AAP131">
+        <v>0.3259364</v>
+      </c>
+      <c r="AAR131">
+        <v>0.6933289</v>
+      </c>
+      <c r="AAU131">
+        <v>0.2546689</v>
+      </c>
+      <c r="AAV131">
+        <v>0.1123737</v>
+      </c>
+      <c r="AAW131">
+        <v>0.3797581</v>
+      </c>
+      <c r="ABA131">
+        <v>0.2422481</v>
+      </c>
+      <c r="ABC131">
+        <v>0.1412429</v>
+      </c>
+      <c r="ABJ131">
+        <v>0.3869602</v>
+      </c>
+      <c r="ABL131">
+        <v>0.16513</v>
+      </c>
+      <c r="ABM131">
+        <v>0.8475882</v>
+      </c>
+      <c r="ABN131">
+        <v>0.1383126</v>
+      </c>
+      <c r="ABP131">
+        <v>0.1220977</v>
+      </c>
+      <c r="ABT131">
+        <v>0.1746286</v>
+      </c>
+      <c r="ABV131">
+        <v>0.4181171</v>
+      </c>
+      <c r="ABW131">
+        <v>0.259751</v>
+      </c>
+      <c r="ABX131">
+        <v>0.3729831</v>
+      </c>
+      <c r="ABY131">
+        <v>0</v>
+      </c>
+      <c r="ABZ131">
+        <v>0.3232081</v>
+      </c>
+      <c r="ACA131">
+        <v>0.1877838</v>
+      </c>
+      <c r="ACE131">
+        <v>0.2833503</v>
+      </c>
+      <c r="ACG131">
+        <v>0.1576358</v>
+      </c>
+      <c r="ACI131">
+        <v>0.5884388</v>
+      </c>
+      <c r="ACJ131">
+        <v>0</v>
+      </c>
+      <c r="ACK131">
+        <v>0.1915709</v>
+      </c>
+      <c r="ACM131">
+        <v>0.1990012</v>
+      </c>
+      <c r="ACN131">
+        <v>0.1210307</v>
+      </c>
+      <c r="ACP131">
+        <v>0.3173921</v>
+      </c>
+      <c r="ACU131">
+        <v>0.4522613</v>
+      </c>
+      <c r="ACW131">
+        <v>0.3340317</v>
+      </c>
+      <c r="ACX131">
+        <v>0.6666666999999999</v>
+      </c>
+      <c r="ADP131">
+        <v>0.5670252</v>
+      </c>
+      <c r="ADR131">
+        <v>0.6578947000000001</v>
+      </c>
+      <c r="ADU131">
+        <v>0.6699819</v>
+      </c>
+      <c r="ADV131">
+        <v>0.2879008</v>
+      </c>
+      <c r="AEA131">
+        <v>0.1257358</v>
+      </c>
+      <c r="AEB131">
+        <v>0.7019567</v>
+      </c>
+      <c r="AEF131">
+        <v>0.2736135</v>
+      </c>
+      <c r="AEG131">
+        <v>0.1948441</v>
+      </c>
+      <c r="AEH131">
+        <v>0.1914222</v>
+      </c>
+      <c r="AEI131">
+        <v>0.4411859</v>
+      </c>
+      <c r="AEJ131">
+        <v>0.7503209</v>
+      </c>
+      <c r="AEL131">
+        <v>0.2300437</v>
+      </c>
+      <c r="AEU131">
+        <v>0.4995611</v>
+      </c>
+      <c r="AEZ131">
+        <v>0.08833920000000001</v>
+      </c>
+      <c r="AFD131">
+        <v>0.3217559</v>
+      </c>
+      <c r="AFG131">
+        <v>0.1492477</v>
+      </c>
+      <c r="AFH131">
+        <v>0.1938307</v>
+      </c>
+      <c r="AFK131">
+        <v>0.6822612</v>
+      </c>
+      <c r="AFL131">
+        <v>0.5502646</v>
+      </c>
+      <c r="AFN131">
+        <v>0.6034483</v>
+      </c>
+      <c r="AFT131">
+        <v>0.4405914</v>
+      </c>
+      <c r="AFU131">
+        <v>0.7380139</v>
+      </c>
+      <c r="AFX131">
+        <v>0.0892857</v>
+      </c>
+      <c r="AGA131">
+        <v>0.4848411</v>
+      </c>
+      <c r="AGC131">
+        <v>0.4384049</v>
+      </c>
+      <c r="AGE131">
+        <v>0.7740308</v>
+      </c>
+      <c r="AGF131">
+        <v>0.4495614</v>
+      </c>
+      <c r="AGG131">
+        <v>0.2105897</v>
+      </c>
+      <c r="AGL131">
+        <v>0.2443459</v>
+      </c>
+      <c r="AGM131">
+        <v>0.3184544</v>
+      </c>
+      <c r="AGO131">
+        <v>0.6658076000000001</v>
+      </c>
+      <c r="AGP131">
+        <v>0.1449763</v>
+      </c>
+      <c r="AGV131">
+        <v>0</v>
+      </c>
+      <c r="AHA131">
+        <v>0.2087666</v>
+      </c>
+      <c r="AHB131">
+        <v>0.3543872</v>
+      </c>
+      <c r="AHD131">
+        <v>0.6043368</v>
+      </c>
+      <c r="AHH131">
+        <v>0.6112469</v>
+      </c>
+      <c r="AHN131">
+        <v>0.4399622</v>
+      </c>
+      <c r="AHP131">
+        <v>0.2217295</v>
+      </c>
+      <c r="AHS131">
+        <v>0.5156403000000001</v>
+      </c>
+      <c r="AHU131">
+        <v>0.1063956</v>
+      </c>
+      <c r="AHX131">
+        <v>0.1557632</v>
+      </c>
+      <c r="AIB131">
+        <v>0</v>
+      </c>
+      <c r="AID131">
+        <v>0.4926701</v>
+      </c>
+      <c r="AIE131">
+        <v>0.6430868</v>
+      </c>
+      <c r="AIF131">
+        <v>0.3051643</v>
+      </c>
+      <c r="AII131">
+        <v>0.0634314</v>
+      </c>
+      <c r="AIP131">
+        <v>0.2808823</v>
+      </c>
+      <c r="AIT131">
+        <v>0.3523048</v>
+      </c>
+      <c r="AIV131">
+        <v>0.6833721</v>
+      </c>
+      <c r="AIY131">
+        <v>0.3916322</v>
+      </c>
+      <c r="AIZ131">
+        <v>0.3050766</v>
+      </c>
+    </row>
+    <row r="132" spans="1:936">
+      <c r="A132" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="133" spans="1:936">
+      <c r="A133" t="s">
+        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyMetro.xlsx
+++ b/fb-surveyMetro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="1076">
   <si>
     <t>Aberdeen, SD</t>
   </si>
@@ -3227,6 +3227,21 @@
   </si>
   <si>
     <t>11 06 2020</t>
+  </si>
+  <si>
+    <t>12 06 2020</t>
+  </si>
+  <si>
+    <t>13 06 2020</t>
+  </si>
+  <si>
+    <t>14 06 2020</t>
+  </si>
+  <si>
+    <t>15 06 2020</t>
+  </si>
+  <si>
+    <t>16 06 2020</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJD133"/>
+  <dimension ref="A1:AJD138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33820,6 +33835,9 @@
       <c r="RL91">
         <v>0.0493375</v>
       </c>
+      <c r="RP91">
+        <v>0.8849558</v>
+      </c>
       <c r="RQ91">
         <v>0.6369427</v>
       </c>
@@ -36125,6 +36143,9 @@
       <c r="SX93">
         <v>0.6300268</v>
       </c>
+      <c r="SZ93">
+        <v>0</v>
+      </c>
       <c r="TA93">
         <v>0</v>
       </c>
@@ -36988,6 +37009,9 @@
       <c r="LD94">
         <v>0.4308677</v>
       </c>
+      <c r="LE94">
+        <v>2.2357724</v>
+      </c>
       <c r="LG94">
         <v>0.4509237</v>
       </c>
@@ -37245,6 +37269,9 @@
       </c>
       <c r="SX94">
         <v>0.4679144</v>
+      </c>
+      <c r="SZ94">
+        <v>0</v>
       </c>
       <c r="TA94">
         <v>0.5649718</v>
@@ -38109,6 +38136,9 @@
       <c r="LD95">
         <v>0.4405165</v>
       </c>
+      <c r="LE95">
+        <v>2.3109244</v>
+      </c>
       <c r="LG95">
         <v>0.5458753</v>
       </c>
@@ -38366,6 +38396,9 @@
       </c>
       <c r="SX95">
         <v>0.7472826</v>
+      </c>
+      <c r="SZ95">
+        <v>0</v>
       </c>
       <c r="TA95">
         <v>0.8928571</v>
@@ -39089,6 +39122,9 @@
       <c r="GF96">
         <v>0.5682118</v>
       </c>
+      <c r="GG96">
+        <v>0</v>
+      </c>
       <c r="GJ96">
         <v>0.4186225</v>
       </c>
@@ -40207,6 +40243,9 @@
       <c r="GF97">
         <v>0.6177686</v>
       </c>
+      <c r="GG97">
+        <v>0</v>
+      </c>
       <c r="GJ97">
         <v>0.4472576</v>
       </c>
@@ -45800,6 +45839,9 @@
       <c r="HA102">
         <v>0.3533594</v>
       </c>
+      <c r="HE102">
+        <v>0</v>
+      </c>
       <c r="HF102">
         <v>0.2940909</v>
       </c>
@@ -45856,6 +45898,9 @@
       </c>
       <c r="IS102">
         <v>0.1913876</v>
+      </c>
+      <c r="IW102">
+        <v>1.1830743</v>
       </c>
       <c r="IZ102">
         <v>0.2725857</v>
@@ -46909,6 +46954,9 @@
       <c r="HA103">
         <v>0.5571957</v>
       </c>
+      <c r="HE103">
+        <v>0</v>
+      </c>
       <c r="HF103">
         <v>0.3588725</v>
       </c>
@@ -46965,6 +47013,9 @@
       </c>
       <c r="IS103">
         <v>0.1970443</v>
+      </c>
+      <c r="IW103">
+        <v>1.0540541</v>
       </c>
       <c r="IZ103">
         <v>0.5</v>
@@ -48018,6 +48069,9 @@
       <c r="HA104">
         <v>0.4258277</v>
       </c>
+      <c r="HE104">
+        <v>0</v>
+      </c>
       <c r="HF104">
         <v>0.3075909</v>
       </c>
@@ -48074,6 +48128,9 @@
       </c>
       <c r="IS104">
         <v>0.1980198</v>
+      </c>
+      <c r="IW104">
+        <v>0.8243728</v>
       </c>
       <c r="IZ104">
         <v>0.5154639</v>
@@ -49127,6 +49184,9 @@
       <c r="HA105">
         <v>0.3633841</v>
       </c>
+      <c r="HE105">
+        <v>0</v>
+      </c>
       <c r="HF105">
         <v>0.2889706</v>
       </c>
@@ -49183,6 +49243,9 @@
       </c>
       <c r="IS105">
         <v>0.2061856</v>
+      </c>
+      <c r="IW105">
+        <v>0.8288288</v>
       </c>
       <c r="IZ105">
         <v>0.5263158</v>
@@ -50236,6 +50299,9 @@
       <c r="HA106">
         <v>0.3271974</v>
       </c>
+      <c r="HE106">
+        <v>0</v>
+      </c>
       <c r="HF106">
         <v>0.3047712</v>
       </c>
@@ -50292,6 +50358,9 @@
       </c>
       <c r="IS106">
         <v>0.1762115</v>
+      </c>
+      <c r="IW106">
+        <v>0.564663</v>
       </c>
       <c r="IZ106">
         <v>0.4385965</v>
@@ -51249,6 +51318,9 @@
       <c r="EA107">
         <v>0.4807548</v>
       </c>
+      <c r="EE107">
+        <v>0</v>
+      </c>
       <c r="EK107">
         <v>0.5931031</v>
       </c>
@@ -51821,6 +51893,9 @@
       </c>
       <c r="WW107">
         <v>0.3661774</v>
+      </c>
+      <c r="WX107">
+        <v>0.8403361</v>
       </c>
       <c r="WY107">
         <v>0.8921933</v>
@@ -52352,6 +52427,9 @@
       <c r="EA108">
         <v>0.4967841</v>
       </c>
+      <c r="EE108">
+        <v>0</v>
+      </c>
       <c r="EK108">
         <v>0.5712618</v>
       </c>
@@ -52924,6 +53002,9 @@
       </c>
       <c r="WW108">
         <v>0.2872739</v>
+      </c>
+      <c r="WX108">
+        <v>0.8130081</v>
       </c>
       <c r="WY108">
         <v>0.8391608</v>
@@ -53455,6 +53536,9 @@
       <c r="EA109">
         <v>0.2609727</v>
       </c>
+      <c r="EE109">
+        <v>0</v>
+      </c>
       <c r="EK109">
         <v>0.4386945</v>
       </c>
@@ -54027,6 +54111,9 @@
       </c>
       <c r="WW109">
         <v>0.280752</v>
+      </c>
+      <c r="WX109">
+        <v>0.7575758</v>
       </c>
       <c r="WY109">
         <v>0.4682274</v>
@@ -54558,6 +54645,9 @@
       <c r="EA110">
         <v>0.2645482</v>
       </c>
+      <c r="EE110">
+        <v>0</v>
+      </c>
       <c r="EK110">
         <v>0.4323147</v>
       </c>
@@ -55130,6 +55220,9 @@
       </c>
       <c r="WW110">
         <v>0.2829889</v>
+      </c>
+      <c r="WX110">
+        <v>0.6849315</v>
       </c>
       <c r="WY110">
         <v>0.3311258</v>
@@ -56234,6 +56327,9 @@
       <c r="WW111">
         <v>0.3447775</v>
       </c>
+      <c r="WX111">
+        <v>0.7042254</v>
+      </c>
       <c r="WY111">
         <v>0.3003003</v>
       </c>
@@ -57535,6 +57631,9 @@
       <c r="ACX112">
         <v>0.4016064</v>
       </c>
+      <c r="ADI112">
+        <v>0.5454545</v>
+      </c>
       <c r="ADN112">
         <v>1.1078998</v>
       </c>
@@ -57635,6 +57734,9 @@
         <v>0.4186096</v>
       </c>
       <c r="AGV112">
+        <v>0</v>
+      </c>
+      <c r="AGY112">
         <v>0</v>
       </c>
       <c r="AHA112">
@@ -58059,6 +58161,9 @@
       <c r="KK113">
         <v>0.5208333000000001</v>
       </c>
+      <c r="KL113">
+        <v>0.2793296</v>
+      </c>
       <c r="KO113">
         <v>0.5009272</v>
       </c>
@@ -58629,6 +58734,9 @@
       <c r="ACX113">
         <v>0</v>
       </c>
+      <c r="ADI113">
+        <v>0.5217391</v>
+      </c>
       <c r="ADN113">
         <v>1.6762452</v>
       </c>
@@ -58730,6 +58838,9 @@
       </c>
       <c r="AGV113">
         <v>0.0718391</v>
+      </c>
+      <c r="AGY113">
+        <v>0</v>
       </c>
       <c r="AHA113">
         <v>0.3017781</v>
@@ -59153,6 +59264,9 @@
       <c r="KK114">
         <v>0.5181346999999999</v>
       </c>
+      <c r="KL114">
+        <v>0</v>
+      </c>
       <c r="KO114">
         <v>0.5649594</v>
       </c>
@@ -59723,6 +59837,9 @@
       <c r="ACX114">
         <v>0.297619</v>
       </c>
+      <c r="ADI114">
+        <v>0.5555556</v>
+      </c>
       <c r="ADN114">
         <v>1.6957364</v>
       </c>
@@ -59824,6 +59941,9 @@
       </c>
       <c r="AGV114">
         <v>0.1714678</v>
+      </c>
+      <c r="AGY114">
+        <v>0</v>
       </c>
       <c r="AHA114">
         <v>0.3135302</v>
@@ -60247,6 +60367,9 @@
       <c r="KK115">
         <v>0.4950495</v>
       </c>
+      <c r="KL115">
+        <v>0</v>
+      </c>
       <c r="KO115">
         <v>0.5082073</v>
       </c>
@@ -60757,6 +60880,9 @@
       <c r="ABN115">
         <v>0.1096491</v>
       </c>
+      <c r="ABO115">
+        <v>0.5974843</v>
+      </c>
       <c r="ABP115">
         <v>0.369658</v>
       </c>
@@ -60814,6 +60940,9 @@
       <c r="ACX115">
         <v>0.2941176</v>
       </c>
+      <c r="ADI115">
+        <v>0.5357143</v>
+      </c>
       <c r="ADN115">
         <v>1.7361111</v>
       </c>
@@ -60915,6 +61044,9 @@
       </c>
       <c r="AGV115">
         <v>0.2371274</v>
+      </c>
+      <c r="AGY115">
+        <v>0</v>
       </c>
       <c r="AHA115">
         <v>0.2698443</v>
@@ -61326,6 +61458,9 @@
       <c r="KC116">
         <v>0.4696699</v>
       </c>
+      <c r="KH116">
+        <v>0.8064516</v>
+      </c>
       <c r="KI116">
         <v>0.1987489</v>
       </c>
@@ -61335,6 +61470,9 @@
       <c r="KK116">
         <v>0.5076142</v>
       </c>
+      <c r="KL116">
+        <v>0</v>
+      </c>
       <c r="KO116">
         <v>0.3023698</v>
       </c>
@@ -61845,6 +61983,9 @@
       <c r="ABN116">
         <v>0</v>
       </c>
+      <c r="ABO116">
+        <v>0.5792683</v>
+      </c>
       <c r="ABP116">
         <v>0.3687524</v>
       </c>
@@ -61875,6 +62016,9 @@
       <c r="ACG116">
         <v>0.2362404</v>
       </c>
+      <c r="ACH116">
+        <v>0</v>
+      </c>
       <c r="ACI116">
         <v>0.2566685</v>
       </c>
@@ -61902,6 +62046,9 @@
       <c r="ACX116">
         <v>0.308642</v>
       </c>
+      <c r="ADI116">
+        <v>0</v>
+      </c>
       <c r="ADN116">
         <v>1.2987013</v>
       </c>
@@ -62003,6 +62150,9 @@
       </c>
       <c r="AGV116">
         <v>0.3415301</v>
+      </c>
+      <c r="AGY116">
+        <v>0</v>
       </c>
       <c r="AHA116">
         <v>0.2104621</v>
@@ -62414,6 +62564,9 @@
       <c r="KC117">
         <v>0.6243652</v>
       </c>
+      <c r="KH117">
+        <v>0.7352941</v>
+      </c>
       <c r="KI117">
         <v>0.116942</v>
       </c>
@@ -62423,6 +62576,9 @@
       <c r="KK117">
         <v>0.5263158</v>
       </c>
+      <c r="KL117">
+        <v>0</v>
+      </c>
       <c r="KO117">
         <v>0.231178</v>
       </c>
@@ -62693,6 +62849,9 @@
       <c r="SX117">
         <v>0.2123142</v>
       </c>
+      <c r="TA117">
+        <v>0.1841621</v>
+      </c>
       <c r="TS117">
         <v>0.3433689</v>
       </c>
@@ -62930,6 +63089,9 @@
       <c r="ABN117">
         <v>0.4016064</v>
       </c>
+      <c r="ABO117">
+        <v>0.8841463000000001</v>
+      </c>
       <c r="ABP117">
         <v>0.3106489</v>
       </c>
@@ -62959,6 +63121,9 @@
       </c>
       <c r="ACG117">
         <v>0.1452164</v>
+      </c>
+      <c r="ACH117">
+        <v>0</v>
       </c>
       <c r="ACI117">
         <v>0.2400479</v>
@@ -63409,6 +63574,9 @@
       <c r="HF118">
         <v>0.2914836</v>
       </c>
+      <c r="HG118">
+        <v>0.1096491</v>
+      </c>
       <c r="HH118">
         <v>0.689434</v>
       </c>
@@ -63496,6 +63664,9 @@
       <c r="KC118">
         <v>0.6255446</v>
       </c>
+      <c r="KH118">
+        <v>0.6711409</v>
+      </c>
       <c r="KI118">
         <v>0.112818</v>
       </c>
@@ -63745,6 +63916,9 @@
       <c r="SD118">
         <v>0.3734175</v>
       </c>
+      <c r="SE118">
+        <v>0</v>
+      </c>
       <c r="SG118">
         <v>0.4434777</v>
       </c>
@@ -63772,6 +63946,9 @@
       <c r="SX118">
         <v>0.1126126</v>
       </c>
+      <c r="TA118">
+        <v>0.1841621</v>
+      </c>
       <c r="TS118">
         <v>0.3643792</v>
       </c>
@@ -64009,6 +64186,9 @@
       <c r="ABN118">
         <v>0.4149378</v>
       </c>
+      <c r="ABO118">
+        <v>0.545977</v>
+      </c>
       <c r="ABP118">
         <v>0.3337437</v>
       </c>
@@ -64038,6 +64218,9 @@
       </c>
       <c r="ACG118">
         <v>0.1545956</v>
+      </c>
+      <c r="ACH118">
+        <v>0</v>
       </c>
       <c r="ACI118">
         <v>0.2374521</v>
@@ -64488,6 +64671,9 @@
       <c r="HF119">
         <v>0.3195334</v>
       </c>
+      <c r="HG119">
+        <v>0.1157407</v>
+      </c>
       <c r="HH119">
         <v>1.0582011</v>
       </c>
@@ -64575,6 +64761,9 @@
       <c r="KC119">
         <v>0.5185451</v>
       </c>
+      <c r="KH119">
+        <v>0.6622517</v>
+      </c>
       <c r="KI119">
         <v>0.1297881</v>
       </c>
@@ -64824,6 +65013,9 @@
       <c r="SD119">
         <v>0.2592372</v>
       </c>
+      <c r="SE119">
+        <v>0</v>
+      </c>
       <c r="SG119">
         <v>0.4606745</v>
       </c>
@@ -64851,6 +65043,9 @@
       <c r="SX119">
         <v>0.2331002</v>
       </c>
+      <c r="TA119">
+        <v>0.1709402</v>
+      </c>
       <c r="TS119">
         <v>0.3193361</v>
       </c>
@@ -65088,6 +65283,9 @@
       <c r="ABN119">
         <v>0.4219409</v>
       </c>
+      <c r="ABO119">
+        <v>0.545977</v>
+      </c>
       <c r="ABP119">
         <v>0.3346041</v>
       </c>
@@ -65117,6 +65315,9 @@
       </c>
       <c r="ACG119">
         <v>0.1399901</v>
+      </c>
+      <c r="ACH119">
+        <v>0</v>
       </c>
       <c r="ACI119">
         <v>0.1711796</v>
@@ -65567,6 +65768,9 @@
       <c r="HF120">
         <v>0.3941205</v>
       </c>
+      <c r="HG120">
+        <v>0</v>
+      </c>
       <c r="HH120">
         <v>0.7697216</v>
       </c>
@@ -65903,6 +66107,9 @@
       <c r="SD120">
         <v>0.5628551000000001</v>
       </c>
+      <c r="SE120">
+        <v>0</v>
+      </c>
       <c r="SG120">
         <v>0.4515171</v>
       </c>
@@ -65930,6 +66137,9 @@
       <c r="SX120">
         <v>0.2293578</v>
       </c>
+      <c r="TA120">
+        <v>0.1594896</v>
+      </c>
       <c r="TS120">
         <v>0.2861414</v>
       </c>
@@ -66196,6 +66406,9 @@
       </c>
       <c r="ACG120">
         <v>0.1538855</v>
+      </c>
+      <c r="ACH120">
+        <v>0</v>
       </c>
       <c r="ACI120">
         <v>0.0219356</v>
@@ -66562,6 +66775,9 @@
       <c r="EN121">
         <v>0.5472995</v>
       </c>
+      <c r="EQ121">
+        <v>0.3292181</v>
+      </c>
       <c r="ER121">
         <v>0</v>
       </c>
@@ -66643,6 +66859,9 @@
       <c r="HF121">
         <v>0.3192444</v>
       </c>
+      <c r="HG121">
+        <v>0</v>
+      </c>
       <c r="HH121">
         <v>0.6820437</v>
       </c>
@@ -66979,6 +67198,9 @@
       <c r="SD121">
         <v>0.5379773</v>
       </c>
+      <c r="SE121">
+        <v>0</v>
+      </c>
       <c r="SG121">
         <v>0.4236667</v>
       </c>
@@ -67272,6 +67494,9 @@
       </c>
       <c r="ACG121">
         <v>0.2527218</v>
+      </c>
+      <c r="ACH121">
+        <v>0</v>
       </c>
       <c r="ACI121">
         <v>0.08772050000000001</v>
@@ -67638,6 +67863,9 @@
       <c r="EN122">
         <v>0.7373537999999999</v>
       </c>
+      <c r="EQ122">
+        <v>0.3252033</v>
+      </c>
       <c r="ER122">
         <v>0</v>
       </c>
@@ -67719,6 +67947,9 @@
       <c r="HF122">
         <v>0.3589289</v>
       </c>
+      <c r="HG122">
+        <v>0</v>
+      </c>
       <c r="HH122">
         <v>0.6892231</v>
       </c>
@@ -67812,6 +68043,9 @@
       <c r="KJ122">
         <v>0.6594181</v>
       </c>
+      <c r="KK122">
+        <v>0</v>
+      </c>
       <c r="KO122">
         <v>0.1329561</v>
       </c>
@@ -68052,6 +68286,9 @@
       <c r="SD122">
         <v>0.6901829</v>
       </c>
+      <c r="SE122">
+        <v>0</v>
+      </c>
       <c r="SG122">
         <v>0.4367993</v>
       </c>
@@ -68346,6 +68583,9 @@
       <c r="ACG122">
         <v>0.1686165</v>
       </c>
+      <c r="ACH122">
+        <v>0</v>
+      </c>
       <c r="ACI122">
         <v>0.08826349999999999</v>
       </c>
@@ -68501,6 +68741,9 @@
       </c>
       <c r="AHX122">
         <v>0.0823045</v>
+      </c>
+      <c r="AHY122">
+        <v>0</v>
       </c>
       <c r="AIB122">
         <v>0.2380952</v>
@@ -68708,6 +68951,9 @@
       <c r="EN123">
         <v>0.8126117</v>
       </c>
+      <c r="EQ123">
+        <v>0.3252033</v>
+      </c>
       <c r="ER123">
         <v>0.3412969</v>
       </c>
@@ -68882,6 +69128,9 @@
       <c r="KJ123">
         <v>0.7081281</v>
       </c>
+      <c r="KK123">
+        <v>0</v>
+      </c>
       <c r="KO123">
         <v>0.176952</v>
       </c>
@@ -69416,6 +69665,9 @@
       <c r="ACG123">
         <v>0.1509254</v>
       </c>
+      <c r="ACH123">
+        <v>0</v>
+      </c>
       <c r="ACI123">
         <v>0.0895046</v>
       </c>
@@ -69571,6 +69823,9 @@
       </c>
       <c r="AHX123">
         <v>0.07905139999999999</v>
+      </c>
+      <c r="AHY123">
+        <v>0</v>
       </c>
       <c r="AIB123">
         <v>0.2314815</v>
@@ -69754,6 +70009,9 @@
       <c r="DS124">
         <v>0.1216323</v>
       </c>
+      <c r="DU124">
+        <v>0.1461988</v>
+      </c>
       <c r="DW124">
         <v>0.1997264</v>
       </c>
@@ -69775,6 +70033,9 @@
       <c r="EN124">
         <v>0.8818342</v>
       </c>
+      <c r="EQ124">
+        <v>0.3100775</v>
+      </c>
       <c r="ER124">
         <v>0.3610108</v>
       </c>
@@ -69949,6 +70210,9 @@
       <c r="KJ124">
         <v>0.757077</v>
       </c>
+      <c r="KK124">
+        <v>0</v>
+      </c>
       <c r="KO124">
         <v>0.22537</v>
       </c>
@@ -70369,6 +70633,9 @@
       <c r="YY124">
         <v>0.1519757</v>
       </c>
+      <c r="ZD124">
+        <v>0.3205128</v>
+      </c>
       <c r="ZL124">
         <v>0.1570084</v>
       </c>
@@ -70480,6 +70747,9 @@
       <c r="ACG124">
         <v>0.1896286</v>
       </c>
+      <c r="ACH124">
+        <v>0</v>
+      </c>
       <c r="ACI124">
         <v>0.1385061</v>
       </c>
@@ -70634,6 +70904,9 @@
         <v>0.405639</v>
       </c>
       <c r="AHX124">
+        <v>0</v>
+      </c>
+      <c r="AHY124">
         <v>0</v>
       </c>
       <c r="AIB124">
@@ -70785,6 +71058,9 @@
       <c r="CO125">
         <v>0.1182033</v>
       </c>
+      <c r="CQ125">
+        <v>0.7267442</v>
+      </c>
       <c r="CR125">
         <v>0.1631485</v>
       </c>
@@ -70815,6 +71091,9 @@
       <c r="DS125">
         <v>0.1077746</v>
       </c>
+      <c r="DU125">
+        <v>0.753012</v>
+      </c>
       <c r="DW125">
         <v>0.2524553</v>
       </c>
@@ -70836,6 +71115,9 @@
       <c r="EN125">
         <v>0.6693440000000001</v>
       </c>
+      <c r="EQ125">
+        <v>0.3100775</v>
+      </c>
       <c r="ER125">
         <v>0.3636364</v>
       </c>
@@ -71010,6 +71292,9 @@
       <c r="KJ125">
         <v>0.7523582</v>
       </c>
+      <c r="KK125">
+        <v>0</v>
+      </c>
       <c r="KO125">
         <v>0.2448292</v>
       </c>
@@ -71430,6 +71715,9 @@
       <c r="YY125">
         <v>0</v>
       </c>
+      <c r="ZD125">
+        <v>0</v>
+      </c>
       <c r="ZL125">
         <v>0.218226</v>
       </c>
@@ -71541,6 +71829,9 @@
       <c r="ACG125">
         <v>0.2174445</v>
       </c>
+      <c r="ACH125">
+        <v>0</v>
+      </c>
       <c r="ACI125">
         <v>0.139859</v>
       </c>
@@ -71568,6 +71859,9 @@
       <c r="ACX125">
         <v>0.6289308</v>
       </c>
+      <c r="ADN125">
+        <v>1.1494253</v>
+      </c>
       <c r="ADP125">
         <v>0.1571482</v>
       </c>
@@ -71692,6 +71986,9 @@
         <v>0.4055265</v>
       </c>
       <c r="AHX125">
+        <v>0</v>
+      </c>
+      <c r="AHY125">
         <v>0</v>
       </c>
       <c r="AIB125">
@@ -71843,6 +72140,9 @@
       <c r="CO126">
         <v>0.7710558</v>
       </c>
+      <c r="CQ126">
+        <v>0.5714286</v>
+      </c>
       <c r="CR126">
         <v>0.1411605</v>
       </c>
@@ -71873,6 +72173,9 @@
       <c r="DS126">
         <v>0.149277</v>
       </c>
+      <c r="DU126">
+        <v>0.6830600999999999</v>
+      </c>
       <c r="DW126">
         <v>0.2458358</v>
       </c>
@@ -72068,6 +72371,9 @@
       <c r="KJ126">
         <v>0.4146341</v>
       </c>
+      <c r="KK126">
+        <v>0</v>
+      </c>
       <c r="KO126">
         <v>0.1987997</v>
       </c>
@@ -72278,6 +72584,9 @@
       <c r="RD126">
         <v>0.4035563</v>
       </c>
+      <c r="RG126">
+        <v>0.2666667</v>
+      </c>
       <c r="RI126">
         <v>0.1391982</v>
       </c>
@@ -72485,6 +72794,9 @@
       <c r="YY126">
         <v>0</v>
       </c>
+      <c r="ZD126">
+        <v>0.2096436</v>
+      </c>
       <c r="ZL126">
         <v>0.1827616</v>
       </c>
@@ -72596,6 +72908,9 @@
       <c r="ACG126">
         <v>0.2774432</v>
       </c>
+      <c r="ACH126">
+        <v>0</v>
+      </c>
       <c r="ACI126">
         <v>0.2559648</v>
       </c>
@@ -72623,6 +72938,9 @@
       <c r="ACX126">
         <v>0.6211179999999999</v>
       </c>
+      <c r="ADN126">
+        <v>1.1337868</v>
+      </c>
       <c r="ADP126">
         <v>0.1922549</v>
       </c>
@@ -72747,6 +73065,9 @@
         <v>0.4490662</v>
       </c>
       <c r="AHX126">
+        <v>0</v>
+      </c>
+      <c r="AHY126">
         <v>0</v>
       </c>
       <c r="AIB126">
@@ -72898,6 +73219,9 @@
       <c r="CO127">
         <v>1.1184573</v>
       </c>
+      <c r="CQ127">
+        <v>0.5714286</v>
+      </c>
       <c r="CR127">
         <v>0.2634608</v>
       </c>
@@ -72916,6 +73240,9 @@
       <c r="DD127">
         <v>0.023602</v>
       </c>
+      <c r="DE127">
+        <v>0.8432148</v>
+      </c>
       <c r="DK127">
         <v>0.4121864</v>
       </c>
@@ -72925,6 +73252,9 @@
       <c r="DS127">
         <v>0.1830705</v>
       </c>
+      <c r="DU127">
+        <v>0.6443299</v>
+      </c>
       <c r="DW127">
         <v>0.2473978</v>
       </c>
@@ -73105,6 +73435,9 @@
       <c r="JX127">
         <v>0.7774707</v>
       </c>
+      <c r="KA127">
+        <v>0.4635762</v>
+      </c>
       <c r="KB127">
         <v>0.1828889</v>
       </c>
@@ -73327,6 +73660,9 @@
       <c r="RD127">
         <v>0.4512163</v>
       </c>
+      <c r="RG127">
+        <v>0.3490401</v>
+      </c>
       <c r="RI127">
         <v>0.142369</v>
       </c>
@@ -73534,6 +73870,9 @@
       <c r="YY127">
         <v>0</v>
       </c>
+      <c r="ZD127">
+        <v>0.4115226</v>
+      </c>
       <c r="ZL127">
         <v>0.1838784</v>
       </c>
@@ -73645,6 +73984,9 @@
       <c r="ACG127">
         <v>0.3101392</v>
       </c>
+      <c r="ACH127">
+        <v>0</v>
+      </c>
       <c r="ACI127">
         <v>0.2602906</v>
       </c>
@@ -73672,6 +74014,9 @@
       <c r="ACX127">
         <v>0.6211179999999999</v>
       </c>
+      <c r="ADN127">
+        <v>1.2820513</v>
+      </c>
       <c r="ADP127">
         <v>0.3510946</v>
       </c>
@@ -73830,6 +74175,9 @@
       </c>
       <c r="AJA127">
         <v>0.1875</v>
+      </c>
+      <c r="AJB127">
+        <v>1.425</v>
       </c>
     </row>
     <row r="128" spans="1:938">
@@ -73944,6 +74292,9 @@
       <c r="CO128">
         <v>1.1967928</v>
       </c>
+      <c r="CQ128">
+        <v>0.5524862</v>
+      </c>
       <c r="CR128">
         <v>0.2801933</v>
       </c>
@@ -73962,6 +74313,9 @@
       <c r="DD128">
         <v>0.0859978</v>
       </c>
+      <c r="DE128">
+        <v>0.8173691</v>
+      </c>
       <c r="DK128">
         <v>0.4356061</v>
       </c>
@@ -73971,6 +74325,9 @@
       <c r="DS128">
         <v>0.30116</v>
       </c>
+      <c r="DU128">
+        <v>0.6578947000000001</v>
+      </c>
       <c r="DW128">
         <v>0.1741495</v>
       </c>
@@ -74151,6 +74508,9 @@
       <c r="JX128">
         <v>1.1625786</v>
       </c>
+      <c r="KA128">
+        <v>0.3496503</v>
+      </c>
       <c r="KB128">
         <v>0.1934232</v>
       </c>
@@ -74373,6 +74733,9 @@
       <c r="RD128">
         <v>0.4633586</v>
       </c>
+      <c r="RG128">
+        <v>0.3527337</v>
+      </c>
       <c r="RI128">
         <v>0.3850711</v>
       </c>
@@ -74580,6 +74943,9 @@
       <c r="YY128">
         <v>0</v>
       </c>
+      <c r="ZD128">
+        <v>1.0615711</v>
+      </c>
       <c r="ZL128">
         <v>0.1883415</v>
       </c>
@@ -74691,6 +75057,9 @@
       <c r="ACG128">
         <v>0.2199336</v>
       </c>
+      <c r="ACH128">
+        <v>0</v>
+      </c>
       <c r="ACI128">
         <v>0.2413498</v>
       </c>
@@ -74718,6 +75087,9 @@
       <c r="ACX128">
         <v>1.2738854</v>
       </c>
+      <c r="ADN128">
+        <v>1.2195122</v>
+      </c>
       <c r="ADP128">
         <v>0.4231463</v>
       </c>
@@ -74877,8 +75249,11 @@
       <c r="AJA128">
         <v>0.1893939</v>
       </c>
+      <c r="AJB128">
+        <v>1.4393939</v>
+      </c>
     </row>
-    <row r="129" spans="1:936">
+    <row r="129" spans="1:938">
       <c r="A129" t="s">
         <v>1066</v>
       </c>
@@ -74990,6 +75365,9 @@
       <c r="CO129">
         <v>1.2402248</v>
       </c>
+      <c r="CQ129">
+        <v>0.5405405</v>
+      </c>
       <c r="CR129">
         <v>0.1932947</v>
       </c>
@@ -75008,6 +75386,9 @@
       <c r="DD129">
         <v>0.0872328</v>
       </c>
+      <c r="DE129">
+        <v>0.6870229</v>
+      </c>
       <c r="DK129">
         <v>0.2073906</v>
       </c>
@@ -75059,6 +75440,9 @@
       <c r="FE129">
         <v>0.3904265</v>
       </c>
+      <c r="FF129">
+        <v>0.1901141</v>
+      </c>
       <c r="FG129">
         <v>0.6493235000000001</v>
       </c>
@@ -75144,7 +75528,7 @@
         <v>0.2427955</v>
       </c>
       <c r="HY129">
-        <v>0.2961351</v>
+        <v>0.2961005</v>
       </c>
       <c r="IC129">
         <v>0.6940874</v>
@@ -75194,6 +75578,9 @@
       <c r="JX129">
         <v>0.8575245</v>
       </c>
+      <c r="KA129">
+        <v>0.6849315</v>
+      </c>
       <c r="KB129">
         <v>0.3272758</v>
       </c>
@@ -75230,6 +75617,9 @@
       <c r="LR129">
         <v>0</v>
       </c>
+      <c r="LU129">
+        <v>0.6038647</v>
+      </c>
       <c r="LW129">
         <v>0.0868056</v>
       </c>
@@ -75413,6 +75803,9 @@
       <c r="RD129">
         <v>0.4314073</v>
       </c>
+      <c r="RG129">
+        <v>0.3527337</v>
+      </c>
       <c r="RI129">
         <v>0.3934625</v>
       </c>
@@ -75731,6 +76124,9 @@
       <c r="ACG129">
         <v>0.2119625</v>
       </c>
+      <c r="ACH129">
+        <v>0</v>
+      </c>
       <c r="ACI129">
         <v>0.3699819</v>
       </c>
@@ -75758,6 +76154,9 @@
       <c r="ACX129">
         <v>1.2903226</v>
       </c>
+      <c r="ADN129">
+        <v>1.3071895</v>
+      </c>
       <c r="ADP129">
         <v>0.4229806</v>
       </c>
@@ -75914,8 +76313,14 @@
       <c r="AIZ129">
         <v>0.2841537</v>
       </c>
+      <c r="AJA129">
+        <v>0.1720183</v>
+      </c>
+      <c r="AJB129">
+        <v>2.2143975</v>
+      </c>
     </row>
-    <row r="130" spans="1:936">
+    <row r="130" spans="1:938">
       <c r="A130" t="s">
         <v>1067</v>
       </c>
@@ -76030,6 +76435,9 @@
       <c r="CR130">
         <v>0.2018796</v>
       </c>
+      <c r="CS130">
+        <v>0.3584229</v>
+      </c>
       <c r="CT130">
         <v>0.2525253</v>
       </c>
@@ -76042,6 +76450,9 @@
       <c r="DD130">
         <v>0.0951613</v>
       </c>
+      <c r="DE130">
+        <v>0.7673861</v>
+      </c>
       <c r="DK130">
         <v>0.229741</v>
       </c>
@@ -76093,6 +76504,9 @@
       <c r="FE130">
         <v>0.3904238</v>
       </c>
+      <c r="FF130">
+        <v>0.1858736</v>
+      </c>
       <c r="FG130">
         <v>0.5507737</v>
       </c>
@@ -76178,7 +76592,7 @@
         <v>0.2603724</v>
       </c>
       <c r="HY130">
-        <v>0.2850649</v>
+        <v>0.2850309</v>
       </c>
       <c r="IC130">
         <v>0.6596306</v>
@@ -76228,6 +76642,9 @@
       <c r="JX130">
         <v>0.5786424999999999</v>
       </c>
+      <c r="KA130">
+        <v>1.7283951</v>
+      </c>
       <c r="KB130">
         <v>0.3717762</v>
       </c>
@@ -76264,6 +76681,9 @@
       <c r="LR130">
         <v>0</v>
       </c>
+      <c r="LU130">
+        <v>0.5896226</v>
+      </c>
       <c r="LW130">
         <v>0.08896800000000001</v>
       </c>
@@ -76438,12 +76858,18 @@
       <c r="QY130">
         <v>0.1975046</v>
       </c>
+      <c r="RA130">
+        <v>0.3012048</v>
+      </c>
       <c r="RB130">
         <v>0.2086811</v>
       </c>
       <c r="RD130">
         <v>0.3269921</v>
       </c>
+      <c r="RG130">
+        <v>0.3584229</v>
+      </c>
       <c r="RI130">
         <v>0.2653302</v>
       </c>
@@ -76945,8 +77371,14 @@
       <c r="AIZ130">
         <v>0.3575518</v>
       </c>
+      <c r="AJA130">
+        <v>0.1760563</v>
+      </c>
+      <c r="AJB130">
+        <v>2.2429907</v>
+      </c>
     </row>
-    <row r="131" spans="1:936">
+    <row r="131" spans="1:938">
       <c r="A131" t="s">
         <v>1068</v>
       </c>
@@ -77061,6 +77493,9 @@
       <c r="CR131">
         <v>0.1982771</v>
       </c>
+      <c r="CS131">
+        <v>0.5535055</v>
+      </c>
       <c r="CT131">
         <v>0.2570694</v>
       </c>
@@ -77073,6 +77508,9 @@
       <c r="DD131">
         <v>0.2077964</v>
       </c>
+      <c r="DE131">
+        <v>0.7459207</v>
+      </c>
       <c r="DK131">
         <v>0.1484309</v>
       </c>
@@ -77119,11 +77557,14 @@
         <v>0.2553488</v>
       </c>
       <c r="FD131">
-        <v>0.2386567</v>
+        <v>0.2385279</v>
       </c>
       <c r="FE131">
         <v>0.4012186</v>
       </c>
+      <c r="FF131">
+        <v>0.323741</v>
+      </c>
       <c r="FG131">
         <v>0.5134412</v>
       </c>
@@ -77209,7 +77650,7 @@
         <v>0.2512794</v>
       </c>
       <c r="HY131">
-        <v>0.2962743</v>
+        <v>0.2962381</v>
       </c>
       <c r="IC131">
         <v>0.6720429999999999</v>
@@ -77259,6 +77700,9 @@
       <c r="JX131">
         <v>0.7030486</v>
       </c>
+      <c r="KA131">
+        <v>1.5819209</v>
+      </c>
       <c r="KB131">
         <v>0.3907071</v>
       </c>
@@ -77295,6 +77739,9 @@
       <c r="LR131">
         <v>0</v>
       </c>
+      <c r="LU131">
+        <v>0.2293578</v>
+      </c>
       <c r="LW131">
         <v>0.0892857</v>
       </c>
@@ -77380,7 +77827,7 @@
         <v>0.1382212</v>
       </c>
       <c r="OL131">
-        <v>0.5084794</v>
+        <v>0.5082544</v>
       </c>
       <c r="ON131">
         <v>0.5719532000000001</v>
@@ -77469,6 +77916,9 @@
       <c r="QY131">
         <v>0.1776703</v>
       </c>
+      <c r="RA131">
+        <v>0</v>
+      </c>
       <c r="RB131">
         <v>0.2129472</v>
       </c>
@@ -77536,13 +77986,13 @@
         <v>0.3052931</v>
       </c>
       <c r="TY131">
-        <v>0.4108591</v>
+        <v>0.4105728</v>
       </c>
       <c r="UA131">
         <v>0.3992016</v>
       </c>
       <c r="UE131">
-        <v>0.4886303</v>
+        <v>0.4885253</v>
       </c>
       <c r="UF131">
         <v>0.4424779</v>
@@ -77788,7 +78238,7 @@
         <v>0.1877838</v>
       </c>
       <c r="ACE131">
-        <v>0.2833503</v>
+        <v>0.2833075</v>
       </c>
       <c r="ACG131">
         <v>0.1576358</v>
@@ -77815,7 +78265,7 @@
         <v>0.4522613</v>
       </c>
       <c r="ACW131">
-        <v>0.3340317</v>
+        <v>0.3339789</v>
       </c>
       <c r="ACX131">
         <v>0.6666666999999999</v>
@@ -77869,7 +78319,7 @@
         <v>0.1492477</v>
       </c>
       <c r="AFH131">
-        <v>0.1938307</v>
+        <v>0.1938007</v>
       </c>
       <c r="AFK131">
         <v>0.6822612</v>
@@ -77890,7 +78340,7 @@
         <v>0.0892857</v>
       </c>
       <c r="AGA131">
-        <v>0.4848411</v>
+        <v>0.4846716</v>
       </c>
       <c r="AGC131">
         <v>0.4384049</v>
@@ -77932,7 +78382,7 @@
         <v>0.6112469</v>
       </c>
       <c r="AHN131">
-        <v>0.4399622</v>
+        <v>0.4398865</v>
       </c>
       <c r="AHP131">
         <v>0.2217295</v>
@@ -77976,15 +78426,5212 @@
       <c r="AIZ131">
         <v>0.3050766</v>
       </c>
+      <c r="AJA131">
+        <v>0.1659292</v>
+      </c>
+      <c r="AJB131">
+        <v>2.4074074</v>
+      </c>
     </row>
-    <row r="132" spans="1:936">
+    <row r="132" spans="1:938">
       <c r="A132" t="s">
         <v>1069</v>
       </c>
+      <c r="D132">
+        <v>0.6526104</v>
+      </c>
+      <c r="H132">
+        <v>0.2307235</v>
+      </c>
+      <c r="J132">
+        <v>1.2363636</v>
+      </c>
+      <c r="K132">
+        <v>0.4276711</v>
+      </c>
+      <c r="L132">
+        <v>0.1101889</v>
+      </c>
+      <c r="P132">
+        <v>0.055568</v>
+      </c>
+      <c r="R132">
+        <v>1.1414392</v>
+      </c>
+      <c r="U132">
+        <v>0.2660357</v>
+      </c>
+      <c r="X132">
+        <v>0.0621891</v>
+      </c>
+      <c r="Z132">
+        <v>0.4909091</v>
+      </c>
+      <c r="AB132">
+        <v>0.9103078999999999</v>
+      </c>
+      <c r="AD132">
+        <v>0.5137123</v>
+      </c>
+      <c r="AG132">
+        <v>0.4572381</v>
+      </c>
+      <c r="AI132">
+        <v>0.4275156</v>
+      </c>
+      <c r="AN132">
+        <v>0.3716575</v>
+      </c>
+      <c r="AV132">
+        <v>1.2695312</v>
+      </c>
+      <c r="AW132">
+        <v>0.4081333</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0.8210181</v>
+      </c>
+      <c r="BC132">
+        <v>0.3561768</v>
+      </c>
+      <c r="BF132">
+        <v>0.3750134</v>
+      </c>
+      <c r="BH132">
+        <v>0.6533757</v>
+      </c>
+      <c r="BI132">
+        <v>0.3748541</v>
+      </c>
+      <c r="BJ132">
+        <v>0.3067485</v>
+      </c>
+      <c r="BM132">
+        <v>0.3236246</v>
+      </c>
+      <c r="BR132">
+        <v>0.7320057</v>
+      </c>
+      <c r="BS132">
+        <v>0.5773672</v>
+      </c>
+      <c r="BT132">
+        <v>0.7368421000000001</v>
+      </c>
+      <c r="BW132">
+        <v>0.5160099</v>
+      </c>
+      <c r="BY132">
+        <v>0.2703921</v>
+      </c>
+      <c r="CC132">
+        <v>0.1492537</v>
+      </c>
+      <c r="CE132">
+        <v>0.4228856</v>
+      </c>
+      <c r="CL132">
+        <v>0.2257336</v>
+      </c>
+      <c r="CM132">
+        <v>0.5519335</v>
+      </c>
+      <c r="CN132">
+        <v>0.3433617</v>
+      </c>
+      <c r="CO132">
+        <v>1.535224</v>
+      </c>
+      <c r="CR132">
+        <v>0.2083333</v>
+      </c>
+      <c r="CS132">
+        <v>0.5639098</v>
+      </c>
+      <c r="CT132">
+        <v>0.2604167</v>
+      </c>
+      <c r="CY132">
+        <v>0.106293</v>
+      </c>
+      <c r="DC132">
+        <v>0.254203</v>
+      </c>
+      <c r="DD132">
+        <v>0.2136109</v>
+      </c>
+      <c r="DK132">
+        <v>0.15681</v>
+      </c>
+      <c r="DN132">
+        <v>0.4644742</v>
+      </c>
+      <c r="DS132">
+        <v>0.4782899</v>
+      </c>
+      <c r="DW132">
+        <v>0.135134</v>
+      </c>
+      <c r="DZ132">
+        <v>0.5461338999999999</v>
+      </c>
+      <c r="EA132">
+        <v>0.3596646</v>
+      </c>
+      <c r="EK132">
+        <v>0.3449891</v>
+      </c>
+      <c r="EL132">
+        <v>0.4321456</v>
+      </c>
+      <c r="EM132">
+        <v>0.2691273</v>
+      </c>
+      <c r="EN132">
+        <v>0.7968127</v>
+      </c>
+      <c r="ER132">
+        <v>0.8608815</v>
+      </c>
+      <c r="ET132">
+        <v>0.5468420000000001</v>
+      </c>
+      <c r="EZ132">
+        <v>0.3787879</v>
+      </c>
+      <c r="FA132">
+        <v>0.2044668</v>
+      </c>
+      <c r="FB132">
+        <v>0.1071439</v>
+      </c>
+      <c r="FD132">
+        <v>0.306485</v>
+      </c>
+      <c r="FE132">
+        <v>0.3458859</v>
+      </c>
+      <c r="FF132">
+        <v>0.3284672</v>
+      </c>
+      <c r="FG132">
+        <v>0.429206</v>
+      </c>
+      <c r="FH132">
+        <v>0.1672241</v>
+      </c>
+      <c r="FI132">
+        <v>0.3477185</v>
+      </c>
+      <c r="FJ132">
+        <v>0.1800412</v>
+      </c>
+      <c r="FL132">
+        <v>0.3767456</v>
+      </c>
+      <c r="FO132">
+        <v>1.1904762</v>
+      </c>
+      <c r="FR132">
+        <v>0.1292568</v>
+      </c>
+      <c r="FS132">
+        <v>0.1679719</v>
+      </c>
+      <c r="FY132">
+        <v>0.8986175</v>
+      </c>
+      <c r="GB132">
+        <v>0.2425373</v>
+      </c>
+      <c r="GC132">
+        <v>0.1491795</v>
+      </c>
+      <c r="GD132">
+        <v>0.1449181</v>
+      </c>
+      <c r="GE132">
+        <v>0.2340742</v>
+      </c>
+      <c r="GF132">
+        <v>0.601885</v>
+      </c>
+      <c r="GJ132">
+        <v>0.3396766</v>
+      </c>
+      <c r="GS132">
+        <v>0.484033</v>
+      </c>
+      <c r="GV132">
+        <v>0.3820185</v>
+      </c>
+      <c r="HA132">
+        <v>0.6312591</v>
+      </c>
+      <c r="HF132">
+        <v>0.4665193</v>
+      </c>
+      <c r="HH132">
+        <v>0.4474273</v>
+      </c>
+      <c r="HK132">
+        <v>0.5784138</v>
+      </c>
+      <c r="HL132">
+        <v>0.5287225</v>
+      </c>
+      <c r="HN132">
+        <v>0.3062895</v>
+      </c>
+      <c r="HO132">
+        <v>0.6568144</v>
+      </c>
+      <c r="HP132">
+        <v>0</v>
+      </c>
+      <c r="HT132">
+        <v>0.2254852</v>
+      </c>
+      <c r="HV132">
+        <v>0.4833595</v>
+      </c>
+      <c r="HX132">
+        <v>0.3598332</v>
+      </c>
+      <c r="HY132">
+        <v>0.2783349</v>
+      </c>
+      <c r="IC132">
+        <v>0.6272401</v>
+      </c>
+      <c r="IE132">
+        <v>0.2609263</v>
+      </c>
+      <c r="IH132">
+        <v>0.2306805</v>
+      </c>
+      <c r="II132">
+        <v>0.3079617</v>
+      </c>
+      <c r="IN132">
+        <v>0.3368913</v>
+      </c>
+      <c r="IR132">
+        <v>0.1039501</v>
+      </c>
+      <c r="IS132">
+        <v>0</v>
+      </c>
+      <c r="IZ132">
+        <v>0.2564103</v>
+      </c>
+      <c r="JB132">
+        <v>0.7706389</v>
+      </c>
+      <c r="JF132">
+        <v>0.546875</v>
+      </c>
+      <c r="JG132">
+        <v>0.4099808</v>
+      </c>
+      <c r="JK132">
+        <v>0.5091239</v>
+      </c>
+      <c r="JO132">
+        <v>0.2253565</v>
+      </c>
+      <c r="JR132">
+        <v>0.6118213</v>
+      </c>
+      <c r="JS132">
+        <v>0.2427184</v>
+      </c>
+      <c r="JX132">
+        <v>0.682279</v>
+      </c>
+      <c r="KB132">
+        <v>0.3307794</v>
+      </c>
+      <c r="KC132">
+        <v>0.7810993000000001</v>
+      </c>
+      <c r="KI132">
+        <v>0.3044958</v>
+      </c>
+      <c r="KJ132">
+        <v>0.5110063</v>
+      </c>
+      <c r="KO132">
+        <v>0.3379151</v>
+      </c>
+      <c r="KV132">
+        <v>0.5987738</v>
+      </c>
+      <c r="KW132">
+        <v>0.4412848</v>
+      </c>
+      <c r="LD132">
+        <v>0.5577193</v>
+      </c>
+      <c r="LG132">
+        <v>0.1689936</v>
+      </c>
+      <c r="LH132">
+        <v>0.3606557</v>
+      </c>
+      <c r="LO132">
+        <v>0</v>
+      </c>
+      <c r="LR132">
+        <v>0.3820961</v>
+      </c>
+      <c r="LU132">
+        <v>0.3858025</v>
+      </c>
+      <c r="LW132">
+        <v>0</v>
+      </c>
+      <c r="LX132">
+        <v>0.3597122</v>
+      </c>
+      <c r="LY132">
+        <v>0.4498293</v>
+      </c>
+      <c r="MA132">
+        <v>0.2780744</v>
+      </c>
+      <c r="MC132">
+        <v>0.52589</v>
+      </c>
+      <c r="ME132">
+        <v>0</v>
+      </c>
+      <c r="MF132">
+        <v>0.1569218</v>
+      </c>
+      <c r="MG132">
+        <v>0.271914</v>
+      </c>
+      <c r="MI132">
+        <v>0.643729</v>
+      </c>
+      <c r="ML132">
+        <v>0.1704158</v>
+      </c>
+      <c r="MN132">
+        <v>0.5392195</v>
+      </c>
+      <c r="MS132">
+        <v>0.4787655</v>
+      </c>
+      <c r="MU132">
+        <v>0.7735695</v>
+      </c>
+      <c r="MW132">
+        <v>0.3544166</v>
+      </c>
+      <c r="MX132">
+        <v>0.9111111</v>
+      </c>
+      <c r="MZ132">
+        <v>0.2814093</v>
+      </c>
+      <c r="NC132">
+        <v>0.3140122</v>
+      </c>
+      <c r="NE132">
+        <v>0.3405449</v>
+      </c>
+      <c r="NM132">
+        <v>0.2636396</v>
+      </c>
+      <c r="NP132">
+        <v>0.4766298</v>
+      </c>
+      <c r="NQ132">
+        <v>0</v>
+      </c>
+      <c r="NT132">
+        <v>0</v>
+      </c>
+      <c r="NW132">
+        <v>0</v>
+      </c>
+      <c r="NY132">
+        <v>0.3594249</v>
+      </c>
+      <c r="NZ132">
+        <v>0.5170489</v>
+      </c>
+      <c r="OD132">
+        <v>0.31183</v>
+      </c>
+      <c r="OE132">
+        <v>0.486918</v>
+      </c>
+      <c r="OJ132">
+        <v>0.17533</v>
+      </c>
+      <c r="OL132">
+        <v>0.4979106</v>
+      </c>
+      <c r="ON132">
+        <v>0.4157616</v>
+      </c>
+      <c r="OP132">
+        <v>0.1392758</v>
+      </c>
+      <c r="OQ132">
+        <v>0.3292603</v>
+      </c>
+      <c r="OR132">
+        <v>0.4836136</v>
+      </c>
+      <c r="OT132">
+        <v>0.4213483</v>
+      </c>
+      <c r="OV132">
+        <v>0.4776148</v>
+      </c>
+      <c r="OX132">
+        <v>0.1031593</v>
+      </c>
+      <c r="PB132">
+        <v>0.8371385</v>
+      </c>
+      <c r="PG132">
+        <v>0.2689901</v>
+      </c>
+      <c r="PJ132">
+        <v>0.406654</v>
+      </c>
+      <c r="PK132">
+        <v>0</v>
+      </c>
+      <c r="PL132">
+        <v>0.351803</v>
+      </c>
+      <c r="PM132">
+        <v>0.8277009</v>
+      </c>
+      <c r="PP132">
+        <v>0.6674713</v>
+      </c>
+      <c r="PR132">
+        <v>0.5532503</v>
+      </c>
+      <c r="PS132">
+        <v>0.4364983</v>
+      </c>
+      <c r="PY132">
+        <v>0.3856749</v>
+      </c>
+      <c r="QD132">
+        <v>0.3420015</v>
+      </c>
+      <c r="QE132">
+        <v>0.1777226</v>
+      </c>
+      <c r="QF132">
+        <v>0.3125</v>
+      </c>
+      <c r="QK132">
+        <v>0.3274561</v>
+      </c>
+      <c r="QN132">
+        <v>0.5195682</v>
+      </c>
+      <c r="QO132">
+        <v>0.5987306</v>
+      </c>
+      <c r="QP132">
+        <v>0.7632044</v>
+      </c>
+      <c r="QS132">
+        <v>0.5128205</v>
+      </c>
+      <c r="QU132">
+        <v>0.4784689</v>
+      </c>
+      <c r="QV132">
+        <v>0.2664485</v>
+      </c>
+      <c r="QX132">
+        <v>0.3481886</v>
+      </c>
+      <c r="QY132">
+        <v>0.1772723</v>
+      </c>
+      <c r="RA132">
+        <v>0</v>
+      </c>
+      <c r="RB132">
+        <v>0.2173913</v>
+      </c>
+      <c r="RD132">
+        <v>0.4523915</v>
+      </c>
+      <c r="RI132">
+        <v>0.2906977</v>
+      </c>
+      <c r="RL132">
+        <v>0.6567797</v>
+      </c>
+      <c r="RQ132">
+        <v>0</v>
+      </c>
+      <c r="RT132">
+        <v>0.1725271</v>
+      </c>
+      <c r="RV132">
+        <v>0.1886792</v>
+      </c>
+      <c r="RX132">
+        <v>0.5787743</v>
+      </c>
+      <c r="RY132">
+        <v>0.8092463</v>
+      </c>
+      <c r="SA132">
+        <v>0.2136752</v>
+      </c>
+      <c r="SD132">
+        <v>0.5528672</v>
+      </c>
+      <c r="SG132">
+        <v>0.5880083</v>
+      </c>
+      <c r="SH132">
+        <v>0.3941953</v>
+      </c>
+      <c r="SI132">
+        <v>0.4285794</v>
+      </c>
+      <c r="SM132">
+        <v>0.295701</v>
+      </c>
+      <c r="SO132">
+        <v>0.2022654</v>
+      </c>
+      <c r="SP132">
+        <v>0</v>
+      </c>
+      <c r="SR132">
+        <v>0.1747994</v>
+      </c>
+      <c r="SW132">
+        <v>0.2799752</v>
+      </c>
+      <c r="SX132">
+        <v>0.6544503</v>
+      </c>
+      <c r="TS132">
+        <v>0.4930446</v>
+      </c>
+      <c r="TX132">
+        <v>0.3026753</v>
+      </c>
+      <c r="TY132">
+        <v>0.5237695</v>
+      </c>
+      <c r="UA132">
+        <v>0.464876</v>
+      </c>
+      <c r="UE132">
+        <v>0.5145879</v>
+      </c>
+      <c r="UF132">
+        <v>0.4213483</v>
+      </c>
+      <c r="UH132">
+        <v>0.6846339</v>
+      </c>
+      <c r="UI132">
+        <v>0.6145928000000001</v>
+      </c>
+      <c r="UK132">
+        <v>0.367808</v>
+      </c>
+      <c r="UN132">
+        <v>0.3126904</v>
+      </c>
+      <c r="UP132">
+        <v>0.1488095</v>
+      </c>
+      <c r="US132">
+        <v>0.746663</v>
+      </c>
+      <c r="UT132">
+        <v>0.2201505</v>
+      </c>
+      <c r="UU132">
+        <v>1.0075686</v>
+      </c>
+      <c r="UV132">
+        <v>0.2192982</v>
+      </c>
+      <c r="UW132">
+        <v>1.0034567</v>
+      </c>
+      <c r="VA132">
+        <v>0</v>
+      </c>
+      <c r="VB132">
+        <v>0.5948757</v>
+      </c>
+      <c r="VO132">
+        <v>0.4430593</v>
+      </c>
+      <c r="VP132">
+        <v>1.1994368</v>
+      </c>
+      <c r="VS132">
+        <v>0.2152719</v>
+      </c>
+      <c r="VU132">
+        <v>0.9509145</v>
+      </c>
+      <c r="VW132">
+        <v>0.039185</v>
+      </c>
+      <c r="VX132">
+        <v>0.9712434</v>
+      </c>
+      <c r="VY132">
+        <v>0.6830432</v>
+      </c>
+      <c r="WB132">
+        <v>0.4074074</v>
+      </c>
+      <c r="WF132">
+        <v>0.373996</v>
+      </c>
+      <c r="WG132">
+        <v>0.5048142</v>
+      </c>
+      <c r="WL132">
+        <v>0.4628326</v>
+      </c>
+      <c r="WM132">
+        <v>0.1744186</v>
+      </c>
+      <c r="WQ132">
+        <v>0.2806559</v>
+      </c>
+      <c r="WU132">
+        <v>0.0633837</v>
+      </c>
+      <c r="WW132">
+        <v>0.08267770000000001</v>
+      </c>
+      <c r="WY132">
+        <v>0.3472222</v>
+      </c>
+      <c r="WZ132">
+        <v>0.2860492</v>
+      </c>
+      <c r="XD132">
+        <v>0.5205708</v>
+      </c>
+      <c r="XF132">
+        <v>0.4121401</v>
+      </c>
+      <c r="XG132">
+        <v>0.4273447</v>
+      </c>
+      <c r="XL132">
+        <v>0.1901323</v>
+      </c>
+      <c r="XM132">
+        <v>0.2941862</v>
+      </c>
+      <c r="XT132">
+        <v>0.0680272</v>
+      </c>
+      <c r="XV132">
+        <v>0.2424239</v>
+      </c>
+      <c r="YB132">
+        <v>0.2581739</v>
+      </c>
+      <c r="YD132">
+        <v>0.2503577</v>
+      </c>
+      <c r="YH132">
+        <v>0.3927344</v>
+      </c>
+      <c r="YN132">
+        <v>0.4749091</v>
+      </c>
+      <c r="YO132">
+        <v>0.8561255</v>
+      </c>
+      <c r="YQ132">
+        <v>0.2634848</v>
+      </c>
+      <c r="YR132">
+        <v>0.5503347</v>
+      </c>
+      <c r="YX132">
+        <v>0.1171852</v>
+      </c>
+      <c r="YY132">
+        <v>0.1153403</v>
+      </c>
+      <c r="ZL132">
+        <v>0.3279649</v>
+      </c>
+      <c r="ZM132">
+        <v>0.1330785</v>
+      </c>
+      <c r="ZO132">
+        <v>0.2890349</v>
+      </c>
+      <c r="ZR132">
+        <v>0.3741866</v>
+      </c>
+      <c r="ZS132">
+        <v>0.1893939</v>
+      </c>
+      <c r="ZV132">
+        <v>0.3962862</v>
+      </c>
+      <c r="ZW132">
+        <v>0.314259</v>
+      </c>
+      <c r="ZX132">
+        <v>1.1759471</v>
+      </c>
+      <c r="ZZ132">
+        <v>0.07278030000000001</v>
+      </c>
+      <c r="AAB132">
+        <v>0.1992032</v>
+      </c>
+      <c r="AAC132">
+        <v>0.3972074</v>
+      </c>
+      <c r="AAD132">
+        <v>0.2242152</v>
+      </c>
+      <c r="AAF132">
+        <v>0.2255742</v>
+      </c>
+      <c r="AAH132">
+        <v>0.228833</v>
+      </c>
+      <c r="AAJ132">
+        <v>0.4557094</v>
+      </c>
+      <c r="AAM132">
+        <v>0.3242331</v>
+      </c>
+      <c r="AAP132">
+        <v>0.3516389</v>
+      </c>
+      <c r="AAR132">
+        <v>0.5185696</v>
+      </c>
+      <c r="AAU132">
+        <v>0.2572899</v>
+      </c>
+      <c r="AAV132">
+        <v>0.1358034</v>
+      </c>
+      <c r="AAW132">
+        <v>0.4124708</v>
+      </c>
+      <c r="ABA132">
+        <v>0.3267974</v>
+      </c>
+      <c r="ABC132">
+        <v>0.2739726</v>
+      </c>
+      <c r="ABJ132">
+        <v>0.3164777</v>
+      </c>
+      <c r="ABL132">
+        <v>0.3454859</v>
+      </c>
+      <c r="ABM132">
+        <v>0.7561867</v>
+      </c>
+      <c r="ABN132">
+        <v>0.137741</v>
+      </c>
+      <c r="ABP132">
+        <v>0.1061808</v>
+      </c>
+      <c r="ABT132">
+        <v>0.2226866</v>
+      </c>
+      <c r="ABV132">
+        <v>0.4179649</v>
+      </c>
+      <c r="ABW132">
+        <v>0.2992633</v>
+      </c>
+      <c r="ABX132">
+        <v>0.4171345</v>
+      </c>
+      <c r="ABY132">
+        <v>0</v>
+      </c>
+      <c r="ABZ132">
+        <v>0.2765001</v>
+      </c>
+      <c r="ACA132">
+        <v>0.1596711</v>
+      </c>
+      <c r="ACE132">
+        <v>0.2764036</v>
+      </c>
+      <c r="ACG132">
+        <v>0.1182055</v>
+      </c>
+      <c r="ACI132">
+        <v>0.7419456</v>
+      </c>
+      <c r="ACJ132">
+        <v>0</v>
+      </c>
+      <c r="ACK132">
+        <v>0.1872659</v>
+      </c>
+      <c r="ACM132">
+        <v>0.2016734</v>
+      </c>
+      <c r="ACN132">
+        <v>0.173266</v>
+      </c>
+      <c r="ACP132">
+        <v>0.3213613</v>
+      </c>
+      <c r="ACU132">
+        <v>0.3974346</v>
+      </c>
+      <c r="ACW132">
+        <v>0.317761</v>
+      </c>
+      <c r="ACX132">
+        <v>0.625</v>
+      </c>
+      <c r="ADP132">
+        <v>0.7741796</v>
+      </c>
+      <c r="ADR132">
+        <v>0.3415301</v>
+      </c>
+      <c r="ADU132">
+        <v>0.8236724</v>
+      </c>
+      <c r="ADV132">
+        <v>0.3648852</v>
+      </c>
+      <c r="AEA132">
+        <v>0.2416417</v>
+      </c>
+      <c r="AEB132">
+        <v>0.6351983</v>
+      </c>
+      <c r="AEF132">
+        <v>0.2763099</v>
+      </c>
+      <c r="AEG132">
+        <v>0.0619579</v>
+      </c>
+      <c r="AEH132">
+        <v>0.2470345</v>
+      </c>
+      <c r="AEI132">
+        <v>0.3049838</v>
+      </c>
+      <c r="AEJ132">
+        <v>0.8317338</v>
+      </c>
+      <c r="AEL132">
+        <v>0.0239464</v>
+      </c>
+      <c r="AEU132">
+        <v>0.5973551</v>
+      </c>
+      <c r="AEZ132">
+        <v>0.08591070000000001</v>
+      </c>
+      <c r="AFD132">
+        <v>0.3561443</v>
+      </c>
+      <c r="AFG132">
+        <v>0.1909359</v>
+      </c>
+      <c r="AFH132">
+        <v>0.2255648</v>
+      </c>
+      <c r="AFK132">
+        <v>0.6578947000000001</v>
+      </c>
+      <c r="AFL132">
+        <v>0.568306</v>
+      </c>
+      <c r="AFN132">
+        <v>0.5907173</v>
+      </c>
+      <c r="AFT132">
+        <v>0.3922139</v>
+      </c>
+      <c r="AFU132">
+        <v>0.8782539</v>
+      </c>
+      <c r="AFX132">
+        <v>0.0881834</v>
+      </c>
+      <c r="AGA132">
+        <v>0.5432337</v>
+      </c>
+      <c r="AGC132">
+        <v>0.3969789</v>
+      </c>
+      <c r="AGE132">
+        <v>0.7798288</v>
+      </c>
+      <c r="AGF132">
+        <v>0.4570792</v>
+      </c>
+      <c r="AGG132">
+        <v>0.2128954</v>
+      </c>
+      <c r="AGL132">
+        <v>0.2453218</v>
+      </c>
+      <c r="AGM132">
+        <v>0.4777127</v>
+      </c>
+      <c r="AGO132">
+        <v>0.5208333000000001</v>
+      </c>
+      <c r="AGP132">
+        <v>0.2605711</v>
+      </c>
+      <c r="AGV132">
+        <v>0</v>
+      </c>
+      <c r="AHA132">
+        <v>0.2549929</v>
+      </c>
+      <c r="AHB132">
+        <v>0.4619047</v>
+      </c>
+      <c r="AHD132">
+        <v>0.3576875</v>
+      </c>
+      <c r="AHH132">
+        <v>0.7199131</v>
+      </c>
+      <c r="AHN132">
+        <v>0.5139859</v>
+      </c>
+      <c r="AHP132">
+        <v>0.2242152</v>
+      </c>
+      <c r="AHS132">
+        <v>0.3609342</v>
+      </c>
+      <c r="AHU132">
+        <v>0.0509094</v>
+      </c>
+      <c r="AHX132">
+        <v>0.1494768</v>
+      </c>
+      <c r="AIB132">
+        <v>0.952381</v>
+      </c>
+      <c r="AID132">
+        <v>0.5171705</v>
+      </c>
+      <c r="AIE132">
+        <v>0.6622517</v>
+      </c>
+      <c r="AIF132">
+        <v>0.3095238</v>
+      </c>
+      <c r="AII132">
+        <v>0</v>
+      </c>
+      <c r="AIP132">
+        <v>0.3715135</v>
+      </c>
+      <c r="AIT132">
+        <v>0.3384816</v>
+      </c>
+      <c r="AIV132">
+        <v>0.9081972</v>
+      </c>
+      <c r="AIY132">
+        <v>0.2336403</v>
+      </c>
+      <c r="AIZ132">
+        <v>0.2867573</v>
+      </c>
+      <c r="AJA132">
+        <v>0.1637555</v>
+      </c>
     </row>
-    <row r="133" spans="1:936">
+    <row r="133" spans="1:938">
       <c r="A133" t="s">
         <v>1070</v>
+      </c>
+      <c r="D133">
+        <v>0.6585613</v>
+      </c>
+      <c r="H133">
+        <v>0.2109439</v>
+      </c>
+      <c r="J133">
+        <v>1.2274368</v>
+      </c>
+      <c r="K133">
+        <v>0.1046025</v>
+      </c>
+      <c r="L133">
+        <v>0.1105474</v>
+      </c>
+      <c r="P133">
+        <v>0.1464327</v>
+      </c>
+      <c r="R133">
+        <v>0.8474576</v>
+      </c>
+      <c r="U133">
+        <v>0.3476509</v>
+      </c>
+      <c r="X133">
+        <v>0.0642674</v>
+      </c>
+      <c r="Z133">
+        <v>0.6435944</v>
+      </c>
+      <c r="AB133">
+        <v>1.0459114</v>
+      </c>
+      <c r="AD133">
+        <v>0.5955041</v>
+      </c>
+      <c r="AG133">
+        <v>0.3819725</v>
+      </c>
+      <c r="AI133">
+        <v>0.3780653</v>
+      </c>
+      <c r="AN133">
+        <v>0.2439057</v>
+      </c>
+      <c r="AV133">
+        <v>0.8272059</v>
+      </c>
+      <c r="AW133">
+        <v>0.4426219</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0.0519481</v>
+      </c>
+      <c r="BC133">
+        <v>0.4821267</v>
+      </c>
+      <c r="BF133">
+        <v>0.3157701</v>
+      </c>
+      <c r="BH133">
+        <v>0.7769891</v>
+      </c>
+      <c r="BI133">
+        <v>0.2846286</v>
+      </c>
+      <c r="BJ133">
+        <v>0.4498978</v>
+      </c>
+      <c r="BM133">
+        <v>0.3030303</v>
+      </c>
+      <c r="BR133">
+        <v>0.654762</v>
+      </c>
+      <c r="BS133">
+        <v>0.5707763</v>
+      </c>
+      <c r="BT133">
+        <v>0.857569</v>
+      </c>
+      <c r="BW133">
+        <v>0.6009979</v>
+      </c>
+      <c r="BY133">
+        <v>0</v>
+      </c>
+      <c r="CC133">
+        <v>0.1501502</v>
+      </c>
+      <c r="CE133">
+        <v>0.4140571</v>
+      </c>
+      <c r="CL133">
+        <v>0.2364066</v>
+      </c>
+      <c r="CM133">
+        <v>0.5713001</v>
+      </c>
+      <c r="CN133">
+        <v>0.3233754</v>
+      </c>
+      <c r="CO133">
+        <v>0.7391138</v>
+      </c>
+      <c r="CR133">
+        <v>0.4264392</v>
+      </c>
+      <c r="CS133">
+        <v>0.5434783</v>
+      </c>
+      <c r="CT133">
+        <v>0.132626</v>
+      </c>
+      <c r="CY133">
+        <v>0.1735618</v>
+      </c>
+      <c r="DC133">
+        <v>0.3139876</v>
+      </c>
+      <c r="DD133">
+        <v>0.2713792</v>
+      </c>
+      <c r="DK133">
+        <v>0.0944287</v>
+      </c>
+      <c r="DN133">
+        <v>0.5497893</v>
+      </c>
+      <c r="DS133">
+        <v>0.758769</v>
+      </c>
+      <c r="DW133">
+        <v>0.1086059</v>
+      </c>
+      <c r="DZ133">
+        <v>0.5450372999999999</v>
+      </c>
+      <c r="EA133">
+        <v>0.2100259</v>
+      </c>
+      <c r="EK133">
+        <v>0.322935</v>
+      </c>
+      <c r="EL133">
+        <v>0.3972535</v>
+      </c>
+      <c r="EM133">
+        <v>0.2767892</v>
+      </c>
+      <c r="EN133">
+        <v>0.8474576</v>
+      </c>
+      <c r="ER133">
+        <v>1.0251323</v>
+      </c>
+      <c r="ET133">
+        <v>0.3588034</v>
+      </c>
+      <c r="EZ133">
+        <v>0.6076389</v>
+      </c>
+      <c r="FA133">
+        <v>0.2074247</v>
+      </c>
+      <c r="FB133">
+        <v>0.0655997</v>
+      </c>
+      <c r="FD133">
+        <v>0.3288425</v>
+      </c>
+      <c r="FE133">
+        <v>0.4156928</v>
+      </c>
+      <c r="FF133">
+        <v>0.3191489</v>
+      </c>
+      <c r="FG133">
+        <v>0.4021472</v>
+      </c>
+      <c r="FH133">
+        <v>0.1779359</v>
+      </c>
+      <c r="FI133">
+        <v>0.371752</v>
+      </c>
+      <c r="FJ133">
+        <v>0.225469</v>
+      </c>
+      <c r="FL133">
+        <v>0.3451748</v>
+      </c>
+      <c r="FO133">
+        <v>0.8547009</v>
+      </c>
+      <c r="FR133">
+        <v>0.1292568</v>
+      </c>
+      <c r="FS133">
+        <v>0.2607098</v>
+      </c>
+      <c r="FY133">
+        <v>0.6502242</v>
+      </c>
+      <c r="GB133">
+        <v>0.3647799</v>
+      </c>
+      <c r="GC133">
+        <v>0.1750708</v>
+      </c>
+      <c r="GD133">
+        <v>0.1112894</v>
+      </c>
+      <c r="GE133">
+        <v>0.2327515</v>
+      </c>
+      <c r="GF133">
+        <v>0.3854897</v>
+      </c>
+      <c r="GJ133">
+        <v>0.2423294</v>
+      </c>
+      <c r="GS133">
+        <v>0.4814275</v>
+      </c>
+      <c r="GV133">
+        <v>0</v>
+      </c>
+      <c r="HA133">
+        <v>0.7618959</v>
+      </c>
+      <c r="HF133">
+        <v>0.496286</v>
+      </c>
+      <c r="HH133">
+        <v>0.4761905</v>
+      </c>
+      <c r="HK133">
+        <v>0.4907241</v>
+      </c>
+      <c r="HL133">
+        <v>0.3942987</v>
+      </c>
+      <c r="HN133">
+        <v>0.3545485</v>
+      </c>
+      <c r="HO133">
+        <v>0.4954156</v>
+      </c>
+      <c r="HP133">
+        <v>0</v>
+      </c>
+      <c r="HT133">
+        <v>0.1895933</v>
+      </c>
+      <c r="HV133">
+        <v>0.4325882</v>
+      </c>
+      <c r="HX133">
+        <v>0.4607512</v>
+      </c>
+      <c r="HY133">
+        <v>0.2685959</v>
+      </c>
+      <c r="IC133">
+        <v>0.3565062</v>
+      </c>
+      <c r="IE133">
+        <v>0.2727583</v>
+      </c>
+      <c r="IH133">
+        <v>0.2406739</v>
+      </c>
+      <c r="II133">
+        <v>0.2581842</v>
+      </c>
+      <c r="IN133">
+        <v>0.30524</v>
+      </c>
+      <c r="IR133">
+        <v>0.087146</v>
+      </c>
+      <c r="IS133">
+        <v>0</v>
+      </c>
+      <c r="IZ133">
+        <v>0.2564103</v>
+      </c>
+      <c r="JB133">
+        <v>0.6393895000000001</v>
+      </c>
+      <c r="JF133">
+        <v>0.7886435000000001</v>
+      </c>
+      <c r="JG133">
+        <v>0.4270038</v>
+      </c>
+      <c r="JK133">
+        <v>0.4035749</v>
+      </c>
+      <c r="JO133">
+        <v>0.1858587</v>
+      </c>
+      <c r="JR133">
+        <v>0.4693335</v>
+      </c>
+      <c r="JS133">
+        <v>0</v>
+      </c>
+      <c r="JX133">
+        <v>0.682279</v>
+      </c>
+      <c r="KB133">
+        <v>0.5023873</v>
+      </c>
+      <c r="KC133">
+        <v>0.6264176</v>
+      </c>
+      <c r="KI133">
+        <v>0.2146621</v>
+      </c>
+      <c r="KJ133">
+        <v>0.4297459</v>
+      </c>
+      <c r="KO133">
+        <v>0.3659614</v>
+      </c>
+      <c r="KV133">
+        <v>0.6118912</v>
+      </c>
+      <c r="KW133">
+        <v>0.4407852</v>
+      </c>
+      <c r="LD133">
+        <v>0.7070208</v>
+      </c>
+      <c r="LG133">
+        <v>0.1408506</v>
+      </c>
+      <c r="LH133">
+        <v>0.3767123</v>
+      </c>
+      <c r="LO133">
+        <v>0.046729</v>
+      </c>
+      <c r="LR133">
+        <v>0.3739316</v>
+      </c>
+      <c r="LU133">
+        <v>0.3930818</v>
+      </c>
+      <c r="LW133">
+        <v>0.07905139999999999</v>
+      </c>
+      <c r="LX133">
+        <v>1.056338</v>
+      </c>
+      <c r="LY133">
+        <v>0.4153117</v>
+      </c>
+      <c r="MA133">
+        <v>0.3645227</v>
+      </c>
+      <c r="MC133">
+        <v>0.5310458</v>
+      </c>
+      <c r="ME133">
+        <v>0</v>
+      </c>
+      <c r="MF133">
+        <v>0.1380195</v>
+      </c>
+      <c r="MG133">
+        <v>0.0724841</v>
+      </c>
+      <c r="MI133">
+        <v>0.4442566</v>
+      </c>
+      <c r="ML133">
+        <v>0.2688839</v>
+      </c>
+      <c r="MN133">
+        <v>0.5942458</v>
+      </c>
+      <c r="MS133">
+        <v>0.4937012</v>
+      </c>
+      <c r="MU133">
+        <v>0.7011317</v>
+      </c>
+      <c r="MW133">
+        <v>0.6231399</v>
+      </c>
+      <c r="MX133">
+        <v>0.5725190999999999</v>
+      </c>
+      <c r="MZ133">
+        <v>0.2537892</v>
+      </c>
+      <c r="NC133">
+        <v>0.3480556</v>
+      </c>
+      <c r="NE133">
+        <v>0.3641817</v>
+      </c>
+      <c r="NM133">
+        <v>0.4022316</v>
+      </c>
+      <c r="NP133">
+        <v>0.7478632</v>
+      </c>
+      <c r="NQ133">
+        <v>0</v>
+      </c>
+      <c r="NT133">
+        <v>0</v>
+      </c>
+      <c r="NW133">
+        <v>0</v>
+      </c>
+      <c r="NY133">
+        <v>0.3461538</v>
+      </c>
+      <c r="NZ133">
+        <v>0.4987572</v>
+      </c>
+      <c r="OD133">
+        <v>0.3130122</v>
+      </c>
+      <c r="OE133">
+        <v>0.4597808</v>
+      </c>
+      <c r="OJ133">
+        <v>0.1775272</v>
+      </c>
+      <c r="OL133">
+        <v>0.5226378</v>
+      </c>
+      <c r="ON133">
+        <v>0.2942728</v>
+      </c>
+      <c r="OP133">
+        <v>0</v>
+      </c>
+      <c r="OQ133">
+        <v>0.3396297</v>
+      </c>
+      <c r="OR133">
+        <v>0.435683</v>
+      </c>
+      <c r="OT133">
+        <v>0.4155125</v>
+      </c>
+      <c r="OV133">
+        <v>0.4566783</v>
+      </c>
+      <c r="OX133">
+        <v>0.1066667</v>
+      </c>
+      <c r="PB133">
+        <v>0.6774055</v>
+      </c>
+      <c r="PG133">
+        <v>0.3918535</v>
+      </c>
+      <c r="PJ133">
+        <v>0.3986786</v>
+      </c>
+      <c r="PK133">
+        <v>0</v>
+      </c>
+      <c r="PL133">
+        <v>0.0898473</v>
+      </c>
+      <c r="PM133">
+        <v>0.8836532</v>
+      </c>
+      <c r="PP133">
+        <v>0.6847572</v>
+      </c>
+      <c r="PR133">
+        <v>0</v>
+      </c>
+      <c r="PS133">
+        <v>0.4200986</v>
+      </c>
+      <c r="PY133">
+        <v>0.3763441</v>
+      </c>
+      <c r="QD133">
+        <v>0.3469408</v>
+      </c>
+      <c r="QE133">
+        <v>0.2323993</v>
+      </c>
+      <c r="QF133">
+        <v>0.3076923</v>
+      </c>
+      <c r="QK133">
+        <v>0.2491986</v>
+      </c>
+      <c r="QN133">
+        <v>0.3203817</v>
+      </c>
+      <c r="QO133">
+        <v>0.5551265</v>
+      </c>
+      <c r="QP133">
+        <v>0.6948846</v>
+      </c>
+      <c r="QS133">
+        <v>0.6133979000000001</v>
+      </c>
+      <c r="QU133">
+        <v>0.4950495</v>
+      </c>
+      <c r="QV133">
+        <v>0.269549</v>
+      </c>
+      <c r="QX133">
+        <v>0.3240766</v>
+      </c>
+      <c r="QY133">
+        <v>0.2882167</v>
+      </c>
+      <c r="RA133">
+        <v>0</v>
+      </c>
+      <c r="RB133">
+        <v>0.248538</v>
+      </c>
+      <c r="RD133">
+        <v>0.4327282</v>
+      </c>
+      <c r="RI133">
+        <v>0.2624672</v>
+      </c>
+      <c r="RL133">
+        <v>0.678337</v>
+      </c>
+      <c r="RQ133">
+        <v>0</v>
+      </c>
+      <c r="RT133">
+        <v>0.1786095</v>
+      </c>
+      <c r="RV133">
+        <v>0.095057</v>
+      </c>
+      <c r="RX133">
+        <v>0.3795809</v>
+      </c>
+      <c r="RY133">
+        <v>0.7017666</v>
+      </c>
+      <c r="SA133">
+        <v>0.2272727</v>
+      </c>
+      <c r="SD133">
+        <v>0.7347475</v>
+      </c>
+      <c r="SG133">
+        <v>0.5658892</v>
+      </c>
+      <c r="SH133">
+        <v>0.382442</v>
+      </c>
+      <c r="SI133">
+        <v>0.4920931</v>
+      </c>
+      <c r="SM133">
+        <v>0.3593145</v>
+      </c>
+      <c r="SO133">
+        <v>0.2859477</v>
+      </c>
+      <c r="SP133">
+        <v>0</v>
+      </c>
+      <c r="SR133">
+        <v>0.2051178</v>
+      </c>
+      <c r="SW133">
+        <v>0.240001</v>
+      </c>
+      <c r="SX133">
+        <v>0.7285974</v>
+      </c>
+      <c r="TS133">
+        <v>0.5466552</v>
+      </c>
+      <c r="TX133">
+        <v>0.3024779</v>
+      </c>
+      <c r="TY133">
+        <v>0.5204746</v>
+      </c>
+      <c r="UA133">
+        <v>0.6687243</v>
+      </c>
+      <c r="UE133">
+        <v>0.5609982999999999</v>
+      </c>
+      <c r="UF133">
+        <v>0.4249292</v>
+      </c>
+      <c r="UH133">
+        <v>0.5350373</v>
+      </c>
+      <c r="UI133">
+        <v>0.5839645999999999</v>
+      </c>
+      <c r="UK133">
+        <v>0.2490201</v>
+      </c>
+      <c r="UN133">
+        <v>0.3539519</v>
+      </c>
+      <c r="UP133">
+        <v>0.1436782</v>
+      </c>
+      <c r="US133">
+        <v>0.9021834</v>
+      </c>
+      <c r="UT133">
+        <v>0.245763</v>
+      </c>
+      <c r="UU133">
+        <v>1.0349854</v>
+      </c>
+      <c r="UV133">
+        <v>0.2229654</v>
+      </c>
+      <c r="UW133">
+        <v>0.7332883</v>
+      </c>
+      <c r="VA133">
+        <v>0</v>
+      </c>
+      <c r="VB133">
+        <v>0.6181534</v>
+      </c>
+      <c r="VO133">
+        <v>0.2690583</v>
+      </c>
+      <c r="VP133">
+        <v>1.3177998</v>
+      </c>
+      <c r="VS133">
+        <v>0.2207506</v>
+      </c>
+      <c r="VU133">
+        <v>0.9108536</v>
+      </c>
+      <c r="VW133">
+        <v>0.2106983</v>
+      </c>
+      <c r="VX133">
+        <v>0.8906752</v>
+      </c>
+      <c r="VY133">
+        <v>0.5849317000000001</v>
+      </c>
+      <c r="WB133">
+        <v>0.4166667</v>
+      </c>
+      <c r="WF133">
+        <v>0.3020003</v>
+      </c>
+      <c r="WG133">
+        <v>0.6018621</v>
+      </c>
+      <c r="WL133">
+        <v>0.4765484</v>
+      </c>
+      <c r="WM133">
+        <v>0</v>
+      </c>
+      <c r="WQ133">
+        <v>0.3337442</v>
+      </c>
+      <c r="WU133">
+        <v>0.0659706</v>
+      </c>
+      <c r="WW133">
+        <v>0.1423149</v>
+      </c>
+      <c r="WY133">
+        <v>0.3584229</v>
+      </c>
+      <c r="WZ133">
+        <v>0.1672029</v>
+      </c>
+      <c r="XD133">
+        <v>0.3620633</v>
+      </c>
+      <c r="XF133">
+        <v>0.4261692</v>
+      </c>
+      <c r="XG133">
+        <v>0.4892631</v>
+      </c>
+      <c r="XL133">
+        <v>0.2391877</v>
+      </c>
+      <c r="XM133">
+        <v>0.3601128</v>
+      </c>
+      <c r="XT133">
+        <v>0.0689655</v>
+      </c>
+      <c r="XV133">
+        <v>0.068856</v>
+      </c>
+      <c r="YB133">
+        <v>0.2844953</v>
+      </c>
+      <c r="YD133">
+        <v>0.3703704</v>
+      </c>
+      <c r="YH133">
+        <v>0.5179616</v>
+      </c>
+      <c r="YN133">
+        <v>0.3592214</v>
+      </c>
+      <c r="YO133">
+        <v>0.7855785</v>
+      </c>
+      <c r="YQ133">
+        <v>0.3195588</v>
+      </c>
+      <c r="YR133">
+        <v>0.5898551</v>
+      </c>
+      <c r="YX133">
+        <v>0.1540572</v>
+      </c>
+      <c r="YY133">
+        <v>0.1111111</v>
+      </c>
+      <c r="ZL133">
+        <v>0.3173192</v>
+      </c>
+      <c r="ZM133">
+        <v>0.171366</v>
+      </c>
+      <c r="ZO133">
+        <v>0.3492273</v>
+      </c>
+      <c r="ZR133">
+        <v>0.3792037</v>
+      </c>
+      <c r="ZS133">
+        <v>0.1792115</v>
+      </c>
+      <c r="ZV133">
+        <v>0.3138195</v>
+      </c>
+      <c r="ZW133">
+        <v>0.2091409</v>
+      </c>
+      <c r="ZX133">
+        <v>1.244283</v>
+      </c>
+      <c r="ZZ133">
+        <v>0.0752259</v>
+      </c>
+      <c r="AAB133">
+        <v>0.1960784</v>
+      </c>
+      <c r="AAC133">
+        <v>0.2555003</v>
+      </c>
+      <c r="AAD133">
+        <v>0.456621</v>
+      </c>
+      <c r="AAF133">
+        <v>0.156314</v>
+      </c>
+      <c r="AAH133">
+        <v>0.2336449</v>
+      </c>
+      <c r="AAJ133">
+        <v>0.4994014</v>
+      </c>
+      <c r="AAM133">
+        <v>0.2589774</v>
+      </c>
+      <c r="AAP133">
+        <v>0.3952061</v>
+      </c>
+      <c r="AAR133">
+        <v>0.3803767</v>
+      </c>
+      <c r="AAU133">
+        <v>0.385406</v>
+      </c>
+      <c r="AAV133">
+        <v>0.1913108</v>
+      </c>
+      <c r="AAW133">
+        <v>0.3877591</v>
+      </c>
+      <c r="ABA133">
+        <v>0.1883239</v>
+      </c>
+      <c r="ABC133">
+        <v>0.2739149</v>
+      </c>
+      <c r="ABJ133">
+        <v>0.2139292</v>
+      </c>
+      <c r="ABL133">
+        <v>0.3623188</v>
+      </c>
+      <c r="ABM133">
+        <v>0.5722812</v>
+      </c>
+      <c r="ABN133">
+        <v>0.1383126</v>
+      </c>
+      <c r="ABP133">
+        <v>0.1066507</v>
+      </c>
+      <c r="ABT133">
+        <v>0.3006927</v>
+      </c>
+      <c r="ABV133">
+        <v>0.3479438</v>
+      </c>
+      <c r="ABW133">
+        <v>0.3092236</v>
+      </c>
+      <c r="ABX133">
+        <v>0.4435515</v>
+      </c>
+      <c r="ABY133">
+        <v>0</v>
+      </c>
+      <c r="ABZ133">
+        <v>0.3325507</v>
+      </c>
+      <c r="ACA133">
+        <v>0.1543194</v>
+      </c>
+      <c r="ACE133">
+        <v>0.3113733</v>
+      </c>
+      <c r="ACG133">
+        <v>0.051293</v>
+      </c>
+      <c r="ACI133">
+        <v>0.6483404</v>
+      </c>
+      <c r="ACJ133">
+        <v>0</v>
+      </c>
+      <c r="ACK133">
+        <v>0.1893939</v>
+      </c>
+      <c r="ACM133">
+        <v>0.2403992</v>
+      </c>
+      <c r="ACN133">
+        <v>0.1723889</v>
+      </c>
+      <c r="ACP133">
+        <v>0.2971136</v>
+      </c>
+      <c r="ACU133">
+        <v>0.3128231</v>
+      </c>
+      <c r="ACW133">
+        <v>0.3634758</v>
+      </c>
+      <c r="ACX133">
+        <v>0.6756757</v>
+      </c>
+      <c r="ADP133">
+        <v>0.7741205</v>
+      </c>
+      <c r="ADR133">
+        <v>0.3289474</v>
+      </c>
+      <c r="ADU133">
+        <v>0.6233596</v>
+      </c>
+      <c r="ADV133">
+        <v>0.6015751</v>
+      </c>
+      <c r="AEA133">
+        <v>0.2441321</v>
+      </c>
+      <c r="AEB133">
+        <v>0.465607</v>
+      </c>
+      <c r="AEF133">
+        <v>0.1639494</v>
+      </c>
+      <c r="AEG133">
+        <v>0.0631313</v>
+      </c>
+      <c r="AEH133">
+        <v>0.2920026</v>
+      </c>
+      <c r="AEI133">
+        <v>0.2772695</v>
+      </c>
+      <c r="AEJ133">
+        <v>0.826972</v>
+      </c>
+      <c r="AEL133">
+        <v>0.0244738</v>
+      </c>
+      <c r="AEU133">
+        <v>0.4648739</v>
+      </c>
+      <c r="AEZ133">
+        <v>0.1118568</v>
+      </c>
+      <c r="AFD133">
+        <v>0.2709684</v>
+      </c>
+      <c r="AFG133">
+        <v>0.2689567</v>
+      </c>
+      <c r="AFH133">
+        <v>0.2463733</v>
+      </c>
+      <c r="AFK133">
+        <v>0.7241879</v>
+      </c>
+      <c r="AFL133">
+        <v>0.552017</v>
+      </c>
+      <c r="AFN133">
+        <v>0.6167401</v>
+      </c>
+      <c r="AFT133">
+        <v>0.3944981</v>
+      </c>
+      <c r="AFU133">
+        <v>0.8840942000000001</v>
+      </c>
+      <c r="AFX133">
+        <v>0.1831502</v>
+      </c>
+      <c r="AGA133">
+        <v>0.5405255</v>
+      </c>
+      <c r="AGC133">
+        <v>0.4992789</v>
+      </c>
+      <c r="AGE133">
+        <v>1.0340266</v>
+      </c>
+      <c r="AGF133">
+        <v>0.7011494</v>
+      </c>
+      <c r="AGG133">
+        <v>0.2252252</v>
+      </c>
+      <c r="AGL133">
+        <v>0.1809293</v>
+      </c>
+      <c r="AGM133">
+        <v>0.38556</v>
+      </c>
+      <c r="AGO133">
+        <v>0.5189530999999999</v>
+      </c>
+      <c r="AGP133">
+        <v>0.3353211</v>
+      </c>
+      <c r="AGV133">
+        <v>0.6428571</v>
+      </c>
+      <c r="AHA133">
+        <v>0.3022141</v>
+      </c>
+      <c r="AHB133">
+        <v>0.4969782</v>
+      </c>
+      <c r="AHD133">
+        <v>0.3824092</v>
+      </c>
+      <c r="AHH133">
+        <v>0.7342754</v>
+      </c>
+      <c r="AHN133">
+        <v>0.5204132</v>
+      </c>
+      <c r="AHP133">
+        <v>0.3424658</v>
+      </c>
+      <c r="AHS133">
+        <v>0.1607717</v>
+      </c>
+      <c r="AHU133">
+        <v>0.0474383</v>
+      </c>
+      <c r="AHX133">
+        <v>0.1572327</v>
+      </c>
+      <c r="AIB133">
+        <v>1.4285714</v>
+      </c>
+      <c r="AID133">
+        <v>0.5858858</v>
+      </c>
+      <c r="AIE133">
+        <v>0.8143322</v>
+      </c>
+      <c r="AIF133">
+        <v>0.3394256</v>
+      </c>
+      <c r="AII133">
+        <v>0.1280845</v>
+      </c>
+      <c r="AIP133">
+        <v>0.356005</v>
+      </c>
+      <c r="AIT133">
+        <v>0.3430509</v>
+      </c>
+      <c r="AIV133">
+        <v>0.9001174</v>
+      </c>
+      <c r="AIY133">
+        <v>0.219431</v>
+      </c>
+      <c r="AIZ133">
+        <v>0.2996557</v>
+      </c>
+      <c r="AJA133">
+        <v>0.307971</v>
+      </c>
+    </row>
+    <row r="134" spans="1:938">
+      <c r="A134" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D134">
+        <v>0.6429278</v>
+      </c>
+      <c r="H134">
+        <v>0.1653885</v>
+      </c>
+      <c r="J134">
+        <v>0.866426</v>
+      </c>
+      <c r="K134">
+        <v>0.101833</v>
+      </c>
+      <c r="L134">
+        <v>0.2738513</v>
+      </c>
+      <c r="P134">
+        <v>0.1111522</v>
+      </c>
+      <c r="R134">
+        <v>0.8064516</v>
+      </c>
+      <c r="U134">
+        <v>0.3594474</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0.9574142</v>
+      </c>
+      <c r="AB134">
+        <v>0.729585</v>
+      </c>
+      <c r="AD134">
+        <v>0.5806443</v>
+      </c>
+      <c r="AG134">
+        <v>0.2612218</v>
+      </c>
+      <c r="AI134">
+        <v>0.1821463</v>
+      </c>
+      <c r="AN134">
+        <v>0.2538533</v>
+      </c>
+      <c r="AV134">
+        <v>0.4385965</v>
+      </c>
+      <c r="AW134">
+        <v>0.3906795</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0.0501253</v>
+      </c>
+      <c r="BC134">
+        <v>0.6257819</v>
+      </c>
+      <c r="BF134">
+        <v>0.3064428</v>
+      </c>
+      <c r="BH134">
+        <v>0.6933192</v>
+      </c>
+      <c r="BI134">
+        <v>0.3199225</v>
+      </c>
+      <c r="BJ134">
+        <v>0.48583</v>
+      </c>
+      <c r="BM134">
+        <v>0.3021148</v>
+      </c>
+      <c r="BR134">
+        <v>0.6750878</v>
+      </c>
+      <c r="BS134">
+        <v>0.5720824</v>
+      </c>
+      <c r="BT134">
+        <v>0.8369723</v>
+      </c>
+      <c r="BW134">
+        <v>0.7854564000000001</v>
+      </c>
+      <c r="BY134">
+        <v>0.1607717</v>
+      </c>
+      <c r="CC134">
+        <v>0.154321</v>
+      </c>
+      <c r="CE134">
+        <v>0.202332</v>
+      </c>
+      <c r="CL134">
+        <v>0.3355705</v>
+      </c>
+      <c r="CM134">
+        <v>0.7315371000000001</v>
+      </c>
+      <c r="CN134">
+        <v>0.2861045</v>
+      </c>
+      <c r="CO134">
+        <v>0.7613169</v>
+      </c>
+      <c r="CR134">
+        <v>0.4779756</v>
+      </c>
+      <c r="CS134">
+        <v>0.5535055</v>
+      </c>
+      <c r="CT134">
+        <v>0.1265823</v>
+      </c>
+      <c r="CY134">
+        <v>0.1819641</v>
+      </c>
+      <c r="DC134">
+        <v>0.31316</v>
+      </c>
+      <c r="DD134">
+        <v>0.2479941</v>
+      </c>
+      <c r="DK134">
+        <v>0.3683241</v>
+      </c>
+      <c r="DN134">
+        <v>0.4983284</v>
+      </c>
+      <c r="DS134">
+        <v>0.9779359</v>
+      </c>
+      <c r="DW134">
+        <v>0.1508183</v>
+      </c>
+      <c r="DZ134">
+        <v>0.5260243999999999</v>
+      </c>
+      <c r="EA134">
+        <v>0.2120229</v>
+      </c>
+      <c r="EK134">
+        <v>0.4213099</v>
+      </c>
+      <c r="EL134">
+        <v>0.3055231</v>
+      </c>
+      <c r="EM134">
+        <v>0.1754386</v>
+      </c>
+      <c r="EN134">
+        <v>0.4132231</v>
+      </c>
+      <c r="ER134">
+        <v>1.6736695</v>
+      </c>
+      <c r="ET134">
+        <v>0.3041756</v>
+      </c>
+      <c r="EZ134">
+        <v>0.8399470999999999</v>
+      </c>
+      <c r="FA134">
+        <v>0.0854429</v>
+      </c>
+      <c r="FB134">
+        <v>0.1860148</v>
+      </c>
+      <c r="FD134">
+        <v>0.2826256</v>
+      </c>
+      <c r="FE134">
+        <v>0.3150286</v>
+      </c>
+      <c r="FG134">
+        <v>0.3666702</v>
+      </c>
+      <c r="FH134">
+        <v>0.1724138</v>
+      </c>
+      <c r="FI134">
+        <v>0.3860515</v>
+      </c>
+      <c r="FJ134">
+        <v>0.431642</v>
+      </c>
+      <c r="FL134">
+        <v>0.4134704</v>
+      </c>
+      <c r="FO134">
+        <v>0.5405405</v>
+      </c>
+      <c r="FR134">
+        <v>0.132366</v>
+      </c>
+      <c r="FS134">
+        <v>0.3371094</v>
+      </c>
+      <c r="FY134">
+        <v>0.6223176</v>
+      </c>
+      <c r="GB134">
+        <v>0.4115511</v>
+      </c>
+      <c r="GC134">
+        <v>0.2002857</v>
+      </c>
+      <c r="GD134">
+        <v>0.1105512</v>
+      </c>
+      <c r="GE134">
+        <v>0.2844537</v>
+      </c>
+      <c r="GF134">
+        <v>0.2701516</v>
+      </c>
+      <c r="GJ134">
+        <v>0.3267363</v>
+      </c>
+      <c r="GS134">
+        <v>0.5030011</v>
+      </c>
+      <c r="GV134">
+        <v>0</v>
+      </c>
+      <c r="HA134">
+        <v>0.9194598</v>
+      </c>
+      <c r="HF134">
+        <v>0.546801</v>
+      </c>
+      <c r="HH134">
+        <v>0.4415011</v>
+      </c>
+      <c r="HK134">
+        <v>0.4255319</v>
+      </c>
+      <c r="HL134">
+        <v>0.3908803</v>
+      </c>
+      <c r="HN134">
+        <v>0.2982581</v>
+      </c>
+      <c r="HO134">
+        <v>0.5228687</v>
+      </c>
+      <c r="HP134">
+        <v>0</v>
+      </c>
+      <c r="HT134">
+        <v>0.205158</v>
+      </c>
+      <c r="HV134">
+        <v>0.3675382</v>
+      </c>
+      <c r="HX134">
+        <v>0.6340458</v>
+      </c>
+      <c r="HY134">
+        <v>0.2742222</v>
+      </c>
+      <c r="IC134">
+        <v>0.2710027</v>
+      </c>
+      <c r="IE134">
+        <v>0.1900291</v>
+      </c>
+      <c r="IH134">
+        <v>0.2554278</v>
+      </c>
+      <c r="II134">
+        <v>0.262954</v>
+      </c>
+      <c r="IN134">
+        <v>0.3721916</v>
+      </c>
+      <c r="IR134">
+        <v>0.1914894</v>
+      </c>
+      <c r="IS134">
+        <v>0.07575759999999999</v>
+      </c>
+      <c r="IZ134">
+        <v>0.2656042</v>
+      </c>
+      <c r="JB134">
+        <v>0.7901939</v>
+      </c>
+      <c r="JF134">
+        <v>0.4615385</v>
+      </c>
+      <c r="JG134">
+        <v>0.5787231</v>
+      </c>
+      <c r="JK134">
+        <v>0.3875458</v>
+      </c>
+      <c r="JO134">
+        <v>0.1988452</v>
+      </c>
+      <c r="JR134">
+        <v>0.2811049</v>
+      </c>
+      <c r="JS134">
+        <v>0.5128205</v>
+      </c>
+      <c r="JX134">
+        <v>0.7224569</v>
+      </c>
+      <c r="KB134">
+        <v>0.661309</v>
+      </c>
+      <c r="KC134">
+        <v>0.3708149</v>
+      </c>
+      <c r="KI134">
+        <v>0.3069329</v>
+      </c>
+      <c r="KJ134">
+        <v>0.5067568</v>
+      </c>
+      <c r="KO134">
+        <v>0.281841</v>
+      </c>
+      <c r="KV134">
+        <v>0.5872991</v>
+      </c>
+      <c r="KW134">
+        <v>0.5680257</v>
+      </c>
+      <c r="LD134">
+        <v>0.6599068</v>
+      </c>
+      <c r="LG134">
+        <v>0.2183643</v>
+      </c>
+      <c r="LH134">
+        <v>0.1960784</v>
+      </c>
+      <c r="LO134">
+        <v>0.0443459</v>
+      </c>
+      <c r="LR134">
+        <v>0.3787879</v>
+      </c>
+      <c r="LW134">
+        <v>0.0787402</v>
+      </c>
+      <c r="LX134">
+        <v>0.6535948</v>
+      </c>
+      <c r="LY134">
+        <v>0.4414922</v>
+      </c>
+      <c r="MA134">
+        <v>0.3783925</v>
+      </c>
+      <c r="MC134">
+        <v>0.1564945</v>
+      </c>
+      <c r="ME134">
+        <v>0.1173709</v>
+      </c>
+      <c r="MF134">
+        <v>0.1023289</v>
+      </c>
+      <c r="MG134">
+        <v>0.0302943</v>
+      </c>
+      <c r="MI134">
+        <v>0.353612</v>
+      </c>
+      <c r="ML134">
+        <v>0.260104</v>
+      </c>
+      <c r="MN134">
+        <v>0.5717413</v>
+      </c>
+      <c r="MS134">
+        <v>0.4389344</v>
+      </c>
+      <c r="MU134">
+        <v>0.5614185</v>
+      </c>
+      <c r="MW134">
+        <v>0.6</v>
+      </c>
+      <c r="MX134">
+        <v>0.5882353</v>
+      </c>
+      <c r="MZ134">
+        <v>0.3664411</v>
+      </c>
+      <c r="NC134">
+        <v>0.2801728</v>
+      </c>
+      <c r="NE134">
+        <v>0.3577441</v>
+      </c>
+      <c r="NM134">
+        <v>0.523465</v>
+      </c>
+      <c r="NP134">
+        <v>0.7295983</v>
+      </c>
+      <c r="NQ134">
+        <v>0</v>
+      </c>
+      <c r="NT134">
+        <v>0.3062117</v>
+      </c>
+      <c r="NW134">
+        <v>0</v>
+      </c>
+      <c r="NY134">
+        <v>0.1940994</v>
+      </c>
+      <c r="NZ134">
+        <v>0.5813258</v>
+      </c>
+      <c r="OD134">
+        <v>0.3060354</v>
+      </c>
+      <c r="OE134">
+        <v>0.2837777</v>
+      </c>
+      <c r="OJ134">
+        <v>0.0841751</v>
+      </c>
+      <c r="OL134">
+        <v>0.5026743</v>
+      </c>
+      <c r="ON134">
+        <v>0.2969207</v>
+      </c>
+      <c r="OP134">
+        <v>0</v>
+      </c>
+      <c r="OQ134">
+        <v>0.1612476</v>
+      </c>
+      <c r="OR134">
+        <v>0.3315102</v>
+      </c>
+      <c r="OT134">
+        <v>0.7768362</v>
+      </c>
+      <c r="OV134">
+        <v>0.4169003</v>
+      </c>
+      <c r="OX134">
+        <v>0.1152097</v>
+      </c>
+      <c r="PB134">
+        <v>0.6804786</v>
+      </c>
+      <c r="PG134">
+        <v>0.4629675</v>
+      </c>
+      <c r="PJ134">
+        <v>0.407333</v>
+      </c>
+      <c r="PK134">
+        <v>0</v>
+      </c>
+      <c r="PL134">
+        <v>0.0861326</v>
+      </c>
+      <c r="PM134">
+        <v>0.7004129</v>
+      </c>
+      <c r="PP134">
+        <v>0.6921264</v>
+      </c>
+      <c r="PR134">
+        <v>0.3921569</v>
+      </c>
+      <c r="PS134">
+        <v>0.410212</v>
+      </c>
+      <c r="PY134">
+        <v>0.2328896</v>
+      </c>
+      <c r="QD134">
+        <v>0.2806554</v>
+      </c>
+      <c r="QE134">
+        <v>0.2807202</v>
+      </c>
+      <c r="QF134">
+        <v>0.3058104</v>
+      </c>
+      <c r="QK134">
+        <v>0.2678618</v>
+      </c>
+      <c r="QN134">
+        <v>0.3236915</v>
+      </c>
+      <c r="QO134">
+        <v>0.6941182</v>
+      </c>
+      <c r="QP134">
+        <v>0.8975999</v>
+      </c>
+      <c r="QS134">
+        <v>0.8313539</v>
+      </c>
+      <c r="QU134">
+        <v>0.7177033</v>
+      </c>
+      <c r="QV134">
+        <v>0.2511516</v>
+      </c>
+      <c r="QX134">
+        <v>0.259467</v>
+      </c>
+      <c r="QY134">
+        <v>0.2868476</v>
+      </c>
+      <c r="RA134">
+        <v>0.5128205</v>
+      </c>
+      <c r="RB134">
+        <v>0.3616898</v>
+      </c>
+      <c r="RD134">
+        <v>0.4777246</v>
+      </c>
+      <c r="RI134">
+        <v>0.8086253</v>
+      </c>
+      <c r="RL134">
+        <v>0.8477011</v>
+      </c>
+      <c r="RQ134">
+        <v>0</v>
+      </c>
+      <c r="RT134">
+        <v>0.2485015</v>
+      </c>
+      <c r="RV134">
+        <v>0.094697</v>
+      </c>
+      <c r="RX134">
+        <v>0.3529178</v>
+      </c>
+      <c r="RY134">
+        <v>0.6652486</v>
+      </c>
+      <c r="SA134">
+        <v>0.2325581</v>
+      </c>
+      <c r="SD134">
+        <v>0.6649128</v>
+      </c>
+      <c r="SG134">
+        <v>0.5873123</v>
+      </c>
+      <c r="SH134">
+        <v>0.4054311</v>
+      </c>
+      <c r="SI134">
+        <v>0.401103</v>
+      </c>
+      <c r="SM134">
+        <v>0.2446982</v>
+      </c>
+      <c r="SO134">
+        <v>0.4145937</v>
+      </c>
+      <c r="SP134">
+        <v>0</v>
+      </c>
+      <c r="SR134">
+        <v>0.2058105</v>
+      </c>
+      <c r="SW134">
+        <v>0.2631449</v>
+      </c>
+      <c r="SX134">
+        <v>0.3258845</v>
+      </c>
+      <c r="TS134">
+        <v>0.5789085</v>
+      </c>
+      <c r="TX134">
+        <v>0.4971405</v>
+      </c>
+      <c r="TY134">
+        <v>0.5540283</v>
+      </c>
+      <c r="UA134">
+        <v>0.6526104</v>
+      </c>
+      <c r="UE134">
+        <v>0.5240687000000001</v>
+      </c>
+      <c r="UF134">
+        <v>0.4155125</v>
+      </c>
+      <c r="UH134">
+        <v>0.3668763</v>
+      </c>
+      <c r="UI134">
+        <v>0.5856284</v>
+      </c>
+      <c r="UK134">
+        <v>0.2797855</v>
+      </c>
+      <c r="UN134">
+        <v>0.3507252</v>
+      </c>
+      <c r="UP134">
+        <v>0.2016129</v>
+      </c>
+      <c r="US134">
+        <v>0.7880549999999999</v>
+      </c>
+      <c r="UT134">
+        <v>0.7608058</v>
+      </c>
+      <c r="UU134">
+        <v>0.7807185</v>
+      </c>
+      <c r="UV134">
+        <v>0.2829655</v>
+      </c>
+      <c r="UW134">
+        <v>0.5578336</v>
+      </c>
+      <c r="VA134">
+        <v>0</v>
+      </c>
+      <c r="VB134">
+        <v>0.6210692</v>
+      </c>
+      <c r="VO134">
+        <v>0.2298851</v>
+      </c>
+      <c r="VP134">
+        <v>1.362782</v>
+      </c>
+      <c r="VS134">
+        <v>0.5511399</v>
+      </c>
+      <c r="VU134">
+        <v>0.8816342</v>
+      </c>
+      <c r="VW134">
+        <v>0.2167374</v>
+      </c>
+      <c r="VX134">
+        <v>0.7939186</v>
+      </c>
+      <c r="VY134">
+        <v>0.5710691</v>
+      </c>
+      <c r="WB134">
+        <v>0.5185185</v>
+      </c>
+      <c r="WF134">
+        <v>0.2816515</v>
+      </c>
+      <c r="WG134">
+        <v>0.6036418</v>
+      </c>
+      <c r="WL134">
+        <v>0.4499515</v>
+      </c>
+      <c r="WM134">
+        <v>0</v>
+      </c>
+      <c r="WQ134">
+        <v>0.3875663</v>
+      </c>
+      <c r="WU134">
+        <v>0.06667530000000001</v>
+      </c>
+      <c r="WW134">
+        <v>0.1328993</v>
+      </c>
+      <c r="WY134">
+        <v>0.3989362</v>
+      </c>
+      <c r="WZ134">
+        <v>0.2427406</v>
+      </c>
+      <c r="XD134">
+        <v>0.3373164</v>
+      </c>
+      <c r="XF134">
+        <v>0.2958858</v>
+      </c>
+      <c r="XG134">
+        <v>0.4980061</v>
+      </c>
+      <c r="XL134">
+        <v>0.2873417</v>
+      </c>
+      <c r="XM134">
+        <v>0.4075167</v>
+      </c>
+      <c r="XT134">
+        <v>0</v>
+      </c>
+      <c r="XV134">
+        <v>0.1977197</v>
+      </c>
+      <c r="YB134">
+        <v>0.1913373</v>
+      </c>
+      <c r="YD134">
+        <v>0.5394345</v>
+      </c>
+      <c r="YH134">
+        <v>0.4678363</v>
+      </c>
+      <c r="YN134">
+        <v>0.2598599</v>
+      </c>
+      <c r="YO134">
+        <v>0.758001</v>
+      </c>
+      <c r="YQ134">
+        <v>0.33353</v>
+      </c>
+      <c r="YR134">
+        <v>0.583283</v>
+      </c>
+      <c r="YX134">
+        <v>0.1628358</v>
+      </c>
+      <c r="YY134">
+        <v>0.1064963</v>
+      </c>
+      <c r="ZL134">
+        <v>0.341036</v>
+      </c>
+      <c r="ZM134">
+        <v>0.1988748</v>
+      </c>
+      <c r="ZO134">
+        <v>0.5715978</v>
+      </c>
+      <c r="ZR134">
+        <v>0.4461536</v>
+      </c>
+      <c r="ZS134">
+        <v>0</v>
+      </c>
+      <c r="ZV134">
+        <v>0.3407818</v>
+      </c>
+      <c r="ZW134">
+        <v>0.2368492</v>
+      </c>
+      <c r="ZX134">
+        <v>1.2992832</v>
+      </c>
+      <c r="ZZ134">
+        <v>0.0890176</v>
+      </c>
+      <c r="AAB134">
+        <v>0.1908397</v>
+      </c>
+      <c r="AAC134">
+        <v>0.3728692</v>
+      </c>
+      <c r="AAD134">
+        <v>0.4807692</v>
+      </c>
+      <c r="AAF134">
+        <v>0.1237791</v>
+      </c>
+      <c r="AAH134">
+        <v>0.2352941</v>
+      </c>
+      <c r="AAJ134">
+        <v>0.5203492</v>
+      </c>
+      <c r="AAM134">
+        <v>0.1650512</v>
+      </c>
+      <c r="AAP134">
+        <v>0.3896498</v>
+      </c>
+      <c r="AAR134">
+        <v>0.3544713</v>
+      </c>
+      <c r="AAU134">
+        <v>0.3889033</v>
+      </c>
+      <c r="AAV134">
+        <v>0.178094</v>
+      </c>
+      <c r="AAW134">
+        <v>0.5878906</v>
+      </c>
+      <c r="ABA134">
+        <v>0.178731</v>
+      </c>
+      <c r="ABC134">
+        <v>0.3489327</v>
+      </c>
+      <c r="ABJ134">
+        <v>0.2315118</v>
+      </c>
+      <c r="ABL134">
+        <v>0.4472272</v>
+      </c>
+      <c r="ABM134">
+        <v>0.3600492</v>
+      </c>
+      <c r="ABN134">
+        <v>0</v>
+      </c>
+      <c r="ABP134">
+        <v>0.2665819</v>
+      </c>
+      <c r="ABT134">
+        <v>0.3862971</v>
+      </c>
+      <c r="ABV134">
+        <v>0.3401571</v>
+      </c>
+      <c r="ABW134">
+        <v>0.4508076</v>
+      </c>
+      <c r="ABX134">
+        <v>0.4392964</v>
+      </c>
+      <c r="ABY134">
+        <v>0</v>
+      </c>
+      <c r="ABZ134">
+        <v>0.3613963</v>
+      </c>
+      <c r="ACA134">
+        <v>0.1943618</v>
+      </c>
+      <c r="ACE134">
+        <v>0.2721484</v>
+      </c>
+      <c r="ACG134">
+        <v>0.0121471</v>
+      </c>
+      <c r="ACI134">
+        <v>0.6406782</v>
+      </c>
+      <c r="ACJ134">
+        <v>0</v>
+      </c>
+      <c r="ACK134">
+        <v>0.1953125</v>
+      </c>
+      <c r="ACM134">
+        <v>0.2370935</v>
+      </c>
+      <c r="ACN134">
+        <v>0.1103912</v>
+      </c>
+      <c r="ACP134">
+        <v>0.3402697</v>
+      </c>
+      <c r="ACU134">
+        <v>0.2757139</v>
+      </c>
+      <c r="ACW134">
+        <v>0.3963726</v>
+      </c>
+      <c r="ACX134">
+        <v>0.6289308</v>
+      </c>
+      <c r="ADP134">
+        <v>0.6039123</v>
+      </c>
+      <c r="ADR134">
+        <v>0.6459948</v>
+      </c>
+      <c r="ADU134">
+        <v>0.6333333</v>
+      </c>
+      <c r="ADV134">
+        <v>0.7707412</v>
+      </c>
+      <c r="AEA134">
+        <v>0.4473491</v>
+      </c>
+      <c r="AEB134">
+        <v>0.341071</v>
+      </c>
+      <c r="AEF134">
+        <v>0.3226762</v>
+      </c>
+      <c r="AEG134">
+        <v>0</v>
+      </c>
+      <c r="AEH134">
+        <v>0.2943478</v>
+      </c>
+      <c r="AEI134">
+        <v>0.3460778</v>
+      </c>
+      <c r="AEJ134">
+        <v>0.6337136</v>
+      </c>
+      <c r="AEL134">
+        <v>0.0242601</v>
+      </c>
+      <c r="AEU134">
+        <v>0.4772287</v>
+      </c>
+      <c r="AEZ134">
+        <v>0.3100775</v>
+      </c>
+      <c r="AFD134">
+        <v>0.2139854</v>
+      </c>
+      <c r="AFG134">
+        <v>0.262939</v>
+      </c>
+      <c r="AFH134">
+        <v>0.2552628</v>
+      </c>
+      <c r="AFK134">
+        <v>0.8142651</v>
+      </c>
+      <c r="AFL134">
+        <v>0.5701754</v>
+      </c>
+      <c r="AFN134">
+        <v>0.9638554</v>
+      </c>
+      <c r="AFT134">
+        <v>0.3833684</v>
+      </c>
+      <c r="AFU134">
+        <v>0.5715681</v>
+      </c>
+      <c r="AFX134">
+        <v>0.1814882</v>
+      </c>
+      <c r="AGA134">
+        <v>0.5374618</v>
+      </c>
+      <c r="AGC134">
+        <v>0.6024088</v>
+      </c>
+      <c r="AGE134">
+        <v>1.123356</v>
+      </c>
+      <c r="AGF134">
+        <v>0.8662280999999999</v>
+      </c>
+      <c r="AGG134">
+        <v>0.2172564</v>
+      </c>
+      <c r="AGL134">
+        <v>0.1765059</v>
+      </c>
+      <c r="AGM134">
+        <v>0.3327932</v>
+      </c>
+      <c r="AGO134">
+        <v>1.1126543</v>
+      </c>
+      <c r="AGP134">
+        <v>0.3197518</v>
+      </c>
+      <c r="AGV134">
+        <v>0.6428571</v>
+      </c>
+      <c r="AHA134">
+        <v>0.2845738</v>
+      </c>
+      <c r="AHB134">
+        <v>0.5677805</v>
+      </c>
+      <c r="AHD134">
+        <v>0.3824694</v>
+      </c>
+      <c r="AHH134">
+        <v>0.7435465999999999</v>
+      </c>
+      <c r="AHN134">
+        <v>0.4749106</v>
+      </c>
+      <c r="AHP134">
+        <v>0.3363229</v>
+      </c>
+      <c r="AHS134">
+        <v>0.0621118</v>
+      </c>
+      <c r="AHU134">
+        <v>0.0469925</v>
+      </c>
+      <c r="AHX134">
+        <v>0.154321</v>
+      </c>
+      <c r="AIB134">
+        <v>1.3824885</v>
+      </c>
+      <c r="AID134">
+        <v>0.5076184</v>
+      </c>
+      <c r="AIE134">
+        <v>0.7739938</v>
+      </c>
+      <c r="AIF134">
+        <v>0.1344086</v>
+      </c>
+      <c r="AII134">
+        <v>0.2244213</v>
+      </c>
+      <c r="AIP134">
+        <v>0.3174456</v>
+      </c>
+      <c r="AIT134">
+        <v>0.3961219</v>
+      </c>
+      <c r="AIV134">
+        <v>0.9312309</v>
+      </c>
+      <c r="AIY134">
+        <v>0.1732472</v>
+      </c>
+      <c r="AIZ134">
+        <v>0.2991349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:938">
+      <c r="A135" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D135">
+        <v>0.3295669</v>
+      </c>
+      <c r="H135">
+        <v>0.2326491</v>
+      </c>
+      <c r="J135">
+        <v>0.8245614</v>
+      </c>
+      <c r="K135">
+        <v>0.0984252</v>
+      </c>
+      <c r="L135">
+        <v>0.2591698</v>
+      </c>
+      <c r="P135">
+        <v>0.1148907</v>
+      </c>
+      <c r="R135">
+        <v>0.4854369</v>
+      </c>
+      <c r="U135">
+        <v>0.3465228</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0.9143781</v>
+      </c>
+      <c r="AB135">
+        <v>0.6551363</v>
+      </c>
+      <c r="AD135">
+        <v>0.5832035</v>
+      </c>
+      <c r="AG135">
+        <v>0.1117777</v>
+      </c>
+      <c r="AI135">
+        <v>0.1751656</v>
+      </c>
+      <c r="AN135">
+        <v>0.2252346</v>
+      </c>
+      <c r="AV135">
+        <v>0.4280822</v>
+      </c>
+      <c r="AW135">
+        <v>0.3807564</v>
+      </c>
+      <c r="AX135">
+        <v>0.1851852</v>
+      </c>
+      <c r="BB135">
+        <v>0.3848004</v>
+      </c>
+      <c r="BC135">
+        <v>0.6036685000000001</v>
+      </c>
+      <c r="BF135">
+        <v>0.3353728</v>
+      </c>
+      <c r="BH135">
+        <v>0.6235338</v>
+      </c>
+      <c r="BI135">
+        <v>0.2715958</v>
+      </c>
+      <c r="BJ135">
+        <v>0.552381</v>
+      </c>
+      <c r="BM135">
+        <v>0.2923977</v>
+      </c>
+      <c r="BR135">
+        <v>0.7027683</v>
+      </c>
+      <c r="BS135">
+        <v>0.3728561</v>
+      </c>
+      <c r="BT135">
+        <v>0.9398242</v>
+      </c>
+      <c r="BW135">
+        <v>0.660031</v>
+      </c>
+      <c r="BY135">
+        <v>0.46875</v>
+      </c>
+      <c r="CC135">
+        <v>0</v>
+      </c>
+      <c r="CE135">
+        <v>0.2002716</v>
+      </c>
+      <c r="CL135">
+        <v>0.3318584</v>
+      </c>
+      <c r="CM135">
+        <v>0.7614216</v>
+      </c>
+      <c r="CN135">
+        <v>0.3737942</v>
+      </c>
+      <c r="CO135">
+        <v>0.7088123</v>
+      </c>
+      <c r="CR135">
+        <v>0.4483911</v>
+      </c>
+      <c r="CT135">
+        <v>0.1219512</v>
+      </c>
+      <c r="CY135">
+        <v>0.1550572</v>
+      </c>
+      <c r="DC135">
+        <v>0.3048482</v>
+      </c>
+      <c r="DD135">
+        <v>0.1994527</v>
+      </c>
+      <c r="DK135">
+        <v>0.3555556</v>
+      </c>
+      <c r="DN135">
+        <v>0.4050786</v>
+      </c>
+      <c r="DS135">
+        <v>1.2228692</v>
+      </c>
+      <c r="DW135">
+        <v>0.2004793</v>
+      </c>
+      <c r="DZ135">
+        <v>0.6706496</v>
+      </c>
+      <c r="EA135">
+        <v>0.2083903</v>
+      </c>
+      <c r="EK135">
+        <v>0.3491799</v>
+      </c>
+      <c r="EL135">
+        <v>0.351841</v>
+      </c>
+      <c r="EM135">
+        <v>0.5938696999999999</v>
+      </c>
+      <c r="EN135">
+        <v>0.4016064</v>
+      </c>
+      <c r="ER135">
+        <v>1.7139001</v>
+      </c>
+      <c r="ET135">
+        <v>0.2994093</v>
+      </c>
+      <c r="EZ135">
+        <v>0.8091233</v>
+      </c>
+      <c r="FA135">
+        <v>0.08372599999999999</v>
+      </c>
+      <c r="FB135">
+        <v>0.3064274</v>
+      </c>
+      <c r="FD135">
+        <v>0.2934773</v>
+      </c>
+      <c r="FE135">
+        <v>0.3224305</v>
+      </c>
+      <c r="FG135">
+        <v>0.418635</v>
+      </c>
+      <c r="FH135">
+        <v>0.1639344</v>
+      </c>
+      <c r="FI135">
+        <v>0.3787575</v>
+      </c>
+      <c r="FJ135">
+        <v>0.4166667</v>
+      </c>
+      <c r="FL135">
+        <v>0.3832729</v>
+      </c>
+      <c r="FO135">
+        <v>0.9450172</v>
+      </c>
+      <c r="FR135">
+        <v>0.4695543</v>
+      </c>
+      <c r="FS135">
+        <v>0.3498318</v>
+      </c>
+      <c r="FY135">
+        <v>0.8639456</v>
+      </c>
+      <c r="GB135">
+        <v>0.5667918</v>
+      </c>
+      <c r="GC135">
+        <v>0.2623863</v>
+      </c>
+      <c r="GD135">
+        <v>0.1425523</v>
+      </c>
+      <c r="GE135">
+        <v>0.2068043</v>
+      </c>
+      <c r="GF135">
+        <v>0.4295769</v>
+      </c>
+      <c r="GJ135">
+        <v>0.3929764</v>
+      </c>
+      <c r="GS135">
+        <v>0.4768934</v>
+      </c>
+      <c r="GV135">
+        <v>0</v>
+      </c>
+      <c r="HA135">
+        <v>0.9345843</v>
+      </c>
+      <c r="HF135">
+        <v>0.517841</v>
+      </c>
+      <c r="HH135">
+        <v>0</v>
+      </c>
+      <c r="HK135">
+        <v>0.0693241</v>
+      </c>
+      <c r="HL135">
+        <v>0.3799118</v>
+      </c>
+      <c r="HN135">
+        <v>0.3492628</v>
+      </c>
+      <c r="HO135">
+        <v>0.3080618</v>
+      </c>
+      <c r="HP135">
+        <v>0</v>
+      </c>
+      <c r="HT135">
+        <v>0.199265</v>
+      </c>
+      <c r="HV135">
+        <v>0.2969157</v>
+      </c>
+      <c r="HX135">
+        <v>0.5854151</v>
+      </c>
+      <c r="HY135">
+        <v>0.2167831</v>
+      </c>
+      <c r="IC135">
+        <v>0.2747253</v>
+      </c>
+      <c r="IE135">
+        <v>0.0328407</v>
+      </c>
+      <c r="IH135">
+        <v>0.2398082</v>
+      </c>
+      <c r="II135">
+        <v>0.2698538</v>
+      </c>
+      <c r="IN135">
+        <v>0.3860694</v>
+      </c>
+      <c r="IR135">
+        <v>0.1782178</v>
+      </c>
+      <c r="IS135">
+        <v>0.0740741</v>
+      </c>
+      <c r="IZ135">
+        <v>0.2604167</v>
+      </c>
+      <c r="JB135">
+        <v>0.8998795000000001</v>
+      </c>
+      <c r="JF135">
+        <v>0.4518072</v>
+      </c>
+      <c r="JG135">
+        <v>0.5200019</v>
+      </c>
+      <c r="JK135">
+        <v>0.4199217</v>
+      </c>
+      <c r="JO135">
+        <v>0.2018741</v>
+      </c>
+      <c r="JR135">
+        <v>0.2746078</v>
+      </c>
+      <c r="JS135">
+        <v>0.4926108</v>
+      </c>
+      <c r="JX135">
+        <v>0.1462314</v>
+      </c>
+      <c r="KB135">
+        <v>0.6171191</v>
+      </c>
+      <c r="KC135">
+        <v>0.3379471</v>
+      </c>
+      <c r="KI135">
+        <v>0.3499021</v>
+      </c>
+      <c r="KJ135">
+        <v>0.3131524</v>
+      </c>
+      <c r="KO135">
+        <v>0.2680463</v>
+      </c>
+      <c r="KV135">
+        <v>0.4573448</v>
+      </c>
+      <c r="KW135">
+        <v>0.5940507</v>
+      </c>
+      <c r="LD135">
+        <v>0.5557304</v>
+      </c>
+      <c r="LG135">
+        <v>0.1915074</v>
+      </c>
+      <c r="LH135">
+        <v>0.1910828</v>
+      </c>
+      <c r="LO135">
+        <v>0.043956</v>
+      </c>
+      <c r="LR135">
+        <v>0.5253622999999999</v>
+      </c>
+      <c r="LW135">
+        <v>0.4440154</v>
+      </c>
+      <c r="LX135">
+        <v>0.6024096</v>
+      </c>
+      <c r="LY135">
+        <v>0.4404284</v>
+      </c>
+      <c r="MA135">
+        <v>0.3481786</v>
+      </c>
+      <c r="MC135">
+        <v>0.1834862</v>
+      </c>
+      <c r="ME135">
+        <v>0.1162791</v>
+      </c>
+      <c r="MF135">
+        <v>0.0056988</v>
+      </c>
+      <c r="MG135">
+        <v>0.0478524</v>
+      </c>
+      <c r="MI135">
+        <v>0.3159391</v>
+      </c>
+      <c r="ML135">
+        <v>0.2569576</v>
+      </c>
+      <c r="MN135">
+        <v>0.5741752</v>
+      </c>
+      <c r="MS135">
+        <v>0.3440886</v>
+      </c>
+      <c r="MU135">
+        <v>0.5393348</v>
+      </c>
+      <c r="MW135">
+        <v>0.5844156</v>
+      </c>
+      <c r="MX135">
+        <v>0.8430609999999999</v>
+      </c>
+      <c r="MZ135">
+        <v>0.4132401</v>
+      </c>
+      <c r="NC135">
+        <v>0.2270547</v>
+      </c>
+      <c r="NE135">
+        <v>0.2303183</v>
+      </c>
+      <c r="NM135">
+        <v>0.6598663</v>
+      </c>
+      <c r="NP135">
+        <v>0.8295165</v>
+      </c>
+      <c r="NQ135">
+        <v>0.1883239</v>
+      </c>
+      <c r="NT135">
+        <v>0.2938707</v>
+      </c>
+      <c r="NW135">
+        <v>0</v>
+      </c>
+      <c r="NY135">
+        <v>0.1876877</v>
+      </c>
+      <c r="NZ135">
+        <v>0.6037627</v>
+      </c>
+      <c r="OD135">
+        <v>0.5805708000000001</v>
+      </c>
+      <c r="OE135">
+        <v>0.329371</v>
+      </c>
+      <c r="OJ135">
+        <v>0.0868056</v>
+      </c>
+      <c r="OL135">
+        <v>0.5114514999999999</v>
+      </c>
+      <c r="ON135">
+        <v>0.2920881</v>
+      </c>
+      <c r="OP135">
+        <v>0.2710027</v>
+      </c>
+      <c r="OQ135">
+        <v>0.0605176</v>
+      </c>
+      <c r="OR135">
+        <v>0.3891569</v>
+      </c>
+      <c r="OT135">
+        <v>0.8060109</v>
+      </c>
+      <c r="OV135">
+        <v>0.4099795</v>
+      </c>
+      <c r="OX135">
+        <v>0.2941752</v>
+      </c>
+      <c r="PB135">
+        <v>0.5316731</v>
+      </c>
+      <c r="PG135">
+        <v>0.3034931</v>
+      </c>
+      <c r="PJ135">
+        <v>0.4967396</v>
+      </c>
+      <c r="PK135">
+        <v>0</v>
+      </c>
+      <c r="PL135">
+        <v>0.2784919</v>
+      </c>
+      <c r="PM135">
+        <v>0.4870805</v>
+      </c>
+      <c r="PP135">
+        <v>0.5924081</v>
+      </c>
+      <c r="PR135">
+        <v>0.3787879</v>
+      </c>
+      <c r="PS135">
+        <v>0.4379992</v>
+      </c>
+      <c r="PY135">
+        <v>0.3172852</v>
+      </c>
+      <c r="QD135">
+        <v>0.2833438</v>
+      </c>
+      <c r="QE135">
+        <v>0.2669929</v>
+      </c>
+      <c r="QF135">
+        <v>0.2985075</v>
+      </c>
+      <c r="QK135">
+        <v>0.258955</v>
+      </c>
+      <c r="QN135">
+        <v>0.3114645</v>
+      </c>
+      <c r="QO135">
+        <v>0.7124243</v>
+      </c>
+      <c r="QP135">
+        <v>1.0180525</v>
+      </c>
+      <c r="QS135">
+        <v>0.8274232</v>
+      </c>
+      <c r="QU135">
+        <v>0.7109005</v>
+      </c>
+      <c r="QV135">
+        <v>0.228142</v>
+      </c>
+      <c r="QX135">
+        <v>0.1803791</v>
+      </c>
+      <c r="QY135">
+        <v>0.2743876</v>
+      </c>
+      <c r="RB135">
+        <v>0.2283105</v>
+      </c>
+      <c r="RD135">
+        <v>0.3840995</v>
+      </c>
+      <c r="RI135">
+        <v>0.8</v>
+      </c>
+      <c r="RL135">
+        <v>0.8422555</v>
+      </c>
+      <c r="RQ135">
+        <v>0</v>
+      </c>
+      <c r="RT135">
+        <v>0.2956605</v>
+      </c>
+      <c r="RV135">
+        <v>0.093985</v>
+      </c>
+      <c r="RX135">
+        <v>0.3598218</v>
+      </c>
+      <c r="RY135">
+        <v>0.6809758</v>
+      </c>
+      <c r="SA135">
+        <v>0.2252252</v>
+      </c>
+      <c r="SD135">
+        <v>0.6794005</v>
+      </c>
+      <c r="SG135">
+        <v>0.5418241</v>
+      </c>
+      <c r="SH135">
+        <v>0.3477297</v>
+      </c>
+      <c r="SI135">
+        <v>0.4579172</v>
+      </c>
+      <c r="SM135">
+        <v>0.3205128</v>
+      </c>
+      <c r="SO135">
+        <v>0.4536994</v>
+      </c>
+      <c r="SP135">
+        <v>0.1008065</v>
+      </c>
+      <c r="SR135">
+        <v>0.2472623</v>
+      </c>
+      <c r="SW135">
+        <v>0.2101121</v>
+      </c>
+      <c r="SX135">
+        <v>0.3249768</v>
+      </c>
+      <c r="TS135">
+        <v>0.5136943</v>
+      </c>
+      <c r="TX135">
+        <v>0.3674627</v>
+      </c>
+      <c r="TY135">
+        <v>0.5357298</v>
+      </c>
+      <c r="UA135">
+        <v>0.6946393</v>
+      </c>
+      <c r="UE135">
+        <v>0.4710484</v>
+      </c>
+      <c r="UF135">
+        <v>0.4021448</v>
+      </c>
+      <c r="UH135">
+        <v>0.3030303</v>
+      </c>
+      <c r="UI135">
+        <v>0.5741775</v>
+      </c>
+      <c r="UK135">
+        <v>0.2664363</v>
+      </c>
+      <c r="UN135">
+        <v>0.361019</v>
+      </c>
+      <c r="UP135">
+        <v>0.464191</v>
+      </c>
+      <c r="US135">
+        <v>0.9198826</v>
+      </c>
+      <c r="UT135">
+        <v>0.8282613</v>
+      </c>
+      <c r="UU135">
+        <v>0.5586884</v>
+      </c>
+      <c r="UV135">
+        <v>0.187567</v>
+      </c>
+      <c r="UW135">
+        <v>0.7099192</v>
+      </c>
+      <c r="VA135">
+        <v>0.083344</v>
+      </c>
+      <c r="VB135">
+        <v>0.3772132</v>
+      </c>
+      <c r="VO135">
+        <v>0.3607504</v>
+      </c>
+      <c r="VP135">
+        <v>1.3813159</v>
+      </c>
+      <c r="VS135">
+        <v>0.6895998</v>
+      </c>
+      <c r="VU135">
+        <v>0.6012961</v>
+      </c>
+      <c r="VW135">
+        <v>0.2167374</v>
+      </c>
+      <c r="VX135">
+        <v>0.8879831</v>
+      </c>
+      <c r="VY135">
+        <v>0.5405964</v>
+      </c>
+      <c r="WB135">
+        <v>0.3917379</v>
+      </c>
+      <c r="WF135">
+        <v>0.3218219</v>
+      </c>
+      <c r="WG135">
+        <v>0.6446045</v>
+      </c>
+      <c r="WL135">
+        <v>0.4085527</v>
+      </c>
+      <c r="WM135">
+        <v>0</v>
+      </c>
+      <c r="WQ135">
+        <v>0.4063023</v>
+      </c>
+      <c r="WU135">
+        <v>0.06545330000000001</v>
+      </c>
+      <c r="WW135">
+        <v>0.2105723</v>
+      </c>
+      <c r="WY135">
+        <v>0.5208333000000001</v>
+      </c>
+      <c r="WZ135">
+        <v>0.3616355</v>
+      </c>
+      <c r="XD135">
+        <v>0.3288983</v>
+      </c>
+      <c r="XF135">
+        <v>0.3605224</v>
+      </c>
+      <c r="XG135">
+        <v>0.5092932</v>
+      </c>
+      <c r="XL135">
+        <v>0.286654</v>
+      </c>
+      <c r="XM135">
+        <v>0.4489302</v>
+      </c>
+      <c r="XT135">
+        <v>0</v>
+      </c>
+      <c r="XV135">
+        <v>0.2035011</v>
+      </c>
+      <c r="YB135">
+        <v>0.1847584</v>
+      </c>
+      <c r="YD135">
+        <v>0.5886681</v>
+      </c>
+      <c r="YH135">
+        <v>0.4459309</v>
+      </c>
+      <c r="YN135">
+        <v>0.2074477</v>
+      </c>
+      <c r="YO135">
+        <v>0.7897506</v>
+      </c>
+      <c r="YQ135">
+        <v>0.3345462</v>
+      </c>
+      <c r="YR135">
+        <v>0.5283998</v>
+      </c>
+      <c r="YX135">
+        <v>0.1584148</v>
+      </c>
+      <c r="YY135">
+        <v>0.1019368</v>
+      </c>
+      <c r="ZL135">
+        <v>0.3340429</v>
+      </c>
+      <c r="ZM135">
+        <v>0.2640847</v>
+      </c>
+      <c r="ZO135">
+        <v>0.5576411</v>
+      </c>
+      <c r="ZR135">
+        <v>0.5044881</v>
+      </c>
+      <c r="ZS135">
+        <v>0</v>
+      </c>
+      <c r="ZV135">
+        <v>0.3546505</v>
+      </c>
+      <c r="ZW135">
+        <v>0.2196823</v>
+      </c>
+      <c r="ZX135">
+        <v>1.1123268</v>
+      </c>
+      <c r="ZZ135">
+        <v>0.1373994</v>
+      </c>
+      <c r="AAB135">
+        <v>0.1851852</v>
+      </c>
+      <c r="AAC135">
+        <v>0.370039</v>
+      </c>
+      <c r="AAD135">
+        <v>0.6024096</v>
+      </c>
+      <c r="AAF135">
+        <v>0.119491</v>
+      </c>
+      <c r="AAH135">
+        <v>0</v>
+      </c>
+      <c r="AAJ135">
+        <v>0.3753797</v>
+      </c>
+      <c r="AAM135">
+        <v>0.1320858</v>
+      </c>
+      <c r="AAP135">
+        <v>0.3948387</v>
+      </c>
+      <c r="AAR135">
+        <v>0.3421594</v>
+      </c>
+      <c r="AAU135">
+        <v>0.5782746</v>
+      </c>
+      <c r="AAV135">
+        <v>0.168744</v>
+      </c>
+      <c r="AAW135">
+        <v>0.5283316</v>
+      </c>
+      <c r="ABA135">
+        <v>0.1754386</v>
+      </c>
+      <c r="ABC135">
+        <v>0.5125211</v>
+      </c>
+      <c r="ABJ135">
+        <v>0.1456321</v>
+      </c>
+      <c r="ABL135">
+        <v>0.6462585</v>
+      </c>
+      <c r="ABM135">
+        <v>0.3548948</v>
+      </c>
+      <c r="ABN135">
+        <v>0</v>
+      </c>
+      <c r="ABP135">
+        <v>0.2744137</v>
+      </c>
+      <c r="ABT135">
+        <v>0.3628123</v>
+      </c>
+      <c r="ABV135">
+        <v>0.2487088</v>
+      </c>
+      <c r="ABW135">
+        <v>0.4425743</v>
+      </c>
+      <c r="ABX135">
+        <v>0.4633339</v>
+      </c>
+      <c r="ABY135">
+        <v>0.3180662</v>
+      </c>
+      <c r="ABZ135">
+        <v>0.4520883</v>
+      </c>
+      <c r="ACA135">
+        <v>0.2024145</v>
+      </c>
+      <c r="ACE135">
+        <v>0.287155</v>
+      </c>
+      <c r="ACG135">
+        <v>0.0106229</v>
+      </c>
+      <c r="ACI135">
+        <v>0.5584961000000001</v>
+      </c>
+      <c r="ACJ135">
+        <v>0.0547577</v>
+      </c>
+      <c r="ACK135">
+        <v>0.1766784</v>
+      </c>
+      <c r="ACM135">
+        <v>0.3644217</v>
+      </c>
+      <c r="ACN135">
+        <v>0.1031387</v>
+      </c>
+      <c r="ACP135">
+        <v>0.2728845</v>
+      </c>
+      <c r="ACU135">
+        <v>0.2256271</v>
+      </c>
+      <c r="ACW135">
+        <v>0.4178574</v>
+      </c>
+      <c r="ACX135">
+        <v>0.5847953</v>
+      </c>
+      <c r="ADP135">
+        <v>0.5744366</v>
+      </c>
+      <c r="ADR135">
+        <v>0.6024096</v>
+      </c>
+      <c r="ADU135">
+        <v>0.491453</v>
+      </c>
+      <c r="ADV135">
+        <v>0.9107642</v>
+      </c>
+      <c r="AEA135">
+        <v>0.442734</v>
+      </c>
+      <c r="AEB135">
+        <v>0.4743678</v>
+      </c>
+      <c r="AEF135">
+        <v>0.3920401</v>
+      </c>
+      <c r="AEG135">
+        <v>0.1776199</v>
+      </c>
+      <c r="AEH135">
+        <v>0.3406294</v>
+      </c>
+      <c r="AEI135">
+        <v>0.2553398</v>
+      </c>
+      <c r="AEJ135">
+        <v>0.4813478</v>
+      </c>
+      <c r="AEL135">
+        <v>0.1340156</v>
+      </c>
+      <c r="AEU135">
+        <v>0.5241555</v>
+      </c>
+      <c r="AEZ135">
+        <v>0.3070175</v>
+      </c>
+      <c r="AFD135">
+        <v>0.2489769</v>
+      </c>
+      <c r="AFG135">
+        <v>0.2239337</v>
+      </c>
+      <c r="AFH135">
+        <v>0.2732034</v>
+      </c>
+      <c r="AFK135">
+        <v>0.8038258</v>
+      </c>
+      <c r="AFL135">
+        <v>0.5875706000000001</v>
+      </c>
+      <c r="AFN135">
+        <v>0.9338521</v>
+      </c>
+      <c r="AFT135">
+        <v>0.3576377</v>
+      </c>
+      <c r="AFU135">
+        <v>0.4156465</v>
+      </c>
+      <c r="AFX135">
+        <v>0.09090910000000001</v>
+      </c>
+      <c r="AGA135">
+        <v>0.5824848</v>
+      </c>
+      <c r="AGC135">
+        <v>0.5771492</v>
+      </c>
+      <c r="AGE135">
+        <v>1.2042982</v>
+      </c>
+      <c r="AGF135">
+        <v>0.8359788</v>
+      </c>
+      <c r="AGG135">
+        <v>0.21565</v>
+      </c>
+      <c r="AGL135">
+        <v>0.1446541</v>
+      </c>
+      <c r="AGM135">
+        <v>0.4688999</v>
+      </c>
+      <c r="AGO135">
+        <v>1.7745272</v>
+      </c>
+      <c r="AGP135">
+        <v>0.2404718</v>
+      </c>
+      <c r="AGV135">
+        <v>0.6271776999999999</v>
+      </c>
+      <c r="AHA135">
+        <v>0.2725786</v>
+      </c>
+      <c r="AHB135">
+        <v>0.5697668</v>
+      </c>
+      <c r="AHD135">
+        <v>0.197577</v>
+      </c>
+      <c r="AHH135">
+        <v>0.7234507</v>
+      </c>
+      <c r="AHN135">
+        <v>0.4549914</v>
+      </c>
+      <c r="AHP135">
+        <v>0.3157895</v>
+      </c>
+      <c r="AHS135">
+        <v>0.0607903</v>
+      </c>
+      <c r="AHU135">
+        <v>0.044484</v>
+      </c>
+      <c r="AHX135">
+        <v>0.1461988</v>
+      </c>
+      <c r="AIB135">
+        <v>1.3215859</v>
+      </c>
+      <c r="AID135">
+        <v>0.4816038</v>
+      </c>
+      <c r="AIE135">
+        <v>0.7836991</v>
+      </c>
+      <c r="AIF135">
+        <v>0.1253133</v>
+      </c>
+      <c r="AII135">
+        <v>0.2232196</v>
+      </c>
+      <c r="AIP135">
+        <v>0.4311195</v>
+      </c>
+      <c r="AIT135">
+        <v>0.446734</v>
+      </c>
+      <c r="AIV135">
+        <v>0.9300456</v>
+      </c>
+      <c r="AIY135">
+        <v>0.2701611</v>
+      </c>
+      <c r="AIZ135">
+        <v>0.250405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:938">
+      <c r="A136" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D136">
+        <v>0.4965986</v>
+      </c>
+      <c r="H136">
+        <v>0.2102123</v>
+      </c>
+      <c r="J136">
+        <v>0.7912458</v>
+      </c>
+      <c r="K136">
+        <v>0.0968992</v>
+      </c>
+      <c r="L136">
+        <v>0.240104</v>
+      </c>
+      <c r="P136">
+        <v>0.1587912</v>
+      </c>
+      <c r="R136">
+        <v>0.1633987</v>
+      </c>
+      <c r="U136">
+        <v>0.3620304</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0.751261</v>
+      </c>
+      <c r="AB136">
+        <v>0.6086506</v>
+      </c>
+      <c r="AD136">
+        <v>0.4862055</v>
+      </c>
+      <c r="AG136">
+        <v>0.09277489999999999</v>
+      </c>
+      <c r="AI136">
+        <v>0.1572428</v>
+      </c>
+      <c r="AN136">
+        <v>0.2900581</v>
+      </c>
+      <c r="AV136">
+        <v>0.3436426</v>
+      </c>
+      <c r="AW136">
+        <v>0.3419618</v>
+      </c>
+      <c r="AX136">
+        <v>0.1932367</v>
+      </c>
+      <c r="BB136">
+        <v>0.5704365</v>
+      </c>
+      <c r="BC136">
+        <v>0.3718233</v>
+      </c>
+      <c r="BF136">
+        <v>0.2963194</v>
+      </c>
+      <c r="BH136">
+        <v>0.5973966000000001</v>
+      </c>
+      <c r="BI136">
+        <v>0.2924873</v>
+      </c>
+      <c r="BJ136">
+        <v>0.5731225</v>
+      </c>
+      <c r="BM136">
+        <v>0.3612717</v>
+      </c>
+      <c r="BR136">
+        <v>0.7413542</v>
+      </c>
+      <c r="BS136">
+        <v>0.3796507</v>
+      </c>
+      <c r="BT136">
+        <v>0.9494536</v>
+      </c>
+      <c r="BW136">
+        <v>0.7339746</v>
+      </c>
+      <c r="BY136">
+        <v>0.764526</v>
+      </c>
+      <c r="CC136">
+        <v>0.2915452</v>
+      </c>
+      <c r="CE136">
+        <v>0.2891156</v>
+      </c>
+      <c r="CL136">
+        <v>0.5227328</v>
+      </c>
+      <c r="CM136">
+        <v>0.67852</v>
+      </c>
+      <c r="CN136">
+        <v>0.3870672</v>
+      </c>
+      <c r="CO136">
+        <v>0.7974909999999999</v>
+      </c>
+      <c r="CR136">
+        <v>0.4458042</v>
+      </c>
+      <c r="CT136">
+        <v>0.122549</v>
+      </c>
+      <c r="CY136">
+        <v>0.1626662</v>
+      </c>
+      <c r="DC136">
+        <v>0.2702882</v>
+      </c>
+      <c r="DD136">
+        <v>0.1979437</v>
+      </c>
+      <c r="DK136">
+        <v>0.3427592</v>
+      </c>
+      <c r="DN136">
+        <v>0.3492773</v>
+      </c>
+      <c r="DS136">
+        <v>1.1687522</v>
+      </c>
+      <c r="DW136">
+        <v>0.1808517</v>
+      </c>
+      <c r="DZ136">
+        <v>0.6950135</v>
+      </c>
+      <c r="EA136">
+        <v>0.2050905</v>
+      </c>
+      <c r="EK136">
+        <v>0.368132</v>
+      </c>
+      <c r="EL136">
+        <v>0.3534346</v>
+      </c>
+      <c r="EM136">
+        <v>0.5818318</v>
+      </c>
+      <c r="EN136">
+        <v>0.4098361</v>
+      </c>
+      <c r="ER136">
+        <v>1.7208672</v>
+      </c>
+      <c r="ET136">
+        <v>0.2980281</v>
+      </c>
+      <c r="EZ136">
+        <v>0.6061817</v>
+      </c>
+      <c r="FA136">
+        <v>0.0848629</v>
+      </c>
+      <c r="FB136">
+        <v>0.3126306</v>
+      </c>
+      <c r="FD136">
+        <v>0.3380119</v>
+      </c>
+      <c r="FE136">
+        <v>0.2643638</v>
+      </c>
+      <c r="FG136">
+        <v>0.3346251</v>
+      </c>
+      <c r="FH136">
+        <v>0</v>
+      </c>
+      <c r="FI136">
+        <v>0.3671762</v>
+      </c>
+      <c r="FJ136">
+        <v>0.4083333</v>
+      </c>
+      <c r="FL136">
+        <v>0.3814073</v>
+      </c>
+      <c r="FO136">
+        <v>1.0469012</v>
+      </c>
+      <c r="FR136">
+        <v>0.4617284</v>
+      </c>
+      <c r="FS136">
+        <v>0.3470925</v>
+      </c>
+      <c r="FY136">
+        <v>0.6435006</v>
+      </c>
+      <c r="GB136">
+        <v>0.5043582</v>
+      </c>
+      <c r="GC136">
+        <v>0.3501727</v>
+      </c>
+      <c r="GD136">
+        <v>0.2057489</v>
+      </c>
+      <c r="GE136">
+        <v>0.2786581</v>
+      </c>
+      <c r="GF136">
+        <v>0.3516751</v>
+      </c>
+      <c r="GJ136">
+        <v>0.400283</v>
+      </c>
+      <c r="GS136">
+        <v>0.4601213</v>
+      </c>
+      <c r="GV136">
+        <v>0</v>
+      </c>
+      <c r="HA136">
+        <v>0.9491727</v>
+      </c>
+      <c r="HF136">
+        <v>0.6035206</v>
+      </c>
+      <c r="HH136">
+        <v>0</v>
+      </c>
+      <c r="HK136">
+        <v>0</v>
+      </c>
+      <c r="HL136">
+        <v>0.2774239</v>
+      </c>
+      <c r="HN136">
+        <v>0.3388795</v>
+      </c>
+      <c r="HO136">
+        <v>0.3098739</v>
+      </c>
+      <c r="HP136">
+        <v>0</v>
+      </c>
+      <c r="HT136">
+        <v>0.3541427</v>
+      </c>
+      <c r="HV136">
+        <v>0.3004839</v>
+      </c>
+      <c r="HX136">
+        <v>0.6830948999999999</v>
+      </c>
+      <c r="HY136">
+        <v>0.2082066</v>
+      </c>
+      <c r="IC136">
+        <v>0.2695418</v>
+      </c>
+      <c r="IE136">
+        <v>0.0325415</v>
+      </c>
+      <c r="IH136">
+        <v>0.245098</v>
+      </c>
+      <c r="II136">
+        <v>0.1428908</v>
+      </c>
+      <c r="IN136">
+        <v>0.3163499</v>
+      </c>
+      <c r="IR136">
+        <v>0.1789264</v>
+      </c>
+      <c r="IS136">
+        <v>0.0743494</v>
+      </c>
+      <c r="IZ136">
+        <v>0.2574003</v>
+      </c>
+      <c r="JB136">
+        <v>0.6714645</v>
+      </c>
+      <c r="JF136">
+        <v>0.4464286</v>
+      </c>
+      <c r="JG136">
+        <v>0.5673089</v>
+      </c>
+      <c r="JK136">
+        <v>0.5463460999999999</v>
+      </c>
+      <c r="JO136">
+        <v>0.2385624</v>
+      </c>
+      <c r="JR136">
+        <v>0.1959614</v>
+      </c>
+      <c r="JS136">
+        <v>0.4672897</v>
+      </c>
+      <c r="JX136">
+        <v>0.1496479</v>
+      </c>
+      <c r="KB136">
+        <v>0.501456</v>
+      </c>
+      <c r="KC136">
+        <v>0.2914874</v>
+      </c>
+      <c r="KI136">
+        <v>0.4083565</v>
+      </c>
+      <c r="KJ136">
+        <v>0.6673882</v>
+      </c>
+      <c r="KO136">
+        <v>0.302038</v>
+      </c>
+      <c r="KV136">
+        <v>0.3527168</v>
+      </c>
+      <c r="KW136">
+        <v>0.5697174</v>
+      </c>
+      <c r="LD136">
+        <v>0.5156385</v>
+      </c>
+      <c r="LG136">
+        <v>0.1895979</v>
+      </c>
+      <c r="LH136">
+        <v>0.1851852</v>
+      </c>
+      <c r="LO136">
+        <v>0.0441501</v>
+      </c>
+      <c r="LR136">
+        <v>0.5346608</v>
+      </c>
+      <c r="LW136">
+        <v>0.8498024</v>
+      </c>
+      <c r="LX136">
+        <v>0.625</v>
+      </c>
+      <c r="LY136">
+        <v>0.2494062</v>
+      </c>
+      <c r="MA136">
+        <v>0.3650644</v>
+      </c>
+      <c r="MC136">
+        <v>0.1904762</v>
+      </c>
+      <c r="ME136">
+        <v>0.1152074</v>
+      </c>
+      <c r="MF136">
+        <v>0.025207</v>
+      </c>
+      <c r="MG136">
+        <v>0.0467964</v>
+      </c>
+      <c r="MI136">
+        <v>0.3255885</v>
+      </c>
+      <c r="ML136">
+        <v>0.2853815</v>
+      </c>
+      <c r="MN136">
+        <v>0.662057</v>
+      </c>
+      <c r="MS136">
+        <v>0.2827049</v>
+      </c>
+      <c r="MU136">
+        <v>0.2122241</v>
+      </c>
+      <c r="MW136">
+        <v>0.6265984999999999</v>
+      </c>
+      <c r="MX136">
+        <v>0.85639</v>
+      </c>
+      <c r="MZ136">
+        <v>0.5031358</v>
+      </c>
+      <c r="NC136">
+        <v>0.2555686</v>
+      </c>
+      <c r="NE136">
+        <v>0.1903553</v>
+      </c>
+      <c r="NM136">
+        <v>0.624599</v>
+      </c>
+      <c r="NP136">
+        <v>0.8887756</v>
+      </c>
+      <c r="NQ136">
+        <v>0.2123142</v>
+      </c>
+      <c r="NT136">
+        <v>0.6149279</v>
+      </c>
+      <c r="NW136">
+        <v>0</v>
+      </c>
+      <c r="NY136">
+        <v>0.1959248</v>
+      </c>
+      <c r="NZ136">
+        <v>0.6052164</v>
+      </c>
+      <c r="OD136">
+        <v>0.4426127</v>
+      </c>
+      <c r="OE136">
+        <v>0.4358268</v>
+      </c>
+      <c r="OJ136">
+        <v>0.3584229</v>
+      </c>
+      <c r="OL136">
+        <v>0.4987853</v>
+      </c>
+      <c r="ON136">
+        <v>0.2971289</v>
+      </c>
+      <c r="OP136">
+        <v>0.2583979</v>
+      </c>
+      <c r="OQ136">
+        <v>0.1783155</v>
+      </c>
+      <c r="OR136">
+        <v>0.4808931</v>
+      </c>
+      <c r="OT136">
+        <v>0.7763158</v>
+      </c>
+      <c r="OV136">
+        <v>0.3297662</v>
+      </c>
+      <c r="OX136">
+        <v>0.4613604</v>
+      </c>
+      <c r="PB136">
+        <v>0.4967146</v>
+      </c>
+      <c r="PG136">
+        <v>0.4211374</v>
+      </c>
+      <c r="PJ136">
+        <v>0.519802</v>
+      </c>
+      <c r="PK136">
+        <v>0</v>
+      </c>
+      <c r="PL136">
+        <v>0.2749577</v>
+      </c>
+      <c r="PM136">
+        <v>0.3030303</v>
+      </c>
+      <c r="PP136">
+        <v>0.3691531</v>
+      </c>
+      <c r="PR136">
+        <v>0.5576208</v>
+      </c>
+      <c r="PS136">
+        <v>0.3600582</v>
+      </c>
+      <c r="PY136">
+        <v>0.322643</v>
+      </c>
+      <c r="QD136">
+        <v>0.3446993</v>
+      </c>
+      <c r="QE136">
+        <v>0.2661601</v>
+      </c>
+      <c r="QF136">
+        <v>0.2923977</v>
+      </c>
+      <c r="QK136">
+        <v>0.1685642</v>
+      </c>
+      <c r="QN136">
+        <v>0.2569444</v>
+      </c>
+      <c r="QO136">
+        <v>0.444131</v>
+      </c>
+      <c r="QP136">
+        <v>0.9403111</v>
+      </c>
+      <c r="QS136">
+        <v>0.6142506</v>
+      </c>
+      <c r="QU136">
+        <v>0.6726457</v>
+      </c>
+      <c r="QV136">
+        <v>0.2478687</v>
+      </c>
+      <c r="QX136">
+        <v>0.0587011</v>
+      </c>
+      <c r="QY136">
+        <v>0.2661263</v>
+      </c>
+      <c r="RB136">
+        <v>0.3150057</v>
+      </c>
+      <c r="RD136">
+        <v>0.5420353999999999</v>
+      </c>
+      <c r="RI136">
+        <v>0.8042895</v>
+      </c>
+      <c r="RL136">
+        <v>0.7243319</v>
+      </c>
+      <c r="RQ136">
+        <v>0.6232687</v>
+      </c>
+      <c r="RT136">
+        <v>0.3108022</v>
+      </c>
+      <c r="RV136">
+        <v>0.4681648</v>
+      </c>
+      <c r="RX136">
+        <v>0.3648428</v>
+      </c>
+      <c r="RY136">
+        <v>0.6347356</v>
+      </c>
+      <c r="SA136">
+        <v>0.2262443</v>
+      </c>
+      <c r="SD136">
+        <v>0.5109887</v>
+      </c>
+      <c r="SG136">
+        <v>0.4834757</v>
+      </c>
+      <c r="SH136">
+        <v>0.392823</v>
+      </c>
+      <c r="SI136">
+        <v>0.384472</v>
+      </c>
+      <c r="SM136">
+        <v>0.1843075</v>
+      </c>
+      <c r="SO136">
+        <v>0.4456905</v>
+      </c>
+      <c r="SP136">
+        <v>0.1059322</v>
+      </c>
+      <c r="SR136">
+        <v>0.267298</v>
+      </c>
+      <c r="SW136">
+        <v>0.107779</v>
+      </c>
+      <c r="SX136">
+        <v>0.0465549</v>
+      </c>
+      <c r="TS136">
+        <v>0.4969605</v>
+      </c>
+      <c r="TX136">
+        <v>0.3676583</v>
+      </c>
+      <c r="TY136">
+        <v>0.4986352</v>
+      </c>
+      <c r="UA136">
+        <v>0.6668036000000001</v>
+      </c>
+      <c r="UE136">
+        <v>0.437486</v>
+      </c>
+      <c r="UF136">
+        <v>0.3865979</v>
+      </c>
+      <c r="UH136">
+        <v>0.1980198</v>
+      </c>
+      <c r="UI136">
+        <v>0.5631659</v>
+      </c>
+      <c r="UK136">
+        <v>0.3198308</v>
+      </c>
+      <c r="UN136">
+        <v>0.3739588</v>
+      </c>
+      <c r="UP136">
+        <v>0.4847645</v>
+      </c>
+      <c r="US136">
+        <v>0.9719226</v>
+      </c>
+      <c r="UT136">
+        <v>1.0147845</v>
+      </c>
+      <c r="UU136">
+        <v>0.5763844</v>
+      </c>
+      <c r="UV136">
+        <v>0.137741</v>
+      </c>
+      <c r="UW136">
+        <v>0.7392873</v>
+      </c>
+      <c r="VA136">
+        <v>0.107367</v>
+      </c>
+      <c r="VB136">
+        <v>0.5007825</v>
+      </c>
+      <c r="VO136">
+        <v>0.1458789</v>
+      </c>
+      <c r="VP136">
+        <v>1.6169154</v>
+      </c>
+      <c r="VS136">
+        <v>0.7269925</v>
+      </c>
+      <c r="VU136">
+        <v>0.5539584</v>
+      </c>
+      <c r="VW136">
+        <v>0.2202445</v>
+      </c>
+      <c r="VX136">
+        <v>0.7691078</v>
+      </c>
+      <c r="VY136">
+        <v>0.421288</v>
+      </c>
+      <c r="WB136">
+        <v>0.4</v>
+      </c>
+      <c r="WF136">
+        <v>0.3412883</v>
+      </c>
+      <c r="WG136">
+        <v>0.6566058</v>
+      </c>
+      <c r="WL136">
+        <v>0.4315965</v>
+      </c>
+      <c r="WM136">
+        <v>0</v>
+      </c>
+      <c r="WQ136">
+        <v>0.3394043</v>
+      </c>
+      <c r="WU136">
+        <v>0.0635428</v>
+      </c>
+      <c r="WW136">
+        <v>0.4065171</v>
+      </c>
+      <c r="WY136">
+        <v>0.1984127</v>
+      </c>
+      <c r="WZ136">
+        <v>0.3632516</v>
+      </c>
+      <c r="XD136">
+        <v>0.3372451</v>
+      </c>
+      <c r="XF136">
+        <v>0.2491391</v>
+      </c>
+      <c r="XG136">
+        <v>0.5259744</v>
+      </c>
+      <c r="XL136">
+        <v>0.2845272</v>
+      </c>
+      <c r="XM136">
+        <v>0.2069468</v>
+      </c>
+      <c r="XT136">
+        <v>0</v>
+      </c>
+      <c r="XV136">
+        <v>0.1963966</v>
+      </c>
+      <c r="YB136">
+        <v>0.1839452</v>
+      </c>
+      <c r="YD136">
+        <v>0.4814815</v>
+      </c>
+      <c r="YH136">
+        <v>0.462963</v>
+      </c>
+      <c r="YN136">
+        <v>0.3509328</v>
+      </c>
+      <c r="YO136">
+        <v>0.7098464</v>
+      </c>
+      <c r="YQ136">
+        <v>0.3240035</v>
+      </c>
+      <c r="YR136">
+        <v>0.5607383</v>
+      </c>
+      <c r="YX136">
+        <v>0.1515363</v>
+      </c>
+      <c r="YY136">
+        <v>0.1075269</v>
+      </c>
+      <c r="ZL136">
+        <v>0.4201744</v>
+      </c>
+      <c r="ZM136">
+        <v>0.264152</v>
+      </c>
+      <c r="ZO136">
+        <v>0.5685168</v>
+      </c>
+      <c r="ZR136">
+        <v>0.5744668000000001</v>
+      </c>
+      <c r="ZS136">
+        <v>0</v>
+      </c>
+      <c r="ZV136">
+        <v>0.4098406</v>
+      </c>
+      <c r="ZW136">
+        <v>0.2402963</v>
+      </c>
+      <c r="ZX136">
+        <v>0.8594918</v>
+      </c>
+      <c r="ZZ136">
+        <v>0.1407983</v>
+      </c>
+      <c r="AAB136">
+        <v>0.4227053</v>
+      </c>
+      <c r="AAC136">
+        <v>0.304284</v>
+      </c>
+      <c r="AAD136">
+        <v>0.5894309</v>
+      </c>
+      <c r="AAF136">
+        <v>0.1192325</v>
+      </c>
+      <c r="AAH136">
+        <v>0</v>
+      </c>
+      <c r="AAJ136">
+        <v>0.3489906</v>
+      </c>
+      <c r="AAM136">
+        <v>0.1828209</v>
+      </c>
+      <c r="AAP136">
+        <v>0.3644139</v>
+      </c>
+      <c r="AAR136">
+        <v>0.3834095</v>
+      </c>
+      <c r="AAU136">
+        <v>0.3235095</v>
+      </c>
+      <c r="AAV136">
+        <v>0.2099061</v>
+      </c>
+      <c r="AAW136">
+        <v>0.488249</v>
+      </c>
+      <c r="ABA136">
+        <v>0.428449</v>
+      </c>
+      <c r="ABC136">
+        <v>0.5002533</v>
+      </c>
+      <c r="ABJ136">
+        <v>0.2379061</v>
+      </c>
+      <c r="ABL136">
+        <v>0.5445545000000001</v>
+      </c>
+      <c r="ABM136">
+        <v>0.2759382</v>
+      </c>
+      <c r="ABN136">
+        <v>0</v>
+      </c>
+      <c r="ABP136">
+        <v>0.2971416</v>
+      </c>
+      <c r="ABT136">
+        <v>0.28153</v>
+      </c>
+      <c r="ABV136">
+        <v>0.1582072</v>
+      </c>
+      <c r="ABW136">
+        <v>0.449314</v>
+      </c>
+      <c r="ABX136">
+        <v>0.4423694</v>
+      </c>
+      <c r="ABY136">
+        <v>0.3132832</v>
+      </c>
+      <c r="ABZ136">
+        <v>0.3197114</v>
+      </c>
+      <c r="ACA136">
+        <v>0.3137434</v>
+      </c>
+      <c r="ACE136">
+        <v>0.2658725</v>
+      </c>
+      <c r="ACG136">
+        <v>0.0543784</v>
+      </c>
+      <c r="ACI136">
+        <v>0.4325295</v>
+      </c>
+      <c r="ACJ136">
+        <v>0.1366697</v>
+      </c>
+      <c r="ACK136">
+        <v>0.1748252</v>
+      </c>
+      <c r="ACM136">
+        <v>0.2501333</v>
+      </c>
+      <c r="ACN136">
+        <v>0.1027499</v>
+      </c>
+      <c r="ACP136">
+        <v>0.2492568</v>
+      </c>
+      <c r="ACU136">
+        <v>0.3058536</v>
+      </c>
+      <c r="ACW136">
+        <v>0.3690425</v>
+      </c>
+      <c r="ACX136">
+        <v>0.5524862</v>
+      </c>
+      <c r="ADP136">
+        <v>0.6634795999999999</v>
+      </c>
+      <c r="ADR136">
+        <v>0.5501222</v>
+      </c>
+      <c r="ADU136">
+        <v>0.3718285</v>
+      </c>
+      <c r="ADV136">
+        <v>0.7264704</v>
+      </c>
+      <c r="AEA136">
+        <v>0.4657799</v>
+      </c>
+      <c r="AEB136">
+        <v>0.6114562</v>
+      </c>
+      <c r="AEF136">
+        <v>0.3971378</v>
+      </c>
+      <c r="AEG136">
+        <v>0.1869159</v>
+      </c>
+      <c r="AEH136">
+        <v>0.331108</v>
+      </c>
+      <c r="AEI136">
+        <v>0.2064882</v>
+      </c>
+      <c r="AEJ136">
+        <v>0.3041363</v>
+      </c>
+      <c r="AEL136">
+        <v>0.1331397</v>
+      </c>
+      <c r="AEU136">
+        <v>0.5053804</v>
+      </c>
+      <c r="AEZ136">
+        <v>0.4208195</v>
+      </c>
+      <c r="AFD136">
+        <v>0.3322835</v>
+      </c>
+      <c r="AFG136">
+        <v>0.1146792</v>
+      </c>
+      <c r="AFH136">
+        <v>0.2920165</v>
+      </c>
+      <c r="AFK136">
+        <v>0.6370092000000001</v>
+      </c>
+      <c r="AFL136">
+        <v>0.5573418999999999</v>
+      </c>
+      <c r="AFN136">
+        <v>0.9230769</v>
+      </c>
+      <c r="AFT136">
+        <v>0.3798952</v>
+      </c>
+      <c r="AFU136">
+        <v>0.7072673</v>
+      </c>
+      <c r="AFX136">
+        <v>0.198556</v>
+      </c>
+      <c r="AGA136">
+        <v>0.5683754</v>
+      </c>
+      <c r="AGC136">
+        <v>0.5508416</v>
+      </c>
+      <c r="AGE136">
+        <v>1.0510268</v>
+      </c>
+      <c r="AGF136">
+        <v>0.8577633</v>
+      </c>
+      <c r="AGG136">
+        <v>0.1782531</v>
+      </c>
+      <c r="AGL136">
+        <v>0.2192982</v>
+      </c>
+      <c r="AGM136">
+        <v>0.4648188</v>
+      </c>
+      <c r="AGO136">
+        <v>1.8260234</v>
+      </c>
+      <c r="AGP136">
+        <v>0.2374742</v>
+      </c>
+      <c r="AGV136">
+        <v>0.6036217</v>
+      </c>
+      <c r="AHA136">
+        <v>0.1940394</v>
+      </c>
+      <c r="AHB136">
+        <v>0.5471305</v>
+      </c>
+      <c r="AHD136">
+        <v>0.1078755</v>
+      </c>
+      <c r="AHH136">
+        <v>0.2292341</v>
+      </c>
+      <c r="AHN136">
+        <v>0.3605401</v>
+      </c>
+      <c r="AHP136">
+        <v>0.1098901</v>
+      </c>
+      <c r="AHS136">
+        <v>0.058309</v>
+      </c>
+      <c r="AHU136">
+        <v>0.2732733</v>
+      </c>
+      <c r="AHX136">
+        <v>0.1501502</v>
+      </c>
+      <c r="AIB136">
+        <v>1.3636364</v>
+      </c>
+      <c r="AID136">
+        <v>0.3482085</v>
+      </c>
+      <c r="AIE136">
+        <v>0.7788162</v>
+      </c>
+      <c r="AIF136">
+        <v>0.1196172</v>
+      </c>
+      <c r="AII136">
+        <v>0.223675</v>
+      </c>
+      <c r="AIP136">
+        <v>0.4274556</v>
+      </c>
+      <c r="AIT136">
+        <v>0.4343253</v>
+      </c>
+      <c r="AIV136">
+        <v>1.0653269</v>
+      </c>
+      <c r="AIY136">
+        <v>0.2742547</v>
+      </c>
+      <c r="AIZ136">
+        <v>0.2245769</v>
+      </c>
+    </row>
+    <row r="137" spans="1:938">
+      <c r="A137" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="138" spans="1:938">
+      <c r="A138" t="s">
+        <v>1075</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyMetro.xlsx
+++ b/fb-surveyMetro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
   <si>
     <t>Aberdeen, SD</t>
   </si>
@@ -3242,6 +3242,24 @@
   </si>
   <si>
     <t>16 06 2020</t>
+  </si>
+  <si>
+    <t>17 06 2020</t>
+  </si>
+  <si>
+    <t>18 06 2020</t>
+  </si>
+  <si>
+    <t>19 06 2020</t>
+  </si>
+  <si>
+    <t>20 06 2020</t>
+  </si>
+  <si>
+    <t>21 06 2020</t>
+  </si>
+  <si>
+    <t>22 06 2020</t>
   </si>
 </sst>
 </file>
@@ -3573,7 +3591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJD138"/>
+  <dimension ref="A1:AJD144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33065,6 +33083,9 @@
       <c r="ACX90">
         <v>0.9803922</v>
       </c>
+      <c r="ACY90">
+        <v>0</v>
+      </c>
       <c r="ADI90">
         <v>0.8</v>
       </c>
@@ -34195,6 +34216,9 @@
       <c r="ACX91">
         <v>0.6375227999999999</v>
       </c>
+      <c r="ACY91">
+        <v>0</v>
+      </c>
       <c r="ADI91">
         <v>0.7692308</v>
       </c>
@@ -34965,6 +34989,9 @@
       <c r="RL92">
         <v>0.0876715</v>
       </c>
+      <c r="RP92">
+        <v>0.8264463</v>
+      </c>
       <c r="RQ92">
         <v>0.6410256</v>
       </c>
@@ -35321,6 +35348,9 @@
       </c>
       <c r="ACX92">
         <v>0.0896057</v>
+      </c>
+      <c r="ACY92">
+        <v>0</v>
       </c>
       <c r="ADI92">
         <v>0.729927</v>
@@ -36092,6 +36122,9 @@
       <c r="RL93">
         <v>0.0890562</v>
       </c>
+      <c r="RP93">
+        <v>0.8547009</v>
+      </c>
       <c r="RQ93">
         <v>0.6369427</v>
       </c>
@@ -36448,6 +36481,9 @@
       </c>
       <c r="ACX93">
         <v>0</v>
+      </c>
+      <c r="ACY93">
+        <v>0.3623188</v>
       </c>
       <c r="ADI93">
         <v>1.0273973</v>
@@ -37219,6 +37255,9 @@
       <c r="RL94">
         <v>0.0900518</v>
       </c>
+      <c r="RP94">
+        <v>1.8018018</v>
+      </c>
       <c r="RQ94">
         <v>0.4180602</v>
       </c>
@@ -37575,6 +37614,9 @@
       </c>
       <c r="ACX94">
         <v>0</v>
+      </c>
+      <c r="ACY94">
+        <v>0.3759398</v>
       </c>
       <c r="ADI94">
         <v>1.0344828</v>
@@ -38346,6 +38388,9 @@
       <c r="RL95">
         <v>0.08808240000000001</v>
       </c>
+      <c r="RP95">
+        <v>2.1551724</v>
+      </c>
       <c r="RQ95">
         <v>0.4237288</v>
       </c>
@@ -39263,6 +39308,9 @@
       <c r="LD96">
         <v>0.4346775</v>
       </c>
+      <c r="LE96">
+        <v>2.1317829</v>
+      </c>
       <c r="LG96">
         <v>0.6523571</v>
       </c>
@@ -40384,6 +40432,9 @@
       <c r="LD97">
         <v>0.4450197</v>
       </c>
+      <c r="LE97">
+        <v>1.984127</v>
+      </c>
       <c r="LG97">
         <v>0.4016476</v>
       </c>
@@ -41502,6 +41553,9 @@
       <c r="LD98">
         <v>0.5510826</v>
       </c>
+      <c r="LE98">
+        <v>1.2295082</v>
+      </c>
       <c r="LG98">
         <v>0.3678808</v>
       </c>
@@ -42620,6 +42674,9 @@
       <c r="LD99">
         <v>0.5467047</v>
       </c>
+      <c r="LE99">
+        <v>1.4435696</v>
+      </c>
       <c r="LG99">
         <v>0.4199357</v>
       </c>
@@ -43399,6 +43456,9 @@
       <c r="AG100">
         <v>0.08126460000000001</v>
       </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
       <c r="AI100">
         <v>0.2814186</v>
       </c>
@@ -43734,6 +43794,9 @@
       </c>
       <c r="LD100">
         <v>0.3788332</v>
+      </c>
+      <c r="LE100">
+        <v>1.4905149</v>
       </c>
       <c r="LG100">
         <v>0.3726054</v>
@@ -44514,6 +44577,9 @@
       <c r="AG101">
         <v>0.0783268</v>
       </c>
+      <c r="AH101">
+        <v>0.5420054</v>
+      </c>
       <c r="AI101">
         <v>0.4021611</v>
       </c>
@@ -45629,6 +45695,9 @@
       <c r="AG102">
         <v>0.1087372</v>
       </c>
+      <c r="AH102">
+        <v>0.5089059</v>
+      </c>
       <c r="AI102">
         <v>0.443611</v>
       </c>
@@ -46744,6 +46813,9 @@
       <c r="AG103">
         <v>0.2137526</v>
       </c>
+      <c r="AH103">
+        <v>0.5050505</v>
+      </c>
       <c r="AI103">
         <v>0.4433908</v>
       </c>
@@ -51414,6 +51486,9 @@
       <c r="HA107">
         <v>0.3141066</v>
       </c>
+      <c r="HE107">
+        <v>0</v>
+      </c>
       <c r="HF107">
         <v>0.3203233</v>
       </c>
@@ -51470,6 +51545,9 @@
       </c>
       <c r="IS107">
         <v>0</v>
+      </c>
+      <c r="IW107">
+        <v>0.2762431</v>
       </c>
       <c r="IZ107">
         <v>0.390625</v>
@@ -52523,6 +52601,9 @@
       <c r="HA108">
         <v>0.362878</v>
       </c>
+      <c r="HE108">
+        <v>0</v>
+      </c>
       <c r="HF108">
         <v>0.3310015</v>
       </c>
@@ -52579,6 +52660,9 @@
       </c>
       <c r="IS108">
         <v>0</v>
+      </c>
+      <c r="IW108">
+        <v>0.2777778</v>
       </c>
       <c r="IZ108">
         <v>0.3731343</v>
@@ -53632,6 +53716,9 @@
       <c r="HA109">
         <v>0.2864527</v>
       </c>
+      <c r="HE109">
+        <v>0.733945</v>
+      </c>
       <c r="HF109">
         <v>0.3633914</v>
       </c>
@@ -53688,6 +53775,9 @@
       </c>
       <c r="IS109">
         <v>0</v>
+      </c>
+      <c r="IW109">
+        <v>0.6782946</v>
       </c>
       <c r="IZ109">
         <v>0.5434783</v>
@@ -54798,6 +54888,9 @@
       <c r="IS110">
         <v>0.1886792</v>
       </c>
+      <c r="IW110">
+        <v>0.6743738</v>
+      </c>
       <c r="IZ110">
         <v>0.3496503</v>
       </c>
@@ -55754,6 +55847,9 @@
       <c r="EA111">
         <v>0.2430997</v>
       </c>
+      <c r="EE111">
+        <v>0.1984127</v>
+      </c>
       <c r="EK111">
         <v>0.3045665</v>
       </c>
@@ -55903,6 +55999,9 @@
       </c>
       <c r="IS111">
         <v>0.1736111</v>
+      </c>
+      <c r="IW111">
+        <v>0.5121043</v>
       </c>
       <c r="IZ111">
         <v>0.5446623</v>
@@ -56860,6 +56959,9 @@
       <c r="EA112">
         <v>0.3090324</v>
       </c>
+      <c r="EE112">
+        <v>0.2083333</v>
+      </c>
       <c r="EK112">
         <v>0.1071833</v>
       </c>
@@ -57010,6 +57112,9 @@
       <c r="IS112">
         <v>0.1623377</v>
       </c>
+      <c r="IW112">
+        <v>0.9633910999999999</v>
+      </c>
       <c r="IZ112">
         <v>0.5081301</v>
       </c>
@@ -57432,6 +57537,9 @@
       </c>
       <c r="WW112">
         <v>0.3072009</v>
+      </c>
+      <c r="WX112">
+        <v>0.7042254</v>
       </c>
       <c r="WY112">
         <v>0.3076923</v>
@@ -57963,6 +58071,9 @@
       <c r="EA113">
         <v>0.2695953</v>
       </c>
+      <c r="EE113">
+        <v>0.204918</v>
+      </c>
       <c r="EK113">
         <v>0.2168921</v>
       </c>
@@ -58535,6 +58646,9 @@
       </c>
       <c r="WW113">
         <v>0.3493561</v>
+      </c>
+      <c r="WX113">
+        <v>0</v>
       </c>
       <c r="WY113">
         <v>0.4601227</v>
@@ -59066,6 +59180,9 @@
       <c r="EA114">
         <v>0.152074</v>
       </c>
+      <c r="EE114">
+        <v>0.210084</v>
+      </c>
       <c r="EK114">
         <v>0.1806335</v>
       </c>
@@ -59638,6 +59755,9 @@
       </c>
       <c r="WW114">
         <v>0.3129027</v>
+      </c>
+      <c r="WX114">
+        <v>0</v>
       </c>
       <c r="WY114">
         <v>0.4731861</v>
@@ -60169,6 +60289,9 @@
       <c r="EA115">
         <v>0.1144114</v>
       </c>
+      <c r="EE115">
+        <v>0.2403846</v>
+      </c>
       <c r="EK115">
         <v>0.1826152</v>
       </c>
@@ -60741,6 +60864,9 @@
       </c>
       <c r="WW115">
         <v>0.2174437</v>
+      </c>
+      <c r="WX115">
+        <v>0</v>
       </c>
       <c r="WY115">
         <v>0.4559271</v>
@@ -61845,6 +61971,9 @@
       <c r="WW116">
         <v>0.2233992</v>
       </c>
+      <c r="WX116">
+        <v>0</v>
+      </c>
       <c r="WY116">
         <v>0.4716981</v>
       </c>
@@ -62951,6 +63080,9 @@
       <c r="WW117">
         <v>0.1709841</v>
       </c>
+      <c r="WX117">
+        <v>0</v>
+      </c>
       <c r="WY117">
         <v>0.1457726</v>
       </c>
@@ -63152,6 +63284,9 @@
       <c r="ACX117">
         <v>0.2747253</v>
       </c>
+      <c r="ADI117">
+        <v>0</v>
+      </c>
       <c r="ADN117">
         <v>1.2345679</v>
       </c>
@@ -63253,6 +63388,9 @@
       </c>
       <c r="AGV117">
         <v>0.3168568</v>
+      </c>
+      <c r="AGY117">
+        <v>0</v>
       </c>
       <c r="AHA117">
         <v>0.2939388</v>
@@ -63676,6 +63814,9 @@
       <c r="KK118">
         <v>0.5494505</v>
       </c>
+      <c r="KL118">
+        <v>0</v>
+      </c>
       <c r="KO118">
         <v>0.161264</v>
       </c>
@@ -64249,6 +64390,9 @@
       <c r="ACX118">
         <v>0.2604167</v>
       </c>
+      <c r="ADI118">
+        <v>0</v>
+      </c>
       <c r="ADN118">
         <v>0.6578947000000001</v>
       </c>
@@ -64350,6 +64494,9 @@
       </c>
       <c r="AGV118">
         <v>0.3168568</v>
+      </c>
+      <c r="AGY118">
+        <v>0</v>
       </c>
       <c r="AHA118">
         <v>0.2883231</v>
@@ -64773,6 +64920,9 @@
       <c r="KK119">
         <v>0.5347594</v>
       </c>
+      <c r="KL119">
+        <v>0</v>
+      </c>
       <c r="KO119">
         <v>0.2052519</v>
       </c>
@@ -65346,6 +65496,9 @@
       <c r="ACX119">
         <v>0.2564103</v>
       </c>
+      <c r="ADI119">
+        <v>0</v>
+      </c>
       <c r="ADN119">
         <v>0.6578947000000001</v>
       </c>
@@ -65447,6 +65600,9 @@
       </c>
       <c r="AGV119">
         <v>0.3132832</v>
+      </c>
+      <c r="AGY119">
+        <v>0</v>
       </c>
       <c r="AHA119">
         <v>0.3213348</v>
@@ -65858,6 +66014,9 @@
       <c r="KC120">
         <v>0.4660075</v>
       </c>
+      <c r="KH120">
+        <v>0.625</v>
+      </c>
       <c r="KI120">
         <v>0.0850301</v>
       </c>
@@ -65867,6 +66026,9 @@
       <c r="KK120">
         <v>0.5524862</v>
       </c>
+      <c r="KL120">
+        <v>0.1412429</v>
+      </c>
       <c r="KO120">
         <v>0.203554</v>
       </c>
@@ -66377,6 +66539,9 @@
       <c r="ABN120">
         <v>0.4032258</v>
       </c>
+      <c r="ABO120">
+        <v>0.5277778</v>
+      </c>
       <c r="ABP120">
         <v>0.3021942</v>
       </c>
@@ -66437,6 +66602,9 @@
       <c r="ACX120">
         <v>0.2717391</v>
       </c>
+      <c r="ADI120">
+        <v>0</v>
+      </c>
       <c r="ADN120">
         <v>0</v>
       </c>
@@ -66538,6 +66706,9 @@
       </c>
       <c r="AGV120">
         <v>0.2645503</v>
+      </c>
+      <c r="AGY120">
+        <v>0</v>
       </c>
       <c r="AHA120">
         <v>0.3962799</v>
@@ -66949,6 +67120,9 @@
       <c r="KC121">
         <v>0.5785335</v>
       </c>
+      <c r="KH121">
+        <v>0</v>
+      </c>
       <c r="KI121">
         <v>0.1560022</v>
       </c>
@@ -66958,6 +67132,9 @@
       <c r="KK121">
         <v>0</v>
       </c>
+      <c r="KL121">
+        <v>0.1445087</v>
+      </c>
       <c r="KO121">
         <v>0.1183884</v>
       </c>
@@ -67228,6 +67405,9 @@
       <c r="SX121">
         <v>0.2314815</v>
       </c>
+      <c r="TA121">
+        <v>0</v>
+      </c>
       <c r="TS121">
         <v>0.2866058</v>
       </c>
@@ -67465,6 +67645,9 @@
       <c r="ABN121">
         <v>0.3846154</v>
       </c>
+      <c r="ABO121">
+        <v>0.5307263</v>
+      </c>
       <c r="ABP121">
         <v>0.2766259</v>
       </c>
@@ -67525,6 +67708,9 @@
       <c r="ACX121">
         <v>0</v>
       </c>
+      <c r="ADI121">
+        <v>0</v>
+      </c>
       <c r="ADN121">
         <v>0</v>
       </c>
@@ -67626,6 +67812,9 @@
       </c>
       <c r="AGV121">
         <v>0.1743375</v>
+      </c>
+      <c r="AGY121">
+        <v>0</v>
       </c>
       <c r="AHA121">
         <v>0.3583395</v>
@@ -68037,6 +68226,9 @@
       <c r="KC122">
         <v>0.4199239</v>
       </c>
+      <c r="KH122">
+        <v>0</v>
+      </c>
       <c r="KI122">
         <v>0.1575924</v>
       </c>
@@ -68046,6 +68238,9 @@
       <c r="KK122">
         <v>0</v>
       </c>
+      <c r="KL122">
+        <v>0.152439</v>
+      </c>
       <c r="KO122">
         <v>0.1329561</v>
       </c>
@@ -68316,6 +68511,9 @@
       <c r="SX122">
         <v>0.2358491</v>
       </c>
+      <c r="TA122">
+        <v>0</v>
+      </c>
       <c r="TS122">
         <v>0.3078916</v>
       </c>
@@ -68553,6 +68751,9 @@
       <c r="ABN122">
         <v>0.3663004</v>
       </c>
+      <c r="ABO122">
+        <v>0.5813952999999999</v>
+      </c>
       <c r="ABP122">
         <v>0.3318311</v>
       </c>
@@ -68613,6 +68814,9 @@
       <c r="ACX122">
         <v>0</v>
       </c>
+      <c r="ADI122">
+        <v>0</v>
+      </c>
       <c r="ADN122">
         <v>0</v>
       </c>
@@ -68714,6 +68918,9 @@
       </c>
       <c r="AGV122">
         <v>0.3348214</v>
+      </c>
+      <c r="AGY122">
+        <v>0</v>
       </c>
       <c r="AHA122">
         <v>0.4301168</v>
@@ -69035,6 +69242,9 @@
       <c r="HF123">
         <v>0.3663622</v>
       </c>
+      <c r="HG123">
+        <v>0.1424501</v>
+      </c>
       <c r="HH123">
         <v>0.5862647</v>
       </c>
@@ -69122,6 +69332,9 @@
       <c r="KC123">
         <v>0.5451292</v>
       </c>
+      <c r="KH123">
+        <v>0</v>
+      </c>
       <c r="KI123">
         <v>0.1301581</v>
       </c>
@@ -69131,6 +69344,9 @@
       <c r="KK123">
         <v>0</v>
       </c>
+      <c r="KL123">
+        <v>0.1506024</v>
+      </c>
       <c r="KO123">
         <v>0.176952</v>
       </c>
@@ -69371,6 +69587,9 @@
       <c r="SD123">
         <v>0.7049999</v>
       </c>
+      <c r="SE123">
+        <v>0</v>
+      </c>
       <c r="SG123">
         <v>0.4262093</v>
       </c>
@@ -69398,6 +69617,9 @@
       <c r="SX123">
         <v>0.2421308</v>
       </c>
+      <c r="TA123">
+        <v>0</v>
+      </c>
       <c r="TS123">
         <v>0.1817351</v>
       </c>
@@ -69634,6 +69856,9 @@
       </c>
       <c r="ABN123">
         <v>0.3623188</v>
+      </c>
+      <c r="ABO123">
+        <v>0.591716</v>
       </c>
       <c r="ABP123">
         <v>0.3356962</v>
@@ -70117,6 +70342,9 @@
       <c r="HF124">
         <v>0.3612252</v>
       </c>
+      <c r="HG124">
+        <v>0.1383126</v>
+      </c>
       <c r="HH124">
         <v>0.7154882</v>
       </c>
@@ -70204,6 +70432,9 @@
       <c r="KC124">
         <v>0.4427309</v>
       </c>
+      <c r="KH124">
+        <v>0</v>
+      </c>
       <c r="KI124">
         <v>0.1575644</v>
       </c>
@@ -70453,6 +70684,9 @@
       <c r="SD124">
         <v>0.9189319</v>
       </c>
+      <c r="SE124">
+        <v>0</v>
+      </c>
       <c r="SG124">
         <v>0.4311192</v>
       </c>
@@ -70480,6 +70714,9 @@
       <c r="SX124">
         <v>0.4901961</v>
       </c>
+      <c r="TA124">
+        <v>0</v>
+      </c>
       <c r="TS124">
         <v>0.1760199</v>
       </c>
@@ -70716,6 +70953,9 @@
       </c>
       <c r="ABN124">
         <v>0</v>
+      </c>
+      <c r="ABO124">
+        <v>0.152439</v>
       </c>
       <c r="ABP124">
         <v>0.4068835</v>
@@ -71199,6 +71439,9 @@
       <c r="HF125">
         <v>0.3893101</v>
       </c>
+      <c r="HG125">
+        <v>0.1322751</v>
+      </c>
       <c r="HH125">
         <v>0.4824561</v>
       </c>
@@ -71286,6 +71529,9 @@
       <c r="KC125">
         <v>0.6052729999999999</v>
       </c>
+      <c r="KH125">
+        <v>0.625</v>
+      </c>
       <c r="KI125">
         <v>0.1906844</v>
       </c>
@@ -71535,6 +71781,9 @@
       <c r="SD125">
         <v>0.8677379</v>
       </c>
+      <c r="SE125">
+        <v>0</v>
+      </c>
       <c r="SG125">
         <v>0.4408316</v>
       </c>
@@ -71562,6 +71811,9 @@
       <c r="SX125">
         <v>0.4716981</v>
       </c>
+      <c r="TA125">
+        <v>0</v>
+      </c>
       <c r="TS125">
         <v>0.081839</v>
       </c>
@@ -71798,6 +72050,9 @@
       </c>
       <c r="ABN125">
         <v>0</v>
+      </c>
+      <c r="ABO125">
+        <v>0.8223684</v>
       </c>
       <c r="ABP125">
         <v>0.3488479</v>
@@ -72197,6 +72452,9 @@
       <c r="EN126">
         <v>0.4385965</v>
       </c>
+      <c r="EQ126">
+        <v>0.1242236</v>
+      </c>
       <c r="ER126">
         <v>0.5791506</v>
       </c>
@@ -72278,6 +72536,9 @@
       <c r="HF126">
         <v>0.3133091</v>
       </c>
+      <c r="HG126">
+        <v>0.3531073</v>
+      </c>
       <c r="HH126">
         <v>0.128866</v>
       </c>
@@ -72614,6 +72875,9 @@
       <c r="SD126">
         <v>0.8786936</v>
       </c>
+      <c r="SE126">
+        <v>0</v>
+      </c>
       <c r="SG126">
         <v>0.4242875</v>
       </c>
@@ -72640,6 +72904,9 @@
       </c>
       <c r="SX126">
         <v>0.2320186</v>
+      </c>
+      <c r="TA126">
+        <v>0</v>
       </c>
       <c r="TS126">
         <v>0.09259530000000001</v>
@@ -73276,6 +73543,9 @@
       <c r="EN127">
         <v>0.7205514</v>
       </c>
+      <c r="EQ127">
+        <v>0.1234568</v>
+      </c>
       <c r="ER127">
         <v>0.5617978</v>
       </c>
@@ -73357,6 +73627,9 @@
       <c r="HF127">
         <v>0.2401572</v>
       </c>
+      <c r="HG127">
+        <v>0.382263</v>
+      </c>
       <c r="HH127">
         <v>0.136612</v>
       </c>
@@ -73450,6 +73723,9 @@
       <c r="KJ127">
         <v>0.4136253</v>
       </c>
+      <c r="KK127">
+        <v>0</v>
+      </c>
       <c r="KO127">
         <v>0.271645</v>
       </c>
@@ -73690,6 +73966,9 @@
       <c r="SD127">
         <v>0.6424149</v>
       </c>
+      <c r="SE127">
+        <v>0</v>
+      </c>
       <c r="SG127">
         <v>0.3691572</v>
       </c>
@@ -74141,6 +74420,9 @@
         <v>0.3988376</v>
       </c>
       <c r="AHX127">
+        <v>0</v>
+      </c>
+      <c r="AHY127">
         <v>0</v>
       </c>
       <c r="AIB127">
@@ -74349,6 +74631,9 @@
       <c r="EN128">
         <v>0.7113821</v>
       </c>
+      <c r="EQ128">
+        <v>0.6578947000000001</v>
+      </c>
       <c r="ER128">
         <v>0.9</v>
       </c>
@@ -74523,6 +74808,9 @@
       <c r="KJ128">
         <v>0.6958763</v>
       </c>
+      <c r="KK128">
+        <v>0.2369668</v>
+      </c>
       <c r="KO128">
         <v>0.2655479</v>
       </c>
@@ -75214,6 +75502,9 @@
         <v>0.2633805</v>
       </c>
       <c r="AHX128">
+        <v>0</v>
+      </c>
+      <c r="AHY128">
         <v>0</v>
       </c>
       <c r="AIB128">
@@ -75398,6 +75689,9 @@
       <c r="DS129">
         <v>0.3059818</v>
       </c>
+      <c r="DU129">
+        <v>0.7795699</v>
+      </c>
       <c r="DW129">
         <v>0.1756001</v>
       </c>
@@ -75419,6 +75713,9 @@
       <c r="EN129">
         <v>0.492126</v>
       </c>
+      <c r="EQ129">
+        <v>0.6493506</v>
+      </c>
       <c r="ER129">
         <v>0.9221311</v>
       </c>
@@ -75593,6 +75890,9 @@
       <c r="KJ129">
         <v>0.5301205</v>
       </c>
+      <c r="KK129">
+        <v>0.245098</v>
+      </c>
       <c r="KO129">
         <v>0.251962</v>
       </c>
@@ -76013,6 +76313,9 @@
       <c r="YY129">
         <v>0</v>
       </c>
+      <c r="ZD129">
+        <v>1.6985138</v>
+      </c>
       <c r="ZL129">
         <v>0.2175293</v>
       </c>
@@ -76281,6 +76584,9 @@
         <v>0.2651038</v>
       </c>
       <c r="AHX129">
+        <v>0</v>
+      </c>
+      <c r="AHY129">
         <v>0</v>
       </c>
       <c r="AIB129">
@@ -76432,6 +76738,9 @@
       <c r="CO130">
         <v>1.3799824</v>
       </c>
+      <c r="CQ130">
+        <v>0.5434783</v>
+      </c>
       <c r="CR130">
         <v>0.2018796</v>
       </c>
@@ -76462,6 +76771,9 @@
       <c r="DS130">
         <v>0.4891586</v>
       </c>
+      <c r="DU130">
+        <v>0.7591623</v>
+      </c>
       <c r="DW130">
         <v>0.1827742</v>
       </c>
@@ -76483,6 +76795,9 @@
       <c r="EN130">
         <v>0.6302521</v>
       </c>
+      <c r="EQ130">
+        <v>0.6993007</v>
+      </c>
       <c r="ER130">
         <v>0.7</v>
       </c>
@@ -76657,6 +76972,9 @@
       <c r="KJ130">
         <v>0.5758313</v>
       </c>
+      <c r="KK130">
+        <v>0.2392344</v>
+      </c>
       <c r="KO130">
         <v>0.3036462</v>
       </c>
@@ -77077,6 +77395,9 @@
       <c r="YY130">
         <v>0.110011</v>
       </c>
+      <c r="ZD130">
+        <v>1.6985138</v>
+      </c>
       <c r="ZL130">
         <v>0.3208418</v>
       </c>
@@ -77215,6 +77536,9 @@
       <c r="ACX130">
         <v>0.6578947000000001</v>
       </c>
+      <c r="ADN130">
+        <v>1.4388489</v>
+      </c>
       <c r="ADP130">
         <v>0.6152801</v>
       </c>
@@ -77340,6 +77664,9 @@
       </c>
       <c r="AHX130">
         <v>0.1443001</v>
+      </c>
+      <c r="AHY130">
+        <v>0</v>
       </c>
       <c r="AIB130">
         <v>0</v>
@@ -77490,6 +77817,9 @@
       <c r="CO131">
         <v>1.555162</v>
       </c>
+      <c r="CQ131">
+        <v>0</v>
+      </c>
       <c r="CR131">
         <v>0.1982771</v>
       </c>
@@ -77520,6 +77850,9 @@
       <c r="DS131">
         <v>0.4988457</v>
       </c>
+      <c r="DU131">
+        <v>0.7552083000000001</v>
+      </c>
       <c r="DW131">
         <v>0.1714576</v>
       </c>
@@ -77541,6 +77874,9 @@
       <c r="EN131">
         <v>0.8264463</v>
       </c>
+      <c r="EQ131">
+        <v>0.7407407</v>
+      </c>
       <c r="ER131">
         <v>0.6862745</v>
       </c>
@@ -77715,6 +78051,9 @@
       <c r="KJ131">
         <v>0.5661882</v>
       </c>
+      <c r="KK131">
+        <v>0.2487562</v>
+      </c>
       <c r="KO131">
         <v>0.2984044</v>
       </c>
@@ -77925,6 +78264,9 @@
       <c r="RD131">
         <v>0.3962343</v>
       </c>
+      <c r="RG131">
+        <v>0.3663004</v>
+      </c>
       <c r="RI131">
         <v>0.2833753</v>
       </c>
@@ -78132,6 +78474,9 @@
       <c r="YY131">
         <v>0.1118568</v>
       </c>
+      <c r="ZD131">
+        <v>1.6985138</v>
+      </c>
       <c r="ZL131">
         <v>0.3289054</v>
       </c>
@@ -78270,6 +78615,9 @@
       <c r="ACX131">
         <v>0.6666666999999999</v>
       </c>
+      <c r="ADN131">
+        <v>2</v>
+      </c>
       <c r="ADP131">
         <v>0.5670252</v>
       </c>
@@ -78395,6 +78743,9 @@
       </c>
       <c r="AHX131">
         <v>0.1557632</v>
+      </c>
+      <c r="AHY131">
+        <v>0.4357298</v>
       </c>
       <c r="AIB131">
         <v>0</v>
@@ -78545,6 +78896,9 @@
       <c r="CO132">
         <v>1.535224</v>
       </c>
+      <c r="CQ132">
+        <v>0</v>
+      </c>
       <c r="CR132">
         <v>0.2083333</v>
       </c>
@@ -78563,6 +78917,9 @@
       <c r="DD132">
         <v>0.2136109</v>
       </c>
+      <c r="DE132">
+        <v>0.7872079</v>
+      </c>
       <c r="DK132">
         <v>0.15681</v>
       </c>
@@ -78572,6 +78929,9 @@
       <c r="DS132">
         <v>0.4782899</v>
       </c>
+      <c r="DU132">
+        <v>0.7474227</v>
+      </c>
       <c r="DW132">
         <v>0.135134</v>
       </c>
@@ -78752,6 +79112,9 @@
       <c r="JX132">
         <v>0.682279</v>
       </c>
+      <c r="KA132">
+        <v>1.2637363</v>
+      </c>
       <c r="KB132">
         <v>0.3307794</v>
       </c>
@@ -78764,6 +79127,9 @@
       <c r="KJ132">
         <v>0.5110063</v>
       </c>
+      <c r="KK132">
+        <v>0.6140350999999999</v>
+      </c>
       <c r="KO132">
         <v>0.3379151</v>
       </c>
@@ -78974,6 +79340,9 @@
       <c r="RD132">
         <v>0.4523915</v>
       </c>
+      <c r="RG132">
+        <v>0.3623188</v>
+      </c>
       <c r="RI132">
         <v>0.2906977</v>
       </c>
@@ -79181,6 +79550,9 @@
       <c r="YY132">
         <v>0.1153403</v>
       </c>
+      <c r="ZD132">
+        <v>1.7660044</v>
+      </c>
       <c r="ZL132">
         <v>0.3279649</v>
       </c>
@@ -79319,6 +79691,9 @@
       <c r="ACX132">
         <v>0.625</v>
       </c>
+      <c r="ADN132">
+        <v>0.9592326</v>
+      </c>
       <c r="ADP132">
         <v>0.7741796</v>
       </c>
@@ -79407,7 +79782,7 @@
         <v>0.2453218</v>
       </c>
       <c r="AGM132">
-        <v>0.4777127</v>
+        <v>0.4770201</v>
       </c>
       <c r="AGO132">
         <v>0.5208333000000001</v>
@@ -79445,6 +79820,9 @@
       <c r="AHX132">
         <v>0.1494768</v>
       </c>
+      <c r="AHY132">
+        <v>0.4444444</v>
+      </c>
       <c r="AIB132">
         <v>0.952381</v>
       </c>
@@ -79477,6 +79855,9 @@
       </c>
       <c r="AJA132">
         <v>0.1637555</v>
+      </c>
+      <c r="AJB132">
+        <v>2.4753868</v>
       </c>
     </row>
     <row r="133" spans="1:938">
@@ -79591,6 +79972,9 @@
       <c r="CO133">
         <v>0.7391138</v>
       </c>
+      <c r="CQ133">
+        <v>0.5208333000000001</v>
+      </c>
       <c r="CR133">
         <v>0.4264392</v>
       </c>
@@ -79609,6 +79993,9 @@
       <c r="DD133">
         <v>0.2713792</v>
       </c>
+      <c r="DE133">
+        <v>0.8424908</v>
+      </c>
       <c r="DK133">
         <v>0.0944287</v>
       </c>
@@ -79618,6 +80005,9 @@
       <c r="DS133">
         <v>0.758769</v>
       </c>
+      <c r="DU133">
+        <v>0.7754011</v>
+      </c>
       <c r="DW133">
         <v>0.1086059</v>
       </c>
@@ -79798,6 +80188,9 @@
       <c r="JX133">
         <v>0.682279</v>
       </c>
+      <c r="KA133">
+        <v>1.2105263</v>
+      </c>
       <c r="KB133">
         <v>0.5023873</v>
       </c>
@@ -80020,6 +80413,9 @@
       <c r="RD133">
         <v>0.4327282</v>
       </c>
+      <c r="RG133">
+        <v>0.1745201</v>
+      </c>
       <c r="RI133">
         <v>0.2624672</v>
       </c>
@@ -80227,6 +80623,9 @@
       <c r="YY133">
         <v>0.1111111</v>
       </c>
+      <c r="ZD133">
+        <v>1.5873016</v>
+      </c>
       <c r="ZL133">
         <v>0.3173192</v>
       </c>
@@ -80365,6 +80764,9 @@
       <c r="ACX133">
         <v>0.6756757</v>
       </c>
+      <c r="ADN133">
+        <v>0.9661836</v>
+      </c>
       <c r="ADP133">
         <v>0.7741205</v>
       </c>
@@ -80453,7 +80855,7 @@
         <v>0.1809293</v>
       </c>
       <c r="AGM133">
-        <v>0.38556</v>
+        <v>0.3849751</v>
       </c>
       <c r="AGO133">
         <v>0.5189530999999999</v>
@@ -80523,6 +80925,9 @@
       </c>
       <c r="AJA133">
         <v>0.307971</v>
+      </c>
+      <c r="AJB133">
+        <v>2.9824561</v>
       </c>
     </row>
     <row r="134" spans="1:938">
@@ -80637,6 +81042,9 @@
       <c r="CO134">
         <v>0.7613169</v>
       </c>
+      <c r="CQ134">
+        <v>0.5780347</v>
+      </c>
       <c r="CR134">
         <v>0.4779756</v>
       </c>
@@ -80655,6 +81063,9 @@
       <c r="DD134">
         <v>0.2479941</v>
       </c>
+      <c r="DE134">
+        <v>0.1923077</v>
+      </c>
       <c r="DK134">
         <v>0.3683241</v>
       </c>
@@ -80664,6 +81075,9 @@
       <c r="DS134">
         <v>0.9779359</v>
       </c>
+      <c r="DU134">
+        <v>0.9344894</v>
+      </c>
       <c r="DW134">
         <v>0.1508183</v>
       </c>
@@ -80706,6 +81120,9 @@
       <c r="FE134">
         <v>0.3150286</v>
       </c>
+      <c r="FF134">
+        <v>0.3202847</v>
+      </c>
       <c r="FG134">
         <v>0.3666702</v>
       </c>
@@ -80841,6 +81258,9 @@
       <c r="JX134">
         <v>0.7224569</v>
       </c>
+      <c r="KA134">
+        <v>1.2707182</v>
+      </c>
       <c r="KB134">
         <v>0.661309</v>
       </c>
@@ -80877,6 +81297,9 @@
       <c r="LR134">
         <v>0.3787879</v>
       </c>
+      <c r="LU134">
+        <v>0.3858025</v>
+      </c>
       <c r="LW134">
         <v>0.0787402</v>
       </c>
@@ -81060,6 +81483,9 @@
       <c r="RD134">
         <v>0.4777246</v>
       </c>
+      <c r="RG134">
+        <v>0</v>
+      </c>
       <c r="RI134">
         <v>0.8086253</v>
       </c>
@@ -81267,6 +81693,9 @@
       <c r="YY134">
         <v>0.1064963</v>
       </c>
+      <c r="ZD134">
+        <v>1.4925373</v>
+      </c>
       <c r="ZL134">
         <v>0.341036</v>
       </c>
@@ -81405,6 +81834,9 @@
       <c r="ACX134">
         <v>0.6289308</v>
       </c>
+      <c r="ADN134">
+        <v>0.7246377000000001</v>
+      </c>
       <c r="ADP134">
         <v>0.6039123</v>
       </c>
@@ -81493,7 +81925,7 @@
         <v>0.1765059</v>
       </c>
       <c r="AGM134">
-        <v>0.3327932</v>
+        <v>0.3322915</v>
       </c>
       <c r="AGO134">
         <v>1.1126543</v>
@@ -81560,6 +81992,12 @@
       </c>
       <c r="AIZ134">
         <v>0.2991349</v>
+      </c>
+      <c r="AJA134">
+        <v>0.13947</v>
+      </c>
+      <c r="AJB134">
+        <v>3.4301521</v>
       </c>
     </row>
     <row r="135" spans="1:938">
@@ -81674,9 +82112,15 @@
       <c r="CO135">
         <v>0.7088123</v>
       </c>
+      <c r="CQ135">
+        <v>0.5649718</v>
+      </c>
       <c r="CR135">
         <v>0.4483911</v>
       </c>
+      <c r="CS135">
+        <v>0.5660377</v>
+      </c>
       <c r="CT135">
         <v>0.1219512</v>
       </c>
@@ -81687,7 +82131,10 @@
         <v>0.3048482</v>
       </c>
       <c r="DD135">
-        <v>0.1994527</v>
+        <v>0.1992312</v>
+      </c>
+      <c r="DE135">
+        <v>0.6072874</v>
       </c>
       <c r="DK135">
         <v>0.3555556</v>
@@ -81740,6 +82187,9 @@
       <c r="FE135">
         <v>0.3224305</v>
       </c>
+      <c r="FF135">
+        <v>0.1388889</v>
+      </c>
       <c r="FG135">
         <v>0.418635</v>
       </c>
@@ -81875,6 +82325,9 @@
       <c r="JX135">
         <v>0.1462314</v>
       </c>
+      <c r="KA135">
+        <v>1.5517241</v>
+      </c>
       <c r="KB135">
         <v>0.6171191</v>
       </c>
@@ -81911,6 +82364,9 @@
       <c r="LR135">
         <v>0.5253622999999999</v>
       </c>
+      <c r="LU135">
+        <v>0.6033183</v>
+      </c>
       <c r="LW135">
         <v>0.4440154</v>
       </c>
@@ -82085,12 +82541,18 @@
       <c r="QY135">
         <v>0.2743876</v>
       </c>
+      <c r="RA135">
+        <v>0.4901961</v>
+      </c>
       <c r="RB135">
         <v>0.2283105</v>
       </c>
       <c r="RD135">
         <v>0.3840995</v>
       </c>
+      <c r="RG135">
+        <v>0</v>
+      </c>
       <c r="RI135">
         <v>0.8</v>
       </c>
@@ -82436,6 +82898,9 @@
       <c r="ACX135">
         <v>0.5847953</v>
       </c>
+      <c r="ADN135">
+        <v>0.7352941</v>
+      </c>
       <c r="ADP135">
         <v>0.5744366</v>
       </c>
@@ -82524,7 +82989,7 @@
         <v>0.1446541</v>
       </c>
       <c r="AGM135">
-        <v>0.4688999</v>
+        <v>0.4682147</v>
       </c>
       <c r="AGO135">
         <v>1.7745272</v>
@@ -82591,6 +83056,12 @@
       </c>
       <c r="AIZ135">
         <v>0.250405</v>
+      </c>
+      <c r="AJA135">
+        <v>0.1383126</v>
+      </c>
+      <c r="AJB135">
+        <v>3.6381749</v>
       </c>
     </row>
     <row r="136" spans="1:938">
@@ -82708,6 +83179,9 @@
       <c r="CR136">
         <v>0.4458042</v>
       </c>
+      <c r="CS136">
+        <v>0.2986858</v>
+      </c>
       <c r="CT136">
         <v>0.122549</v>
       </c>
@@ -82718,7 +83192,10 @@
         <v>0.2702882</v>
       </c>
       <c r="DD136">
-        <v>0.1979437</v>
+        <v>0.1977255</v>
+      </c>
+      <c r="DE136">
+        <v>0.6329114</v>
       </c>
       <c r="DK136">
         <v>0.3427592</v>
@@ -82771,6 +83248,9 @@
       <c r="FE136">
         <v>0.2643638</v>
       </c>
+      <c r="FF136">
+        <v>0.1683502</v>
+      </c>
       <c r="FG136">
         <v>0.3346251</v>
       </c>
@@ -82898,7 +83378,7 @@
         <v>0.2385624</v>
       </c>
       <c r="JR136">
-        <v>0.1959614</v>
+        <v>0.1957232</v>
       </c>
       <c r="JS136">
         <v>0.4672897</v>
@@ -82906,6 +83386,9 @@
       <c r="JX136">
         <v>0.1496479</v>
       </c>
+      <c r="KA136">
+        <v>1.3253012</v>
+      </c>
       <c r="KB136">
         <v>0.501456</v>
       </c>
@@ -82942,6 +83425,9 @@
       <c r="LR136">
         <v>0.5346608</v>
       </c>
+      <c r="LU136">
+        <v>0.917768</v>
+      </c>
       <c r="LW136">
         <v>0.8498024</v>
       </c>
@@ -83116,12 +83602,18 @@
       <c r="QY136">
         <v>0.2661263</v>
       </c>
+      <c r="RA136">
+        <v>0.4830918</v>
+      </c>
       <c r="RB136">
         <v>0.3150057</v>
       </c>
       <c r="RD136">
         <v>0.5420353999999999</v>
       </c>
+      <c r="RG136">
+        <v>0</v>
+      </c>
       <c r="RI136">
         <v>0.8042895</v>
       </c>
@@ -83210,7 +83702,7 @@
         <v>0.4847645</v>
       </c>
       <c r="US136">
-        <v>0.9719226</v>
+        <v>0.9708277</v>
       </c>
       <c r="UT136">
         <v>1.0147845</v>
@@ -83435,7 +83927,7 @@
         <v>0.3137434</v>
       </c>
       <c r="ACE136">
-        <v>0.2658725</v>
+        <v>0.2658345</v>
       </c>
       <c r="ACG136">
         <v>0.0543784</v>
@@ -83555,7 +84047,7 @@
         <v>0.2192982</v>
       </c>
       <c r="AGM136">
-        <v>0.4648188</v>
+        <v>0.4641455</v>
       </c>
       <c r="AGO136">
         <v>1.8260234</v>
@@ -83622,16 +84114,6268 @@
       </c>
       <c r="AIZ136">
         <v>0.2245769</v>
+      </c>
+      <c r="AJA136">
+        <v>0.1508296</v>
+      </c>
+      <c r="AJB136">
+        <v>2.6373626</v>
       </c>
     </row>
     <row r="137" spans="1:938">
       <c r="A137" t="s">
         <v>1074</v>
       </c>
+      <c r="D137">
+        <v>0.8799172</v>
+      </c>
+      <c r="H137">
+        <v>0.2748996</v>
+      </c>
+      <c r="J137">
+        <v>1.1317568</v>
+      </c>
+      <c r="K137">
+        <v>0.0927644</v>
+      </c>
+      <c r="L137">
+        <v>0.2172964</v>
+      </c>
+      <c r="P137">
+        <v>0.2068328</v>
+      </c>
+      <c r="R137">
+        <v>0.3533569</v>
+      </c>
+      <c r="U137">
+        <v>0.4506786</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0.7910253</v>
+      </c>
+      <c r="AB137">
+        <v>0.6924106</v>
+      </c>
+      <c r="AD137">
+        <v>0.4383343</v>
+      </c>
+      <c r="AG137">
+        <v>0.0018054</v>
+      </c>
+      <c r="AI137">
+        <v>0.25333</v>
+      </c>
+      <c r="AN137">
+        <v>0.1898531</v>
+      </c>
+      <c r="AV137">
+        <v>0.2844141</v>
+      </c>
+      <c r="AW137">
+        <v>0.3165407</v>
+      </c>
+      <c r="AX137">
+        <v>0.6467662</v>
+      </c>
+      <c r="BB137">
+        <v>0.5805148999999999</v>
+      </c>
+      <c r="BC137">
+        <v>0.3264271</v>
+      </c>
+      <c r="BF137">
+        <v>0.2897116</v>
+      </c>
+      <c r="BH137">
+        <v>0.6426127</v>
+      </c>
+      <c r="BI137">
+        <v>0.218902</v>
+      </c>
+      <c r="BJ137">
+        <v>0.4724409</v>
+      </c>
+      <c r="BM137">
+        <v>0.3720238</v>
+      </c>
+      <c r="BR137">
+        <v>0.5558214</v>
+      </c>
+      <c r="BS137">
+        <v>0.308642</v>
+      </c>
+      <c r="BT137">
+        <v>0.8995816</v>
+      </c>
+      <c r="BW137">
+        <v>0.7202048</v>
+      </c>
+      <c r="BY137">
+        <v>0.7598784</v>
+      </c>
+      <c r="CC137">
+        <v>0.2923977</v>
+      </c>
+      <c r="CE137">
+        <v>0.2914952</v>
+      </c>
+      <c r="CL137">
+        <v>0.3149408</v>
+      </c>
+      <c r="CM137">
+        <v>0.6775039</v>
+      </c>
+      <c r="CN137">
+        <v>0.4545344</v>
+      </c>
+      <c r="CO137">
+        <v>0.702847</v>
+      </c>
+      <c r="CR137">
+        <v>0.5440505</v>
+      </c>
+      <c r="CS137">
+        <v>0.3109453</v>
+      </c>
+      <c r="CT137">
+        <v>0.08726</v>
+      </c>
+      <c r="CY137">
+        <v>0.2159122</v>
+      </c>
+      <c r="DC137">
+        <v>0.2487116</v>
+      </c>
+      <c r="DD137">
+        <v>0.1974675</v>
+      </c>
+      <c r="DE137">
+        <v>0.7716049</v>
+      </c>
+      <c r="DK137">
+        <v>0.3333333</v>
+      </c>
+      <c r="DN137">
+        <v>0.3106587</v>
+      </c>
+      <c r="DS137">
+        <v>1.0272308</v>
+      </c>
+      <c r="DW137">
+        <v>0.2552389</v>
+      </c>
+      <c r="DZ137">
+        <v>0.676894</v>
+      </c>
+      <c r="EA137">
+        <v>0.2082833</v>
+      </c>
+      <c r="EK137">
+        <v>0.2446733</v>
+      </c>
+      <c r="EL137">
+        <v>0.3253715</v>
+      </c>
+      <c r="EM137">
+        <v>0.6000774</v>
+      </c>
+      <c r="EN137">
+        <v>0.1968504</v>
+      </c>
+      <c r="ER137">
+        <v>1.6519174</v>
+      </c>
+      <c r="ET137">
+        <v>0.4755917</v>
+      </c>
+      <c r="EZ137">
+        <v>0.4801097</v>
+      </c>
+      <c r="FA137">
+        <v>0.0869284</v>
+      </c>
+      <c r="FB137">
+        <v>0.3660025</v>
+      </c>
+      <c r="FD137">
+        <v>0.389123</v>
+      </c>
+      <c r="FE137">
+        <v>0.2505016</v>
+      </c>
+      <c r="FF137">
+        <v>0.1798561</v>
+      </c>
+      <c r="FG137">
+        <v>0.3906682</v>
+      </c>
+      <c r="FH137">
+        <v>0</v>
+      </c>
+      <c r="FI137">
+        <v>0.3544606</v>
+      </c>
+      <c r="FJ137">
+        <v>0.3340013</v>
+      </c>
+      <c r="FL137">
+        <v>0.4238689</v>
+      </c>
+      <c r="FO137">
+        <v>0.7956449</v>
+      </c>
+      <c r="FR137">
+        <v>0.4526749</v>
+      </c>
+      <c r="FS137">
+        <v>0.3838171</v>
+      </c>
+      <c r="FY137">
+        <v>0.6485084</v>
+      </c>
+      <c r="GB137">
+        <v>0.4516835</v>
+      </c>
+      <c r="GC137">
+        <v>0.3788175</v>
+      </c>
+      <c r="GD137">
+        <v>0.2679528</v>
+      </c>
+      <c r="GE137">
+        <v>0.2989328</v>
+      </c>
+      <c r="GF137">
+        <v>0.4591942</v>
+      </c>
+      <c r="GJ137">
+        <v>0.414672</v>
+      </c>
+      <c r="GS137">
+        <v>0.488565</v>
+      </c>
+      <c r="GV137">
+        <v>0</v>
+      </c>
+      <c r="HA137">
+        <v>0.809115</v>
+      </c>
+      <c r="HF137">
+        <v>0.6537309</v>
+      </c>
+      <c r="HH137">
+        <v>0</v>
+      </c>
+      <c r="HK137">
+        <v>0</v>
+      </c>
+      <c r="HL137">
+        <v>0.1857347</v>
+      </c>
+      <c r="HN137">
+        <v>0.3089714</v>
+      </c>
+      <c r="HO137">
+        <v>0.3820674</v>
+      </c>
+      <c r="HP137">
+        <v>0</v>
+      </c>
+      <c r="HT137">
+        <v>0.4303739</v>
+      </c>
+      <c r="HV137">
+        <v>0.2281731</v>
+      </c>
+      <c r="HX137">
+        <v>0.734344</v>
+      </c>
+      <c r="HY137">
+        <v>0.2530638</v>
+      </c>
+      <c r="IC137">
+        <v>0.3243243</v>
+      </c>
+      <c r="IE137">
+        <v>0.0326904</v>
+      </c>
+      <c r="IH137">
+        <v>0</v>
+      </c>
+      <c r="II137">
+        <v>0.1453153</v>
+      </c>
+      <c r="IN137">
+        <v>0.3178247</v>
+      </c>
+      <c r="IR137">
+        <v>0.1878914</v>
+      </c>
+      <c r="IS137">
+        <v>0.07326009999999999</v>
+      </c>
+      <c r="IZ137">
+        <v>0.2564103</v>
+      </c>
+      <c r="JB137">
+        <v>0.7794202</v>
+      </c>
+      <c r="JF137">
+        <v>0.4477612</v>
+      </c>
+      <c r="JG137">
+        <v>0.5238745</v>
+      </c>
+      <c r="JK137">
+        <v>0.5016021000000001</v>
+      </c>
+      <c r="JO137">
+        <v>0.3003761</v>
+      </c>
+      <c r="JR137">
+        <v>0.1539663</v>
+      </c>
+      <c r="JS137">
+        <v>0.4608295</v>
+      </c>
+      <c r="JX137">
+        <v>0.1460481</v>
+      </c>
+      <c r="KA137">
+        <v>0.2515723</v>
+      </c>
+      <c r="KB137">
+        <v>0.4640443</v>
+      </c>
+      <c r="KC137">
+        <v>0.3866591</v>
+      </c>
+      <c r="KI137">
+        <v>0.3228371</v>
+      </c>
+      <c r="KJ137">
+        <v>0.6057269</v>
+      </c>
+      <c r="KO137">
+        <v>0.2584781</v>
+      </c>
+      <c r="KV137">
+        <v>0.2966878</v>
+      </c>
+      <c r="KW137">
+        <v>0.4062416</v>
+      </c>
+      <c r="LD137">
+        <v>0.4953657</v>
+      </c>
+      <c r="LG137">
+        <v>0.159212</v>
+      </c>
+      <c r="LH137">
+        <v>0.1857585</v>
+      </c>
+      <c r="LO137">
+        <v>0.0436681</v>
+      </c>
+      <c r="LR137">
+        <v>0.5208333000000001</v>
+      </c>
+      <c r="LU137">
+        <v>1.4079148</v>
+      </c>
+      <c r="LW137">
+        <v>0.877551</v>
+      </c>
+      <c r="LX137">
+        <v>0.6329114</v>
+      </c>
+      <c r="LY137">
+        <v>0.3686747</v>
+      </c>
+      <c r="MA137">
+        <v>0.3637698</v>
+      </c>
+      <c r="MC137">
+        <v>0.1877934</v>
+      </c>
+      <c r="ME137">
+        <v>0.1126126</v>
+      </c>
+      <c r="MF137">
+        <v>0.0206647</v>
+      </c>
+      <c r="MG137">
+        <v>0.13863</v>
+      </c>
+      <c r="MI137">
+        <v>0.3513795</v>
+      </c>
+      <c r="ML137">
+        <v>0.2809311</v>
+      </c>
+      <c r="MN137">
+        <v>0.6948929</v>
+      </c>
+      <c r="MS137">
+        <v>0.2636725</v>
+      </c>
+      <c r="MU137">
+        <v>0.3781513</v>
+      </c>
+      <c r="MW137">
+        <v>0.6430446</v>
+      </c>
+      <c r="MX137">
+        <v>0.8397933</v>
+      </c>
+      <c r="MZ137">
+        <v>0.3926303</v>
+      </c>
+      <c r="NC137">
+        <v>0.3085825</v>
+      </c>
+      <c r="NE137">
+        <v>0.2820513</v>
+      </c>
+      <c r="NM137">
+        <v>0.6805037</v>
+      </c>
+      <c r="NP137">
+        <v>0.8346537000000001</v>
+      </c>
+      <c r="NQ137">
+        <v>0.1996008</v>
+      </c>
+      <c r="NT137">
+        <v>0.6962024999999999</v>
+      </c>
+      <c r="NW137">
+        <v>0</v>
+      </c>
+      <c r="NY137">
+        <v>0.1965409</v>
+      </c>
+      <c r="NZ137">
+        <v>0.7325164</v>
+      </c>
+      <c r="OD137">
+        <v>0.397841</v>
+      </c>
+      <c r="OE137">
+        <v>0.4254158</v>
+      </c>
+      <c r="OJ137">
+        <v>0.4774306</v>
+      </c>
+      <c r="OL137">
+        <v>0.5219205</v>
+      </c>
+      <c r="ON137">
+        <v>0.4410069</v>
+      </c>
+      <c r="OP137">
+        <v>0.2493766</v>
+      </c>
+      <c r="OQ137">
+        <v>0.3013183</v>
+      </c>
+      <c r="OR137">
+        <v>0.4067451</v>
+      </c>
+      <c r="OT137">
+        <v>1.0340314</v>
+      </c>
+      <c r="OV137">
+        <v>0.264223</v>
+      </c>
+      <c r="OX137">
+        <v>0.4238093</v>
+      </c>
+      <c r="PB137">
+        <v>0.2737372</v>
+      </c>
+      <c r="PG137">
+        <v>0.3504708</v>
+      </c>
+      <c r="PJ137">
+        <v>0.5258765</v>
+      </c>
+      <c r="PK137">
+        <v>0</v>
+      </c>
+      <c r="PL137">
+        <v>0.2</v>
+      </c>
+      <c r="PM137">
+        <v>0.2909091</v>
+      </c>
+      <c r="PP137">
+        <v>0.1797775</v>
+      </c>
+      <c r="PR137">
+        <v>0.5791506</v>
+      </c>
+      <c r="PS137">
+        <v>0.4269393</v>
+      </c>
+      <c r="PY137">
+        <v>0.4533895</v>
+      </c>
+      <c r="QD137">
+        <v>0.3448637</v>
+      </c>
+      <c r="QE137">
+        <v>0.4096297</v>
+      </c>
+      <c r="QF137">
+        <v>0</v>
+      </c>
+      <c r="QK137">
+        <v>0.3198386</v>
+      </c>
+      <c r="QN137">
+        <v>0.2326502</v>
+      </c>
+      <c r="QO137">
+        <v>0.505614</v>
+      </c>
+      <c r="QP137">
+        <v>0.6507849999999999</v>
+      </c>
+      <c r="QS137">
+        <v>0.6082725</v>
+      </c>
+      <c r="QU137">
+        <v>0.4524887</v>
+      </c>
+      <c r="QV137">
+        <v>0.2518289</v>
+      </c>
+      <c r="QX137">
+        <v>0.0764652</v>
+      </c>
+      <c r="QY137">
+        <v>0.1484893</v>
+      </c>
+      <c r="RA137">
+        <v>0.6880733999999999</v>
+      </c>
+      <c r="RB137">
+        <v>0.3279666</v>
+      </c>
+      <c r="RD137">
+        <v>0.5770969</v>
+      </c>
+      <c r="RI137">
+        <v>0.8791209</v>
+      </c>
+      <c r="RL137">
+        <v>0.6080114</v>
+      </c>
+      <c r="RQ137">
+        <v>0.6034194000000001</v>
+      </c>
+      <c r="RT137">
+        <v>0.3639527</v>
+      </c>
+      <c r="RV137">
+        <v>0.4528986</v>
+      </c>
+      <c r="RX137">
+        <v>0.3286609</v>
+      </c>
+      <c r="RY137">
+        <v>0.5099434</v>
+      </c>
+      <c r="SA137">
+        <v>0.2325581</v>
+      </c>
+      <c r="SD137">
+        <v>0.5303675</v>
+      </c>
+      <c r="SG137">
+        <v>0.4765997</v>
+      </c>
+      <c r="SH137">
+        <v>0.3691138</v>
+      </c>
+      <c r="SI137">
+        <v>0.2884979</v>
+      </c>
+      <c r="SM137">
+        <v>0.2311039</v>
+      </c>
+      <c r="SO137">
+        <v>0.2861569</v>
+      </c>
+      <c r="SP137">
+        <v>0.1041667</v>
+      </c>
+      <c r="SR137">
+        <v>0.2722595</v>
+      </c>
+      <c r="SW137">
+        <v>0.1277003</v>
+      </c>
+      <c r="SX137">
+        <v>0.4070881</v>
+      </c>
+      <c r="TS137">
+        <v>0.4006481</v>
+      </c>
+      <c r="TX137">
+        <v>0.4161182</v>
+      </c>
+      <c r="TY137">
+        <v>0.4874005</v>
+      </c>
+      <c r="UA137">
+        <v>0.591471</v>
+      </c>
+      <c r="UE137">
+        <v>0.36022</v>
+      </c>
+      <c r="UF137">
+        <v>0.273224</v>
+      </c>
+      <c r="UH137">
+        <v>0.2008032</v>
+      </c>
+      <c r="UI137">
+        <v>0.2345353</v>
+      </c>
+      <c r="UK137">
+        <v>0.2611513</v>
+      </c>
+      <c r="UN137">
+        <v>0.4115376</v>
+      </c>
+      <c r="UP137">
+        <v>0.6684492</v>
+      </c>
+      <c r="US137">
+        <v>0.6978645</v>
+      </c>
+      <c r="UT137">
+        <v>1.0107274</v>
+      </c>
+      <c r="UU137">
+        <v>0.6198586</v>
+      </c>
+      <c r="UV137">
+        <v>0.1361656</v>
+      </c>
+      <c r="UW137">
+        <v>0.9497566</v>
+      </c>
+      <c r="VA137">
+        <v>0.1080631</v>
+      </c>
+      <c r="VB137">
+        <v>0.6226272</v>
+      </c>
+      <c r="VO137">
+        <v>0.2242152</v>
+      </c>
+      <c r="VP137">
+        <v>1.1904762</v>
+      </c>
+      <c r="VS137">
+        <v>1.0138179</v>
+      </c>
+      <c r="VU137">
+        <v>0.6942155</v>
+      </c>
+      <c r="VW137">
+        <v>0.1896094</v>
+      </c>
+      <c r="VX137">
+        <v>0.5120709</v>
+      </c>
+      <c r="VY137">
+        <v>0.4084819</v>
+      </c>
+      <c r="WB137">
+        <v>0.7287706</v>
+      </c>
+      <c r="WF137">
+        <v>0.2174192</v>
+      </c>
+      <c r="WG137">
+        <v>0.6271684</v>
+      </c>
+      <c r="WL137">
+        <v>0.4090119</v>
+      </c>
+      <c r="WM137">
+        <v>0</v>
+      </c>
+      <c r="WQ137">
+        <v>0.3488224</v>
+      </c>
+      <c r="WU137">
+        <v>0.0646943</v>
+      </c>
+      <c r="WW137">
+        <v>0.449761</v>
+      </c>
+      <c r="WY137">
+        <v>0.5564182</v>
+      </c>
+      <c r="WZ137">
+        <v>0.3314202</v>
+      </c>
+      <c r="XD137">
+        <v>0.3727812</v>
+      </c>
+      <c r="XF137">
+        <v>0.3228159</v>
+      </c>
+      <c r="XG137">
+        <v>0.5148926</v>
+      </c>
+      <c r="XL137">
+        <v>0.2984878</v>
+      </c>
+      <c r="XM137">
+        <v>0.3662362</v>
+      </c>
+      <c r="XT137">
+        <v>0.1689189</v>
+      </c>
+      <c r="XV137">
+        <v>0.2564717</v>
+      </c>
+      <c r="YB137">
+        <v>0.3196097</v>
+      </c>
+      <c r="YD137">
+        <v>0.479351</v>
+      </c>
+      <c r="YH137">
+        <v>0.4711425</v>
+      </c>
+      <c r="YN137">
+        <v>0.3761269</v>
+      </c>
+      <c r="YO137">
+        <v>0.5510285</v>
+      </c>
+      <c r="YQ137">
+        <v>0.3200855</v>
+      </c>
+      <c r="YR137">
+        <v>0.6275867000000001</v>
+      </c>
+      <c r="YX137">
+        <v>0.2246769</v>
+      </c>
+      <c r="YY137">
+        <v>0</v>
+      </c>
+      <c r="ZL137">
+        <v>0.2519441</v>
+      </c>
+      <c r="ZM137">
+        <v>0.2840378</v>
+      </c>
+      <c r="ZO137">
+        <v>0.4704121</v>
+      </c>
+      <c r="ZR137">
+        <v>0.5957668</v>
+      </c>
+      <c r="ZS137">
+        <v>0</v>
+      </c>
+      <c r="ZV137">
+        <v>0.434447</v>
+      </c>
+      <c r="ZW137">
+        <v>0.3068556</v>
+      </c>
+      <c r="ZX137">
+        <v>0.857569</v>
+      </c>
+      <c r="ZZ137">
+        <v>0.2873721</v>
+      </c>
+      <c r="AAB137">
+        <v>0.2380952</v>
+      </c>
+      <c r="AAC137">
+        <v>0.3210003</v>
+      </c>
+      <c r="AAD137">
+        <v>0.8649789</v>
+      </c>
+      <c r="AAF137">
+        <v>0.1170992</v>
+      </c>
+      <c r="AAH137">
+        <v>0</v>
+      </c>
+      <c r="AAJ137">
+        <v>0.2410265</v>
+      </c>
+      <c r="AAM137">
+        <v>0.2402564</v>
+      </c>
+      <c r="AAP137">
+        <v>0.3741572</v>
+      </c>
+      <c r="AAR137">
+        <v>0.3857055</v>
+      </c>
+      <c r="AAU137">
+        <v>0.3478664</v>
+      </c>
+      <c r="AAV137">
+        <v>0.2437017</v>
+      </c>
+      <c r="AAW137">
+        <v>0.4976726</v>
+      </c>
+      <c r="ABA137">
+        <v>0.4230118</v>
+      </c>
+      <c r="ABC137">
+        <v>0.390425</v>
+      </c>
+      <c r="ABJ137">
+        <v>0.1780737</v>
+      </c>
+      <c r="ABL137">
+        <v>0.5574324000000001</v>
+      </c>
+      <c r="ABM137">
+        <v>0.2893519</v>
+      </c>
+      <c r="ABN137">
+        <v>0</v>
+      </c>
+      <c r="ABP137">
+        <v>0.3352112</v>
+      </c>
+      <c r="ABT137">
+        <v>0.4483058</v>
+      </c>
+      <c r="ABV137">
+        <v>0.1704972</v>
+      </c>
+      <c r="ABW137">
+        <v>0.2857147</v>
+      </c>
+      <c r="ABX137">
+        <v>0.4449369</v>
+      </c>
+      <c r="ABY137">
+        <v>0.3899371</v>
+      </c>
+      <c r="ABZ137">
+        <v>0.436077</v>
+      </c>
+      <c r="ACA137">
+        <v>0.302365</v>
+      </c>
+      <c r="ACE137">
+        <v>0.2573619</v>
+      </c>
+      <c r="ACG137">
+        <v>0.0962563</v>
+      </c>
+      <c r="ACI137">
+        <v>0.5065015</v>
+      </c>
+      <c r="ACJ137">
+        <v>0.1338167</v>
+      </c>
+      <c r="ACK137">
+        <v>0.2516779</v>
+      </c>
+      <c r="ACM137">
+        <v>0.3600004</v>
+      </c>
+      <c r="ACN137">
+        <v>0.1577655</v>
+      </c>
+      <c r="ACP137">
+        <v>0.3059036</v>
+      </c>
+      <c r="ACU137">
+        <v>0.3314987</v>
+      </c>
+      <c r="ACW137">
+        <v>0.3464909</v>
+      </c>
+      <c r="ACX137">
+        <v>0.5347594</v>
+      </c>
+      <c r="ADP137">
+        <v>0.4775024</v>
+      </c>
+      <c r="ADR137">
+        <v>0.5294118</v>
+      </c>
+      <c r="ADU137">
+        <v>0.4317789</v>
+      </c>
+      <c r="ADV137">
+        <v>0.6080507000000001</v>
+      </c>
+      <c r="AEA137">
+        <v>0.4689268</v>
+      </c>
+      <c r="AEB137">
+        <v>0.4453901</v>
+      </c>
+      <c r="AEF137">
+        <v>0.3486223</v>
+      </c>
+      <c r="AEG137">
+        <v>0.1893939</v>
+      </c>
+      <c r="AEH137">
+        <v>0.311974</v>
+      </c>
+      <c r="AEI137">
+        <v>0.2662666</v>
+      </c>
+      <c r="AEJ137">
+        <v>0.116144</v>
+      </c>
+      <c r="AEL137">
+        <v>0.1311397</v>
+      </c>
+      <c r="AEU137">
+        <v>0.5842933</v>
+      </c>
+      <c r="AEZ137">
+        <v>0.4180418</v>
+      </c>
+      <c r="AFD137">
+        <v>0.3493247</v>
+      </c>
+      <c r="AFG137">
+        <v>0.1148061</v>
+      </c>
+      <c r="AFH137">
+        <v>0.3527597</v>
+      </c>
+      <c r="AFK137">
+        <v>0.6657935</v>
+      </c>
+      <c r="AFL137">
+        <v>0.5555556</v>
+      </c>
+      <c r="AFN137">
+        <v>0.9302326</v>
+      </c>
+      <c r="AFT137">
+        <v>0.4856159</v>
+      </c>
+      <c r="AFU137">
+        <v>0.778299</v>
+      </c>
+      <c r="AFX137">
+        <v>0.2577938</v>
+      </c>
+      <c r="AGA137">
+        <v>0.5995028</v>
+      </c>
+      <c r="AGC137">
+        <v>0.5932465</v>
+      </c>
+      <c r="AGE137">
+        <v>1.0359477</v>
+      </c>
+      <c r="AGF137">
+        <v>0.7701564</v>
+      </c>
+      <c r="AGG137">
+        <v>0.4585538</v>
+      </c>
+      <c r="AGL137">
+        <v>0.1911315</v>
+      </c>
+      <c r="AGM137">
+        <v>0.4760252</v>
+      </c>
+      <c r="AGO137">
+        <v>1.2639821</v>
+      </c>
+      <c r="AGP137">
+        <v>0.2844741</v>
+      </c>
+      <c r="AGV137">
+        <v>1.0582011</v>
+      </c>
+      <c r="AHA137">
+        <v>0.2121569</v>
+      </c>
+      <c r="AHB137">
+        <v>0.502615</v>
+      </c>
+      <c r="AHD137">
+        <v>0.1647214</v>
+      </c>
+      <c r="AHH137">
+        <v>0.2281267</v>
+      </c>
+      <c r="AHN137">
+        <v>0.3503249</v>
+      </c>
+      <c r="AHP137">
+        <v>0.1116071</v>
+      </c>
+      <c r="AHS137">
+        <v>0.3314917</v>
+      </c>
+      <c r="AHU137">
+        <v>0.2861635</v>
+      </c>
+      <c r="AHX137">
+        <v>0</v>
+      </c>
+      <c r="AIB137">
+        <v>1.4778325</v>
+      </c>
+      <c r="AID137">
+        <v>0.2545027</v>
+      </c>
+      <c r="AIE137">
+        <v>0.8957655</v>
+      </c>
+      <c r="AIF137">
+        <v>0.2635848</v>
+      </c>
+      <c r="AII137">
+        <v>0.3152762</v>
+      </c>
+      <c r="AIP137">
+        <v>0.3902558</v>
+      </c>
+      <c r="AIT137">
+        <v>0.4025373</v>
+      </c>
+      <c r="AIV137">
+        <v>1.1949329</v>
+      </c>
+      <c r="AIY137">
+        <v>0.2794899</v>
+      </c>
+      <c r="AIZ137">
+        <v>0.1547393</v>
+      </c>
+      <c r="AJA137">
+        <v>0.1508296</v>
+      </c>
+      <c r="AJB137">
+        <v>2.6722038</v>
+      </c>
     </row>
     <row r="138" spans="1:938">
       <c r="A138" t="s">
         <v>1075</v>
+      </c>
+      <c r="D138">
+        <v>0.8996042</v>
+      </c>
+      <c r="H138">
+        <v>0.277901</v>
+      </c>
+      <c r="J138">
+        <v>0.562701</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0.2129089</v>
+      </c>
+      <c r="P138">
+        <v>0.250043</v>
+      </c>
+      <c r="R138">
+        <v>0.3546099</v>
+      </c>
+      <c r="U138">
+        <v>0.4247815</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0.8188892</v>
+      </c>
+      <c r="AB138">
+        <v>0.2481343</v>
+      </c>
+      <c r="AD138">
+        <v>0.4767231</v>
+      </c>
+      <c r="AG138">
+        <v>0.0017967</v>
+      </c>
+      <c r="AI138">
+        <v>0.2524155</v>
+      </c>
+      <c r="AN138">
+        <v>0.1765262</v>
+      </c>
+      <c r="AV138">
+        <v>0.2834467</v>
+      </c>
+      <c r="AW138">
+        <v>0.3170682</v>
+      </c>
+      <c r="AX138">
+        <v>0.6585613</v>
+      </c>
+      <c r="BB138">
+        <v>0.7344633</v>
+      </c>
+      <c r="BC138">
+        <v>0.3172564</v>
+      </c>
+      <c r="BF138">
+        <v>0.3051987</v>
+      </c>
+      <c r="BH138">
+        <v>0.7192533</v>
+      </c>
+      <c r="BI138">
+        <v>0.199582</v>
+      </c>
+      <c r="BJ138">
+        <v>0.4669261</v>
+      </c>
+      <c r="BM138">
+        <v>0.2358491</v>
+      </c>
+      <c r="BR138">
+        <v>0.4399761</v>
+      </c>
+      <c r="BS138">
+        <v>0.2808989</v>
+      </c>
+      <c r="BT138">
+        <v>1.1059641</v>
+      </c>
+      <c r="BW138">
+        <v>0.7990933</v>
+      </c>
+      <c r="BY138">
+        <v>0.728863</v>
+      </c>
+      <c r="CC138">
+        <v>0.5847953</v>
+      </c>
+      <c r="CE138">
+        <v>0.2805281</v>
+      </c>
+      <c r="CL138">
+        <v>0.3163756</v>
+      </c>
+      <c r="CM138">
+        <v>0.5199872</v>
+      </c>
+      <c r="CN138">
+        <v>0.3849543</v>
+      </c>
+      <c r="CO138">
+        <v>0.4858657</v>
+      </c>
+      <c r="CR138">
+        <v>0.5504261</v>
+      </c>
+      <c r="CS138">
+        <v>0.1282051</v>
+      </c>
+      <c r="CT138">
+        <v>0.3306524</v>
+      </c>
+      <c r="CY138">
+        <v>0.4295927</v>
+      </c>
+      <c r="DC138">
+        <v>0.237887</v>
+      </c>
+      <c r="DD138">
+        <v>0.1374581</v>
+      </c>
+      <c r="DK138">
+        <v>0.2415459</v>
+      </c>
+      <c r="DN138">
+        <v>0.3041573</v>
+      </c>
+      <c r="DS138">
+        <v>1.0222385</v>
+      </c>
+      <c r="DW138">
+        <v>0.2287566</v>
+      </c>
+      <c r="DZ138">
+        <v>0.5469354</v>
+      </c>
+      <c r="EA138">
+        <v>0.0533606</v>
+      </c>
+      <c r="EK138">
+        <v>0.2686264</v>
+      </c>
+      <c r="EL138">
+        <v>0.2820963</v>
+      </c>
+      <c r="EM138">
+        <v>0.5938696999999999</v>
+      </c>
+      <c r="EN138">
+        <v>0</v>
+      </c>
+      <c r="ER138">
+        <v>1.6666667</v>
+      </c>
+      <c r="ET138">
+        <v>0.3272348</v>
+      </c>
+      <c r="EZ138">
+        <v>0.4824924</v>
+      </c>
+      <c r="FA138">
+        <v>0</v>
+      </c>
+      <c r="FB138">
+        <v>0.3629065</v>
+      </c>
+      <c r="FD138">
+        <v>0.4869652</v>
+      </c>
+      <c r="FE138">
+        <v>0.2481732</v>
+      </c>
+      <c r="FF138">
+        <v>0.0373134</v>
+      </c>
+      <c r="FG138">
+        <v>0.2702536</v>
+      </c>
+      <c r="FH138">
+        <v>0.3460208</v>
+      </c>
+      <c r="FI138">
+        <v>0.3557321</v>
+      </c>
+      <c r="FJ138">
+        <v>0.3674541</v>
+      </c>
+      <c r="FL138">
+        <v>0.3591936</v>
+      </c>
+      <c r="FO138">
+        <v>0.7838284</v>
+      </c>
+      <c r="FR138">
+        <v>0.4590164</v>
+      </c>
+      <c r="FS138">
+        <v>0.3449568</v>
+      </c>
+      <c r="FY138">
+        <v>0.6640106</v>
+      </c>
+      <c r="GB138">
+        <v>0.5311772</v>
+      </c>
+      <c r="GC138">
+        <v>0.3905034</v>
+      </c>
+      <c r="GD138">
+        <v>0.2133333</v>
+      </c>
+      <c r="GE138">
+        <v>0.351257</v>
+      </c>
+      <c r="GF138">
+        <v>0.5652328</v>
+      </c>
+      <c r="GJ138">
+        <v>0.3311083</v>
+      </c>
+      <c r="GS138">
+        <v>0.2713531</v>
+      </c>
+      <c r="GV138">
+        <v>0</v>
+      </c>
+      <c r="HA138">
+        <v>0.4629432</v>
+      </c>
+      <c r="HF138">
+        <v>0.5508976</v>
+      </c>
+      <c r="HH138">
+        <v>0</v>
+      </c>
+      <c r="HK138">
+        <v>0</v>
+      </c>
+      <c r="HL138">
+        <v>0.2143286</v>
+      </c>
+      <c r="HN138">
+        <v>0.2581908</v>
+      </c>
+      <c r="HO138">
+        <v>0.2632784</v>
+      </c>
+      <c r="HP138">
+        <v>0.4464286</v>
+      </c>
+      <c r="HT138">
+        <v>0.5191121</v>
+      </c>
+      <c r="HV138">
+        <v>0.203925</v>
+      </c>
+      <c r="HX138">
+        <v>0.6874895</v>
+      </c>
+      <c r="HY138">
+        <v>0.2073193</v>
+      </c>
+      <c r="IC138">
+        <v>0.634715</v>
+      </c>
+      <c r="IE138">
+        <v>0.0608766</v>
+      </c>
+      <c r="IH138">
+        <v>0</v>
+      </c>
+      <c r="II138">
+        <v>0.0842345</v>
+      </c>
+      <c r="IN138">
+        <v>0.3665501</v>
+      </c>
+      <c r="IR138">
+        <v>0.1829268</v>
+      </c>
+      <c r="IS138">
+        <v>0.075188</v>
+      </c>
+      <c r="IZ138">
+        <v>0</v>
+      </c>
+      <c r="JB138">
+        <v>0.6763336</v>
+      </c>
+      <c r="JF138">
+        <v>0.6637168</v>
+      </c>
+      <c r="JG138">
+        <v>0.4693612</v>
+      </c>
+      <c r="JK138">
+        <v>0.3035114</v>
+      </c>
+      <c r="JO138">
+        <v>0.2541379</v>
+      </c>
+      <c r="JR138">
+        <v>0.2951047</v>
+      </c>
+      <c r="JS138">
+        <v>0.456621</v>
+      </c>
+      <c r="JX138">
+        <v>0.0416667</v>
+      </c>
+      <c r="KB138">
+        <v>0.5772758</v>
+      </c>
+      <c r="KC138">
+        <v>0.4540589</v>
+      </c>
+      <c r="KI138">
+        <v>0.3056924</v>
+      </c>
+      <c r="KJ138">
+        <v>0.8554084</v>
+      </c>
+      <c r="KO138">
+        <v>0.2527265</v>
+      </c>
+      <c r="KV138">
+        <v>0.3234469</v>
+      </c>
+      <c r="KW138">
+        <v>0.5182669</v>
+      </c>
+      <c r="LD138">
+        <v>0.4027612</v>
+      </c>
+      <c r="LG138">
+        <v>0.157642</v>
+      </c>
+      <c r="LH138">
+        <v>0.2880658</v>
+      </c>
+      <c r="LO138">
+        <v>0.0424628</v>
+      </c>
+      <c r="LR138">
+        <v>0.5120055999999999</v>
+      </c>
+      <c r="LU138">
+        <v>1.489533</v>
+      </c>
+      <c r="LW138">
+        <v>0.9307358999999999</v>
+      </c>
+      <c r="LX138">
+        <v>0.6410256</v>
+      </c>
+      <c r="LY138">
+        <v>0.1820449</v>
+      </c>
+      <c r="MA138">
+        <v>0.3317056</v>
+      </c>
+      <c r="MC138">
+        <v>0.1769912</v>
+      </c>
+      <c r="ME138">
+        <v>0.1101322</v>
+      </c>
+      <c r="MF138">
+        <v>0.1599606</v>
+      </c>
+      <c r="MG138">
+        <v>0.1369974</v>
+      </c>
+      <c r="MI138">
+        <v>0.2761406</v>
+      </c>
+      <c r="ML138">
+        <v>0.3711485</v>
+      </c>
+      <c r="MN138">
+        <v>0.7487678</v>
+      </c>
+      <c r="MS138">
+        <v>0.3694968</v>
+      </c>
+      <c r="MU138">
+        <v>0.3338898</v>
+      </c>
+      <c r="MW138">
+        <v>0.3929539</v>
+      </c>
+      <c r="MX138">
+        <v>0.4521964</v>
+      </c>
+      <c r="MZ138">
+        <v>0.4558427</v>
+      </c>
+      <c r="NC138">
+        <v>0.2681613</v>
+      </c>
+      <c r="NE138">
+        <v>0.6144781</v>
+      </c>
+      <c r="NM138">
+        <v>0.6463513</v>
+      </c>
+      <c r="NP138">
+        <v>0.6069011</v>
+      </c>
+      <c r="NQ138">
+        <v>1.0658915</v>
+      </c>
+      <c r="NT138">
+        <v>0.6840796</v>
+      </c>
+      <c r="NW138">
+        <v>0</v>
+      </c>
+      <c r="NY138">
+        <v>0.1876877</v>
+      </c>
+      <c r="NZ138">
+        <v>0.6575239</v>
+      </c>
+      <c r="OD138">
+        <v>0.3978631</v>
+      </c>
+      <c r="OE138">
+        <v>0.3677535</v>
+      </c>
+      <c r="OJ138">
+        <v>0.5092593</v>
+      </c>
+      <c r="OL138">
+        <v>0.5983581</v>
+      </c>
+      <c r="ON138">
+        <v>0.2247318</v>
+      </c>
+      <c r="OP138">
+        <v>0.3579952</v>
+      </c>
+      <c r="OQ138">
+        <v>0.2294686</v>
+      </c>
+      <c r="OR138">
+        <v>0.3291314</v>
+      </c>
+      <c r="OT138">
+        <v>1.1037234</v>
+      </c>
+      <c r="OV138">
+        <v>0.4150781</v>
+      </c>
+      <c r="OX138">
+        <v>0.5678906</v>
+      </c>
+      <c r="PB138">
+        <v>0.0413019</v>
+      </c>
+      <c r="PG138">
+        <v>0.3472257</v>
+      </c>
+      <c r="PJ138">
+        <v>0.5701037</v>
+      </c>
+      <c r="PK138">
+        <v>0</v>
+      </c>
+      <c r="PL138">
+        <v>0.1918159</v>
+      </c>
+      <c r="PM138">
+        <v>0.3452381</v>
+      </c>
+      <c r="PP138">
+        <v>0.1791568</v>
+      </c>
+      <c r="PR138">
+        <v>0.6072874</v>
+      </c>
+      <c r="PS138">
+        <v>0.4747408</v>
+      </c>
+      <c r="PY138">
+        <v>0.5819696</v>
+      </c>
+      <c r="QD138">
+        <v>0.3392118</v>
+      </c>
+      <c r="QE138">
+        <v>0.4887485</v>
+      </c>
+      <c r="QF138">
+        <v>0.0566572</v>
+      </c>
+      <c r="QK138">
+        <v>0.3560932</v>
+      </c>
+      <c r="QN138">
+        <v>0.157774</v>
+      </c>
+      <c r="QO138">
+        <v>0.6376755</v>
+      </c>
+      <c r="QP138">
+        <v>0.6977019</v>
+      </c>
+      <c r="QS138">
+        <v>0.5693068999999999</v>
+      </c>
+      <c r="QU138">
+        <v>0.7507508000000001</v>
+      </c>
+      <c r="QV138">
+        <v>0.3159811</v>
+      </c>
+      <c r="QX138">
+        <v>0.1135003</v>
+      </c>
+      <c r="QY138">
+        <v>0.1827273</v>
+      </c>
+      <c r="RA138">
+        <v>0.6756757</v>
+      </c>
+      <c r="RB138">
+        <v>0.327381</v>
+      </c>
+      <c r="RD138">
+        <v>0.6371603</v>
+      </c>
+      <c r="RI138">
+        <v>0.9078947000000001</v>
+      </c>
+      <c r="RL138">
+        <v>0.4262753</v>
+      </c>
+      <c r="RQ138">
+        <v>0.8609383</v>
+      </c>
+      <c r="RT138">
+        <v>0.2884121</v>
+      </c>
+      <c r="RV138">
+        <v>0.4562044</v>
+      </c>
+      <c r="RX138">
+        <v>0.3338988</v>
+      </c>
+      <c r="RY138">
+        <v>0.5198252</v>
+      </c>
+      <c r="SA138">
+        <v>0</v>
+      </c>
+      <c r="SD138">
+        <v>0.3903676</v>
+      </c>
+      <c r="SG138">
+        <v>0.4540236</v>
+      </c>
+      <c r="SH138">
+        <v>0.2655232</v>
+      </c>
+      <c r="SI138">
+        <v>0.3148037</v>
+      </c>
+      <c r="SM138">
+        <v>0.2345475</v>
+      </c>
+      <c r="SO138">
+        <v>0.2825348</v>
+      </c>
+      <c r="SP138">
+        <v>0.1020408</v>
+      </c>
+      <c r="SR138">
+        <v>0.2473235</v>
+      </c>
+      <c r="SW138">
+        <v>0.0840958</v>
+      </c>
+      <c r="SX138">
+        <v>0.4094412</v>
+      </c>
+      <c r="TS138">
+        <v>0.4265072</v>
+      </c>
+      <c r="TX138">
+        <v>0.3776591</v>
+      </c>
+      <c r="TY138">
+        <v>0.5910023</v>
+      </c>
+      <c r="UA138">
+        <v>0.5757657</v>
+      </c>
+      <c r="UE138">
+        <v>0.3108697</v>
+      </c>
+      <c r="UF138">
+        <v>0.5509642</v>
+      </c>
+      <c r="UH138">
+        <v>0.2376238</v>
+      </c>
+      <c r="UI138">
+        <v>0.170503</v>
+      </c>
+      <c r="UK138">
+        <v>0.2887896</v>
+      </c>
+      <c r="UN138">
+        <v>0.4087106</v>
+      </c>
+      <c r="UP138">
+        <v>0.6738544</v>
+      </c>
+      <c r="US138">
+        <v>0.6538558</v>
+      </c>
+      <c r="UT138">
+        <v>0.9758945</v>
+      </c>
+      <c r="UU138">
+        <v>0.5994398</v>
+      </c>
+      <c r="UV138">
+        <v>0.1331203</v>
+      </c>
+      <c r="UW138">
+        <v>0.7719436</v>
+      </c>
+      <c r="VA138">
+        <v>0.1459838</v>
+      </c>
+      <c r="VB138">
+        <v>0.6226272</v>
+      </c>
+      <c r="VO138">
+        <v>0.2183406</v>
+      </c>
+      <c r="VP138">
+        <v>1.2444444</v>
+      </c>
+      <c r="VS138">
+        <v>0.9617054</v>
+      </c>
+      <c r="VU138">
+        <v>0.6116159</v>
+      </c>
+      <c r="VW138">
+        <v>0.1970055</v>
+      </c>
+      <c r="VX138">
+        <v>0.6462696999999999</v>
+      </c>
+      <c r="VY138">
+        <v>0.374429</v>
+      </c>
+      <c r="WB138">
+        <v>0.7315522</v>
+      </c>
+      <c r="WF138">
+        <v>0.1932734</v>
+      </c>
+      <c r="WG138">
+        <v>0.6358712</v>
+      </c>
+      <c r="WL138">
+        <v>0.3930658</v>
+      </c>
+      <c r="WM138">
+        <v>0</v>
+      </c>
+      <c r="WQ138">
+        <v>0.5282279</v>
+      </c>
+      <c r="WU138">
+        <v>0</v>
+      </c>
+      <c r="WW138">
+        <v>0.4758312</v>
+      </c>
+      <c r="WY138">
+        <v>0.5178227</v>
+      </c>
+      <c r="WZ138">
+        <v>0.4654266</v>
+      </c>
+      <c r="XD138">
+        <v>0.4403555</v>
+      </c>
+      <c r="XF138">
+        <v>0.318591</v>
+      </c>
+      <c r="XG138">
+        <v>0.4837518</v>
+      </c>
+      <c r="XL138">
+        <v>0.3011699</v>
+      </c>
+      <c r="XM138">
+        <v>0.362465</v>
+      </c>
+      <c r="XT138">
+        <v>0.2863688</v>
+      </c>
+      <c r="XV138">
+        <v>0.3417761</v>
+      </c>
+      <c r="YB138">
+        <v>0.2158457</v>
+      </c>
+      <c r="YD138">
+        <v>0.4246285</v>
+      </c>
+      <c r="YH138">
+        <v>0.1133787</v>
+      </c>
+      <c r="YN138">
+        <v>0.5314171</v>
+      </c>
+      <c r="YO138">
+        <v>0.5524626</v>
+      </c>
+      <c r="YQ138">
+        <v>0.3251671</v>
+      </c>
+      <c r="YR138">
+        <v>0.6416015</v>
+      </c>
+      <c r="YX138">
+        <v>0.2315671</v>
+      </c>
+      <c r="YY138">
+        <v>0</v>
+      </c>
+      <c r="ZL138">
+        <v>0.2506402</v>
+      </c>
+      <c r="ZM138">
+        <v>0.335144</v>
+      </c>
+      <c r="ZO138">
+        <v>0.3772918</v>
+      </c>
+      <c r="ZR138">
+        <v>0.4509474</v>
+      </c>
+      <c r="ZS138">
+        <v>0</v>
+      </c>
+      <c r="ZV138">
+        <v>0.4090214</v>
+      </c>
+      <c r="ZW138">
+        <v>0.4490056</v>
+      </c>
+      <c r="ZX138">
+        <v>0.5617978</v>
+      </c>
+      <c r="ZZ138">
+        <v>0.2574678</v>
+      </c>
+      <c r="AAB138">
+        <v>0.2506266</v>
+      </c>
+      <c r="AAC138">
+        <v>0.2933808</v>
+      </c>
+      <c r="AAD138">
+        <v>1.1097152</v>
+      </c>
+      <c r="AAF138">
+        <v>0.0896135</v>
+      </c>
+      <c r="AAH138">
+        <v>0</v>
+      </c>
+      <c r="AAJ138">
+        <v>0.1571346</v>
+      </c>
+      <c r="AAM138">
+        <v>0.2774889</v>
+      </c>
+      <c r="AAP138">
+        <v>0.3939818</v>
+      </c>
+      <c r="AAR138">
+        <v>0.2695163</v>
+      </c>
+      <c r="AAU138">
+        <v>0.3554138</v>
+      </c>
+      <c r="AAV138">
+        <v>0.2842403</v>
+      </c>
+      <c r="AAW138">
+        <v>0.4359661</v>
+      </c>
+      <c r="ABA138">
+        <v>0.3205128</v>
+      </c>
+      <c r="ABC138">
+        <v>0.4946577</v>
+      </c>
+      <c r="ABJ138">
+        <v>0.2467791</v>
+      </c>
+      <c r="ABL138">
+        <v>0.6922847</v>
+      </c>
+      <c r="ABM138">
+        <v>0.0584112</v>
+      </c>
+      <c r="ABN138">
+        <v>0</v>
+      </c>
+      <c r="ABP138">
+        <v>0.3640774</v>
+      </c>
+      <c r="ABT138">
+        <v>0.5164325</v>
+      </c>
+      <c r="ABV138">
+        <v>0.1705458</v>
+      </c>
+      <c r="ABW138">
+        <v>0.3285558</v>
+      </c>
+      <c r="ABX138">
+        <v>0.426565</v>
+      </c>
+      <c r="ABY138">
+        <v>0.3884712</v>
+      </c>
+      <c r="ABZ138">
+        <v>0.5161498</v>
+      </c>
+      <c r="ACA138">
+        <v>0.3439241</v>
+      </c>
+      <c r="ACE138">
+        <v>0.2290014</v>
+      </c>
+      <c r="ACG138">
+        <v>0.0960105</v>
+      </c>
+      <c r="ACI138">
+        <v>0.267585</v>
+      </c>
+      <c r="ACJ138">
+        <v>0.1340319</v>
+      </c>
+      <c r="ACK138">
+        <v>0.08445950000000001</v>
+      </c>
+      <c r="ACM138">
+        <v>0.3767311</v>
+      </c>
+      <c r="ACN138">
+        <v>0.1526296</v>
+      </c>
+      <c r="ACP138">
+        <v>0.3636014</v>
+      </c>
+      <c r="ACU138">
+        <v>0.3470657</v>
+      </c>
+      <c r="ACW138">
+        <v>0.341069</v>
+      </c>
+      <c r="ACX138">
+        <v>0.5291005</v>
+      </c>
+      <c r="ADP138">
+        <v>0.4789946</v>
+      </c>
+      <c r="ADR138">
+        <v>0.2941176</v>
+      </c>
+      <c r="ADU138">
+        <v>0.6837607</v>
+      </c>
+      <c r="ADV138">
+        <v>0.6016863</v>
+      </c>
+      <c r="AEA138">
+        <v>0.3691345</v>
+      </c>
+      <c r="AEB138">
+        <v>0.3733325</v>
+      </c>
+      <c r="AEF138">
+        <v>0.2997294</v>
+      </c>
+      <c r="AEG138">
+        <v>0.2651515</v>
+      </c>
+      <c r="AEH138">
+        <v>0.3117355</v>
+      </c>
+      <c r="AEI138">
+        <v>0.3219842</v>
+      </c>
+      <c r="AEJ138">
+        <v>0.1137656</v>
+      </c>
+      <c r="AEL138">
+        <v>0.2123142</v>
+      </c>
+      <c r="AEU138">
+        <v>0.517899</v>
+      </c>
+      <c r="AEZ138">
+        <v>0.412595</v>
+      </c>
+      <c r="AFD138">
+        <v>0.4251656</v>
+      </c>
+      <c r="AFG138">
+        <v>0.1143486</v>
+      </c>
+      <c r="AFH138">
+        <v>0.4134477</v>
+      </c>
+      <c r="AFK138">
+        <v>0.6483345</v>
+      </c>
+      <c r="AFL138">
+        <v>0</v>
+      </c>
+      <c r="AFN138">
+        <v>0.7434944</v>
+      </c>
+      <c r="AFT138">
+        <v>0.3365693</v>
+      </c>
+      <c r="AFU138">
+        <v>0.5665417</v>
+      </c>
+      <c r="AFX138">
+        <v>0.2577938</v>
+      </c>
+      <c r="AGA138">
+        <v>0.6478406</v>
+      </c>
+      <c r="AGC138">
+        <v>0.6007174</v>
+      </c>
+      <c r="AGE138">
+        <v>1.0836215</v>
+      </c>
+      <c r="AGF138">
+        <v>0.8146766</v>
+      </c>
+      <c r="AGG138">
+        <v>0.4076739</v>
+      </c>
+      <c r="AGL138">
+        <v>0.3226199</v>
+      </c>
+      <c r="AGM138">
+        <v>0.3191918</v>
+      </c>
+      <c r="AGO138">
+        <v>1.2034079</v>
+      </c>
+      <c r="AGP138">
+        <v>0.24508</v>
+      </c>
+      <c r="AGV138">
+        <v>1.0069226</v>
+      </c>
+      <c r="AHA138">
+        <v>0.2753508</v>
+      </c>
+      <c r="AHB138">
+        <v>0.4014335</v>
+      </c>
+      <c r="AHD138">
+        <v>0.07566730000000001</v>
+      </c>
+      <c r="AHH138">
+        <v>0.1614987</v>
+      </c>
+      <c r="AHN138">
+        <v>0.3649108</v>
+      </c>
+      <c r="AHP138">
+        <v>0.2386117</v>
+      </c>
+      <c r="AHS138">
+        <v>0.33241</v>
+      </c>
+      <c r="AHU138">
+        <v>0.2819083</v>
+      </c>
+      <c r="AHX138">
+        <v>0</v>
+      </c>
+      <c r="AIB138">
+        <v>2.020202</v>
+      </c>
+      <c r="AID138">
+        <v>0.2474116</v>
+      </c>
+      <c r="AIE138">
+        <v>1.1538462</v>
+      </c>
+      <c r="AIF138">
+        <v>0.2940505</v>
+      </c>
+      <c r="AII138">
+        <v>0.3100751</v>
+      </c>
+      <c r="AIP138">
+        <v>0.4421735</v>
+      </c>
+      <c r="AIT138">
+        <v>0.3870145</v>
+      </c>
+      <c r="AIV138">
+        <v>1.1603062</v>
+      </c>
+      <c r="AIY138">
+        <v>0.2797498</v>
+      </c>
+      <c r="AIZ138">
+        <v>0.2675171</v>
+      </c>
+      <c r="AJA138">
+        <v>0.1587302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:938">
+      <c r="A139" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D139">
+        <v>0.8906306000000001</v>
+      </c>
+      <c r="H139">
+        <v>0.2621288</v>
+      </c>
+      <c r="J139">
+        <v>0.5993151</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0.3089005</v>
+      </c>
+      <c r="P139">
+        <v>0.2485199</v>
+      </c>
+      <c r="R139">
+        <v>0.5617978</v>
+      </c>
+      <c r="U139">
+        <v>0.5369877</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0.8964002</v>
+      </c>
+      <c r="AB139">
+        <v>0.2190027</v>
+      </c>
+      <c r="AD139">
+        <v>0.4809233</v>
+      </c>
+      <c r="AG139">
+        <v>0.0018091</v>
+      </c>
+      <c r="AI139">
+        <v>0.2555985</v>
+      </c>
+      <c r="AN139">
+        <v>0.2328108</v>
+      </c>
+      <c r="AV139">
+        <v>0.1199041</v>
+      </c>
+      <c r="AW139">
+        <v>0.3197642</v>
+      </c>
+      <c r="AX139">
+        <v>0.6467662</v>
+      </c>
+      <c r="BB139">
+        <v>0.9291521</v>
+      </c>
+      <c r="BC139">
+        <v>0.4641233</v>
+      </c>
+      <c r="BF139">
+        <v>0.3629218</v>
+      </c>
+      <c r="BH139">
+        <v>0.4487055</v>
+      </c>
+      <c r="BI139">
+        <v>0.2227011</v>
+      </c>
+      <c r="BJ139">
+        <v>0.4705882</v>
+      </c>
+      <c r="BM139">
+        <v>0.2435065</v>
+      </c>
+      <c r="BR139">
+        <v>0.5235072</v>
+      </c>
+      <c r="BS139">
+        <v>0.0547046</v>
+      </c>
+      <c r="BT139">
+        <v>0.7553143</v>
+      </c>
+      <c r="BW139">
+        <v>0.6271751</v>
+      </c>
+      <c r="BY139">
+        <v>0.7418398</v>
+      </c>
+      <c r="CC139">
+        <v>0.5797101</v>
+      </c>
+      <c r="CE139">
+        <v>0.1690331</v>
+      </c>
+      <c r="CL139">
+        <v>0.3149408</v>
+      </c>
+      <c r="CM139">
+        <v>0.3390557</v>
+      </c>
+      <c r="CN139">
+        <v>0.3978857</v>
+      </c>
+      <c r="CO139">
+        <v>0.5149813</v>
+      </c>
+      <c r="CR139">
+        <v>0.5693297</v>
+      </c>
+      <c r="CS139">
+        <v>0.1262626</v>
+      </c>
+      <c r="CT139">
+        <v>0.3271441</v>
+      </c>
+      <c r="CY139">
+        <v>0.4260524</v>
+      </c>
+      <c r="DC139">
+        <v>0.210851</v>
+      </c>
+      <c r="DD139">
+        <v>0.1955864</v>
+      </c>
+      <c r="DK139">
+        <v>0.4045307</v>
+      </c>
+      <c r="DN139">
+        <v>0.30798</v>
+      </c>
+      <c r="DS139">
+        <v>1.2620038</v>
+      </c>
+      <c r="DW139">
+        <v>0.2041621</v>
+      </c>
+      <c r="DZ139">
+        <v>0.3707789</v>
+      </c>
+      <c r="EA139">
+        <v>0.1601717</v>
+      </c>
+      <c r="EK139">
+        <v>0.2712334</v>
+      </c>
+      <c r="EL139">
+        <v>0.2376195</v>
+      </c>
+      <c r="EM139">
+        <v>0.6195044</v>
+      </c>
+      <c r="EN139">
+        <v>0.2469136</v>
+      </c>
+      <c r="ER139">
+        <v>1.4718615</v>
+      </c>
+      <c r="ET139">
+        <v>0.5492496</v>
+      </c>
+      <c r="EZ139">
+        <v>0.4897845</v>
+      </c>
+      <c r="FA139">
+        <v>0</v>
+      </c>
+      <c r="FB139">
+        <v>0.3644659</v>
+      </c>
+      <c r="FD139">
+        <v>0.5379111</v>
+      </c>
+      <c r="FE139">
+        <v>0.2308062</v>
+      </c>
+      <c r="FF139">
+        <v>0.0381679</v>
+      </c>
+      <c r="FG139">
+        <v>0.5473980000000001</v>
+      </c>
+      <c r="FH139">
+        <v>0.3484321</v>
+      </c>
+      <c r="FI139">
+        <v>0.3556751</v>
+      </c>
+      <c r="FJ139">
+        <v>0.2685003</v>
+      </c>
+      <c r="FL139">
+        <v>0.2841531</v>
+      </c>
+      <c r="FO139">
+        <v>0.5430242</v>
+      </c>
+      <c r="FR139">
+        <v>0.9177215</v>
+      </c>
+      <c r="FS139">
+        <v>0.3849068</v>
+      </c>
+      <c r="FY139">
+        <v>0.6830600999999999</v>
+      </c>
+      <c r="GB139">
+        <v>0.6620682</v>
+      </c>
+      <c r="GC139">
+        <v>0.3151466</v>
+      </c>
+      <c r="GD139">
+        <v>0.2233389</v>
+      </c>
+      <c r="GE139">
+        <v>0.3593088</v>
+      </c>
+      <c r="GF139">
+        <v>0.5370258999999999</v>
+      </c>
+      <c r="GJ139">
+        <v>0.4151799</v>
+      </c>
+      <c r="GS139">
+        <v>0.2722494</v>
+      </c>
+      <c r="GV139">
+        <v>0</v>
+      </c>
+      <c r="HA139">
+        <v>0.5396593</v>
+      </c>
+      <c r="HF139">
+        <v>0.555453</v>
+      </c>
+      <c r="HH139">
+        <v>0.5617978</v>
+      </c>
+      <c r="HK139">
+        <v>0</v>
+      </c>
+      <c r="HL139">
+        <v>0.2123944</v>
+      </c>
+      <c r="HN139">
+        <v>0.3125644</v>
+      </c>
+      <c r="HO139">
+        <v>0.4526462</v>
+      </c>
+      <c r="HP139">
+        <v>0.530303</v>
+      </c>
+      <c r="HT139">
+        <v>0.5524943</v>
+      </c>
+      <c r="HV139">
+        <v>0.2310253</v>
+      </c>
+      <c r="HX139">
+        <v>0.8688162</v>
+      </c>
+      <c r="HY139">
+        <v>0.2079509</v>
+      </c>
+      <c r="IC139">
+        <v>0.6639566</v>
+      </c>
+      <c r="IE139">
+        <v>0.0278396</v>
+      </c>
+      <c r="IH139">
+        <v>0.1960784</v>
+      </c>
+      <c r="II139">
+        <v>0.0543386</v>
+      </c>
+      <c r="IN139">
+        <v>0.4013402</v>
+      </c>
+      <c r="IR139">
+        <v>0.1886792</v>
+      </c>
+      <c r="IS139">
+        <v>0.0760456</v>
+      </c>
+      <c r="IZ139">
+        <v>0</v>
+      </c>
+      <c r="JB139">
+        <v>0.7043395</v>
+      </c>
+      <c r="JF139">
+        <v>0.5271084</v>
+      </c>
+      <c r="JG139">
+        <v>0.4049295</v>
+      </c>
+      <c r="JK139">
+        <v>0.284909</v>
+      </c>
+      <c r="JO139">
+        <v>0.2630391</v>
+      </c>
+      <c r="JR139">
+        <v>0.2896768</v>
+      </c>
+      <c r="JS139">
+        <v>0.4651163</v>
+      </c>
+      <c r="JX139">
+        <v>0.2086811</v>
+      </c>
+      <c r="KB139">
+        <v>0.6331639999999999</v>
+      </c>
+      <c r="KC139">
+        <v>0.435313</v>
+      </c>
+      <c r="KI139">
+        <v>0.3532502</v>
+      </c>
+      <c r="KJ139">
+        <v>0.9128706</v>
+      </c>
+      <c r="KO139">
+        <v>0.2735287</v>
+      </c>
+      <c r="KV139">
+        <v>0.2211714</v>
+      </c>
+      <c r="KW139">
+        <v>0.7379781</v>
+      </c>
+      <c r="LD139">
+        <v>0.4144068</v>
+      </c>
+      <c r="LG139">
+        <v>0.1578243</v>
+      </c>
+      <c r="LH139">
+        <v>0.1082251</v>
+      </c>
+      <c r="LO139">
+        <v>0.043573</v>
+      </c>
+      <c r="LR139">
+        <v>0.1388889</v>
+      </c>
+      <c r="LU139">
+        <v>1.3480392</v>
+      </c>
+      <c r="LW139">
+        <v>0.9917355</v>
+      </c>
+      <c r="LX139">
+        <v>0.6329114</v>
+      </c>
+      <c r="LY139">
+        <v>0.1926121</v>
+      </c>
+      <c r="MA139">
+        <v>0.3380541</v>
+      </c>
+      <c r="MC139">
+        <v>0.1724138</v>
+      </c>
+      <c r="ME139">
+        <v>0.1136364</v>
+      </c>
+      <c r="MF139">
+        <v>0.3116615</v>
+      </c>
+      <c r="MG139">
+        <v>0.1369473</v>
+      </c>
+      <c r="MI139">
+        <v>0.1825751</v>
+      </c>
+      <c r="ML139">
+        <v>0.3753821</v>
+      </c>
+      <c r="MN139">
+        <v>0.6172258</v>
+      </c>
+      <c r="MS139">
+        <v>0.3730213</v>
+      </c>
+      <c r="MU139">
+        <v>0.1736111</v>
+      </c>
+      <c r="MW139">
+        <v>0.33241</v>
+      </c>
+      <c r="MX139">
+        <v>0.2656042</v>
+      </c>
+      <c r="MZ139">
+        <v>0.3973838</v>
+      </c>
+      <c r="NC139">
+        <v>0.3140955</v>
+      </c>
+      <c r="NE139">
+        <v>0.6191688</v>
+      </c>
+      <c r="NM139">
+        <v>0.7130859000000001</v>
+      </c>
+      <c r="NP139">
+        <v>0.5338248</v>
+      </c>
+      <c r="NQ139">
+        <v>1.1178862</v>
+      </c>
+      <c r="NT139">
+        <v>0.6440281</v>
+      </c>
+      <c r="NW139">
+        <v>0.1497006</v>
+      </c>
+      <c r="NY139">
+        <v>0.2245509</v>
+      </c>
+      <c r="NZ139">
+        <v>0.6532213</v>
+      </c>
+      <c r="OD139">
+        <v>0.3731726</v>
+      </c>
+      <c r="OE139">
+        <v>0.3627846</v>
+      </c>
+      <c r="OJ139">
+        <v>0.5485232</v>
+      </c>
+      <c r="OL139">
+        <v>0.5116268</v>
+      </c>
+      <c r="ON139">
+        <v>0.2329193</v>
+      </c>
+      <c r="OP139">
+        <v>0.3496503</v>
+      </c>
+      <c r="OQ139">
+        <v>0.2319902</v>
+      </c>
+      <c r="OR139">
+        <v>0.350582</v>
+      </c>
+      <c r="OT139">
+        <v>1.0427136</v>
+      </c>
+      <c r="OV139">
+        <v>0.3963677</v>
+      </c>
+      <c r="OX139">
+        <v>0.5930211</v>
+      </c>
+      <c r="PB139">
+        <v>0.0427863</v>
+      </c>
+      <c r="PG139">
+        <v>0.3515625</v>
+      </c>
+      <c r="PJ139">
+        <v>0.3138528</v>
+      </c>
+      <c r="PK139">
+        <v>0</v>
+      </c>
+      <c r="PL139">
+        <v>0.2648886</v>
+      </c>
+      <c r="PM139">
+        <v>0.6012843</v>
+      </c>
+      <c r="PP139">
+        <v>0.1819865</v>
+      </c>
+      <c r="PR139">
+        <v>0.5703422</v>
+      </c>
+      <c r="PS139">
+        <v>0.4133111</v>
+      </c>
+      <c r="PY139">
+        <v>0.795021</v>
+      </c>
+      <c r="QD139">
+        <v>0.4724264</v>
+      </c>
+      <c r="QE139">
+        <v>0.4887863</v>
+      </c>
+      <c r="QF139">
+        <v>0.0584795</v>
+      </c>
+      <c r="QK139">
+        <v>0.3701122</v>
+      </c>
+      <c r="QN139">
+        <v>0.0579542</v>
+      </c>
+      <c r="QO139">
+        <v>0.5636094</v>
+      </c>
+      <c r="QP139">
+        <v>0.7814665</v>
+      </c>
+      <c r="QS139">
+        <v>0.8743841999999999</v>
+      </c>
+      <c r="QU139">
+        <v>1.2012012</v>
+      </c>
+      <c r="QV139">
+        <v>0.4440692</v>
+      </c>
+      <c r="QX139">
+        <v>0.1363928</v>
+      </c>
+      <c r="QY139">
+        <v>0.1805429</v>
+      </c>
+      <c r="RA139">
+        <v>0.6696429</v>
+      </c>
+      <c r="RB139">
+        <v>0.4465998</v>
+      </c>
+      <c r="RD139">
+        <v>0.6676158</v>
+      </c>
+      <c r="RI139">
+        <v>0.9375</v>
+      </c>
+      <c r="RL139">
+        <v>0.3091398</v>
+      </c>
+      <c r="RQ139">
+        <v>0.9623323</v>
+      </c>
+      <c r="RT139">
+        <v>0.3044588</v>
+      </c>
+      <c r="RV139">
+        <v>0.3717472</v>
+      </c>
+      <c r="RX139">
+        <v>0.103999</v>
+      </c>
+      <c r="RY139">
+        <v>0.3155507</v>
+      </c>
+      <c r="SA139">
+        <v>0</v>
+      </c>
+      <c r="SD139">
+        <v>0.2862514</v>
+      </c>
+      <c r="SG139">
+        <v>0.4140247</v>
+      </c>
+      <c r="SH139">
+        <v>0.3658463</v>
+      </c>
+      <c r="SI139">
+        <v>0.3763663</v>
+      </c>
+      <c r="SM139">
+        <v>0.3111472</v>
+      </c>
+      <c r="SO139">
+        <v>0.3138708</v>
+      </c>
+      <c r="SP139">
+        <v>0.1041667</v>
+      </c>
+      <c r="SR139">
+        <v>0.1796833</v>
+      </c>
+      <c r="SW139">
+        <v>0.1083372</v>
+      </c>
+      <c r="SX139">
+        <v>0.4854855</v>
+      </c>
+      <c r="TS139">
+        <v>0.6078846999999999</v>
+      </c>
+      <c r="TX139">
+        <v>0.4472347</v>
+      </c>
+      <c r="TY139">
+        <v>0.4358632</v>
+      </c>
+      <c r="UA139">
+        <v>0.4530973</v>
+      </c>
+      <c r="UE139">
+        <v>0.3200764</v>
+      </c>
+      <c r="UF139">
+        <v>0.5847953</v>
+      </c>
+      <c r="UH139">
+        <v>0.0406504</v>
+      </c>
+      <c r="UI139">
+        <v>0</v>
+      </c>
+      <c r="UK139">
+        <v>0.2291487</v>
+      </c>
+      <c r="UN139">
+        <v>0.3457672</v>
+      </c>
+      <c r="UP139">
+        <v>0.6738544</v>
+      </c>
+      <c r="US139">
+        <v>0.6961867</v>
+      </c>
+      <c r="UT139">
+        <v>0.9586460999999999</v>
+      </c>
+      <c r="UU139">
+        <v>0.2852486</v>
+      </c>
+      <c r="UV139">
+        <v>0.1350621</v>
+      </c>
+      <c r="UW139">
+        <v>0.6410265000000001</v>
+      </c>
+      <c r="VA139">
+        <v>0.152543</v>
+      </c>
+      <c r="VB139">
+        <v>0.5700712999999999</v>
+      </c>
+      <c r="VO139">
+        <v>0.2136752</v>
+      </c>
+      <c r="VP139">
+        <v>0.9963768</v>
+      </c>
+      <c r="VS139">
+        <v>0.8149282</v>
+      </c>
+      <c r="VU139">
+        <v>0.6346961</v>
+      </c>
+      <c r="VW139">
+        <v>0.5363985</v>
+      </c>
+      <c r="VX139">
+        <v>0.4100597</v>
+      </c>
+      <c r="VY139">
+        <v>0.3592387</v>
+      </c>
+      <c r="WB139">
+        <v>0.6616257</v>
+      </c>
+      <c r="WF139">
+        <v>0.1785078</v>
+      </c>
+      <c r="WG139">
+        <v>0.6594802</v>
+      </c>
+      <c r="WL139">
+        <v>0.397257</v>
+      </c>
+      <c r="WM139">
+        <v>0.1210654</v>
+      </c>
+      <c r="WQ139">
+        <v>0.4247366</v>
+      </c>
+      <c r="WU139">
+        <v>0</v>
+      </c>
+      <c r="WW139">
+        <v>0.6342892</v>
+      </c>
+      <c r="WY139">
+        <v>0.5316518</v>
+      </c>
+      <c r="WZ139">
+        <v>0.4115193</v>
+      </c>
+      <c r="XD139">
+        <v>0.465184</v>
+      </c>
+      <c r="XF139">
+        <v>0.1979871</v>
+      </c>
+      <c r="XG139">
+        <v>0.3908902</v>
+      </c>
+      <c r="XL139">
+        <v>0.3324653</v>
+      </c>
+      <c r="XM139">
+        <v>0.3679434</v>
+      </c>
+      <c r="XT139">
+        <v>0.2997602</v>
+      </c>
+      <c r="XV139">
+        <v>0.4037329</v>
+      </c>
+      <c r="YB139">
+        <v>0.1999667</v>
+      </c>
+      <c r="YD139">
+        <v>0.4301075</v>
+      </c>
+      <c r="YH139">
+        <v>0.1103753</v>
+      </c>
+      <c r="YN139">
+        <v>0.491091</v>
+      </c>
+      <c r="YO139">
+        <v>0.2033928</v>
+      </c>
+      <c r="YQ139">
+        <v>0.3116214</v>
+      </c>
+      <c r="YR139">
+        <v>0.6560452</v>
+      </c>
+      <c r="YX139">
+        <v>0.2351706</v>
+      </c>
+      <c r="YY139">
+        <v>0</v>
+      </c>
+      <c r="ZL139">
+        <v>0.2520417</v>
+      </c>
+      <c r="ZM139">
+        <v>0.3486153</v>
+      </c>
+      <c r="ZO139">
+        <v>0.4045995</v>
+      </c>
+      <c r="ZR139">
+        <v>0.4519601</v>
+      </c>
+      <c r="ZS139">
+        <v>0</v>
+      </c>
+      <c r="ZV139">
+        <v>0.3838485</v>
+      </c>
+      <c r="ZW139">
+        <v>0.5446827</v>
+      </c>
+      <c r="ZX139">
+        <v>0.1594533</v>
+      </c>
+      <c r="ZZ139">
+        <v>0.4067682</v>
+      </c>
+      <c r="AAB139">
+        <v>0.2564103</v>
+      </c>
+      <c r="AAC139">
+        <v>0.2980496</v>
+      </c>
+      <c r="AAD139">
+        <v>1.1501736</v>
+      </c>
+      <c r="AAF139">
+        <v>0.08403910000000001</v>
+      </c>
+      <c r="AAH139">
+        <v>0</v>
+      </c>
+      <c r="AAJ139">
+        <v>0.1958779</v>
+      </c>
+      <c r="AAM139">
+        <v>0.2584281</v>
+      </c>
+      <c r="AAP139">
+        <v>0.420869</v>
+      </c>
+      <c r="AAR139">
+        <v>0.2847872</v>
+      </c>
+      <c r="AAU139">
+        <v>0.4023428</v>
+      </c>
+      <c r="AAV139">
+        <v>0.2729307</v>
+      </c>
+      <c r="AAW139">
+        <v>0.4115019</v>
+      </c>
+      <c r="ABA139">
+        <v>0.2409639</v>
+      </c>
+      <c r="ABC139">
+        <v>0.5750605</v>
+      </c>
+      <c r="ABJ139">
+        <v>0.2246551</v>
+      </c>
+      <c r="ABL139">
+        <v>0.5304282</v>
+      </c>
+      <c r="ABM139">
+        <v>0</v>
+      </c>
+      <c r="ABN139">
+        <v>0.09376470000000001</v>
+      </c>
+      <c r="ABP139">
+        <v>0.3652639</v>
+      </c>
+      <c r="ABT139">
+        <v>0.4224262</v>
+      </c>
+      <c r="ABV139">
+        <v>0.306016</v>
+      </c>
+      <c r="ABW139">
+        <v>0.2929979</v>
+      </c>
+      <c r="ABX139">
+        <v>0.3237501</v>
+      </c>
+      <c r="ABY139">
+        <v>0.3899371</v>
+      </c>
+      <c r="ABZ139">
+        <v>0.6512385000000001</v>
+      </c>
+      <c r="ACA139">
+        <v>0.3299609</v>
+      </c>
+      <c r="ACE139">
+        <v>0.2256077</v>
+      </c>
+      <c r="ACG139">
+        <v>0.095697</v>
+      </c>
+      <c r="ACI139">
+        <v>0.1945473</v>
+      </c>
+      <c r="ACJ139">
+        <v>0.1348998</v>
+      </c>
+      <c r="ACK139">
+        <v>0.08250830000000001</v>
+      </c>
+      <c r="ACM139">
+        <v>0.4392428</v>
+      </c>
+      <c r="ACN139">
+        <v>0.1113649</v>
+      </c>
+      <c r="ACP139">
+        <v>0.5467128999999999</v>
+      </c>
+      <c r="ACU139">
+        <v>0.3764558</v>
+      </c>
+      <c r="ACW139">
+        <v>0.3191753</v>
+      </c>
+      <c r="ACX139">
+        <v>0.5291005</v>
+      </c>
+      <c r="ADP139">
+        <v>0.2810497</v>
+      </c>
+      <c r="ADR139">
+        <v>0.5597015</v>
+      </c>
+      <c r="ADU139">
+        <v>0.6717045</v>
+      </c>
+      <c r="ADV139">
+        <v>0.5276428</v>
+      </c>
+      <c r="AEA139">
+        <v>0.2636612</v>
+      </c>
+      <c r="AEB139">
+        <v>0.3382807</v>
+      </c>
+      <c r="AEF139">
+        <v>0.3842932</v>
+      </c>
+      <c r="AEG139">
+        <v>0.2646503</v>
+      </c>
+      <c r="AEH139">
+        <v>0.2990077</v>
+      </c>
+      <c r="AEI139">
+        <v>0.3281437</v>
+      </c>
+      <c r="AEJ139">
+        <v>0</v>
+      </c>
+      <c r="AEL139">
+        <v>0.2087683</v>
+      </c>
+      <c r="AEU139">
+        <v>0.4700056</v>
+      </c>
+      <c r="AEZ139">
+        <v>0.4166667</v>
+      </c>
+      <c r="AFD139">
+        <v>0.4027581</v>
+      </c>
+      <c r="AFG139">
+        <v>0.1109715</v>
+      </c>
+      <c r="AFH139">
+        <v>0.4018072</v>
+      </c>
+      <c r="AFK139">
+        <v>0.6630087</v>
+      </c>
+      <c r="AFL139">
+        <v>0</v>
+      </c>
+      <c r="AFN139">
+        <v>0.7490637</v>
+      </c>
+      <c r="AFT139">
+        <v>0.3255637</v>
+      </c>
+      <c r="AFU139">
+        <v>0.4729106</v>
+      </c>
+      <c r="AFX139">
+        <v>0.2709515</v>
+      </c>
+      <c r="AGA139">
+        <v>0.5450761</v>
+      </c>
+      <c r="AGC139">
+        <v>0.5892179</v>
+      </c>
+      <c r="AGE139">
+        <v>1.2157287</v>
+      </c>
+      <c r="AGF139">
+        <v>0.8666667</v>
+      </c>
+      <c r="AGG139">
+        <v>0.4151404</v>
+      </c>
+      <c r="AGL139">
+        <v>0.3254729</v>
+      </c>
+      <c r="AGM139">
+        <v>0.1736349</v>
+      </c>
+      <c r="AGO139">
+        <v>1.1448835</v>
+      </c>
+      <c r="AGP139">
+        <v>0.1148051</v>
+      </c>
+      <c r="AGV139">
+        <v>1.1050834</v>
+      </c>
+      <c r="AHA139">
+        <v>0.2540984</v>
+      </c>
+      <c r="AHB139">
+        <v>0.4013493</v>
+      </c>
+      <c r="AHD139">
+        <v>0.1227659</v>
+      </c>
+      <c r="AHH139">
+        <v>0.0608273</v>
+      </c>
+      <c r="AHN139">
+        <v>0.3030545</v>
+      </c>
+      <c r="AHP139">
+        <v>0.3433476</v>
+      </c>
+      <c r="AHS139">
+        <v>0.6111111</v>
+      </c>
+      <c r="AHU139">
+        <v>0.6573209</v>
+      </c>
+      <c r="AHX139">
+        <v>0</v>
+      </c>
+      <c r="AIB139">
+        <v>0.9708738</v>
+      </c>
+      <c r="AID139">
+        <v>0.2187171</v>
+      </c>
+      <c r="AIE139">
+        <v>1.1029412</v>
+      </c>
+      <c r="AIF139">
+        <v>0.2898795</v>
+      </c>
+      <c r="AII139">
+        <v>0.3120164</v>
+      </c>
+      <c r="AIP139">
+        <v>0.4246916</v>
+      </c>
+      <c r="AIT139">
+        <v>0.3640698</v>
+      </c>
+      <c r="AIV139">
+        <v>0.8964502</v>
+      </c>
+      <c r="AIY139">
+        <v>0.5278796</v>
+      </c>
+      <c r="AIZ139">
+        <v>0.339739</v>
+      </c>
+      <c r="AJA139">
+        <v>0.1650165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:938">
+      <c r="A140" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D140">
+        <v>1.1343087</v>
+      </c>
+      <c r="H140">
+        <v>0.214783</v>
+      </c>
+      <c r="J140">
+        <v>0.6272401</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0.3202347</v>
+      </c>
+      <c r="P140">
+        <v>0.219261</v>
+      </c>
+      <c r="R140">
+        <v>0.5576208</v>
+      </c>
+      <c r="U140">
+        <v>0.4755987</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0.8592451</v>
+      </c>
+      <c r="AB140">
+        <v>0.1853783</v>
+      </c>
+      <c r="AD140">
+        <v>0.4664639</v>
+      </c>
+      <c r="AG140">
+        <v>0.037127</v>
+      </c>
+      <c r="AI140">
+        <v>0.2519538</v>
+      </c>
+      <c r="AN140">
+        <v>0.2111255</v>
+      </c>
+      <c r="AV140">
+        <v>0.1338688</v>
+      </c>
+      <c r="AW140">
+        <v>0.3251352</v>
+      </c>
+      <c r="AX140">
+        <v>0.8435583</v>
+      </c>
+      <c r="BB140">
+        <v>0.942285</v>
+      </c>
+      <c r="BC140">
+        <v>0.3251097</v>
+      </c>
+      <c r="BF140">
+        <v>0.489034</v>
+      </c>
+      <c r="BH140">
+        <v>0.2596671</v>
+      </c>
+      <c r="BI140">
+        <v>0.2599283</v>
+      </c>
+      <c r="BJ140">
+        <v>0.4498978</v>
+      </c>
+      <c r="BM140">
+        <v>0.2380952</v>
+      </c>
+      <c r="BR140">
+        <v>0.5072031</v>
+      </c>
+      <c r="BS140">
+        <v>0.0535332</v>
+      </c>
+      <c r="BT140">
+        <v>0.8859199</v>
+      </c>
+      <c r="BW140">
+        <v>0.6773214</v>
+      </c>
+      <c r="BY140">
+        <v>0.7911392</v>
+      </c>
+      <c r="CC140">
+        <v>0.5797101</v>
+      </c>
+      <c r="CE140">
+        <v>0.1815541</v>
+      </c>
+      <c r="CL140">
+        <v>0.3178235</v>
+      </c>
+      <c r="CM140">
+        <v>0.3390557</v>
+      </c>
+      <c r="CN140">
+        <v>0.3282257</v>
+      </c>
+      <c r="CO140">
+        <v>0.5371094</v>
+      </c>
+      <c r="CR140">
+        <v>0.3695492</v>
+      </c>
+      <c r="CS140">
+        <v>0.5012531</v>
+      </c>
+      <c r="CT140">
+        <v>0.4063927</v>
+      </c>
+      <c r="CY140">
+        <v>0.3634184</v>
+      </c>
+      <c r="DC140">
+        <v>0.1648377</v>
+      </c>
+      <c r="DD140">
+        <v>0.1449796</v>
+      </c>
+      <c r="DK140">
+        <v>0.4045307</v>
+      </c>
+      <c r="DN140">
+        <v>0.16952</v>
+      </c>
+      <c r="DS140">
+        <v>0.9949549</v>
+      </c>
+      <c r="DW140">
+        <v>0.2082712</v>
+      </c>
+      <c r="DZ140">
+        <v>0.3658352</v>
+      </c>
+      <c r="EA140">
+        <v>0.4023628</v>
+      </c>
+      <c r="EK140">
+        <v>0.2706291</v>
+      </c>
+      <c r="EL140">
+        <v>0.2917832</v>
+      </c>
+      <c r="EM140">
+        <v>0.6378601</v>
+      </c>
+      <c r="EN140">
+        <v>0.2574003</v>
+      </c>
+      <c r="ER140">
+        <v>1.1162791</v>
+      </c>
+      <c r="ET140">
+        <v>0.6226133</v>
+      </c>
+      <c r="EZ140">
+        <v>0.4076087</v>
+      </c>
+      <c r="FA140">
+        <v>0.165512</v>
+      </c>
+      <c r="FB140">
+        <v>0.4048801</v>
+      </c>
+      <c r="FD140">
+        <v>0.5706196</v>
+      </c>
+      <c r="FE140">
+        <v>0.1725808</v>
+      </c>
+      <c r="FG140">
+        <v>0.5900723</v>
+      </c>
+      <c r="FH140">
+        <v>0.3460208</v>
+      </c>
+      <c r="FI140">
+        <v>0.3300559</v>
+      </c>
+      <c r="FJ140">
+        <v>0.3333333</v>
+      </c>
+      <c r="FL140">
+        <v>0.3401325</v>
+      </c>
+      <c r="FO140">
+        <v>0.5485232</v>
+      </c>
+      <c r="FR140">
+        <v>0.8978328</v>
+      </c>
+      <c r="FS140">
+        <v>0.3194874</v>
+      </c>
+      <c r="FY140">
+        <v>0.962963</v>
+      </c>
+      <c r="GB140">
+        <v>0.7644016</v>
+      </c>
+      <c r="GC140">
+        <v>0.350047</v>
+      </c>
+      <c r="GD140">
+        <v>0.2302821</v>
+      </c>
+      <c r="GE140">
+        <v>0.4466154</v>
+      </c>
+      <c r="GF140">
+        <v>0.5379841</v>
+      </c>
+      <c r="GJ140">
+        <v>0.3623287</v>
+      </c>
+      <c r="GS140">
+        <v>0.240143</v>
+      </c>
+      <c r="GV140">
+        <v>0</v>
+      </c>
+      <c r="HA140">
+        <v>0.4169315</v>
+      </c>
+      <c r="HF140">
+        <v>0.65367</v>
+      </c>
+      <c r="HH140">
+        <v>1.1627907</v>
+      </c>
+      <c r="HK140">
+        <v>0.2452076</v>
+      </c>
+      <c r="HL140">
+        <v>0.2182139</v>
+      </c>
+      <c r="HN140">
+        <v>0.2912472</v>
+      </c>
+      <c r="HO140">
+        <v>0.6585249</v>
+      </c>
+      <c r="HP140">
+        <v>0.5451713</v>
+      </c>
+      <c r="HT140">
+        <v>0.4801573</v>
+      </c>
+      <c r="HV140">
+        <v>0.2658613</v>
+      </c>
+      <c r="HX140">
+        <v>0.9556232</v>
+      </c>
+      <c r="HY140">
+        <v>0.2190487</v>
+      </c>
+      <c r="IC140">
+        <v>0.7101449</v>
+      </c>
+      <c r="IE140">
+        <v>0.2616279</v>
+      </c>
+      <c r="IH140">
+        <v>0.4115226</v>
+      </c>
+      <c r="II140">
+        <v>0.0185553</v>
+      </c>
+      <c r="IN140">
+        <v>0.4033903</v>
+      </c>
+      <c r="IR140">
+        <v>0.2070393</v>
+      </c>
+      <c r="IS140">
+        <v>0.0743494</v>
+      </c>
+      <c r="IZ140">
+        <v>0</v>
+      </c>
+      <c r="JB140">
+        <v>0.8785692000000001</v>
+      </c>
+      <c r="JF140">
+        <v>0.3058104</v>
+      </c>
+      <c r="JG140">
+        <v>0.3967617</v>
+      </c>
+      <c r="JK140">
+        <v>0.2117153</v>
+      </c>
+      <c r="JO140">
+        <v>0.2378318</v>
+      </c>
+      <c r="JR140">
+        <v>0.2319372</v>
+      </c>
+      <c r="JS140">
+        <v>0.4854369</v>
+      </c>
+      <c r="JX140">
+        <v>0.4661017</v>
+      </c>
+      <c r="KB140">
+        <v>0.5067544</v>
+      </c>
+      <c r="KC140">
+        <v>0.4444974</v>
+      </c>
+      <c r="KI140">
+        <v>0.4065082</v>
+      </c>
+      <c r="KJ140">
+        <v>1.0135659</v>
+      </c>
+      <c r="KO140">
+        <v>0.2559971</v>
+      </c>
+      <c r="KV140">
+        <v>0.3359229</v>
+      </c>
+      <c r="KW140">
+        <v>0.802138</v>
+      </c>
+      <c r="LD140">
+        <v>0.3928359</v>
+      </c>
+      <c r="LG140">
+        <v>0.3203423</v>
+      </c>
+      <c r="LH140">
+        <v>0.4329004</v>
+      </c>
+      <c r="LO140">
+        <v>0.1072961</v>
+      </c>
+      <c r="LR140">
+        <v>0.1515152</v>
+      </c>
+      <c r="LW140">
+        <v>0.944206</v>
+      </c>
+      <c r="LX140">
+        <v>0</v>
+      </c>
+      <c r="LY140">
+        <v>0.1941489</v>
+      </c>
+      <c r="MA140">
+        <v>0.2549345</v>
+      </c>
+      <c r="MC140">
+        <v>0.1762115</v>
+      </c>
+      <c r="ME140">
+        <v>0.1157407</v>
+      </c>
+      <c r="MF140">
+        <v>0.3112372</v>
+      </c>
+      <c r="MG140">
+        <v>0.1772453</v>
+      </c>
+      <c r="MI140">
+        <v>0.1633928</v>
+      </c>
+      <c r="ML140">
+        <v>0.1987179</v>
+      </c>
+      <c r="MN140">
+        <v>0.5104995</v>
+      </c>
+      <c r="MS140">
+        <v>0.4214915</v>
+      </c>
+      <c r="MU140">
+        <v>0.2516779</v>
+      </c>
+      <c r="MW140">
+        <v>0.3478261</v>
+      </c>
+      <c r="MX140">
+        <v>0.2824859</v>
+      </c>
+      <c r="MZ140">
+        <v>0.4618872</v>
+      </c>
+      <c r="NC140">
+        <v>0.2539649</v>
+      </c>
+      <c r="NE140">
+        <v>0.6144781</v>
+      </c>
+      <c r="NM140">
+        <v>0.7138643</v>
+      </c>
+      <c r="NP140">
+        <v>0.2877098</v>
+      </c>
+      <c r="NQ140">
+        <v>1.1044177</v>
+      </c>
+      <c r="NT140">
+        <v>0.7647059</v>
+      </c>
+      <c r="NW140">
+        <v>0.1633987</v>
+      </c>
+      <c r="NY140">
+        <v>0.2941176</v>
+      </c>
+      <c r="NZ140">
+        <v>0.7157615000000001</v>
+      </c>
+      <c r="OD140">
+        <v>0.4712493</v>
+      </c>
+      <c r="OE140">
+        <v>0.3215048</v>
+      </c>
+      <c r="OJ140">
+        <v>0.5747126</v>
+      </c>
+      <c r="OL140">
+        <v>0.523829</v>
+      </c>
+      <c r="ON140">
+        <v>0.3301887</v>
+      </c>
+      <c r="OP140">
+        <v>0.3579952</v>
+      </c>
+      <c r="OQ140">
+        <v>0.3013864</v>
+      </c>
+      <c r="OR140">
+        <v>0.3629602</v>
+      </c>
+      <c r="OT140">
+        <v>0.9918477999999999</v>
+      </c>
+      <c r="OV140">
+        <v>0.3968787</v>
+      </c>
+      <c r="OX140">
+        <v>0.5950298000000001</v>
+      </c>
+      <c r="PB140">
+        <v>0.0441696</v>
+      </c>
+      <c r="PG140">
+        <v>0.3605769</v>
+      </c>
+      <c r="PJ140">
+        <v>0.3113258</v>
+      </c>
+      <c r="PK140">
+        <v>0</v>
+      </c>
+      <c r="PL140">
+        <v>0.390767</v>
+      </c>
+      <c r="PM140">
+        <v>0.5586249</v>
+      </c>
+      <c r="PP140">
+        <v>0.3224907</v>
+      </c>
+      <c r="PR140">
+        <v>0.5454545</v>
+      </c>
+      <c r="PS140">
+        <v>0.4384843</v>
+      </c>
+      <c r="PY140">
+        <v>1.0326574</v>
+      </c>
+      <c r="QD140">
+        <v>0.454939</v>
+      </c>
+      <c r="QE140">
+        <v>0.4197373</v>
+      </c>
+      <c r="QF140">
+        <v>0.0591716</v>
+      </c>
+      <c r="QK140">
+        <v>0.4158468</v>
+      </c>
+      <c r="QN140">
+        <v>0.1097775</v>
+      </c>
+      <c r="QO140">
+        <v>0.6889097</v>
+      </c>
+      <c r="QP140">
+        <v>0.874551</v>
+      </c>
+      <c r="QS140">
+        <v>0.8205782</v>
+      </c>
+      <c r="QU140">
+        <v>1.2198582</v>
+      </c>
+      <c r="QV140">
+        <v>0.5572846</v>
+      </c>
+      <c r="QX140">
+        <v>0.2354605</v>
+      </c>
+      <c r="QY140">
+        <v>0.06364839999999999</v>
+      </c>
+      <c r="RA140">
+        <v>0.7537688</v>
+      </c>
+      <c r="RB140">
+        <v>0.3875222</v>
+      </c>
+      <c r="RD140">
+        <v>0.7986018</v>
+      </c>
+      <c r="RI140">
+        <v>0.9375</v>
+      </c>
+      <c r="RL140">
+        <v>0.3066667</v>
+      </c>
+      <c r="RQ140">
+        <v>0.9560834</v>
+      </c>
+      <c r="RT140">
+        <v>0.306825</v>
+      </c>
+      <c r="RV140">
+        <v>0.3773585</v>
+      </c>
+      <c r="RX140">
+        <v>0.2902741</v>
+      </c>
+      <c r="RY140">
+        <v>0.2938398</v>
+      </c>
+      <c r="SA140">
+        <v>0</v>
+      </c>
+      <c r="SD140">
+        <v>0.1325615</v>
+      </c>
+      <c r="SG140">
+        <v>0.4574659</v>
+      </c>
+      <c r="SH140">
+        <v>0.4382594</v>
+      </c>
+      <c r="SI140">
+        <v>0.5644909</v>
+      </c>
+      <c r="SM140">
+        <v>0.2574526</v>
+      </c>
+      <c r="SO140">
+        <v>0.2392588</v>
+      </c>
+      <c r="SP140">
+        <v>0.1028807</v>
+      </c>
+      <c r="SR140">
+        <v>0.1386561</v>
+      </c>
+      <c r="SW140">
+        <v>0.1110434</v>
+      </c>
+      <c r="SX140">
+        <v>0.4574132</v>
+      </c>
+      <c r="TS140">
+        <v>0.690007</v>
+      </c>
+      <c r="TX140">
+        <v>0.4486247</v>
+      </c>
+      <c r="TY140">
+        <v>0.4484299</v>
+      </c>
+      <c r="UA140">
+        <v>0.08515440000000001</v>
+      </c>
+      <c r="UE140">
+        <v>0.2885882</v>
+      </c>
+      <c r="UF140">
+        <v>0.795107</v>
+      </c>
+      <c r="UH140">
+        <v>0.2189409</v>
+      </c>
+      <c r="UI140">
+        <v>0.0605327</v>
+      </c>
+      <c r="UK140">
+        <v>0.299125</v>
+      </c>
+      <c r="UN140">
+        <v>0.316904</v>
+      </c>
+      <c r="UP140">
+        <v>0.6963788</v>
+      </c>
+      <c r="US140">
+        <v>0.6605823</v>
+      </c>
+      <c r="UT140">
+        <v>0.8597166000000001</v>
+      </c>
+      <c r="UU140">
+        <v>0.3807107</v>
+      </c>
+      <c r="UV140">
+        <v>0.1937984</v>
+      </c>
+      <c r="UW140">
+        <v>0.8064936</v>
+      </c>
+      <c r="VA140">
+        <v>0.3293242</v>
+      </c>
+      <c r="VB140">
+        <v>0.4513064</v>
+      </c>
+      <c r="VO140">
+        <v>0.2227171</v>
+      </c>
+      <c r="VP140">
+        <v>0.8287293</v>
+      </c>
+      <c r="VS140">
+        <v>0.8392698</v>
+      </c>
+      <c r="VU140">
+        <v>0.6693084</v>
+      </c>
+      <c r="VW140">
+        <v>0.3584229</v>
+      </c>
+      <c r="VX140">
+        <v>0.5456444</v>
+      </c>
+      <c r="VY140">
+        <v>0.3777484</v>
+      </c>
+      <c r="WB140">
+        <v>0.6743738</v>
+      </c>
+      <c r="WF140">
+        <v>0.1803346</v>
+      </c>
+      <c r="WG140">
+        <v>0.4982807</v>
+      </c>
+      <c r="WL140">
+        <v>0.3940573</v>
+      </c>
+      <c r="WM140">
+        <v>0.471464</v>
+      </c>
+      <c r="WQ140">
+        <v>0.5123918</v>
+      </c>
+      <c r="WU140">
+        <v>0</v>
+      </c>
+      <c r="WW140">
+        <v>0.6039319</v>
+      </c>
+      <c r="WY140">
+        <v>0.6585249</v>
+      </c>
+      <c r="WZ140">
+        <v>0.399232</v>
+      </c>
+      <c r="XD140">
+        <v>0.6117958</v>
+      </c>
+      <c r="XF140">
+        <v>0.1883118</v>
+      </c>
+      <c r="XG140">
+        <v>0.3194916</v>
+      </c>
+      <c r="XL140">
+        <v>0.2840098</v>
+      </c>
+      <c r="XM140">
+        <v>0.3483426</v>
+      </c>
+      <c r="XT140">
+        <v>0.3030303</v>
+      </c>
+      <c r="XV140">
+        <v>0.4804329</v>
+      </c>
+      <c r="YB140">
+        <v>0.1760044</v>
+      </c>
+      <c r="YD140">
+        <v>0.3198294</v>
+      </c>
+      <c r="YH140">
+        <v>0.2244669</v>
+      </c>
+      <c r="YN140">
+        <v>0.543925</v>
+      </c>
+      <c r="YO140">
+        <v>0.4337472</v>
+      </c>
+      <c r="YQ140">
+        <v>0.271164</v>
+      </c>
+      <c r="YR140">
+        <v>0.6223326</v>
+      </c>
+      <c r="YX140">
+        <v>0.2038298</v>
+      </c>
+      <c r="YY140">
+        <v>0.3322259</v>
+      </c>
+      <c r="ZL140">
+        <v>0.2097267</v>
+      </c>
+      <c r="ZM140">
+        <v>0.3309242</v>
+      </c>
+      <c r="ZO140">
+        <v>0.3439961</v>
+      </c>
+      <c r="ZR140">
+        <v>0.4043708</v>
+      </c>
+      <c r="ZS140">
+        <v>0</v>
+      </c>
+      <c r="ZV140">
+        <v>0.4031888</v>
+      </c>
+      <c r="ZW140">
+        <v>0.522656</v>
+      </c>
+      <c r="ZX140">
+        <v>0.162037</v>
+      </c>
+      <c r="ZZ140">
+        <v>0.4190866</v>
+      </c>
+      <c r="AAB140">
+        <v>0.5533854</v>
+      </c>
+      <c r="AAC140">
+        <v>0.338799</v>
+      </c>
+      <c r="AAD140">
+        <v>1.127451</v>
+      </c>
+      <c r="AAF140">
+        <v>0.0586027</v>
+      </c>
+      <c r="AAH140">
+        <v>0</v>
+      </c>
+      <c r="AAJ140">
+        <v>0.2003234</v>
+      </c>
+      <c r="AAM140">
+        <v>0.2904953</v>
+      </c>
+      <c r="AAP140">
+        <v>0.4329439</v>
+      </c>
+      <c r="AAR140">
+        <v>0.2856546</v>
+      </c>
+      <c r="AAU140">
+        <v>0.4857038</v>
+      </c>
+      <c r="AAV140">
+        <v>0.2569624</v>
+      </c>
+      <c r="AAW140">
+        <v>0.4090831</v>
+      </c>
+      <c r="ABA140">
+        <v>0.2444988</v>
+      </c>
+      <c r="ABC140">
+        <v>0.5608028</v>
+      </c>
+      <c r="ABJ140">
+        <v>0.2947661</v>
+      </c>
+      <c r="ABL140">
+        <v>0.6806818</v>
+      </c>
+      <c r="ABM140">
+        <v>0.154679</v>
+      </c>
+      <c r="ABN140">
+        <v>0.5071462</v>
+      </c>
+      <c r="ABP140">
+        <v>0.4107175</v>
+      </c>
+      <c r="ABT140">
+        <v>0.3404464</v>
+      </c>
+      <c r="ABV140">
+        <v>0.2363345</v>
+      </c>
+      <c r="ABW140">
+        <v>0.3008646</v>
+      </c>
+      <c r="ABX140">
+        <v>0.3051199</v>
+      </c>
+      <c r="ABY140">
+        <v>0.4842767</v>
+      </c>
+      <c r="ABZ140">
+        <v>0.6838905</v>
+      </c>
+      <c r="ACA140">
+        <v>0.393967</v>
+      </c>
+      <c r="ACE140">
+        <v>0.2196566</v>
+      </c>
+      <c r="ACG140">
+        <v>0.1266011</v>
+      </c>
+      <c r="ACI140">
+        <v>0.164713</v>
+      </c>
+      <c r="ACJ140">
+        <v>0.1360006</v>
+      </c>
+      <c r="ACK140">
+        <v>0.0862069</v>
+      </c>
+      <c r="ACM140">
+        <v>0.4109432</v>
+      </c>
+      <c r="ACN140">
+        <v>0.1155972</v>
+      </c>
+      <c r="ACP140">
+        <v>0.67173</v>
+      </c>
+      <c r="ACU140">
+        <v>0.4108352</v>
+      </c>
+      <c r="ACW140">
+        <v>0.2726709</v>
+      </c>
+      <c r="ACX140">
+        <v>0.5128205</v>
+      </c>
+      <c r="ADP140">
+        <v>0.2471544</v>
+      </c>
+      <c r="ADR140">
+        <v>0.5921052999999999</v>
+      </c>
+      <c r="ADU140">
+        <v>0.6751055</v>
+      </c>
+      <c r="ADV140">
+        <v>0.2983333</v>
+      </c>
+      <c r="AEA140">
+        <v>0.5301844999999999</v>
+      </c>
+      <c r="AEB140">
+        <v>0.336757</v>
+      </c>
+      <c r="AEF140">
+        <v>0.366565</v>
+      </c>
+      <c r="AEG140">
+        <v>0.458891</v>
+      </c>
+      <c r="AEH140">
+        <v>0.2417854</v>
+      </c>
+      <c r="AEI140">
+        <v>0.3242403</v>
+      </c>
+      <c r="AEJ140">
+        <v>0.08278149999999999</v>
+      </c>
+      <c r="AEL140">
+        <v>0.2070393</v>
+      </c>
+      <c r="AEU140">
+        <v>0.4726524</v>
+      </c>
+      <c r="AEZ140">
+        <v>0.6644518</v>
+      </c>
+      <c r="AFD140">
+        <v>0.4429176</v>
+      </c>
+      <c r="AFG140">
+        <v>0.0367882</v>
+      </c>
+      <c r="AFH140">
+        <v>0.4258951</v>
+      </c>
+      <c r="AFK140">
+        <v>0.545007</v>
+      </c>
+      <c r="AFL140">
+        <v>0.3649635</v>
+      </c>
+      <c r="AFN140">
+        <v>0.7518797</v>
+      </c>
+      <c r="AFT140">
+        <v>0.3259433</v>
+      </c>
+      <c r="AFU140">
+        <v>0.5991718</v>
+      </c>
+      <c r="AFX140">
+        <v>0.1787995</v>
+      </c>
+      <c r="AGA140">
+        <v>0.5737323</v>
+      </c>
+      <c r="AGC140">
+        <v>0.5773029</v>
+      </c>
+      <c r="AGE140">
+        <v>0.8701545000000001</v>
+      </c>
+      <c r="AGF140">
+        <v>0.4905437</v>
+      </c>
+      <c r="AGG140">
+        <v>0.4159021</v>
+      </c>
+      <c r="AGL140">
+        <v>0.3753644</v>
+      </c>
+      <c r="AGM140">
+        <v>0.1416368</v>
+      </c>
+      <c r="AGO140">
+        <v>1.1277445</v>
+      </c>
+      <c r="AGP140">
+        <v>0.0442865</v>
+      </c>
+      <c r="AGV140">
+        <v>0.7246377000000001</v>
+      </c>
+      <c r="AHA140">
+        <v>0.2683198</v>
+      </c>
+      <c r="AHB140">
+        <v>0.4590391</v>
+      </c>
+      <c r="AHD140">
+        <v>0.2440213</v>
+      </c>
+      <c r="AHH140">
+        <v>0.0608273</v>
+      </c>
+      <c r="AHN140">
+        <v>0.3245091</v>
+      </c>
+      <c r="AHP140">
+        <v>0.4402516</v>
+      </c>
+      <c r="AHS140">
+        <v>0.5830904</v>
+      </c>
+      <c r="AHU140">
+        <v>0.6911315</v>
+      </c>
+      <c r="AHX140">
+        <v>0</v>
+      </c>
+      <c r="AIB140">
+        <v>0.4672897</v>
+      </c>
+      <c r="AID140">
+        <v>0.3615859</v>
+      </c>
+      <c r="AIE140">
+        <v>0.6777107999999999</v>
+      </c>
+      <c r="AIF140">
+        <v>0.170068</v>
+      </c>
+      <c r="AII140">
+        <v>0.4294598</v>
+      </c>
+      <c r="AIP140">
+        <v>0.4463779</v>
+      </c>
+      <c r="AIT140">
+        <v>0.3260412</v>
+      </c>
+      <c r="AIV140">
+        <v>1.0620297</v>
+      </c>
+      <c r="AIY140">
+        <v>0.435942</v>
+      </c>
+      <c r="AIZ140">
+        <v>0.3407574</v>
+      </c>
+    </row>
+    <row r="141" spans="1:938">
+      <c r="A141" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D141">
+        <v>1.1698484</v>
+      </c>
+      <c r="H141">
+        <v>0.2270923</v>
+      </c>
+      <c r="J141">
+        <v>0.6363636</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0.1740982</v>
+      </c>
+      <c r="P141">
+        <v>0.2298451</v>
+      </c>
+      <c r="R141">
+        <v>0.6097561</v>
+      </c>
+      <c r="U141">
+        <v>0.4940968</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0.6202039</v>
+      </c>
+      <c r="AB141">
+        <v>0.4648825</v>
+      </c>
+      <c r="AD141">
+        <v>0.3418647</v>
+      </c>
+      <c r="AG141">
+        <v>0.0893201</v>
+      </c>
+      <c r="AI141">
+        <v>0.2215847</v>
+      </c>
+      <c r="AN141">
+        <v>0.1766591</v>
+      </c>
+      <c r="AV141">
+        <v>0.140647</v>
+      </c>
+      <c r="AW141">
+        <v>0.337434</v>
+      </c>
+      <c r="AX141">
+        <v>0.8899676</v>
+      </c>
+      <c r="BB141">
+        <v>0.976801</v>
+      </c>
+      <c r="BC141">
+        <v>0.193179</v>
+      </c>
+      <c r="BF141">
+        <v>0.5409344</v>
+      </c>
+      <c r="BH141">
+        <v>0.3825344</v>
+      </c>
+      <c r="BI141">
+        <v>0.225247</v>
+      </c>
+      <c r="BJ141">
+        <v>0.2183406</v>
+      </c>
+      <c r="BM141">
+        <v>0.2559727</v>
+      </c>
+      <c r="BR141">
+        <v>0.4614754</v>
+      </c>
+      <c r="BS141">
+        <v>0.1674107</v>
+      </c>
+      <c r="BT141">
+        <v>0.8239289</v>
+      </c>
+      <c r="BW141">
+        <v>0.5684434</v>
+      </c>
+      <c r="BY141">
+        <v>0.6309148</v>
+      </c>
+      <c r="CC141">
+        <v>0.5934718</v>
+      </c>
+      <c r="CE141">
+        <v>0.1881114</v>
+      </c>
+      <c r="CL141">
+        <v>0.4551539</v>
+      </c>
+      <c r="CM141">
+        <v>0.1965851</v>
+      </c>
+      <c r="CN141">
+        <v>0.4322223</v>
+      </c>
+      <c r="CO141">
+        <v>0.1582278</v>
+      </c>
+      <c r="CR141">
+        <v>0.1068376</v>
+      </c>
+      <c r="CT141">
+        <v>0.7502518</v>
+      </c>
+      <c r="CY141">
+        <v>0.3612895</v>
+      </c>
+      <c r="DC141">
+        <v>0.1982376</v>
+      </c>
+      <c r="DD141">
+        <v>0.1481524</v>
+      </c>
+      <c r="DK141">
+        <v>0.1731602</v>
+      </c>
+      <c r="DN141">
+        <v>0.1806715</v>
+      </c>
+      <c r="DS141">
+        <v>1.081349</v>
+      </c>
+      <c r="DW141">
+        <v>0.2001987</v>
+      </c>
+      <c r="DZ141">
+        <v>0.1791119</v>
+      </c>
+      <c r="EA141">
+        <v>0.5081905</v>
+      </c>
+      <c r="EK141">
+        <v>0.1803285</v>
+      </c>
+      <c r="EL141">
+        <v>0.3829927</v>
+      </c>
+      <c r="EM141">
+        <v>0.8613264</v>
+      </c>
+      <c r="EN141">
+        <v>0.2754821</v>
+      </c>
+      <c r="ER141">
+        <v>0.4784689</v>
+      </c>
+      <c r="ET141">
+        <v>0.7354098</v>
+      </c>
+      <c r="EZ141">
+        <v>0.152439</v>
+      </c>
+      <c r="FA141">
+        <v>0.3138338</v>
+      </c>
+      <c r="FB141">
+        <v>0.3644407</v>
+      </c>
+      <c r="FD141">
+        <v>0.7080659</v>
+      </c>
+      <c r="FE141">
+        <v>0.2641948</v>
+      </c>
+      <c r="FG141">
+        <v>0.6328781999999999</v>
+      </c>
+      <c r="FH141">
+        <v>0.3636364</v>
+      </c>
+      <c r="FI141">
+        <v>0.3336972</v>
+      </c>
+      <c r="FJ141">
+        <v>0.1461378</v>
+      </c>
+      <c r="FL141">
+        <v>0.3413188</v>
+      </c>
+      <c r="FO141">
+        <v>0.5887681</v>
+      </c>
+      <c r="FR141">
+        <v>0.9950658</v>
+      </c>
+      <c r="FS141">
+        <v>0.2746187</v>
+      </c>
+      <c r="FY141">
+        <v>0.5582137</v>
+      </c>
+      <c r="GB141">
+        <v>0.7722479</v>
+      </c>
+      <c r="GC141">
+        <v>0.3950275</v>
+      </c>
+      <c r="GD141">
+        <v>0.2460025</v>
+      </c>
+      <c r="GE141">
+        <v>0.4904917</v>
+      </c>
+      <c r="GF141">
+        <v>0.6155281</v>
+      </c>
+      <c r="GJ141">
+        <v>0.3381921</v>
+      </c>
+      <c r="GS141">
+        <v>0.3464607</v>
+      </c>
+      <c r="GV141">
+        <v>0.04914</v>
+      </c>
+      <c r="HA141">
+        <v>0.2584151</v>
+      </c>
+      <c r="HF141">
+        <v>0.6460548</v>
+      </c>
+      <c r="HH141">
+        <v>1.863354</v>
+      </c>
+      <c r="HK141">
+        <v>0.3393192</v>
+      </c>
+      <c r="HL141">
+        <v>0.3042275</v>
+      </c>
+      <c r="HN141">
+        <v>0.2972546</v>
+      </c>
+      <c r="HO141">
+        <v>0.6707946</v>
+      </c>
+      <c r="HP141">
+        <v>0.5327245</v>
+      </c>
+      <c r="HT141">
+        <v>0.54349</v>
+      </c>
+      <c r="HV141">
+        <v>0.2753677</v>
+      </c>
+      <c r="HX141">
+        <v>0.8300499</v>
+      </c>
+      <c r="HY141">
+        <v>0.2116436</v>
+      </c>
+      <c r="IC141">
+        <v>0.7047325</v>
+      </c>
+      <c r="IE141">
+        <v>0.2826633</v>
+      </c>
+      <c r="IH141">
+        <v>0.4273504</v>
+      </c>
+      <c r="II141">
+        <v>0.0195668</v>
+      </c>
+      <c r="IN141">
+        <v>0.3570912</v>
+      </c>
+      <c r="IR141">
+        <v>0.1506616</v>
+      </c>
+      <c r="IS141">
+        <v>0</v>
+      </c>
+      <c r="IZ141">
+        <v>0</v>
+      </c>
+      <c r="JB141">
+        <v>0.7690133</v>
+      </c>
+      <c r="JF141">
+        <v>0.3194888</v>
+      </c>
+      <c r="JG141">
+        <v>0.2617424</v>
+      </c>
+      <c r="JK141">
+        <v>0.2726491</v>
+      </c>
+      <c r="JO141">
+        <v>0.2187288</v>
+      </c>
+      <c r="JR141">
+        <v>0.2158798</v>
+      </c>
+      <c r="JS141">
+        <v>0.3072197</v>
+      </c>
+      <c r="JX141">
+        <v>0.4537205</v>
+      </c>
+      <c r="KB141">
+        <v>0.5183546999999999</v>
+      </c>
+      <c r="KC141">
+        <v>0.5313786</v>
+      </c>
+      <c r="KI141">
+        <v>0.3330411</v>
+      </c>
+      <c r="KJ141">
+        <v>1.0625997</v>
+      </c>
+      <c r="KO141">
+        <v>0.2674209</v>
+      </c>
+      <c r="KV141">
+        <v>0.3533425</v>
+      </c>
+      <c r="KW141">
+        <v>0.7921094</v>
+      </c>
+      <c r="LD141">
+        <v>0.4090861</v>
+      </c>
+      <c r="LG141">
+        <v>0.2101772</v>
+      </c>
+      <c r="LH141">
+        <v>0.4678363</v>
+      </c>
+      <c r="LO141">
+        <v>0.1152074</v>
+      </c>
+      <c r="LR141">
+        <v>0.1557632</v>
+      </c>
+      <c r="LW141">
+        <v>0.990991</v>
+      </c>
+      <c r="LX141">
+        <v>0</v>
+      </c>
+      <c r="LY141">
+        <v>0.1333333</v>
+      </c>
+      <c r="MA141">
+        <v>0.2564276</v>
+      </c>
+      <c r="MC141">
+        <v>0.1923077</v>
+      </c>
+      <c r="ME141">
+        <v>0</v>
+      </c>
+      <c r="MF141">
+        <v>0.3155774</v>
+      </c>
+      <c r="MG141">
+        <v>0.1807116</v>
+      </c>
+      <c r="MI141">
+        <v>0.1716307</v>
+      </c>
+      <c r="ML141">
+        <v>0.21262</v>
+      </c>
+      <c r="MN141">
+        <v>0.5740092</v>
+      </c>
+      <c r="MS141">
+        <v>0.4419541</v>
+      </c>
+      <c r="MU141">
+        <v>0.3774681</v>
+      </c>
+      <c r="MW141">
+        <v>0.3508772</v>
+      </c>
+      <c r="MX141">
+        <v>0.2989537</v>
+      </c>
+      <c r="MZ141">
+        <v>0.3716518</v>
+      </c>
+      <c r="NC141">
+        <v>0.2692141</v>
+      </c>
+      <c r="NE141">
+        <v>0.8553792</v>
+      </c>
+      <c r="NM141">
+        <v>0.6012223</v>
+      </c>
+      <c r="NP141">
+        <v>0.4488119</v>
+      </c>
+      <c r="NQ141">
+        <v>1.2061404</v>
+      </c>
+      <c r="NT141">
+        <v>0.5156766</v>
+      </c>
+      <c r="NW141">
+        <v>0.1824818</v>
+      </c>
+      <c r="NY141">
+        <v>0.3035144</v>
+      </c>
+      <c r="NZ141">
+        <v>0.7823845</v>
+      </c>
+      <c r="OD141">
+        <v>0.5200247</v>
+      </c>
+      <c r="OE141">
+        <v>0.3361395</v>
+      </c>
+      <c r="OJ141">
+        <v>0.8072175</v>
+      </c>
+      <c r="OL141">
+        <v>0.5829178</v>
+      </c>
+      <c r="ON141">
+        <v>0.504065</v>
+      </c>
+      <c r="OP141">
+        <v>0.5089059</v>
+      </c>
+      <c r="OQ141">
+        <v>0.308642</v>
+      </c>
+      <c r="OR141">
+        <v>0.4894574</v>
+      </c>
+      <c r="OT141">
+        <v>0.6593407</v>
+      </c>
+      <c r="OV141">
+        <v>0.6178373</v>
+      </c>
+      <c r="OX141">
+        <v>0.7564576</v>
+      </c>
+      <c r="PB141">
+        <v>0.3497567</v>
+      </c>
+      <c r="PG141">
+        <v>0.3006873</v>
+      </c>
+      <c r="PJ141">
+        <v>0.3195592</v>
+      </c>
+      <c r="PK141">
+        <v>0</v>
+      </c>
+      <c r="PL141">
+        <v>0.6909303</v>
+      </c>
+      <c r="PM141">
+        <v>0.599473</v>
+      </c>
+      <c r="PP141">
+        <v>0.3786789</v>
+      </c>
+      <c r="PR141">
+        <v>0.1923077</v>
+      </c>
+      <c r="PS141">
+        <v>0.3754686</v>
+      </c>
+      <c r="PY141">
+        <v>1.1594372</v>
+      </c>
+      <c r="QD141">
+        <v>0.4252714</v>
+      </c>
+      <c r="QE141">
+        <v>0.4624104</v>
+      </c>
+      <c r="QF141">
+        <v>0.2222222</v>
+      </c>
+      <c r="QK141">
+        <v>0.4917975</v>
+      </c>
+      <c r="QN141">
+        <v>0.2563712</v>
+      </c>
+      <c r="QO141">
+        <v>0.6728856</v>
+      </c>
+      <c r="QP141">
+        <v>0.5968024</v>
+      </c>
+      <c r="QS141">
+        <v>0.5921052999999999</v>
+      </c>
+      <c r="QU141">
+        <v>1.0471976</v>
+      </c>
+      <c r="QV141">
+        <v>0.6043245</v>
+      </c>
+      <c r="QX141">
+        <v>0.3438439</v>
+      </c>
+      <c r="QY141">
+        <v>0.1026586</v>
+      </c>
+      <c r="RB141">
+        <v>0.3724957</v>
+      </c>
+      <c r="RD141">
+        <v>0.760278</v>
+      </c>
+      <c r="RI141">
+        <v>0.5298913</v>
+      </c>
+      <c r="RL141">
+        <v>0.1458333</v>
+      </c>
+      <c r="RQ141">
+        <v>1.0016112</v>
+      </c>
+      <c r="RT141">
+        <v>0.2429331</v>
+      </c>
+      <c r="RV141">
+        <v>0.5102041</v>
+      </c>
+      <c r="RX141">
+        <v>0.2615657</v>
+      </c>
+      <c r="RY141">
+        <v>0.3121325</v>
+      </c>
+      <c r="SA141">
+        <v>0.075188</v>
+      </c>
+      <c r="SD141">
+        <v>0.1010353</v>
+      </c>
+      <c r="SG141">
+        <v>0.4350923</v>
+      </c>
+      <c r="SH141">
+        <v>0.4540201</v>
+      </c>
+      <c r="SI141">
+        <v>0.5175011</v>
+      </c>
+      <c r="SM141">
+        <v>0.21777</v>
+      </c>
+      <c r="SO141">
+        <v>0.2094619</v>
+      </c>
+      <c r="SP141">
+        <v>0.1028807</v>
+      </c>
+      <c r="SR141">
+        <v>0.2417338</v>
+      </c>
+      <c r="SW141">
+        <v>0.0948016</v>
+      </c>
+      <c r="SX141">
+        <v>0.4434251</v>
+      </c>
+      <c r="TS141">
+        <v>0.7435735</v>
+      </c>
+      <c r="TX141">
+        <v>0.1742135</v>
+      </c>
+      <c r="TY141">
+        <v>0.3723331</v>
+      </c>
+      <c r="UA141">
+        <v>0.2846421</v>
+      </c>
+      <c r="UE141">
+        <v>0.3479176</v>
+      </c>
+      <c r="UF141">
+        <v>0.8496732</v>
+      </c>
+      <c r="UH141">
+        <v>0.4341004</v>
+      </c>
+      <c r="UI141">
+        <v>0.1113861</v>
+      </c>
+      <c r="UK141">
+        <v>0.3730956</v>
+      </c>
+      <c r="UN141">
+        <v>0.3370182</v>
+      </c>
+      <c r="UP141">
+        <v>0.6777107999999999</v>
+      </c>
+      <c r="US141">
+        <v>0.755996</v>
+      </c>
+      <c r="UT141">
+        <v>0.4335323</v>
+      </c>
+      <c r="UU141">
+        <v>0.3937008</v>
+      </c>
+      <c r="UV141">
+        <v>0.1467136</v>
+      </c>
+      <c r="UW141">
+        <v>0.8485514</v>
+      </c>
+      <c r="VA141">
+        <v>0.3855279</v>
+      </c>
+      <c r="VB141">
+        <v>0.5639731</v>
+      </c>
+      <c r="VO141">
+        <v>0.2336449</v>
+      </c>
+      <c r="VP141">
+        <v>0.7971014</v>
+      </c>
+      <c r="VS141">
+        <v>0.5543815</v>
+      </c>
+      <c r="VU141">
+        <v>0.7249205</v>
+      </c>
+      <c r="VW141">
+        <v>0.3649635</v>
+      </c>
+      <c r="VX141">
+        <v>0.8153875</v>
+      </c>
+      <c r="VY141">
+        <v>0.2596937</v>
+      </c>
+      <c r="WB141">
+        <v>0.5102041</v>
+      </c>
+      <c r="WF141">
+        <v>0.1802953</v>
+      </c>
+      <c r="WG141">
+        <v>0.5786545</v>
+      </c>
+      <c r="WL141">
+        <v>0.3925119</v>
+      </c>
+      <c r="WM141">
+        <v>0.5</v>
+      </c>
+      <c r="WQ141">
+        <v>0.5565955</v>
+      </c>
+      <c r="WU141">
+        <v>0.0475579</v>
+      </c>
+      <c r="WW141">
+        <v>0.6813031000000001</v>
+      </c>
+      <c r="WY141">
+        <v>0.6155303</v>
+      </c>
+      <c r="WZ141">
+        <v>0.3407376</v>
+      </c>
+      <c r="XD141">
+        <v>0.5671609</v>
+      </c>
+      <c r="XF141">
+        <v>0.2465845</v>
+      </c>
+      <c r="XG141">
+        <v>0.3911044</v>
+      </c>
+      <c r="XL141">
+        <v>0.3841692</v>
+      </c>
+      <c r="XM141">
+        <v>0.4179866</v>
+      </c>
+      <c r="XT141">
+        <v>0.3267974</v>
+      </c>
+      <c r="XV141">
+        <v>0.4483178</v>
+      </c>
+      <c r="YB141">
+        <v>0.1821601</v>
+      </c>
+      <c r="YD141">
+        <v>0.1662971</v>
+      </c>
+      <c r="YH141">
+        <v>0.2355713</v>
+      </c>
+      <c r="YN141">
+        <v>0.6451302</v>
+      </c>
+      <c r="YO141">
+        <v>0.4570156</v>
+      </c>
+      <c r="YQ141">
+        <v>0.2555231</v>
+      </c>
+      <c r="YR141">
+        <v>0.6858337</v>
+      </c>
+      <c r="YX141">
+        <v>0.2001772</v>
+      </c>
+      <c r="YY141">
+        <v>0.3496503</v>
+      </c>
+      <c r="ZL141">
+        <v>0.254715</v>
+      </c>
+      <c r="ZM141">
+        <v>0.3695348</v>
+      </c>
+      <c r="ZO141">
+        <v>0.1156218</v>
+      </c>
+      <c r="ZR141">
+        <v>0.2853219</v>
+      </c>
+      <c r="ZS141">
+        <v>0</v>
+      </c>
+      <c r="ZV141">
+        <v>0.427436</v>
+      </c>
+      <c r="ZW141">
+        <v>0.5928966</v>
+      </c>
+      <c r="ZX141">
+        <v>0.0487805</v>
+      </c>
+      <c r="ZZ141">
+        <v>0.3947406</v>
+      </c>
+      <c r="AAB141">
+        <v>0.5555556</v>
+      </c>
+      <c r="AAC141">
+        <v>0.2201142</v>
+      </c>
+      <c r="AAD141">
+        <v>1.1584249</v>
+      </c>
+      <c r="AAF141">
+        <v>0.09427720000000001</v>
+      </c>
+      <c r="AAH141">
+        <v>0</v>
+      </c>
+      <c r="AAJ141">
+        <v>0.1285249</v>
+      </c>
+      <c r="AAM141">
+        <v>0.3563121</v>
+      </c>
+      <c r="AAP141">
+        <v>0.4228727</v>
+      </c>
+      <c r="AAR141">
+        <v>0.3618042</v>
+      </c>
+      <c r="AAU141">
+        <v>0.4987766</v>
+      </c>
+      <c r="AAV141">
+        <v>0.2601342</v>
+      </c>
+      <c r="AAW141">
+        <v>0.2211415</v>
+      </c>
+      <c r="ABA141">
+        <v>0.2583979</v>
+      </c>
+      <c r="ABC141">
+        <v>0.5192878</v>
+      </c>
+      <c r="ABJ141">
+        <v>0.3258031</v>
+      </c>
+      <c r="ABL141">
+        <v>0.8034167</v>
+      </c>
+      <c r="ABM141">
+        <v>0.1687764</v>
+      </c>
+      <c r="ABN141">
+        <v>0.9182736</v>
+      </c>
+      <c r="ABP141">
+        <v>0.2625747</v>
+      </c>
+      <c r="ABT141">
+        <v>0.3616867</v>
+      </c>
+      <c r="ABV141">
+        <v>0.2519726</v>
+      </c>
+      <c r="ABW141">
+        <v>0.08714669999999999</v>
+      </c>
+      <c r="ABX141">
+        <v>0.3214882</v>
+      </c>
+      <c r="ABY141">
+        <v>0.4935897</v>
+      </c>
+      <c r="ABZ141">
+        <v>0.7082571</v>
+      </c>
+      <c r="ACA141">
+        <v>0.3815605</v>
+      </c>
+      <c r="ACE141">
+        <v>0.2213201</v>
+      </c>
+      <c r="ACG141">
+        <v>0.1239967</v>
+      </c>
+      <c r="ACI141">
+        <v>0.1678402</v>
+      </c>
+      <c r="ACJ141">
+        <v>0.1467136</v>
+      </c>
+      <c r="ACK141">
+        <v>0.08591070000000001</v>
+      </c>
+      <c r="ACM141">
+        <v>0.4225436</v>
+      </c>
+      <c r="ACN141">
+        <v>0.1746207</v>
+      </c>
+      <c r="ACP141">
+        <v>0.5059103</v>
+      </c>
+      <c r="ACU141">
+        <v>0.444418</v>
+      </c>
+      <c r="ACW141">
+        <v>0.2793406</v>
+      </c>
+      <c r="ACX141">
+        <v>0.8333333000000001</v>
+      </c>
+      <c r="ADP141">
+        <v>0.3275002</v>
+      </c>
+      <c r="ADR141">
+        <v>0.9310986999999999</v>
+      </c>
+      <c r="ADU141">
+        <v>0.714924</v>
+      </c>
+      <c r="ADV141">
+        <v>0.1546877</v>
+      </c>
+      <c r="AEA141">
+        <v>0.4353535</v>
+      </c>
+      <c r="AEB141">
+        <v>0.4804094</v>
+      </c>
+      <c r="AEF141">
+        <v>0.2128771</v>
+      </c>
+      <c r="AEG141">
+        <v>0.4958678</v>
+      </c>
+      <c r="AEH141">
+        <v>0.252942</v>
+      </c>
+      <c r="AEI141">
+        <v>0.3155947</v>
+      </c>
+      <c r="AEJ141">
+        <v>0.0853242</v>
+      </c>
+      <c r="AEL141">
+        <v>0.2173913</v>
+      </c>
+      <c r="AEU141">
+        <v>0.3926997</v>
+      </c>
+      <c r="AEZ141">
+        <v>0.6462585</v>
+      </c>
+      <c r="AFD141">
+        <v>0.4008961</v>
+      </c>
+      <c r="AFG141">
+        <v>0.0391108</v>
+      </c>
+      <c r="AFH141">
+        <v>0.4833589</v>
+      </c>
+      <c r="AFK141">
+        <v>0.4702784</v>
+      </c>
+      <c r="AFL141">
+        <v>0.3636364</v>
+      </c>
+      <c r="AFN141">
+        <v>0.3921569</v>
+      </c>
+      <c r="AFT141">
+        <v>0.2880728</v>
+      </c>
+      <c r="AFU141">
+        <v>0.6674553</v>
+      </c>
+      <c r="AFX141">
+        <v>0.2913279</v>
+      </c>
+      <c r="AGA141">
+        <v>0.6286441</v>
+      </c>
+      <c r="AGC141">
+        <v>0.4832771</v>
+      </c>
+      <c r="AGE141">
+        <v>0.8220753</v>
+      </c>
+      <c r="AGF141">
+        <v>0.3625954</v>
+      </c>
+      <c r="AGG141">
+        <v>0.4333971</v>
+      </c>
+      <c r="AGL141">
+        <v>0.3904473</v>
+      </c>
+      <c r="AGM141">
+        <v>0.1468784</v>
+      </c>
+      <c r="AGO141">
+        <v>0.6896552</v>
+      </c>
+      <c r="AGP141">
+        <v>0.1005803</v>
+      </c>
+      <c r="AGV141">
+        <v>1.2012012</v>
+      </c>
+      <c r="AHA141">
+        <v>0.3374278</v>
+      </c>
+      <c r="AHB141">
+        <v>0.4607408</v>
+      </c>
+      <c r="AHD141">
+        <v>0.2397458</v>
+      </c>
+      <c r="AHH141">
+        <v>0.1036484</v>
+      </c>
+      <c r="AHN141">
+        <v>0.3169507</v>
+      </c>
+      <c r="AHP141">
+        <v>0.4575163</v>
+      </c>
+      <c r="AHS141">
+        <v>0.8307373</v>
+      </c>
+      <c r="AHU141">
+        <v>0.7356771</v>
+      </c>
+      <c r="AHX141">
+        <v>0</v>
+      </c>
+      <c r="AIB141">
+        <v>0.7246377000000001</v>
+      </c>
+      <c r="AID141">
+        <v>0.4507096</v>
+      </c>
+      <c r="AIE141">
+        <v>0.7053292</v>
+      </c>
+      <c r="AIF141">
+        <v>0.1801961</v>
+      </c>
+      <c r="AII141">
+        <v>0.3511793</v>
+      </c>
+      <c r="AIP141">
+        <v>0.4204579</v>
+      </c>
+      <c r="AIT141">
+        <v>0.286871</v>
+      </c>
+      <c r="AIV141">
+        <v>1.1378087</v>
+      </c>
+      <c r="AIY141">
+        <v>0.4426333</v>
+      </c>
+      <c r="AIZ141">
+        <v>0.2786656</v>
+      </c>
+    </row>
+    <row r="142" spans="1:938">
+      <c r="A142" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D142">
+        <v>1.2585729</v>
+      </c>
+      <c r="H142">
+        <v>0.1844447</v>
+      </c>
+      <c r="J142">
+        <v>0.3984064</v>
+      </c>
+      <c r="K142">
+        <v>0.09940359999999999</v>
+      </c>
+      <c r="L142">
+        <v>0.111493</v>
+      </c>
+      <c r="P142">
+        <v>0.229637</v>
+      </c>
+      <c r="R142">
+        <v>0.7142857</v>
+      </c>
+      <c r="U142">
+        <v>0.4915159</v>
+      </c>
+      <c r="X142">
+        <v>0.3003003</v>
+      </c>
+      <c r="Z142">
+        <v>0.5439005</v>
+      </c>
+      <c r="AB142">
+        <v>0.6022019</v>
+      </c>
+      <c r="AD142">
+        <v>0.3303792</v>
+      </c>
+      <c r="AG142">
+        <v>0.0916387</v>
+      </c>
+      <c r="AI142">
+        <v>0.223835</v>
+      </c>
+      <c r="AN142">
+        <v>0.288797</v>
+      </c>
+      <c r="AV142">
+        <v>0.239071</v>
+      </c>
+      <c r="AW142">
+        <v>0.3874368</v>
+      </c>
+      <c r="AX142">
+        <v>0.6592827</v>
+      </c>
+      <c r="BB142">
+        <v>0.6127451</v>
+      </c>
+      <c r="BC142">
+        <v>0.2006653</v>
+      </c>
+      <c r="BF142">
+        <v>0.563449</v>
+      </c>
+      <c r="BH142">
+        <v>0.462098</v>
+      </c>
+      <c r="BI142">
+        <v>0.2780289</v>
+      </c>
+      <c r="BJ142">
+        <v>0.1138952</v>
+      </c>
+      <c r="BM142">
+        <v>0.3735632</v>
+      </c>
+      <c r="BR142">
+        <v>0.4290361</v>
+      </c>
+      <c r="BS142">
+        <v>0.1736111</v>
+      </c>
+      <c r="BT142">
+        <v>0.6874299</v>
+      </c>
+      <c r="BW142">
+        <v>0.467931</v>
+      </c>
+      <c r="BY142">
+        <v>0.3367003</v>
+      </c>
+      <c r="CC142">
+        <v>0.6042296</v>
+      </c>
+      <c r="CE142">
+        <v>0.3197442</v>
+      </c>
+      <c r="CL142">
+        <v>0.4573581</v>
+      </c>
+      <c r="CM142">
+        <v>0.0463063</v>
+      </c>
+      <c r="CN142">
+        <v>0.4707633</v>
+      </c>
+      <c r="CO142">
+        <v>0.2802691</v>
+      </c>
+      <c r="CR142">
+        <v>0.1128668</v>
+      </c>
+      <c r="CT142">
+        <v>1.0390295</v>
+      </c>
+      <c r="CY142">
+        <v>0.392153</v>
+      </c>
+      <c r="DC142">
+        <v>0.2062476</v>
+      </c>
+      <c r="DD142">
+        <v>0.1212066</v>
+      </c>
+      <c r="DK142">
+        <v>0.1740644</v>
+      </c>
+      <c r="DN142">
+        <v>0.1864909</v>
+      </c>
+      <c r="DS142">
+        <v>1.2851095</v>
+      </c>
+      <c r="DW142">
+        <v>0.2023504</v>
+      </c>
+      <c r="DZ142">
+        <v>0.2053388</v>
+      </c>
+      <c r="EA142">
+        <v>0.5169473999999999</v>
+      </c>
+      <c r="EK142">
+        <v>0.161069</v>
+      </c>
+      <c r="EL142">
+        <v>0.4143994</v>
+      </c>
+      <c r="EM142">
+        <v>0.3968254</v>
+      </c>
+      <c r="EN142">
+        <v>0.2688172</v>
+      </c>
+      <c r="ER142">
+        <v>0.0990099</v>
+      </c>
+      <c r="ET142">
+        <v>0.7542807</v>
+      </c>
+      <c r="EZ142">
+        <v>0.3134796</v>
+      </c>
+      <c r="FA142">
+        <v>0.3282563</v>
+      </c>
+      <c r="FB142">
+        <v>0.2416839</v>
+      </c>
+      <c r="FD142">
+        <v>0.9645443</v>
+      </c>
+      <c r="FE142">
+        <v>0.4015466</v>
+      </c>
+      <c r="FG142">
+        <v>0.6332772</v>
+      </c>
+      <c r="FH142">
+        <v>0.7662835</v>
+      </c>
+      <c r="FI142">
+        <v>0.2922993</v>
+      </c>
+      <c r="FJ142">
+        <v>0.1511879</v>
+      </c>
+      <c r="FL142">
+        <v>0.3935815</v>
+      </c>
+      <c r="FO142">
+        <v>0.136612</v>
+      </c>
+      <c r="FR142">
+        <v>1.0185185</v>
+      </c>
+      <c r="FS142">
+        <v>0.2759833</v>
+      </c>
+      <c r="FY142">
+        <v>0.7079985</v>
+      </c>
+      <c r="GB142">
+        <v>0.6597408</v>
+      </c>
+      <c r="GC142">
+        <v>0.3366704</v>
+      </c>
+      <c r="GD142">
+        <v>0.2107652</v>
+      </c>
+      <c r="GE142">
+        <v>0.5220860000000001</v>
+      </c>
+      <c r="GF142">
+        <v>0.7188622</v>
+      </c>
+      <c r="GJ142">
+        <v>0.3008472</v>
+      </c>
+      <c r="GS142">
+        <v>0.5178345</v>
+      </c>
+      <c r="GV142">
+        <v>0.0503778</v>
+      </c>
+      <c r="HA142">
+        <v>0.3721719</v>
+      </c>
+      <c r="HF142">
+        <v>0.6600495</v>
+      </c>
+      <c r="HH142">
+        <v>1.9480519</v>
+      </c>
+      <c r="HK142">
+        <v>0.6876084</v>
+      </c>
+      <c r="HL142">
+        <v>0.3166434</v>
+      </c>
+      <c r="HN142">
+        <v>0.2026645</v>
+      </c>
+      <c r="HO142">
+        <v>1.0215054</v>
+      </c>
+      <c r="HP142">
+        <v>0.530303</v>
+      </c>
+      <c r="HT142">
+        <v>0.6261177</v>
+      </c>
+      <c r="HV142">
+        <v>0.2942009</v>
+      </c>
+      <c r="HX142">
+        <v>0.868514</v>
+      </c>
+      <c r="HY142">
+        <v>0.1992016</v>
+      </c>
+      <c r="IC142">
+        <v>0.7157785</v>
+      </c>
+      <c r="IE142">
+        <v>0.3627968</v>
+      </c>
+      <c r="IH142">
+        <v>0.6493506</v>
+      </c>
+      <c r="II142">
+        <v>0</v>
+      </c>
+      <c r="IN142">
+        <v>0.2940798</v>
+      </c>
+      <c r="IR142">
+        <v>0.3356401</v>
+      </c>
+      <c r="IS142">
+        <v>0</v>
+      </c>
+      <c r="IZ142">
+        <v>0</v>
+      </c>
+      <c r="JB142">
+        <v>0.9216793</v>
+      </c>
+      <c r="JF142">
+        <v>0.3344482</v>
+      </c>
+      <c r="JG142">
+        <v>0.4267791</v>
+      </c>
+      <c r="JK142">
+        <v>0.2977638</v>
+      </c>
+      <c r="JO142">
+        <v>0.2348189</v>
+      </c>
+      <c r="JR142">
+        <v>0.2247715</v>
+      </c>
+      <c r="JS142">
+        <v>0.2989537</v>
+      </c>
+      <c r="JX142">
+        <v>0.4655493</v>
+      </c>
+      <c r="KB142">
+        <v>0.5223751</v>
+      </c>
+      <c r="KC142">
+        <v>0.6903155</v>
+      </c>
+      <c r="KI142">
+        <v>0.244716</v>
+      </c>
+      <c r="KJ142">
+        <v>1.1228288</v>
+      </c>
+      <c r="KO142">
+        <v>0.2756955</v>
+      </c>
+      <c r="KV142">
+        <v>0.3193766</v>
+      </c>
+      <c r="KW142">
+        <v>0.7702265</v>
+      </c>
+      <c r="LD142">
+        <v>0.4629073</v>
+      </c>
+      <c r="LG142">
+        <v>0.1772356</v>
+      </c>
+      <c r="LH142">
+        <v>0.4662005</v>
+      </c>
+      <c r="LO142">
+        <v>0.1182033</v>
+      </c>
+      <c r="LR142">
+        <v>0</v>
+      </c>
+      <c r="LW142">
+        <v>1.0180995</v>
+      </c>
+      <c r="LX142">
+        <v>0</v>
+      </c>
+      <c r="LY142">
+        <v>0.1340782</v>
+      </c>
+      <c r="MA142">
+        <v>0.2501062</v>
+      </c>
+      <c r="MC142">
+        <v>0</v>
+      </c>
+      <c r="ME142">
+        <v>0</v>
+      </c>
+      <c r="MF142">
+        <v>0.364744</v>
+      </c>
+      <c r="MG142">
+        <v>0.1631236</v>
+      </c>
+      <c r="MI142">
+        <v>0.2683461</v>
+      </c>
+      <c r="ML142">
+        <v>0.2184637</v>
+      </c>
+      <c r="MN142">
+        <v>0.6025492</v>
+      </c>
+      <c r="MS142">
+        <v>0.5578779</v>
+      </c>
+      <c r="MU142">
+        <v>0.401979</v>
+      </c>
+      <c r="MW142">
+        <v>0.3603604</v>
+      </c>
+      <c r="MX142">
+        <v>0.09523810000000001</v>
+      </c>
+      <c r="MZ142">
+        <v>0.3333275</v>
+      </c>
+      <c r="NC142">
+        <v>0.3059719</v>
+      </c>
+      <c r="NE142">
+        <v>0.8376511</v>
+      </c>
+      <c r="NM142">
+        <v>0.7161423</v>
+      </c>
+      <c r="NP142">
+        <v>0.3531264</v>
+      </c>
+      <c r="NQ142">
+        <v>1.056338</v>
+      </c>
+      <c r="NT142">
+        <v>0.534188</v>
+      </c>
+      <c r="NW142">
+        <v>0.1838235</v>
+      </c>
+      <c r="NY142">
+        <v>0.4965753</v>
+      </c>
+      <c r="NZ142">
+        <v>0.9137116</v>
+      </c>
+      <c r="OD142">
+        <v>0.2099982</v>
+      </c>
+      <c r="OE142">
+        <v>0.3521659</v>
+      </c>
+      <c r="OJ142">
+        <v>0.8118434</v>
+      </c>
+      <c r="OL142">
+        <v>0.5039652999999999</v>
+      </c>
+      <c r="ON142">
+        <v>0.5218855</v>
+      </c>
+      <c r="OP142">
+        <v>0.273224</v>
+      </c>
+      <c r="OQ142">
+        <v>0.330033</v>
+      </c>
+      <c r="OR142">
+        <v>0.5550127</v>
+      </c>
+      <c r="OT142">
+        <v>0.7648725</v>
+      </c>
+      <c r="OV142">
+        <v>0.6956249</v>
+      </c>
+      <c r="OX142">
+        <v>0.6679637</v>
+      </c>
+      <c r="PB142">
+        <v>0.3542822</v>
+      </c>
+      <c r="PG142">
+        <v>0.3136201</v>
+      </c>
+      <c r="PJ142">
+        <v>0.2339181</v>
+      </c>
+      <c r="PK142">
+        <v>0.0661376</v>
+      </c>
+      <c r="PL142">
+        <v>0.8498767</v>
+      </c>
+      <c r="PM142">
+        <v>0.6030484</v>
+      </c>
+      <c r="PP142">
+        <v>0.3423526</v>
+      </c>
+      <c r="PR142">
+        <v>0.1937984</v>
+      </c>
+      <c r="PS142">
+        <v>0.3356835</v>
+      </c>
+      <c r="PY142">
+        <v>1.1552314</v>
+      </c>
+      <c r="QD142">
+        <v>0.3874848</v>
+      </c>
+      <c r="QE142">
+        <v>0.6313635</v>
+      </c>
+      <c r="QF142">
+        <v>0.3896104</v>
+      </c>
+      <c r="QK142">
+        <v>0.5314241</v>
+      </c>
+      <c r="QN142">
+        <v>0.3700828</v>
+      </c>
+      <c r="QO142">
+        <v>0.6363892</v>
+      </c>
+      <c r="QP142">
+        <v>0.6046125</v>
+      </c>
+      <c r="QS142">
+        <v>0.6944444</v>
+      </c>
+      <c r="QU142">
+        <v>1.4637681</v>
+      </c>
+      <c r="QV142">
+        <v>0.676287</v>
+      </c>
+      <c r="QX142">
+        <v>0.3554711</v>
+      </c>
+      <c r="QY142">
+        <v>0.1073351</v>
+      </c>
+      <c r="RB142">
+        <v>0.3739451</v>
+      </c>
+      <c r="RD142">
+        <v>0.9060737</v>
+      </c>
+      <c r="RI142">
+        <v>0.545977</v>
+      </c>
+      <c r="RL142">
+        <v>0.1434426</v>
+      </c>
+      <c r="RQ142">
+        <v>1.0189401</v>
+      </c>
+      <c r="RT142">
+        <v>0.1891828</v>
+      </c>
+      <c r="RV142">
+        <v>0.6302521</v>
+      </c>
+      <c r="RX142">
+        <v>0.3712446</v>
+      </c>
+      <c r="RY142">
+        <v>0.2623995</v>
+      </c>
+      <c r="SA142">
+        <v>0.0789266</v>
+      </c>
+      <c r="SD142">
+        <v>0.2379441</v>
+      </c>
+      <c r="SG142">
+        <v>0.5088294</v>
+      </c>
+      <c r="SH142">
+        <v>0.4907528</v>
+      </c>
+      <c r="SI142">
+        <v>0.4298122</v>
+      </c>
+      <c r="SM142">
+        <v>0.1378676</v>
+      </c>
+      <c r="SO142">
+        <v>0.172295</v>
+      </c>
+      <c r="SP142">
+        <v>0</v>
+      </c>
+      <c r="SR142">
+        <v>0.143023</v>
+      </c>
+      <c r="SW142">
+        <v>0.1008922</v>
+      </c>
+      <c r="SX142">
+        <v>0.4662379</v>
+      </c>
+      <c r="TS142">
+        <v>0.845573</v>
+      </c>
+      <c r="TX142">
+        <v>0.2853645</v>
+      </c>
+      <c r="TY142">
+        <v>0.3166208</v>
+      </c>
+      <c r="UA142">
+        <v>0.2281997</v>
+      </c>
+      <c r="UE142">
+        <v>0.351741</v>
+      </c>
+      <c r="UF142">
+        <v>0.887372</v>
+      </c>
+      <c r="UH142">
+        <v>0.4471983</v>
+      </c>
+      <c r="UI142">
+        <v>0.175</v>
+      </c>
+      <c r="UK142">
+        <v>0.3761352</v>
+      </c>
+      <c r="UN142">
+        <v>0.3314038</v>
+      </c>
+      <c r="UP142">
+        <v>0.6736527</v>
+      </c>
+      <c r="US142">
+        <v>0.4808647</v>
+      </c>
+      <c r="UT142">
+        <v>0.3833213</v>
+      </c>
+      <c r="UU142">
+        <v>0.4132231</v>
+      </c>
+      <c r="UV142">
+        <v>0.0632511</v>
+      </c>
+      <c r="UW142">
+        <v>0.9045817</v>
+      </c>
+      <c r="VA142">
+        <v>0.3168568</v>
+      </c>
+      <c r="VB142">
+        <v>0.5741217</v>
+      </c>
+      <c r="VO142">
+        <v>0.0829187</v>
+      </c>
+      <c r="VP142">
+        <v>0.78125</v>
+      </c>
+      <c r="VS142">
+        <v>0.3947796</v>
+      </c>
+      <c r="VU142">
+        <v>0.7864392</v>
+      </c>
+      <c r="VW142">
+        <v>0.729927</v>
+      </c>
+      <c r="VX142">
+        <v>0.8692631</v>
+      </c>
+      <c r="VY142">
+        <v>0.3142499</v>
+      </c>
+      <c r="WB142">
+        <v>0.6198347</v>
+      </c>
+      <c r="WF142">
+        <v>0.1361441</v>
+      </c>
+      <c r="WG142">
+        <v>0.590016</v>
+      </c>
+      <c r="WL142">
+        <v>0.4018556</v>
+      </c>
+      <c r="WM142">
+        <v>0.5307263</v>
+      </c>
+      <c r="WQ142">
+        <v>0.5438823</v>
+      </c>
+      <c r="WU142">
+        <v>0.0486689</v>
+      </c>
+      <c r="WW142">
+        <v>0.6305147</v>
+      </c>
+      <c r="WY142">
+        <v>0.5673759</v>
+      </c>
+      <c r="WZ142">
+        <v>0.2219172</v>
+      </c>
+      <c r="XD142">
+        <v>0.5732535</v>
+      </c>
+      <c r="XF142">
+        <v>0.1619829</v>
+      </c>
+      <c r="XG142">
+        <v>0.3339406</v>
+      </c>
+      <c r="XL142">
+        <v>0.3586974</v>
+      </c>
+      <c r="XM142">
+        <v>0.3571906</v>
+      </c>
+      <c r="XT142">
+        <v>0.3401361</v>
+      </c>
+      <c r="XV142">
+        <v>0.3967364</v>
+      </c>
+      <c r="YB142">
+        <v>0.2842836</v>
+      </c>
+      <c r="YD142">
+        <v>0.1123596</v>
+      </c>
+      <c r="YH142">
+        <v>0.2347418</v>
+      </c>
+      <c r="YN142">
+        <v>0.6636074</v>
+      </c>
+      <c r="YO142">
+        <v>0.3068879</v>
+      </c>
+      <c r="YQ142">
+        <v>0.214008</v>
+      </c>
+      <c r="YR142">
+        <v>0.7854065</v>
+      </c>
+      <c r="YX142">
+        <v>0.1999066</v>
+      </c>
+      <c r="YY142">
+        <v>0.3816794</v>
+      </c>
+      <c r="ZL142">
+        <v>0.260339</v>
+      </c>
+      <c r="ZM142">
+        <v>0.3090766</v>
+      </c>
+      <c r="ZO142">
+        <v>0.1147959</v>
+      </c>
+      <c r="ZR142">
+        <v>0.1959781</v>
+      </c>
+      <c r="ZS142">
+        <v>0.6578947000000001</v>
+      </c>
+      <c r="ZV142">
+        <v>0.3902268</v>
+      </c>
+      <c r="ZW142">
+        <v>0.5552796</v>
+      </c>
+      <c r="ZX142">
+        <v>0.0511509</v>
+      </c>
+      <c r="ZZ142">
+        <v>0.5161295</v>
+      </c>
+      <c r="AAB142">
+        <v>0.5555556</v>
+      </c>
+      <c r="AAC142">
+        <v>0.2528876</v>
+      </c>
+      <c r="AAD142">
+        <v>1.2338858</v>
+      </c>
+      <c r="AAF142">
+        <v>0.0979593</v>
+      </c>
+      <c r="AAH142">
+        <v>0.2062706</v>
+      </c>
+      <c r="AAJ142">
+        <v>0.1787785</v>
+      </c>
+      <c r="AAM142">
+        <v>0.370634</v>
+      </c>
+      <c r="AAP142">
+        <v>0.4512207</v>
+      </c>
+      <c r="AAR142">
+        <v>0.3391651</v>
+      </c>
+      <c r="AAU142">
+        <v>0.2705628</v>
+      </c>
+      <c r="AAV142">
+        <v>0.2734142</v>
+      </c>
+      <c r="AAW142">
+        <v>0</v>
+      </c>
+      <c r="ABA142">
+        <v>0.5390836</v>
+      </c>
+      <c r="ABC142">
+        <v>0.6313131</v>
+      </c>
+      <c r="ABJ142">
+        <v>0.3294494</v>
+      </c>
+      <c r="ABL142">
+        <v>0.5994706</v>
+      </c>
+      <c r="ABM142">
+        <v>0.1763668</v>
+      </c>
+      <c r="ABN142">
+        <v>0.9376465</v>
+      </c>
+      <c r="ABP142">
+        <v>0.2512368</v>
+      </c>
+      <c r="ABT142">
+        <v>0.452799</v>
+      </c>
+      <c r="ABV142">
+        <v>0.2038126</v>
+      </c>
+      <c r="ABW142">
+        <v>0.1056677</v>
+      </c>
+      <c r="ABX142">
+        <v>0.2952952</v>
+      </c>
+      <c r="ABY142">
+        <v>0.1730769</v>
+      </c>
+      <c r="ABZ142">
+        <v>0.7334126</v>
+      </c>
+      <c r="ACA142">
+        <v>0.3930441</v>
+      </c>
+      <c r="ACE142">
+        <v>0.1998992</v>
+      </c>
+      <c r="ACG142">
+        <v>0.1749606</v>
+      </c>
+      <c r="ACI142">
+        <v>0.2075154</v>
+      </c>
+      <c r="ACJ142">
+        <v>0.09009010000000001</v>
+      </c>
+      <c r="ACK142">
+        <v>0.09157510000000001</v>
+      </c>
+      <c r="ACM142">
+        <v>0.3221466</v>
+      </c>
+      <c r="ACN142">
+        <v>0.1802078</v>
+      </c>
+      <c r="ACP142">
+        <v>0.7860239999999999</v>
+      </c>
+      <c r="ACU142">
+        <v>0.5071324</v>
+      </c>
+      <c r="ACW142">
+        <v>0.2237752</v>
+      </c>
+      <c r="ACX142">
+        <v>0.2994012</v>
+      </c>
+      <c r="ADP142">
+        <v>0.3443493</v>
+      </c>
+      <c r="ADR142">
+        <v>0.9469697</v>
+      </c>
+      <c r="ADU142">
+        <v>0.9641873</v>
+      </c>
+      <c r="ADV142">
+        <v>0</v>
+      </c>
+      <c r="AEA142">
+        <v>0.442094</v>
+      </c>
+      <c r="AEB142">
+        <v>0.4288813</v>
+      </c>
+      <c r="AEF142">
+        <v>0.1835791</v>
+      </c>
+      <c r="AEG142">
+        <v>0.3017241</v>
+      </c>
+      <c r="AEH142">
+        <v>0.2393908</v>
+      </c>
+      <c r="AEI142">
+        <v>0.294768</v>
+      </c>
+      <c r="AEJ142">
+        <v>0.08741259999999999</v>
+      </c>
+      <c r="AEL142">
+        <v>0.1138952</v>
+      </c>
+      <c r="AEU142">
+        <v>0.3550957</v>
+      </c>
+      <c r="AEZ142">
+        <v>0.6462585</v>
+      </c>
+      <c r="AFD142">
+        <v>0.3582162</v>
+      </c>
+      <c r="AFG142">
+        <v>0.1585777</v>
+      </c>
+      <c r="AFH142">
+        <v>0.5513348</v>
+      </c>
+      <c r="AFK142">
+        <v>0.2929985</v>
+      </c>
+      <c r="AFL142">
+        <v>0.3623188</v>
+      </c>
+      <c r="AFN142">
+        <v>0.4132231</v>
+      </c>
+      <c r="AFT142">
+        <v>0.2959773</v>
+      </c>
+      <c r="AFU142">
+        <v>0.6769325</v>
+      </c>
+      <c r="AFX142">
+        <v>0.2843915</v>
+      </c>
+      <c r="AGA142">
+        <v>0.6862074</v>
+      </c>
+      <c r="AGC142">
+        <v>0.5900614</v>
+      </c>
+      <c r="AGE142">
+        <v>0.6494428</v>
+      </c>
+      <c r="AGF142">
+        <v>0.8644537</v>
+      </c>
+      <c r="AGG142">
+        <v>0.3783431</v>
+      </c>
+      <c r="AGL142">
+        <v>0.4584305</v>
+      </c>
+      <c r="AGM142">
+        <v>0</v>
+      </c>
+      <c r="AGO142">
+        <v>0.1677149</v>
+      </c>
+      <c r="AGP142">
+        <v>0.1048157</v>
+      </c>
+      <c r="AGV142">
+        <v>1.6081871</v>
+      </c>
+      <c r="AHA142">
+        <v>0.389239</v>
+      </c>
+      <c r="AHB142">
+        <v>0.4584351</v>
+      </c>
+      <c r="AHD142">
+        <v>0.3230417</v>
+      </c>
+      <c r="AHH142">
+        <v>0.1062925</v>
+      </c>
+      <c r="AHN142">
+        <v>0.2980091</v>
+      </c>
+      <c r="AHP142">
+        <v>0.4605263</v>
+      </c>
+      <c r="AHS142">
+        <v>1.0149573</v>
+      </c>
+      <c r="AHU142">
+        <v>0.750332</v>
+      </c>
+      <c r="AHX142">
+        <v>0</v>
+      </c>
+      <c r="AIB142">
+        <v>0.7211538</v>
+      </c>
+      <c r="AID142">
+        <v>0.5663676</v>
+      </c>
+      <c r="AIE142">
+        <v>0.6838906</v>
+      </c>
+      <c r="AIF142">
+        <v>0.1891121</v>
+      </c>
+      <c r="AII142">
+        <v>0.3539516</v>
+      </c>
+      <c r="AIP142">
+        <v>0.3203138</v>
+      </c>
+      <c r="AIT142">
+        <v>0.2444646</v>
+      </c>
+      <c r="AIV142">
+        <v>1.0140607</v>
+      </c>
+      <c r="AIY142">
+        <v>0.3388643</v>
+      </c>
+      <c r="AIZ142">
+        <v>0.3141005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:938">
+      <c r="A143" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="144" spans="1:938">
+      <c r="A144" t="s">
+        <v>1081</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyMetro.xlsx
+++ b/fb-surveyMetro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
   <si>
     <t>Aberdeen, SD</t>
   </si>
@@ -3260,6 +3260,18 @@
   </si>
   <si>
     <t>22 06 2020</t>
+  </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
   </si>
 </sst>
 </file>
@@ -3591,7 +3603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJD144"/>
+  <dimension ref="A1:AJD148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38748,6 +38760,9 @@
       <c r="ACX95">
         <v>0</v>
       </c>
+      <c r="ACY95">
+        <v>0.4098361</v>
+      </c>
       <c r="ADI95">
         <v>1.0869565</v>
       </c>
@@ -39518,6 +39533,9 @@
       <c r="RL96">
         <v>0.2568934</v>
       </c>
+      <c r="RP96">
+        <v>1.8518519</v>
+      </c>
       <c r="RQ96">
         <v>0.432526</v>
       </c>
@@ -39569,6 +39587,9 @@
       <c r="SX96">
         <v>0.5460589</v>
       </c>
+      <c r="SZ96">
+        <v>0.7575758</v>
+      </c>
       <c r="TA96">
         <v>1.2162162</v>
       </c>
@@ -39871,6 +39892,9 @@
       </c>
       <c r="ACX96">
         <v>0</v>
+      </c>
+      <c r="ACY96">
+        <v>0.3816794</v>
       </c>
       <c r="ADI96">
         <v>1.1450382</v>
@@ -40642,6 +40666,9 @@
       <c r="RL97">
         <v>0.6178835</v>
       </c>
+      <c r="RP97">
+        <v>1.9047619</v>
+      </c>
       <c r="RQ97">
         <v>0.0822368</v>
       </c>
@@ -40692,6 +40719,9 @@
       </c>
       <c r="SX97">
         <v>0.5571705</v>
+      </c>
+      <c r="SZ97">
+        <v>0.7518797</v>
       </c>
       <c r="TA97">
         <v>0.6868132</v>
@@ -41814,6 +41844,9 @@
       <c r="SX98">
         <v>0.3894081</v>
       </c>
+      <c r="SZ98">
+        <v>0.7042254</v>
+      </c>
       <c r="TA98">
         <v>0.4098361</v>
       </c>
@@ -42935,6 +42968,9 @@
       <c r="SX99">
         <v>0.5494505</v>
       </c>
+      <c r="SZ99">
+        <v>0.9259259</v>
+      </c>
       <c r="TA99">
         <v>0.4076087</v>
       </c>
@@ -44056,6 +44092,9 @@
       <c r="SX100">
         <v>0.5660377</v>
       </c>
+      <c r="SZ100">
+        <v>0.9009009</v>
+      </c>
       <c r="TA100">
         <v>0.3865979</v>
       </c>
@@ -58224,6 +58263,9 @@
       <c r="IS113">
         <v>0.1677852</v>
       </c>
+      <c r="IW113">
+        <v>1.010101</v>
+      </c>
       <c r="IZ113">
         <v>0.5192108</v>
       </c>
@@ -59333,6 +59375,9 @@
       <c r="IS114">
         <v>0.4792332</v>
       </c>
+      <c r="IW114">
+        <v>0.8638211</v>
+      </c>
       <c r="IZ114">
         <v>0.8519702</v>
       </c>
@@ -60442,6 +60487,9 @@
       <c r="IS115">
         <v>0.4716981</v>
       </c>
+      <c r="IW115">
+        <v>1.1213992</v>
+      </c>
       <c r="IZ115">
         <v>1.1603376</v>
       </c>
@@ -61548,6 +61596,9 @@
       <c r="IS116">
         <v>0.4854369</v>
       </c>
+      <c r="IW116">
+        <v>0.8231707</v>
+      </c>
       <c r="IZ116">
         <v>1.0084926</v>
       </c>
@@ -62657,6 +62708,9 @@
       <c r="IS117">
         <v>0.4504505</v>
       </c>
+      <c r="IW117">
+        <v>1.2996032</v>
+      </c>
       <c r="IZ117">
         <v>0.8438819</v>
       </c>
@@ -64189,6 +64243,9 @@
       <c r="WW118">
         <v>0.2111231</v>
       </c>
+      <c r="WX118">
+        <v>0</v>
+      </c>
       <c r="WY118">
         <v>0.3401361</v>
       </c>
@@ -65295,6 +65352,9 @@
       <c r="WW119">
         <v>0.2276956</v>
       </c>
+      <c r="WX119">
+        <v>0</v>
+      </c>
       <c r="WY119">
         <v>0.3362152</v>
       </c>
@@ -66401,6 +66461,9 @@
       <c r="WW120">
         <v>0.1253855</v>
       </c>
+      <c r="WX120">
+        <v>0</v>
+      </c>
       <c r="WY120">
         <v>0.295858</v>
       </c>
@@ -67507,6 +67570,9 @@
       <c r="WW121">
         <v>0.1817269</v>
       </c>
+      <c r="WX121">
+        <v>0.78125</v>
+      </c>
       <c r="WY121">
         <v>0.7163324</v>
       </c>
@@ -68613,6 +68679,9 @@
       <c r="WW122">
         <v>0.1777982</v>
       </c>
+      <c r="WX122">
+        <v>0.862069</v>
+      </c>
       <c r="WY122">
         <v>0.755287</v>
       </c>
@@ -69920,6 +69989,9 @@
       <c r="ACX123">
         <v>0.5780347</v>
       </c>
+      <c r="ADI123">
+        <v>0</v>
+      </c>
       <c r="ADN123">
         <v>0</v>
       </c>
@@ -70021,6 +70093,9 @@
       </c>
       <c r="AGV123">
         <v>0.2347418</v>
+      </c>
+      <c r="AGY123">
+        <v>0</v>
       </c>
       <c r="AHA123">
         <v>0.4442523</v>
@@ -70444,6 +70519,9 @@
       <c r="KK124">
         <v>0</v>
       </c>
+      <c r="KL124">
+        <v>0.1592357</v>
+      </c>
       <c r="KO124">
         <v>0.22537</v>
       </c>
@@ -71017,6 +71095,9 @@
       <c r="ACX124">
         <v>0.591716</v>
       </c>
+      <c r="ADI124">
+        <v>0</v>
+      </c>
       <c r="ADN124">
         <v>0</v>
       </c>
@@ -71118,6 +71199,9 @@
       </c>
       <c r="AGV124">
         <v>0.2538071</v>
+      </c>
+      <c r="AGY124">
+        <v>0.2777778</v>
       </c>
       <c r="AHA124">
         <v>0.360203</v>
@@ -71541,6 +71625,9 @@
       <c r="KK125">
         <v>0</v>
       </c>
+      <c r="KL125">
+        <v>0.1655629</v>
+      </c>
       <c r="KO125">
         <v>0.2448292</v>
       </c>
@@ -72114,6 +72201,9 @@
       <c r="ACX125">
         <v>0.6289308</v>
       </c>
+      <c r="ADI125">
+        <v>0</v>
+      </c>
       <c r="ADN125">
         <v>1.1494253</v>
       </c>
@@ -72215,6 +72305,9 @@
       </c>
       <c r="AGV125">
         <v>0.2617801</v>
+      </c>
+      <c r="AGY125">
+        <v>0.280112</v>
       </c>
       <c r="AHA125">
         <v>0.382879</v>
@@ -72626,6 +72719,9 @@
       <c r="KC126">
         <v>0.7844038</v>
       </c>
+      <c r="KH126">
+        <v>1.0548523</v>
+      </c>
       <c r="KI126">
         <v>0.2452721</v>
       </c>
@@ -72635,6 +72731,9 @@
       <c r="KK126">
         <v>0</v>
       </c>
+      <c r="KL126">
+        <v>0.1623377</v>
+      </c>
       <c r="KO126">
         <v>0.1987997</v>
       </c>
@@ -73145,6 +73244,9 @@
       <c r="ABN126">
         <v>0</v>
       </c>
+      <c r="ABO126">
+        <v>0.8169935</v>
+      </c>
       <c r="ABP126">
         <v>0.2883512</v>
       </c>
@@ -73204,6 +73306,9 @@
       </c>
       <c r="ACX126">
         <v>0.6211179999999999</v>
+      </c>
+      <c r="ADI126">
+        <v>0</v>
       </c>
       <c r="ADN126">
         <v>1.1337868</v>
@@ -73717,6 +73822,9 @@
       <c r="KC127">
         <v>1.0370989</v>
       </c>
+      <c r="KH127">
+        <v>1.1415525</v>
+      </c>
       <c r="KI127">
         <v>0.2493436</v>
       </c>
@@ -73726,6 +73834,9 @@
       <c r="KK127">
         <v>0</v>
       </c>
+      <c r="KL127">
+        <v>0</v>
+      </c>
       <c r="KO127">
         <v>0.271645</v>
       </c>
@@ -73996,6 +74107,9 @@
       <c r="SX127">
         <v>0.5841121</v>
       </c>
+      <c r="TA127">
+        <v>0</v>
+      </c>
       <c r="TS127">
         <v>0.1550264</v>
       </c>
@@ -74233,6 +74347,9 @@
       <c r="ABN127">
         <v>0.1287001</v>
       </c>
+      <c r="ABO127">
+        <v>0.8928571</v>
+      </c>
       <c r="ABP127">
         <v>0.2483085</v>
       </c>
@@ -74292,6 +74409,9 @@
       </c>
       <c r="ACX127">
         <v>0.6211179999999999</v>
+      </c>
+      <c r="ADI127">
+        <v>0</v>
       </c>
       <c r="ADN127">
         <v>1.2820513</v>
@@ -74715,6 +74835,9 @@
       <c r="HF128">
         <v>0.2904474</v>
       </c>
+      <c r="HG128">
+        <v>0.3736921</v>
+      </c>
       <c r="HH128">
         <v>0.5064457</v>
       </c>
@@ -74802,6 +74925,9 @@
       <c r="KC128">
         <v>0.9741656</v>
       </c>
+      <c r="KH128">
+        <v>1.0615711</v>
+      </c>
       <c r="KI128">
         <v>0.1851985</v>
       </c>
@@ -74811,6 +74937,9 @@
       <c r="KK128">
         <v>0.2369668</v>
       </c>
+      <c r="KL128">
+        <v>0</v>
+      </c>
       <c r="KO128">
         <v>0.2655479</v>
       </c>
@@ -75051,6 +75180,9 @@
       <c r="SD128">
         <v>0.6769984</v>
       </c>
+      <c r="SE128">
+        <v>0</v>
+      </c>
       <c r="SG128">
         <v>0.4121445</v>
       </c>
@@ -75078,6 +75210,9 @@
       <c r="SX128">
         <v>0.5924171</v>
       </c>
+      <c r="TA128">
+        <v>0</v>
+      </c>
       <c r="TS128">
         <v>0.2113332</v>
       </c>
@@ -75314,6 +75449,9 @@
       </c>
       <c r="ABN128">
         <v>0.1355014</v>
+      </c>
+      <c r="ABO128">
+        <v>1.5384615</v>
       </c>
       <c r="ABP128">
         <v>0.2752271</v>
@@ -75797,6 +75935,9 @@
       <c r="HF129">
         <v>0.2697384</v>
       </c>
+      <c r="HG129">
+        <v>0.2242152</v>
+      </c>
       <c r="HH129">
         <v>0.5178908</v>
       </c>
@@ -75884,6 +76025,9 @@
       <c r="KC129">
         <v>1.0537296</v>
       </c>
+      <c r="KH129">
+        <v>1.2362031</v>
+      </c>
       <c r="KI129">
         <v>0.2207052</v>
       </c>
@@ -76133,6 +76277,9 @@
       <c r="SD129">
         <v>0.6836903</v>
       </c>
+      <c r="SE129">
+        <v>0</v>
+      </c>
       <c r="SG129">
         <v>0.4975929</v>
       </c>
@@ -76160,6 +76307,9 @@
       <c r="SX129">
         <v>0.8274232</v>
       </c>
+      <c r="TA129">
+        <v>0</v>
+      </c>
       <c r="TS129">
         <v>0.307444</v>
       </c>
@@ -76396,6 +76546,9 @@
       </c>
       <c r="ABN129">
         <v>0.1388889</v>
+      </c>
+      <c r="ABO129">
+        <v>1.3779528</v>
       </c>
       <c r="ABP129">
         <v>0.2352681</v>
@@ -76879,6 +77032,9 @@
       <c r="HF130">
         <v>0.3052517</v>
       </c>
+      <c r="HG130">
+        <v>0.2415459</v>
+      </c>
       <c r="HH130">
         <v>0.5623722</v>
       </c>
@@ -76966,6 +77122,9 @@
       <c r="KC130">
         <v>0.9765528</v>
       </c>
+      <c r="KH130">
+        <v>1.2444444</v>
+      </c>
       <c r="KI130">
         <v>0.3434262</v>
       </c>
@@ -77215,6 +77374,9 @@
       <c r="SD130">
         <v>0.6638196</v>
       </c>
+      <c r="SE130">
+        <v>0.2192982</v>
+      </c>
       <c r="SG130">
         <v>0.5017845</v>
       </c>
@@ -77242,6 +77404,9 @@
       <c r="SX130">
         <v>0.8393285</v>
       </c>
+      <c r="TA130">
+        <v>0</v>
+      </c>
       <c r="TS130">
         <v>0.4467282</v>
       </c>
@@ -77478,6 +77643,9 @@
       </c>
       <c r="ABN130">
         <v>0.140647</v>
+      </c>
+      <c r="ABO130">
+        <v>1.8595041</v>
       </c>
       <c r="ABP130">
         <v>0.1912731</v>
@@ -77958,6 +78126,9 @@
       <c r="HF131">
         <v>0.4153145</v>
       </c>
+      <c r="HG131">
+        <v>0.7425743</v>
+      </c>
       <c r="HH131">
         <v>0.4219409</v>
       </c>
@@ -78294,6 +78465,9 @@
       <c r="SD131">
         <v>0.5825962</v>
       </c>
+      <c r="SE131">
+        <v>0.2016129</v>
+      </c>
       <c r="SG131">
         <v>0.5561951000000001</v>
       </c>
@@ -78320,6 +78494,9 @@
       </c>
       <c r="SX131">
         <v>0.6097561</v>
+      </c>
+      <c r="TA131">
+        <v>0</v>
       </c>
       <c r="TS131">
         <v>0.4728307</v>
@@ -78953,6 +79130,9 @@
       <c r="EN132">
         <v>0.7968127</v>
       </c>
+      <c r="EQ132">
+        <v>0.8196721</v>
+      </c>
       <c r="ER132">
         <v>0.8608815</v>
       </c>
@@ -79369,6 +79549,9 @@
       </c>
       <c r="SD132">
         <v>0.5528672</v>
+      </c>
+      <c r="SE132">
+        <v>0.2155172</v>
       </c>
       <c r="SG132">
         <v>0.5880083</v>
@@ -80029,6 +80212,9 @@
       <c r="EN133">
         <v>0.8474576</v>
       </c>
+      <c r="EQ133">
+        <v>0.877193</v>
+      </c>
       <c r="ER133">
         <v>1.0251323</v>
       </c>
@@ -80203,6 +80389,9 @@
       <c r="KJ133">
         <v>0.4297459</v>
       </c>
+      <c r="KK133">
+        <v>0.6647329</v>
+      </c>
       <c r="KO133">
         <v>0.3659614</v>
       </c>
@@ -80892,6 +81081,9 @@
       </c>
       <c r="AHX133">
         <v>0.1572327</v>
+      </c>
+      <c r="AHY133">
+        <v>0.4385965</v>
       </c>
       <c r="AIB133">
         <v>1.4285714</v>
@@ -81273,6 +81465,9 @@
       <c r="KJ134">
         <v>0.5067568</v>
       </c>
+      <c r="KK134">
+        <v>0.7195186</v>
+      </c>
       <c r="KO134">
         <v>0.281841</v>
       </c>
@@ -81962,6 +82157,9 @@
       </c>
       <c r="AHX134">
         <v>0.154321</v>
+      </c>
+      <c r="AHY134">
+        <v>1.1934156</v>
       </c>
       <c r="AIB134">
         <v>1.3824885</v>
@@ -82145,6 +82343,9 @@
       <c r="DS135">
         <v>1.2228692</v>
       </c>
+      <c r="DU135">
+        <v>0.7899807</v>
+      </c>
       <c r="DW135">
         <v>0.2004793</v>
       </c>
@@ -82340,6 +82541,9 @@
       <c r="KJ135">
         <v>0.3131524</v>
       </c>
+      <c r="KK135">
+        <v>0.4876649</v>
+      </c>
       <c r="KO135">
         <v>0.2680463</v>
       </c>
@@ -82760,6 +82964,9 @@
       <c r="YY135">
         <v>0.1019368</v>
       </c>
+      <c r="ZD135">
+        <v>0.7246377000000001</v>
+      </c>
       <c r="ZL135">
         <v>0.3340429</v>
       </c>
@@ -83026,6 +83233,9 @@
       </c>
       <c r="AHX135">
         <v>0.1461988</v>
+      </c>
+      <c r="AHY135">
+        <v>1.095994</v>
       </c>
       <c r="AIB135">
         <v>1.3215859</v>
@@ -83176,6 +83386,9 @@
       <c r="CO136">
         <v>0.7974909999999999</v>
       </c>
+      <c r="CQ136">
+        <v>0.8333333000000001</v>
+      </c>
       <c r="CR136">
         <v>0.4458042</v>
       </c>
@@ -83206,6 +83419,9 @@
       <c r="DS136">
         <v>1.1687522</v>
       </c>
+      <c r="DU136">
+        <v>0.6704981</v>
+      </c>
       <c r="DW136">
         <v>0.1808517</v>
       </c>
@@ -83401,6 +83617,9 @@
       <c r="KJ136">
         <v>0.6673882</v>
       </c>
+      <c r="KK136">
+        <v>1.0707241</v>
+      </c>
       <c r="KO136">
         <v>0.302038</v>
       </c>
@@ -83821,6 +84040,9 @@
       <c r="YY136">
         <v>0.1075269</v>
       </c>
+      <c r="ZD136">
+        <v>0</v>
+      </c>
       <c r="ZL136">
         <v>0.4201744</v>
       </c>
@@ -83959,6 +84181,9 @@
       <c r="ACX136">
         <v>0.5524862</v>
       </c>
+      <c r="ADN136">
+        <v>1.3605442</v>
+      </c>
       <c r="ADP136">
         <v>0.6634795999999999</v>
       </c>
@@ -84084,6 +84309,9 @@
       </c>
       <c r="AHX136">
         <v>0.1501502</v>
+      </c>
+      <c r="AHY136">
+        <v>1.0261854</v>
       </c>
       <c r="AIB136">
         <v>1.3636364</v>
@@ -84234,6 +84462,9 @@
       <c r="CO137">
         <v>0.702847</v>
       </c>
+      <c r="CQ137">
+        <v>0.8928571</v>
+      </c>
       <c r="CR137">
         <v>0.5440505</v>
       </c>
@@ -84264,6 +84495,9 @@
       <c r="DS137">
         <v>1.0272308</v>
       </c>
+      <c r="DU137">
+        <v>0.6782946</v>
+      </c>
       <c r="DW137">
         <v>0.2552389</v>
       </c>
@@ -84459,6 +84693,9 @@
       <c r="KJ137">
         <v>0.6057269</v>
       </c>
+      <c r="KK137">
+        <v>1.0520487</v>
+      </c>
       <c r="KO137">
         <v>0.2584781</v>
       </c>
@@ -84669,6 +84906,9 @@
       <c r="RD137">
         <v>0.5770969</v>
       </c>
+      <c r="RG137">
+        <v>0</v>
+      </c>
       <c r="RI137">
         <v>0.8791209</v>
       </c>
@@ -84876,6 +85116,9 @@
       <c r="YY137">
         <v>0</v>
       </c>
+      <c r="ZD137">
+        <v>0</v>
+      </c>
       <c r="ZL137">
         <v>0.2519441</v>
       </c>
@@ -85014,6 +85257,9 @@
       <c r="ACX137">
         <v>0.5347594</v>
       </c>
+      <c r="ADN137">
+        <v>1.2820513</v>
+      </c>
       <c r="ADP137">
         <v>0.4775024</v>
       </c>
@@ -85139,6 +85385,9 @@
       </c>
       <c r="AHX137">
         <v>0</v>
+      </c>
+      <c r="AHY137">
+        <v>0.9259259</v>
       </c>
       <c r="AIB137">
         <v>1.4778325</v>
@@ -85289,6 +85538,9 @@
       <c r="CO138">
         <v>0.4858657</v>
       </c>
+      <c r="CQ138">
+        <v>1.5337423</v>
+      </c>
       <c r="CR138">
         <v>0.5504261</v>
       </c>
@@ -85307,6 +85559,9 @@
       <c r="DD138">
         <v>0.1374581</v>
       </c>
+      <c r="DE138">
+        <v>1.0268562</v>
+      </c>
       <c r="DK138">
         <v>0.2415459</v>
       </c>
@@ -85316,6 +85571,9 @@
       <c r="DS138">
         <v>1.0222385</v>
       </c>
+      <c r="DU138">
+        <v>0.6903353</v>
+      </c>
       <c r="DW138">
         <v>0.2287566</v>
       </c>
@@ -85496,6 +85754,9 @@
       <c r="JX138">
         <v>0.0416667</v>
       </c>
+      <c r="KA138">
+        <v>0.2777778</v>
+      </c>
       <c r="KB138">
         <v>0.5772758</v>
       </c>
@@ -85718,6 +85979,9 @@
       <c r="RD138">
         <v>0.6371603</v>
       </c>
+      <c r="RG138">
+        <v>0</v>
+      </c>
       <c r="RI138">
         <v>0.9078947000000001</v>
       </c>
@@ -85925,6 +86189,9 @@
       <c r="YY138">
         <v>0</v>
       </c>
+      <c r="ZD138">
+        <v>0.1655629</v>
+      </c>
       <c r="ZL138">
         <v>0.2506402</v>
       </c>
@@ -86063,6 +86330,9 @@
       <c r="ACX138">
         <v>0.5291005</v>
       </c>
+      <c r="ADN138">
+        <v>0.8385744000000001</v>
+      </c>
       <c r="ADP138">
         <v>0.4789946</v>
       </c>
@@ -86221,6 +86491,9 @@
       </c>
       <c r="AJA138">
         <v>0.1587302</v>
+      </c>
+      <c r="AJB138">
+        <v>2.3035136</v>
       </c>
     </row>
     <row r="139" spans="1:938">
@@ -86353,6 +86626,9 @@
       <c r="DD139">
         <v>0.1955864</v>
       </c>
+      <c r="DE139">
+        <v>1.3302034</v>
+      </c>
       <c r="DK139">
         <v>0.4045307</v>
       </c>
@@ -86362,6 +86638,9 @@
       <c r="DS139">
         <v>1.2620038</v>
       </c>
+      <c r="DU139">
+        <v>0.09578540000000001</v>
+      </c>
       <c r="DW139">
         <v>0.2041621</v>
       </c>
@@ -86542,6 +86821,9 @@
       <c r="JX139">
         <v>0.2086811</v>
       </c>
+      <c r="KA139">
+        <v>0.2962963</v>
+      </c>
       <c r="KB139">
         <v>0.6331639999999999</v>
       </c>
@@ -86764,6 +87046,9 @@
       <c r="RD139">
         <v>0.6676158</v>
       </c>
+      <c r="RG139">
+        <v>0</v>
+      </c>
       <c r="RI139">
         <v>0.9375</v>
       </c>
@@ -86971,6 +87256,9 @@
       <c r="YY139">
         <v>0</v>
       </c>
+      <c r="ZD139">
+        <v>0.1552795</v>
+      </c>
       <c r="ZL139">
         <v>0.2520417</v>
       </c>
@@ -87109,6 +87397,9 @@
       <c r="ACX139">
         <v>0.5291005</v>
       </c>
+      <c r="ADN139">
+        <v>1.4675052</v>
+      </c>
       <c r="ADP139">
         <v>0.2810497</v>
       </c>
@@ -87267,6 +87558,9 @@
       </c>
       <c r="AJA139">
         <v>0.1650165</v>
+      </c>
+      <c r="AJB139">
+        <v>2.9237756</v>
       </c>
     </row>
     <row r="140" spans="1:938">
@@ -87399,6 +87693,9 @@
       <c r="DD140">
         <v>0.1449796</v>
       </c>
+      <c r="DE140">
+        <v>1.3136289</v>
+      </c>
       <c r="DK140">
         <v>0.4045307</v>
       </c>
@@ -87450,6 +87747,9 @@
       <c r="FE140">
         <v>0.1725808</v>
       </c>
+      <c r="FF140">
+        <v>0.1783265</v>
+      </c>
       <c r="FG140">
         <v>0.5900723</v>
       </c>
@@ -87585,6 +87885,9 @@
       <c r="JX140">
         <v>0.4661017</v>
       </c>
+      <c r="KA140">
+        <v>0.3053435</v>
+      </c>
       <c r="KB140">
         <v>0.5067544</v>
       </c>
@@ -87621,6 +87924,9 @@
       <c r="LR140">
         <v>0.1515152</v>
       </c>
+      <c r="LU140">
+        <v>1.3959391</v>
+      </c>
       <c r="LW140">
         <v>0.944206</v>
       </c>
@@ -87804,6 +88110,9 @@
       <c r="RD140">
         <v>0.7986018</v>
       </c>
+      <c r="RG140">
+        <v>0</v>
+      </c>
       <c r="RI140">
         <v>0.9375</v>
       </c>
@@ -88149,6 +88458,9 @@
       <c r="ACX140">
         <v>0.5128205</v>
       </c>
+      <c r="ADN140">
+        <v>1.7932489</v>
+      </c>
       <c r="ADP140">
         <v>0.2471544</v>
       </c>
@@ -88304,6 +88616,12 @@
       </c>
       <c r="AIZ140">
         <v>0.3407574</v>
+      </c>
+      <c r="AJA140">
+        <v>0</v>
+      </c>
+      <c r="AJB140">
+        <v>3.4062284</v>
       </c>
     </row>
     <row r="141" spans="1:938">
@@ -88421,6 +88739,9 @@
       <c r="CR141">
         <v>0.1068376</v>
       </c>
+      <c r="CS141">
+        <v>0.6020278999999999</v>
+      </c>
       <c r="CT141">
         <v>0.7502518</v>
       </c>
@@ -88433,6 +88754,9 @@
       <c r="DD141">
         <v>0.1481524</v>
       </c>
+      <c r="DE141">
+        <v>1.3536379</v>
+      </c>
       <c r="DK141">
         <v>0.1731602</v>
       </c>
@@ -88484,6 +88808,9 @@
       <c r="FE141">
         <v>0.2641948</v>
       </c>
+      <c r="FF141">
+        <v>0.1820728</v>
+      </c>
       <c r="FG141">
         <v>0.6328781999999999</v>
       </c>
@@ -88619,6 +88946,9 @@
       <c r="JX141">
         <v>0.4537205</v>
       </c>
+      <c r="KA141">
+        <v>0.2816901</v>
+      </c>
       <c r="KB141">
         <v>0.5183546999999999</v>
       </c>
@@ -88655,6 +88985,9 @@
       <c r="LR141">
         <v>0.1557632</v>
       </c>
+      <c r="LU141">
+        <v>1.7073171</v>
+      </c>
       <c r="LW141">
         <v>0.990991</v>
       </c>
@@ -88829,12 +89162,18 @@
       <c r="QY141">
         <v>0.1026586</v>
       </c>
+      <c r="RA141">
+        <v>0.9306261</v>
+      </c>
       <c r="RB141">
         <v>0.3724957</v>
       </c>
       <c r="RD141">
         <v>0.760278</v>
       </c>
+      <c r="RG141">
+        <v>0</v>
+      </c>
       <c r="RI141">
         <v>0.5298913</v>
       </c>
@@ -89335,6 +89674,12 @@
       </c>
       <c r="AIZ141">
         <v>0.2786656</v>
+      </c>
+      <c r="AJA141">
+        <v>0</v>
+      </c>
+      <c r="AJB141">
+        <v>3.3690266</v>
       </c>
     </row>
     <row r="142" spans="1:938">
@@ -89452,6 +89797,9 @@
       <c r="CR142">
         <v>0.1128668</v>
       </c>
+      <c r="CS142">
+        <v>0.5997475</v>
+      </c>
       <c r="CT142">
         <v>1.0390295</v>
       </c>
@@ -89464,6 +89812,9 @@
       <c r="DD142">
         <v>0.1212066</v>
       </c>
+      <c r="DE142">
+        <v>0.8333333000000001</v>
+      </c>
       <c r="DK142">
         <v>0.1740644</v>
       </c>
@@ -89515,6 +89866,9 @@
       <c r="FE142">
         <v>0.4015466</v>
       </c>
+      <c r="FF142">
+        <v>0.1900585</v>
+      </c>
       <c r="FG142">
         <v>0.6332772</v>
       </c>
@@ -89650,6 +90004,9 @@
       <c r="JX142">
         <v>0.4655493</v>
       </c>
+      <c r="KA142">
+        <v>0</v>
+      </c>
       <c r="KB142">
         <v>0.5223751</v>
       </c>
@@ -89686,6 +90043,9 @@
       <c r="LR142">
         <v>0</v>
       </c>
+      <c r="LU142">
+        <v>1.5</v>
+      </c>
       <c r="LW142">
         <v>1.0180995</v>
       </c>
@@ -89729,7 +90089,7 @@
         <v>0.3603604</v>
       </c>
       <c r="MX142">
-        <v>0.09523810000000001</v>
+        <v>0.0947867</v>
       </c>
       <c r="MZ142">
         <v>0.3333275</v>
@@ -89860,6 +90220,9 @@
       <c r="QY142">
         <v>0.1073351</v>
       </c>
+      <c r="RA142">
+        <v>2.0425429</v>
+      </c>
       <c r="RB142">
         <v>0.3739451</v>
       </c>
@@ -89894,7 +90257,7 @@
         <v>0.2379441</v>
       </c>
       <c r="SG142">
-        <v>0.5088294</v>
+        <v>0.5087107</v>
       </c>
       <c r="SH142">
         <v>0.4907528</v>
@@ -90182,7 +90545,7 @@
         <v>0.1998992</v>
       </c>
       <c r="ACG142">
-        <v>0.1749606</v>
+        <v>0.1748752</v>
       </c>
       <c r="ACI142">
         <v>0.2075154</v>
@@ -90366,16 +90729,5205 @@
       </c>
       <c r="AIZ142">
         <v>0.3141005</v>
+      </c>
+      <c r="AJA142">
+        <v>0</v>
+      </c>
+      <c r="AJB142">
+        <v>3.8344788</v>
       </c>
     </row>
     <row r="143" spans="1:938">
       <c r="A143" t="s">
         <v>1080</v>
       </c>
+      <c r="D143">
+        <v>1.4066163</v>
+      </c>
+      <c r="H143">
+        <v>0.1938774</v>
+      </c>
+      <c r="J143">
+        <v>0.4166667</v>
+      </c>
+      <c r="K143">
+        <v>0.1039501</v>
+      </c>
+      <c r="L143">
+        <v>0.115835</v>
+      </c>
+      <c r="P143">
+        <v>0.1798497</v>
+      </c>
+      <c r="R143">
+        <v>0.7522124</v>
+      </c>
+      <c r="U143">
+        <v>0.4449369</v>
+      </c>
+      <c r="X143">
+        <v>0.3067485</v>
+      </c>
+      <c r="Z143">
+        <v>1.1443381</v>
+      </c>
+      <c r="AB143">
+        <v>0.6511761</v>
+      </c>
+      <c r="AD143">
+        <v>0.4464816</v>
+      </c>
+      <c r="AG143">
+        <v>0.1003482</v>
+      </c>
+      <c r="AI143">
+        <v>0.2582776</v>
+      </c>
+      <c r="AN143">
+        <v>0.2478293</v>
+      </c>
+      <c r="AV143">
+        <v>0.4458162</v>
+      </c>
+      <c r="AW143">
+        <v>0.4170243</v>
+      </c>
+      <c r="AX143">
+        <v>0.6490135</v>
+      </c>
+      <c r="BB143">
+        <v>0.4504505</v>
+      </c>
+      <c r="BC143">
+        <v>0.3164691</v>
+      </c>
+      <c r="BF143">
+        <v>0.6044243</v>
+      </c>
+      <c r="BH143">
+        <v>0.4295441</v>
+      </c>
+      <c r="BI143">
+        <v>0.3227154</v>
+      </c>
+      <c r="BJ143">
+        <v>0.1204819</v>
+      </c>
+      <c r="BM143">
+        <v>0.1212121</v>
+      </c>
+      <c r="BR143">
+        <v>0.4999843</v>
+      </c>
+      <c r="BS143">
+        <v>0.1789976</v>
+      </c>
+      <c r="BT143">
+        <v>0.4732337</v>
+      </c>
+      <c r="BW143">
+        <v>0.3807645</v>
+      </c>
+      <c r="BY143">
+        <v>0</v>
+      </c>
+      <c r="CC143">
+        <v>0.3205128</v>
+      </c>
+      <c r="CE143">
+        <v>0.122549</v>
+      </c>
+      <c r="CL143">
+        <v>0.2544529</v>
+      </c>
+      <c r="CM143">
+        <v>0.049482</v>
+      </c>
+      <c r="CN143">
+        <v>0.4727081</v>
+      </c>
+      <c r="CO143">
+        <v>0.1237624</v>
+      </c>
+      <c r="CR143">
+        <v>0.1179245</v>
+      </c>
+      <c r="CS143">
+        <v>0.4734848</v>
+      </c>
+      <c r="CT143">
+        <v>1.1520468</v>
+      </c>
+      <c r="CY143">
+        <v>0.4436599</v>
+      </c>
+      <c r="DC143">
+        <v>0.2618637</v>
+      </c>
+      <c r="DD143">
+        <v>0.127191</v>
+      </c>
+      <c r="DK143">
+        <v>0.1763668</v>
+      </c>
+      <c r="DN143">
+        <v>0.1183728</v>
+      </c>
+      <c r="DS143">
+        <v>1.4726967</v>
+      </c>
+      <c r="DW143">
+        <v>0.2273236</v>
+      </c>
+      <c r="DZ143">
+        <v>0.2141328</v>
+      </c>
+      <c r="EA143">
+        <v>0.5524862</v>
+      </c>
+      <c r="EK143">
+        <v>0.2041228</v>
+      </c>
+      <c r="EL143">
+        <v>0.424714</v>
+      </c>
+      <c r="EM143">
+        <v>0.9887006</v>
+      </c>
+      <c r="EN143">
+        <v>0.2777778</v>
+      </c>
+      <c r="ER143">
+        <v>0.1111111</v>
+      </c>
+      <c r="ET143">
+        <v>0.8740888999999999</v>
+      </c>
+      <c r="EZ143">
+        <v>0.3174603</v>
+      </c>
+      <c r="FA143">
+        <v>0.4036281</v>
+      </c>
+      <c r="FB143">
+        <v>0.2527291</v>
+      </c>
+      <c r="FD143">
+        <v>1.034142</v>
+      </c>
+      <c r="FE143">
+        <v>0.4044888</v>
+      </c>
+      <c r="FF143">
+        <v>0.1618123</v>
+      </c>
+      <c r="FG143">
+        <v>0.7663295</v>
+      </c>
+      <c r="FH143">
+        <v>0.7782101</v>
+      </c>
+      <c r="FI143">
+        <v>0.3013775</v>
+      </c>
+      <c r="FJ143">
+        <v>0.1587302</v>
+      </c>
+      <c r="FL143">
+        <v>0.3760591</v>
+      </c>
+      <c r="FO143">
+        <v>0.3755869</v>
+      </c>
+      <c r="FR143">
+        <v>0.9707904000000001</v>
+      </c>
+      <c r="FS143">
+        <v>0.2883514</v>
+      </c>
+      <c r="FY143">
+        <v>0.7223741</v>
+      </c>
+      <c r="GB143">
+        <v>1.017867</v>
+      </c>
+      <c r="GC143">
+        <v>0.299174</v>
+      </c>
+      <c r="GD143">
+        <v>0.06973500000000001</v>
+      </c>
+      <c r="GE143">
+        <v>0.5118876999999999</v>
+      </c>
+      <c r="GF143">
+        <v>0.9366279</v>
+      </c>
+      <c r="GJ143">
+        <v>0.2790768</v>
+      </c>
+      <c r="GS143">
+        <v>0.928579</v>
+      </c>
+      <c r="GV143">
+        <v>0.4533333</v>
+      </c>
+      <c r="HA143">
+        <v>0.4864436</v>
+      </c>
+      <c r="HF143">
+        <v>0.6542939</v>
+      </c>
+      <c r="HH143">
+        <v>2.0134228</v>
+      </c>
+      <c r="HK143">
+        <v>0.7125434</v>
+      </c>
+      <c r="HL143">
+        <v>0.3285246</v>
+      </c>
+      <c r="HN143">
+        <v>0.3068541</v>
+      </c>
+      <c r="HO143">
+        <v>1.099537</v>
+      </c>
+      <c r="HP143">
+        <v>0.5691057</v>
+      </c>
+      <c r="HT143">
+        <v>0.5401939</v>
+      </c>
+      <c r="HV143">
+        <v>0.3368025</v>
+      </c>
+      <c r="HX143">
+        <v>0.7629914</v>
+      </c>
+      <c r="HY143">
+        <v>0.2032022</v>
+      </c>
+      <c r="IC143">
+        <v>0.7437568</v>
+      </c>
+      <c r="IE143">
+        <v>0.6785714</v>
+      </c>
+      <c r="IH143">
+        <v>0.6849315</v>
+      </c>
+      <c r="II143">
+        <v>0.1494421</v>
+      </c>
+      <c r="IN143">
+        <v>0.3822049</v>
+      </c>
+      <c r="IR143">
+        <v>0.5206866999999999</v>
+      </c>
+      <c r="IS143">
+        <v>0.0324675</v>
+      </c>
+      <c r="IZ143">
+        <v>0</v>
+      </c>
+      <c r="JB143">
+        <v>1.0436137</v>
+      </c>
+      <c r="JF143">
+        <v>0.3571429</v>
+      </c>
+      <c r="JG143">
+        <v>0.4779172</v>
+      </c>
+      <c r="JK143">
+        <v>0.181869</v>
+      </c>
+      <c r="JO143">
+        <v>0.2326729</v>
+      </c>
+      <c r="JR143">
+        <v>0.2785023</v>
+      </c>
+      <c r="JS143">
+        <v>0.297619</v>
+      </c>
+      <c r="JX143">
+        <v>0.5870445</v>
+      </c>
+      <c r="KB143">
+        <v>0.54384</v>
+      </c>
+      <c r="KC143">
+        <v>1.0061059</v>
+      </c>
+      <c r="KI143">
+        <v>0.1492695</v>
+      </c>
+      <c r="KJ143">
+        <v>0.7335827</v>
+      </c>
+      <c r="KO143">
+        <v>0.2553011</v>
+      </c>
+      <c r="KV143">
+        <v>0.539886</v>
+      </c>
+      <c r="KW143">
+        <v>0.8506191</v>
+      </c>
+      <c r="LD143">
+        <v>0.5007145</v>
+      </c>
+      <c r="LG143">
+        <v>0.2012712</v>
+      </c>
+      <c r="LH143">
+        <v>0.5012531</v>
+      </c>
+      <c r="LO143">
+        <v>0.1219512</v>
+      </c>
+      <c r="LR143">
+        <v>0</v>
+      </c>
+      <c r="LU143">
+        <v>0.9259259</v>
+      </c>
+      <c r="LW143">
+        <v>0.6009615</v>
+      </c>
+      <c r="LX143">
+        <v>0</v>
+      </c>
+      <c r="LY143">
+        <v>0.1437126</v>
+      </c>
+      <c r="MA143">
+        <v>0.2201326</v>
+      </c>
+      <c r="MC143">
+        <v>0</v>
+      </c>
+      <c r="ME143">
+        <v>0</v>
+      </c>
+      <c r="MF143">
+        <v>0.4171604</v>
+      </c>
+      <c r="MG143">
+        <v>0.4519928</v>
+      </c>
+      <c r="MI143">
+        <v>0.3469281</v>
+      </c>
+      <c r="ML143">
+        <v>0.1203913</v>
+      </c>
+      <c r="MN143">
+        <v>0.5459203</v>
+      </c>
+      <c r="MS143">
+        <v>0.6180472</v>
+      </c>
+      <c r="MU143">
+        <v>0.4198966</v>
+      </c>
+      <c r="MW143">
+        <v>0.3236246</v>
+      </c>
+      <c r="MX143">
+        <v>0.2195122</v>
+      </c>
+      <c r="MZ143">
+        <v>0.2137148</v>
+      </c>
+      <c r="NC143">
+        <v>0.3082388</v>
+      </c>
+      <c r="NE143">
+        <v>0.7795699</v>
+      </c>
+      <c r="NM143">
+        <v>0.6526162</v>
+      </c>
+      <c r="NP143">
+        <v>0.4531902</v>
+      </c>
+      <c r="NQ143">
+        <v>1.0714286</v>
+      </c>
+      <c r="NT143">
+        <v>0.2222222</v>
+      </c>
+      <c r="NW143">
+        <v>0.7142857</v>
+      </c>
+      <c r="NY143">
+        <v>0.506993</v>
+      </c>
+      <c r="NZ143">
+        <v>0.9635475</v>
+      </c>
+      <c r="OD143">
+        <v>0.2210557</v>
+      </c>
+      <c r="OE143">
+        <v>0.2923938</v>
+      </c>
+      <c r="OJ143">
+        <v>0.5623722</v>
+      </c>
+      <c r="OL143">
+        <v>0.4606652</v>
+      </c>
+      <c r="ON143">
+        <v>0.7142857</v>
+      </c>
+      <c r="OP143">
+        <v>0.286533</v>
+      </c>
+      <c r="OQ143">
+        <v>0.2057613</v>
+      </c>
+      <c r="OR143">
+        <v>0.5773906</v>
+      </c>
+      <c r="OT143">
+        <v>0.813253</v>
+      </c>
+      <c r="OV143">
+        <v>0.7198917</v>
+      </c>
+      <c r="OX143">
+        <v>0.601557</v>
+      </c>
+      <c r="PB143">
+        <v>0.3217503</v>
+      </c>
+      <c r="PG143">
+        <v>0.1937984</v>
+      </c>
+      <c r="PJ143">
+        <v>0.0632511</v>
+      </c>
+      <c r="PK143">
+        <v>0.0720461</v>
+      </c>
+      <c r="PL143">
+        <v>0.8860931</v>
+      </c>
+      <c r="PM143">
+        <v>0.5180641</v>
+      </c>
+      <c r="PP143">
+        <v>0.3189921</v>
+      </c>
+      <c r="PR143">
+        <v>0.5402161</v>
+      </c>
+      <c r="PS143">
+        <v>0.2988317</v>
+      </c>
+      <c r="PY143">
+        <v>1.0715877</v>
+      </c>
+      <c r="QD143">
+        <v>0.2309671</v>
+      </c>
+      <c r="QE143">
+        <v>0.6622262</v>
+      </c>
+      <c r="QF143">
+        <v>0.4040404</v>
+      </c>
+      <c r="QK143">
+        <v>0.5234285</v>
+      </c>
+      <c r="QN143">
+        <v>0.3614397</v>
+      </c>
+      <c r="QO143">
+        <v>0.7159772</v>
+      </c>
+      <c r="QP143">
+        <v>0.6296984</v>
+      </c>
+      <c r="QS143">
+        <v>0.7236228</v>
+      </c>
+      <c r="QU143">
+        <v>1.6448326</v>
+      </c>
+      <c r="QV143">
+        <v>0.6848604</v>
+      </c>
+      <c r="QX143">
+        <v>0.3995271</v>
+      </c>
+      <c r="QY143">
+        <v>0.0800872</v>
+      </c>
+      <c r="RA143">
+        <v>2.1999122</v>
+      </c>
+      <c r="RB143">
+        <v>0.2914094</v>
+      </c>
+      <c r="RD143">
+        <v>0.7228168</v>
+      </c>
+      <c r="RI143">
+        <v>0.5993691</v>
+      </c>
+      <c r="RL143">
+        <v>0.2547771</v>
+      </c>
+      <c r="RQ143">
+        <v>0.375</v>
+      </c>
+      <c r="RT143">
+        <v>0.1742339</v>
+      </c>
+      <c r="RV143">
+        <v>0.2192982</v>
+      </c>
+      <c r="RX143">
+        <v>0.5246375</v>
+      </c>
+      <c r="RY143">
+        <v>0.2375516</v>
+      </c>
+      <c r="SA143">
+        <v>0.0855432</v>
+      </c>
+      <c r="SD143">
+        <v>0.3509741</v>
+      </c>
+      <c r="SG143">
+        <v>0.5833201</v>
+      </c>
+      <c r="SH143">
+        <v>0.5063451</v>
+      </c>
+      <c r="SI143">
+        <v>0.5942233</v>
+      </c>
+      <c r="SM143">
+        <v>0.3458498</v>
+      </c>
+      <c r="SO143">
+        <v>0.2440725</v>
+      </c>
+      <c r="SP143">
+        <v>0.2222222</v>
+      </c>
+      <c r="SR143">
+        <v>0.2284538</v>
+      </c>
+      <c r="SW143">
+        <v>0.124904</v>
+      </c>
+      <c r="SX143">
+        <v>0.5052265</v>
+      </c>
+      <c r="TS143">
+        <v>0.8248021</v>
+      </c>
+      <c r="TX143">
+        <v>0.2973211</v>
+      </c>
+      <c r="TY143">
+        <v>0.2641547</v>
+      </c>
+      <c r="UA143">
+        <v>0.5171209</v>
+      </c>
+      <c r="UE143">
+        <v>0.3776523</v>
+      </c>
+      <c r="UF143">
+        <v>0.608365</v>
+      </c>
+      <c r="UH143">
+        <v>0.483683</v>
+      </c>
+      <c r="UI143">
+        <v>0.1897019</v>
+      </c>
+      <c r="UK143">
+        <v>0.4126254</v>
+      </c>
+      <c r="UN143">
+        <v>0.3293502</v>
+      </c>
+      <c r="UP143">
+        <v>0.7234727</v>
+      </c>
+      <c r="US143">
+        <v>0.4495235</v>
+      </c>
+      <c r="UT143">
+        <v>0.3539408</v>
+      </c>
+      <c r="UU143">
+        <v>0.2873563</v>
+      </c>
+      <c r="UV143">
+        <v>0.06435009999999999</v>
+      </c>
+      <c r="UW143">
+        <v>0.8733308</v>
+      </c>
+      <c r="VA143">
+        <v>0.3092784</v>
+      </c>
+      <c r="VB143">
+        <v>0.469738</v>
+      </c>
+      <c r="VO143">
+        <v>0.08726</v>
+      </c>
+      <c r="VP143">
+        <v>0.3246753</v>
+      </c>
+      <c r="VS143">
+        <v>0.5441542</v>
+      </c>
+      <c r="VU143">
+        <v>0.8787197</v>
+      </c>
+      <c r="VW143">
+        <v>0.7968127</v>
+      </c>
+      <c r="VX143">
+        <v>1.0549391</v>
+      </c>
+      <c r="VY143">
+        <v>0.4114971</v>
+      </c>
+      <c r="WB143">
+        <v>0.6546275</v>
+      </c>
+      <c r="WF143">
+        <v>0.0650655</v>
+      </c>
+      <c r="WG143">
+        <v>0.6702908</v>
+      </c>
+      <c r="WL143">
+        <v>0.4203999</v>
+      </c>
+      <c r="WM143">
+        <v>0.545977</v>
+      </c>
+      <c r="WQ143">
+        <v>0.6155031</v>
+      </c>
+      <c r="WU143">
+        <v>0.0524146</v>
+      </c>
+      <c r="WW143">
+        <v>0.4321488</v>
+      </c>
+      <c r="WY143">
+        <v>0.6040991999999999</v>
+      </c>
+      <c r="WZ143">
+        <v>0.4561178</v>
+      </c>
+      <c r="XD143">
+        <v>0.6432183</v>
+      </c>
+      <c r="XF143">
+        <v>0.2166575</v>
+      </c>
+      <c r="XG143">
+        <v>0.3065322</v>
+      </c>
+      <c r="XL143">
+        <v>0.3870476</v>
+      </c>
+      <c r="XM143">
+        <v>0.4101077</v>
+      </c>
+      <c r="XT143">
+        <v>0.3591954</v>
+      </c>
+      <c r="XV143">
+        <v>0.4545188</v>
+      </c>
+      <c r="YB143">
+        <v>0.4303275</v>
+      </c>
+      <c r="YD143">
+        <v>0.045977</v>
+      </c>
+      <c r="YH143">
+        <v>0.2415459</v>
+      </c>
+      <c r="YN143">
+        <v>0.5789715</v>
+      </c>
+      <c r="YO143">
+        <v>0.2592883</v>
+      </c>
+      <c r="YQ143">
+        <v>0.2304748</v>
+      </c>
+      <c r="YR143">
+        <v>0.7381478</v>
+      </c>
+      <c r="YX143">
+        <v>0.2021752</v>
+      </c>
+      <c r="YY143">
+        <v>0.3921569</v>
+      </c>
+      <c r="ZL143">
+        <v>0.1365167</v>
+      </c>
+      <c r="ZM143">
+        <v>0.3724681</v>
+      </c>
+      <c r="ZO143">
+        <v>0.1210654</v>
+      </c>
+      <c r="ZR143">
+        <v>0.1422727</v>
+      </c>
+      <c r="ZS143">
+        <v>0.6849315</v>
+      </c>
+      <c r="ZV143">
+        <v>0.2883333</v>
+      </c>
+      <c r="ZW143">
+        <v>0.5451442</v>
+      </c>
+      <c r="ZX143">
+        <v>0.0536193</v>
+      </c>
+      <c r="ZZ143">
+        <v>0.528004</v>
+      </c>
+      <c r="AAB143">
+        <v>0.2964427</v>
+      </c>
+      <c r="AAC143">
+        <v>0.2818939</v>
+      </c>
+      <c r="AAD143">
+        <v>1.0289855</v>
+      </c>
+      <c r="AAF143">
+        <v>0.1007487</v>
+      </c>
+      <c r="AAH143">
+        <v>0.2093802</v>
+      </c>
+      <c r="AAJ143">
+        <v>0.1924677</v>
+      </c>
+      <c r="AAM143">
+        <v>0.3215251</v>
+      </c>
+      <c r="AAP143">
+        <v>0.5009251</v>
+      </c>
+      <c r="AAR143">
+        <v>0.2708142</v>
+      </c>
+      <c r="AAU143">
+        <v>0.2753304</v>
+      </c>
+      <c r="AAV143">
+        <v>0.2759424</v>
+      </c>
+      <c r="AAW143">
+        <v>0</v>
+      </c>
+      <c r="ABA143">
+        <v>0.2906977</v>
+      </c>
+      <c r="ABC143">
+        <v>0.6613757</v>
+      </c>
+      <c r="ABJ143">
+        <v>0.2409005</v>
+      </c>
+      <c r="ABL143">
+        <v>0.5392765</v>
+      </c>
+      <c r="ABM143">
+        <v>0.1851852</v>
+      </c>
+      <c r="ABN143">
+        <v>0.9832842000000001</v>
+      </c>
+      <c r="ABP143">
+        <v>0.2243953</v>
+      </c>
+      <c r="ABT143">
+        <v>0.5395131</v>
+      </c>
+      <c r="ABV143">
+        <v>0.1673303</v>
+      </c>
+      <c r="ABW143">
+        <v>0.2246589</v>
+      </c>
+      <c r="ABX143">
+        <v>0.3465248</v>
+      </c>
+      <c r="ABY143">
+        <v>0.1778656</v>
+      </c>
+      <c r="ABZ143">
+        <v>0.8962441</v>
+      </c>
+      <c r="ACA143">
+        <v>0.2916389</v>
+      </c>
+      <c r="ACE143">
+        <v>0.1967219</v>
+      </c>
+      <c r="ACG143">
+        <v>0.1312065</v>
+      </c>
+      <c r="ACI143">
+        <v>0.2099835</v>
+      </c>
+      <c r="ACJ143">
+        <v>0</v>
+      </c>
+      <c r="ACK143">
+        <v>0.094697</v>
+      </c>
+      <c r="ACM143">
+        <v>0.3482661</v>
+      </c>
+      <c r="ACN143">
+        <v>0.2374616</v>
+      </c>
+      <c r="ACP143">
+        <v>0.8806597</v>
+      </c>
+      <c r="ACU143">
+        <v>0.3705668</v>
+      </c>
+      <c r="ACW143">
+        <v>0.2134617</v>
+      </c>
+      <c r="ACX143">
+        <v>0.297619</v>
+      </c>
+      <c r="ADP143">
+        <v>0.2695507</v>
+      </c>
+      <c r="ADR143">
+        <v>1.2252854</v>
+      </c>
+      <c r="ADU143">
+        <v>1.0294118</v>
+      </c>
+      <c r="ADV143">
+        <v>0.0469925</v>
+      </c>
+      <c r="AEA143">
+        <v>0.6131046999999999</v>
+      </c>
+      <c r="AEB143">
+        <v>0.2941185</v>
+      </c>
+      <c r="AEF143">
+        <v>0.1898274</v>
+      </c>
+      <c r="AEG143">
+        <v>0.3056769</v>
+      </c>
+      <c r="AEH143">
+        <v>0.3523297</v>
+      </c>
+      <c r="AEI143">
+        <v>0.3077056</v>
+      </c>
+      <c r="AEJ143">
+        <v>0.09157510000000001</v>
+      </c>
+      <c r="AEL143">
+        <v>0.318218</v>
+      </c>
+      <c r="AEU143">
+        <v>0.2615473</v>
+      </c>
+      <c r="AEZ143">
+        <v>0.5458769</v>
+      </c>
+      <c r="AFD143">
+        <v>0.3066812</v>
+      </c>
+      <c r="AFG143">
+        <v>0.3789247</v>
+      </c>
+      <c r="AFH143">
+        <v>0.6439338</v>
+      </c>
+      <c r="AFK143">
+        <v>0.7063492</v>
+      </c>
+      <c r="AFL143">
+        <v>0.3921569</v>
+      </c>
+      <c r="AFN143">
+        <v>0</v>
+      </c>
+      <c r="AFT143">
+        <v>0.3576731</v>
+      </c>
+      <c r="AFU143">
+        <v>0.46369</v>
+      </c>
+      <c r="AFX143">
+        <v>0.3795721</v>
+      </c>
+      <c r="AGA143">
+        <v>0.7191392</v>
+      </c>
+      <c r="AGC143">
+        <v>0.5655787</v>
+      </c>
+      <c r="AGE143">
+        <v>0.4939432</v>
+      </c>
+      <c r="AGF143">
+        <v>1.0154062</v>
+      </c>
+      <c r="AGG143">
+        <v>0.3418803</v>
+      </c>
+      <c r="AGL143">
+        <v>0.3267974</v>
+      </c>
+      <c r="AGM143">
+        <v>0</v>
+      </c>
+      <c r="AGO143">
+        <v>0.1089325</v>
+      </c>
+      <c r="AGP143">
+        <v>0.2538709</v>
+      </c>
+      <c r="AGV143">
+        <v>1.7133956</v>
+      </c>
+      <c r="AHA143">
+        <v>0.4257631</v>
+      </c>
+      <c r="AHB143">
+        <v>0.6296855</v>
+      </c>
+      <c r="AHD143">
+        <v>0.3628118</v>
+      </c>
+      <c r="AHH143">
+        <v>0.2038043</v>
+      </c>
+      <c r="AHN143">
+        <v>0.2951931</v>
+      </c>
+      <c r="AHP143">
+        <v>0.4585153</v>
+      </c>
+      <c r="AHS143">
+        <v>1.0770975</v>
+      </c>
+      <c r="AHU143">
+        <v>0.5186722</v>
+      </c>
+      <c r="AHX143">
+        <v>0</v>
+      </c>
+      <c r="AIB143">
+        <v>0.7281552999999999</v>
+      </c>
+      <c r="AID143">
+        <v>0.6064114</v>
+      </c>
+      <c r="AIE143">
+        <v>0.6859756</v>
+      </c>
+      <c r="AIF143">
+        <v>0.3826531</v>
+      </c>
+      <c r="AII143">
+        <v>0.5011922</v>
+      </c>
+      <c r="AIP143">
+        <v>0.3155766</v>
+      </c>
+      <c r="AIT143">
+        <v>0.2180319</v>
+      </c>
+      <c r="AIV143">
+        <v>0.8681298</v>
+      </c>
+      <c r="AIY143">
+        <v>0.3083435</v>
+      </c>
+      <c r="AIZ143">
+        <v>0.3161729</v>
+      </c>
+      <c r="AJA143">
+        <v>0.1736111</v>
+      </c>
     </row>
     <row r="144" spans="1:938">
       <c r="A144" t="s">
         <v>1081</v>
+      </c>
+      <c r="D144">
+        <v>1.0653409</v>
+      </c>
+      <c r="H144">
+        <v>0.1384996</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0.1152074</v>
+      </c>
+      <c r="L144">
+        <v>0.1936259</v>
+      </c>
+      <c r="P144">
+        <v>0.1293052</v>
+      </c>
+      <c r="R144">
+        <v>0.5128205</v>
+      </c>
+      <c r="U144">
+        <v>0.3529327</v>
+      </c>
+      <c r="X144">
+        <v>0.3785489</v>
+      </c>
+      <c r="Z144">
+        <v>1.1581921</v>
+      </c>
+      <c r="AB144">
+        <v>0.5573418999999999</v>
+      </c>
+      <c r="AD144">
+        <v>0.6214803</v>
+      </c>
+      <c r="AG144">
+        <v>0.0999463</v>
+      </c>
+      <c r="AI144">
+        <v>0.0494584</v>
+      </c>
+      <c r="AN144">
+        <v>0.2372792</v>
+      </c>
+      <c r="AV144">
+        <v>0.3177966</v>
+      </c>
+      <c r="AW144">
+        <v>0.4919679</v>
+      </c>
+      <c r="AX144">
+        <v>0.1906318</v>
+      </c>
+      <c r="BB144">
+        <v>0.4666667</v>
+      </c>
+      <c r="BC144">
+        <v>0.4487366</v>
+      </c>
+      <c r="BF144">
+        <v>0.6109376</v>
+      </c>
+      <c r="BH144">
+        <v>0.3825204</v>
+      </c>
+      <c r="BI144">
+        <v>0.3304682</v>
+      </c>
+      <c r="BJ144">
+        <v>0.1269036</v>
+      </c>
+      <c r="BM144">
+        <v>0.1207729</v>
+      </c>
+      <c r="BR144">
+        <v>0.5684172</v>
+      </c>
+      <c r="BS144">
+        <v>0.436409</v>
+      </c>
+      <c r="BT144">
+        <v>0.5586871</v>
+      </c>
+      <c r="BW144">
+        <v>0.4025543</v>
+      </c>
+      <c r="BY144">
+        <v>0.3717472</v>
+      </c>
+      <c r="CC144">
+        <v>0.3412969</v>
+      </c>
+      <c r="CE144">
+        <v>0.1333333</v>
+      </c>
+      <c r="CL144">
+        <v>0.4320988</v>
+      </c>
+      <c r="CM144">
+        <v>0.0526462</v>
+      </c>
+      <c r="CN144">
+        <v>0.5763819</v>
+      </c>
+      <c r="CO144">
+        <v>0.1256281</v>
+      </c>
+      <c r="CR144">
+        <v>0</v>
+      </c>
+      <c r="CS144">
+        <v>0.4789272</v>
+      </c>
+      <c r="CT144">
+        <v>1.1643026</v>
+      </c>
+      <c r="CY144">
+        <v>0.6739113</v>
+      </c>
+      <c r="DC144">
+        <v>0.2630074</v>
+      </c>
+      <c r="DD144">
+        <v>0.1305205</v>
+      </c>
+      <c r="DK144">
+        <v>0.1796945</v>
+      </c>
+      <c r="DN144">
+        <v>0.1709145</v>
+      </c>
+      <c r="DS144">
+        <v>1.8756789</v>
+      </c>
+      <c r="DW144">
+        <v>0.1468853</v>
+      </c>
+      <c r="DZ144">
+        <v>0.3051106</v>
+      </c>
+      <c r="EA144">
+        <v>0.5671078000000001</v>
+      </c>
+      <c r="EK144">
+        <v>0.2086859</v>
+      </c>
+      <c r="EL144">
+        <v>0.5182932</v>
+      </c>
+      <c r="EM144">
+        <v>1.3043478</v>
+      </c>
+      <c r="EN144">
+        <v>0.286123</v>
+      </c>
+      <c r="ER144">
+        <v>0.1190476</v>
+      </c>
+      <c r="ET144">
+        <v>0.7072946</v>
+      </c>
+      <c r="EZ144">
+        <v>0.3278689</v>
+      </c>
+      <c r="FA144">
+        <v>0.5125338</v>
+      </c>
+      <c r="FB144">
+        <v>0.1968226</v>
+      </c>
+      <c r="FD144">
+        <v>0.9742656</v>
+      </c>
+      <c r="FE144">
+        <v>0.4653064</v>
+      </c>
+      <c r="FF144">
+        <v>0.1642036</v>
+      </c>
+      <c r="FG144">
+        <v>0.7022062</v>
+      </c>
+      <c r="FH144">
+        <v>1.0727969</v>
+      </c>
+      <c r="FI144">
+        <v>0.3101369</v>
+      </c>
+      <c r="FJ144">
+        <v>0.1609195</v>
+      </c>
+      <c r="FL144">
+        <v>0.434387</v>
+      </c>
+      <c r="FO144">
+        <v>0.5743879</v>
+      </c>
+      <c r="FR144">
+        <v>1.0501859</v>
+      </c>
+      <c r="FS144">
+        <v>0.2765519</v>
+      </c>
+      <c r="FY144">
+        <v>0.9426848</v>
+      </c>
+      <c r="GB144">
+        <v>1.3514102</v>
+      </c>
+      <c r="GC144">
+        <v>0.2610335</v>
+      </c>
+      <c r="GD144">
+        <v>0</v>
+      </c>
+      <c r="GE144">
+        <v>0.5149877</v>
+      </c>
+      <c r="GF144">
+        <v>0.9380124</v>
+      </c>
+      <c r="GJ144">
+        <v>0.305015</v>
+      </c>
+      <c r="GS144">
+        <v>1.1621993</v>
+      </c>
+      <c r="GV144">
+        <v>0.4748603</v>
+      </c>
+      <c r="HA144">
+        <v>0.4462165</v>
+      </c>
+      <c r="HF144">
+        <v>0.6031913</v>
+      </c>
+      <c r="HH144">
+        <v>2.173913</v>
+      </c>
+      <c r="HK144">
+        <v>0.742295</v>
+      </c>
+      <c r="HL144">
+        <v>0.311858</v>
+      </c>
+      <c r="HN144">
+        <v>0.3226818</v>
+      </c>
+      <c r="HO144">
+        <v>1.0939511</v>
+      </c>
+      <c r="HP144">
+        <v>0.6140350999999999</v>
+      </c>
+      <c r="HT144">
+        <v>0.5030171</v>
+      </c>
+      <c r="HV144">
+        <v>0.3504589</v>
+      </c>
+      <c r="HX144">
+        <v>0.7601632</v>
+      </c>
+      <c r="HY144">
+        <v>0.1492823</v>
+      </c>
+      <c r="IC144">
+        <v>1.5227021</v>
+      </c>
+      <c r="IE144">
+        <v>0.7175227</v>
+      </c>
+      <c r="IH144">
+        <v>0.6726457</v>
+      </c>
+      <c r="II144">
+        <v>0.1880824</v>
+      </c>
+      <c r="IN144">
+        <v>0.3315201</v>
+      </c>
+      <c r="IR144">
+        <v>0.5295549000000001</v>
+      </c>
+      <c r="IS144">
+        <v>0.0325839</v>
+      </c>
+      <c r="IZ144">
+        <v>0.3289474</v>
+      </c>
+      <c r="JB144">
+        <v>0.8300781</v>
+      </c>
+      <c r="JF144">
+        <v>0.8905852</v>
+      </c>
+      <c r="JG144">
+        <v>0.5468026</v>
+      </c>
+      <c r="JK144">
+        <v>0.1873109</v>
+      </c>
+      <c r="JO144">
+        <v>0.1635011</v>
+      </c>
+      <c r="JR144">
+        <v>0.3303187</v>
+      </c>
+      <c r="JS144">
+        <v>0.3220612</v>
+      </c>
+      <c r="JX144">
+        <v>0.7810321</v>
+      </c>
+      <c r="KB144">
+        <v>0.6265209</v>
+      </c>
+      <c r="KC144">
+        <v>0.9323044</v>
+      </c>
+      <c r="KI144">
+        <v>0.2106982</v>
+      </c>
+      <c r="KJ144">
+        <v>0.7542735</v>
+      </c>
+      <c r="KO144">
+        <v>0.2021599</v>
+      </c>
+      <c r="KV144">
+        <v>0.5866964</v>
+      </c>
+      <c r="KW144">
+        <v>0.8349306</v>
+      </c>
+      <c r="LD144">
+        <v>0.4679416</v>
+      </c>
+      <c r="LG144">
+        <v>0.2763795</v>
+      </c>
+      <c r="LH144">
+        <v>0.5333333</v>
+      </c>
+      <c r="LO144">
+        <v>0.1298701</v>
+      </c>
+      <c r="LR144">
+        <v>0.5025126</v>
+      </c>
+      <c r="LU144">
+        <v>0.390625</v>
+      </c>
+      <c r="LW144">
+        <v>1.092233</v>
+      </c>
+      <c r="LX144">
+        <v>0</v>
+      </c>
+      <c r="LY144">
+        <v>0</v>
+      </c>
+      <c r="MA144">
+        <v>0.2120805</v>
+      </c>
+      <c r="MC144">
+        <v>0</v>
+      </c>
+      <c r="ME144">
+        <v>0</v>
+      </c>
+      <c r="MF144">
+        <v>0.4327993</v>
+      </c>
+      <c r="MG144">
+        <v>0.3545226</v>
+      </c>
+      <c r="MI144">
+        <v>0.4469765</v>
+      </c>
+      <c r="ML144">
+        <v>0.1278977</v>
+      </c>
+      <c r="MN144">
+        <v>0.5504520000000001</v>
+      </c>
+      <c r="MS144">
+        <v>0.4886159</v>
+      </c>
+      <c r="MU144">
+        <v>0.2252252</v>
+      </c>
+      <c r="MW144">
+        <v>0.3215434</v>
+      </c>
+      <c r="MX144">
+        <v>0.2419355</v>
+      </c>
+      <c r="MZ144">
+        <v>0.1910406</v>
+      </c>
+      <c r="NC144">
+        <v>0.2124416</v>
+      </c>
+      <c r="NE144">
+        <v>0.8264463</v>
+      </c>
+      <c r="NM144">
+        <v>0.6369861999999999</v>
+      </c>
+      <c r="NP144">
+        <v>0.4614451</v>
+      </c>
+      <c r="NQ144">
+        <v>1.1538462</v>
+      </c>
+      <c r="NT144">
+        <v>0.1912568</v>
+      </c>
+      <c r="NW144">
+        <v>0.7777778</v>
+      </c>
+      <c r="NY144">
+        <v>1.1181818</v>
+      </c>
+      <c r="NZ144">
+        <v>0.9275023999999999</v>
+      </c>
+      <c r="OD144">
+        <v>0.2117709</v>
+      </c>
+      <c r="OE144">
+        <v>0.3693561</v>
+      </c>
+      <c r="OJ144">
+        <v>0.4343105</v>
+      </c>
+      <c r="OL144">
+        <v>0.4224639</v>
+      </c>
+      <c r="ON144">
+        <v>0.707635</v>
+      </c>
+      <c r="OP144">
+        <v>0.3021148</v>
+      </c>
+      <c r="OQ144">
+        <v>0.5010438</v>
+      </c>
+      <c r="OR144">
+        <v>0.7527087</v>
+      </c>
+      <c r="OT144">
+        <v>0.5246914</v>
+      </c>
+      <c r="OV144">
+        <v>0.6963297000000001</v>
+      </c>
+      <c r="OX144">
+        <v>0.6410256</v>
+      </c>
+      <c r="PB144">
+        <v>0.334672</v>
+      </c>
+      <c r="PG144">
+        <v>0.2020202</v>
+      </c>
+      <c r="PJ144">
+        <v>0.0641026</v>
+      </c>
+      <c r="PK144">
+        <v>0.0753012</v>
+      </c>
+      <c r="PL144">
+        <v>0.920073</v>
+      </c>
+      <c r="PM144">
+        <v>0.6552886999999999</v>
+      </c>
+      <c r="PP144">
+        <v>0.1985294</v>
+      </c>
+      <c r="PR144">
+        <v>0.5312869</v>
+      </c>
+      <c r="PS144">
+        <v>0.2106878</v>
+      </c>
+      <c r="PY144">
+        <v>0.891469</v>
+      </c>
+      <c r="QD144">
+        <v>0.3466655</v>
+      </c>
+      <c r="QE144">
+        <v>0.5276713</v>
+      </c>
+      <c r="QF144">
+        <v>0.4095563</v>
+      </c>
+      <c r="QK144">
+        <v>0.394961</v>
+      </c>
+      <c r="QN144">
+        <v>0.7345055</v>
+      </c>
+      <c r="QO144">
+        <v>0.8119113999999999</v>
+      </c>
+      <c r="QP144">
+        <v>0.6577117</v>
+      </c>
+      <c r="QS144">
+        <v>0.7665678</v>
+      </c>
+      <c r="QU144">
+        <v>1.4984709</v>
+      </c>
+      <c r="QV144">
+        <v>0.7686174</v>
+      </c>
+      <c r="QX144">
+        <v>0.3378828</v>
+      </c>
+      <c r="QY144">
+        <v>0.1216648</v>
+      </c>
+      <c r="RA144">
+        <v>1.9604631</v>
+      </c>
+      <c r="RB144">
+        <v>0.3038628</v>
+      </c>
+      <c r="RD144">
+        <v>0.7244223</v>
+      </c>
+      <c r="RI144">
+        <v>0.5647841</v>
+      </c>
+      <c r="RL144">
+        <v>0.2603037</v>
+      </c>
+      <c r="RQ144">
+        <v>0.3874539</v>
+      </c>
+      <c r="RT144">
+        <v>0.2027693</v>
+      </c>
+      <c r="RV144">
+        <v>0.2369668</v>
+      </c>
+      <c r="RX144">
+        <v>0.7582327</v>
+      </c>
+      <c r="RY144">
+        <v>0.2210073</v>
+      </c>
+      <c r="SA144">
+        <v>0.0821018</v>
+      </c>
+      <c r="SD144">
+        <v>0.4955031</v>
+      </c>
+      <c r="SG144">
+        <v>0.5758657</v>
+      </c>
+      <c r="SH144">
+        <v>0.5010282</v>
+      </c>
+      <c r="SI144">
+        <v>0.8008793</v>
+      </c>
+      <c r="SM144">
+        <v>0.3080082</v>
+      </c>
+      <c r="SO144">
+        <v>0.2552881</v>
+      </c>
+      <c r="SP144">
+        <v>0.3115265</v>
+      </c>
+      <c r="SR144">
+        <v>0.2621094</v>
+      </c>
+      <c r="SW144">
+        <v>0.095411</v>
+      </c>
+      <c r="SX144">
+        <v>0.0706714</v>
+      </c>
+      <c r="TS144">
+        <v>1.0072844</v>
+      </c>
+      <c r="TX144">
+        <v>0.2018221</v>
+      </c>
+      <c r="TY144">
+        <v>0.1804894</v>
+      </c>
+      <c r="UA144">
+        <v>0.6762295</v>
+      </c>
+      <c r="UE144">
+        <v>0.5010556</v>
+      </c>
+      <c r="UF144">
+        <v>0.627451</v>
+      </c>
+      <c r="UH144">
+        <v>0.4917062</v>
+      </c>
+      <c r="UI144">
+        <v>0.2969349</v>
+      </c>
+      <c r="UK144">
+        <v>0.3460764</v>
+      </c>
+      <c r="UN144">
+        <v>0.260674</v>
+      </c>
+      <c r="UP144">
+        <v>0.6076389</v>
+      </c>
+      <c r="US144">
+        <v>0.5278229</v>
+      </c>
+      <c r="UT144">
+        <v>0.3228583</v>
+      </c>
+      <c r="UU144">
+        <v>0.2923977</v>
+      </c>
+      <c r="UV144">
+        <v>0.0664011</v>
+      </c>
+      <c r="UW144">
+        <v>0.8604741</v>
+      </c>
+      <c r="VA144">
+        <v>0.3177966</v>
+      </c>
+      <c r="VB144">
+        <v>0.0949668</v>
+      </c>
+      <c r="VO144">
+        <v>0</v>
+      </c>
+      <c r="VP144">
+        <v>0.4478827</v>
+      </c>
+      <c r="VS144">
+        <v>0.2</v>
+      </c>
+      <c r="VU144">
+        <v>0.7196325</v>
+      </c>
+      <c r="VW144">
+        <v>0.8230453</v>
+      </c>
+      <c r="VX144">
+        <v>1.3272609</v>
+      </c>
+      <c r="VY144">
+        <v>0.4171203</v>
+      </c>
+      <c r="WB144">
+        <v>0.2707276</v>
+      </c>
+      <c r="WF144">
+        <v>0.0387877</v>
+      </c>
+      <c r="WG144">
+        <v>0.6895209</v>
+      </c>
+      <c r="WL144">
+        <v>0.4244646</v>
+      </c>
+      <c r="WM144">
+        <v>0.560472</v>
+      </c>
+      <c r="WQ144">
+        <v>0.6371627</v>
+      </c>
+      <c r="WU144">
+        <v>0.1335518</v>
+      </c>
+      <c r="WW144">
+        <v>0.3871579</v>
+      </c>
+      <c r="WY144">
+        <v>0.2333333</v>
+      </c>
+      <c r="WZ144">
+        <v>0.6103044</v>
+      </c>
+      <c r="XD144">
+        <v>0.6340924999999999</v>
+      </c>
+      <c r="XF144">
+        <v>0.1376758</v>
+      </c>
+      <c r="XG144">
+        <v>0.3176572</v>
+      </c>
+      <c r="XL144">
+        <v>0.4437049</v>
+      </c>
+      <c r="XM144">
+        <v>0.2509579</v>
+      </c>
+      <c r="XT144">
+        <v>0.3100775</v>
+      </c>
+      <c r="XV144">
+        <v>0.4039751</v>
+      </c>
+      <c r="YB144">
+        <v>0.3319465</v>
+      </c>
+      <c r="YD144">
+        <v>0.2298851</v>
+      </c>
+      <c r="YH144">
+        <v>0.2554278</v>
+      </c>
+      <c r="YN144">
+        <v>0.5460148</v>
+      </c>
+      <c r="YO144">
+        <v>0.5111256</v>
+      </c>
+      <c r="YQ144">
+        <v>0.2610461</v>
+      </c>
+      <c r="YR144">
+        <v>0.79567</v>
+      </c>
+      <c r="YX144">
+        <v>0.1834501</v>
+      </c>
+      <c r="YY144">
+        <v>0.4201681</v>
+      </c>
+      <c r="ZL144">
+        <v>0.2123308</v>
+      </c>
+      <c r="ZM144">
+        <v>0.3621169</v>
+      </c>
+      <c r="ZO144">
+        <v>0.122449</v>
+      </c>
+      <c r="ZR144">
+        <v>0.0430503</v>
+      </c>
+      <c r="ZS144">
+        <v>0.7326007</v>
+      </c>
+      <c r="ZV144">
+        <v>0.3087719</v>
+      </c>
+      <c r="ZW144">
+        <v>0.5669921</v>
+      </c>
+      <c r="ZX144">
+        <v>0.0547945</v>
+      </c>
+      <c r="ZZ144">
+        <v>0.487929</v>
+      </c>
+      <c r="AAB144">
+        <v>0.3012048</v>
+      </c>
+      <c r="AAC144">
+        <v>0.3455691</v>
+      </c>
+      <c r="AAD144">
+        <v>0.7478006</v>
+      </c>
+      <c r="AAF144">
+        <v>0.1042248</v>
+      </c>
+      <c r="AAH144">
+        <v>0.2131287</v>
+      </c>
+      <c r="AAJ144">
+        <v>0.2501074</v>
+      </c>
+      <c r="AAM144">
+        <v>0.1961127</v>
+      </c>
+      <c r="AAP144">
+        <v>0.5188088</v>
+      </c>
+      <c r="AAR144">
+        <v>0.5611226</v>
+      </c>
+      <c r="AAU144">
+        <v>0.3311258</v>
+      </c>
+      <c r="AAV144">
+        <v>0.2423682</v>
+      </c>
+      <c r="AAW144">
+        <v>0.1503962</v>
+      </c>
+      <c r="ABA144">
+        <v>0.2985075</v>
+      </c>
+      <c r="ABC144">
+        <v>0.7134703</v>
+      </c>
+      <c r="ABJ144">
+        <v>0.3194531</v>
+      </c>
+      <c r="ABL144">
+        <v>0.6256175</v>
+      </c>
+      <c r="ABM144">
+        <v>0.462963</v>
+      </c>
+      <c r="ABN144">
+        <v>0.9920635</v>
+      </c>
+      <c r="ABP144">
+        <v>0.2083163</v>
+      </c>
+      <c r="ABT144">
+        <v>0.3883093</v>
+      </c>
+      <c r="ABV144">
+        <v>0.1819366</v>
+      </c>
+      <c r="ABW144">
+        <v>0.237284</v>
+      </c>
+      <c r="ABX144">
+        <v>0.4945537</v>
+      </c>
+      <c r="ABY144">
+        <v>0.101626</v>
+      </c>
+      <c r="ABZ144">
+        <v>0.9023543000000001</v>
+      </c>
+      <c r="ACA144">
+        <v>0.2416571</v>
+      </c>
+      <c r="ACE144">
+        <v>0.1586437</v>
+      </c>
+      <c r="ACG144">
+        <v>0.1595019</v>
+      </c>
+      <c r="ACI144">
+        <v>0.1826308</v>
+      </c>
+      <c r="ACJ144">
+        <v>0</v>
+      </c>
+      <c r="ACK144">
+        <v>0</v>
+      </c>
+      <c r="ACM144">
+        <v>0.2644949</v>
+      </c>
+      <c r="ACN144">
+        <v>0.1788505</v>
+      </c>
+      <c r="ACP144">
+        <v>0.8580562</v>
+      </c>
+      <c r="ACU144">
+        <v>0.3577601</v>
+      </c>
+      <c r="ACW144">
+        <v>0.2606015</v>
+      </c>
+      <c r="ACX144">
+        <v>0.310559</v>
+      </c>
+      <c r="ADP144">
+        <v>0.1898909</v>
+      </c>
+      <c r="ADR144">
+        <v>2.0777876</v>
+      </c>
+      <c r="ADU144">
+        <v>1.028481</v>
+      </c>
+      <c r="ADV144">
+        <v>0.2446184</v>
+      </c>
+      <c r="AEA144">
+        <v>0.7631238</v>
+      </c>
+      <c r="AEB144">
+        <v>0.897907</v>
+      </c>
+      <c r="AEF144">
+        <v>0.339255</v>
+      </c>
+      <c r="AEG144">
+        <v>0.30837</v>
+      </c>
+      <c r="AEH144">
+        <v>0.3671454</v>
+      </c>
+      <c r="AEI144">
+        <v>0.3891668</v>
+      </c>
+      <c r="AEJ144">
+        <v>0.3891051</v>
+      </c>
+      <c r="AEL144">
+        <v>0.331675</v>
+      </c>
+      <c r="AEU144">
+        <v>0.2019188</v>
+      </c>
+      <c r="AEZ144">
+        <v>0.5458769</v>
+      </c>
+      <c r="AFD144">
+        <v>0.3424013</v>
+      </c>
+      <c r="AFG144">
+        <v>0.5258602</v>
+      </c>
+      <c r="AFH144">
+        <v>0.664264</v>
+      </c>
+      <c r="AFK144">
+        <v>0.7253463999999999</v>
+      </c>
+      <c r="AFL144">
+        <v>0.5532503</v>
+      </c>
+      <c r="AFN144">
+        <v>0</v>
+      </c>
+      <c r="AFT144">
+        <v>0.2752322</v>
+      </c>
+      <c r="AFU144">
+        <v>0.3931999</v>
+      </c>
+      <c r="AFX144">
+        <v>0.3348214</v>
+      </c>
+      <c r="AGA144">
+        <v>0.7506129</v>
+      </c>
+      <c r="AGC144">
+        <v>0.5583037</v>
+      </c>
+      <c r="AGE144">
+        <v>0.3739892</v>
+      </c>
+      <c r="AGF144">
+        <v>1.0327635</v>
+      </c>
+      <c r="AGG144">
+        <v>0.2197802</v>
+      </c>
+      <c r="AGL144">
+        <v>0.3191489</v>
+      </c>
+      <c r="AGM144">
+        <v>0.0826672</v>
+      </c>
+      <c r="AGO144">
+        <v>0.2913753</v>
+      </c>
+      <c r="AGP144">
+        <v>0.2091938</v>
+      </c>
+      <c r="AGV144">
+        <v>1.2345679</v>
+      </c>
+      <c r="AHA144">
+        <v>0.453601</v>
+      </c>
+      <c r="AHB144">
+        <v>0.6804369</v>
+      </c>
+      <c r="AHD144">
+        <v>0.3585434</v>
+      </c>
+      <c r="AHH144">
+        <v>0.2124646</v>
+      </c>
+      <c r="AHN144">
+        <v>0.338227</v>
+      </c>
+      <c r="AHP144">
+        <v>0.467706</v>
+      </c>
+      <c r="AHS144">
+        <v>0.8365508</v>
+      </c>
+      <c r="AHU144">
+        <v>0.6396588</v>
+      </c>
+      <c r="AHX144">
+        <v>0</v>
+      </c>
+      <c r="AIB144">
+        <v>0.7425743</v>
+      </c>
+      <c r="AID144">
+        <v>0.626679</v>
+      </c>
+      <c r="AIE144">
+        <v>0.6191950000000001</v>
+      </c>
+      <c r="AIF144">
+        <v>0.2280349</v>
+      </c>
+      <c r="AII144">
+        <v>0.4257354</v>
+      </c>
+      <c r="AIP144">
+        <v>0.3627167</v>
+      </c>
+      <c r="AIT144">
+        <v>0.2850159</v>
+      </c>
+      <c r="AIV144">
+        <v>0.616964</v>
+      </c>
+      <c r="AIY144">
+        <v>0.3174043</v>
+      </c>
+      <c r="AIZ144">
+        <v>0.478681</v>
+      </c>
+      <c r="AJA144">
+        <v>0.1658375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:936">
+      <c r="A145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D145">
+        <v>0.982801</v>
+      </c>
+      <c r="H145">
+        <v>0.099618</v>
+      </c>
+      <c r="J145">
+        <v>0.06435009999999999</v>
+      </c>
+      <c r="K145">
+        <v>0.1259446</v>
+      </c>
+      <c r="L145">
+        <v>0.2766572</v>
+      </c>
+      <c r="P145">
+        <v>0.1503256</v>
+      </c>
+      <c r="R145">
+        <v>0.4918033</v>
+      </c>
+      <c r="U145">
+        <v>0.4040598</v>
+      </c>
+      <c r="X145">
+        <v>0.3908795</v>
+      </c>
+      <c r="Z145">
+        <v>1.5438165</v>
+      </c>
+      <c r="AB145">
+        <v>0.5664488</v>
+      </c>
+      <c r="AD145">
+        <v>0.3850445</v>
+      </c>
+      <c r="AG145">
+        <v>0.1438506</v>
+      </c>
+      <c r="AI145">
+        <v>0.1246302</v>
+      </c>
+      <c r="AN145">
+        <v>0.3326499</v>
+      </c>
+      <c r="AV145">
+        <v>0.4811715</v>
+      </c>
+      <c r="AW145">
+        <v>0.5321115</v>
+      </c>
+      <c r="AX145">
+        <v>0.2938034</v>
+      </c>
+      <c r="BB145">
+        <v>0.2978723</v>
+      </c>
+      <c r="BC145">
+        <v>0.6037903</v>
+      </c>
+      <c r="BF145">
+        <v>0.6571576</v>
+      </c>
+      <c r="BH145">
+        <v>0.3167945</v>
+      </c>
+      <c r="BI145">
+        <v>0.278543</v>
+      </c>
+      <c r="BJ145">
+        <v>0.1295337</v>
+      </c>
+      <c r="BM145">
+        <v>0.1153403</v>
+      </c>
+      <c r="BR145">
+        <v>0.6064342</v>
+      </c>
+      <c r="BS145">
+        <v>0.4021448</v>
+      </c>
+      <c r="BT145">
+        <v>0.4166667</v>
+      </c>
+      <c r="BW145">
+        <v>0.4615365</v>
+      </c>
+      <c r="BY145">
+        <v>0.6097561</v>
+      </c>
+      <c r="CC145">
+        <v>0</v>
+      </c>
+      <c r="CE145">
+        <v>0.1351351</v>
+      </c>
+      <c r="CL145">
+        <v>0.4050926</v>
+      </c>
+      <c r="CM145">
+        <v>0.0496032</v>
+      </c>
+      <c r="CN145">
+        <v>0.8135868000000001</v>
+      </c>
+      <c r="CO145">
+        <v>0.6377551</v>
+      </c>
+      <c r="CR145">
+        <v>0</v>
+      </c>
+      <c r="CS145">
+        <v>0.4826255</v>
+      </c>
+      <c r="CT145">
+        <v>0.8573141</v>
+      </c>
+      <c r="CY145">
+        <v>0.6110397</v>
+      </c>
+      <c r="DC145">
+        <v>0.3159236</v>
+      </c>
+      <c r="DD145">
+        <v>0.3608361</v>
+      </c>
+      <c r="DK145">
+        <v>0.3558052</v>
+      </c>
+      <c r="DN145">
+        <v>0.1255155</v>
+      </c>
+      <c r="DS145">
+        <v>2.3692874</v>
+      </c>
+      <c r="DW145">
+        <v>0.2128322</v>
+      </c>
+      <c r="DZ145">
+        <v>0.3072197</v>
+      </c>
+      <c r="EA145">
+        <v>0.5747126</v>
+      </c>
+      <c r="EK145">
+        <v>0.0614538</v>
+      </c>
+      <c r="EL145">
+        <v>0.7030444</v>
+      </c>
+      <c r="EM145">
+        <v>1.3333333</v>
+      </c>
+      <c r="EN145">
+        <v>0.3205128</v>
+      </c>
+      <c r="ER145">
+        <v>0.125</v>
+      </c>
+      <c r="ET145">
+        <v>0.6113627</v>
+      </c>
+      <c r="EZ145">
+        <v>0.660066</v>
+      </c>
+      <c r="FA145">
+        <v>0.5248592</v>
+      </c>
+      <c r="FB145">
+        <v>0.3529104</v>
+      </c>
+      <c r="FD145">
+        <v>1.0090322</v>
+      </c>
+      <c r="FE145">
+        <v>0.4694665</v>
+      </c>
+      <c r="FG145">
+        <v>0.7722271000000001</v>
+      </c>
+      <c r="FH145">
+        <v>0.7407407</v>
+      </c>
+      <c r="FI145">
+        <v>0.3115051</v>
+      </c>
+      <c r="FJ145">
+        <v>0.3521127</v>
+      </c>
+      <c r="FL145">
+        <v>0.4311972</v>
+      </c>
+      <c r="FO145">
+        <v>0.5980392</v>
+      </c>
+      <c r="FR145">
+        <v>1.1078431</v>
+      </c>
+      <c r="FS145">
+        <v>0.3877465</v>
+      </c>
+      <c r="FY145">
+        <v>1.0693887</v>
+      </c>
+      <c r="GB145">
+        <v>1.3383747</v>
+      </c>
+      <c r="GC145">
+        <v>0.3702399</v>
+      </c>
+      <c r="GD145">
+        <v>0</v>
+      </c>
+      <c r="GE145">
+        <v>0.5517491</v>
+      </c>
+      <c r="GF145">
+        <v>0.8771741</v>
+      </c>
+      <c r="GJ145">
+        <v>0.3062154</v>
+      </c>
+      <c r="GS145">
+        <v>1.2821965</v>
+      </c>
+      <c r="GV145">
+        <v>0.4956268</v>
+      </c>
+      <c r="HA145">
+        <v>0.4412282</v>
+      </c>
+      <c r="HF145">
+        <v>0.6107576</v>
+      </c>
+      <c r="HH145">
+        <v>2.3076923</v>
+      </c>
+      <c r="HK145">
+        <v>0.8101822</v>
+      </c>
+      <c r="HL145">
+        <v>0.1235959</v>
+      </c>
+      <c r="HN145">
+        <v>0.3834168</v>
+      </c>
+      <c r="HO145">
+        <v>1.0814249</v>
+      </c>
+      <c r="HP145">
+        <v>0.0886525</v>
+      </c>
+      <c r="HT145">
+        <v>0.3902116</v>
+      </c>
+      <c r="HV145">
+        <v>0.4119707</v>
+      </c>
+      <c r="HX145">
+        <v>0.7809005999999999</v>
+      </c>
+      <c r="HY145">
+        <v>0.1851731</v>
+      </c>
+      <c r="IC145">
+        <v>1.2033694</v>
+      </c>
+      <c r="IE145">
+        <v>1.0252366</v>
+      </c>
+      <c r="IH145">
+        <v>0.6726457</v>
+      </c>
+      <c r="II145">
+        <v>0.2000166</v>
+      </c>
+      <c r="IN145">
+        <v>0.260178</v>
+      </c>
+      <c r="IR145">
+        <v>0.7137457</v>
+      </c>
+      <c r="IS145">
+        <v>0.1230719</v>
+      </c>
+      <c r="IZ145">
+        <v>0.3504673</v>
+      </c>
+      <c r="JB145">
+        <v>0.8638211</v>
+      </c>
+      <c r="JF145">
+        <v>0.5398111</v>
+      </c>
+      <c r="JG145">
+        <v>0.5701441</v>
+      </c>
+      <c r="JK145">
+        <v>0.24699</v>
+      </c>
+      <c r="JO145">
+        <v>0.1522798</v>
+      </c>
+      <c r="JR145">
+        <v>0.2754975</v>
+      </c>
+      <c r="JS145">
+        <v>0.3367003</v>
+      </c>
+      <c r="JX145">
+        <v>0.8779762</v>
+      </c>
+      <c r="KB145">
+        <v>0.4595595</v>
+      </c>
+      <c r="KC145">
+        <v>1.000689</v>
+      </c>
+      <c r="KI145">
+        <v>0.2188137</v>
+      </c>
+      <c r="KJ145">
+        <v>0.5157715</v>
+      </c>
+      <c r="KO145">
+        <v>0.1445869</v>
+      </c>
+      <c r="KV145">
+        <v>0.6600654</v>
+      </c>
+      <c r="KW145">
+        <v>0.5559263</v>
+      </c>
+      <c r="LD145">
+        <v>0.6337173</v>
+      </c>
+      <c r="LG145">
+        <v>0.2817002</v>
+      </c>
+      <c r="LH145">
+        <v>0.4</v>
+      </c>
+      <c r="LO145">
+        <v>0.1388889</v>
+      </c>
+      <c r="LR145">
+        <v>0.4926108</v>
+      </c>
+      <c r="LW145">
+        <v>1.076555</v>
+      </c>
+      <c r="LX145">
+        <v>0</v>
+      </c>
+      <c r="LY145">
+        <v>0.1085776</v>
+      </c>
+      <c r="MA145">
+        <v>0.2084858</v>
+      </c>
+      <c r="MC145">
+        <v>0</v>
+      </c>
+      <c r="ME145">
+        <v>0.6097561</v>
+      </c>
+      <c r="MF145">
+        <v>0.2826144</v>
+      </c>
+      <c r="MG145">
+        <v>0.363217</v>
+      </c>
+      <c r="MI145">
+        <v>0.545753</v>
+      </c>
+      <c r="ML145">
+        <v>0</v>
+      </c>
+      <c r="MN145">
+        <v>0.574009</v>
+      </c>
+      <c r="MS145">
+        <v>0.4709876</v>
+      </c>
+      <c r="MU145">
+        <v>0.2982107</v>
+      </c>
+      <c r="MW145">
+        <v>0.3215434</v>
+      </c>
+      <c r="MX145">
+        <v>0.2419355</v>
+      </c>
+      <c r="MZ145">
+        <v>0.1336856</v>
+      </c>
+      <c r="NC145">
+        <v>0.2233411</v>
+      </c>
+      <c r="NE145">
+        <v>0.4708098</v>
+      </c>
+      <c r="NM145">
+        <v>0.6446051</v>
+      </c>
+      <c r="NP145">
+        <v>0.7019171</v>
+      </c>
+      <c r="NQ145">
+        <v>0</v>
+      </c>
+      <c r="NT145">
+        <v>0.1939058</v>
+      </c>
+      <c r="NW145">
+        <v>0.7241379</v>
+      </c>
+      <c r="NY145">
+        <v>1.1918605</v>
+      </c>
+      <c r="NZ145">
+        <v>1.0845294</v>
+      </c>
+      <c r="OD145">
+        <v>0.3324663</v>
+      </c>
+      <c r="OE145">
+        <v>0.3253167</v>
+      </c>
+      <c r="OJ145">
+        <v>0.4127967</v>
+      </c>
+      <c r="OL145">
+        <v>0.2646338</v>
+      </c>
+      <c r="ON145">
+        <v>0.6736243</v>
+      </c>
+      <c r="OP145">
+        <v>0.1592357</v>
+      </c>
+      <c r="OQ145">
+        <v>0.5286343999999999</v>
+      </c>
+      <c r="OR145">
+        <v>0.9425705</v>
+      </c>
+      <c r="OT145">
+        <v>0.4792332</v>
+      </c>
+      <c r="OV145">
+        <v>0.5730118</v>
+      </c>
+      <c r="OX145">
+        <v>0.4581359</v>
+      </c>
+      <c r="PB145">
+        <v>0.4231771</v>
+      </c>
+      <c r="PG145">
+        <v>0.4264392</v>
+      </c>
+      <c r="PJ145">
+        <v>0</v>
+      </c>
+      <c r="PK145">
+        <v>0.07739939999999999</v>
+      </c>
+      <c r="PL145">
+        <v>0.9716659</v>
+      </c>
+      <c r="PM145">
+        <v>0.7043189</v>
+      </c>
+      <c r="PP145">
+        <v>0.3549256</v>
+      </c>
+      <c r="PR145">
+        <v>0.5518087</v>
+      </c>
+      <c r="PS145">
+        <v>0.243745</v>
+      </c>
+      <c r="PY145">
+        <v>0.7322155</v>
+      </c>
+      <c r="QD145">
+        <v>0.4519178</v>
+      </c>
+      <c r="QE145">
+        <v>0.4628898</v>
+      </c>
+      <c r="QF145">
+        <v>0.3424658</v>
+      </c>
+      <c r="QK145">
+        <v>0.35337</v>
+      </c>
+      <c r="QN145">
+        <v>0.7915377</v>
+      </c>
+      <c r="QO145">
+        <v>0.6401933</v>
+      </c>
+      <c r="QP145">
+        <v>0.4483737</v>
+      </c>
+      <c r="QS145">
+        <v>1.2346381</v>
+      </c>
+      <c r="QU145">
+        <v>1.4027149</v>
+      </c>
+      <c r="QV145">
+        <v>0.8073917</v>
+      </c>
+      <c r="QX145">
+        <v>0.3870903</v>
+      </c>
+      <c r="QY145">
+        <v>0.1648006</v>
+      </c>
+      <c r="RA145">
+        <v>1.9251394</v>
+      </c>
+      <c r="RB145">
+        <v>0.5418519000000001</v>
+      </c>
+      <c r="RD145">
+        <v>0.6380316</v>
+      </c>
+      <c r="RI145">
+        <v>0.619213</v>
+      </c>
+      <c r="RL145">
+        <v>0.3636364</v>
+      </c>
+      <c r="RQ145">
+        <v>0.0886525</v>
+      </c>
+      <c r="RT145">
+        <v>0.470418</v>
+      </c>
+      <c r="RV145">
+        <v>0.2427184</v>
+      </c>
+      <c r="RX145">
+        <v>0.7483198</v>
+      </c>
+      <c r="RY145">
+        <v>0.1473001</v>
+      </c>
+      <c r="SA145">
+        <v>0.07806399999999999</v>
+      </c>
+      <c r="SD145">
+        <v>0.6344307</v>
+      </c>
+      <c r="SG145">
+        <v>0.6131765</v>
+      </c>
+      <c r="SH145">
+        <v>0.5102565</v>
+      </c>
+      <c r="SI145">
+        <v>0.7722258</v>
+      </c>
+      <c r="SM145">
+        <v>0.3198294</v>
+      </c>
+      <c r="SO145">
+        <v>0.2604167</v>
+      </c>
+      <c r="SP145">
+        <v>0.4125413</v>
+      </c>
+      <c r="SR145">
+        <v>0.2684242</v>
+      </c>
+      <c r="SW145">
+        <v>0.2481221</v>
+      </c>
+      <c r="SX145">
+        <v>0.07352939999999999</v>
+      </c>
+      <c r="TS145">
+        <v>1.2527549</v>
+      </c>
+      <c r="TX145">
+        <v>0.2138805</v>
+      </c>
+      <c r="TY145">
+        <v>0.0857131</v>
+      </c>
+      <c r="UA145">
+        <v>0.6875</v>
+      </c>
+      <c r="UE145">
+        <v>0.5092302</v>
+      </c>
+      <c r="UF145">
+        <v>0.5087015</v>
+      </c>
+      <c r="UH145">
+        <v>0.5390995</v>
+      </c>
+      <c r="UI145">
+        <v>0.6492248</v>
+      </c>
+      <c r="UK145">
+        <v>0.3129272</v>
+      </c>
+      <c r="UN145">
+        <v>0.258445</v>
+      </c>
+      <c r="UP145">
+        <v>0.4370629</v>
+      </c>
+      <c r="US145">
+        <v>0.6116943</v>
+      </c>
+      <c r="UT145">
+        <v>0.3257418</v>
+      </c>
+      <c r="UU145">
+        <v>0.4246285</v>
+      </c>
+      <c r="UV145">
+        <v>0.06901309999999999</v>
+      </c>
+      <c r="UW145">
+        <v>0.8875267</v>
+      </c>
+      <c r="VA145">
+        <v>0.2796421</v>
+      </c>
+      <c r="VB145">
+        <v>0.09803920000000001</v>
+      </c>
+      <c r="VO145">
+        <v>0</v>
+      </c>
+      <c r="VP145">
+        <v>0.1168224</v>
+      </c>
+      <c r="VS145">
+        <v>0.203252</v>
+      </c>
+      <c r="VU145">
+        <v>0.709418</v>
+      </c>
+      <c r="VW145">
+        <v>0.862069</v>
+      </c>
+      <c r="VX145">
+        <v>1.6078103</v>
+      </c>
+      <c r="VY145">
+        <v>0.5053877</v>
+      </c>
+      <c r="WB145">
+        <v>0.3455818</v>
+      </c>
+      <c r="WF145">
+        <v>0.0577308</v>
+      </c>
+      <c r="WG145">
+        <v>0.787798</v>
+      </c>
+      <c r="WL145">
+        <v>0.4367356</v>
+      </c>
+      <c r="WM145">
+        <v>0.5688623</v>
+      </c>
+      <c r="WQ145">
+        <v>0.5033879</v>
+      </c>
+      <c r="WU145">
+        <v>0.1370664</v>
+      </c>
+      <c r="WW145">
+        <v>0.4327249</v>
+      </c>
+      <c r="WY145">
+        <v>0.3202847</v>
+      </c>
+      <c r="WZ145">
+        <v>0.455806</v>
+      </c>
+      <c r="XD145">
+        <v>0.485003</v>
+      </c>
+      <c r="XF145">
+        <v>0.21092</v>
+      </c>
+      <c r="XG145">
+        <v>0.3518263</v>
+      </c>
+      <c r="XL145">
+        <v>0.4662167</v>
+      </c>
+      <c r="XM145">
+        <v>0.3441734</v>
+      </c>
+      <c r="XT145">
+        <v>0.1587302</v>
+      </c>
+      <c r="XV145">
+        <v>0.4714042</v>
+      </c>
+      <c r="YB145">
+        <v>0.2905</v>
+      </c>
+      <c r="YD145">
+        <v>0.2439024</v>
+      </c>
+      <c r="YH145">
+        <v>0.2710027</v>
+      </c>
+      <c r="YN145">
+        <v>0.5503147</v>
+      </c>
+      <c r="YO145">
+        <v>0.5591791</v>
+      </c>
+      <c r="YQ145">
+        <v>0.2769204</v>
+      </c>
+      <c r="YR145">
+        <v>0.7733999</v>
+      </c>
+      <c r="YX145">
+        <v>0.1699703</v>
+      </c>
+      <c r="YY145">
+        <v>0.8403361</v>
+      </c>
+      <c r="ZL145">
+        <v>0.2438176</v>
+      </c>
+      <c r="ZM145">
+        <v>0.3049388</v>
+      </c>
+      <c r="ZO145">
+        <v>0.297275</v>
+      </c>
+      <c r="ZR145">
+        <v>0.1077818</v>
+      </c>
+      <c r="ZS145">
+        <v>0.7246377000000001</v>
+      </c>
+      <c r="ZV145">
+        <v>0.2980084</v>
+      </c>
+      <c r="ZW145">
+        <v>0.525114</v>
+      </c>
+      <c r="ZX145">
+        <v>0.3399433</v>
+      </c>
+      <c r="ZZ145">
+        <v>0.5942411</v>
+      </c>
+      <c r="AAB145">
+        <v>0.2884615</v>
+      </c>
+      <c r="AAC145">
+        <v>0.3644728</v>
+      </c>
+      <c r="AAD145">
+        <v>0.4740061</v>
+      </c>
+      <c r="AAF145">
+        <v>0.2848623</v>
+      </c>
+      <c r="AAH145">
+        <v>0.2153316</v>
+      </c>
+      <c r="AAJ145">
+        <v>0.2848689</v>
+      </c>
+      <c r="AAM145">
+        <v>0.1856521</v>
+      </c>
+      <c r="AAP145">
+        <v>0.5475486000000001</v>
+      </c>
+      <c r="AAR145">
+        <v>0.5953744</v>
+      </c>
+      <c r="AAU145">
+        <v>0.3348214</v>
+      </c>
+      <c r="AAV145">
+        <v>0.1785352</v>
+      </c>
+      <c r="AAW145">
+        <v>0.1563298</v>
+      </c>
+      <c r="ABA145">
+        <v>0.310559</v>
+      </c>
+      <c r="ABC145">
+        <v>0.5993151</v>
+      </c>
+      <c r="ABJ145">
+        <v>0.2195332</v>
+      </c>
+      <c r="ABL145">
+        <v>0.4674145</v>
+      </c>
+      <c r="ABM145">
+        <v>0.4748338</v>
+      </c>
+      <c r="ABN145">
+        <v>1.0288066</v>
+      </c>
+      <c r="ABP145">
+        <v>0.2103009</v>
+      </c>
+      <c r="ABT145">
+        <v>0.3732382</v>
+      </c>
+      <c r="ABV145">
+        <v>0.1836194</v>
+      </c>
+      <c r="ABW145">
+        <v>0.4539111</v>
+      </c>
+      <c r="ABX145">
+        <v>0.5227613</v>
+      </c>
+      <c r="ABY145">
+        <v>0.2653061</v>
+      </c>
+      <c r="ABZ145">
+        <v>0.9856596</v>
+      </c>
+      <c r="ACA145">
+        <v>0.2836874</v>
+      </c>
+      <c r="ACE145">
+        <v>0.1423388</v>
+      </c>
+      <c r="ACG145">
+        <v>0.1621054</v>
+      </c>
+      <c r="ACI145">
+        <v>0.1701504</v>
+      </c>
+      <c r="ACJ145">
+        <v>0.0434783</v>
+      </c>
+      <c r="ACK145">
+        <v>0</v>
+      </c>
+      <c r="ACM145">
+        <v>0.1718965</v>
+      </c>
+      <c r="ACN145">
+        <v>0.1862246</v>
+      </c>
+      <c r="ACP145">
+        <v>0.7555164</v>
+      </c>
+      <c r="ACU145">
+        <v>0.2820986</v>
+      </c>
+      <c r="ACW145">
+        <v>0.2246358</v>
+      </c>
+      <c r="ACX145">
+        <v>0.310559</v>
+      </c>
+      <c r="ADP145">
+        <v>0.1764741</v>
+      </c>
+      <c r="ADR145">
+        <v>2.1105603</v>
+      </c>
+      <c r="ADU145">
+        <v>0.7954545</v>
+      </c>
+      <c r="ADV145">
+        <v>0.4545455</v>
+      </c>
+      <c r="AEA145">
+        <v>1.0370588</v>
+      </c>
+      <c r="AEB145">
+        <v>0.9095261</v>
+      </c>
+      <c r="AEF145">
+        <v>0.4486412</v>
+      </c>
+      <c r="AEG145">
+        <v>0.4484305</v>
+      </c>
+      <c r="AEH145">
+        <v>0.2318388</v>
+      </c>
+      <c r="AEI145">
+        <v>0.3187047</v>
+      </c>
+      <c r="AEJ145">
+        <v>0.3984064</v>
+      </c>
+      <c r="AEL145">
+        <v>0.2072968</v>
+      </c>
+      <c r="AEU145">
+        <v>0.2675244</v>
+      </c>
+      <c r="AEZ145">
+        <v>0.5655836</v>
+      </c>
+      <c r="AFD145">
+        <v>0.3309619</v>
+      </c>
+      <c r="AFG145">
+        <v>0.6116635</v>
+      </c>
+      <c r="AFH145">
+        <v>0.7552044999999999</v>
+      </c>
+      <c r="AFK145">
+        <v>0.6633081</v>
+      </c>
+      <c r="AFL145">
+        <v>0.7638889</v>
+      </c>
+      <c r="AFN145">
+        <v>0</v>
+      </c>
+      <c r="AFT145">
+        <v>0.2628798</v>
+      </c>
+      <c r="AFU145">
+        <v>0.4044235</v>
+      </c>
+      <c r="AFX145">
+        <v>0.4129129</v>
+      </c>
+      <c r="AGA145">
+        <v>0.8203818</v>
+      </c>
+      <c r="AGC145">
+        <v>0.7221217</v>
+      </c>
+      <c r="AGE145">
+        <v>0.201005</v>
+      </c>
+      <c r="AGF145">
+        <v>0.7607192</v>
+      </c>
+      <c r="AGG145">
+        <v>0.3923767</v>
+      </c>
+      <c r="AGL145">
+        <v>0.2146581</v>
+      </c>
+      <c r="AGM145">
+        <v>0.0835588</v>
+      </c>
+      <c r="AGO145">
+        <v>0.308642</v>
+      </c>
+      <c r="AGP145">
+        <v>0.2171094</v>
+      </c>
+      <c r="AGV145">
+        <v>1.4937107</v>
+      </c>
+      <c r="AHA145">
+        <v>0.4176898</v>
+      </c>
+      <c r="AHB145">
+        <v>0.6801245</v>
+      </c>
+      <c r="AHD145">
+        <v>0.3865546</v>
+      </c>
+      <c r="AHH145">
+        <v>0.1501502</v>
+      </c>
+      <c r="AHN145">
+        <v>0.3913869</v>
+      </c>
+      <c r="AHP145">
+        <v>0.3529412</v>
+      </c>
+      <c r="AHS145">
+        <v>0.877193</v>
+      </c>
+      <c r="AHU145">
+        <v>0.6912442</v>
+      </c>
+      <c r="AHX145">
+        <v>0</v>
+      </c>
+      <c r="AIB145">
+        <v>0.7575758</v>
+      </c>
+      <c r="AID145">
+        <v>0.7339383</v>
+      </c>
+      <c r="AIE145">
+        <v>0</v>
+      </c>
+      <c r="AIF145">
+        <v>0.1949318</v>
+      </c>
+      <c r="AII145">
+        <v>0.5782429</v>
+      </c>
+      <c r="AIP145">
+        <v>0.3087631</v>
+      </c>
+      <c r="AIT145">
+        <v>0.30962</v>
+      </c>
+      <c r="AIV145">
+        <v>0.5154777</v>
+      </c>
+      <c r="AIY145">
+        <v>0.330826</v>
+      </c>
+      <c r="AIZ145">
+        <v>0.3262995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:936">
+      <c r="A146" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D146">
+        <v>1.2080262</v>
+      </c>
+      <c r="H146">
+        <v>0.1659371</v>
+      </c>
+      <c r="J146">
+        <v>0.0649351</v>
+      </c>
+      <c r="K146">
+        <v>0.1333333</v>
+      </c>
+      <c r="L146">
+        <v>0.159459</v>
+      </c>
+      <c r="P146">
+        <v>0.1529364</v>
+      </c>
+      <c r="R146">
+        <v>0.0775194</v>
+      </c>
+      <c r="U146">
+        <v>0.1879668</v>
+      </c>
+      <c r="X146">
+        <v>0.3846154</v>
+      </c>
+      <c r="Z146">
+        <v>1.2252475</v>
+      </c>
+      <c r="AB146">
+        <v>0.5816555</v>
+      </c>
+      <c r="AD146">
+        <v>0.4007493</v>
+      </c>
+      <c r="AG146">
+        <v>0.1504269</v>
+      </c>
+      <c r="AI146">
+        <v>0.1245508</v>
+      </c>
+      <c r="AN146">
+        <v>0.2628669</v>
+      </c>
+      <c r="AV146">
+        <v>0.6875</v>
+      </c>
+      <c r="AW146">
+        <v>0.4911342</v>
+      </c>
+      <c r="AX146">
+        <v>0.3150057</v>
+      </c>
+      <c r="BB146">
+        <v>0.0892857</v>
+      </c>
+      <c r="BC146">
+        <v>0.4955906</v>
+      </c>
+      <c r="BF146">
+        <v>0.6962765</v>
+      </c>
+      <c r="BH146">
+        <v>0.5131472</v>
+      </c>
+      <c r="BI146">
+        <v>0.2875321</v>
+      </c>
+      <c r="BJ146">
+        <v>0.1347709</v>
+      </c>
+      <c r="BM146">
+        <v>0.1126126</v>
+      </c>
+      <c r="BR146">
+        <v>0.5699243000000001</v>
+      </c>
+      <c r="BS146">
+        <v>0.4360465</v>
+      </c>
+      <c r="BT146">
+        <v>0.433513</v>
+      </c>
+      <c r="BW146">
+        <v>0.8374387</v>
+      </c>
+      <c r="BY146">
+        <v>0.6493506</v>
+      </c>
+      <c r="CC146">
+        <v>0</v>
+      </c>
+      <c r="CE146">
+        <v>0.4120879</v>
+      </c>
+      <c r="CL146">
+        <v>0.5952381</v>
+      </c>
+      <c r="CM146">
+        <v>0</v>
+      </c>
+      <c r="CN146">
+        <v>0.6573901</v>
+      </c>
+      <c r="CO146">
+        <v>0.6377551</v>
+      </c>
+      <c r="CR146">
+        <v>0</v>
+      </c>
+      <c r="CT146">
+        <v>0.8926342</v>
+      </c>
+      <c r="CY146">
+        <v>0.7111618</v>
+      </c>
+      <c r="DC146">
+        <v>0.3095763</v>
+      </c>
+      <c r="DD146">
+        <v>0.3632752</v>
+      </c>
+      <c r="DK146">
+        <v>0.2739726</v>
+      </c>
+      <c r="DN146">
+        <v>0.2627414</v>
+      </c>
+      <c r="DS146">
+        <v>2.8017305</v>
+      </c>
+      <c r="DW146">
+        <v>0.1997902</v>
+      </c>
+      <c r="DZ146">
+        <v>0.3108003</v>
+      </c>
+      <c r="EA146">
+        <v>0.4115226</v>
+      </c>
+      <c r="EK146">
+        <v>0.0642075</v>
+      </c>
+      <c r="EL146">
+        <v>0.8592154</v>
+      </c>
+      <c r="EM146">
+        <v>1.3513514</v>
+      </c>
+      <c r="EN146">
+        <v>0.1308901</v>
+      </c>
+      <c r="ER146">
+        <v>0.1282051</v>
+      </c>
+      <c r="ET146">
+        <v>0.3151059</v>
+      </c>
+      <c r="EZ146">
+        <v>0.7042254</v>
+      </c>
+      <c r="FA146">
+        <v>0.5445005000000001</v>
+      </c>
+      <c r="FB146">
+        <v>0.5238639</v>
+      </c>
+      <c r="FD146">
+        <v>0.8845461999999999</v>
+      </c>
+      <c r="FE146">
+        <v>0.5247996</v>
+      </c>
+      <c r="FG146">
+        <v>0.4410154</v>
+      </c>
+      <c r="FH146">
+        <v>0.7287449</v>
+      </c>
+      <c r="FI146">
+        <v>0.3188947</v>
+      </c>
+      <c r="FJ146">
+        <v>0.4428341</v>
+      </c>
+      <c r="FL146">
+        <v>0.4754727</v>
+      </c>
+      <c r="FO146">
+        <v>0.5910853</v>
+      </c>
+      <c r="FR146">
+        <v>0.8403657</v>
+      </c>
+      <c r="FS146">
+        <v>0.3376745</v>
+      </c>
+      <c r="FY146">
+        <v>1.1170348</v>
+      </c>
+      <c r="GB146">
+        <v>1.2807445</v>
+      </c>
+      <c r="GC146">
+        <v>0.3972506</v>
+      </c>
+      <c r="GD146">
+        <v>0</v>
+      </c>
+      <c r="GE146">
+        <v>0.5931474</v>
+      </c>
+      <c r="GF146">
+        <v>0.970393</v>
+      </c>
+      <c r="GJ146">
+        <v>0.1971412</v>
+      </c>
+      <c r="GS146">
+        <v>1.5452818</v>
+      </c>
+      <c r="GV146">
+        <v>0.5198777</v>
+      </c>
+      <c r="HA146">
+        <v>0.5692088</v>
+      </c>
+      <c r="HF146">
+        <v>0.6304028</v>
+      </c>
+      <c r="HH146">
+        <v>1.9685039</v>
+      </c>
+      <c r="HK146">
+        <v>0.988456</v>
+      </c>
+      <c r="HL146">
+        <v>0.1311294</v>
+      </c>
+      <c r="HN146">
+        <v>0.3779284</v>
+      </c>
+      <c r="HO146">
+        <v>0.8496732</v>
+      </c>
+      <c r="HP146">
+        <v>0.5076142</v>
+      </c>
+      <c r="HT146">
+        <v>0.5648166999999999</v>
+      </c>
+      <c r="HV146">
+        <v>0.4405505</v>
+      </c>
+      <c r="HX146">
+        <v>0.4967829</v>
+      </c>
+      <c r="HY146">
+        <v>0.1433745</v>
+      </c>
+      <c r="IC146">
+        <v>1.1454754</v>
+      </c>
+      <c r="IE146">
+        <v>1.0761589</v>
+      </c>
+      <c r="IH146">
+        <v>0.8530806</v>
+      </c>
+      <c r="II146">
+        <v>0.2076125</v>
+      </c>
+      <c r="IN146">
+        <v>0.2649596</v>
+      </c>
+      <c r="IR146">
+        <v>0.7606769</v>
+      </c>
+      <c r="IS146">
+        <v>0.1316251</v>
+      </c>
+      <c r="IZ146">
+        <v>0.3456221</v>
+      </c>
+      <c r="JB146">
+        <v>0.8551308</v>
+      </c>
+      <c r="JF146">
+        <v>0.5509642</v>
+      </c>
+      <c r="JG146">
+        <v>0.7031129</v>
+      </c>
+      <c r="JK146">
+        <v>0.2520449</v>
+      </c>
+      <c r="JO146">
+        <v>0.1838197</v>
+      </c>
+      <c r="JR146">
+        <v>0.281363</v>
+      </c>
+      <c r="JS146">
+        <v>0.3565062</v>
+      </c>
+      <c r="JX146">
+        <v>1.0682731</v>
+      </c>
+      <c r="KB146">
+        <v>0.4865433</v>
+      </c>
+      <c r="KC146">
+        <v>1.0366102</v>
+      </c>
+      <c r="KI146">
+        <v>0.1647037</v>
+      </c>
+      <c r="KJ146">
+        <v>0.4500891</v>
+      </c>
+      <c r="KO146">
+        <v>0.0322433</v>
+      </c>
+      <c r="KV146">
+        <v>0.8462532</v>
+      </c>
+      <c r="KW146">
+        <v>0.4746285</v>
+      </c>
+      <c r="LD146">
+        <v>0.7999849999999999</v>
+      </c>
+      <c r="LG146">
+        <v>0.3837591</v>
+      </c>
+      <c r="LH146">
+        <v>0.3875969</v>
+      </c>
+      <c r="LO146">
+        <v>0.1432665</v>
+      </c>
+      <c r="LR146">
+        <v>0.5076142</v>
+      </c>
+      <c r="LW146">
+        <v>1.0928962</v>
+      </c>
+      <c r="LX146">
+        <v>0.877193</v>
+      </c>
+      <c r="LY146">
+        <v>0.1082251</v>
+      </c>
+      <c r="MA146">
+        <v>0.1984527</v>
+      </c>
+      <c r="MC146">
+        <v>0</v>
+      </c>
+      <c r="ME146">
+        <v>0.9090909</v>
+      </c>
+      <c r="MF146">
+        <v>0.1935733</v>
+      </c>
+      <c r="MG146">
+        <v>0.3728713</v>
+      </c>
+      <c r="MI146">
+        <v>0.6194614000000001</v>
+      </c>
+      <c r="ML146">
+        <v>0</v>
+      </c>
+      <c r="MN146">
+        <v>0.592405</v>
+      </c>
+      <c r="MS146">
+        <v>0.6913838</v>
+      </c>
+      <c r="MU146">
+        <v>0.297619</v>
+      </c>
+      <c r="MW146">
+        <v>0.3215434</v>
+      </c>
+      <c r="MX146">
+        <v>0.2459016</v>
+      </c>
+      <c r="MZ146">
+        <v>0.1384853</v>
+      </c>
+      <c r="NC146">
+        <v>0.149107</v>
+      </c>
+      <c r="NE146">
+        <v>0.4844961</v>
+      </c>
+      <c r="NM146">
+        <v>0.5909743</v>
+      </c>
+      <c r="NP146">
+        <v>0.6954657</v>
+      </c>
+      <c r="NQ146">
+        <v>0</v>
+      </c>
+      <c r="NT146">
+        <v>0.2034884</v>
+      </c>
+      <c r="NW146">
+        <v>0.5369128</v>
+      </c>
+      <c r="NY146">
+        <v>1.0383065</v>
+      </c>
+      <c r="NZ146">
+        <v>1.1509683</v>
+      </c>
+      <c r="OD146">
+        <v>0.365401</v>
+      </c>
+      <c r="OE146">
+        <v>0.3207531</v>
+      </c>
+      <c r="OJ146">
+        <v>0.2290951</v>
+      </c>
+      <c r="OL146">
+        <v>0.3358665</v>
+      </c>
+      <c r="ON146">
+        <v>0.752584</v>
+      </c>
+      <c r="OP146">
+        <v>0.1760563</v>
+      </c>
+      <c r="OQ146">
+        <v>0.5491991000000001</v>
+      </c>
+      <c r="OR146">
+        <v>1.0084101</v>
+      </c>
+      <c r="OT146">
+        <v>0.4983389</v>
+      </c>
+      <c r="OV146">
+        <v>0.5394713</v>
+      </c>
+      <c r="OX146">
+        <v>0.4399323</v>
+      </c>
+      <c r="PB146">
+        <v>0.6270627</v>
+      </c>
+      <c r="PG146">
+        <v>0.6908817</v>
+      </c>
+      <c r="PJ146">
+        <v>0.2729885</v>
+      </c>
+      <c r="PK146">
+        <v>0.0764526</v>
+      </c>
+      <c r="PL146">
+        <v>0.8966245</v>
+      </c>
+      <c r="PM146">
+        <v>0.4818459</v>
+      </c>
+      <c r="PP146">
+        <v>0.3607669</v>
+      </c>
+      <c r="PR146">
+        <v>0.6008011</v>
+      </c>
+      <c r="PS146">
+        <v>0.3331622</v>
+      </c>
+      <c r="PY146">
+        <v>0.465691</v>
+      </c>
+      <c r="QD146">
+        <v>0.2990026</v>
+      </c>
+      <c r="QE146">
+        <v>0.6371483999999999</v>
+      </c>
+      <c r="QF146">
+        <v>0.3448276</v>
+      </c>
+      <c r="QK146">
+        <v>0.3592681</v>
+      </c>
+      <c r="QN146">
+        <v>1.0937431</v>
+      </c>
+      <c r="QO146">
+        <v>0.7898548</v>
+      </c>
+      <c r="QP146">
+        <v>0.5438906999999999</v>
+      </c>
+      <c r="QS146">
+        <v>1.1538462</v>
+      </c>
+      <c r="QU146">
+        <v>0.9545455</v>
+      </c>
+      <c r="QV146">
+        <v>0.7361158</v>
+      </c>
+      <c r="QX146">
+        <v>0.3590367</v>
+      </c>
+      <c r="QY146">
+        <v>0.3763375</v>
+      </c>
+      <c r="RB146">
+        <v>0.7945425</v>
+      </c>
+      <c r="RD146">
+        <v>0.6113639</v>
+      </c>
+      <c r="RI146">
+        <v>0.7846506</v>
+      </c>
+      <c r="RL146">
+        <v>0.5072464</v>
+      </c>
+      <c r="RQ146">
+        <v>0</v>
+      </c>
+      <c r="RT146">
+        <v>0.5760373</v>
+      </c>
+      <c r="RV146">
+        <v>0.257732</v>
+      </c>
+      <c r="RX146">
+        <v>0.9173116</v>
+      </c>
+      <c r="RY146">
+        <v>0.1391624</v>
+      </c>
+      <c r="SA146">
+        <v>0.07936509999999999</v>
+      </c>
+      <c r="SD146">
+        <v>0.6714876</v>
+      </c>
+      <c r="SG146">
+        <v>0.6815425000000001</v>
+      </c>
+      <c r="SH146">
+        <v>0.4580017</v>
+      </c>
+      <c r="SI146">
+        <v>0.9403108</v>
+      </c>
+      <c r="SM146">
+        <v>0.2237136</v>
+      </c>
+      <c r="SO146">
+        <v>0.2237136</v>
+      </c>
+      <c r="SP146">
+        <v>0.4230118</v>
+      </c>
+      <c r="SR146">
+        <v>0.2810972</v>
+      </c>
+      <c r="SW146">
+        <v>0.2049569</v>
+      </c>
+      <c r="SX146">
+        <v>0.1766784</v>
+      </c>
+      <c r="TS146">
+        <v>1.2615565</v>
+      </c>
+      <c r="TX146">
+        <v>0.1338238</v>
+      </c>
+      <c r="TY146">
+        <v>0.1691811</v>
+      </c>
+      <c r="UA146">
+        <v>0.6568832999999999</v>
+      </c>
+      <c r="UE146">
+        <v>0.5835657</v>
+      </c>
+      <c r="UF146">
+        <v>0.5170068</v>
+      </c>
+      <c r="UH146">
+        <v>0.56875</v>
+      </c>
+      <c r="UI146">
+        <v>0.9090909</v>
+      </c>
+      <c r="UK146">
+        <v>0.336239</v>
+      </c>
+      <c r="UN146">
+        <v>0.237078</v>
+      </c>
+      <c r="UP146">
+        <v>0.4512635</v>
+      </c>
+      <c r="US146">
+        <v>0.5630263</v>
+      </c>
+      <c r="UT146">
+        <v>0.3331564</v>
+      </c>
+      <c r="UU146">
+        <v>0.2096436</v>
+      </c>
+      <c r="UV146">
+        <v>0.07215009999999999</v>
+      </c>
+      <c r="UW146">
+        <v>0.8984566</v>
+      </c>
+      <c r="VA146">
+        <v>0.2796421</v>
+      </c>
+      <c r="VB146">
+        <v>0.1629423</v>
+      </c>
+      <c r="VO146">
+        <v>0</v>
+      </c>
+      <c r="VP146">
+        <v>0.1205788</v>
+      </c>
+      <c r="VS146">
+        <v>0.2053388</v>
+      </c>
+      <c r="VU146">
+        <v>0.6948595</v>
+      </c>
+      <c r="VW146">
+        <v>0.4464286</v>
+      </c>
+      <c r="VX146">
+        <v>1.983865</v>
+      </c>
+      <c r="VY146">
+        <v>0.6994209</v>
+      </c>
+      <c r="WB146">
+        <v>0.3034301</v>
+      </c>
+      <c r="WF146">
+        <v>0.09606000000000001</v>
+      </c>
+      <c r="WG146">
+        <v>0.8458364</v>
+      </c>
+      <c r="WL146">
+        <v>0.453467</v>
+      </c>
+      <c r="WM146">
+        <v>0.4081633</v>
+      </c>
+      <c r="WQ146">
+        <v>0.6084343</v>
+      </c>
+      <c r="WU146">
+        <v>0.1456876</v>
+      </c>
+      <c r="WW146">
+        <v>0.3321005</v>
+      </c>
+      <c r="WY146">
+        <v>0.3082192</v>
+      </c>
+      <c r="WZ146">
+        <v>0.4587853</v>
+      </c>
+      <c r="XD146">
+        <v>0.5453384</v>
+      </c>
+      <c r="XF146">
+        <v>0.2172565</v>
+      </c>
+      <c r="XG146">
+        <v>0.4658593</v>
+      </c>
+      <c r="XL146">
+        <v>0.5856667</v>
+      </c>
+      <c r="XM146">
+        <v>0.35815</v>
+      </c>
+      <c r="XT146">
+        <v>0.1564945</v>
+      </c>
+      <c r="XV146">
+        <v>0.5027034</v>
+      </c>
+      <c r="YB146">
+        <v>0.2904491</v>
+      </c>
+      <c r="YD146">
+        <v>0.2506266</v>
+      </c>
+      <c r="YH146">
+        <v>0.2923977</v>
+      </c>
+      <c r="YN146">
+        <v>0.7961688</v>
+      </c>
+      <c r="YO146">
+        <v>0.5874863</v>
+      </c>
+      <c r="YQ146">
+        <v>0.2710072</v>
+      </c>
+      <c r="YR146">
+        <v>0.8349983</v>
+      </c>
+      <c r="YX146">
+        <v>0.1548895</v>
+      </c>
+      <c r="YY146">
+        <v>0.9389671000000001</v>
+      </c>
+      <c r="ZL146">
+        <v>0.1735695</v>
+      </c>
+      <c r="ZM146">
+        <v>0.2774512</v>
+      </c>
+      <c r="ZO146">
+        <v>0.2651515</v>
+      </c>
+      <c r="ZR146">
+        <v>0.1118935</v>
+      </c>
+      <c r="ZS146">
+        <v>0.9619687</v>
+      </c>
+      <c r="ZV146">
+        <v>0.2956972</v>
+      </c>
+      <c r="ZW146">
+        <v>0.5087585</v>
+      </c>
+      <c r="ZX146">
+        <v>0.2967359</v>
+      </c>
+      <c r="ZZ146">
+        <v>0.5751228</v>
+      </c>
+      <c r="AAB146">
+        <v>0.3</v>
+      </c>
+      <c r="AAC146">
+        <v>0.4076857</v>
+      </c>
+      <c r="AAD146">
+        <v>0.472561</v>
+      </c>
+      <c r="AAF146">
+        <v>0.3852636</v>
+      </c>
+      <c r="AAH146">
+        <v>0.2246181</v>
+      </c>
+      <c r="AAJ146">
+        <v>0.2445613</v>
+      </c>
+      <c r="AAM146">
+        <v>0.1907863</v>
+      </c>
+      <c r="AAP146">
+        <v>0.5567427</v>
+      </c>
+      <c r="AAR146">
+        <v>0.5290562</v>
+      </c>
+      <c r="AAU146">
+        <v>0.6594724</v>
+      </c>
+      <c r="AAV146">
+        <v>0.1706403</v>
+      </c>
+      <c r="AAW146">
+        <v>0.1629504</v>
+      </c>
+      <c r="ABA146">
+        <v>0.3134796</v>
+      </c>
+      <c r="ABC146">
+        <v>0.3496503</v>
+      </c>
+      <c r="ABJ146">
+        <v>0.2912265</v>
+      </c>
+      <c r="ABL146">
+        <v>0.481131</v>
+      </c>
+      <c r="ABM146">
+        <v>0.502008</v>
+      </c>
+      <c r="ABN146">
+        <v>1.1619048</v>
+      </c>
+      <c r="ABP146">
+        <v>0.2001724</v>
+      </c>
+      <c r="ABT146">
+        <v>0.459007</v>
+      </c>
+      <c r="ABV146">
+        <v>0.0307589</v>
+      </c>
+      <c r="ABW146">
+        <v>0.4630364</v>
+      </c>
+      <c r="ABX146">
+        <v>0.5390760999999999</v>
+      </c>
+      <c r="ABY146">
+        <v>0.268595</v>
+      </c>
+      <c r="ABZ146">
+        <v>0.9668323</v>
+      </c>
+      <c r="ACA146">
+        <v>0.3436369</v>
+      </c>
+      <c r="ACE146">
+        <v>0.1544478</v>
+      </c>
+      <c r="ACG146">
+        <v>0.1651857</v>
+      </c>
+      <c r="ACI146">
+        <v>0.0910474</v>
+      </c>
+      <c r="ACJ146">
+        <v>0.0454545</v>
+      </c>
+      <c r="ACK146">
+        <v>0</v>
+      </c>
+      <c r="ACM146">
+        <v>0.1024087</v>
+      </c>
+      <c r="ACN146">
+        <v>0.1978543</v>
+      </c>
+      <c r="ACP146">
+        <v>0.5478178</v>
+      </c>
+      <c r="ACU146">
+        <v>0.1882344</v>
+      </c>
+      <c r="ACW146">
+        <v>0.1995654</v>
+      </c>
+      <c r="ACX146">
+        <v>0.304878</v>
+      </c>
+      <c r="ADP146">
+        <v>0.2710533</v>
+      </c>
+      <c r="ADR146">
+        <v>2.1864301</v>
+      </c>
+      <c r="ADU146">
+        <v>0.8216783</v>
+      </c>
+      <c r="ADV146">
+        <v>0.6473214</v>
+      </c>
+      <c r="AEA146">
+        <v>1.0522931</v>
+      </c>
+      <c r="AEB146">
+        <v>0.9759549</v>
+      </c>
+      <c r="AEF146">
+        <v>0.3368757</v>
+      </c>
+      <c r="AEG146">
+        <v>0.4608295</v>
+      </c>
+      <c r="AEH146">
+        <v>0.1659241</v>
+      </c>
+      <c r="AEI146">
+        <v>0.5104333</v>
+      </c>
+      <c r="AEJ146">
+        <v>0.4859611</v>
+      </c>
+      <c r="AEL146">
+        <v>0.2283105</v>
+      </c>
+      <c r="AEU146">
+        <v>0.2190749</v>
+      </c>
+      <c r="AEZ146">
+        <v>0.5555556</v>
+      </c>
+      <c r="AFD146">
+        <v>0.3058406</v>
+      </c>
+      <c r="AFG146">
+        <v>0.5703127</v>
+      </c>
+      <c r="AFH146">
+        <v>0.8254771</v>
+      </c>
+      <c r="AFK146">
+        <v>0.7155797</v>
+      </c>
+      <c r="AFL146">
+        <v>0.7362784</v>
+      </c>
+      <c r="AFN146">
+        <v>0</v>
+      </c>
+      <c r="AFT146">
+        <v>0.2435807</v>
+      </c>
+      <c r="AFU146">
+        <v>0.3666293</v>
+      </c>
+      <c r="AFX146">
+        <v>0.4176158</v>
+      </c>
+      <c r="AGA146">
+        <v>0.9330348000000001</v>
+      </c>
+      <c r="AGC146">
+        <v>0.7458251</v>
+      </c>
+      <c r="AGE146">
+        <v>0.0510204</v>
+      </c>
+      <c r="AGF146">
+        <v>0.7424242</v>
+      </c>
+      <c r="AGG146">
+        <v>0.4651163</v>
+      </c>
+      <c r="AGL146">
+        <v>0.2489885</v>
+      </c>
+      <c r="AGM146">
+        <v>0.08659790000000001</v>
+      </c>
+      <c r="AGO146">
+        <v>0.3144654</v>
+      </c>
+      <c r="AGP146">
+        <v>0.3320834</v>
+      </c>
+      <c r="AGV146">
+        <v>1.4237856</v>
+      </c>
+      <c r="AHA146">
+        <v>0.3804786</v>
+      </c>
+      <c r="AHB146">
+        <v>0.525363</v>
+      </c>
+      <c r="AHD146">
+        <v>0.6160046</v>
+      </c>
+      <c r="AHH146">
+        <v>0.4385965</v>
+      </c>
+      <c r="AHN146">
+        <v>0.4313777</v>
+      </c>
+      <c r="AHP146">
+        <v>0.2386635</v>
+      </c>
+      <c r="AHS146">
+        <v>0.4820937</v>
+      </c>
+      <c r="AHU146">
+        <v>0.2283105</v>
+      </c>
+      <c r="AHX146">
+        <v>0.2145923</v>
+      </c>
+      <c r="AIB146">
+        <v>0.8152174</v>
+      </c>
+      <c r="AID146">
+        <v>0.9681394</v>
+      </c>
+      <c r="AIE146">
+        <v>0</v>
+      </c>
+      <c r="AIF146">
+        <v>0.203252</v>
+      </c>
+      <c r="AII146">
+        <v>0.5915766</v>
+      </c>
+      <c r="AIP146">
+        <v>0.2762433</v>
+      </c>
+      <c r="AIT146">
+        <v>0.303871</v>
+      </c>
+      <c r="AIV146">
+        <v>0.4217571</v>
+      </c>
+      <c r="AIY146">
+        <v>0.0064825</v>
+      </c>
+      <c r="AIZ146">
+        <v>0.4211525</v>
+      </c>
+    </row>
+    <row r="147" spans="1:936">
+      <c r="A147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D147">
+        <v>1.4367816</v>
+      </c>
+      <c r="H147">
+        <v>0.187076</v>
+      </c>
+      <c r="J147">
+        <v>0.06406149999999999</v>
+      </c>
+      <c r="K147">
+        <v>0.1315789</v>
+      </c>
+      <c r="L147">
+        <v>0.3083369</v>
+      </c>
+      <c r="P147">
+        <v>0.2136679</v>
+      </c>
+      <c r="R147">
+        <v>0.251938</v>
+      </c>
+      <c r="U147">
+        <v>0.1949018</v>
+      </c>
+      <c r="X147">
+        <v>0.3846154</v>
+      </c>
+      <c r="Z147">
+        <v>1.1097257</v>
+      </c>
+      <c r="AB147">
+        <v>0.5187075</v>
+      </c>
+      <c r="AD147">
+        <v>0.33533</v>
+      </c>
+      <c r="AG147">
+        <v>0.1096515</v>
+      </c>
+      <c r="AI147">
+        <v>0.1085594</v>
+      </c>
+      <c r="AN147">
+        <v>0.448621</v>
+      </c>
+      <c r="AV147">
+        <v>0.6496063</v>
+      </c>
+      <c r="AW147">
+        <v>0.552365</v>
+      </c>
+      <c r="AX147">
+        <v>0.1169591</v>
+      </c>
+      <c r="BB147">
+        <v>0.0943396</v>
+      </c>
+      <c r="BC147">
+        <v>0.579887</v>
+      </c>
+      <c r="BF147">
+        <v>0.619354</v>
+      </c>
+      <c r="BH147">
+        <v>0.4987661</v>
+      </c>
+      <c r="BI147">
+        <v>0.279597</v>
+      </c>
+      <c r="BJ147">
+        <v>0.09157510000000001</v>
+      </c>
+      <c r="BM147">
+        <v>0.1221001</v>
+      </c>
+      <c r="BR147">
+        <v>0.729167</v>
+      </c>
+      <c r="BS147">
+        <v>0.4854369</v>
+      </c>
+      <c r="BT147">
+        <v>0.1966041</v>
+      </c>
+      <c r="BW147">
+        <v>1.0310067</v>
+      </c>
+      <c r="BY147">
+        <v>0.6355932</v>
+      </c>
+      <c r="CC147">
+        <v>0</v>
+      </c>
+      <c r="CE147">
+        <v>0.4306632</v>
+      </c>
+      <c r="CL147">
+        <v>0.6087321999999999</v>
+      </c>
+      <c r="CM147">
+        <v>0.1008065</v>
+      </c>
+      <c r="CN147">
+        <v>0.6409712</v>
+      </c>
+      <c r="CO147">
+        <v>0.6476684</v>
+      </c>
+      <c r="CR147">
+        <v>0.2526209</v>
+      </c>
+      <c r="CT147">
+        <v>0.8080808</v>
+      </c>
+      <c r="CY147">
+        <v>0.7492607</v>
+      </c>
+      <c r="DC147">
+        <v>0.3348176</v>
+      </c>
+      <c r="DD147">
+        <v>0.420172</v>
+      </c>
+      <c r="DK147">
+        <v>0.2747253</v>
+      </c>
+      <c r="DN147">
+        <v>0.2696929</v>
+      </c>
+      <c r="DS147">
+        <v>3.7644037</v>
+      </c>
+      <c r="DW147">
+        <v>0.2306466</v>
+      </c>
+      <c r="DZ147">
+        <v>0.4960317</v>
+      </c>
+      <c r="EA147">
+        <v>0.1052632</v>
+      </c>
+      <c r="EK147">
+        <v>0.1865931</v>
+      </c>
+      <c r="EL147">
+        <v>0.9393682</v>
+      </c>
+      <c r="EM147">
+        <v>1.5</v>
+      </c>
+      <c r="EN147">
+        <v>0.1351351</v>
+      </c>
+      <c r="ER147">
+        <v>0.1273885</v>
+      </c>
+      <c r="ET147">
+        <v>0.2481299</v>
+      </c>
+      <c r="EZ147">
+        <v>0.7471264</v>
+      </c>
+      <c r="FA147">
+        <v>0.3527337</v>
+      </c>
+      <c r="FB147">
+        <v>0.6462036</v>
+      </c>
+      <c r="FD147">
+        <v>0.9838956</v>
+      </c>
+      <c r="FE147">
+        <v>0.5240036</v>
+      </c>
+      <c r="FG147">
+        <v>0.3996109</v>
+      </c>
+      <c r="FH147">
+        <v>0.7659574</v>
+      </c>
+      <c r="FI147">
+        <v>0.3307443</v>
+      </c>
+      <c r="FJ147">
+        <v>0.3308519</v>
+      </c>
+      <c r="FL147">
+        <v>0.4208107</v>
+      </c>
+      <c r="FO147">
+        <v>0.7043651</v>
+      </c>
+      <c r="FR147">
+        <v>0.9350548</v>
+      </c>
+      <c r="FS147">
+        <v>0.3099391</v>
+      </c>
+      <c r="FY147">
+        <v>0.8403877</v>
+      </c>
+      <c r="GB147">
+        <v>1.1984626</v>
+      </c>
+      <c r="GC147">
+        <v>0.3799298</v>
+      </c>
+      <c r="GD147">
+        <v>0</v>
+      </c>
+      <c r="GE147">
+        <v>0.7080900999999999</v>
+      </c>
+      <c r="GF147">
+        <v>1.3862274</v>
+      </c>
+      <c r="GJ147">
+        <v>0.2240701</v>
+      </c>
+      <c r="GS147">
+        <v>1.5722128</v>
+      </c>
+      <c r="GV147">
+        <v>0.5059524</v>
+      </c>
+      <c r="HA147">
+        <v>0.7385976</v>
+      </c>
+      <c r="HF147">
+        <v>0.6092184</v>
+      </c>
+      <c r="HH147">
+        <v>1.1111111</v>
+      </c>
+      <c r="HK147">
+        <v>0.8716876</v>
+      </c>
+      <c r="HL147">
+        <v>0.3567393</v>
+      </c>
+      <c r="HN147">
+        <v>0.4367635</v>
+      </c>
+      <c r="HO147">
+        <v>0.5952381</v>
+      </c>
+      <c r="HP147">
+        <v>0.4926108</v>
+      </c>
+      <c r="HT147">
+        <v>0.5482058</v>
+      </c>
+      <c r="HV147">
+        <v>0.4250916</v>
+      </c>
+      <c r="HX147">
+        <v>0.3202706</v>
+      </c>
+      <c r="HY147">
+        <v>0.1325804</v>
+      </c>
+      <c r="IC147">
+        <v>1.1184211</v>
+      </c>
+      <c r="IE147">
+        <v>0.7234727</v>
+      </c>
+      <c r="IH147">
+        <v>0.6435644</v>
+      </c>
+      <c r="II147">
+        <v>0.2135231</v>
+      </c>
+      <c r="IN147">
+        <v>0.3667056</v>
+      </c>
+      <c r="IR147">
+        <v>0.9388168</v>
+      </c>
+      <c r="IS147">
+        <v>0.1380199</v>
+      </c>
+      <c r="IZ147">
+        <v>0.3138075</v>
+      </c>
+      <c r="JB147">
+        <v>0.5876068</v>
+      </c>
+      <c r="JF147">
+        <v>0.5555556</v>
+      </c>
+      <c r="JG147">
+        <v>0.6239194</v>
+      </c>
+      <c r="JK147">
+        <v>0.2142296</v>
+      </c>
+      <c r="JO147">
+        <v>0.1878208</v>
+      </c>
+      <c r="JR147">
+        <v>0.2819556</v>
+      </c>
+      <c r="JS147">
+        <v>0.3642987</v>
+      </c>
+      <c r="JX147">
+        <v>0.7207207</v>
+      </c>
+      <c r="KB147">
+        <v>0.4769438</v>
+      </c>
+      <c r="KC147">
+        <v>1.0688192</v>
+      </c>
+      <c r="KI147">
+        <v>0.1015267</v>
+      </c>
+      <c r="KJ147">
+        <v>0.3368329</v>
+      </c>
+      <c r="KO147">
+        <v>0.1274455</v>
+      </c>
+      <c r="KV147">
+        <v>0.5744823</v>
+      </c>
+      <c r="KW147">
+        <v>0.4912312</v>
+      </c>
+      <c r="LD147">
+        <v>0.8790698</v>
+      </c>
+      <c r="LG147">
+        <v>0.1825525</v>
+      </c>
+      <c r="LH147">
+        <v>0</v>
+      </c>
+      <c r="LO147">
+        <v>0</v>
+      </c>
+      <c r="LR147">
+        <v>0.4926108</v>
+      </c>
+      <c r="LW147">
+        <v>1.0989011</v>
+      </c>
+      <c r="LY147">
+        <v>0.1085776</v>
+      </c>
+      <c r="MA147">
+        <v>0.1908321</v>
+      </c>
+      <c r="MC147">
+        <v>0</v>
+      </c>
+      <c r="ME147">
+        <v>0.8982036</v>
+      </c>
+      <c r="MF147">
+        <v>0.1936151</v>
+      </c>
+      <c r="MG147">
+        <v>0.2996378</v>
+      </c>
+      <c r="MI147">
+        <v>0.791859</v>
+      </c>
+      <c r="ML147">
+        <v>0</v>
+      </c>
+      <c r="MN147">
+        <v>0.7781758</v>
+      </c>
+      <c r="MS147">
+        <v>0.7192977</v>
+      </c>
+      <c r="MU147">
+        <v>0.4944675</v>
+      </c>
+      <c r="MW147">
+        <v>0</v>
+      </c>
+      <c r="MX147">
+        <v>0.225</v>
+      </c>
+      <c r="MZ147">
+        <v>0.1963841</v>
+      </c>
+      <c r="NC147">
+        <v>0.1419584</v>
+      </c>
+      <c r="NE147">
+        <v>0.6372549</v>
+      </c>
+      <c r="NM147">
+        <v>0.5111198</v>
+      </c>
+      <c r="NP147">
+        <v>0.7165404</v>
+      </c>
+      <c r="NQ147">
+        <v>0</v>
+      </c>
+      <c r="NT147">
+        <v>0.0593472</v>
+      </c>
+      <c r="NW147">
+        <v>0.5095541</v>
+      </c>
+      <c r="NY147">
+        <v>1.3368056</v>
+      </c>
+      <c r="NZ147">
+        <v>1.1594407</v>
+      </c>
+      <c r="OD147">
+        <v>0.2553563</v>
+      </c>
+      <c r="OE147">
+        <v>0.4108436</v>
+      </c>
+      <c r="OJ147">
+        <v>0.2267574</v>
+      </c>
+      <c r="OL147">
+        <v>0.2696768</v>
+      </c>
+      <c r="ON147">
+        <v>0.6527501999999999</v>
+      </c>
+      <c r="OP147">
+        <v>0.3558719</v>
+      </c>
+      <c r="OQ147">
+        <v>0.4716981</v>
+      </c>
+      <c r="OR147">
+        <v>1.0857963</v>
+      </c>
+      <c r="OT147">
+        <v>0.6472492</v>
+      </c>
+      <c r="OV147">
+        <v>0.4859099</v>
+      </c>
+      <c r="OX147">
+        <v>0.4921423</v>
+      </c>
+      <c r="PB147">
+        <v>0.7276507</v>
+      </c>
+      <c r="PG147">
+        <v>0.4837103</v>
+      </c>
+      <c r="PJ147">
+        <v>0.7031857</v>
+      </c>
+      <c r="PK147">
+        <v>0.07668709999999999</v>
+      </c>
+      <c r="PL147">
+        <v>1.0649627</v>
+      </c>
+      <c r="PM147">
+        <v>0.5517942</v>
+      </c>
+      <c r="PP147">
+        <v>0.2129006</v>
+      </c>
+      <c r="PR147">
+        <v>0.6460876</v>
+      </c>
+      <c r="PS147">
+        <v>0.3759084</v>
+      </c>
+      <c r="PY147">
+        <v>0.2242888</v>
+      </c>
+      <c r="QD147">
+        <v>0.2262809</v>
+      </c>
+      <c r="QE147">
+        <v>0.9892915</v>
+      </c>
+      <c r="QF147">
+        <v>0.3412969</v>
+      </c>
+      <c r="QK147">
+        <v>0.4484202</v>
+      </c>
+      <c r="QN147">
+        <v>1.0900413</v>
+      </c>
+      <c r="QO147">
+        <v>0.7140528</v>
+      </c>
+      <c r="QP147">
+        <v>0.4352442</v>
+      </c>
+      <c r="QS147">
+        <v>1.4394962</v>
+      </c>
+      <c r="QU147">
+        <v>0.8878505</v>
+      </c>
+      <c r="QV147">
+        <v>0.7527933999999999</v>
+      </c>
+      <c r="QX147">
+        <v>0.2432989</v>
+      </c>
+      <c r="QY147">
+        <v>0.3953501</v>
+      </c>
+      <c r="RB147">
+        <v>0.8660508</v>
+      </c>
+      <c r="RD147">
+        <v>0.5114097</v>
+      </c>
+      <c r="RI147">
+        <v>0.8333333000000001</v>
+      </c>
+      <c r="RL147">
+        <v>0.5263158</v>
+      </c>
+      <c r="RQ147">
+        <v>0</v>
+      </c>
+      <c r="RT147">
+        <v>0.5576559</v>
+      </c>
+      <c r="RV147">
+        <v>0.8196721</v>
+      </c>
+      <c r="RX147">
+        <v>0.7349177</v>
+      </c>
+      <c r="RY147">
+        <v>0.2299167</v>
+      </c>
+      <c r="SA147">
+        <v>0.3968254</v>
+      </c>
+      <c r="SD147">
+        <v>0.8711374</v>
+      </c>
+      <c r="SG147">
+        <v>0.7123338</v>
+      </c>
+      <c r="SH147">
+        <v>0.4376968</v>
+      </c>
+      <c r="SI147">
+        <v>0.785092</v>
+      </c>
+      <c r="SM147">
+        <v>0.4705882</v>
+      </c>
+      <c r="SO147">
+        <v>0.4366812</v>
+      </c>
+      <c r="SP147">
+        <v>0.4340278</v>
+      </c>
+      <c r="SR147">
+        <v>0.3419941</v>
+      </c>
+      <c r="SW147">
+        <v>0.3911797</v>
+      </c>
+      <c r="SX147">
+        <v>0.1760563</v>
+      </c>
+      <c r="TS147">
+        <v>1.7095864</v>
+      </c>
+      <c r="TX147">
+        <v>0.1415094</v>
+      </c>
+      <c r="TY147">
+        <v>0.3452874</v>
+      </c>
+      <c r="UA147">
+        <v>0.6624383</v>
+      </c>
+      <c r="UE147">
+        <v>0.6013798</v>
+      </c>
+      <c r="UF147">
+        <v>0.2721088</v>
+      </c>
+      <c r="UH147">
+        <v>0.3636364</v>
+      </c>
+      <c r="UI147">
+        <v>0.9411146</v>
+      </c>
+      <c r="UK147">
+        <v>0.3532751</v>
+      </c>
+      <c r="UN147">
+        <v>0.2009856</v>
+      </c>
+      <c r="UP147">
+        <v>0.4480287</v>
+      </c>
+      <c r="US147">
+        <v>0.3654838</v>
+      </c>
+      <c r="UT147">
+        <v>0.4692153</v>
+      </c>
+      <c r="UU147">
+        <v>0.1031992</v>
+      </c>
+      <c r="UV147">
+        <v>0</v>
+      </c>
+      <c r="UW147">
+        <v>0.8596699</v>
+      </c>
+      <c r="VA147">
+        <v>0.0570776</v>
+      </c>
+      <c r="VB147">
+        <v>0.1652502</v>
+      </c>
+      <c r="VO147">
+        <v>0</v>
+      </c>
+      <c r="VP147">
+        <v>0.1233553</v>
+      </c>
+      <c r="VS147">
+        <v>0.2159827</v>
+      </c>
+      <c r="VU147">
+        <v>0.8309807</v>
+      </c>
+      <c r="VW147">
+        <v>0.4347826</v>
+      </c>
+      <c r="VX147">
+        <v>1.880531</v>
+      </c>
+      <c r="VY147">
+        <v>0.6796763</v>
+      </c>
+      <c r="WB147">
+        <v>0.3825137</v>
+      </c>
+      <c r="WF147">
+        <v>0.0996491</v>
+      </c>
+      <c r="WG147">
+        <v>0.8258375999999999</v>
+      </c>
+      <c r="WL147">
+        <v>0.4824939</v>
+      </c>
+      <c r="WM147">
+        <v>0</v>
+      </c>
+      <c r="WQ147">
+        <v>0.4652087</v>
+      </c>
+      <c r="WU147">
+        <v>0.1429388</v>
+      </c>
+      <c r="WW147">
+        <v>0.4870638</v>
+      </c>
+      <c r="WY147">
+        <v>0.1388889</v>
+      </c>
+      <c r="WZ147">
+        <v>0.5200988</v>
+      </c>
+      <c r="XD147">
+        <v>0.5171578999999999</v>
+      </c>
+      <c r="XF147">
+        <v>0.2203389</v>
+      </c>
+      <c r="XG147">
+        <v>0.4571618</v>
+      </c>
+      <c r="XL147">
+        <v>0.7318137</v>
+      </c>
+      <c r="XM147">
+        <v>0.3174603</v>
+      </c>
+      <c r="XT147">
+        <v>0.1557632</v>
+      </c>
+      <c r="XV147">
+        <v>0.4454227</v>
+      </c>
+      <c r="YB147">
+        <v>0.5013199</v>
+      </c>
+      <c r="YD147">
+        <v>0.3164557</v>
+      </c>
+      <c r="YH147">
+        <v>0</v>
+      </c>
+      <c r="YN147">
+        <v>1.0112288</v>
+      </c>
+      <c r="YO147">
+        <v>0.313246</v>
+      </c>
+      <c r="YQ147">
+        <v>0.2712112</v>
+      </c>
+      <c r="YR147">
+        <v>0.972522</v>
+      </c>
+      <c r="YX147">
+        <v>0.2016812</v>
+      </c>
+      <c r="YY147">
+        <v>0.4524887</v>
+      </c>
+      <c r="ZL147">
+        <v>0.1776573</v>
+      </c>
+      <c r="ZM147">
+        <v>0.265674</v>
+      </c>
+      <c r="ZO147">
+        <v>0.4650437</v>
+      </c>
+      <c r="ZR147">
+        <v>0.1164037</v>
+      </c>
+      <c r="ZS147">
+        <v>0.9398907</v>
+      </c>
+      <c r="ZV147">
+        <v>0.2579807</v>
+      </c>
+      <c r="ZW147">
+        <v>0.590784</v>
+      </c>
+      <c r="ZX147">
+        <v>0.2994012</v>
+      </c>
+      <c r="ZZ147">
+        <v>0.5642023</v>
+      </c>
+      <c r="AAB147">
+        <v>0</v>
+      </c>
+      <c r="AAC147">
+        <v>0.4199981</v>
+      </c>
+      <c r="AAD147">
+        <v>0.2272727</v>
+      </c>
+      <c r="AAF147">
+        <v>0.3886483</v>
+      </c>
+      <c r="AAH147">
+        <v>0.2099076</v>
+      </c>
+      <c r="AAJ147">
+        <v>0.200912</v>
+      </c>
+      <c r="AAM147">
+        <v>0.182491</v>
+      </c>
+      <c r="AAP147">
+        <v>0.4933629</v>
+      </c>
+      <c r="AAR147">
+        <v>0.5380179</v>
+      </c>
+      <c r="AAU147">
+        <v>0.5257009</v>
+      </c>
+      <c r="AAV147">
+        <v>0.188575</v>
+      </c>
+      <c r="AAW147">
+        <v>0.1639344</v>
+      </c>
+      <c r="ABA147">
+        <v>0.2994012</v>
+      </c>
+      <c r="ABC147">
+        <v>0.4848485</v>
+      </c>
+      <c r="ABJ147">
+        <v>0.2067307</v>
+      </c>
+      <c r="ABL147">
+        <v>0.2970237</v>
+      </c>
+      <c r="ABM147">
+        <v>0.7268951</v>
+      </c>
+      <c r="ABN147">
+        <v>0.6515837</v>
+      </c>
+      <c r="ABP147">
+        <v>0.2687663</v>
+      </c>
+      <c r="ABT147">
+        <v>0.5009371</v>
+      </c>
+      <c r="ABV147">
+        <v>0.0310118</v>
+      </c>
+      <c r="ABW147">
+        <v>0.5879546</v>
+      </c>
+      <c r="ABX147">
+        <v>0.6797957</v>
+      </c>
+      <c r="ABY147">
+        <v>0.1626016</v>
+      </c>
+      <c r="ABZ147">
+        <v>1.0071097</v>
+      </c>
+      <c r="ACA147">
+        <v>0.280355</v>
+      </c>
+      <c r="ACE147">
+        <v>0.1402604</v>
+      </c>
+      <c r="ACG147">
+        <v>0.1294514</v>
+      </c>
+      <c r="ACI147">
+        <v>0.2579212</v>
+      </c>
+      <c r="ACJ147">
+        <v>0.0451467</v>
+      </c>
+      <c r="ACK147">
+        <v>0</v>
+      </c>
+      <c r="ACM147">
+        <v>0.2224749</v>
+      </c>
+      <c r="ACN147">
+        <v>0.289367</v>
+      </c>
+      <c r="ACP147">
+        <v>0.4904203</v>
+      </c>
+      <c r="ACU147">
+        <v>0.2707375</v>
+      </c>
+      <c r="ACW147">
+        <v>0.2224981</v>
+      </c>
+      <c r="ACX147">
+        <v>0.2994012</v>
+      </c>
+      <c r="ADP147">
+        <v>0.4638219</v>
+      </c>
+      <c r="ADR147">
+        <v>2.1443834</v>
+      </c>
+      <c r="ADU147">
+        <v>0.8703704</v>
+      </c>
+      <c r="ADV147">
+        <v>1.0985533</v>
+      </c>
+      <c r="AEA147">
+        <v>0.7732031</v>
+      </c>
+      <c r="AEB147">
+        <v>1.1615917</v>
+      </c>
+      <c r="AEF147">
+        <v>0.3197483</v>
+      </c>
+      <c r="AEG147">
+        <v>0.2409639</v>
+      </c>
+      <c r="AEH147">
+        <v>0.1699912</v>
+      </c>
+      <c r="AEI147">
+        <v>0.509952</v>
+      </c>
+      <c r="AEJ147">
+        <v>0.3837719</v>
+      </c>
+      <c r="AEL147">
+        <v>0.2408478</v>
+      </c>
+      <c r="AEU147">
+        <v>0.3371648</v>
+      </c>
+      <c r="AEZ147">
+        <v>0.1851852</v>
+      </c>
+      <c r="AFD147">
+        <v>0.2269313</v>
+      </c>
+      <c r="AFG147">
+        <v>0.6542763</v>
+      </c>
+      <c r="AFH147">
+        <v>0.8260513</v>
+      </c>
+      <c r="AFK147">
+        <v>0.9477124</v>
+      </c>
+      <c r="AFL147">
+        <v>0.7392473000000001</v>
+      </c>
+      <c r="AFN147">
+        <v>0</v>
+      </c>
+      <c r="AFT147">
+        <v>0.1740212</v>
+      </c>
+      <c r="AFU147">
+        <v>0.2266456</v>
+      </c>
+      <c r="AFX147">
+        <v>0.4147813</v>
+      </c>
+      <c r="AGA147">
+        <v>0.8943923</v>
+      </c>
+      <c r="AGC147">
+        <v>0.6451246</v>
+      </c>
+      <c r="AGE147">
+        <v>0.2541394</v>
+      </c>
+      <c r="AGF147">
+        <v>0.7814991999999999</v>
+      </c>
+      <c r="AGG147">
+        <v>0.6144393</v>
+      </c>
+      <c r="AGL147">
+        <v>0.1891716</v>
+      </c>
+      <c r="AGM147">
+        <v>0.09174309999999999</v>
+      </c>
+      <c r="AGO147">
+        <v>0.3242542</v>
+      </c>
+      <c r="AGP147">
+        <v>0.3390187</v>
+      </c>
+      <c r="AGV147">
+        <v>2.0729685</v>
+      </c>
+      <c r="AHA147">
+        <v>0.3638045</v>
+      </c>
+      <c r="AHB147">
+        <v>0.6147255</v>
+      </c>
+      <c r="AHD147">
+        <v>0.4864709</v>
+      </c>
+      <c r="AHH147">
+        <v>0.7692308</v>
+      </c>
+      <c r="AHN147">
+        <v>0.3835798</v>
+      </c>
+      <c r="AHP147">
+        <v>0</v>
+      </c>
+      <c r="AHS147">
+        <v>0.4723347</v>
+      </c>
+      <c r="AHU147">
+        <v>0.1176471</v>
+      </c>
+      <c r="AHX147">
+        <v>0.2242152</v>
+      </c>
+      <c r="AIB147">
+        <v>0.8379888</v>
+      </c>
+      <c r="AID147">
+        <v>0.7458154</v>
+      </c>
+      <c r="AIE147">
+        <v>0.3058104</v>
+      </c>
+      <c r="AIF147">
+        <v>0.5208333000000001</v>
+      </c>
+      <c r="AII147">
+        <v>0.3619928</v>
+      </c>
+      <c r="AIP147">
+        <v>0.2219611</v>
+      </c>
+      <c r="AIT147">
+        <v>0.285388</v>
+      </c>
+      <c r="AIV147">
+        <v>0.3213058</v>
+      </c>
+      <c r="AIY147">
+        <v>0.1852177</v>
+      </c>
+      <c r="AIZ147">
+        <v>0.4384687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:936">
+      <c r="A148" t="s">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
